--- a/Data/National Accounts/PSA-06IOG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-06IOG_2018PSNA_Ann.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\IAD activities\6. MAS_Series\NAP\NAP detailed series as of April 2021\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="75">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -265,16 +265,19 @@
     <t>Unit: In million Philippine pesos</t>
   </si>
   <si>
-    <t>Annual 2000 to 2020</t>
-  </si>
-  <si>
-    <t>Annual 2001 to 2020</t>
-  </si>
-  <si>
     <t>2019 - 2020</t>
   </si>
   <si>
-    <t>As of April 2021</t>
+    <t>2020 - 2021</t>
+  </si>
+  <si>
+    <t>As of January 2022</t>
+  </si>
+  <si>
+    <t>Annual 2000 to 2021</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2021</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -698,17 +709,17 @@
   <dimension ref="A1:CR328"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7265625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.453125" style="1" customWidth="1"/>
-    <col min="2" max="22" width="10.453125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="7.7265625" style="1"/>
+    <col min="2" max="23" width="10.453125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="7.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.25">
@@ -723,7 +734,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
@@ -733,7 +744,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
@@ -766,6 +777,7 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -833,6 +845,9 @@
       </c>
       <c r="V10" s="6">
         <v>2020</v>
+      </c>
+      <c r="W10" s="6">
+        <v>2021</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -905,7 +920,9 @@
       <c r="V12" s="8">
         <v>1020718.6693309145</v>
       </c>
-      <c r="W12" s="9"/>
+      <c r="W12" s="8">
+        <v>1205555.8103618815</v>
+      </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -1047,7 +1064,9 @@
       <c r="V13" s="11">
         <v>521639.24364117411</v>
       </c>
-      <c r="W13" s="9"/>
+      <c r="W13" s="11">
+        <v>596443.86650989309</v>
+      </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -1189,7 +1208,9 @@
       <c r="V14" s="11">
         <v>229187.08675705385</v>
       </c>
-      <c r="W14" s="9"/>
+      <c r="W14" s="11">
+        <v>286721.66147788044</v>
+      </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -1331,7 +1352,9 @@
       <c r="V15" s="11">
         <v>10117.325872447924</v>
       </c>
-      <c r="W15" s="9"/>
+      <c r="W15" s="11">
+        <v>9840.4370090463017</v>
+      </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -1473,7 +1496,9 @@
       <c r="V16" s="11">
         <v>56022.871080910314</v>
       </c>
-      <c r="W16" s="9"/>
+      <c r="W16" s="11">
+        <v>70420.85223334677</v>
+      </c>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
@@ -1615,7 +1640,9 @@
       <c r="V17" s="11">
         <v>77813.807639305058</v>
       </c>
-      <c r="W17" s="9"/>
+      <c r="W17" s="11">
+        <v>98691.090775793738</v>
+      </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
@@ -1757,7 +1784,9 @@
       <c r="V18" s="11">
         <v>80356.509946028818</v>
       </c>
-      <c r="W18" s="9"/>
+      <c r="W18" s="11">
+        <v>78776.607530005451</v>
+      </c>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
@@ -1899,7 +1928,9 @@
       <c r="V19" s="11">
         <v>32736.904464134466</v>
       </c>
-      <c r="W19" s="9"/>
+      <c r="W19" s="11">
+        <v>49733.243923692644</v>
+      </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
@@ -2041,7 +2072,9 @@
       <c r="V20" s="11">
         <v>10061.925094591537</v>
       </c>
-      <c r="W20" s="9"/>
+      <c r="W20" s="11">
+        <v>12502.896063598522</v>
+      </c>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
@@ -2183,7 +2216,9 @@
       <c r="V21" s="11">
         <v>2782.9948352683637</v>
       </c>
-      <c r="W21" s="9"/>
+      <c r="W21" s="11">
+        <v>2425.1548386244203</v>
+      </c>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
@@ -2325,7 +2360,9 @@
       <c r="V22" s="11">
         <v>458454.88427379046</v>
       </c>
-      <c r="W22" s="9"/>
+      <c r="W22" s="11">
+        <v>857365.8493678784</v>
+      </c>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
@@ -2467,7 +2504,9 @@
       <c r="V23" s="11">
         <v>268326.70074534102</v>
       </c>
-      <c r="W23" s="9"/>
+      <c r="W23" s="11">
+        <v>318820.78723146109</v>
+      </c>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
@@ -2609,7 +2648,9 @@
       <c r="V24" s="11">
         <v>55187.53838924611</v>
       </c>
-      <c r="W24" s="9"/>
+      <c r="W24" s="11">
+        <v>54455.471700839451</v>
+      </c>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
@@ -2751,7 +2792,9 @@
       <c r="V25" s="11">
         <v>259344.87096822535</v>
       </c>
-      <c r="W25" s="9"/>
+      <c r="W25" s="11">
+        <v>380380.11768045661</v>
+      </c>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
@@ -2893,7 +2936,9 @@
       <c r="V26" s="11">
         <v>383462.29871870222</v>
       </c>
-      <c r="W26" s="9"/>
+      <c r="W26" s="11">
+        <v>472120.20749558957</v>
+      </c>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
@@ -3035,7 +3080,9 @@
       <c r="V27" s="11">
         <v>57058.173107891358</v>
       </c>
-      <c r="W27" s="9"/>
+      <c r="W27" s="11">
+        <v>69570.474058333522</v>
+      </c>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
@@ -3177,7 +3224,9 @@
       <c r="V28" s="11">
         <v>148767.7054967513</v>
       </c>
-      <c r="W28" s="9"/>
+      <c r="W28" s="11">
+        <v>169529.64496637668</v>
+      </c>
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
@@ -3319,7 +3368,9 @@
       <c r="V29" s="11">
         <v>243824.95889001078</v>
       </c>
-      <c r="W29" s="9"/>
+      <c r="W29" s="11">
+        <v>312652.34915908356</v>
+      </c>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
@@ -3461,7 +3512,9 @@
       <c r="V30" s="11">
         <v>137155.7900077026</v>
       </c>
-      <c r="W30" s="9"/>
+      <c r="W30" s="11">
+        <v>171953.56240557783</v>
+      </c>
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
@@ -3603,7 +3656,9 @@
       <c r="V31" s="11">
         <v>60938.026676906229</v>
       </c>
-      <c r="W31" s="9"/>
+      <c r="W31" s="11">
+        <v>64861.96112653875</v>
+      </c>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
@@ -3745,7 +3800,9 @@
       <c r="V32" s="11">
         <v>103748.82598809635</v>
       </c>
-      <c r="W32" s="9"/>
+      <c r="W32" s="11">
+        <v>227609.09437343935</v>
+      </c>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
@@ -3887,7 +3944,9 @@
       <c r="V33" s="11">
         <v>58074.179932253595</v>
       </c>
-      <c r="W33" s="9"/>
+      <c r="W33" s="11">
+        <v>64955.752967743822</v>
+      </c>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
@@ -4029,7 +4088,9 @@
       <c r="V34" s="11">
         <v>65877.997931654449</v>
       </c>
-      <c r="W34" s="9"/>
+      <c r="W34" s="11">
+        <v>88795.527905596595</v>
+      </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -4171,7 +4232,9 @@
       <c r="V35" s="11">
         <v>13037.516445690893</v>
       </c>
-      <c r="W35" s="9"/>
+      <c r="W35" s="11">
+        <v>22474.559966391338</v>
+      </c>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
@@ -4313,7 +4376,9 @@
       <c r="V36" s="11">
         <v>95565.540716557822</v>
       </c>
-      <c r="W36" s="9"/>
+      <c r="W36" s="11">
+        <v>121419.96315979636</v>
+      </c>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
@@ -4455,7 +4520,9 @@
       <c r="V37" s="11">
         <v>115732.52452288321</v>
       </c>
-      <c r="W37" s="9"/>
+      <c r="W37" s="11">
+        <v>156213.16069184488</v>
+      </c>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
@@ -4597,7 +4664,9 @@
       <c r="V38" s="11">
         <v>65105.858344782435</v>
       </c>
-      <c r="W38" s="9"/>
+      <c r="W38" s="11">
+        <v>72505.195846859933</v>
+      </c>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
@@ -4739,7 +4808,9 @@
       <c r="V39" s="11">
         <v>52719.188992459065</v>
       </c>
-      <c r="W39" s="9"/>
+      <c r="W39" s="11">
+        <v>68489.665157669937</v>
+      </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
@@ -4881,7 +4952,9 @@
       <c r="V40" s="11">
         <v>28464.336853068613</v>
       </c>
-      <c r="W40" s="9"/>
+      <c r="W40" s="11">
+        <v>27357.903597838649</v>
+      </c>
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
@@ -5023,7 +5096,9 @@
       <c r="V41" s="11">
         <v>1098454.3995822715</v>
       </c>
-      <c r="W41" s="9"/>
+      <c r="W41" s="11">
+        <v>1372406.6142601296</v>
+      </c>
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
@@ -5262,7 +5337,9 @@
       <c r="V43" s="8">
         <v>4790019.9859151999</v>
       </c>
-      <c r="W43" s="9"/>
+      <c r="W43" s="8">
+        <v>6299493.6734813275</v>
+      </c>
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
@@ -5360,6 +5437,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="12"/>
       <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
@@ -5388,7 +5466,7 @@
       <c r="T46" s="14"/>
       <c r="U46" s="14"/>
       <c r="V46" s="14"/>
-      <c r="W46" s="9"/>
+      <c r="W46" s="14"/>
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
@@ -5572,7 +5650,7 @@
     </row>
     <row r="50" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:96" x14ac:dyDescent="0.25">
@@ -5582,7 +5660,7 @@
     </row>
     <row r="53" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:96" x14ac:dyDescent="0.25">
@@ -5615,6 +5693,7 @@
       <c r="T56" s="15"/>
       <c r="U56" s="15"/>
       <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
     </row>
     <row r="57" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
@@ -5682,6 +5761,9 @@
       </c>
       <c r="V57" s="16">
         <v>2020</v>
+      </c>
+      <c r="W57" s="16">
+        <v>2021</v>
       </c>
     </row>
     <row r="58" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5754,7 +5836,9 @@
       <c r="V59" s="8">
         <v>1051488.1576102807</v>
       </c>
-      <c r="W59" s="9"/>
+      <c r="W59" s="8">
+        <v>1272441.6272173871</v>
+      </c>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
@@ -5896,7 +5980,9 @@
       <c r="V60" s="11">
         <v>536913.72116597043</v>
       </c>
-      <c r="W60" s="9"/>
+      <c r="W60" s="11">
+        <v>618962.93671080191</v>
+      </c>
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
@@ -6038,7 +6124,9 @@
       <c r="V61" s="11">
         <v>241886.06284150982</v>
       </c>
-      <c r="W61" s="9"/>
+      <c r="W61" s="11">
+        <v>318649.45472172112</v>
+      </c>
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
@@ -6180,7 +6268,9 @@
       <c r="V62" s="11">
         <v>10033.617599290334</v>
       </c>
-      <c r="W62" s="9"/>
+      <c r="W62" s="11">
+        <v>10871.889227739357</v>
+      </c>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
@@ -6322,7 +6412,9 @@
       <c r="V63" s="11">
         <v>55215.268211958806</v>
       </c>
-      <c r="W63" s="9"/>
+      <c r="W63" s="11">
+        <v>72541.868867824116</v>
+      </c>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
@@ -6464,7 +6556,9 @@
       <c r="V64" s="11">
         <v>76756.768765183326</v>
       </c>
-      <c r="W64" s="9"/>
+      <c r="W64" s="11">
+        <v>101969.88968027194</v>
+      </c>
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
@@ -6606,7 +6700,9 @@
       <c r="V65" s="11">
         <v>86196.887170205562</v>
       </c>
-      <c r="W65" s="9"/>
+      <c r="W65" s="11">
+        <v>84225.376379891255</v>
+      </c>
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
@@ -6748,7 +6844,9 @@
       <c r="V66" s="11">
         <v>31187.926880183455</v>
       </c>
-      <c r="W66" s="9"/>
+      <c r="W66" s="11">
+        <v>49353.806618620052</v>
+      </c>
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
@@ -6890,7 +6988,9 @@
       <c r="V67" s="11">
         <v>10529.383409601851</v>
       </c>
-      <c r="W67" s="9"/>
+      <c r="W67" s="11">
+        <v>13331.971325735516</v>
+      </c>
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
@@ -7032,7 +7132,9 @@
       <c r="V68" s="11">
         <v>2768.5215663771032</v>
       </c>
-      <c r="W68" s="9"/>
+      <c r="W68" s="11">
+        <v>2534.4336847819895</v>
+      </c>
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
@@ -7174,7 +7276,9 @@
       <c r="V69" s="11">
         <v>673232.32348781149</v>
       </c>
-      <c r="W69" s="9"/>
+      <c r="W69" s="11">
+        <v>851343.27777938952</v>
+      </c>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
@@ -7316,7 +7420,9 @@
       <c r="V70" s="11">
         <v>278301.90244544082</v>
       </c>
-      <c r="W70" s="9"/>
+      <c r="W70" s="11">
+        <v>327032.68259729742</v>
+      </c>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
@@ -7458,7 +7564,9 @@
       <c r="V71" s="11">
         <v>57529.555709118627</v>
       </c>
-      <c r="W71" s="9"/>
+      <c r="W71" s="11">
+        <v>55556.700152577781</v>
+      </c>
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
@@ -7600,7 +7708,9 @@
       <c r="V72" s="11">
         <v>248946.78087211109</v>
       </c>
-      <c r="W72" s="9"/>
+      <c r="W72" s="11">
+        <v>280324.84980034729</v>
+      </c>
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
@@ -7742,7 +7852,9 @@
       <c r="V73" s="11">
         <v>375036.57912129868</v>
       </c>
-      <c r="W73" s="9"/>
+      <c r="W73" s="11">
+        <v>469553.33529265458</v>
+      </c>
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
@@ -7884,7 +7996,9 @@
       <c r="V74" s="11">
         <v>68265.99579702488</v>
       </c>
-      <c r="W74" s="9"/>
+      <c r="W74" s="11">
+        <v>79131.099796776922</v>
+      </c>
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
@@ -8026,7 +8140,9 @@
       <c r="V75" s="11">
         <v>150925.21473404934</v>
       </c>
-      <c r="W75" s="9"/>
+      <c r="W75" s="11">
+        <v>169886.64522092047</v>
+      </c>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
@@ -8168,7 +8284,9 @@
       <c r="V76" s="11">
         <v>268775.99517196848</v>
       </c>
-      <c r="W76" s="9"/>
+      <c r="W76" s="11">
+        <v>297771.27530219359</v>
+      </c>
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
@@ -8310,7 +8428,9 @@
       <c r="V77" s="11">
         <v>106963.01764846628</v>
       </c>
-      <c r="W77" s="9"/>
+      <c r="W77" s="11">
+        <v>126759.60831821218</v>
+      </c>
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
       <c r="Z77" s="9"/>
@@ -8452,7 +8572,9 @@
       <c r="V78" s="11">
         <v>58397.041998656197</v>
       </c>
-      <c r="W78" s="9"/>
+      <c r="W78" s="11">
+        <v>56228.917804058998</v>
+      </c>
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
@@ -8594,7 +8716,9 @@
       <c r="V79" s="11">
         <v>104726.3606166932</v>
       </c>
-      <c r="W79" s="9"/>
+      <c r="W79" s="11">
+        <v>218074.63090723491</v>
+      </c>
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
@@ -8736,7 +8860,9 @@
       <c r="V80" s="11">
         <v>60694.718699485544</v>
       </c>
-      <c r="W80" s="9"/>
+      <c r="W80" s="11">
+        <v>59975.106206628596</v>
+      </c>
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
@@ -8878,7 +9004,9 @@
       <c r="V81" s="11">
         <v>68890.307795364963</v>
       </c>
-      <c r="W81" s="9"/>
+      <c r="W81" s="11">
+        <v>63836.424122513781</v>
+      </c>
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
       <c r="Z81" s="9"/>
@@ -9020,7 +9148,9 @@
       <c r="V82" s="11">
         <v>13196.946038655726</v>
       </c>
-      <c r="W82" s="9"/>
+      <c r="W82" s="11">
+        <v>16723.030700115618</v>
+      </c>
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
       <c r="Z82" s="9"/>
@@ -9162,7 +9292,9 @@
       <c r="V83" s="11">
         <v>102718.19518350577</v>
       </c>
-      <c r="W83" s="9"/>
+      <c r="W83" s="11">
+        <v>95373.89895209168</v>
+      </c>
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
@@ -9304,7 +9436,9 @@
       <c r="V84" s="11">
         <v>133541.98209974938</v>
       </c>
-      <c r="W84" s="9"/>
+      <c r="W84" s="11">
+        <v>127158.15074608248</v>
+      </c>
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
@@ -9446,7 +9580,9 @@
       <c r="V85" s="11">
         <v>72236.02977015631</v>
       </c>
-      <c r="W85" s="9"/>
+      <c r="W85" s="11">
+        <v>70833.715425266186</v>
+      </c>
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
@@ -9588,7 +9724,9 @@
       <c r="V86" s="11">
         <v>56030.910213195755</v>
       </c>
-      <c r="W86" s="9"/>
+      <c r="W86" s="11">
+        <v>75237.566234680882</v>
+      </c>
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
       <c r="Z86" s="9"/>
@@ -9730,7 +9868,9 @@
       <c r="V87" s="11">
         <v>29007.765002146192</v>
       </c>
-      <c r="W87" s="9"/>
+      <c r="W87" s="11">
+        <v>27299.654961743836</v>
+      </c>
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
@@ -9872,7 +10012,9 @@
       <c r="V88" s="11">
         <v>1051954.6430599969</v>
       </c>
-      <c r="W88" s="9"/>
+      <c r="W88" s="11">
+        <v>1188410.313068189</v>
+      </c>
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
@@ -10111,7 +10253,9 @@
       <c r="V90" s="8">
         <v>5030860.4230751768</v>
       </c>
-      <c r="W90" s="9"/>
+      <c r="W90" s="8">
+        <v>5928952.5106063625</v>
+      </c>
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
@@ -10209,6 +10353,7 @@
       <c r="T91" s="12"/>
       <c r="U91" s="12"/>
       <c r="V91" s="12"/>
+      <c r="W91" s="12"/>
     </row>
     <row r="92" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
@@ -10421,7 +10566,7 @@
     </row>
     <row r="97" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:91" x14ac:dyDescent="0.25">
@@ -10431,7 +10576,7 @@
     </row>
     <row r="100" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:91" x14ac:dyDescent="0.25">
@@ -10463,6 +10608,8 @@
       <c r="S103" s="15"/>
       <c r="T103" s="15"/>
       <c r="U103" s="15"/>
+      <c r="V103" s="15"/>
+      <c r="W103" s="15"/>
     </row>
     <row r="104" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
@@ -10526,8 +10673,12 @@
         <v>42</v>
       </c>
       <c r="U104" s="16" t="s">
-        <v>72</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="V104" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="W104" s="16"/>
     </row>
     <row r="105" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
@@ -10596,7 +10747,10 @@
       <c r="U106" s="17">
         <v>-15.009106523797612</v>
       </c>
-      <c r="W106" s="9"/>
+      <c r="V106" s="17">
+        <v>18.108529468960199</v>
+      </c>
+      <c r="W106" s="17"/>
       <c r="X106" s="9"/>
       <c r="Y106" s="9"/>
       <c r="Z106" s="9"/>
@@ -10730,7 +10884,10 @@
       <c r="U107" s="17">
         <v>-7.1427724841533546</v>
       </c>
-      <c r="W107" s="9"/>
+      <c r="V107" s="17">
+        <v>14.340298162109846</v>
+      </c>
+      <c r="W107" s="17"/>
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
@@ -10864,7 +11021,10 @@
       <c r="U108" s="17">
         <v>-10.481504472268384</v>
       </c>
-      <c r="W108" s="9"/>
+      <c r="V108" s="17">
+        <v>25.103759350026195</v>
+      </c>
+      <c r="W108" s="17"/>
       <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
       <c r="Z108" s="9"/>
@@ -10998,7 +11158,10 @@
       <c r="U109" s="17">
         <v>-17.099867822745409</v>
       </c>
-      <c r="W109" s="9"/>
+      <c r="V109" s="17">
+        <v>-2.736779134056178</v>
+      </c>
+      <c r="W109" s="17"/>
       <c r="X109" s="9"/>
       <c r="Y109" s="9"/>
       <c r="Z109" s="9"/>
@@ -11132,7 +11295,10 @@
       <c r="U110" s="17">
         <v>-40.284896666636136</v>
       </c>
-      <c r="W110" s="9"/>
+      <c r="V110" s="17">
+        <v>25.700184361566116</v>
+      </c>
+      <c r="W110" s="17"/>
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
       <c r="Z110" s="9"/>
@@ -11266,7 +11432,10 @@
       <c r="U111" s="17">
         <v>-32.316845230315323</v>
       </c>
-      <c r="W111" s="9"/>
+      <c r="V111" s="17">
+        <v>26.82979251351172</v>
+      </c>
+      <c r="W111" s="17"/>
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
@@ -11400,7 +11569,10 @@
       <c r="U112" s="17">
         <v>-19.038389829226205</v>
       </c>
-      <c r="W112" s="9"/>
+      <c r="V112" s="17">
+        <v>-1.9661162699630665</v>
+      </c>
+      <c r="W112" s="17"/>
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
@@ -11534,7 +11706,10 @@
       <c r="U113" s="17">
         <v>-26.038292402990791</v>
       </c>
-      <c r="W113" s="9"/>
+      <c r="V113" s="17">
+        <v>51.917979838866046</v>
+      </c>
+      <c r="W113" s="17"/>
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
@@ -11668,7 +11843,10 @@
       <c r="U114" s="17">
         <v>-32.041353113971965</v>
       </c>
-      <c r="W114" s="9"/>
+      <c r="V114" s="17">
+        <v>24.259482614505345</v>
+      </c>
+      <c r="W114" s="17"/>
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
@@ -11802,7 +11980,10 @@
       <c r="U115" s="17">
         <v>-28.233438711904398</v>
       </c>
-      <c r="W115" s="9"/>
+      <c r="V115" s="17">
+        <v>-12.858090575990474</v>
+      </c>
+      <c r="W115" s="17"/>
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
@@ -11936,7 +12117,10 @@
       <c r="U116" s="17">
         <v>-42.67314192903148</v>
       </c>
-      <c r="W116" s="9"/>
+      <c r="V116" s="17">
+        <v>87.012043884313215</v>
+      </c>
+      <c r="W116" s="17"/>
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
@@ -12070,7 +12254,10 @@
       <c r="U117" s="17">
         <v>-31.610554018388953</v>
       </c>
-      <c r="W117" s="9"/>
+      <c r="V117" s="17">
+        <v>18.818137123834774</v>
+      </c>
+      <c r="W117" s="17"/>
       <c r="X117" s="9"/>
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
@@ -12204,7 +12391,10 @@
       <c r="U118" s="17">
         <v>-40.428500607048157</v>
       </c>
-      <c r="W118" s="9"/>
+      <c r="V118" s="17">
+        <v>-1.3265072329250955</v>
+      </c>
+      <c r="W118" s="17"/>
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
@@ -12338,7 +12528,10 @@
       <c r="U119" s="17">
         <v>-23.32566047919201</v>
       </c>
-      <c r="W119" s="9"/>
+      <c r="V119" s="17">
+        <v>46.669612651433681</v>
+      </c>
+      <c r="W119" s="17"/>
       <c r="X119" s="9"/>
       <c r="Y119" s="9"/>
       <c r="Z119" s="9"/>
@@ -12472,7 +12665,10 @@
       <c r="U120" s="17">
         <v>-41.286146154845007</v>
       </c>
-      <c r="W120" s="9"/>
+      <c r="V120" s="17">
+        <v>23.120371695764661</v>
+      </c>
+      <c r="W120" s="17"/>
       <c r="X120" s="9"/>
       <c r="Y120" s="9"/>
       <c r="Z120" s="9"/>
@@ -12606,7 +12802,10 @@
       <c r="U121" s="17">
         <v>-27.430128142332137</v>
       </c>
-      <c r="W121" s="9"/>
+      <c r="V121" s="17">
+        <v>21.929024833624865</v>
+      </c>
+      <c r="W121" s="17"/>
       <c r="X121" s="9"/>
       <c r="Y121" s="9"/>
       <c r="Z121" s="9"/>
@@ -12740,7 +12939,10 @@
       <c r="U122" s="17">
         <v>-18.313290704346258</v>
       </c>
-      <c r="W122" s="9"/>
+      <c r="V122" s="17">
+        <v>13.955945210218218</v>
+      </c>
+      <c r="W122" s="17"/>
       <c r="X122" s="9"/>
       <c r="Y122" s="9"/>
       <c r="Z122" s="9"/>
@@ -12874,7 +13076,10 @@
       <c r="U123" s="17">
         <v>-12.883940472468552</v>
       </c>
-      <c r="W123" s="9"/>
+      <c r="V123" s="17">
+        <v>28.22819722082707</v>
+      </c>
+      <c r="W123" s="17"/>
       <c r="X123" s="9"/>
       <c r="Y123" s="9"/>
       <c r="Z123" s="9"/>
@@ -13008,7 +13213,10 @@
       <c r="U124" s="17">
         <v>-16.656391970988011</v>
       </c>
-      <c r="W124" s="9"/>
+      <c r="V124" s="17">
+        <v>25.370983168790033</v>
+      </c>
+      <c r="W124" s="17"/>
       <c r="X124" s="9"/>
       <c r="Y124" s="9"/>
       <c r="Z124" s="9"/>
@@ -13142,7 +13350,10 @@
       <c r="U125" s="17">
         <v>-7.2784306620228705</v>
       </c>
-      <c r="W125" s="9"/>
+      <c r="V125" s="17">
+        <v>6.4392213919844323</v>
+      </c>
+      <c r="W125" s="17"/>
       <c r="X125" s="9"/>
       <c r="Y125" s="9"/>
       <c r="Z125" s="9"/>
@@ -13276,7 +13487,10 @@
       <c r="U126" s="17">
         <v>-7.4620362253713779</v>
       </c>
-      <c r="W126" s="9"/>
+      <c r="V126" s="17">
+        <v>119.38474214595368</v>
+      </c>
+      <c r="W126" s="17"/>
       <c r="X126" s="9"/>
       <c r="Y126" s="9"/>
       <c r="Z126" s="9"/>
@@ -13410,7 +13624,10 @@
       <c r="U127" s="17">
         <v>-17.530998366989948</v>
       </c>
-      <c r="W127" s="9"/>
+      <c r="V127" s="17">
+        <v>11.849625846663557</v>
+      </c>
+      <c r="W127" s="17"/>
       <c r="X127" s="9"/>
       <c r="Y127" s="9"/>
       <c r="Z127" s="9"/>
@@ -13544,7 +13761,10 @@
       <c r="U128" s="17">
         <v>-14.492467859738071</v>
       </c>
-      <c r="W128" s="9"/>
+      <c r="V128" s="17">
+        <v>34.787836141769333</v>
+      </c>
+      <c r="W128" s="17"/>
       <c r="X128" s="9"/>
       <c r="Y128" s="9"/>
       <c r="Z128" s="9"/>
@@ -13678,7 +13898,10 @@
       <c r="U129" s="17">
         <v>-18.199151326333705</v>
       </c>
-      <c r="W129" s="9"/>
+      <c r="V129" s="17">
+        <v>72.38375161413154</v>
+      </c>
+      <c r="W129" s="17"/>
       <c r="X129" s="9"/>
       <c r="Y129" s="9"/>
       <c r="Z129" s="9"/>
@@ -13812,7 +14035,10 @@
       <c r="U130" s="17">
         <v>-24.84062934716475</v>
       </c>
-      <c r="W130" s="9"/>
+      <c r="V130" s="17">
+        <v>27.05412667513842</v>
+      </c>
+      <c r="W130" s="17"/>
       <c r="X130" s="9"/>
       <c r="Y130" s="9"/>
       <c r="Z130" s="9"/>
@@ -13946,7 +14172,10 @@
       <c r="U131" s="17">
         <v>-23.258357383638341</v>
       </c>
-      <c r="W131" s="9"/>
+      <c r="V131" s="17">
+        <v>34.977752654965769</v>
+      </c>
+      <c r="W131" s="17"/>
       <c r="X131" s="9"/>
       <c r="Y131" s="9"/>
       <c r="Z131" s="9"/>
@@ -14080,7 +14309,10 @@
       <c r="U132" s="17">
         <v>5.5370890840275848</v>
       </c>
-      <c r="W132" s="9"/>
+      <c r="V132" s="17">
+        <v>11.365087090769421</v>
+      </c>
+      <c r="W132" s="17"/>
       <c r="X132" s="9"/>
       <c r="Y132" s="9"/>
       <c r="Z132" s="9"/>
@@ -14214,7 +14446,10 @@
       <c r="U133" s="17">
         <v>-35.775458059237067</v>
       </c>
-      <c r="W133" s="9"/>
+      <c r="V133" s="17">
+        <v>29.914109959974297</v>
+      </c>
+      <c r="W133" s="17"/>
       <c r="X133" s="9"/>
       <c r="Y133" s="9"/>
       <c r="Z133" s="9"/>
@@ -14348,7 +14583,10 @@
       <c r="U134" s="17">
         <v>-24.502916338932167</v>
       </c>
-      <c r="W134" s="9"/>
+      <c r="V134" s="17">
+        <v>-3.8870860085071115</v>
+      </c>
+      <c r="W134" s="17"/>
       <c r="X134" s="9"/>
       <c r="Y134" s="9"/>
       <c r="Z134" s="9"/>
@@ -14482,7 +14720,10 @@
       <c r="U135" s="17">
         <v>-19.343678925689488</v>
       </c>
-      <c r="W135" s="9"/>
+      <c r="V135" s="17">
+        <v>24.93978946982584</v>
+      </c>
+      <c r="W135" s="17"/>
       <c r="X135" s="9"/>
       <c r="Y135" s="9"/>
       <c r="Z135" s="9"/>
@@ -14573,6 +14814,7 @@
       <c r="S136" s="9"/>
       <c r="T136" s="9"/>
       <c r="U136" s="9"/>
+      <c r="V136" s="9"/>
       <c r="W136" s="9"/>
       <c r="X136" s="9"/>
       <c r="Y136" s="9"/>
@@ -14707,7 +14949,10 @@
       <c r="U137" s="17">
         <v>-24.5047769353625</v>
       </c>
-      <c r="W137" s="9"/>
+      <c r="V137" s="17">
+        <v>31.512889132084098</v>
+      </c>
+      <c r="W137" s="17"/>
       <c r="X137" s="9"/>
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
@@ -14799,6 +15044,8 @@
       <c r="S138" s="12"/>
       <c r="T138" s="12"/>
       <c r="U138" s="12"/>
+      <c r="V138" s="12"/>
+      <c r="W138" s="12"/>
     </row>
     <row r="139" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
@@ -14826,6 +15073,7 @@
       <c r="S140" s="9"/>
       <c r="T140" s="9"/>
       <c r="U140" s="9"/>
+      <c r="V140" s="9"/>
       <c r="W140" s="9"/>
       <c r="X140" s="9"/>
       <c r="Y140" s="9"/>
@@ -14917,6 +15165,7 @@
       <c r="S141" s="9"/>
       <c r="T141" s="9"/>
       <c r="U141" s="9"/>
+      <c r="V141" s="9"/>
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
       <c r="Y141" s="9"/>
@@ -15000,7 +15249,7 @@
     </row>
     <row r="144" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="146" spans="1:91" x14ac:dyDescent="0.25">
@@ -15010,7 +15259,7 @@
     </row>
     <row r="147" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="148" spans="1:91" x14ac:dyDescent="0.25">
@@ -15042,6 +15291,8 @@
       <c r="S150" s="15"/>
       <c r="T150" s="15"/>
       <c r="U150" s="15"/>
+      <c r="V150" s="15"/>
+      <c r="W150" s="15"/>
     </row>
     <row r="151" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
@@ -15105,8 +15356,12 @@
         <v>42</v>
       </c>
       <c r="U151" s="16" t="s">
-        <v>72</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="V151" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="W151" s="16"/>
     </row>
     <row r="152" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
@@ -15175,7 +15430,10 @@
       <c r="U153" s="17">
         <v>-12.489392448714597</v>
       </c>
-      <c r="W153" s="9"/>
+      <c r="V153" s="17">
+        <v>21.013405430001967</v>
+      </c>
+      <c r="W153" s="17"/>
       <c r="X153" s="9"/>
       <c r="Y153" s="9"/>
       <c r="Z153" s="9"/>
@@ -15309,7 +15567,10 @@
       <c r="U154" s="17">
         <v>-3.6824791608541005</v>
       </c>
-      <c r="W154" s="9"/>
+      <c r="V154" s="17">
+        <v>15.281638801603378</v>
+      </c>
+      <c r="W154" s="17"/>
       <c r="X154" s="9"/>
       <c r="Y154" s="9"/>
       <c r="Z154" s="9"/>
@@ -15443,7 +15704,10 @@
       <c r="U155" s="17">
         <v>-5.748672342304701</v>
       </c>
-      <c r="W155" s="9"/>
+      <c r="V155" s="17">
+        <v>31.735351337918416</v>
+      </c>
+      <c r="W155" s="17"/>
       <c r="X155" s="9"/>
       <c r="Y155" s="9"/>
       <c r="Z155" s="9"/>
@@ -15577,7 +15841,10 @@
       <c r="U156" s="17">
         <v>-15.190816496775341</v>
       </c>
-      <c r="W156" s="9"/>
+      <c r="V156" s="17">
+        <v>8.3546300240534777</v>
+      </c>
+      <c r="W156" s="17"/>
       <c r="X156" s="9"/>
       <c r="Y156" s="9"/>
       <c r="Z156" s="9"/>
@@ -15711,7 +15978,10 @@
       <c r="U157" s="17">
         <v>-42.440947734410337</v>
       </c>
-      <c r="W157" s="9"/>
+      <c r="V157" s="17">
+        <v>31.380089632730659</v>
+      </c>
+      <c r="W157" s="17"/>
       <c r="X157" s="9"/>
       <c r="Y157" s="9"/>
       <c r="Z157" s="9"/>
@@ -15845,7 +16115,10 @@
       <c r="U158" s="17">
         <v>-33.059708476639955</v>
       </c>
-      <c r="W158" s="9"/>
+      <c r="V158" s="17">
+        <v>32.848074926422953</v>
+      </c>
+      <c r="W158" s="17"/>
       <c r="X158" s="9"/>
       <c r="Y158" s="9"/>
       <c r="Z158" s="9"/>
@@ -15979,7 +16252,10 @@
       <c r="U159" s="17">
         <v>-16.782099175022097</v>
       </c>
-      <c r="W159" s="9"/>
+      <c r="V159" s="17">
+        <v>-2.2872180829701279</v>
+      </c>
+      <c r="W159" s="17"/>
       <c r="X159" s="9"/>
       <c r="Y159" s="9"/>
       <c r="Z159" s="9"/>
@@ -16113,7 +16389,10 @@
       <c r="U160" s="17">
         <v>-28.30551559727256</v>
       </c>
-      <c r="W160" s="9"/>
+      <c r="V160" s="17">
+        <v>58.246512531036643</v>
+      </c>
+      <c r="W160" s="17"/>
       <c r="X160" s="9"/>
       <c r="Y160" s="9"/>
       <c r="Z160" s="9"/>
@@ -16247,7 +16526,10 @@
       <c r="U161" s="17">
         <v>-25.526317662362842</v>
       </c>
-      <c r="W161" s="9"/>
+      <c r="V161" s="17">
+        <v>26.616828423001081</v>
+      </c>
+      <c r="W161" s="17"/>
       <c r="X161" s="9"/>
       <c r="Y161" s="9"/>
       <c r="Z161" s="9"/>
@@ -16381,7 +16663,10 @@
       <c r="U162" s="17">
         <v>-27.745295108511186</v>
       </c>
-      <c r="W162" s="9"/>
+      <c r="V162" s="17">
+        <v>-8.4553389230571128</v>
+      </c>
+      <c r="W162" s="17"/>
       <c r="X162" s="9"/>
       <c r="Y162" s="9"/>
       <c r="Z162" s="9"/>
@@ -16515,7 +16800,10 @@
       <c r="U163" s="17">
         <v>-22.724597938219262</v>
       </c>
-      <c r="W163" s="9"/>
+      <c r="V163" s="17">
+        <v>26.456090724943124</v>
+      </c>
+      <c r="W163" s="17"/>
       <c r="X163" s="9"/>
       <c r="Y163" s="9"/>
       <c r="Z163" s="9"/>
@@ -16649,7 +16937,10 @@
       <c r="U164" s="17">
         <v>-28.891623823861863</v>
       </c>
-      <c r="W164" s="9"/>
+      <c r="V164" s="17">
+        <v>17.510042052770359</v>
+      </c>
+      <c r="W164" s="17"/>
       <c r="X164" s="9"/>
       <c r="Y164" s="9"/>
       <c r="Z164" s="9"/>
@@ -16783,7 +17074,10 @@
       <c r="U165" s="17">
         <v>-38.4471904367105</v>
       </c>
-      <c r="W165" s="9"/>
+      <c r="V165" s="17">
+        <v>-3.4292904442301193</v>
+      </c>
+      <c r="W165" s="17"/>
       <c r="X165" s="9"/>
       <c r="Y165" s="9"/>
       <c r="Z165" s="9"/>
@@ -16917,7 +17211,10 @@
       <c r="U166" s="17">
         <v>-24.355171261467348</v>
       </c>
-      <c r="W166" s="9"/>
+      <c r="V166" s="17">
+        <v>12.60432804887553</v>
+      </c>
+      <c r="W166" s="17"/>
       <c r="X166" s="9"/>
       <c r="Y166" s="9"/>
       <c r="Z166" s="9"/>
@@ -17051,7 +17348,10 @@
       <c r="U167" s="17">
         <v>-41.84668767632931</v>
       </c>
-      <c r="W167" s="9"/>
+      <c r="V167" s="17">
+        <v>25.202009999346274</v>
+      </c>
+      <c r="W167" s="17"/>
       <c r="X167" s="9"/>
       <c r="Y167" s="9"/>
       <c r="Z167" s="9"/>
@@ -17185,7 +17485,10 @@
       <c r="U168" s="17">
         <v>-18.814874722425429</v>
       </c>
-      <c r="W168" s="9"/>
+      <c r="V168" s="17">
+        <v>15.915836095114216</v>
+      </c>
+      <c r="W168" s="17"/>
       <c r="X168" s="9"/>
       <c r="Y168" s="9"/>
       <c r="Z168" s="9"/>
@@ -17319,7 +17622,10 @@
       <c r="U169" s="17">
         <v>-16.49291204682882</v>
       </c>
-      <c r="W169" s="9"/>
+      <c r="V169" s="17">
+        <v>12.563460996417163</v>
+      </c>
+      <c r="W169" s="17"/>
       <c r="X169" s="9"/>
       <c r="Y169" s="9"/>
       <c r="Z169" s="9"/>
@@ -17453,7 +17759,10 @@
       <c r="U170" s="17">
         <v>-7.8477747458905185</v>
       </c>
-      <c r="W170" s="9"/>
+      <c r="V170" s="17">
+        <v>10.787897971198419</v>
+      </c>
+      <c r="W170" s="17"/>
       <c r="X170" s="9"/>
       <c r="Y170" s="9"/>
       <c r="Z170" s="9"/>
@@ -17587,7 +17896,10 @@
       <c r="U171" s="17">
         <v>-25.073033701654097</v>
       </c>
-      <c r="W171" s="9"/>
+      <c r="V171" s="17">
+        <v>18.507883476892317</v>
+      </c>
+      <c r="W171" s="17"/>
       <c r="X171" s="9"/>
       <c r="Y171" s="9"/>
       <c r="Z171" s="9"/>
@@ -17721,7 +18033,10 @@
       <c r="U172" s="17">
         <v>-8.7545478564198902</v>
       </c>
-      <c r="W172" s="9"/>
+      <c r="V172" s="17">
+        <v>-3.712729481481432</v>
+      </c>
+      <c r="W172" s="17"/>
       <c r="X172" s="9"/>
       <c r="Y172" s="9"/>
       <c r="Z172" s="9"/>
@@ -17855,7 +18170,10 @@
       <c r="U173" s="17">
         <v>-3.9277411296978642</v>
       </c>
-      <c r="W173" s="9"/>
+      <c r="V173" s="17">
+        <v>108.23279795371232</v>
+      </c>
+      <c r="W173" s="17"/>
       <c r="X173" s="9"/>
       <c r="Y173" s="9"/>
       <c r="Z173" s="9"/>
@@ -17989,7 +18307,10 @@
       <c r="U174" s="17">
         <v>-13.072025995676739</v>
       </c>
-      <c r="W174" s="9"/>
+      <c r="V174" s="17">
+        <v>-1.1856262097859371</v>
+      </c>
+      <c r="W174" s="17"/>
       <c r="X174" s="9"/>
       <c r="Y174" s="9"/>
       <c r="Z174" s="9"/>
@@ -18123,7 +18444,10 @@
       <c r="U175" s="17">
         <v>-8.0642950988472109</v>
       </c>
-      <c r="W175" s="9"/>
+      <c r="V175" s="17">
+        <v>-7.3361316483930921</v>
+      </c>
+      <c r="W175" s="17"/>
       <c r="X175" s="9"/>
       <c r="Y175" s="9"/>
       <c r="Z175" s="9"/>
@@ -18257,7 +18581,10 @@
       <c r="U176" s="17">
         <v>-14.907837520319219</v>
       </c>
-      <c r="W176" s="9"/>
+      <c r="V176" s="17">
+        <v>26.718944300685109</v>
+      </c>
+      <c r="W176" s="17"/>
       <c r="X176" s="9"/>
       <c r="Y176" s="9"/>
       <c r="Z176" s="9"/>
@@ -18391,7 +18718,10 @@
       <c r="U177" s="17">
         <v>-19.716588650127775</v>
       </c>
-      <c r="W177" s="9"/>
+      <c r="V177" s="17">
+        <v>-7.1499467239407011</v>
+      </c>
+      <c r="W177" s="17"/>
       <c r="X177" s="9"/>
       <c r="Y177" s="9"/>
       <c r="Z177" s="9"/>
@@ -18525,7 +18855,10 @@
       <c r="U178" s="17">
         <v>-18.128499576028105</v>
       </c>
-      <c r="W178" s="9"/>
+      <c r="V178" s="17">
+        <v>-4.7803928422288067</v>
+      </c>
+      <c r="W178" s="17"/>
       <c r="X178" s="9"/>
       <c r="Y178" s="9"/>
       <c r="Z178" s="9"/>
@@ -18659,7 +18992,10 @@
       <c r="U179" s="17">
         <v>12.029749526402767</v>
       </c>
-      <c r="W179" s="9"/>
+      <c r="V179" s="17">
+        <v>-1.9412948764654772</v>
+      </c>
+      <c r="W179" s="17"/>
       <c r="X179" s="9"/>
       <c r="Y179" s="9"/>
       <c r="Z179" s="9"/>
@@ -18793,7 +19129,10 @@
       <c r="U180" s="17">
         <v>-30.87428092671378</v>
       </c>
-      <c r="W180" s="9"/>
+      <c r="V180" s="17">
+        <v>34.278679301129387</v>
+      </c>
+      <c r="W180" s="17"/>
       <c r="X180" s="9"/>
       <c r="Y180" s="9"/>
       <c r="Z180" s="9"/>
@@ -18927,7 +19266,10 @@
       <c r="U181" s="17">
         <v>-19.640039409709772</v>
       </c>
-      <c r="W181" s="9"/>
+      <c r="V181" s="17">
+        <v>-5.8884579362663061</v>
+      </c>
+      <c r="W181" s="17"/>
       <c r="X181" s="9"/>
       <c r="Y181" s="9"/>
       <c r="Z181" s="9"/>
@@ -19061,7 +19403,10 @@
       <c r="U182" s="17">
         <v>-17.486341191654603</v>
       </c>
-      <c r="W182" s="9"/>
+      <c r="V182" s="17">
+        <v>12.971630564913013</v>
+      </c>
+      <c r="W182" s="17"/>
       <c r="X182" s="9"/>
       <c r="Y182" s="9"/>
       <c r="Z182" s="9"/>
@@ -19152,6 +19497,7 @@
       <c r="S183" s="9"/>
       <c r="T183" s="9"/>
       <c r="U183" s="9"/>
+      <c r="V183" s="9"/>
       <c r="W183" s="9"/>
       <c r="X183" s="9"/>
       <c r="Y183" s="9"/>
@@ -19286,7 +19632,10 @@
       <c r="U184" s="17">
         <v>-20.293171624407378</v>
       </c>
-      <c r="W184" s="9"/>
+      <c r="V184" s="17">
+        <v>17.851659795844938</v>
+      </c>
+      <c r="W184" s="17"/>
       <c r="X184" s="9"/>
       <c r="Y184" s="9"/>
       <c r="Z184" s="9"/>
@@ -19378,6 +19727,8 @@
       <c r="S185" s="12"/>
       <c r="T185" s="12"/>
       <c r="U185" s="12"/>
+      <c r="V185" s="12"/>
+      <c r="W185" s="12"/>
     </row>
     <row r="186" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
@@ -19405,6 +19756,7 @@
       <c r="S187" s="9"/>
       <c r="T187" s="9"/>
       <c r="U187" s="9"/>
+      <c r="V187" s="9"/>
       <c r="W187" s="9"/>
       <c r="X187" s="9"/>
       <c r="Y187" s="9"/>
@@ -19575,7 +19927,7 @@
     </row>
     <row r="190" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="192" spans="1:92" x14ac:dyDescent="0.25">
@@ -19585,7 +19937,7 @@
     </row>
     <row r="193" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="194" spans="1:96" x14ac:dyDescent="0.25">
@@ -19618,6 +19970,7 @@
       <c r="T196" s="15"/>
       <c r="U196" s="15"/>
       <c r="V196" s="15"/>
+      <c r="W196" s="15"/>
     </row>
     <row r="197" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
@@ -19685,6 +20038,9 @@
       </c>
       <c r="V197" s="16">
         <v>2020</v>
+      </c>
+      <c r="W197" s="16">
+        <v>2021</v>
       </c>
     </row>
     <row r="198" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19757,7 +20113,9 @@
       <c r="V199" s="17">
         <v>97.0737199409553</v>
       </c>
-      <c r="W199" s="9"/>
+      <c r="W199" s="17">
+        <v>94.743506073298363</v>
+      </c>
       <c r="X199" s="9"/>
       <c r="Y199" s="9"/>
       <c r="Z199" s="9"/>
@@ -19899,7 +20257,9 @@
       <c r="V200" s="17">
         <v>97.155133697901036</v>
       </c>
-      <c r="W200" s="9"/>
+      <c r="W200" s="17">
+        <v>96.361806359428201</v>
+      </c>
       <c r="X200" s="9"/>
       <c r="Y200" s="9"/>
       <c r="Z200" s="9"/>
@@ -20041,7 +20401,9 @@
       <c r="V201" s="17">
         <v>94.750017452317351</v>
       </c>
-      <c r="W201" s="9"/>
+      <c r="W201" s="17">
+        <v>89.980276830624589</v>
+      </c>
       <c r="X201" s="9"/>
       <c r="Y201" s="9"/>
       <c r="Z201" s="9"/>
@@ -20183,7 +20545,9 @@
       <c r="V202" s="17">
         <v>100.83427808892689</v>
       </c>
-      <c r="W202" s="9"/>
+      <c r="W202" s="17">
+        <v>90.512668064522501</v>
+      </c>
       <c r="X202" s="9"/>
       <c r="Y202" s="9"/>
       <c r="Z202" s="9"/>
@@ -20325,7 +20689,9 @@
       <c r="V203" s="17">
         <v>101.46264411113843</v>
       </c>
-      <c r="W203" s="9"/>
+      <c r="W203" s="17">
+        <v>97.076148343597296</v>
+      </c>
       <c r="X203" s="9"/>
       <c r="Y203" s="9"/>
       <c r="Z203" s="9"/>
@@ -20467,7 +20833,9 @@
       <c r="V204" s="17">
         <v>101.3771278952029</v>
       </c>
-      <c r="W204" s="9"/>
+      <c r="W204" s="17">
+        <v>96.784542069468813</v>
+      </c>
       <c r="X204" s="9"/>
       <c r="Y204" s="9"/>
       <c r="Z204" s="9"/>
@@ -20609,7 +20977,9 @@
       <c r="V205" s="17">
         <v>93.224375710175877</v>
       </c>
-      <c r="W205" s="9"/>
+      <c r="W205" s="17">
+        <v>93.530727811402585</v>
+      </c>
       <c r="X205" s="9"/>
       <c r="Y205" s="9"/>
       <c r="Z205" s="9"/>
@@ -20751,7 +21121,9 @@
       <c r="V206" s="17">
         <v>104.96659361137344</v>
       </c>
-      <c r="W206" s="9"/>
+      <c r="W206" s="17">
+        <v>100.76881061678723</v>
+      </c>
       <c r="X206" s="9"/>
       <c r="Y206" s="9"/>
       <c r="Z206" s="9"/>
@@ -20893,7 +21265,9 @@
       <c r="V207" s="17">
         <v>95.560439801403447</v>
       </c>
-      <c r="W207" s="9"/>
+      <c r="W207" s="17">
+        <v>93.781300290253554</v>
+      </c>
       <c r="X207" s="9"/>
       <c r="Y207" s="9"/>
       <c r="Z207" s="9"/>
@@ -21035,7 +21409,9 @@
       <c r="V208" s="17">
         <v>100.52277970549459</v>
       </c>
-      <c r="W208" s="9"/>
+      <c r="W208" s="17">
+        <v>95.688234148175425</v>
+      </c>
       <c r="X208" s="9"/>
       <c r="Y208" s="9"/>
       <c r="Z208" s="9"/>
@@ -21177,7 +21553,9 @@
       <c r="V209" s="17">
         <v>68.097574682492279</v>
       </c>
-      <c r="W209" s="9"/>
+      <c r="W209" s="17">
+        <v>100.70741987934619</v>
+      </c>
       <c r="X209" s="9"/>
       <c r="Y209" s="9"/>
       <c r="Z209" s="9"/>
@@ -21319,7 +21697,9 @@
       <c r="V210" s="17">
         <v>96.41569043817249</v>
       </c>
-      <c r="W210" s="9"/>
+      <c r="W210" s="17">
+        <v>97.488967983072101</v>
+      </c>
       <c r="X210" s="9"/>
       <c r="Y210" s="9"/>
       <c r="Z210" s="9"/>
@@ -21461,7 +21841,9 @@
       <c r="V211" s="17">
         <v>95.929018934694639</v>
       </c>
-      <c r="W211" s="9"/>
+      <c r="W211" s="17">
+        <v>98.017829625024561</v>
+      </c>
       <c r="X211" s="9"/>
       <c r="Y211" s="9"/>
       <c r="Z211" s="9"/>
@@ -21603,7 +21985,9 @@
       <c r="V212" s="17">
         <v>104.17683251805371</v>
       </c>
-      <c r="W212" s="9"/>
+      <c r="W212" s="17">
+        <v>135.69261446188969</v>
+      </c>
       <c r="X212" s="9"/>
       <c r="Y212" s="9"/>
       <c r="Z212" s="9"/>
@@ -21745,7 +22129,9 @@
       <c r="V213" s="17">
         <v>102.24663941238606</v>
       </c>
-      <c r="W213" s="9"/>
+      <c r="W213" s="17">
+        <v>100.54666254288986</v>
+      </c>
       <c r="X213" s="9"/>
       <c r="Y213" s="9"/>
       <c r="Z213" s="9"/>
@@ -21887,7 +22273,9 @@
       <c r="V214" s="17">
         <v>83.582129641150019</v>
       </c>
-      <c r="W214" s="9"/>
+      <c r="W214" s="17">
+        <v>87.91799208781778</v>
+      </c>
       <c r="X214" s="9"/>
       <c r="Y214" s="9"/>
       <c r="Z214" s="9"/>
@@ -22029,7 +22417,9 @@
       <c r="V215" s="17">
         <v>98.570477940945878</v>
       </c>
-      <c r="W215" s="9"/>
+      <c r="W215" s="17">
+        <v>99.789859730245695</v>
+      </c>
       <c r="X215" s="9"/>
       <c r="Y215" s="9"/>
       <c r="Z215" s="9"/>
@@ -22171,7 +22561,9 @@
       <c r="V216" s="17">
         <v>90.716791406169477</v>
       </c>
-      <c r="W216" s="9"/>
+      <c r="W216" s="17">
+        <v>104.997484677388</v>
+      </c>
       <c r="X216" s="9"/>
       <c r="Y216" s="9"/>
       <c r="Z216" s="9"/>
@@ -22313,7 +22705,9 @@
       <c r="V217" s="17">
         <v>128.22730044739836</v>
       </c>
-      <c r="W217" s="9"/>
+      <c r="W217" s="17">
+        <v>135.65327684976162</v>
+      </c>
       <c r="X217" s="9"/>
       <c r="Y217" s="9"/>
       <c r="Z217" s="9"/>
@@ -22455,7 +22849,9 @@
       <c r="V218" s="17">
         <v>104.35122155383915</v>
       </c>
-      <c r="W218" s="9"/>
+      <c r="W218" s="17">
+        <v>115.35338693972972</v>
+      </c>
       <c r="X218" s="9"/>
       <c r="Y218" s="9"/>
       <c r="Z218" s="9"/>
@@ -22597,7 +22993,9 @@
       <c r="V219" s="17">
         <v>99.066582068888351</v>
       </c>
-      <c r="W219" s="9"/>
+      <c r="W219" s="17">
+        <v>104.3721103305502</v>
+      </c>
       <c r="X219" s="9"/>
       <c r="Y219" s="9"/>
       <c r="Z219" s="9"/>
@@ -22739,7 +23137,9 @@
       <c r="V220" s="17">
         <v>95.682427032561307</v>
       </c>
-      <c r="W220" s="9"/>
+      <c r="W220" s="17">
+        <v>108.30452345337365</v>
+      </c>
       <c r="X220" s="9"/>
       <c r="Y220" s="9"/>
       <c r="Z220" s="9"/>
@@ -22881,7 +23281,9 @@
       <c r="V221" s="17">
         <v>95.627382196261294</v>
       </c>
-      <c r="W221" s="9"/>
+      <c r="W221" s="17">
+        <v>139.09853054297295</v>
+      </c>
       <c r="X221" s="9"/>
       <c r="Y221" s="9"/>
       <c r="Z221" s="9"/>
@@ -23023,7 +23425,9 @@
       <c r="V222" s="17">
         <v>98.79192055118024</v>
       </c>
-      <c r="W222" s="9"/>
+      <c r="W222" s="17">
+        <v>134.39286436420855</v>
+      </c>
       <c r="X222" s="9"/>
       <c r="Y222" s="9"/>
       <c r="Z222" s="9"/>
@@ -23165,7 +23569,9 @@
       <c r="V223" s="17">
         <v>93.036623692453162</v>
       </c>
-      <c r="W223" s="9"/>
+      <c r="W223" s="17">
+        <v>127.309425842796</v>
+      </c>
       <c r="X223" s="9"/>
       <c r="Y223" s="9"/>
       <c r="Z223" s="9"/>
@@ -23307,7 +23713,9 @@
       <c r="V224" s="17">
         <v>86.663776217157405</v>
       </c>
-      <c r="W224" s="9"/>
+      <c r="W224" s="17">
+        <v>122.84950652025547</v>
+      </c>
       <c r="X224" s="9"/>
       <c r="Y224" s="9"/>
       <c r="Z224" s="9"/>
@@ -23449,7 +23857,9 @@
       <c r="V225" s="17">
         <v>90.129342036015885</v>
       </c>
-      <c r="W225" s="9"/>
+      <c r="W225" s="17">
+        <v>102.35972433686224</v>
+      </c>
       <c r="X225" s="9"/>
       <c r="Y225" s="9"/>
       <c r="Z225" s="9"/>
@@ -23591,7 +24001,9 @@
       <c r="V226" s="17">
         <v>94.089474527299842</v>
       </c>
-      <c r="W226" s="9"/>
+      <c r="W226" s="17">
+        <v>91.031207660329017</v>
+      </c>
       <c r="X226" s="9"/>
       <c r="Y226" s="9"/>
       <c r="Z226" s="9"/>
@@ -23733,7 +24145,9 @@
       <c r="V227" s="17">
         <v>98.126611446840613</v>
       </c>
-      <c r="W227" s="9"/>
+      <c r="W227" s="17">
+        <v>100.21336766408382</v>
+      </c>
       <c r="X227" s="9"/>
       <c r="Y227" s="9"/>
       <c r="Z227" s="9"/>
@@ -23875,7 +24289,9 @@
       <c r="V228" s="17">
         <v>104.4203195288927</v>
       </c>
-      <c r="W228" s="9"/>
+      <c r="W228" s="17">
+        <v>115.48255675406473</v>
+      </c>
       <c r="X228" s="9"/>
       <c r="Y228" s="9"/>
       <c r="Z228" s="9"/>
@@ -24114,7 +24530,9 @@
       <c r="V230" s="17">
         <v>95.212738638994878</v>
       </c>
-      <c r="W230" s="9"/>
+      <c r="W230" s="17">
+        <v>106.24969018072079</v>
+      </c>
       <c r="X230" s="9"/>
       <c r="Y230" s="9"/>
       <c r="Z230" s="9"/>
@@ -24212,6 +24630,7 @@
       <c r="T231" s="12"/>
       <c r="U231" s="12"/>
       <c r="V231" s="12"/>
+      <c r="W231" s="12"/>
     </row>
     <row r="232" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="s">
@@ -24233,7 +24652,7 @@
     </row>
     <row r="237" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="239" spans="1:96" x14ac:dyDescent="0.25">
@@ -24243,7 +24662,7 @@
     </row>
     <row r="240" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="241" spans="1:96" x14ac:dyDescent="0.25">
@@ -24276,6 +24695,7 @@
       <c r="T243" s="15"/>
       <c r="U243" s="15"/>
       <c r="V243" s="15"/>
+      <c r="W243" s="15"/>
     </row>
     <row r="244" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
@@ -24343,6 +24763,9 @@
       </c>
       <c r="V244" s="16">
         <v>2020</v>
+      </c>
+      <c r="W244" s="16">
+        <v>2021</v>
       </c>
     </row>
     <row r="245" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24415,7 +24838,9 @@
       <c r="V246" s="17">
         <v>21.309277880515818</v>
       </c>
-      <c r="W246" s="9"/>
+      <c r="W246" s="17">
+        <v>19.137344568450814</v>
+      </c>
       <c r="X246" s="9"/>
       <c r="Y246" s="9"/>
       <c r="Z246" s="9"/>
@@ -24557,7 +24982,9 @@
       <c r="V247" s="17">
         <v>10.890126662832863</v>
       </c>
-      <c r="W247" s="9"/>
+      <c r="W247" s="17">
+        <v>9.4681239068580041</v>
+      </c>
       <c r="X247" s="9"/>
       <c r="Y247" s="9"/>
       <c r="Z247" s="9"/>
@@ -24699,7 +25126,9 @@
       <c r="V248" s="17">
         <v>4.7846791335102221</v>
       </c>
-      <c r="W248" s="9"/>
+      <c r="W248" s="17">
+        <v>4.5515032848572998</v>
+      </c>
       <c r="X248" s="9"/>
       <c r="Y248" s="9"/>
       <c r="Z248" s="9"/>
@@ -24841,7 +25270,9 @@
       <c r="V249" s="17">
         <v>0.21121677784638446</v>
       </c>
-      <c r="W249" s="9"/>
+      <c r="W249" s="17">
+        <v>0.15620996732596323</v>
+      </c>
       <c r="X249" s="9"/>
       <c r="Y249" s="9"/>
       <c r="Z249" s="9"/>
@@ -24983,7 +25414,9 @@
       <c r="V250" s="17">
         <v>1.1695748920806719</v>
       </c>
-      <c r="W250" s="9"/>
+      <c r="W250" s="17">
+        <v>1.1178811486039586</v>
+      </c>
       <c r="X250" s="9"/>
       <c r="Y250" s="9"/>
       <c r="Z250" s="9"/>
@@ -25125,7 +25558,9 @@
       <c r="V251" s="17">
         <v>1.6244986005927413</v>
       </c>
-      <c r="W251" s="9"/>
+      <c r="W251" s="17">
+        <v>1.5666511610488449</v>
+      </c>
       <c r="X251" s="9"/>
       <c r="Y251" s="9"/>
       <c r="Z251" s="9"/>
@@ -25267,7 +25702,9 @@
       <c r="V252" s="17">
         <v>1.6775819345704797</v>
       </c>
-      <c r="W252" s="9"/>
+      <c r="W252" s="17">
+        <v>1.2505228453776771</v>
+      </c>
       <c r="X252" s="9"/>
       <c r="Y252" s="9"/>
       <c r="Z252" s="9"/>
@@ -25409,7 +25846,9 @@
       <c r="V253" s="17">
         <v>0.68343983032211975</v>
       </c>
-      <c r="W253" s="9"/>
+      <c r="W253" s="17">
+        <v>0.78948002016498986</v>
+      </c>
       <c r="X253" s="9"/>
       <c r="Y253" s="9"/>
       <c r="Z253" s="9"/>
@@ -25551,7 +25990,9 @@
       <c r="V254" s="17">
         <v>0.21006019023256886</v>
       </c>
-      <c r="W254" s="9"/>
+      <c r="W254" s="17">
+        <v>0.19847461894011192</v>
+      </c>
       <c r="X254" s="9"/>
       <c r="Y254" s="9"/>
       <c r="Z254" s="9"/>
@@ -25693,7 +26134,9 @@
       <c r="V255" s="17">
         <v>5.8099858527764239E-2</v>
       </c>
-      <c r="W255" s="9"/>
+      <c r="W255" s="17">
+        <v>3.8497615273962046E-2</v>
+      </c>
       <c r="X255" s="9"/>
       <c r="Y255" s="9"/>
       <c r="Z255" s="9"/>
@@ -25835,7 +26278,9 @@
       <c r="V256" s="17">
         <v>9.5710432445345273</v>
       </c>
-      <c r="W256" s="9"/>
+      <c r="W256" s="17">
+        <v>13.610075568090332</v>
+      </c>
       <c r="X256" s="9"/>
       <c r="Y256" s="9"/>
       <c r="Z256" s="9"/>
@@ -25977,7 +26422,9 @@
       <c r="V257" s="17">
         <v>5.6017866634031064</v>
       </c>
-      <c r="W257" s="9"/>
+      <c r="W257" s="17">
+        <v>5.0610541696959785</v>
+      </c>
       <c r="X257" s="9"/>
       <c r="Y257" s="9"/>
       <c r="Z257" s="9"/>
@@ -26119,7 +26566,9 @@
       <c r="V258" s="17">
         <v>1.152135868984308</v>
       </c>
-      <c r="W258" s="9"/>
+      <c r="W258" s="17">
+        <v>0.86444204127195179</v>
+      </c>
       <c r="X258" s="9"/>
       <c r="Y258" s="9"/>
       <c r="Z258" s="9"/>
@@ -26261,7 +26710,9 @@
       <c r="V259" s="17">
         <v>5.4142753418736289</v>
       </c>
-      <c r="W259" s="9"/>
+      <c r="W259" s="17">
+        <v>6.0382649367793526</v>
+      </c>
       <c r="X259" s="9"/>
       <c r="Y259" s="9"/>
       <c r="Z259" s="9"/>
@@ -26403,7 +26854,9 @@
       <c r="V260" s="17">
         <v>8.0054425627920711</v>
       </c>
-      <c r="W260" s="9"/>
+      <c r="W260" s="17">
+        <v>7.4945738811208127</v>
+      </c>
       <c r="X260" s="9"/>
       <c r="Y260" s="9"/>
       <c r="Z260" s="9"/>
@@ -26545,7 +26998,9 @@
       <c r="V261" s="17">
         <v>1.1911886229215722</v>
       </c>
-      <c r="W261" s="9"/>
+      <c r="W261" s="17">
+        <v>1.1043819974167284</v>
+      </c>
       <c r="X261" s="9"/>
       <c r="Y261" s="9"/>
       <c r="Z261" s="9"/>
@@ -26687,7 +27142,9 @@
       <c r="V262" s="17">
         <v>3.1057846508823523</v>
       </c>
-      <c r="W262" s="9"/>
+      <c r="W262" s="17">
+        <v>2.6911630323566702</v>
+      </c>
       <c r="X262" s="9"/>
       <c r="Y262" s="9"/>
       <c r="Z262" s="9"/>
@@ -26829,7 +27286,9 @@
       <c r="V263" s="17">
         <v>5.0902701785580264</v>
       </c>
-      <c r="W263" s="9"/>
+      <c r="W263" s="17">
+        <v>4.963134584534008</v>
+      </c>
       <c r="X263" s="9"/>
       <c r="Y263" s="9"/>
       <c r="Z263" s="9"/>
@@ -26971,7 +27430,9 @@
       <c r="V264" s="17">
         <v>2.8633657147778493</v>
       </c>
-      <c r="W264" s="9"/>
+      <c r="W264" s="17">
+        <v>2.7296410047912643</v>
+      </c>
       <c r="X264" s="9"/>
       <c r="Y264" s="9"/>
       <c r="Z264" s="9"/>
@@ -27113,7 +27574,9 @@
       <c r="V265" s="17">
         <v>1.27218731562898</v>
       </c>
-      <c r="W265" s="9"/>
+      <c r="W265" s="17">
+        <v>1.0296376897652109</v>
+      </c>
       <c r="X265" s="9"/>
       <c r="Y265" s="9"/>
       <c r="Z265" s="9"/>
@@ -27255,7 +27718,9 @@
       <c r="V266" s="17">
         <v>2.1659372255891265</v>
       </c>
-      <c r="W266" s="9"/>
+      <c r="W266" s="17">
+        <v>3.6131331527737585</v>
+      </c>
       <c r="X266" s="9"/>
       <c r="Y266" s="9"/>
       <c r="Z266" s="9"/>
@@ -27397,7 +27862,9 @@
       <c r="V267" s="17">
         <v>1.2123995328415673</v>
       </c>
-      <c r="W267" s="9"/>
+      <c r="W267" s="17">
+        <v>1.0311265688095679</v>
+      </c>
       <c r="X267" s="9"/>
       <c r="Y267" s="9"/>
       <c r="Z267" s="9"/>
@@ -27539,7 +28006,9 @@
       <c r="V268" s="17">
         <v>1.3753178092234524</v>
       </c>
-      <c r="W268" s="9"/>
+      <c r="W268" s="17">
+        <v>1.409566109723942</v>
+      </c>
       <c r="X268" s="9"/>
       <c r="Y268" s="9"/>
       <c r="Z268" s="9"/>
@@ -27681,7 +28150,9 @@
       <c r="V269" s="17">
         <v>0.27218083607222976</v>
       </c>
-      <c r="W269" s="9"/>
+      <c r="W269" s="17">
+        <v>0.35676772025347692</v>
+      </c>
       <c r="X269" s="9"/>
       <c r="Y269" s="9"/>
       <c r="Z269" s="9"/>
@@ -27823,7 +28294,9 @@
       <c r="V270" s="17">
         <v>1.9950969097741393</v>
       </c>
-      <c r="W270" s="9"/>
+      <c r="W270" s="17">
+        <v>1.9274559107969595</v>
+      </c>
       <c r="X270" s="9"/>
       <c r="Y270" s="9"/>
       <c r="Z270" s="9"/>
@@ -27965,7 +28438,9 @@
       <c r="V271" s="17">
         <v>2.4161177795330406</v>
       </c>
-      <c r="W271" s="9"/>
+      <c r="W271" s="17">
+        <v>2.4797732768499765</v>
+      </c>
       <c r="X271" s="9"/>
       <c r="Y271" s="9"/>
       <c r="Z271" s="9"/>
@@ -28107,7 +28582,9 @@
       <c r="V272" s="17">
         <v>1.3591980521213431</v>
       </c>
-      <c r="W272" s="9"/>
+      <c r="W272" s="17">
+        <v>1.1509686270831818</v>
+      </c>
       <c r="X272" s="9"/>
       <c r="Y272" s="9"/>
       <c r="Z272" s="9"/>
@@ -28249,7 +28726,9 @@
       <c r="V273" s="17">
         <v>1.1006047813469892</v>
       </c>
-      <c r="W273" s="9"/>
+      <c r="W273" s="17">
+        <v>1.0872249216788257</v>
+      </c>
       <c r="X273" s="9"/>
       <c r="Y273" s="9"/>
       <c r="Z273" s="9"/>
@@ -28391,7 +28870,9 @@
       <c r="V274" s="17">
         <v>0.59424254881538052</v>
       </c>
-      <c r="W274" s="9"/>
+      <c r="W274" s="17">
+        <v>0.43428734142564329</v>
+      </c>
       <c r="X274" s="9"/>
       <c r="Y274" s="9"/>
       <c r="Z274" s="9"/>
@@ -28533,7 +29014,9 @@
       <c r="V275" s="17">
         <v>22.932146479810491</v>
       </c>
-      <c r="W275" s="9"/>
+      <c r="W275" s="17">
+        <v>21.785982896331543</v>
+      </c>
       <c r="X275" s="9"/>
       <c r="Y275" s="9"/>
       <c r="Z275" s="9"/>
@@ -28772,7 +29255,9 @@
       <c r="V277" s="17">
         <v>100</v>
       </c>
-      <c r="W277" s="9"/>
+      <c r="W277" s="17">
+        <v>100</v>
+      </c>
       <c r="X277" s="9"/>
       <c r="Y277" s="9"/>
       <c r="Z277" s="9"/>
@@ -28870,6 +29355,7 @@
       <c r="T278" s="12"/>
       <c r="U278" s="12"/>
       <c r="V278" s="12"/>
+      <c r="W278" s="12"/>
     </row>
     <row r="279" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A279" s="13" t="s">
@@ -29082,7 +29568,7 @@
     </row>
     <row r="284" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="286" spans="1:96" x14ac:dyDescent="0.25">
@@ -29092,7 +29578,7 @@
     </row>
     <row r="287" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="288" spans="1:96" x14ac:dyDescent="0.25">
@@ -29125,6 +29611,7 @@
       <c r="T290" s="15"/>
       <c r="U290" s="15"/>
       <c r="V290" s="15"/>
+      <c r="W290" s="15"/>
     </row>
     <row r="291" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
@@ -29192,6 +29679,9 @@
       </c>
       <c r="V291" s="16">
         <v>2020</v>
+      </c>
+      <c r="W291" s="16">
+        <v>2021</v>
       </c>
     </row>
     <row r="292" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -29264,7 +29754,9 @@
       <c r="V293" s="17">
         <v>20.900761881355184</v>
       </c>
-      <c r="W293" s="9"/>
+      <c r="W293" s="17">
+        <v>21.461491299535684</v>
+      </c>
       <c r="X293" s="9"/>
       <c r="Y293" s="9"/>
       <c r="Z293" s="9"/>
@@ -29406,7 +29898,9 @@
       <c r="V294" s="17">
         <v>10.672403446203644</v>
       </c>
-      <c r="W294" s="9"/>
+      <c r="W294" s="17">
+        <v>10.439667641181691</v>
+      </c>
       <c r="X294" s="9"/>
       <c r="Y294" s="9"/>
       <c r="Z294" s="9"/>
@@ -29548,7 +30042,9 @@
       <c r="V295" s="17">
         <v>4.808045592599723</v>
       </c>
-      <c r="W295" s="9"/>
+      <c r="W295" s="17">
+        <v>5.3744646149836068</v>
+      </c>
       <c r="X295" s="9"/>
       <c r="Y295" s="9"/>
       <c r="Z295" s="9"/>
@@ -29690,7 +30186,9 @@
       <c r="V296" s="17">
         <v>0.19944138289484004</v>
       </c>
-      <c r="W296" s="9"/>
+      <c r="W296" s="17">
+        <v>0.18336947729452252</v>
+      </c>
       <c r="X296" s="9"/>
       <c r="Y296" s="9"/>
       <c r="Z296" s="9"/>
@@ -29832,7 +30330,9 @@
       <c r="V297" s="17">
         <v>1.0975313081376998</v>
       </c>
-      <c r="W297" s="9"/>
+      <c r="W297" s="17">
+        <v>1.2235191416705269</v>
+      </c>
       <c r="X297" s="9"/>
       <c r="Y297" s="9"/>
       <c r="Z297" s="9"/>
@@ -29974,7 +30474,9 @@
       <c r="V298" s="17">
         <v>1.5257185115516441</v>
       </c>
-      <c r="W298" s="9"/>
+      <c r="W298" s="17">
+        <v>1.7198634918707305</v>
+      </c>
       <c r="X298" s="9"/>
       <c r="Y298" s="9"/>
       <c r="Z298" s="9"/>
@@ -30116,7 +30618,9 @@
       <c r="V299" s="17">
         <v>1.7133627236972049</v>
       </c>
-      <c r="W299" s="9"/>
+      <c r="W299" s="17">
+        <v>1.4205776860114772</v>
+      </c>
       <c r="X299" s="9"/>
       <c r="Y299" s="9"/>
       <c r="Z299" s="9"/>
@@ -30258,7 +30762,9 @@
       <c r="V300" s="17">
         <v>0.61993226321948813</v>
       </c>
-      <c r="W300" s="9"/>
+      <c r="W300" s="17">
+        <v>0.83242033951748706</v>
+      </c>
       <c r="X300" s="9"/>
       <c r="Y300" s="9"/>
       <c r="Z300" s="9"/>
@@ -30400,7 +30906,9 @@
       <c r="V301" s="17">
         <v>0.20929587633372729</v>
       </c>
-      <c r="W301" s="9"/>
+      <c r="W301" s="17">
+        <v>0.22486217087901816</v>
+      </c>
       <c r="X301" s="9"/>
       <c r="Y301" s="9"/>
       <c r="Z301" s="9"/>
@@ -30542,7 +31050,9 @@
       <c r="V302" s="17">
         <v>5.5030776717212314E-2</v>
       </c>
-      <c r="W302" s="9"/>
+      <c r="W302" s="17">
+        <v>4.2746736126628028E-2</v>
+      </c>
       <c r="X302" s="9"/>
       <c r="Y302" s="9"/>
       <c r="Z302" s="9"/>
@@ -30684,7 +31194,9 @@
       <c r="V303" s="17">
         <v>13.38205131670677</v>
       </c>
-      <c r="W303" s="9"/>
+      <c r="W303" s="17">
+        <v>14.359084108978998</v>
+      </c>
       <c r="X303" s="9"/>
       <c r="Y303" s="9"/>
       <c r="Z303" s="9"/>
@@ -30826,7 +31338,9 @@
       <c r="V304" s="17">
         <v>5.5318947265749285</v>
       </c>
-      <c r="W304" s="9"/>
+      <c r="W304" s="17">
+        <v>5.5158593699690694</v>
+      </c>
       <c r="X304" s="9"/>
       <c r="Y304" s="9"/>
       <c r="Z304" s="9"/>
@@ -30968,7 +31482,9 @@
       <c r="V305" s="17">
         <v>1.1435331309381263</v>
       </c>
-      <c r="W305" s="9"/>
+      <c r="W305" s="17">
+        <v>0.93704073448373626</v>
+      </c>
       <c r="X305" s="9"/>
       <c r="Y305" s="9"/>
       <c r="Z305" s="9"/>
@@ -31110,7 +31626,9 @@
       <c r="V306" s="17">
         <v>4.9483937127386897</v>
       </c>
-      <c r="W306" s="9"/>
+      <c r="W306" s="17">
+        <v>4.7280670455509872</v>
+      </c>
       <c r="X306" s="9"/>
       <c r="Y306" s="9"/>
       <c r="Z306" s="9"/>
@@ -31252,7 +31770,9 @@
       <c r="V307" s="17">
         <v>7.4547204172294022</v>
       </c>
-      <c r="W307" s="9"/>
+      <c r="W307" s="17">
+        <v>7.919667672369882</v>
+      </c>
       <c r="X307" s="9"/>
       <c r="Y307" s="9"/>
       <c r="Z307" s="9"/>
@@ -31394,7 +31914,9 @@
       <c r="V308" s="17">
         <v>1.3569447381984101</v>
       </c>
-      <c r="W308" s="9"/>
+      <c r="W308" s="17">
+        <v>1.3346556521614654</v>
+      </c>
       <c r="X308" s="9"/>
       <c r="Y308" s="9"/>
       <c r="Z308" s="9"/>
@@ -31536,7 +32058,9 @@
       <c r="V309" s="17">
         <v>2.9999881141960683</v>
       </c>
-      <c r="W309" s="9"/>
+      <c r="W309" s="17">
+        <v>2.8653736881347687</v>
+      </c>
       <c r="X309" s="9"/>
       <c r="Y309" s="9"/>
       <c r="Z309" s="9"/>
@@ -31678,7 +32202,9 @@
       <c r="V310" s="17">
         <v>5.3425452620225107</v>
       </c>
-      <c r="W310" s="9"/>
+      <c r="W310" s="17">
+        <v>5.0223251876196944</v>
+      </c>
       <c r="X310" s="9"/>
       <c r="Y310" s="9"/>
       <c r="Z310" s="9"/>
@@ -31820,7 +32346,9 @@
       <c r="V311" s="17">
         <v>2.1261376514811712</v>
       </c>
-      <c r="W311" s="9"/>
+      <c r="W311" s="17">
+        <v>2.1379764484780517</v>
+      </c>
       <c r="X311" s="9"/>
       <c r="Y311" s="9"/>
       <c r="Z311" s="9"/>
@@ -31962,7 +32490,9 @@
       <c r="V312" s="17">
         <v>1.1607764296303069</v>
       </c>
-      <c r="W312" s="9"/>
+      <c r="W312" s="17">
+        <v>0.94837861668600854</v>
+      </c>
       <c r="X312" s="9"/>
       <c r="Y312" s="9"/>
       <c r="Z312" s="9"/>
@@ -32104,7 +32634,9 @@
       <c r="V313" s="17">
         <v>2.0816789139357179</v>
       </c>
-      <c r="W313" s="9"/>
+      <c r="W313" s="17">
+        <v>3.6781308421195655</v>
+      </c>
       <c r="X313" s="9"/>
       <c r="Y313" s="9"/>
       <c r="Z313" s="9"/>
@@ -32246,7 +32778,9 @@
       <c r="V314" s="17">
         <v>1.2064480743909236</v>
       </c>
-      <c r="W314" s="9"/>
+      <c r="W314" s="17">
+        <v>1.0115632752891599</v>
+      </c>
       <c r="X314" s="9"/>
       <c r="Y314" s="9"/>
       <c r="Z314" s="9"/>
@@ -32388,7 +32922,9 @@
       <c r="V315" s="17">
         <v>1.3693543847764891</v>
       </c>
-      <c r="W315" s="9"/>
+      <c r="W315" s="17">
+        <v>1.0766897526724353</v>
+      </c>
       <c r="X315" s="9"/>
       <c r="Y315" s="9"/>
       <c r="Z315" s="9"/>
@@ -32530,7 +33066,9 @@
       <c r="V316" s="17">
         <v>0.2623198603985305</v>
       </c>
-      <c r="W316" s="9"/>
+      <c r="W316" s="17">
+        <v>0.28205708630992782</v>
+      </c>
       <c r="X316" s="9"/>
       <c r="Y316" s="9"/>
       <c r="Z316" s="9"/>
@@ -32672,7 +33210,9 @@
       <c r="V317" s="17">
         <v>2.0417619759905401</v>
       </c>
-      <c r="W317" s="9"/>
+      <c r="W317" s="17">
+        <v>1.6086129679985861</v>
+      </c>
       <c r="X317" s="9"/>
       <c r="Y317" s="9"/>
       <c r="Z317" s="9"/>
@@ -32814,7 +33354,9 @@
       <c r="V318" s="17">
         <v>2.6544561142509329</v>
       </c>
-      <c r="W318" s="9"/>
+      <c r="W318" s="17">
+        <v>2.1446984187950231</v>
+      </c>
       <c r="X318" s="9"/>
       <c r="Y318" s="9"/>
       <c r="Z318" s="9"/>
@@ -32956,7 +33498,9 @@
       <c r="V319" s="17">
         <v>1.4358583561338625</v>
       </c>
-      <c r="W319" s="9"/>
+      <c r="W319" s="17">
+        <v>1.1947087668277161</v>
+      </c>
       <c r="X319" s="9"/>
       <c r="Y319" s="9"/>
       <c r="Z319" s="9"/>
@@ -33098,7 +33642,9 @@
       <c r="V320" s="17">
         <v>1.1137440815530748</v>
       </c>
-      <c r="W320" s="9"/>
+      <c r="W320" s="17">
+        <v>1.2689858132627585</v>
+      </c>
       <c r="X320" s="9"/>
       <c r="Y320" s="9"/>
       <c r="Z320" s="9"/>
@@ -33240,7 +33786,9 @@
       <c r="V321" s="17">
         <v>0.57659649767056809</v>
       </c>
-      <c r="W321" s="9"/>
+      <c r="W321" s="17">
+        <v>0.46044651079439769</v>
+      </c>
       <c r="X321" s="9"/>
       <c r="Y321" s="9"/>
       <c r="Z321" s="9"/>
@@ -33382,7 +33930,9 @@
       <c r="V322" s="17">
         <v>20.910034359827783</v>
       </c>
-      <c r="W322" s="9"/>
+      <c r="W322" s="17">
+        <v>20.04418674196209</v>
+      </c>
       <c r="X322" s="9"/>
       <c r="Y322" s="9"/>
       <c r="Z322" s="9"/>
@@ -33621,7 +34171,9 @@
       <c r="V324" s="17">
         <v>100</v>
       </c>
-      <c r="W324" s="9"/>
+      <c r="W324" s="17">
+        <v>100</v>
+      </c>
       <c r="X324" s="9"/>
       <c r="Y324" s="9"/>
       <c r="Z324" s="9"/>
@@ -33719,6 +34271,7 @@
       <c r="T325" s="12"/>
       <c r="U325" s="12"/>
       <c r="V325" s="12"/>
+      <c r="W325" s="12"/>
     </row>
     <row r="326" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A326" s="13" t="s">
@@ -33922,6 +34475,11 @@
       <c r="CR328" s="19"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="V199:W230 V106:W135 V137:W137 V153:W182 V184:W184">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/Data/National Accounts/PSA-06IOG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-06IOG_2018PSNA_Ann.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6E309C-FE18-4E0D-BC78-AEC610ED9564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOG" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,7 @@
     <definedName name="PCE_Inf_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_IPIN_Anl" localSheetId="0">#REF!</definedName>
     <definedName name="PCE_IPIN_Anl">#REF!</definedName>
-    <definedName name="PCE_IPIN_Qrt" localSheetId="0">IOG!$A$318:$A$328</definedName>
+    <definedName name="PCE_IPIN_Qrt" localSheetId="0">IOG!$A$318:$A$326</definedName>
     <definedName name="PCE_IPIN_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Lev_Anl" localSheetId="0">#REF!</definedName>
     <definedName name="PCE_Lev_Anl">#REF!</definedName>
@@ -271,24 +272,23 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2021</t>
   </si>
   <si>
     <t>Annual 2001 to 2021</t>
   </si>
+  <si>
+    <t>As of April 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -361,10 +361,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -381,30 +381,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -702,17 +700,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CR328"/>
+  <dimension ref="A1:CR326"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7265625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -734,7 +732,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
@@ -744,7 +742,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
@@ -921,7 +919,7 @@
         <v>1020718.6693309145</v>
       </c>
       <c r="W12" s="8">
-        <v>1205555.8103618815</v>
+        <v>1202139.7898324321</v>
       </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
@@ -1065,7 +1063,7 @@
         <v>521639.24364117411</v>
       </c>
       <c r="W13" s="11">
-        <v>596443.86650989309</v>
+        <v>609159.51054145768</v>
       </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -1209,7 +1207,7 @@
         <v>229187.08675705385</v>
       </c>
       <c r="W14" s="11">
-        <v>286721.66147788044</v>
+        <v>281523.16213282407</v>
       </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
@@ -1353,7 +1351,7 @@
         <v>10117.325872447924</v>
       </c>
       <c r="W15" s="11">
-        <v>9840.4370090463017</v>
+        <v>10169.618906012642</v>
       </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
@@ -1497,7 +1495,7 @@
         <v>56022.871080910314</v>
       </c>
       <c r="W16" s="11">
-        <v>70420.85223334677</v>
+        <v>67795.821593510249</v>
       </c>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
@@ -1641,7 +1639,7 @@
         <v>77813.807639305058</v>
       </c>
       <c r="W17" s="11">
-        <v>98691.090775793738</v>
+        <v>94587.316420533316</v>
       </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
@@ -1785,7 +1783,7 @@
         <v>80356.509946028818</v>
       </c>
       <c r="W18" s="11">
-        <v>78776.607530005451</v>
+        <v>76559.420333514761</v>
       </c>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
@@ -1929,7 +1927,7 @@
         <v>32736.904464134466</v>
       </c>
       <c r="W19" s="11">
-        <v>49733.243923692644</v>
+        <v>47688.569884228738</v>
       </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
@@ -2073,7 +2071,7 @@
         <v>10061.925094591537</v>
       </c>
       <c r="W20" s="11">
-        <v>12502.896063598522</v>
+        <v>12269.004703642944</v>
       </c>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
@@ -2217,7 +2215,7 @@
         <v>2782.9948352683637</v>
       </c>
       <c r="W21" s="11">
-        <v>2425.1548386244203</v>
+        <v>2387.3653167075981</v>
       </c>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
@@ -2361,7 +2359,7 @@
         <v>458454.88427379046</v>
       </c>
       <c r="W22" s="11">
-        <v>857365.8493678784</v>
+        <v>857957.66748446878</v>
       </c>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
@@ -2505,7 +2503,7 @@
         <v>268326.70074534102</v>
       </c>
       <c r="W23" s="11">
-        <v>318820.78723146109</v>
+        <v>322393.09478682064</v>
       </c>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
@@ -2649,7 +2647,7 @@
         <v>55187.53838924611</v>
       </c>
       <c r="W24" s="11">
-        <v>54455.471700839451</v>
+        <v>54554.149256572869</v>
       </c>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
@@ -2793,7 +2791,7 @@
         <v>259344.87096822535</v>
       </c>
       <c r="W25" s="11">
-        <v>380380.11768045661</v>
+        <v>380411.22656357998</v>
       </c>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
@@ -2937,7 +2935,7 @@
         <v>383462.29871870222</v>
       </c>
       <c r="W26" s="11">
-        <v>472120.20749558957</v>
+        <v>472721.22977847507</v>
       </c>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
@@ -3081,7 +3079,7 @@
         <v>57058.173107891358</v>
       </c>
       <c r="W27" s="11">
-        <v>69570.474058333522</v>
+        <v>69582.051188484227</v>
       </c>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
@@ -3225,7 +3223,7 @@
         <v>148767.7054967513</v>
       </c>
       <c r="W28" s="11">
-        <v>169529.64496637668</v>
+        <v>169692.181041812</v>
       </c>
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
@@ -3369,7 +3367,7 @@
         <v>243824.95889001078</v>
       </c>
       <c r="W29" s="11">
-        <v>312652.34915908356</v>
+        <v>312821.21231043327</v>
       </c>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
@@ -3513,7 +3511,7 @@
         <v>137155.7900077026</v>
       </c>
       <c r="W30" s="11">
-        <v>171953.56240557783</v>
+        <v>172812.08266537217</v>
       </c>
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
@@ -3657,7 +3655,7 @@
         <v>60938.026676906229</v>
       </c>
       <c r="W31" s="11">
-        <v>64861.96112653875</v>
+        <v>64881.056309002568</v>
       </c>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
@@ -3801,7 +3799,7 @@
         <v>103748.82598809635</v>
       </c>
       <c r="W32" s="11">
-        <v>227609.09437343935</v>
+        <v>227590.72778330688</v>
       </c>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
@@ -3945,7 +3943,7 @@
         <v>58074.179932253595</v>
       </c>
       <c r="W33" s="11">
-        <v>64955.752967743822</v>
+        <v>64961.170876503704</v>
       </c>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
@@ -4089,7 +4087,7 @@
         <v>65877.997931654449</v>
       </c>
       <c r="W34" s="11">
-        <v>88795.527905596595</v>
+        <v>89047.148590826982</v>
       </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
@@ -4233,7 +4231,7 @@
         <v>13037.516445690893</v>
       </c>
       <c r="W35" s="11">
-        <v>22474.559966391338</v>
+        <v>22083.42160109683</v>
       </c>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
@@ -4377,7 +4375,7 @@
         <v>95565.540716557822</v>
       </c>
       <c r="W36" s="11">
-        <v>121419.96315979636</v>
+        <v>121496.62859938966</v>
       </c>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
@@ -4521,7 +4519,7 @@
         <v>115732.52452288321</v>
       </c>
       <c r="W37" s="11">
-        <v>156213.16069184488</v>
+        <v>156159.62229950956</v>
       </c>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
@@ -4665,7 +4663,7 @@
         <v>65105.858344782435</v>
       </c>
       <c r="W38" s="11">
-        <v>72505.195846859933</v>
+        <v>72465.017949591653</v>
       </c>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
@@ -4809,7 +4807,7 @@
         <v>52719.188992459065</v>
       </c>
       <c r="W39" s="11">
-        <v>68489.665157669937</v>
+        <v>68622.744213322439</v>
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
@@ -4953,7 +4951,7 @@
         <v>28464.336853068613</v>
       </c>
       <c r="W40" s="11">
-        <v>27357.903597838649</v>
+        <v>27336.674851891516</v>
       </c>
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
@@ -5097,7 +5095,7 @@
         <v>1098454.3995822715</v>
       </c>
       <c r="W41" s="11">
-        <v>1372406.6142601296</v>
+        <v>1377266.6587421473</v>
       </c>
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
@@ -5338,7 +5336,7 @@
         <v>4790019.9859151999</v>
       </c>
       <c r="W43" s="8">
-        <v>6299493.6734813275</v>
+        <v>6306995.5567250401</v>
       </c>
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
@@ -5650,7 +5648,7 @@
     </row>
     <row r="50" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:96" x14ac:dyDescent="0.25">
@@ -5660,7 +5658,7 @@
     </row>
     <row r="53" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:96" x14ac:dyDescent="0.25">
@@ -5837,7 +5835,7 @@
         <v>1051488.1576102807</v>
       </c>
       <c r="W59" s="8">
-        <v>1272441.6272173871</v>
+        <v>1270445.3354847038</v>
       </c>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
@@ -5981,7 +5979,7 @@
         <v>536913.72116597043</v>
       </c>
       <c r="W60" s="11">
-        <v>618962.93671080191</v>
+        <v>628551.20861141244</v>
       </c>
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
@@ -6125,7 +6123,7 @@
         <v>241886.06284150982</v>
       </c>
       <c r="W61" s="11">
-        <v>318649.45472172112</v>
+        <v>314276.56117878546</v>
       </c>
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
@@ -6269,7 +6267,7 @@
         <v>10033.617599290334</v>
       </c>
       <c r="W62" s="11">
-        <v>10871.889227739357</v>
+        <v>11024.711418646446</v>
       </c>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
@@ -6413,7 +6411,7 @@
         <v>55215.268211958806</v>
       </c>
       <c r="W63" s="11">
-        <v>72541.868867824116</v>
+        <v>70782.771261158559</v>
       </c>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
@@ -6557,7 +6555,7 @@
         <v>76756.768765183326</v>
       </c>
       <c r="W64" s="11">
-        <v>101969.88968027194</v>
+        <v>98853.053283453541</v>
       </c>
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
@@ -6701,7 +6699,7 @@
         <v>86196.887170205562</v>
       </c>
       <c r="W65" s="11">
-        <v>84225.376379891255</v>
+        <v>82983.725244003828</v>
       </c>
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
@@ -6845,7 +6843,7 @@
         <v>31187.926880183455</v>
       </c>
       <c r="W66" s="11">
-        <v>49353.806618620052</v>
+        <v>48268.246222288391</v>
       </c>
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
@@ -6989,7 +6987,7 @@
         <v>10529.383409601851</v>
       </c>
       <c r="W67" s="11">
-        <v>13331.971325735516</v>
+        <v>13199.24138149861</v>
       </c>
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
@@ -7133,7 +7131,7 @@
         <v>2768.5215663771032</v>
       </c>
       <c r="W68" s="11">
-        <v>2534.4336847819895</v>
+        <v>2505.816883456755</v>
       </c>
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
@@ -7277,7 +7275,7 @@
         <v>673232.32348781149</v>
       </c>
       <c r="W69" s="11">
-        <v>851343.27777938952</v>
+        <v>851625.96200533165</v>
       </c>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
@@ -7421,7 +7419,7 @@
         <v>278301.90244544082</v>
       </c>
       <c r="W70" s="11">
-        <v>327032.68259729742</v>
+        <v>330755.68338944775</v>
       </c>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
@@ -7565,7 +7563,7 @@
         <v>57529.555709118627</v>
       </c>
       <c r="W71" s="11">
-        <v>55556.700152577781</v>
+        <v>55658.939559825427</v>
       </c>
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
@@ -7709,7 +7707,7 @@
         <v>248946.78087211109</v>
       </c>
       <c r="W72" s="11">
-        <v>280324.84980034729</v>
+        <v>280343.47476116219</v>
       </c>
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
@@ -7853,7 +7851,7 @@
         <v>375036.57912129868</v>
       </c>
       <c r="W73" s="11">
-        <v>469553.33529265458</v>
+        <v>470058.56247071276</v>
       </c>
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
@@ -7997,7 +7995,7 @@
         <v>68265.99579702488</v>
       </c>
       <c r="W74" s="11">
-        <v>79131.099796776922</v>
+        <v>79143.187014313487</v>
       </c>
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
@@ -8141,7 +8139,7 @@
         <v>150925.21473404934</v>
       </c>
       <c r="W75" s="11">
-        <v>169886.64522092047</v>
+        <v>170079.25406421412</v>
       </c>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
@@ -8285,7 +8283,7 @@
         <v>268775.99517196848</v>
       </c>
       <c r="W76" s="11">
-        <v>297771.27530219359</v>
+        <v>297902.56894429406</v>
       </c>
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
@@ -8429,7 +8427,7 @@
         <v>106963.01764846628</v>
       </c>
       <c r="W77" s="11">
-        <v>126759.60831821218</v>
+        <v>127390.08417690406</v>
       </c>
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
@@ -8573,7 +8571,7 @@
         <v>58397.041998656197</v>
       </c>
       <c r="W78" s="11">
-        <v>56228.917804058998</v>
+        <v>56243.84986588524</v>
       </c>
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
@@ -8717,7 +8715,7 @@
         <v>104726.3606166932</v>
       </c>
       <c r="W79" s="11">
-        <v>218074.63090723491</v>
+        <v>218066.94380187494</v>
       </c>
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
@@ -8861,7 +8859,7 @@
         <v>60694.718699485544</v>
       </c>
       <c r="W80" s="11">
-        <v>59975.106206628596</v>
+        <v>59978.660592942542</v>
       </c>
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
@@ -9005,7 +9003,7 @@
         <v>68890.307795364963</v>
       </c>
       <c r="W81" s="11">
-        <v>63836.424122513781</v>
+        <v>63964.864009834884</v>
       </c>
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
@@ -9149,7 +9147,7 @@
         <v>13196.946038655726</v>
       </c>
       <c r="W82" s="11">
-        <v>16723.030700115618</v>
+        <v>15951.48644393908</v>
       </c>
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
@@ -9293,7 +9291,7 @@
         <v>102718.19518350577</v>
       </c>
       <c r="W83" s="11">
-        <v>95373.89895209168</v>
+        <v>95440.18539637026</v>
       </c>
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
@@ -9437,7 +9435,7 @@
         <v>133541.98209974938</v>
       </c>
       <c r="W84" s="11">
-        <v>127158.15074608248</v>
+        <v>127118.94179667227</v>
       </c>
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
@@ -9581,7 +9579,7 @@
         <v>72236.02977015631</v>
       </c>
       <c r="W85" s="11">
-        <v>70833.715425266186</v>
+        <v>70811.799735544919</v>
       </c>
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
@@ -9725,7 +9723,7 @@
         <v>56030.910213195755</v>
       </c>
       <c r="W86" s="11">
-        <v>75237.566234680882</v>
+        <v>75362.893837006559</v>
       </c>
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
@@ -9869,7 +9867,7 @@
         <v>29007.765002146192</v>
       </c>
       <c r="W87" s="11">
-        <v>27299.654961743836</v>
+        <v>27281.362287665164</v>
       </c>
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
@@ -10013,7 +10011,7 @@
         <v>1051954.6430599969</v>
       </c>
       <c r="W88" s="11">
-        <v>1188410.313068189</v>
+        <v>1192647.6152162945</v>
       </c>
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
@@ -10254,7 +10252,7 @@
         <v>5030860.4230751768</v>
       </c>
       <c r="W90" s="8">
-        <v>5928952.5106063625</v>
+        <v>5936271.6548549393</v>
       </c>
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
@@ -10566,7 +10564,7 @@
     </row>
     <row r="97" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:91" x14ac:dyDescent="0.25">
@@ -10576,7 +10574,7 @@
     </row>
     <row r="100" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:91" x14ac:dyDescent="0.25">
@@ -10748,7 +10746,7 @@
         <v>-15.009106523797612</v>
       </c>
       <c r="V106" s="17">
-        <v>18.108529468960199</v>
+        <v>17.773861295242099</v>
       </c>
       <c r="W106" s="17"/>
       <c r="X106" s="9"/>
@@ -10885,7 +10883,7 @@
         <v>-7.1427724841533546</v>
       </c>
       <c r="V107" s="17">
-        <v>14.340298162109846</v>
+        <v>16.777929952004754</v>
       </c>
       <c r="W107" s="17"/>
       <c r="X107" s="9"/>
@@ -11022,7 +11020,7 @@
         <v>-10.481504472268384</v>
       </c>
       <c r="V108" s="17">
-        <v>25.103759350026195</v>
+        <v>22.835525385096517</v>
       </c>
       <c r="W108" s="17"/>
       <c r="X108" s="9"/>
@@ -11159,7 +11157,7 @@
         <v>-17.099867822745409</v>
       </c>
       <c r="V109" s="17">
-        <v>-2.736779134056178</v>
+        <v>0.51686615835045302</v>
       </c>
       <c r="W109" s="17"/>
       <c r="X109" s="9"/>
@@ -11296,7 +11294,7 @@
         <v>-40.284896666636136</v>
       </c>
       <c r="V110" s="17">
-        <v>25.700184361566116</v>
+        <v>21.014543320346803</v>
       </c>
       <c r="W110" s="17"/>
       <c r="X110" s="9"/>
@@ -11433,7 +11431,7 @@
         <v>-32.316845230315323</v>
       </c>
       <c r="V111" s="17">
-        <v>26.82979251351172</v>
+        <v>21.555954258117652</v>
       </c>
       <c r="W111" s="17"/>
       <c r="X111" s="9"/>
@@ -11570,7 +11568,7 @@
         <v>-19.038389829226205</v>
       </c>
       <c r="V112" s="17">
-        <v>-1.9661162699630665</v>
+        <v>-4.7253042909210023</v>
       </c>
       <c r="W112" s="17"/>
       <c r="X112" s="9"/>
@@ -11707,7 +11705,7 @@
         <v>-26.038292402990791</v>
       </c>
       <c r="V113" s="17">
-        <v>51.917979838866046</v>
+        <v>45.672202869623334</v>
       </c>
       <c r="W113" s="17"/>
       <c r="X113" s="9"/>
@@ -11844,7 +11842,7 @@
         <v>-32.041353113971965</v>
       </c>
       <c r="V114" s="17">
-        <v>24.259482614505345</v>
+        <v>21.93496362080603</v>
       </c>
       <c r="W114" s="17"/>
       <c r="X114" s="9"/>
@@ -11981,7 +11979,7 @@
         <v>-28.233438711904398</v>
       </c>
       <c r="V115" s="17">
-        <v>-12.858090575990474</v>
+        <v>-14.215963089367904</v>
       </c>
       <c r="W115" s="17"/>
       <c r="X115" s="9"/>
@@ -12118,7 +12116,7 @@
         <v>-42.67314192903148</v>
       </c>
       <c r="V116" s="17">
-        <v>87.012043884313215</v>
+        <v>87.141133602165809</v>
       </c>
       <c r="W116" s="17"/>
       <c r="X116" s="9"/>
@@ -12255,7 +12253,7 @@
         <v>-31.610554018388953</v>
       </c>
       <c r="V117" s="17">
-        <v>18.818137123834774</v>
+        <v>20.149464772345581</v>
       </c>
       <c r="W117" s="17"/>
       <c r="X117" s="9"/>
@@ -12392,7 +12390,7 @@
         <v>-40.428500607048157</v>
       </c>
       <c r="V118" s="17">
-        <v>-1.3265072329250955</v>
+        <v>-1.1477031793044432</v>
       </c>
       <c r="W118" s="17"/>
       <c r="X118" s="9"/>
@@ -12529,7 +12527,7 @@
         <v>-23.32566047919201</v>
       </c>
       <c r="V119" s="17">
-        <v>46.669612651433681</v>
+        <v>46.681607831059665</v>
       </c>
       <c r="W119" s="17"/>
       <c r="X119" s="9"/>
@@ -12666,7 +12664,7 @@
         <v>-41.286146154845007</v>
       </c>
       <c r="V120" s="17">
-        <v>23.120371695764661</v>
+        <v>23.27710738657278</v>
       </c>
       <c r="W120" s="17"/>
       <c r="X120" s="9"/>
@@ -12803,7 +12801,7 @@
         <v>-27.430128142332137</v>
       </c>
       <c r="V121" s="17">
-        <v>21.929024833624865</v>
+        <v>21.949314880642007</v>
       </c>
       <c r="W121" s="17"/>
       <c r="X121" s="9"/>
@@ -12940,7 +12938,7 @@
         <v>-18.313290704346258</v>
       </c>
       <c r="V122" s="17">
-        <v>13.955945210218218</v>
+        <v>14.065200155632994</v>
       </c>
       <c r="W122" s="17"/>
       <c r="X122" s="9"/>
@@ -13077,7 +13075,7 @@
         <v>-12.883940472468552</v>
       </c>
       <c r="V123" s="17">
-        <v>28.22819722082707</v>
+        <v>28.29745311329944</v>
       </c>
       <c r="W123" s="17"/>
       <c r="X123" s="9"/>
@@ -13214,7 +13212,7 @@
         <v>-16.656391970988011</v>
       </c>
       <c r="V124" s="17">
-        <v>25.370983168790033</v>
+        <v>25.99692849690642</v>
       </c>
       <c r="W124" s="17"/>
       <c r="X124" s="9"/>
@@ -13351,7 +13349,7 @@
         <v>-7.2784306620228705</v>
       </c>
       <c r="V125" s="17">
-        <v>6.4392213919844323</v>
+        <v>6.470556805198683</v>
       </c>
       <c r="W125" s="17"/>
       <c r="X125" s="9"/>
@@ -13488,7 +13486,7 @@
         <v>-7.4620362253713779</v>
       </c>
       <c r="V126" s="17">
-        <v>119.38474214595368</v>
+        <v>119.3670392081541</v>
       </c>
       <c r="W126" s="17"/>
       <c r="X126" s="9"/>
@@ -13625,7 +13623,7 @@
         <v>-17.530998366989948</v>
       </c>
       <c r="V127" s="17">
-        <v>11.849625846663557</v>
+        <v>11.858955136833842</v>
       </c>
       <c r="W127" s="17"/>
       <c r="X127" s="9"/>
@@ -13762,7 +13760,7 @@
         <v>-14.492467859738071</v>
       </c>
       <c r="V128" s="17">
-        <v>34.787836141769333</v>
+        <v>35.16978564407728</v>
       </c>
       <c r="W128" s="17"/>
       <c r="X128" s="9"/>
@@ -13899,7 +13897,7 @@
         <v>-18.199151326333705</v>
       </c>
       <c r="V129" s="17">
-        <v>72.38375161413154</v>
+        <v>69.383652884255838</v>
       </c>
       <c r="W129" s="17"/>
       <c r="X129" s="9"/>
@@ -14036,7 +14034,7 @@
         <v>-24.84062934716475</v>
       </c>
       <c r="V130" s="17">
-        <v>27.05412667513842</v>
+        <v>27.134349566170528</v>
       </c>
       <c r="W130" s="17"/>
       <c r="X130" s="9"/>
@@ -14173,7 +14171,7 @@
         <v>-23.258357383638341</v>
       </c>
       <c r="V131" s="17">
-        <v>34.977752654965769</v>
+        <v>34.931492200045199</v>
       </c>
       <c r="W131" s="17"/>
       <c r="X131" s="9"/>
@@ -14310,7 +14308,7 @@
         <v>5.5370890840275848</v>
       </c>
       <c r="V132" s="17">
-        <v>11.365087090769421</v>
+        <v>11.303375444091628</v>
       </c>
       <c r="W132" s="17"/>
       <c r="X132" s="9"/>
@@ -14447,7 +14445,7 @@
         <v>-35.775458059237067</v>
       </c>
       <c r="V133" s="17">
-        <v>29.914109959974297</v>
+        <v>30.166539973022367</v>
       </c>
       <c r="W133" s="17"/>
       <c r="X133" s="9"/>
@@ -14584,7 +14582,7 @@
         <v>-24.502916338932167</v>
       </c>
       <c r="V134" s="17">
-        <v>-3.8870860085071115</v>
+        <v>-3.9616661614076207</v>
       </c>
       <c r="W134" s="17"/>
       <c r="X134" s="9"/>
@@ -14721,7 +14719,7 @@
         <v>-19.343678925689488</v>
       </c>
       <c r="V135" s="17">
-        <v>24.93978946982584</v>
+        <v>25.382233369533111</v>
       </c>
       <c r="W135" s="17"/>
       <c r="X135" s="9"/>
@@ -14950,7 +14948,7 @@
         <v>-24.5047769353625</v>
       </c>
       <c r="V137" s="17">
-        <v>31.512889132084098</v>
+        <v>31.669503995190553</v>
       </c>
       <c r="W137" s="17"/>
       <c r="X137" s="9"/>
@@ -15249,7 +15247,7 @@
     </row>
     <row r="144" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="146" spans="1:91" x14ac:dyDescent="0.25">
@@ -15259,7 +15257,7 @@
     </row>
     <row r="147" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="148" spans="1:91" x14ac:dyDescent="0.25">
@@ -15431,7 +15429,7 @@
         <v>-12.489392448714597</v>
       </c>
       <c r="V153" s="17">
-        <v>21.013405430001967</v>
+        <v>20.823551486499611</v>
       </c>
       <c r="W153" s="17"/>
       <c r="X153" s="9"/>
@@ -15568,7 +15566,7 @@
         <v>-3.6824791608541005</v>
       </c>
       <c r="V154" s="17">
-        <v>15.281638801603378</v>
+        <v>17.06745121850129</v>
       </c>
       <c r="W154" s="17"/>
       <c r="X154" s="9"/>
@@ -15705,7 +15703,7 @@
         <v>-5.748672342304701</v>
       </c>
       <c r="V155" s="17">
-        <v>31.735351337918416</v>
+        <v>29.927519381183942</v>
       </c>
       <c r="W155" s="17"/>
       <c r="X155" s="9"/>
@@ -15842,7 +15840,7 @@
         <v>-15.190816496775341</v>
       </c>
       <c r="V156" s="17">
-        <v>8.3546300240534777</v>
+        <v>9.8777316311736882</v>
       </c>
       <c r="W156" s="17"/>
       <c r="X156" s="9"/>
@@ -15979,7 +15977,7 @@
         <v>-42.440947734410337</v>
       </c>
       <c r="V157" s="17">
-        <v>31.380089632730659</v>
+        <v>28.194199817049991</v>
       </c>
       <c r="W157" s="17"/>
       <c r="X157" s="9"/>
@@ -16116,7 +16114,7 @@
         <v>-33.059708476639955</v>
       </c>
       <c r="V158" s="17">
-        <v>32.848074926422953</v>
+        <v>28.787408425005282</v>
       </c>
       <c r="W158" s="17"/>
       <c r="X158" s="9"/>
@@ -16253,7 +16251,7 @@
         <v>-16.782099175022097</v>
       </c>
       <c r="V159" s="17">
-        <v>-2.2872180829701279</v>
+        <v>-3.727700653339113</v>
       </c>
       <c r="W159" s="17"/>
       <c r="X159" s="9"/>
@@ -16390,7 +16388,7 @@
         <v>-28.30551559727256</v>
       </c>
       <c r="V160" s="17">
-        <v>58.246512531036643</v>
+        <v>54.76580539554115</v>
       </c>
       <c r="W160" s="17"/>
       <c r="X160" s="9"/>
@@ -16527,7 +16525,7 @@
         <v>-25.526317662362842</v>
       </c>
       <c r="V161" s="17">
-        <v>26.616828423001081</v>
+        <v>25.356261312149471</v>
       </c>
       <c r="W161" s="17"/>
       <c r="X161" s="9"/>
@@ -16664,7 +16662,7 @@
         <v>-27.745295108511186</v>
       </c>
       <c r="V162" s="17">
-        <v>-8.4553389230571128</v>
+        <v>-9.4889881339853304</v>
       </c>
       <c r="W162" s="17"/>
       <c r="X162" s="9"/>
@@ -16801,7 +16799,7 @@
         <v>-22.724597938219262</v>
       </c>
       <c r="V163" s="17">
-        <v>26.456090724943124</v>
+        <v>26.49807982975581</v>
       </c>
       <c r="W163" s="17"/>
       <c r="X163" s="9"/>
@@ -16938,7 +16936,7 @@
         <v>-28.891623823861863</v>
       </c>
       <c r="V164" s="17">
-        <v>17.510042052770359</v>
+        <v>18.84779819436919</v>
       </c>
       <c r="W164" s="17"/>
       <c r="X164" s="9"/>
@@ -17075,7 +17073,7 @@
         <v>-38.4471904367105</v>
       </c>
       <c r="V165" s="17">
-        <v>-3.4292904442301193</v>
+        <v>-3.2515741278299117</v>
       </c>
       <c r="W165" s="17"/>
       <c r="X165" s="9"/>
@@ -17212,7 +17210,7 @@
         <v>-24.355171261467348</v>
       </c>
       <c r="V166" s="17">
-        <v>12.60432804887553</v>
+        <v>12.611809551849646</v>
       </c>
       <c r="W166" s="17"/>
       <c r="X166" s="9"/>
@@ -17349,7 +17347,7 @@
         <v>-41.84668767632931</v>
       </c>
       <c r="V167" s="17">
-        <v>25.202009999346274</v>
+        <v>25.33672410623204</v>
       </c>
       <c r="W167" s="17"/>
       <c r="X167" s="9"/>
@@ -17486,7 +17484,7 @@
         <v>-18.814874722425429</v>
       </c>
       <c r="V168" s="17">
-        <v>15.915836095114216</v>
+        <v>15.933542154178397</v>
       </c>
       <c r="W168" s="17"/>
       <c r="X168" s="9"/>
@@ -17623,7 +17621,7 @@
         <v>-16.49291204682882</v>
       </c>
       <c r="V169" s="17">
-        <v>12.563460996417163</v>
+        <v>12.691079727079924</v>
       </c>
       <c r="W169" s="17"/>
       <c r="X169" s="9"/>
@@ -17760,7 +17758,7 @@
         <v>-7.8477747458905185</v>
       </c>
       <c r="V170" s="17">
-        <v>10.787897971198419</v>
+        <v>10.836746694469412</v>
       </c>
       <c r="W170" s="17"/>
       <c r="X170" s="9"/>
@@ -17897,7 +17895,7 @@
         <v>-25.073033701654097</v>
       </c>
       <c r="V171" s="17">
-        <v>18.507883476892317</v>
+        <v>19.097316976949259</v>
       </c>
       <c r="W171" s="17"/>
       <c r="X171" s="9"/>
@@ -18034,7 +18032,7 @@
         <v>-8.7545478564198902</v>
       </c>
       <c r="V172" s="17">
-        <v>-3.712729481481432</v>
+        <v>-3.6871595873306404</v>
       </c>
       <c r="W172" s="17"/>
       <c r="X172" s="9"/>
@@ -18171,7 +18169,7 @@
         <v>-3.9277411296978642</v>
       </c>
       <c r="V173" s="17">
-        <v>108.23279795371232</v>
+        <v>108.22545777181855</v>
       </c>
       <c r="W173" s="17"/>
       <c r="X173" s="9"/>
@@ -18308,7 +18306,7 @@
         <v>-13.072025995676739</v>
       </c>
       <c r="V174" s="17">
-        <v>-1.1856262097859371</v>
+        <v>-1.1797700391172157</v>
       </c>
       <c r="W174" s="17"/>
       <c r="X174" s="9"/>
@@ -18445,7 +18443,7 @@
         <v>-8.0642950988472109</v>
       </c>
       <c r="V175" s="17">
-        <v>-7.3361316483930921</v>
+        <v>-7.1496904908029251</v>
       </c>
       <c r="W175" s="17"/>
       <c r="X175" s="9"/>
@@ -18582,7 +18580,7 @@
         <v>-14.907837520319219</v>
       </c>
       <c r="V176" s="17">
-        <v>26.718944300685109</v>
+        <v>20.872559433181848</v>
       </c>
       <c r="W176" s="17"/>
       <c r="X176" s="9"/>
@@ -18719,7 +18717,7 @@
         <v>-19.716588650127775</v>
       </c>
       <c r="V177" s="17">
-        <v>-7.1499467239407011</v>
+        <v>-7.0854143943372065</v>
       </c>
       <c r="W177" s="17"/>
       <c r="X177" s="9"/>
@@ -18856,7 +18854,7 @@
         <v>-18.128499576028105</v>
       </c>
       <c r="V178" s="17">
-        <v>-4.7803928422288067</v>
+        <v>-4.809753608628796</v>
       </c>
       <c r="W178" s="17"/>
       <c r="X178" s="9"/>
@@ -18993,7 +18991,7 @@
         <v>12.029749526402767</v>
       </c>
       <c r="V179" s="17">
-        <v>-1.9412948764654772</v>
+        <v>-1.97163387736434</v>
       </c>
       <c r="W179" s="17"/>
       <c r="X179" s="9"/>
@@ -19130,7 +19128,7 @@
         <v>-30.87428092671378</v>
       </c>
       <c r="V180" s="17">
-        <v>34.278679301129387</v>
+        <v>34.502355129076506</v>
       </c>
       <c r="W180" s="17"/>
       <c r="X180" s="9"/>
@@ -19267,7 +19265,7 @@
         <v>-19.640039409709772</v>
       </c>
       <c r="V181" s="17">
-        <v>-5.8884579362663061</v>
+        <v>-5.9515192375327644</v>
       </c>
       <c r="W181" s="17"/>
       <c r="X181" s="9"/>
@@ -19404,7 +19402,7 @@
         <v>-17.486341191654603</v>
       </c>
       <c r="V182" s="17">
-        <v>12.971630564913013</v>
+        <v>13.374433307033115</v>
       </c>
       <c r="W182" s="17"/>
       <c r="X182" s="9"/>
@@ -19633,7 +19631,7 @@
         <v>-20.293171624407378</v>
       </c>
       <c r="V184" s="17">
-        <v>17.851659795844938</v>
+        <v>17.997144735458974</v>
       </c>
       <c r="W184" s="17"/>
       <c r="X184" s="9"/>
@@ -19927,7 +19925,7 @@
     </row>
     <row r="190" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="192" spans="1:92" x14ac:dyDescent="0.25">
@@ -19937,7 +19935,7 @@
     </row>
     <row r="193" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="194" spans="1:96" x14ac:dyDescent="0.25">
@@ -20114,7 +20112,7 @@
         <v>97.0737199409553</v>
       </c>
       <c r="W199" s="17">
-        <v>94.743506073298363</v>
+        <v>94.623495891996683</v>
       </c>
       <c r="X199" s="9"/>
       <c r="Y199" s="9"/>
@@ -20258,7 +20256,7 @@
         <v>97.155133697901036</v>
       </c>
       <c r="W200" s="17">
-        <v>96.361806359428201</v>
+        <v>96.91485788201814</v>
       </c>
       <c r="X200" s="9"/>
       <c r="Y200" s="9"/>
@@ -20402,7 +20400,7 @@
         <v>94.750017452317351</v>
       </c>
       <c r="W201" s="17">
-        <v>89.980276830624589</v>
+        <v>89.578160419246586</v>
       </c>
       <c r="X201" s="9"/>
       <c r="Y201" s="9"/>
@@ -20546,7 +20544,7 @@
         <v>100.83427808892689</v>
       </c>
       <c r="W202" s="17">
-        <v>90.512668064522501</v>
+        <v>92.243855823858041</v>
       </c>
       <c r="X202" s="9"/>
       <c r="Y202" s="9"/>
@@ -20690,7 +20688,7 @@
         <v>101.46264411113843</v>
       </c>
       <c r="W203" s="17">
-        <v>97.076148343597296</v>
+        <v>95.780117655145588</v>
       </c>
       <c r="X203" s="9"/>
       <c r="Y203" s="9"/>
@@ -20834,7 +20832,7 @@
         <v>101.3771278952029</v>
       </c>
       <c r="W204" s="17">
-        <v>96.784542069468813</v>
+        <v>95.6847697453628</v>
       </c>
       <c r="X204" s="9"/>
       <c r="Y204" s="9"/>
@@ -20978,7 +20976,7 @@
         <v>93.224375710175877</v>
       </c>
       <c r="W205" s="17">
-        <v>93.530727811402585</v>
+        <v>92.258355609368991</v>
       </c>
       <c r="X205" s="9"/>
       <c r="Y205" s="9"/>
@@ -21122,7 +21120,7 @@
         <v>104.96659361137344</v>
       </c>
       <c r="W206" s="17">
-        <v>100.76881061678723</v>
+        <v>98.799052413485072</v>
       </c>
       <c r="X206" s="9"/>
       <c r="Y206" s="9"/>
@@ -21266,7 +21264,7 @@
         <v>95.560439801403447</v>
       </c>
       <c r="W207" s="17">
-        <v>93.781300290253554</v>
+        <v>92.952347404150217</v>
       </c>
       <c r="X207" s="9"/>
       <c r="Y207" s="9"/>
@@ -21410,7 +21408,7 @@
         <v>100.52277970549459</v>
       </c>
       <c r="W208" s="17">
-        <v>95.688234148175425</v>
+        <v>95.272936042088048</v>
       </c>
       <c r="X208" s="9"/>
       <c r="Y208" s="9"/>
@@ -21554,7 +21552,7 @@
         <v>68.097574682492279</v>
       </c>
       <c r="W209" s="17">
-        <v>100.70741987934619</v>
+        <v>100.743484318424</v>
       </c>
       <c r="X209" s="9"/>
       <c r="Y209" s="9"/>
@@ -21698,7 +21696,7 @@
         <v>96.41569043817249</v>
       </c>
       <c r="W210" s="17">
-        <v>97.488967983072101</v>
+        <v>97.471671985517901</v>
       </c>
       <c r="X210" s="9"/>
       <c r="Y210" s="9"/>
@@ -21842,7 +21840,7 @@
         <v>95.929018934694639</v>
       </c>
       <c r="W211" s="17">
-        <v>98.017829625024561</v>
+        <v>98.015071232061359</v>
       </c>
       <c r="X211" s="9"/>
       <c r="Y211" s="9"/>
@@ -21986,7 +21984,7 @@
         <v>104.17683251805371</v>
       </c>
       <c r="W212" s="17">
-        <v>135.69261446188969</v>
+        <v>135.69469626060325</v>
       </c>
       <c r="X212" s="9"/>
       <c r="Y212" s="9"/>
@@ -22130,7 +22128,7 @@
         <v>102.24663941238606</v>
       </c>
       <c r="W213" s="17">
-        <v>100.54666254288986</v>
+        <v>100.56645437831551</v>
       </c>
       <c r="X213" s="9"/>
       <c r="Y213" s="9"/>
@@ -22274,7 +22272,7 @@
         <v>83.582129641150019</v>
       </c>
       <c r="W214" s="17">
-        <v>87.91799208781778</v>
+        <v>87.919192811757668</v>
       </c>
       <c r="X214" s="9"/>
       <c r="Y214" s="9"/>
@@ -22418,7 +22416,7 @@
         <v>98.570477940945878</v>
       </c>
       <c r="W215" s="17">
-        <v>99.789859730245695</v>
+        <v>99.772416086528708</v>
       </c>
       <c r="X215" s="9"/>
       <c r="Y215" s="9"/>
@@ -22562,7 +22560,7 @@
         <v>90.716791406169477</v>
       </c>
       <c r="W216" s="17">
-        <v>104.997484677388</v>
+        <v>105.00789349316719</v>
       </c>
       <c r="X216" s="9"/>
       <c r="Y216" s="9"/>
@@ -22706,7 +22704,7 @@
         <v>128.22730044739836</v>
       </c>
       <c r="W217" s="17">
-        <v>135.65327684976162</v>
+        <v>135.65583521036967</v>
       </c>
       <c r="X217" s="9"/>
       <c r="Y217" s="9"/>
@@ -22850,7 +22848,7 @@
         <v>104.35122155383915</v>
       </c>
       <c r="W218" s="17">
-        <v>115.35338693972972</v>
+        <v>115.3567127138575</v>
       </c>
       <c r="X218" s="9"/>
       <c r="Y218" s="9"/>
@@ -22994,7 +22992,7 @@
         <v>99.066582068888351</v>
       </c>
       <c r="W219" s="17">
-        <v>104.3721103305502</v>
+        <v>104.36736711002142</v>
       </c>
       <c r="X219" s="9"/>
       <c r="Y219" s="9"/>
@@ -23138,7 +23136,7 @@
         <v>95.682427032561307</v>
       </c>
       <c r="W220" s="17">
-        <v>108.30452345337365</v>
+        <v>108.3071382960283</v>
       </c>
       <c r="X220" s="9"/>
       <c r="Y220" s="9"/>
@@ -23282,7 +23280,7 @@
         <v>95.627382196261294</v>
       </c>
       <c r="W221" s="17">
-        <v>139.09853054297295</v>
+        <v>139.21259736772924</v>
       </c>
       <c r="X221" s="9"/>
       <c r="Y221" s="9"/>
@@ -23426,7 +23424,7 @@
         <v>98.79192055118024</v>
       </c>
       <c r="W222" s="17">
-        <v>134.39286436420855</v>
+        <v>138.4411520437811</v>
       </c>
       <c r="X222" s="9"/>
       <c r="Y222" s="9"/>
@@ -23570,7 +23568,7 @@
         <v>93.036623692453162</v>
       </c>
       <c r="W223" s="17">
-        <v>127.309425842796</v>
+        <v>127.30133338991855</v>
       </c>
       <c r="X223" s="9"/>
       <c r="Y223" s="9"/>
@@ -23714,7 +23712,7 @@
         <v>86.663776217157405</v>
       </c>
       <c r="W224" s="17">
-        <v>122.84950652025547</v>
+        <v>122.84528182219145</v>
       </c>
       <c r="X224" s="9"/>
       <c r="Y224" s="9"/>
@@ -23858,7 +23856,7 @@
         <v>90.129342036015885</v>
       </c>
       <c r="W225" s="17">
-        <v>102.35972433686224</v>
+        <v>102.33466487255072</v>
       </c>
       <c r="X225" s="9"/>
       <c r="Y225" s="9"/>
@@ -24002,7 +24000,7 @@
         <v>94.089474527299842</v>
       </c>
       <c r="W226" s="17">
-        <v>91.031207660329017</v>
+        <v>91.056408159880931</v>
       </c>
       <c r="X226" s="9"/>
       <c r="Y226" s="9"/>
@@ -24146,7 +24144,7 @@
         <v>98.126611446840613</v>
       </c>
       <c r="W227" s="17">
-        <v>100.21336766408382</v>
+        <v>100.2027485418181</v>
       </c>
       <c r="X227" s="9"/>
       <c r="Y227" s="9"/>
@@ -24290,7 +24288,7 @@
         <v>104.4203195288927</v>
       </c>
       <c r="W228" s="17">
-        <v>115.48255675406473</v>
+        <v>115.47976461533199</v>
       </c>
       <c r="X228" s="9"/>
       <c r="Y228" s="9"/>
@@ -24531,7 +24529,7 @@
         <v>95.212738638994878</v>
       </c>
       <c r="W230" s="17">
-        <v>106.24969018072079</v>
+        <v>106.24506295238201</v>
       </c>
       <c r="X230" s="9"/>
       <c r="Y230" s="9"/>
@@ -24652,7 +24650,7 @@
     </row>
     <row r="237" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="239" spans="1:96" x14ac:dyDescent="0.25">
@@ -24662,7 +24660,7 @@
     </row>
     <row r="240" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="241" spans="1:96" x14ac:dyDescent="0.25">
@@ -24839,7 +24837,7 @@
         <v>21.309277880515818</v>
       </c>
       <c r="W246" s="17">
-        <v>19.137344568450814</v>
+        <v>19.060419165043033</v>
       </c>
       <c r="X246" s="9"/>
       <c r="Y246" s="9"/>
@@ -24983,7 +24981,7 @@
         <v>10.890126662832863</v>
       </c>
       <c r="W247" s="17">
-        <v>9.4681239068580041</v>
+        <v>9.6584737544633512</v>
       </c>
       <c r="X247" s="9"/>
       <c r="Y247" s="9"/>
@@ -25127,7 +25125,7 @@
         <v>4.7846791335102221</v>
       </c>
       <c r="W248" s="17">
-        <v>4.5515032848572998</v>
+        <v>4.4636651413626067</v>
       </c>
       <c r="X248" s="9"/>
       <c r="Y248" s="9"/>
@@ -25271,7 +25269,7 @@
         <v>0.21121677784638446</v>
       </c>
       <c r="W249" s="17">
-        <v>0.15620996732596323</v>
+        <v>0.16124347662127259</v>
       </c>
       <c r="X249" s="9"/>
       <c r="Y249" s="9"/>
@@ -25415,7 +25413,7 @@
         <v>1.1695748920806719</v>
       </c>
       <c r="W250" s="17">
-        <v>1.1178811486039586</v>
+        <v>1.074930543136672</v>
       </c>
       <c r="X250" s="9"/>
       <c r="Y250" s="9"/>
@@ -25559,7 +25557,7 @@
         <v>1.6244986005927413</v>
       </c>
       <c r="W251" s="17">
-        <v>1.5666511610488449</v>
+        <v>1.4997206763476549</v>
       </c>
       <c r="X251" s="9"/>
       <c r="Y251" s="9"/>
@@ -25703,7 +25701,7 @@
         <v>1.6775819345704797</v>
       </c>
       <c r="W252" s="17">
-        <v>1.2505228453776771</v>
+        <v>1.2138809936512605</v>
       </c>
       <c r="X252" s="9"/>
       <c r="Y252" s="9"/>
@@ -25847,7 +25845,7 @@
         <v>0.68343983032211975</v>
       </c>
       <c r="W253" s="17">
-        <v>0.78948002016498986</v>
+        <v>0.75612182465198097</v>
       </c>
       <c r="X253" s="9"/>
       <c r="Y253" s="9"/>
@@ -25991,7 +25989,7 @@
         <v>0.21006019023256886</v>
       </c>
       <c r="W254" s="17">
-        <v>0.19847461894011192</v>
+        <v>0.19453009905105637</v>
       </c>
       <c r="X254" s="9"/>
       <c r="Y254" s="9"/>
@@ -26135,7 +26133,7 @@
         <v>5.8099858527764239E-2</v>
       </c>
       <c r="W255" s="17">
-        <v>3.8497615273962046E-2</v>
+        <v>3.7852655757177313E-2</v>
       </c>
       <c r="X255" s="9"/>
       <c r="Y255" s="9"/>
@@ -26279,7 +26277,7 @@
         <v>9.5710432445345273</v>
       </c>
       <c r="W256" s="17">
-        <v>13.610075568090332</v>
+        <v>13.603270523468872</v>
       </c>
       <c r="X256" s="9"/>
       <c r="Y256" s="9"/>
@@ -26423,7 +26421,7 @@
         <v>5.6017866634031064</v>
       </c>
       <c r="W257" s="17">
-        <v>5.0610541696959785</v>
+        <v>5.1116746775421218</v>
       </c>
       <c r="X257" s="9"/>
       <c r="Y257" s="9"/>
@@ -26567,7 +26565,7 @@
         <v>1.152135868984308</v>
       </c>
       <c r="W258" s="17">
-        <v>0.86444204127195179</v>
+        <v>0.86497840003078363</v>
       </c>
       <c r="X258" s="9"/>
       <c r="Y258" s="9"/>
@@ -26711,7 +26709,7 @@
         <v>5.4142753418736289</v>
       </c>
       <c r="W259" s="17">
-        <v>6.0382649367793526</v>
+        <v>6.0315759404325897</v>
       </c>
       <c r="X259" s="9"/>
       <c r="Y259" s="9"/>
@@ -26855,7 +26853,7 @@
         <v>8.0054425627920711</v>
       </c>
       <c r="W260" s="17">
-        <v>7.4945738811208127</v>
+        <v>7.495188882358109</v>
       </c>
       <c r="X260" s="9"/>
       <c r="Y260" s="9"/>
@@ -26999,7 +26997,7 @@
         <v>1.1911886229215722</v>
       </c>
       <c r="W261" s="17">
-        <v>1.1043819974167284</v>
+        <v>1.1032519456001533</v>
       </c>
       <c r="X261" s="9"/>
       <c r="Y261" s="9"/>
@@ -27143,7 +27141,7 @@
         <v>3.1057846508823523</v>
       </c>
       <c r="W262" s="17">
-        <v>2.6911630323566702</v>
+        <v>2.6905390929104454</v>
       </c>
       <c r="X262" s="9"/>
       <c r="Y262" s="9"/>
@@ -27287,7 +27285,7 @@
         <v>5.0902701785580264</v>
       </c>
       <c r="W263" s="17">
-        <v>4.963134584534008</v>
+        <v>4.9599085570446846</v>
       </c>
       <c r="X263" s="9"/>
       <c r="Y263" s="9"/>
@@ -27431,7 +27429,7 @@
         <v>2.8633657147778493</v>
       </c>
       <c r="W264" s="17">
-        <v>2.7296410047912643</v>
+        <v>2.7400064121038685</v>
       </c>
       <c r="X264" s="9"/>
       <c r="Y264" s="9"/>
@@ -27575,7 +27573,7 @@
         <v>1.27218731562898</v>
       </c>
       <c r="W265" s="17">
-        <v>1.0296376897652109</v>
+        <v>1.028715744691163</v>
       </c>
       <c r="X265" s="9"/>
       <c r="Y265" s="9"/>
@@ -27719,7 +27717,7 @@
         <v>2.1659372255891265</v>
       </c>
       <c r="W266" s="17">
-        <v>3.6131331527737585</v>
+        <v>3.6085442860448955</v>
       </c>
       <c r="X266" s="9"/>
       <c r="Y266" s="9"/>
@@ -27863,7 +27861,7 @@
         <v>1.2123995328415673</v>
       </c>
       <c r="W267" s="17">
-        <v>1.0311265688095679</v>
+        <v>1.0299859940005307</v>
       </c>
       <c r="X267" s="9"/>
       <c r="Y267" s="9"/>
@@ -28007,7 +28005,7 @@
         <v>1.3753178092234524</v>
       </c>
       <c r="W268" s="17">
-        <v>1.409566109723942</v>
+        <v>1.4118790443078331</v>
       </c>
       <c r="X268" s="9"/>
       <c r="Y268" s="9"/>
@@ -28151,7 +28149,7 @@
         <v>0.27218083607222976</v>
       </c>
       <c r="W269" s="17">
-        <v>0.35676772025347692</v>
+        <v>0.35014170221746327</v>
       </c>
       <c r="X269" s="9"/>
       <c r="Y269" s="9"/>
@@ -28295,7 +28293,7 @@
         <v>1.9950969097741393</v>
       </c>
       <c r="W270" s="17">
-        <v>1.9274559107969595</v>
+        <v>1.926378851969222</v>
       </c>
       <c r="X270" s="9"/>
       <c r="Y270" s="9"/>
@@ -28439,7 +28437,7 @@
         <v>2.4161177795330406</v>
       </c>
       <c r="W271" s="17">
-        <v>2.4797732768499765</v>
+        <v>2.4759748266034416</v>
       </c>
       <c r="X271" s="9"/>
       <c r="Y271" s="9"/>
@@ -28583,7 +28581,7 @@
         <v>1.3591980521213431</v>
       </c>
       <c r="W272" s="17">
-        <v>1.1509686270831818</v>
+        <v>1.1489625654218745</v>
       </c>
       <c r="X272" s="9"/>
       <c r="Y272" s="9"/>
@@ -28727,7 +28725,7 @@
         <v>1.1006047813469892</v>
       </c>
       <c r="W273" s="17">
-        <v>1.0872249216788257</v>
+        <v>1.0880417402569944</v>
       </c>
       <c r="X273" s="9"/>
       <c r="Y273" s="9"/>
@@ -28871,7 +28869,7 @@
         <v>0.59424254881538052</v>
       </c>
       <c r="W274" s="17">
-        <v>0.43428734142564329</v>
+        <v>0.43343418599277267</v>
       </c>
       <c r="X274" s="9"/>
       <c r="Y274" s="9"/>
@@ -29015,7 +29013,7 @@
         <v>22.932146479810491</v>
       </c>
       <c r="W275" s="17">
-        <v>21.785982896331543</v>
+        <v>21.837127461959152</v>
       </c>
       <c r="X275" s="9"/>
       <c r="Y275" s="9"/>
@@ -29568,7 +29566,7 @@
     </row>
     <row r="284" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="286" spans="1:96" x14ac:dyDescent="0.25">
@@ -29578,7 +29576,7 @@
     </row>
     <row r="287" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="288" spans="1:96" x14ac:dyDescent="0.25">
@@ -29755,7 +29753,7 @@
         <v>20.900761881355184</v>
       </c>
       <c r="W293" s="17">
-        <v>21.461491299535684</v>
+        <v>21.401401575779953</v>
       </c>
       <c r="X293" s="9"/>
       <c r="Y293" s="9"/>
@@ -29899,7 +29897,7 @@
         <v>10.672403446203644</v>
       </c>
       <c r="W294" s="17">
-        <v>10.439667641181691</v>
+        <v>10.588316120899826</v>
       </c>
       <c r="X294" s="9"/>
       <c r="Y294" s="9"/>
@@ -30043,7 +30041,7 @@
         <v>4.808045592599723</v>
       </c>
       <c r="W295" s="17">
-        <v>5.3744646149836068</v>
+        <v>5.2941741795417423</v>
       </c>
       <c r="X295" s="9"/>
       <c r="Y295" s="9"/>
@@ -30187,7 +30185,7 @@
         <v>0.19944138289484004</v>
       </c>
       <c r="W296" s="17">
-        <v>0.18336947729452252</v>
+        <v>0.18571777134946243</v>
       </c>
       <c r="X296" s="9"/>
       <c r="Y296" s="9"/>
@@ -30331,7 +30329,7 @@
         <v>1.0975313081376998</v>
       </c>
       <c r="W297" s="17">
-        <v>1.2235191416705269</v>
+        <v>1.1923775624936124</v>
       </c>
       <c r="X297" s="9"/>
       <c r="Y297" s="9"/>
@@ -30475,7 +30473,7 @@
         <v>1.5257185115516441</v>
       </c>
       <c r="W298" s="17">
-        <v>1.7198634918707305</v>
+        <v>1.6652380320669329</v>
       </c>
       <c r="X298" s="9"/>
       <c r="Y298" s="9"/>
@@ -30619,7 +30617,7 @@
         <v>1.7133627236972049</v>
       </c>
       <c r="W299" s="17">
-        <v>1.4205776860114772</v>
+        <v>1.3979098341319363</v>
       </c>
       <c r="X299" s="9"/>
       <c r="Y299" s="9"/>
@@ -30763,7 +30761,7 @@
         <v>0.61993226321948813</v>
       </c>
       <c r="W300" s="17">
-        <v>0.83242033951748706</v>
+        <v>0.813107098675522</v>
       </c>
       <c r="X300" s="9"/>
       <c r="Y300" s="9"/>
@@ -30907,7 +30905,7 @@
         <v>0.20929587633372729</v>
       </c>
       <c r="W301" s="17">
-        <v>0.22486217087901816</v>
+        <v>0.22234901212284819</v>
       </c>
       <c r="X301" s="9"/>
       <c r="Y301" s="9"/>
@@ -31051,7 +31049,7 @@
         <v>5.5030776717212314E-2</v>
       </c>
       <c r="W302" s="17">
-        <v>4.2746736126628028E-2</v>
+        <v>4.2211964498076668E-2</v>
       </c>
       <c r="X302" s="9"/>
       <c r="Y302" s="9"/>
@@ -31195,7 +31193,7 @@
         <v>13.38205131670677</v>
       </c>
       <c r="W303" s="17">
-        <v>14.359084108978998</v>
+        <v>14.346142015061512</v>
       </c>
       <c r="X303" s="9"/>
       <c r="Y303" s="9"/>
@@ -31339,7 +31337,7 @@
         <v>5.5318947265749285</v>
       </c>
       <c r="W304" s="17">
-        <v>5.5158593699690694</v>
+        <v>5.5717747202310308</v>
       </c>
       <c r="X304" s="9"/>
       <c r="Y304" s="9"/>
@@ -31483,7 +31481,7 @@
         <v>1.1435331309381263</v>
       </c>
       <c r="W305" s="17">
-        <v>0.93704073448373626</v>
+        <v>0.93760769041465863</v>
       </c>
       <c r="X305" s="9"/>
       <c r="Y305" s="9"/>
@@ -31627,7 +31625,7 @@
         <v>4.9483937127386897</v>
       </c>
       <c r="W306" s="17">
-        <v>4.7280670455509872</v>
+        <v>4.7225513093203064</v>
       </c>
       <c r="X306" s="9"/>
       <c r="Y306" s="9"/>
@@ -31771,7 +31769,7 @@
         <v>7.4547204172294022</v>
       </c>
       <c r="W307" s="17">
-        <v>7.919667672369882</v>
+        <v>7.9184139439824746</v>
       </c>
       <c r="X307" s="9"/>
       <c r="Y307" s="9"/>
@@ -31915,7 +31913,7 @@
         <v>1.3569447381984101</v>
       </c>
       <c r="W308" s="17">
-        <v>1.3346556521614654</v>
+        <v>1.333213700717129</v>
       </c>
       <c r="X308" s="9"/>
       <c r="Y308" s="9"/>
@@ -32059,7 +32057,7 @@
         <v>2.9999881141960683</v>
       </c>
       <c r="W309" s="17">
-        <v>2.8653736881347687</v>
+        <v>2.8650854265592103</v>
       </c>
       <c r="X309" s="9"/>
       <c r="Y309" s="9"/>
@@ -32203,7 +32201,7 @@
         <v>5.3425452620225107</v>
       </c>
       <c r="W310" s="17">
-        <v>5.0223251876196944</v>
+        <v>5.0183446153556073</v>
       </c>
       <c r="X310" s="9"/>
       <c r="Y310" s="9"/>
@@ -32347,7 +32345,7 @@
         <v>2.1261376514811712</v>
       </c>
       <c r="W311" s="17">
-        <v>2.1379764484780517</v>
+        <v>2.1459611618804364</v>
       </c>
       <c r="X311" s="9"/>
       <c r="Y311" s="9"/>
@@ -32491,7 +32489,7 @@
         <v>1.1607764296303069</v>
       </c>
       <c r="W312" s="17">
-        <v>0.94837861668600854</v>
+        <v>0.94746084977237499</v>
       </c>
       <c r="X312" s="9"/>
       <c r="Y312" s="9"/>
@@ -32635,7 +32633,7 @@
         <v>2.0816789139357179</v>
       </c>
       <c r="W313" s="17">
-        <v>3.6781308421195655</v>
+        <v>3.6734663856484802</v>
       </c>
       <c r="X313" s="9"/>
       <c r="Y313" s="9"/>
@@ -32779,7 +32777,7 @@
         <v>1.2064480743909236</v>
       </c>
       <c r="W314" s="17">
-        <v>1.0115632752891599</v>
+        <v>1.0103759409980742</v>
       </c>
       <c r="X314" s="9"/>
       <c r="Y314" s="9"/>
@@ -32923,7 +32921,7 @@
         <v>1.3693543847764891</v>
       </c>
       <c r="W315" s="17">
-        <v>1.0766897526724353</v>
+        <v>1.0775258904723752</v>
       </c>
       <c r="X315" s="9"/>
       <c r="Y315" s="9"/>
@@ -33067,7 +33065,7 @@
         <v>0.2623198603985305</v>
       </c>
       <c r="W316" s="17">
-        <v>0.28205708630992782</v>
+        <v>0.26871220475385871</v>
       </c>
       <c r="X316" s="9"/>
       <c r="Y316" s="9"/>
@@ -33211,7 +33209,7 @@
         <v>2.0417619759905401</v>
       </c>
       <c r="W317" s="17">
-        <v>1.6086129679985861</v>
+        <v>1.6077462580122179</v>
       </c>
       <c r="X317" s="9"/>
       <c r="Y317" s="9"/>
@@ -33355,7 +33353,7 @@
         <v>2.6544561142509329</v>
       </c>
       <c r="W318" s="17">
-        <v>2.1446984187950231</v>
+        <v>2.141393608439548</v>
       </c>
       <c r="X318" s="9"/>
       <c r="Y318" s="9"/>
@@ -33499,7 +33497,7 @@
         <v>1.4358583561338625</v>
       </c>
       <c r="W319" s="17">
-        <v>1.1947087668277161</v>
+        <v>1.1928665642791461</v>
       </c>
       <c r="X319" s="9"/>
       <c r="Y319" s="9"/>
@@ -33643,7 +33641,7 @@
         <v>1.1137440815530748</v>
       </c>
       <c r="W320" s="17">
-        <v>1.2689858132627585</v>
+        <v>1.269532430770272</v>
       </c>
       <c r="X320" s="9"/>
       <c r="Y320" s="9"/>
@@ -33787,7 +33785,7 @@
         <v>0.57659649767056809</v>
       </c>
       <c r="W321" s="17">
-        <v>0.46044651079439769</v>
+        <v>0.4595706509716968</v>
       </c>
       <c r="X321" s="9"/>
       <c r="Y321" s="9"/>
@@ -33931,7 +33929,7 @@
         <v>20.910034359827783</v>
       </c>
       <c r="W322" s="17">
-        <v>20.04418674196209</v>
+        <v>20.090853056579643</v>
       </c>
       <c r="X322" s="9"/>
       <c r="Y322" s="9"/>
@@ -34278,202 +34276,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:96" s="20" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="1"/>
-      <c r="B327" s="19"/>
-      <c r="C327" s="19"/>
-      <c r="D327" s="19"/>
-      <c r="E327" s="19"/>
-      <c r="F327" s="19"/>
-      <c r="G327" s="19"/>
-      <c r="H327" s="19"/>
-      <c r="I327" s="19"/>
-      <c r="J327" s="19"/>
-      <c r="K327" s="19"/>
-      <c r="L327" s="19"/>
-      <c r="M327" s="19"/>
-      <c r="N327" s="19"/>
-      <c r="O327" s="19"/>
-      <c r="P327" s="19"/>
-      <c r="Q327" s="19"/>
-      <c r="R327" s="19"/>
-      <c r="S327" s="19"/>
-      <c r="T327" s="19"/>
-      <c r="U327" s="19"/>
-      <c r="V327" s="19"/>
-      <c r="W327" s="19"/>
-      <c r="X327" s="19"/>
-      <c r="Y327" s="19"/>
-      <c r="Z327" s="19"/>
-      <c r="AA327" s="19"/>
-      <c r="AB327" s="19"/>
-      <c r="AC327" s="19"/>
-      <c r="AD327" s="19"/>
-      <c r="AE327" s="19"/>
-      <c r="AF327" s="19"/>
-      <c r="AG327" s="19"/>
-      <c r="AH327" s="19"/>
-      <c r="AI327" s="19"/>
-      <c r="AJ327" s="19"/>
-      <c r="AK327" s="19"/>
-      <c r="AL327" s="19"/>
-      <c r="AM327" s="19"/>
-      <c r="AN327" s="19"/>
-      <c r="AO327" s="19"/>
-      <c r="AP327" s="19"/>
-      <c r="AQ327" s="19"/>
-      <c r="AR327" s="19"/>
-      <c r="AS327" s="19"/>
-      <c r="AT327" s="19"/>
-      <c r="AU327" s="19"/>
-      <c r="AV327" s="19"/>
-      <c r="AW327" s="19"/>
-      <c r="AX327" s="19"/>
-      <c r="AY327" s="19"/>
-      <c r="AZ327" s="19"/>
-      <c r="BA327" s="19"/>
-      <c r="BB327" s="19"/>
-      <c r="BC327" s="19"/>
-      <c r="BD327" s="19"/>
-      <c r="BE327" s="19"/>
-      <c r="BF327" s="19"/>
-      <c r="BG327" s="19"/>
-      <c r="BH327" s="19"/>
-      <c r="BI327" s="19"/>
-      <c r="BJ327" s="19"/>
-      <c r="BK327" s="19"/>
-      <c r="BL327" s="19"/>
-      <c r="BM327" s="19"/>
-      <c r="BN327" s="19"/>
-      <c r="BO327" s="19"/>
-      <c r="BP327" s="19"/>
-      <c r="BQ327" s="19"/>
-      <c r="BR327" s="19"/>
-      <c r="BS327" s="19"/>
-      <c r="BT327" s="19"/>
-      <c r="BU327" s="19"/>
-      <c r="BV327" s="19"/>
-      <c r="BW327" s="19"/>
-      <c r="BX327" s="19"/>
-      <c r="BY327" s="19"/>
-      <c r="BZ327" s="19"/>
-      <c r="CA327" s="19"/>
-      <c r="CB327" s="19"/>
-      <c r="CC327" s="19"/>
-      <c r="CD327" s="19"/>
-      <c r="CE327" s="19"/>
-      <c r="CF327" s="19"/>
-      <c r="CG327" s="19"/>
-      <c r="CH327" s="19"/>
-      <c r="CI327" s="19"/>
-      <c r="CJ327" s="19"/>
-      <c r="CK327" s="19"/>
-      <c r="CL327" s="19"/>
-      <c r="CM327" s="19"/>
-      <c r="CN327" s="19"/>
-      <c r="CO327" s="19"/>
-      <c r="CP327" s="19"/>
-      <c r="CQ327" s="19"/>
-      <c r="CR327" s="19"/>
-    </row>
-    <row r="328" spans="1:96" s="20" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="1"/>
-      <c r="B328" s="19"/>
-      <c r="C328" s="19"/>
-      <c r="D328" s="19"/>
-      <c r="E328" s="19"/>
-      <c r="F328" s="19"/>
-      <c r="G328" s="19"/>
-      <c r="H328" s="19"/>
-      <c r="I328" s="19"/>
-      <c r="J328" s="19"/>
-      <c r="K328" s="19"/>
-      <c r="L328" s="19"/>
-      <c r="M328" s="19"/>
-      <c r="N328" s="19"/>
-      <c r="O328" s="19"/>
-      <c r="P328" s="19"/>
-      <c r="Q328" s="19"/>
-      <c r="R328" s="19"/>
-      <c r="S328" s="19"/>
-      <c r="T328" s="19"/>
-      <c r="U328" s="19"/>
-      <c r="V328" s="19"/>
-      <c r="W328" s="19"/>
-      <c r="X328" s="19"/>
-      <c r="Y328" s="19"/>
-      <c r="Z328" s="19"/>
-      <c r="AA328" s="19"/>
-      <c r="AB328" s="19"/>
-      <c r="AC328" s="19"/>
-      <c r="AD328" s="19"/>
-      <c r="AE328" s="19"/>
-      <c r="AF328" s="19"/>
-      <c r="AG328" s="19"/>
-      <c r="AH328" s="19"/>
-      <c r="AI328" s="19"/>
-      <c r="AJ328" s="19"/>
-      <c r="AK328" s="19"/>
-      <c r="AL328" s="19"/>
-      <c r="AM328" s="19"/>
-      <c r="AN328" s="19"/>
-      <c r="AO328" s="19"/>
-      <c r="AP328" s="19"/>
-      <c r="AQ328" s="19"/>
-      <c r="AR328" s="19"/>
-      <c r="AS328" s="19"/>
-      <c r="AT328" s="19"/>
-      <c r="AU328" s="19"/>
-      <c r="AV328" s="19"/>
-      <c r="AW328" s="19"/>
-      <c r="AX328" s="19"/>
-      <c r="AY328" s="19"/>
-      <c r="AZ328" s="19"/>
-      <c r="BA328" s="19"/>
-      <c r="BB328" s="19"/>
-      <c r="BC328" s="19"/>
-      <c r="BD328" s="19"/>
-      <c r="BE328" s="19"/>
-      <c r="BF328" s="19"/>
-      <c r="BG328" s="19"/>
-      <c r="BH328" s="19"/>
-      <c r="BI328" s="19"/>
-      <c r="BJ328" s="19"/>
-      <c r="BK328" s="19"/>
-      <c r="BL328" s="19"/>
-      <c r="BM328" s="19"/>
-      <c r="BN328" s="19"/>
-      <c r="BO328" s="19"/>
-      <c r="BP328" s="19"/>
-      <c r="BQ328" s="19"/>
-      <c r="BR328" s="19"/>
-      <c r="BS328" s="19"/>
-      <c r="BT328" s="19"/>
-      <c r="BU328" s="19"/>
-      <c r="BV328" s="19"/>
-      <c r="BW328" s="19"/>
-      <c r="BX328" s="19"/>
-      <c r="BY328" s="19"/>
-      <c r="BZ328" s="19"/>
-      <c r="CA328" s="19"/>
-      <c r="CB328" s="19"/>
-      <c r="CC328" s="19"/>
-      <c r="CD328" s="19"/>
-      <c r="CE328" s="19"/>
-      <c r="CF328" s="19"/>
-      <c r="CG328" s="19"/>
-      <c r="CH328" s="19"/>
-      <c r="CI328" s="19"/>
-      <c r="CJ328" s="19"/>
-      <c r="CK328" s="19"/>
-      <c r="CL328" s="19"/>
-      <c r="CM328" s="19"/>
-      <c r="CN328" s="19"/>
-      <c r="CO328" s="19"/>
-      <c r="CP328" s="19"/>
-      <c r="CQ328" s="19"/>
-      <c r="CR328" s="19"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="V199:W230 V106:W135 V137:W137 V153:W182 V184:W184">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">

--- a/Data/National Accounts/PSA-06IOG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-06IOG_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6E309C-FE18-4E0D-BC78-AEC610ED9564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B6F9DC-7A2F-49E5-8588-79C9459CD82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOG" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="76">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -272,13 +272,16 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>Annual 2000 to 2021</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2001 to 2021</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>As of April 2022</t>
+    <t>Annual 2000 to 2022</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2022</t>
   </si>
 </sst>
 </file>
@@ -286,9 +289,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -361,43 +364,43 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -426,7 +429,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="HFCE"/>
@@ -707,50 +710,50 @@
   <dimension ref="A1:CR326"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7265625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.453125" style="1" customWidth="1"/>
-    <col min="2" max="23" width="10.453125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="7.7265625" style="1"/>
+    <col min="1" max="1" width="45.44140625" style="1" customWidth="1"/>
+    <col min="2" max="24" width="10.44140625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>33</v>
@@ -776,8 +779,9 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -847,11 +851,14 @@
       <c r="W10" s="6">
         <v>2021</v>
       </c>
+      <c r="X10" s="6">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -921,7 +928,9 @@
       <c r="W12" s="8">
         <v>1202139.7898324321</v>
       </c>
-      <c r="X12" s="9"/>
+      <c r="X12" s="8">
+        <v>1340198.1121315334</v>
+      </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -995,7 +1004,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>30</v>
       </c>
@@ -1065,7 +1074,9 @@
       <c r="W13" s="11">
         <v>609159.51054145768</v>
       </c>
-      <c r="X13" s="9"/>
+      <c r="X13" s="11">
+        <v>752574.20868401998</v>
+      </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -1139,7 +1150,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1209,7 +1220,9 @@
       <c r="W14" s="11">
         <v>281523.16213282407</v>
       </c>
-      <c r="X14" s="9"/>
+      <c r="X14" s="11">
+        <v>244457.27262638655</v>
+      </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -1283,7 +1296,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
@@ -1353,7 +1366,9 @@
       <c r="W15" s="11">
         <v>10169.618906012642</v>
       </c>
-      <c r="X15" s="9"/>
+      <c r="X15" s="11">
+        <v>11946.185835140761</v>
+      </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -1427,7 +1442,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
@@ -1497,7 +1512,9 @@
       <c r="W16" s="11">
         <v>67795.821593510249</v>
       </c>
-      <c r="X16" s="9"/>
+      <c r="X16" s="11">
+        <v>70720.200942901094</v>
+      </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -1571,7 +1588,7 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
@@ -1641,7 +1658,9 @@
       <c r="W17" s="11">
         <v>94587.316420533316</v>
       </c>
-      <c r="X17" s="9"/>
+      <c r="X17" s="11">
+        <v>100471.19431727423</v>
+      </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -1715,7 +1734,7 @@
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
     </row>
-    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>25</v>
       </c>
@@ -1785,7 +1804,9 @@
       <c r="W18" s="11">
         <v>76559.420333514761</v>
       </c>
-      <c r="X18" s="9"/>
+      <c r="X18" s="11">
+        <v>85453.772529827984</v>
+      </c>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -1859,7 +1880,7 @@
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
     </row>
-    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1929,7 +1950,9 @@
       <c r="W19" s="11">
         <v>47688.569884228738</v>
       </c>
-      <c r="X19" s="9"/>
+      <c r="X19" s="11">
+        <v>57262.265677207026</v>
+      </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -2003,7 +2026,7 @@
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
     </row>
-    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>23</v>
       </c>
@@ -2073,7 +2096,9 @@
       <c r="W20" s="11">
         <v>12269.004703642944</v>
       </c>
-      <c r="X20" s="9"/>
+      <c r="X20" s="11">
+        <v>14288.706141517918</v>
+      </c>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
@@ -2147,7 +2172,7 @@
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
     </row>
-    <row r="21" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
@@ -2217,7 +2242,9 @@
       <c r="W21" s="11">
         <v>2387.3653167075981</v>
       </c>
-      <c r="X21" s="9"/>
+      <c r="X21" s="11">
+        <v>3024.3053772579615</v>
+      </c>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
@@ -2291,7 +2318,7 @@
       <c r="CQ21" s="9"/>
       <c r="CR21" s="9"/>
     </row>
-    <row r="22" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2361,7 +2388,9 @@
       <c r="W22" s="11">
         <v>857957.66748446878</v>
       </c>
-      <c r="X22" s="9"/>
+      <c r="X22" s="11">
+        <v>1649784.1496611303</v>
+      </c>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
@@ -2435,7 +2464,7 @@
       <c r="CQ22" s="9"/>
       <c r="CR22" s="9"/>
     </row>
-    <row r="23" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,7 +2534,9 @@
       <c r="W23" s="11">
         <v>322393.09478682064</v>
       </c>
-      <c r="X23" s="9"/>
+      <c r="X23" s="11">
+        <v>360581.80606442032</v>
+      </c>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
@@ -2579,7 +2610,7 @@
       <c r="CQ23" s="9"/>
       <c r="CR23" s="9"/>
     </row>
-    <row r="24" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2649,7 +2680,9 @@
       <c r="W24" s="11">
         <v>54554.149256572869</v>
       </c>
-      <c r="X24" s="9"/>
+      <c r="X24" s="11">
+        <v>68451.877325878231</v>
+      </c>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
@@ -2723,7 +2756,7 @@
       <c r="CQ24" s="9"/>
       <c r="CR24" s="9"/>
     </row>
-    <row r="25" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -2793,7 +2826,9 @@
       <c r="W25" s="11">
         <v>380411.22656357998</v>
       </c>
-      <c r="X25" s="9"/>
+      <c r="X25" s="11">
+        <v>428285.74194179627</v>
+      </c>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
@@ -2867,7 +2902,7 @@
       <c r="CQ25" s="9"/>
       <c r="CR25" s="9"/>
     </row>
-    <row r="26" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -2937,7 +2972,9 @@
       <c r="W26" s="11">
         <v>472721.22977847507</v>
       </c>
-      <c r="X26" s="9"/>
+      <c r="X26" s="11">
+        <v>685168.0244483368</v>
+      </c>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
@@ -3011,7 +3048,7 @@
       <c r="CQ26" s="9"/>
       <c r="CR26" s="9"/>
     </row>
-    <row r="27" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -3081,7 +3118,9 @@
       <c r="W27" s="11">
         <v>69582.051188484227</v>
       </c>
-      <c r="X27" s="9"/>
+      <c r="X27" s="11">
+        <v>76302.554049314655</v>
+      </c>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
@@ -3155,7 +3194,7 @@
       <c r="CQ27" s="9"/>
       <c r="CR27" s="9"/>
     </row>
-    <row r="28" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -3225,7 +3264,9 @@
       <c r="W28" s="11">
         <v>169692.181041812</v>
       </c>
-      <c r="X28" s="9"/>
+      <c r="X28" s="11">
+        <v>201753.5387792812</v>
+      </c>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
@@ -3299,7 +3340,7 @@
       <c r="CQ28" s="9"/>
       <c r="CR28" s="9"/>
     </row>
-    <row r="29" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -3369,7 +3410,9 @@
       <c r="W29" s="11">
         <v>312821.21231043327</v>
       </c>
-      <c r="X29" s="9"/>
+      <c r="X29" s="11">
+        <v>376010.77679457411</v>
+      </c>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
@@ -3443,7 +3486,7 @@
       <c r="CQ29" s="9"/>
       <c r="CR29" s="9"/>
     </row>
-    <row r="30" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -3513,7 +3556,9 @@
       <c r="W30" s="11">
         <v>172812.08266537217</v>
       </c>
-      <c r="X30" s="9"/>
+      <c r="X30" s="11">
+        <v>237292.80066559685</v>
+      </c>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
@@ -3587,7 +3632,7 @@
       <c r="CQ30" s="9"/>
       <c r="CR30" s="9"/>
     </row>
-    <row r="31" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -3657,7 +3702,9 @@
       <c r="W31" s="11">
         <v>64881.056309002568</v>
       </c>
-      <c r="X31" s="9"/>
+      <c r="X31" s="11">
+        <v>97377.502283710084</v>
+      </c>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
@@ -3731,7 +3778,7 @@
       <c r="CQ31" s="9"/>
       <c r="CR31" s="9"/>
     </row>
-    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -3801,7 +3848,9 @@
       <c r="W32" s="11">
         <v>227590.72778330688</v>
       </c>
-      <c r="X32" s="9"/>
+      <c r="X32" s="11">
+        <v>195779.3593811522</v>
+      </c>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
@@ -3875,7 +3924,7 @@
       <c r="CQ32" s="9"/>
       <c r="CR32" s="9"/>
     </row>
-    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -3945,7 +3994,9 @@
       <c r="W33" s="11">
         <v>64961.170876503704</v>
       </c>
-      <c r="X33" s="9"/>
+      <c r="X33" s="11">
+        <v>81336.387905430689</v>
+      </c>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
@@ -4019,7 +4070,7 @@
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
     </row>
-    <row r="34" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -4089,7 +4140,9 @@
       <c r="W34" s="11">
         <v>89047.148590826982</v>
       </c>
-      <c r="X34" s="9"/>
+      <c r="X34" s="11">
+        <v>129042.59681514531</v>
+      </c>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
@@ -4163,7 +4216,7 @@
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
     </row>
-    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -4233,7 +4286,9 @@
       <c r="W35" s="11">
         <v>22083.42160109683</v>
       </c>
-      <c r="X35" s="9"/>
+      <c r="X35" s="11">
+        <v>60383.8903277957</v>
+      </c>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
@@ -4307,7 +4362,7 @@
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
     </row>
-    <row r="36" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -4377,7 +4432,9 @@
       <c r="W36" s="11">
         <v>121496.62859938966</v>
       </c>
-      <c r="X36" s="9"/>
+      <c r="X36" s="11">
+        <v>136698.5443044079</v>
+      </c>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
@@ -4451,7 +4508,7 @@
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -4521,7 +4578,9 @@
       <c r="W37" s="11">
         <v>156159.62229950956</v>
       </c>
-      <c r="X37" s="9"/>
+      <c r="X37" s="11">
+        <v>182303.10584800941</v>
+      </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
@@ -4595,7 +4654,7 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -4665,7 +4724,9 @@
       <c r="W38" s="11">
         <v>72465.017949591653</v>
       </c>
-      <c r="X38" s="9"/>
+      <c r="X38" s="11">
+        <v>78708.674006068497</v>
+      </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
@@ -4739,7 +4800,7 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -4809,7 +4870,9 @@
       <c r="W39" s="11">
         <v>68622.744213322439</v>
       </c>
-      <c r="X39" s="9"/>
+      <c r="X39" s="11">
+        <v>87678.69322158776</v>
+      </c>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
@@ -4883,7 +4946,7 @@
       <c r="CQ39" s="9"/>
       <c r="CR39" s="9"/>
     </row>
-    <row r="40" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
@@ -4953,7 +5016,9 @@
       <c r="W40" s="11">
         <v>27336.674851891516</v>
       </c>
-      <c r="X40" s="9"/>
+      <c r="X40" s="11">
+        <v>44269.259006067223</v>
+      </c>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
@@ -5027,7 +5092,7 @@
       <c r="CQ40" s="9"/>
       <c r="CR40" s="9"/>
     </row>
-    <row r="41" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
@@ -5097,7 +5162,9 @@
       <c r="W41" s="11">
         <v>1377266.6587421473</v>
       </c>
-      <c r="X41" s="9"/>
+      <c r="X41" s="11">
+        <v>1702890.6153261971</v>
+      </c>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
@@ -5171,7 +5238,7 @@
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
     </row>
-    <row r="42" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -5268,7 +5335,7 @@
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
     </row>
-    <row r="43" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -5338,7 +5405,9 @@
       <c r="W43" s="8">
         <v>6306995.5567250401</v>
       </c>
-      <c r="X43" s="9"/>
+      <c r="X43" s="8">
+        <v>8220298.0102874339</v>
+      </c>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
@@ -5412,7 +5481,7 @@
       <c r="CQ43" s="9"/>
       <c r="CR43" s="9"/>
     </row>
-    <row r="44" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -5436,13 +5505,14 @@
       <c r="U44" s="12"/>
       <c r="V44" s="12"/>
       <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
@@ -5465,7 +5535,7 @@
       <c r="U46" s="14"/>
       <c r="V46" s="14"/>
       <c r="W46" s="14"/>
-      <c r="X46" s="9"/>
+      <c r="X46" s="14"/>
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
@@ -5539,7 +5609,7 @@
       <c r="CQ46" s="9"/>
       <c r="CR46" s="9"/>
     </row>
-    <row r="47" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -5636,37 +5706,37 @@
       <c r="CQ47" s="9"/>
       <c r="CR47" s="9"/>
     </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="15" t="s">
         <v>33</v>
@@ -5692,8 +5762,9 @@
       <c r="U56" s="15"/>
       <c r="V56" s="15"/>
       <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
     </row>
-    <row r="57" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>32</v>
       </c>
@@ -5763,11 +5834,14 @@
       <c r="W57" s="16">
         <v>2021</v>
       </c>
+      <c r="X57" s="16">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="58" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>31</v>
       </c>
@@ -5837,7 +5911,9 @@
       <c r="W59" s="8">
         <v>1270445.3354847038</v>
       </c>
-      <c r="X59" s="9"/>
+      <c r="X59" s="8">
+        <v>1293768.8902593551</v>
+      </c>
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
@@ -5911,7 +5987,7 @@
       <c r="CQ59" s="9"/>
       <c r="CR59" s="9"/>
     </row>
-    <row r="60" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>30</v>
       </c>
@@ -5981,7 +6057,9 @@
       <c r="W60" s="11">
         <v>628551.20861141244</v>
       </c>
-      <c r="X60" s="9"/>
+      <c r="X60" s="11">
+        <v>719970.28575167095</v>
+      </c>
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
@@ -6055,7 +6133,7 @@
       <c r="CQ60" s="9"/>
       <c r="CR60" s="9"/>
     </row>
-    <row r="61" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>29</v>
       </c>
@@ -6125,7 +6203,9 @@
       <c r="W61" s="11">
         <v>314276.56117878546</v>
       </c>
-      <c r="X61" s="9"/>
+      <c r="X61" s="11">
+        <v>247042.43383475463</v>
+      </c>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
@@ -6199,7 +6279,7 @@
       <c r="CQ61" s="9"/>
       <c r="CR61" s="9"/>
     </row>
-    <row r="62" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>28</v>
       </c>
@@ -6269,7 +6349,9 @@
       <c r="W62" s="11">
         <v>11024.711418646446</v>
       </c>
-      <c r="X62" s="9"/>
+      <c r="X62" s="11">
+        <v>10091.946189523353</v>
+      </c>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
@@ -6343,7 +6425,7 @@
       <c r="CQ62" s="9"/>
       <c r="CR62" s="9"/>
     </row>
-    <row r="63" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>27</v>
       </c>
@@ -6413,7 +6495,9 @@
       <c r="W63" s="11">
         <v>70782.771261158559</v>
       </c>
-      <c r="X63" s="9"/>
+      <c r="X63" s="11">
+        <v>66889.462717119386</v>
+      </c>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
@@ -6487,7 +6571,7 @@
       <c r="CQ63" s="9"/>
       <c r="CR63" s="9"/>
     </row>
-    <row r="64" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>26</v>
       </c>
@@ -6557,7 +6641,9 @@
       <c r="W64" s="11">
         <v>98853.053283453541</v>
       </c>
-      <c r="X64" s="9"/>
+      <c r="X64" s="11">
+        <v>92248.499784717351</v>
+      </c>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
@@ -6631,7 +6717,7 @@
       <c r="CQ64" s="9"/>
       <c r="CR64" s="9"/>
     </row>
-    <row r="65" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>25</v>
       </c>
@@ -6701,7 +6787,9 @@
       <c r="W65" s="11">
         <v>82983.725244003828</v>
       </c>
-      <c r="X65" s="9"/>
+      <c r="X65" s="11">
+        <v>87312.479388597043</v>
+      </c>
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
@@ -6775,7 +6863,7 @@
       <c r="CQ65" s="9"/>
       <c r="CR65" s="9"/>
     </row>
-    <row r="66" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>24</v>
       </c>
@@ -6845,7 +6933,9 @@
       <c r="W66" s="11">
         <v>48268.246222288391</v>
       </c>
-      <c r="X66" s="9"/>
+      <c r="X66" s="11">
+        <v>53890.944464172338</v>
+      </c>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
@@ -6919,7 +7009,7 @@
       <c r="CQ66" s="9"/>
       <c r="CR66" s="9"/>
     </row>
-    <row r="67" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>23</v>
       </c>
@@ -6989,7 +7079,9 @@
       <c r="W67" s="11">
         <v>13199.24138149861</v>
       </c>
-      <c r="X67" s="9"/>
+      <c r="X67" s="11">
+        <v>13519.531926249847</v>
+      </c>
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
@@ -7063,7 +7155,7 @@
       <c r="CQ67" s="9"/>
       <c r="CR67" s="9"/>
     </row>
-    <row r="68" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>22</v>
       </c>
@@ -7133,7 +7225,9 @@
       <c r="W68" s="11">
         <v>2505.816883456755</v>
       </c>
-      <c r="X68" s="9"/>
+      <c r="X68" s="11">
+        <v>2803.3062025503291</v>
+      </c>
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
@@ -7207,7 +7301,7 @@
       <c r="CQ68" s="9"/>
       <c r="CR68" s="9"/>
     </row>
-    <row r="69" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -7277,7 +7371,9 @@
       <c r="W69" s="11">
         <v>851625.96200533165</v>
       </c>
-      <c r="X69" s="9"/>
+      <c r="X69" s="11">
+        <v>1038872.1485690316</v>
+      </c>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
@@ -7351,7 +7447,7 @@
       <c r="CQ69" s="9"/>
       <c r="CR69" s="9"/>
     </row>
-    <row r="70" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>20</v>
       </c>
@@ -7421,7 +7517,9 @@
       <c r="W70" s="11">
         <v>330755.68338944775</v>
       </c>
-      <c r="X70" s="9"/>
+      <c r="X70" s="11">
+        <v>325790.79255555896</v>
+      </c>
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
@@ -7495,7 +7593,7 @@
       <c r="CQ70" s="9"/>
       <c r="CR70" s="9"/>
     </row>
-    <row r="71" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>19</v>
       </c>
@@ -7565,7 +7663,9 @@
       <c r="W71" s="11">
         <v>55658.939559825427</v>
       </c>
-      <c r="X71" s="9"/>
+      <c r="X71" s="11">
+        <v>58833.332136163226</v>
+      </c>
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
@@ -7639,7 +7739,7 @@
       <c r="CQ71" s="9"/>
       <c r="CR71" s="9"/>
     </row>
-    <row r="72" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>18</v>
       </c>
@@ -7709,7 +7809,9 @@
       <c r="W72" s="11">
         <v>280343.47476116219</v>
       </c>
-      <c r="X72" s="9"/>
+      <c r="X72" s="11">
+        <v>288783.5227047932</v>
+      </c>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
@@ -7783,7 +7885,7 @@
       <c r="CQ72" s="9"/>
       <c r="CR72" s="9"/>
     </row>
-    <row r="73" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>17</v>
       </c>
@@ -7853,7 +7955,9 @@
       <c r="W73" s="11">
         <v>470058.56247071276</v>
       </c>
-      <c r="X73" s="9"/>
+      <c r="X73" s="11">
+        <v>620184.5799061493</v>
+      </c>
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
@@ -7927,7 +8031,7 @@
       <c r="CQ73" s="9"/>
       <c r="CR73" s="9"/>
     </row>
-    <row r="74" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>16</v>
       </c>
@@ -7997,7 +8101,9 @@
       <c r="W74" s="11">
         <v>79143.187014313487</v>
       </c>
-      <c r="X74" s="9"/>
+      <c r="X74" s="11">
+        <v>75712.077514297271</v>
+      </c>
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
@@ -8071,7 +8177,7 @@
       <c r="CQ74" s="9"/>
       <c r="CR74" s="9"/>
     </row>
-    <row r="75" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>15</v>
       </c>
@@ -8141,7 +8247,9 @@
       <c r="W75" s="11">
         <v>170079.25406421412</v>
       </c>
-      <c r="X75" s="9"/>
+      <c r="X75" s="11">
+        <v>174636.70341358738</v>
+      </c>
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
@@ -8215,7 +8323,7 @@
       <c r="CQ75" s="9"/>
       <c r="CR75" s="9"/>
     </row>
-    <row r="76" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>14</v>
       </c>
@@ -8285,7 +8393,9 @@
       <c r="W76" s="11">
         <v>297902.56894429406</v>
       </c>
-      <c r="X76" s="9"/>
+      <c r="X76" s="11">
+        <v>306525.61544606509</v>
+      </c>
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
@@ -8359,7 +8469,7 @@
       <c r="CQ76" s="9"/>
       <c r="CR76" s="9"/>
     </row>
-    <row r="77" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
@@ -8429,7 +8539,9 @@
       <c r="W77" s="11">
         <v>127390.08417690406</v>
       </c>
-      <c r="X77" s="9"/>
+      <c r="X77" s="11">
+        <v>145897.88176744245</v>
+      </c>
       <c r="Y77" s="9"/>
       <c r="Z77" s="9"/>
       <c r="AA77" s="9"/>
@@ -8503,7 +8615,7 @@
       <c r="CQ77" s="9"/>
       <c r="CR77" s="9"/>
     </row>
-    <row r="78" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
@@ -8573,7 +8685,9 @@
       <c r="W78" s="11">
         <v>56243.84986588524</v>
       </c>
-      <c r="X78" s="9"/>
+      <c r="X78" s="11">
+        <v>70572.064072566456</v>
+      </c>
       <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
       <c r="AA78" s="9"/>
@@ -8647,7 +8761,7 @@
       <c r="CQ78" s="9"/>
       <c r="CR78" s="9"/>
     </row>
-    <row r="79" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
@@ -8717,7 +8831,9 @@
       <c r="W79" s="11">
         <v>218066.94380187494</v>
       </c>
-      <c r="X79" s="9"/>
+      <c r="X79" s="11">
+        <v>170422.869704304</v>
+      </c>
       <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
       <c r="AA79" s="9"/>
@@ -8791,7 +8907,7 @@
       <c r="CQ79" s="9"/>
       <c r="CR79" s="9"/>
     </row>
-    <row r="80" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>10</v>
       </c>
@@ -8861,7 +8977,9 @@
       <c r="W80" s="11">
         <v>59978.660592942542</v>
       </c>
-      <c r="X80" s="9"/>
+      <c r="X80" s="11">
+        <v>61152.08347110563</v>
+      </c>
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
       <c r="AA80" s="9"/>
@@ -8935,7 +9053,7 @@
       <c r="CQ80" s="9"/>
       <c r="CR80" s="9"/>
     </row>
-    <row r="81" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
@@ -9005,7 +9123,9 @@
       <c r="W81" s="11">
         <v>63964.864009834884</v>
       </c>
-      <c r="X81" s="9"/>
+      <c r="X81" s="11">
+        <v>71204.417725225925</v>
+      </c>
       <c r="Y81" s="9"/>
       <c r="Z81" s="9"/>
       <c r="AA81" s="9"/>
@@ -9079,7 +9199,7 @@
       <c r="CQ81" s="9"/>
       <c r="CR81" s="9"/>
     </row>
-    <row r="82" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -9149,7 +9269,9 @@
       <c r="W82" s="11">
         <v>15951.48644393908</v>
       </c>
-      <c r="X82" s="9"/>
+      <c r="X82" s="11">
+        <v>31918.181138045205</v>
+      </c>
       <c r="Y82" s="9"/>
       <c r="Z82" s="9"/>
       <c r="AA82" s="9"/>
@@ -9223,7 +9345,7 @@
       <c r="CQ82" s="9"/>
       <c r="CR82" s="9"/>
     </row>
-    <row r="83" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
@@ -9293,7 +9415,9 @@
       <c r="W83" s="11">
         <v>95440.18539637026</v>
       </c>
-      <c r="X83" s="9"/>
+      <c r="X83" s="11">
+        <v>100045.05234365951</v>
+      </c>
       <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
       <c r="AA83" s="9"/>
@@ -9367,7 +9491,7 @@
       <c r="CQ83" s="9"/>
       <c r="CR83" s="9"/>
     </row>
-    <row r="84" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -9437,7 +9561,9 @@
       <c r="W84" s="11">
         <v>127118.94179667227</v>
       </c>
-      <c r="X84" s="9"/>
+      <c r="X84" s="11">
+        <v>150076.75083980133</v>
+      </c>
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
       <c r="AA84" s="9"/>
@@ -9511,7 +9637,7 @@
       <c r="CQ84" s="9"/>
       <c r="CR84" s="9"/>
     </row>
-    <row r="85" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>5</v>
       </c>
@@ -9581,7 +9707,9 @@
       <c r="W85" s="11">
         <v>70811.799735544919</v>
       </c>
-      <c r="X85" s="9"/>
+      <c r="X85" s="11">
+        <v>61897.022349530387</v>
+      </c>
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
@@ -9655,7 +9783,7 @@
       <c r="CQ85" s="9"/>
       <c r="CR85" s="9"/>
     </row>
-    <row r="86" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>4</v>
       </c>
@@ -9725,7 +9853,9 @@
       <c r="W86" s="11">
         <v>75362.893837006559</v>
       </c>
-      <c r="X86" s="9"/>
+      <c r="X86" s="11">
+        <v>86107.734247760876</v>
+      </c>
       <c r="Y86" s="9"/>
       <c r="Z86" s="9"/>
       <c r="AA86" s="9"/>
@@ -9799,7 +9929,7 @@
       <c r="CQ86" s="9"/>
       <c r="CR86" s="9"/>
     </row>
-    <row r="87" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
@@ -9869,7 +9999,9 @@
       <c r="W87" s="11">
         <v>27281.362287665164</v>
       </c>
-      <c r="X87" s="9"/>
+      <c r="X87" s="11">
+        <v>36809.373976090443</v>
+      </c>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
@@ -9943,7 +10075,7 @@
       <c r="CQ87" s="9"/>
       <c r="CR87" s="9"/>
     </row>
-    <row r="88" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
@@ -10013,7 +10145,9 @@
       <c r="W88" s="11">
         <v>1192647.6152162945</v>
       </c>
-      <c r="X88" s="9"/>
+      <c r="X88" s="11">
+        <v>1251557.1458126837</v>
+      </c>
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
@@ -10087,7 +10221,7 @@
       <c r="CQ88" s="9"/>
       <c r="CR88" s="9"/>
     </row>
-    <row r="89" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -10184,7 +10318,7 @@
       <c r="CQ89" s="9"/>
       <c r="CR89" s="9"/>
     </row>
-    <row r="90" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>1</v>
       </c>
@@ -10254,7 +10388,9 @@
       <c r="W90" s="8">
         <v>5936271.6548549393</v>
       </c>
-      <c r="X90" s="9"/>
+      <c r="X90" s="8">
+        <v>6420768.2399532162</v>
+      </c>
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
@@ -10328,7 +10464,7 @@
       <c r="CQ90" s="9"/>
       <c r="CR90" s="9"/>
     </row>
-    <row r="91" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -10352,13 +10488,14 @@
       <c r="U91" s="12"/>
       <c r="V91" s="12"/>
       <c r="W91" s="12"/>
+      <c r="X91" s="12"/>
     </row>
-    <row r="92" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -10455,7 +10592,7 @@
       <c r="CQ93" s="9"/>
       <c r="CR93" s="9"/>
     </row>
-    <row r="94" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -10552,37 +10689,37 @@
       <c r="CQ94" s="9"/>
       <c r="CR94" s="9"/>
     </row>
-    <row r="95" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="100" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="15" t="s">
         <v>33</v>
@@ -10608,8 +10745,9 @@
       <c r="U103" s="15"/>
       <c r="V103" s="15"/>
       <c r="W103" s="15"/>
+      <c r="X103" s="15"/>
     </row>
-    <row r="104" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>32</v>
       </c>
@@ -10676,12 +10814,15 @@
       <c r="V104" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="W104" s="16"/>
+      <c r="W104" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="X104" s="16"/>
     </row>
-    <row r="105" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>31</v>
       </c>
@@ -10748,8 +10889,10 @@
       <c r="V106" s="17">
         <v>17.773861295242099</v>
       </c>
-      <c r="W106" s="17"/>
-      <c r="X106" s="9"/>
+      <c r="W106" s="17">
+        <v>11.484381722224299</v>
+      </c>
+      <c r="X106" s="17"/>
       <c r="Y106" s="9"/>
       <c r="Z106" s="9"/>
       <c r="AA106" s="9"/>
@@ -10818,7 +10961,7 @@
       <c r="CL106" s="9"/>
       <c r="CM106" s="9"/>
     </row>
-    <row r="107" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
         <v>30</v>
       </c>
@@ -10885,8 +11028,10 @@
       <c r="V107" s="17">
         <v>16.777929952004754</v>
       </c>
-      <c r="W107" s="17"/>
-      <c r="X107" s="9"/>
+      <c r="W107" s="17">
+        <v>23.543045074530085</v>
+      </c>
+      <c r="X107" s="17"/>
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
@@ -10955,7 +11100,7 @@
       <c r="CL107" s="9"/>
       <c r="CM107" s="9"/>
     </row>
-    <row r="108" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
         <v>29</v>
       </c>
@@ -11022,8 +11167,10 @@
       <c r="V108" s="17">
         <v>22.835525385096517</v>
       </c>
-      <c r="W108" s="17"/>
-      <c r="X108" s="9"/>
+      <c r="W108" s="17">
+        <v>-13.166195358714276</v>
+      </c>
+      <c r="X108" s="17"/>
       <c r="Y108" s="9"/>
       <c r="Z108" s="9"/>
       <c r="AA108" s="9"/>
@@ -11092,7 +11239,7 @@
       <c r="CL108" s="9"/>
       <c r="CM108" s="9"/>
     </row>
-    <row r="109" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>28</v>
       </c>
@@ -11159,8 +11306,10 @@
       <c r="V109" s="17">
         <v>0.51686615835045302</v>
       </c>
-      <c r="W109" s="17"/>
-      <c r="X109" s="9"/>
+      <c r="W109" s="17">
+        <v>17.469355986169262</v>
+      </c>
+      <c r="X109" s="17"/>
       <c r="Y109" s="9"/>
       <c r="Z109" s="9"/>
       <c r="AA109" s="9"/>
@@ -11229,7 +11378,7 @@
       <c r="CL109" s="9"/>
       <c r="CM109" s="9"/>
     </row>
-    <row r="110" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
         <v>27</v>
       </c>
@@ -11296,8 +11445,10 @@
       <c r="V110" s="17">
         <v>21.014543320346803</v>
       </c>
-      <c r="W110" s="17"/>
-      <c r="X110" s="9"/>
+      <c r="W110" s="17">
+        <v>4.313509712921288</v>
+      </c>
+      <c r="X110" s="17"/>
       <c r="Y110" s="9"/>
       <c r="Z110" s="9"/>
       <c r="AA110" s="9"/>
@@ -11366,7 +11517,7 @@
       <c r="CL110" s="9"/>
       <c r="CM110" s="9"/>
     </row>
-    <row r="111" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>26</v>
       </c>
@@ -11433,8 +11584,10 @@
       <c r="V111" s="17">
         <v>21.555954258117652</v>
       </c>
-      <c r="W111" s="17"/>
-      <c r="X111" s="9"/>
+      <c r="W111" s="17">
+        <v>6.220578106457026</v>
+      </c>
+      <c r="X111" s="17"/>
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
@@ -11503,7 +11656,7 @@
       <c r="CL111" s="9"/>
       <c r="CM111" s="9"/>
     </row>
-    <row r="112" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
         <v>25</v>
       </c>
@@ -11570,8 +11723,10 @@
       <c r="V112" s="17">
         <v>-4.7253042909210023</v>
       </c>
-      <c r="W112" s="17"/>
-      <c r="X112" s="9"/>
+      <c r="W112" s="17">
+        <v>11.617580380790343</v>
+      </c>
+      <c r="X112" s="17"/>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
       <c r="AA112" s="9"/>
@@ -11640,7 +11795,7 @@
       <c r="CL112" s="9"/>
       <c r="CM112" s="9"/>
     </row>
-    <row r="113" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
         <v>24</v>
       </c>
@@ -11707,8 +11862,10 @@
       <c r="V113" s="17">
         <v>45.672202869623334</v>
       </c>
-      <c r="W113" s="17"/>
-      <c r="X113" s="9"/>
+      <c r="W113" s="17">
+        <v>20.075451656906225</v>
+      </c>
+      <c r="X113" s="17"/>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
@@ -11777,7 +11934,7 @@
       <c r="CL113" s="9"/>
       <c r="CM113" s="9"/>
     </row>
-    <row r="114" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>23</v>
       </c>
@@ -11844,8 +12001,10 @@
       <c r="V114" s="17">
         <v>21.93496362080603</v>
       </c>
-      <c r="W114" s="17"/>
-      <c r="X114" s="9"/>
+      <c r="W114" s="17">
+        <v>16.461819737303387</v>
+      </c>
+      <c r="X114" s="17"/>
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
       <c r="AA114" s="9"/>
@@ -11914,7 +12073,7 @@
       <c r="CL114" s="9"/>
       <c r="CM114" s="9"/>
     </row>
-    <row r="115" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>22</v>
       </c>
@@ -11981,8 +12140,10 @@
       <c r="V115" s="17">
         <v>-14.215963089367904</v>
       </c>
-      <c r="W115" s="17"/>
-      <c r="X115" s="9"/>
+      <c r="W115" s="17">
+        <v>26.679622766270384</v>
+      </c>
+      <c r="X115" s="17"/>
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
@@ -12051,7 +12212,7 @@
       <c r="CL115" s="9"/>
       <c r="CM115" s="9"/>
     </row>
-    <row r="116" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>21</v>
       </c>
@@ -12118,8 +12279,10 @@
       <c r="V116" s="17">
         <v>87.141133602165809</v>
       </c>
-      <c r="W116" s="17"/>
-      <c r="X116" s="9"/>
+      <c r="W116" s="17">
+        <v>92.292022343980676</v>
+      </c>
+      <c r="X116" s="17"/>
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
@@ -12188,7 +12351,7 @@
       <c r="CL116" s="9"/>
       <c r="CM116" s="9"/>
     </row>
-    <row r="117" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>20</v>
       </c>
@@ -12255,8 +12418,10 @@
       <c r="V117" s="17">
         <v>20.149464772345581</v>
       </c>
-      <c r="W117" s="17"/>
-      <c r="X117" s="9"/>
+      <c r="W117" s="17">
+        <v>11.84538747731294</v>
+      </c>
+      <c r="X117" s="17"/>
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
@@ -12325,7 +12490,7 @@
       <c r="CL117" s="9"/>
       <c r="CM117" s="9"/>
     </row>
-    <row r="118" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
@@ -12392,8 +12557,10 @@
       <c r="V118" s="17">
         <v>-1.1477031793044432</v>
       </c>
-      <c r="W118" s="17"/>
-      <c r="X118" s="9"/>
+      <c r="W118" s="17">
+        <v>25.475107317581205</v>
+      </c>
+      <c r="X118" s="17"/>
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
@@ -12462,7 +12629,7 @@
       <c r="CL118" s="9"/>
       <c r="CM118" s="9"/>
     </row>
-    <row r="119" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>18</v>
       </c>
@@ -12529,8 +12696,10 @@
       <c r="V119" s="17">
         <v>46.681607831059665</v>
       </c>
-      <c r="W119" s="17"/>
-      <c r="X119" s="9"/>
+      <c r="W119" s="17">
+        <v>12.584937571555812</v>
+      </c>
+      <c r="X119" s="17"/>
       <c r="Y119" s="9"/>
       <c r="Z119" s="9"/>
       <c r="AA119" s="9"/>
@@ -12599,7 +12768,7 @@
       <c r="CL119" s="9"/>
       <c r="CM119" s="9"/>
     </row>
-    <row r="120" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>17</v>
       </c>
@@ -12666,8 +12835,10 @@
       <c r="V120" s="17">
         <v>23.27710738657278</v>
       </c>
-      <c r="W120" s="17"/>
-      <c r="X120" s="9"/>
+      <c r="W120" s="17">
+        <v>44.941242594375922</v>
+      </c>
+      <c r="X120" s="17"/>
       <c r="Y120" s="9"/>
       <c r="Z120" s="9"/>
       <c r="AA120" s="9"/>
@@ -12736,7 +12907,7 @@
       <c r="CL120" s="9"/>
       <c r="CM120" s="9"/>
     </row>
-    <row r="121" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>16</v>
       </c>
@@ -12803,8 +12974,10 @@
       <c r="V121" s="17">
         <v>21.949314880642007</v>
       </c>
-      <c r="W121" s="17"/>
-      <c r="X121" s="9"/>
+      <c r="W121" s="17">
+        <v>9.6583856699278527</v>
+      </c>
+      <c r="X121" s="17"/>
       <c r="Y121" s="9"/>
       <c r="Z121" s="9"/>
       <c r="AA121" s="9"/>
@@ -12873,7 +13046,7 @@
       <c r="CL121" s="9"/>
       <c r="CM121" s="9"/>
     </row>
-    <row r="122" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>15</v>
       </c>
@@ -12940,8 +13113,10 @@
       <c r="V122" s="17">
         <v>14.065200155632994</v>
       </c>
-      <c r="W122" s="17"/>
-      <c r="X122" s="9"/>
+      <c r="W122" s="17">
+        <v>18.893833257744092</v>
+      </c>
+      <c r="X122" s="17"/>
       <c r="Y122" s="9"/>
       <c r="Z122" s="9"/>
       <c r="AA122" s="9"/>
@@ -13010,7 +13185,7 @@
       <c r="CL122" s="9"/>
       <c r="CM122" s="9"/>
     </row>
-    <row r="123" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>14</v>
       </c>
@@ -13077,8 +13252,10 @@
       <c r="V123" s="17">
         <v>28.29745311329944</v>
       </c>
-      <c r="W123" s="17"/>
-      <c r="X123" s="9"/>
+      <c r="W123" s="17">
+        <v>20.199897576457701</v>
+      </c>
+      <c r="X123" s="17"/>
       <c r="Y123" s="9"/>
       <c r="Z123" s="9"/>
       <c r="AA123" s="9"/>
@@ -13147,7 +13324,7 @@
       <c r="CL123" s="9"/>
       <c r="CM123" s="9"/>
     </row>
-    <row r="124" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -13214,8 +13391,10 @@
       <c r="V124" s="17">
         <v>25.99692849690642</v>
       </c>
-      <c r="W124" s="17"/>
-      <c r="X124" s="9"/>
+      <c r="W124" s="17">
+        <v>37.312621320051477</v>
+      </c>
+      <c r="X124" s="17"/>
       <c r="Y124" s="9"/>
       <c r="Z124" s="9"/>
       <c r="AA124" s="9"/>
@@ -13284,7 +13463,7 @@
       <c r="CL124" s="9"/>
       <c r="CM124" s="9"/>
     </row>
-    <row r="125" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>12</v>
       </c>
@@ -13351,8 +13530,10 @@
       <c r="V125" s="17">
         <v>6.470556805198683</v>
       </c>
-      <c r="W125" s="17"/>
-      <c r="X125" s="9"/>
+      <c r="W125" s="17">
+        <v>50.086185126117414</v>
+      </c>
+      <c r="X125" s="17"/>
       <c r="Y125" s="9"/>
       <c r="Z125" s="9"/>
       <c r="AA125" s="9"/>
@@ -13421,7 +13602,7 @@
       <c r="CL125" s="9"/>
       <c r="CM125" s="9"/>
     </row>
-    <row r="126" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
@@ -13488,8 +13669,10 @@
       <c r="V126" s="17">
         <v>119.3670392081541</v>
       </c>
-      <c r="W126" s="17"/>
-      <c r="X126" s="9"/>
+      <c r="W126" s="17">
+        <v>-13.977444824748247</v>
+      </c>
+      <c r="X126" s="17"/>
       <c r="Y126" s="9"/>
       <c r="Z126" s="9"/>
       <c r="AA126" s="9"/>
@@ -13558,7 +13741,7 @@
       <c r="CL126" s="9"/>
       <c r="CM126" s="9"/>
     </row>
-    <row r="127" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
@@ -13625,8 +13808,10 @@
       <c r="V127" s="17">
         <v>11.858955136833842</v>
       </c>
-      <c r="W127" s="17"/>
-      <c r="X127" s="9"/>
+      <c r="W127" s="17">
+        <v>25.20769993517753</v>
+      </c>
+      <c r="X127" s="17"/>
       <c r="Y127" s="9"/>
       <c r="Z127" s="9"/>
       <c r="AA127" s="9"/>
@@ -13695,7 +13880,7 @@
       <c r="CL127" s="9"/>
       <c r="CM127" s="9"/>
     </row>
-    <row r="128" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>9</v>
       </c>
@@ -13762,8 +13947,10 @@
       <c r="V128" s="17">
         <v>35.16978564407728</v>
       </c>
-      <c r="W128" s="17"/>
-      <c r="X128" s="9"/>
+      <c r="W128" s="17">
+        <v>44.914911771176463</v>
+      </c>
+      <c r="X128" s="17"/>
       <c r="Y128" s="9"/>
       <c r="Z128" s="9"/>
       <c r="AA128" s="9"/>
@@ -13832,7 +14019,7 @@
       <c r="CL128" s="9"/>
       <c r="CM128" s="9"/>
     </row>
-    <row r="129" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>8</v>
       </c>
@@ -13899,8 +14086,10 @@
       <c r="V129" s="17">
         <v>69.383652884255838</v>
       </c>
-      <c r="W129" s="17"/>
-      <c r="X129" s="9"/>
+      <c r="W129" s="17">
+        <v>173.43539157354388</v>
+      </c>
+      <c r="X129" s="17"/>
       <c r="Y129" s="9"/>
       <c r="Z129" s="9"/>
       <c r="AA129" s="9"/>
@@ -13969,7 +14158,7 @@
       <c r="CL129" s="9"/>
       <c r="CM129" s="9"/>
     </row>
-    <row r="130" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>7</v>
       </c>
@@ -14036,8 +14225,10 @@
       <c r="V130" s="17">
         <v>27.134349566170528</v>
       </c>
-      <c r="W130" s="17"/>
-      <c r="X130" s="9"/>
+      <c r="W130" s="17">
+        <v>12.512211968567001</v>
+      </c>
+      <c r="X130" s="17"/>
       <c r="Y130" s="9"/>
       <c r="Z130" s="9"/>
       <c r="AA130" s="9"/>
@@ -14106,7 +14297,7 @@
       <c r="CL130" s="9"/>
       <c r="CM130" s="9"/>
     </row>
-    <row r="131" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>6</v>
       </c>
@@ -14173,8 +14364,10 @@
       <c r="V131" s="17">
         <v>34.931492200045199</v>
       </c>
-      <c r="W131" s="17"/>
-      <c r="X131" s="9"/>
+      <c r="W131" s="17">
+        <v>16.741513051534795</v>
+      </c>
+      <c r="X131" s="17"/>
       <c r="Y131" s="9"/>
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
@@ -14243,7 +14436,7 @@
       <c r="CL131" s="9"/>
       <c r="CM131" s="9"/>
     </row>
-    <row r="132" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>5</v>
       </c>
@@ -14310,8 +14503,10 @@
       <c r="V132" s="17">
         <v>11.303375444091628</v>
       </c>
-      <c r="W132" s="17"/>
-      <c r="X132" s="9"/>
+      <c r="W132" s="17">
+        <v>8.616096750048527</v>
+      </c>
+      <c r="X132" s="17"/>
       <c r="Y132" s="9"/>
       <c r="Z132" s="9"/>
       <c r="AA132" s="9"/>
@@ -14380,7 +14575,7 @@
       <c r="CL132" s="9"/>
       <c r="CM132" s="9"/>
     </row>
-    <row r="133" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>4</v>
       </c>
@@ -14447,8 +14642,10 @@
       <c r="V133" s="17">
         <v>30.166539973022367</v>
       </c>
-      <c r="W133" s="17"/>
-      <c r="X133" s="9"/>
+      <c r="W133" s="17">
+        <v>27.76914451137003</v>
+      </c>
+      <c r="X133" s="17"/>
       <c r="Y133" s="9"/>
       <c r="Z133" s="9"/>
       <c r="AA133" s="9"/>
@@ -14517,7 +14714,7 @@
       <c r="CL133" s="9"/>
       <c r="CM133" s="9"/>
     </row>
-    <row r="134" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>3</v>
       </c>
@@ -14584,8 +14781,10 @@
       <c r="V134" s="17">
         <v>-3.9616661614076207</v>
       </c>
-      <c r="W134" s="17"/>
-      <c r="X134" s="9"/>
+      <c r="W134" s="17">
+        <v>61.94090629498811</v>
+      </c>
+      <c r="X134" s="17"/>
       <c r="Y134" s="9"/>
       <c r="Z134" s="9"/>
       <c r="AA134" s="9"/>
@@ -14654,7 +14853,7 @@
       <c r="CL134" s="9"/>
       <c r="CM134" s="9"/>
     </row>
-    <row r="135" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>2</v>
       </c>
@@ -14721,8 +14920,10 @@
       <c r="V135" s="17">
         <v>25.382233369533111</v>
       </c>
-      <c r="W135" s="17"/>
-      <c r="X135" s="9"/>
+      <c r="W135" s="17">
+        <v>23.642767688970338</v>
+      </c>
+      <c r="X135" s="17"/>
       <c r="Y135" s="9"/>
       <c r="Z135" s="9"/>
       <c r="AA135" s="9"/>
@@ -14791,7 +14992,7 @@
       <c r="CL135" s="9"/>
       <c r="CM135" s="9"/>
     </row>
-    <row r="136" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -14883,7 +15084,7 @@
       <c r="CL136" s="9"/>
       <c r="CM136" s="9"/>
     </row>
-    <row r="137" spans="1:92" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:92" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>1</v>
       </c>
@@ -14950,8 +15151,10 @@
       <c r="V137" s="17">
         <v>31.669503995190553</v>
       </c>
-      <c r="W137" s="17"/>
-      <c r="X137" s="9"/>
+      <c r="W137" s="17">
+        <v>30.336194727809385</v>
+      </c>
+      <c r="X137" s="17"/>
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
@@ -15020,7 +15223,7 @@
       <c r="CL137" s="9"/>
       <c r="CM137" s="9"/>
     </row>
-    <row r="138" spans="1:92" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:92" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -15044,13 +15247,14 @@
       <c r="U138" s="12"/>
       <c r="V138" s="12"/>
       <c r="W138" s="12"/>
+      <c r="X138" s="12"/>
     </row>
-    <row r="139" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
@@ -15142,7 +15346,7 @@
       <c r="CL140" s="9"/>
       <c r="CM140" s="9"/>
     </row>
-    <row r="141" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
@@ -15235,37 +15439,37 @@
       <c r="CM141" s="9"/>
       <c r="CN141" s="9"/>
     </row>
-    <row r="142" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="146" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="147" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="148" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="150" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="15" t="s">
         <v>33</v>
@@ -15291,8 +15495,9 @@
       <c r="U150" s="15"/>
       <c r="V150" s="15"/>
       <c r="W150" s="15"/>
+      <c r="X150" s="15"/>
     </row>
-    <row r="151" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>32</v>
       </c>
@@ -15359,12 +15564,15 @@
       <c r="V151" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="W151" s="16"/>
+      <c r="W151" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="X151" s="16"/>
     </row>
-    <row r="152" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7"/>
     </row>
-    <row r="153" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>31</v>
       </c>
@@ -15431,8 +15639,10 @@
       <c r="V153" s="17">
         <v>20.823551486499611</v>
       </c>
-      <c r="W153" s="17"/>
-      <c r="X153" s="9"/>
+      <c r="W153" s="17">
+        <v>1.8358566184001148</v>
+      </c>
+      <c r="X153" s="17"/>
       <c r="Y153" s="9"/>
       <c r="Z153" s="9"/>
       <c r="AA153" s="9"/>
@@ -15501,7 +15711,7 @@
       <c r="CL153" s="9"/>
       <c r="CM153" s="9"/>
     </row>
-    <row r="154" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
         <v>30</v>
       </c>
@@ -15568,8 +15778,10 @@
       <c r="V154" s="17">
         <v>17.06745121850129</v>
       </c>
-      <c r="W154" s="17"/>
-      <c r="X154" s="9"/>
+      <c r="W154" s="17">
+        <v>14.544411956858767</v>
+      </c>
+      <c r="X154" s="17"/>
       <c r="Y154" s="9"/>
       <c r="Z154" s="9"/>
       <c r="AA154" s="9"/>
@@ -15638,7 +15850,7 @@
       <c r="CL154" s="9"/>
       <c r="CM154" s="9"/>
     </row>
-    <row r="155" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
         <v>29</v>
       </c>
@@ -15705,8 +15917,10 @@
       <c r="V155" s="17">
         <v>29.927519381183942</v>
       </c>
-      <c r="W155" s="17"/>
-      <c r="X155" s="9"/>
+      <c r="W155" s="17">
+        <v>-21.393299930433798</v>
+      </c>
+      <c r="X155" s="17"/>
       <c r="Y155" s="9"/>
       <c r="Z155" s="9"/>
       <c r="AA155" s="9"/>
@@ -15775,7 +15989,7 @@
       <c r="CL155" s="9"/>
       <c r="CM155" s="9"/>
     </row>
-    <row r="156" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
         <v>28</v>
       </c>
@@ -15842,8 +16056,10 @@
       <c r="V156" s="17">
         <v>9.8777316311736882</v>
       </c>
-      <c r="W156" s="17"/>
-      <c r="X156" s="9"/>
+      <c r="W156" s="17">
+        <v>-8.4606770526934412</v>
+      </c>
+      <c r="X156" s="17"/>
       <c r="Y156" s="9"/>
       <c r="Z156" s="9"/>
       <c r="AA156" s="9"/>
@@ -15912,7 +16128,7 @@
       <c r="CL156" s="9"/>
       <c r="CM156" s="9"/>
     </row>
-    <row r="157" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
         <v>27</v>
       </c>
@@ -15979,8 +16195,10 @@
       <c r="V157" s="17">
         <v>28.194199817049991</v>
       </c>
-      <c r="W157" s="17"/>
-      <c r="X157" s="9"/>
+      <c r="W157" s="17">
+        <v>-5.5003618460691541</v>
+      </c>
+      <c r="X157" s="17"/>
       <c r="Y157" s="9"/>
       <c r="Z157" s="9"/>
       <c r="AA157" s="9"/>
@@ -16049,7 +16267,7 @@
       <c r="CL157" s="9"/>
       <c r="CM157" s="9"/>
     </row>
-    <row r="158" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
         <v>26</v>
       </c>
@@ -16116,8 +16334,10 @@
       <c r="V158" s="17">
         <v>28.787408425005282</v>
       </c>
-      <c r="W158" s="17"/>
-      <c r="X158" s="9"/>
+      <c r="W158" s="17">
+        <v>-6.6811831090316787</v>
+      </c>
+      <c r="X158" s="17"/>
       <c r="Y158" s="9"/>
       <c r="Z158" s="9"/>
       <c r="AA158" s="9"/>
@@ -16186,7 +16406,7 @@
       <c r="CL158" s="9"/>
       <c r="CM158" s="9"/>
     </row>
-    <row r="159" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
         <v>25</v>
       </c>
@@ -16253,8 +16473,10 @@
       <c r="V159" s="17">
         <v>-3.727700653339113</v>
       </c>
-      <c r="W159" s="17"/>
-      <c r="X159" s="9"/>
+      <c r="W159" s="17">
+        <v>5.2163892761683428</v>
+      </c>
+      <c r="X159" s="17"/>
       <c r="Y159" s="9"/>
       <c r="Z159" s="9"/>
       <c r="AA159" s="9"/>
@@ -16323,7 +16545,7 @@
       <c r="CL159" s="9"/>
       <c r="CM159" s="9"/>
     </row>
-    <row r="160" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
         <v>24</v>
       </c>
@@ -16390,8 +16612,10 @@
       <c r="V160" s="17">
         <v>54.76580539554115</v>
       </c>
-      <c r="W160" s="17"/>
-      <c r="X160" s="9"/>
+      <c r="W160" s="17">
+        <v>11.648855473202602</v>
+      </c>
+      <c r="X160" s="17"/>
       <c r="Y160" s="9"/>
       <c r="Z160" s="9"/>
       <c r="AA160" s="9"/>
@@ -16460,7 +16684,7 @@
       <c r="CL160" s="9"/>
       <c r="CM160" s="9"/>
     </row>
-    <row r="161" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
         <v>23</v>
       </c>
@@ -16527,8 +16751,10 @@
       <c r="V161" s="17">
         <v>25.356261312149471</v>
       </c>
-      <c r="W161" s="17"/>
-      <c r="X161" s="9"/>
+      <c r="W161" s="17">
+        <v>2.4265829792323217</v>
+      </c>
+      <c r="X161" s="17"/>
       <c r="Y161" s="9"/>
       <c r="Z161" s="9"/>
       <c r="AA161" s="9"/>
@@ -16597,7 +16823,7 @@
       <c r="CL161" s="9"/>
       <c r="CM161" s="9"/>
     </row>
-    <row r="162" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="10" t="s">
         <v>22</v>
       </c>
@@ -16664,8 +16890,10 @@
       <c r="V162" s="17">
         <v>-9.4889881339853304</v>
       </c>
-      <c r="W162" s="17"/>
-      <c r="X162" s="9"/>
+      <c r="W162" s="17">
+        <v>11.871949664701347</v>
+      </c>
+      <c r="X162" s="17"/>
       <c r="Y162" s="9"/>
       <c r="Z162" s="9"/>
       <c r="AA162" s="9"/>
@@ -16734,7 +16962,7 @@
       <c r="CL162" s="9"/>
       <c r="CM162" s="9"/>
     </row>
-    <row r="163" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>21</v>
       </c>
@@ -16801,8 +17029,10 @@
       <c r="V163" s="17">
         <v>26.49807982975581</v>
       </c>
-      <c r="W163" s="17"/>
-      <c r="X163" s="9"/>
+      <c r="W163" s="17">
+        <v>21.986904453075809</v>
+      </c>
+      <c r="X163" s="17"/>
       <c r="Y163" s="9"/>
       <c r="Z163" s="9"/>
       <c r="AA163" s="9"/>
@@ -16871,7 +17101,7 @@
       <c r="CL163" s="9"/>
       <c r="CM163" s="9"/>
     </row>
-    <row r="164" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>20</v>
       </c>
@@ -16938,8 +17168,10 @@
       <c r="V164" s="17">
         <v>18.84779819436919</v>
       </c>
-      <c r="W164" s="17"/>
-      <c r="X164" s="9"/>
+      <c r="W164" s="17">
+        <v>-1.5010749877403953</v>
+      </c>
+      <c r="X164" s="17"/>
       <c r="Y164" s="9"/>
       <c r="Z164" s="9"/>
       <c r="AA164" s="9"/>
@@ -17008,7 +17240,7 @@
       <c r="CL164" s="9"/>
       <c r="CM164" s="9"/>
     </row>
-    <row r="165" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>19</v>
       </c>
@@ -17075,8 +17307,10 @@
       <c r="V165" s="17">
         <v>-3.2515741278299117</v>
       </c>
-      <c r="W165" s="17"/>
-      <c r="X165" s="9"/>
+      <c r="W165" s="17">
+        <v>5.7032933100095846</v>
+      </c>
+      <c r="X165" s="17"/>
       <c r="Y165" s="9"/>
       <c r="Z165" s="9"/>
       <c r="AA165" s="9"/>
@@ -17145,7 +17379,7 @@
       <c r="CL165" s="9"/>
       <c r="CM165" s="9"/>
     </row>
-    <row r="166" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>18</v>
       </c>
@@ -17212,8 +17446,10 @@
       <c r="V166" s="17">
         <v>12.611809551849646</v>
       </c>
-      <c r="W166" s="17"/>
-      <c r="X166" s="9"/>
+      <c r="W166" s="17">
+        <v>3.0106097353689023</v>
+      </c>
+      <c r="X166" s="17"/>
       <c r="Y166" s="9"/>
       <c r="Z166" s="9"/>
       <c r="AA166" s="9"/>
@@ -17282,7 +17518,7 @@
       <c r="CL166" s="9"/>
       <c r="CM166" s="9"/>
     </row>
-    <row r="167" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>17</v>
       </c>
@@ -17349,8 +17585,10 @@
       <c r="V167" s="17">
         <v>25.33672410623204</v>
       </c>
-      <c r="W167" s="17"/>
-      <c r="X167" s="9"/>
+      <c r="W167" s="17">
+        <v>31.937726364635722</v>
+      </c>
+      <c r="X167" s="17"/>
       <c r="Y167" s="9"/>
       <c r="Z167" s="9"/>
       <c r="AA167" s="9"/>
@@ -17419,7 +17657,7 @@
       <c r="CL167" s="9"/>
       <c r="CM167" s="9"/>
     </row>
-    <row r="168" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>16</v>
       </c>
@@ -17486,8 +17724,10 @@
       <c r="V168" s="17">
         <v>15.933542154178397</v>
       </c>
-      <c r="W168" s="17"/>
-      <c r="X168" s="9"/>
+      <c r="W168" s="17">
+        <v>-4.3353188435483219</v>
+      </c>
+      <c r="X168" s="17"/>
       <c r="Y168" s="9"/>
       <c r="Z168" s="9"/>
       <c r="AA168" s="9"/>
@@ -17556,7 +17796,7 @@
       <c r="CL168" s="9"/>
       <c r="CM168" s="9"/>
     </row>
-    <row r="169" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>15</v>
       </c>
@@ -17623,8 +17863,10 @@
       <c r="V169" s="17">
         <v>12.691079727079924</v>
       </c>
-      <c r="W169" s="17"/>
-      <c r="X169" s="9"/>
+      <c r="W169" s="17">
+        <v>2.6796033263719323</v>
+      </c>
+      <c r="X169" s="17"/>
       <c r="Y169" s="9"/>
       <c r="Z169" s="9"/>
       <c r="AA169" s="9"/>
@@ -17693,7 +17935,7 @@
       <c r="CL169" s="9"/>
       <c r="CM169" s="9"/>
     </row>
-    <row r="170" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>14</v>
       </c>
@@ -17760,8 +18002,10 @@
       <c r="V170" s="17">
         <v>10.836746694469412</v>
       </c>
-      <c r="W170" s="17"/>
-      <c r="X170" s="9"/>
+      <c r="W170" s="17">
+        <v>2.8945861502065497</v>
+      </c>
+      <c r="X170" s="17"/>
       <c r="Y170" s="9"/>
       <c r="Z170" s="9"/>
       <c r="AA170" s="9"/>
@@ -17830,7 +18074,7 @@
       <c r="CL170" s="9"/>
       <c r="CM170" s="9"/>
     </row>
-    <row r="171" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>13</v>
       </c>
@@ -17897,8 +18141,10 @@
       <c r="V171" s="17">
         <v>19.097316976949259</v>
       </c>
-      <c r="W171" s="17"/>
-      <c r="X171" s="9"/>
+      <c r="W171" s="17">
+        <v>14.528444431229829</v>
+      </c>
+      <c r="X171" s="17"/>
       <c r="Y171" s="9"/>
       <c r="Z171" s="9"/>
       <c r="AA171" s="9"/>
@@ -17967,7 +18213,7 @@
       <c r="CL171" s="9"/>
       <c r="CM171" s="9"/>
     </row>
-    <row r="172" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>12</v>
       </c>
@@ -18034,8 +18280,10 @@
       <c r="V172" s="17">
         <v>-3.6871595873306404</v>
       </c>
-      <c r="W172" s="17"/>
-      <c r="X172" s="9"/>
+      <c r="W172" s="17">
+        <v>25.475166157450403</v>
+      </c>
+      <c r="X172" s="17"/>
       <c r="Y172" s="9"/>
       <c r="Z172" s="9"/>
       <c r="AA172" s="9"/>
@@ -18104,7 +18352,7 @@
       <c r="CL172" s="9"/>
       <c r="CM172" s="9"/>
     </row>
-    <row r="173" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>11</v>
       </c>
@@ -18171,8 +18419,10 @@
       <c r="V173" s="17">
         <v>108.22545777181855</v>
       </c>
-      <c r="W173" s="17"/>
-      <c r="X173" s="9"/>
+      <c r="W173" s="17">
+        <v>-21.848370627351031</v>
+      </c>
+      <c r="X173" s="17"/>
       <c r="Y173" s="9"/>
       <c r="Z173" s="9"/>
       <c r="AA173" s="9"/>
@@ -18241,7 +18491,7 @@
       <c r="CL173" s="9"/>
       <c r="CM173" s="9"/>
     </row>
-    <row r="174" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>10</v>
       </c>
@@ -18308,8 +18558,10 @@
       <c r="V174" s="17">
         <v>-1.1797700391172157</v>
       </c>
-      <c r="W174" s="17"/>
-      <c r="X174" s="9"/>
+      <c r="W174" s="17">
+        <v>1.9564006040860988</v>
+      </c>
+      <c r="X174" s="17"/>
       <c r="Y174" s="9"/>
       <c r="Z174" s="9"/>
       <c r="AA174" s="9"/>
@@ -18378,7 +18630,7 @@
       <c r="CL174" s="9"/>
       <c r="CM174" s="9"/>
     </row>
-    <row r="175" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>9</v>
       </c>
@@ -18445,8 +18697,10 @@
       <c r="V175" s="17">
         <v>-7.1496904908029251</v>
       </c>
-      <c r="W175" s="17"/>
-      <c r="X175" s="9"/>
+      <c r="W175" s="17">
+        <v>11.31801626949121</v>
+      </c>
+      <c r="X175" s="17"/>
       <c r="Y175" s="9"/>
       <c r="Z175" s="9"/>
       <c r="AA175" s="9"/>
@@ -18515,7 +18769,7 @@
       <c r="CL175" s="9"/>
       <c r="CM175" s="9"/>
     </row>
-    <row r="176" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>8</v>
       </c>
@@ -18582,8 +18836,10 @@
       <c r="V176" s="17">
         <v>20.872559433181848</v>
       </c>
-      <c r="W176" s="17"/>
-      <c r="X176" s="9"/>
+      <c r="W176" s="17">
+        <v>100.09534064565392</v>
+      </c>
+      <c r="X176" s="17"/>
       <c r="Y176" s="9"/>
       <c r="Z176" s="9"/>
       <c r="AA176" s="9"/>
@@ -18652,7 +18908,7 @@
       <c r="CL176" s="9"/>
       <c r="CM176" s="9"/>
     </row>
-    <row r="177" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>7</v>
       </c>
@@ -18719,8 +18975,10 @@
       <c r="V177" s="17">
         <v>-7.0854143943372065</v>
       </c>
-      <c r="W177" s="17"/>
-      <c r="X177" s="9"/>
+      <c r="W177" s="17">
+        <v>4.8248721732516486</v>
+      </c>
+      <c r="X177" s="17"/>
       <c r="Y177" s="9"/>
       <c r="Z177" s="9"/>
       <c r="AA177" s="9"/>
@@ -18789,7 +19047,7 @@
       <c r="CL177" s="9"/>
       <c r="CM177" s="9"/>
     </row>
-    <row r="178" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>6</v>
       </c>
@@ -18856,8 +19114,10 @@
       <c r="V178" s="17">
         <v>-4.809753608628796</v>
       </c>
-      <c r="W178" s="17"/>
-      <c r="X178" s="9"/>
+      <c r="W178" s="17">
+        <v>18.060100814755245</v>
+      </c>
+      <c r="X178" s="17"/>
       <c r="Y178" s="9"/>
       <c r="Z178" s="9"/>
       <c r="AA178" s="9"/>
@@ -18926,7 +19186,7 @@
       <c r="CL178" s="9"/>
       <c r="CM178" s="9"/>
     </row>
-    <row r="179" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>5</v>
       </c>
@@ -18993,8 +19253,10 @@
       <c r="V179" s="17">
         <v>-1.97163387736434</v>
       </c>
-      <c r="W179" s="17"/>
-      <c r="X179" s="9"/>
+      <c r="W179" s="17">
+        <v>-12.589395297546218</v>
+      </c>
+      <c r="X179" s="17"/>
       <c r="Y179" s="9"/>
       <c r="Z179" s="9"/>
       <c r="AA179" s="9"/>
@@ -19063,7 +19325,7 @@
       <c r="CL179" s="9"/>
       <c r="CM179" s="9"/>
     </row>
-    <row r="180" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>4</v>
       </c>
@@ -19130,8 +19392,10 @@
       <c r="V180" s="17">
         <v>34.502355129076506</v>
       </c>
-      <c r="W180" s="17"/>
-      <c r="X180" s="9"/>
+      <c r="W180" s="17">
+        <v>14.257467917823135</v>
+      </c>
+      <c r="X180" s="17"/>
       <c r="Y180" s="9"/>
       <c r="Z180" s="9"/>
       <c r="AA180" s="9"/>
@@ -19200,7 +19464,7 @@
       <c r="CL180" s="9"/>
       <c r="CM180" s="9"/>
     </row>
-    <row r="181" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>3</v>
       </c>
@@ -19267,8 +19531,10 @@
       <c r="V181" s="17">
         <v>-5.9515192375327644</v>
       </c>
-      <c r="W181" s="17"/>
-      <c r="X181" s="9"/>
+      <c r="W181" s="17">
+        <v>34.924985006094147</v>
+      </c>
+      <c r="X181" s="17"/>
       <c r="Y181" s="9"/>
       <c r="Z181" s="9"/>
       <c r="AA181" s="9"/>
@@ -19337,7 +19603,7 @@
       <c r="CL181" s="9"/>
       <c r="CM181" s="9"/>
     </row>
-    <row r="182" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>2</v>
       </c>
@@ -19404,8 +19670,10 @@
       <c r="V182" s="17">
         <v>13.374433307033115</v>
       </c>
-      <c r="W182" s="17"/>
-      <c r="X182" s="9"/>
+      <c r="W182" s="17">
+        <v>4.9393911365601184</v>
+      </c>
+      <c r="X182" s="17"/>
       <c r="Y182" s="9"/>
       <c r="Z182" s="9"/>
       <c r="AA182" s="9"/>
@@ -19474,7 +19742,7 @@
       <c r="CL182" s="9"/>
       <c r="CM182" s="9"/>
     </row>
-    <row r="183" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
@@ -19566,7 +19834,7 @@
       <c r="CL183" s="9"/>
       <c r="CM183" s="9"/>
     </row>
-    <row r="184" spans="1:92" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:92" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>1</v>
       </c>
@@ -19633,8 +19901,10 @@
       <c r="V184" s="17">
         <v>17.997144735458974</v>
       </c>
-      <c r="W184" s="17"/>
-      <c r="X184" s="9"/>
+      <c r="W184" s="17">
+        <v>8.1616309574046255</v>
+      </c>
+      <c r="X184" s="17"/>
       <c r="Y184" s="9"/>
       <c r="Z184" s="9"/>
       <c r="AA184" s="9"/>
@@ -19703,7 +19973,7 @@
       <c r="CL184" s="9"/>
       <c r="CM184" s="9"/>
     </row>
-    <row r="185" spans="1:92" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:92" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -19727,13 +19997,14 @@
       <c r="U185" s="12"/>
       <c r="V185" s="12"/>
       <c r="W185" s="12"/>
+      <c r="X185" s="12"/>
     </row>
-    <row r="186" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A186" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
@@ -19825,7 +20096,7 @@
       <c r="CL187" s="9"/>
       <c r="CM187" s="9"/>
     </row>
-    <row r="188" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
@@ -19918,32 +20189,32 @@
       <c r="CM188" s="9"/>
       <c r="CN188" s="9"/>
     </row>
-    <row r="189" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="192" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="193" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="194" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="196" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="15" t="s">
         <v>33</v>
@@ -19969,8 +20240,9 @@
       <c r="U196" s="15"/>
       <c r="V196" s="15"/>
       <c r="W196" s="15"/>
+      <c r="X196" s="15"/>
     </row>
-    <row r="197" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>32</v>
       </c>
@@ -20040,11 +20312,14 @@
       <c r="W197" s="16">
         <v>2021</v>
       </c>
+      <c r="X197" s="16">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="198" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7"/>
     </row>
-    <row r="199" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>31</v>
       </c>
@@ -20114,7 +20389,9 @@
       <c r="W199" s="17">
         <v>94.623495891996683</v>
       </c>
-      <c r="X199" s="9"/>
+      <c r="X199" s="17">
+        <v>103.58867972647504</v>
+      </c>
       <c r="Y199" s="9"/>
       <c r="Z199" s="9"/>
       <c r="AA199" s="9"/>
@@ -20188,7 +20465,7 @@
       <c r="CQ199" s="9"/>
       <c r="CR199" s="9"/>
     </row>
-    <row r="200" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="10" t="s">
         <v>30</v>
       </c>
@@ -20258,7 +20535,9 @@
       <c r="W200" s="17">
         <v>96.91485788201814</v>
       </c>
-      <c r="X200" s="9"/>
+      <c r="X200" s="17">
+        <v>104.52850952012686</v>
+      </c>
       <c r="Y200" s="9"/>
       <c r="Z200" s="9"/>
       <c r="AA200" s="9"/>
@@ -20332,7 +20611,7 @@
       <c r="CQ200" s="9"/>
       <c r="CR200" s="9"/>
     </row>
-    <row r="201" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="10" t="s">
         <v>29</v>
       </c>
@@ -20402,7 +20681,9 @@
       <c r="W201" s="17">
         <v>89.578160419246586</v>
       </c>
-      <c r="X201" s="9"/>
+      <c r="X201" s="17">
+        <v>98.953555804871456</v>
+      </c>
       <c r="Y201" s="9"/>
       <c r="Z201" s="9"/>
       <c r="AA201" s="9"/>
@@ -20476,7 +20757,7 @@
       <c r="CQ201" s="9"/>
       <c r="CR201" s="9"/>
     </row>
-    <row r="202" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="10" t="s">
         <v>28</v>
       </c>
@@ -20546,7 +20827,9 @@
       <c r="W202" s="17">
         <v>92.243855823858041</v>
       </c>
-      <c r="X202" s="9"/>
+      <c r="X202" s="17">
+        <v>118.37345949726061</v>
+      </c>
       <c r="Y202" s="9"/>
       <c r="Z202" s="9"/>
       <c r="AA202" s="9"/>
@@ -20620,7 +20903,7 @@
       <c r="CQ202" s="9"/>
       <c r="CR202" s="9"/>
     </row>
-    <row r="203" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="10" t="s">
         <v>27</v>
       </c>
@@ -20690,7 +20973,9 @@
       <c r="W203" s="17">
         <v>95.780117655145588</v>
       </c>
-      <c r="X203" s="9"/>
+      <c r="X203" s="17">
+        <v>105.72696815039791</v>
+      </c>
       <c r="Y203" s="9"/>
       <c r="Z203" s="9"/>
       <c r="AA203" s="9"/>
@@ -20764,7 +21049,7 @@
       <c r="CQ203" s="9"/>
       <c r="CR203" s="9"/>
     </row>
-    <row r="204" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="10" t="s">
         <v>26</v>
       </c>
@@ -20834,7 +21119,9 @@
       <c r="W204" s="17">
         <v>95.6847697453628</v>
       </c>
-      <c r="X204" s="9"/>
+      <c r="X204" s="17">
+        <v>108.9136349661473</v>
+      </c>
       <c r="Y204" s="9"/>
       <c r="Z204" s="9"/>
       <c r="AA204" s="9"/>
@@ -20908,7 +21195,7 @@
       <c r="CQ204" s="9"/>
       <c r="CR204" s="9"/>
     </row>
-    <row r="205" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="10" t="s">
         <v>25</v>
       </c>
@@ -20978,7 +21265,9 @@
       <c r="W205" s="17">
         <v>92.258355609368991</v>
       </c>
-      <c r="X205" s="9"/>
+      <c r="X205" s="17">
+        <v>97.871201377186182</v>
+      </c>
       <c r="Y205" s="9"/>
       <c r="Z205" s="9"/>
       <c r="AA205" s="9"/>
@@ -21052,7 +21341,7 @@
       <c r="CQ205" s="9"/>
       <c r="CR205" s="9"/>
     </row>
-    <row r="206" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="10" t="s">
         <v>24</v>
       </c>
@@ -21122,7 +21411,9 @@
       <c r="W206" s="17">
         <v>98.799052413485072</v>
       </c>
-      <c r="X206" s="9"/>
+      <c r="X206" s="17">
+        <v>106.25582135654722</v>
+      </c>
       <c r="Y206" s="9"/>
       <c r="Z206" s="9"/>
       <c r="AA206" s="9"/>
@@ -21196,7 +21487,7 @@
       <c r="CQ206" s="9"/>
       <c r="CR206" s="9"/>
     </row>
-    <row r="207" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="10" t="s">
         <v>23</v>
       </c>
@@ -21266,7 +21557,9 @@
       <c r="W207" s="17">
         <v>92.952347404150217</v>
       </c>
-      <c r="X207" s="9"/>
+      <c r="X207" s="17">
+        <v>105.68935536721227</v>
+      </c>
       <c r="Y207" s="9"/>
       <c r="Z207" s="9"/>
       <c r="AA207" s="9"/>
@@ -21340,7 +21633,7 @@
       <c r="CQ207" s="9"/>
       <c r="CR207" s="9"/>
     </row>
-    <row r="208" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="10" t="s">
         <v>22</v>
       </c>
@@ -21410,7 +21703,9 @@
       <c r="W208" s="17">
         <v>95.272936042088048</v>
       </c>
-      <c r="X208" s="9"/>
+      <c r="X208" s="17">
+        <v>107.88351891443671</v>
+      </c>
       <c r="Y208" s="9"/>
       <c r="Z208" s="9"/>
       <c r="AA208" s="9"/>
@@ -21484,7 +21779,7 @@
       <c r="CQ208" s="9"/>
       <c r="CR208" s="9"/>
     </row>
-    <row r="209" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>21</v>
       </c>
@@ -21554,7 +21849,9 @@
       <c r="W209" s="17">
         <v>100.743484318424</v>
       </c>
-      <c r="X209" s="9"/>
+      <c r="X209" s="17">
+        <v>158.80531131127003</v>
+      </c>
       <c r="Y209" s="9"/>
       <c r="Z209" s="9"/>
       <c r="AA209" s="9"/>
@@ -21628,7 +21925,7 @@
       <c r="CQ209" s="9"/>
       <c r="CR209" s="9"/>
     </row>
-    <row r="210" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>20</v>
       </c>
@@ -21698,7 +21995,9 @@
       <c r="W210" s="17">
         <v>97.471671985517901</v>
       </c>
-      <c r="X210" s="9"/>
+      <c r="X210" s="17">
+        <v>110.67894314506394</v>
+      </c>
       <c r="Y210" s="9"/>
       <c r="Z210" s="9"/>
       <c r="AA210" s="9"/>
@@ -21772,7 +22071,7 @@
       <c r="CQ210" s="9"/>
       <c r="CR210" s="9"/>
     </row>
-    <row r="211" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>19</v>
       </c>
@@ -21842,7 +22141,9 @@
       <c r="W211" s="17">
         <v>98.015071232061359</v>
       </c>
-      <c r="X211" s="9"/>
+      <c r="X211" s="17">
+        <v>116.3488023548521</v>
+      </c>
       <c r="Y211" s="9"/>
       <c r="Z211" s="9"/>
       <c r="AA211" s="9"/>
@@ -21916,7 +22217,7 @@
       <c r="CQ211" s="9"/>
       <c r="CR211" s="9"/>
     </row>
-    <row r="212" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>18</v>
       </c>
@@ -21986,7 +22287,9 @@
       <c r="W212" s="17">
         <v>135.69469626060325</v>
       </c>
-      <c r="X212" s="9"/>
+      <c r="X212" s="17">
+        <v>148.30684864925905</v>
+      </c>
       <c r="Y212" s="9"/>
       <c r="Z212" s="9"/>
       <c r="AA212" s="9"/>
@@ -22060,7 +22363,7 @@
       <c r="CQ212" s="9"/>
       <c r="CR212" s="9"/>
     </row>
-    <row r="213" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>17</v>
       </c>
@@ -22130,7 +22433,9 @@
       <c r="W213" s="17">
         <v>100.56645437831551</v>
       </c>
-      <c r="X213" s="9"/>
+      <c r="X213" s="17">
+        <v>110.47808130799079</v>
+      </c>
       <c r="Y213" s="9"/>
       <c r="Z213" s="9"/>
       <c r="AA213" s="9"/>
@@ -22204,7 +22509,7 @@
       <c r="CQ213" s="9"/>
       <c r="CR213" s="9"/>
     </row>
-    <row r="214" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>16</v>
       </c>
@@ -22274,7 +22579,9 @@
       <c r="W214" s="17">
         <v>87.919192811757668</v>
       </c>
-      <c r="X214" s="9"/>
+      <c r="X214" s="17">
+        <v>100.77989741452529</v>
+      </c>
       <c r="Y214" s="9"/>
       <c r="Z214" s="9"/>
       <c r="AA214" s="9"/>
@@ -22348,7 +22655,7 @@
       <c r="CQ214" s="9"/>
       <c r="CR214" s="9"/>
     </row>
-    <row r="215" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>15</v>
       </c>
@@ -22418,7 +22725,9 @@
       <c r="W215" s="17">
         <v>99.772416086528708</v>
       </c>
-      <c r="X215" s="9"/>
+      <c r="X215" s="17">
+        <v>115.52756942592633</v>
+      </c>
       <c r="Y215" s="9"/>
       <c r="Z215" s="9"/>
       <c r="AA215" s="9"/>
@@ -22492,7 +22801,7 @@
       <c r="CQ215" s="9"/>
       <c r="CR215" s="9"/>
     </row>
-    <row r="216" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>14</v>
       </c>
@@ -22562,7 +22871,9 @@
       <c r="W216" s="17">
         <v>105.00789349316719</v>
       </c>
-      <c r="X216" s="9"/>
+      <c r="X216" s="17">
+        <v>122.66863121615208</v>
+      </c>
       <c r="Y216" s="9"/>
       <c r="Z216" s="9"/>
       <c r="AA216" s="9"/>
@@ -22636,7 +22947,7 @@
       <c r="CQ216" s="9"/>
       <c r="CR216" s="9"/>
     </row>
-    <row r="217" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>13</v>
       </c>
@@ -22706,7 +23017,9 @@
       <c r="W217" s="17">
         <v>135.65583521036967</v>
       </c>
-      <c r="X217" s="9"/>
+      <c r="X217" s="17">
+        <v>162.64307458818053</v>
+      </c>
       <c r="Y217" s="9"/>
       <c r="Z217" s="9"/>
       <c r="AA217" s="9"/>
@@ -22780,7 +23093,7 @@
       <c r="CQ217" s="9"/>
       <c r="CR217" s="9"/>
     </row>
-    <row r="218" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>12</v>
       </c>
@@ -22850,7 +23163,9 @@
       <c r="W218" s="17">
         <v>115.3567127138575</v>
       </c>
-      <c r="X218" s="9"/>
+      <c r="X218" s="17">
+        <v>137.98307242874554</v>
+      </c>
       <c r="Y218" s="9"/>
       <c r="Z218" s="9"/>
       <c r="AA218" s="9"/>
@@ -22924,7 +23239,7 @@
       <c r="CQ218" s="9"/>
       <c r="CR218" s="9"/>
     </row>
-    <row r="219" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>11</v>
       </c>
@@ -22994,7 +23309,9 @@
       <c r="W219" s="17">
         <v>104.36736711002142</v>
       </c>
-      <c r="X219" s="9"/>
+      <c r="X219" s="17">
+        <v>114.87857217804367</v>
+      </c>
       <c r="Y219" s="9"/>
       <c r="Z219" s="9"/>
       <c r="AA219" s="9"/>
@@ -23068,7 +23385,7 @@
       <c r="CQ219" s="9"/>
       <c r="CR219" s="9"/>
     </row>
-    <row r="220" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>10</v>
       </c>
@@ -23138,7 +23455,9 @@
       <c r="W220" s="17">
         <v>108.3071382960283</v>
       </c>
-      <c r="X220" s="9"/>
+      <c r="X220" s="17">
+        <v>133.00673221356743</v>
+      </c>
       <c r="Y220" s="9"/>
       <c r="Z220" s="9"/>
       <c r="AA220" s="9"/>
@@ -23212,7 +23531,7 @@
       <c r="CQ220" s="9"/>
       <c r="CR220" s="9"/>
     </row>
-    <row r="221" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>9</v>
       </c>
@@ -23282,7 +23601,9 @@
       <c r="W221" s="17">
         <v>139.21259736772924</v>
       </c>
-      <c r="X221" s="9"/>
+      <c r="X221" s="17">
+        <v>181.22835764645089</v>
+      </c>
       <c r="Y221" s="9"/>
       <c r="Z221" s="9"/>
       <c r="AA221" s="9"/>
@@ -23356,7 +23677,7 @@
       <c r="CQ221" s="9"/>
       <c r="CR221" s="9"/>
     </row>
-    <row r="222" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>8</v>
       </c>
@@ -23426,7 +23747,9 @@
       <c r="W222" s="17">
         <v>138.4411520437811</v>
       </c>
-      <c r="X222" s="9"/>
+      <c r="X222" s="17">
+        <v>189.18336877229041</v>
+      </c>
       <c r="Y222" s="9"/>
       <c r="Z222" s="9"/>
       <c r="AA222" s="9"/>
@@ -23500,7 +23823,7 @@
       <c r="CQ222" s="9"/>
       <c r="CR222" s="9"/>
     </row>
-    <row r="223" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>7</v>
       </c>
@@ -23570,7 +23893,9 @@
       <c r="W223" s="17">
         <v>127.30133338991855</v>
       </c>
-      <c r="X223" s="9"/>
+      <c r="X223" s="17">
+        <v>136.63698613984619</v>
+      </c>
       <c r="Y223" s="9"/>
       <c r="Z223" s="9"/>
       <c r="AA223" s="9"/>
@@ -23644,7 +23969,7 @@
       <c r="CQ223" s="9"/>
       <c r="CR223" s="9"/>
     </row>
-    <row r="224" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>6</v>
       </c>
@@ -23714,7 +24039,9 @@
       <c r="W224" s="17">
         <v>122.84528182219145</v>
       </c>
-      <c r="X224" s="9"/>
+      <c r="X224" s="17">
+        <v>121.4732494059709</v>
+      </c>
       <c r="Y224" s="9"/>
       <c r="Z224" s="9"/>
       <c r="AA224" s="9"/>
@@ -23788,7 +24115,7 @@
       <c r="CQ224" s="9"/>
       <c r="CR224" s="9"/>
     </row>
-    <row r="225" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>5</v>
       </c>
@@ -23858,7 +24185,9 @@
       <c r="W225" s="17">
         <v>102.33466487255072</v>
       </c>
-      <c r="X225" s="9"/>
+      <c r="X225" s="17">
+        <v>127.16067917064456</v>
+      </c>
       <c r="Y225" s="9"/>
       <c r="Z225" s="9"/>
       <c r="AA225" s="9"/>
@@ -23932,7 +24261,7 @@
       <c r="CQ225" s="9"/>
       <c r="CR225" s="9"/>
     </row>
-    <row r="226" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>4</v>
       </c>
@@ -24002,7 +24331,9 @@
       <c r="W226" s="17">
         <v>91.056408159880931</v>
       </c>
-      <c r="X226" s="9"/>
+      <c r="X226" s="17">
+        <v>101.82441099809536</v>
+      </c>
       <c r="Y226" s="9"/>
       <c r="Z226" s="9"/>
       <c r="AA226" s="9"/>
@@ -24076,7 +24407,7 @@
       <c r="CQ226" s="9"/>
       <c r="CR226" s="9"/>
     </row>
-    <row r="227" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>3</v>
       </c>
@@ -24146,7 +24477,9 @@
       <c r="W227" s="17">
         <v>100.2027485418181</v>
       </c>
-      <c r="X227" s="9"/>
+      <c r="X227" s="17">
+        <v>120.26626433479241</v>
+      </c>
       <c r="Y227" s="9"/>
       <c r="Z227" s="9"/>
       <c r="AA227" s="9"/>
@@ -24220,7 +24553,7 @@
       <c r="CQ227" s="9"/>
       <c r="CR227" s="9"/>
     </row>
-    <row r="228" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>2</v>
       </c>
@@ -24290,7 +24623,9 @@
       <c r="W228" s="17">
         <v>115.47976461533199</v>
       </c>
-      <c r="X228" s="9"/>
+      <c r="X228" s="17">
+        <v>136.06175483265253</v>
+      </c>
       <c r="Y228" s="9"/>
       <c r="Z228" s="9"/>
       <c r="AA228" s="9"/>
@@ -24364,7 +24699,7 @@
       <c r="CQ228" s="9"/>
       <c r="CR228" s="9"/>
     </row>
-    <row r="229" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
@@ -24461,7 +24796,7 @@
       <c r="CQ229" s="9"/>
       <c r="CR229" s="9"/>
     </row>
-    <row r="230" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>1</v>
       </c>
@@ -24531,7 +24866,9 @@
       <c r="W230" s="17">
         <v>106.24506295238201</v>
       </c>
-      <c r="X230" s="9"/>
+      <c r="X230" s="17">
+        <v>128.02670495310278</v>
+      </c>
       <c r="Y230" s="9"/>
       <c r="Z230" s="9"/>
       <c r="AA230" s="9"/>
@@ -24605,7 +24942,7 @@
       <c r="CQ230" s="9"/>
       <c r="CR230" s="9"/>
     </row>
-    <row r="231" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="12"/>
       <c r="B231" s="12"/>
       <c r="C231" s="12"/>
@@ -24629,46 +24966,47 @@
       <c r="U231" s="12"/>
       <c r="V231" s="12"/>
       <c r="W231" s="12"/>
+      <c r="X231" s="12"/>
     </row>
-    <row r="232" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A233" s="18"/>
     </row>
-    <row r="235" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="236" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="237" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="239" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="240" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="241" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="243" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>
       <c r="B243" s="15" t="s">
         <v>33</v>
@@ -24694,8 +25032,9 @@
       <c r="U243" s="15"/>
       <c r="V243" s="15"/>
       <c r="W243" s="15"/>
+      <c r="X243" s="15"/>
     </row>
-    <row r="244" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>32</v>
       </c>
@@ -24765,11 +25104,14 @@
       <c r="W244" s="16">
         <v>2021</v>
       </c>
+      <c r="X244" s="16">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="245" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="7"/>
     </row>
-    <row r="246" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>31</v>
       </c>
@@ -24839,7 +25181,9 @@
       <c r="W246" s="17">
         <v>19.060419165043033</v>
       </c>
-      <c r="X246" s="9"/>
+      <c r="X246" s="17">
+        <v>16.303522213602466</v>
+      </c>
       <c r="Y246" s="9"/>
       <c r="Z246" s="9"/>
       <c r="AA246" s="9"/>
@@ -24913,7 +25257,7 @@
       <c r="CQ246" s="9"/>
       <c r="CR246" s="9"/>
     </row>
-    <row r="247" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="10" t="s">
         <v>30</v>
       </c>
@@ -24983,7 +25327,9 @@
       <c r="W247" s="17">
         <v>9.6584737544633512</v>
       </c>
-      <c r="X247" s="9"/>
+      <c r="X247" s="17">
+        <v>9.1550720879242817</v>
+      </c>
       <c r="Y247" s="9"/>
       <c r="Z247" s="9"/>
       <c r="AA247" s="9"/>
@@ -25057,7 +25403,7 @@
       <c r="CQ247" s="9"/>
       <c r="CR247" s="9"/>
     </row>
-    <row r="248" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="10" t="s">
         <v>29</v>
       </c>
@@ -25127,7 +25473,9 @@
       <c r="W248" s="17">
         <v>4.4636651413626067</v>
       </c>
-      <c r="X248" s="9"/>
+      <c r="X248" s="17">
+        <v>2.9738249430915555</v>
+      </c>
       <c r="Y248" s="9"/>
       <c r="Z248" s="9"/>
       <c r="AA248" s="9"/>
@@ -25201,7 +25549,7 @@
       <c r="CQ248" s="9"/>
       <c r="CR248" s="9"/>
     </row>
-    <row r="249" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="10" t="s">
         <v>28</v>
       </c>
@@ -25271,7 +25619,9 @@
       <c r="W249" s="17">
         <v>0.16124347662127259</v>
       </c>
-      <c r="X249" s="9"/>
+      <c r="X249" s="17">
+        <v>0.14532545924965862</v>
+      </c>
       <c r="Y249" s="9"/>
       <c r="Z249" s="9"/>
       <c r="AA249" s="9"/>
@@ -25345,7 +25695,7 @@
       <c r="CQ249" s="9"/>
       <c r="CR249" s="9"/>
     </row>
-    <row r="250" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="10" t="s">
         <v>27</v>
       </c>
@@ -25415,7 +25765,9 @@
       <c r="W250" s="17">
         <v>1.074930543136672</v>
       </c>
-      <c r="X250" s="9"/>
+      <c r="X250" s="17">
+        <v>0.86031188716512563</v>
+      </c>
       <c r="Y250" s="9"/>
       <c r="Z250" s="9"/>
       <c r="AA250" s="9"/>
@@ -25489,7 +25841,7 @@
       <c r="CQ250" s="9"/>
       <c r="CR250" s="9"/>
     </row>
-    <row r="251" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="10" t="s">
         <v>26</v>
       </c>
@@ -25559,7 +25911,9 @@
       <c r="W251" s="17">
         <v>1.4997206763476549</v>
       </c>
-      <c r="X251" s="9"/>
+      <c r="X251" s="17">
+        <v>1.2222329919370054</v>
+      </c>
       <c r="Y251" s="9"/>
       <c r="Z251" s="9"/>
       <c r="AA251" s="9"/>
@@ -25633,7 +25987,7 @@
       <c r="CQ251" s="9"/>
       <c r="CR251" s="9"/>
     </row>
-    <row r="252" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="10" t="s">
         <v>25</v>
       </c>
@@ -25703,7 +26057,9 @@
       <c r="W252" s="17">
         <v>1.2138809936512605</v>
       </c>
-      <c r="X252" s="9"/>
+      <c r="X252" s="17">
+        <v>1.0395459194166121</v>
+      </c>
       <c r="Y252" s="9"/>
       <c r="Z252" s="9"/>
       <c r="AA252" s="9"/>
@@ -25777,7 +26133,7 @@
       <c r="CQ252" s="9"/>
       <c r="CR252" s="9"/>
     </row>
-    <row r="253" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="10" t="s">
         <v>24</v>
       </c>
@@ -25847,7 +26203,9 @@
       <c r="W253" s="17">
         <v>0.75612182465198097</v>
       </c>
-      <c r="X253" s="9"/>
+      <c r="X253" s="17">
+        <v>0.69659598235423059</v>
+      </c>
       <c r="Y253" s="9"/>
       <c r="Z253" s="9"/>
       <c r="AA253" s="9"/>
@@ -25921,7 +26279,7 @@
       <c r="CQ253" s="9"/>
       <c r="CR253" s="9"/>
     </row>
-    <row r="254" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="10" t="s">
         <v>23</v>
       </c>
@@ -25991,7 +26349,9 @@
       <c r="W254" s="17">
         <v>0.19453009905105637</v>
       </c>
-      <c r="X254" s="9"/>
+      <c r="X254" s="17">
+        <v>0.17382224006521504</v>
+      </c>
       <c r="Y254" s="9"/>
       <c r="Z254" s="9"/>
       <c r="AA254" s="9"/>
@@ -26065,7 +26425,7 @@
       <c r="CQ254" s="9"/>
       <c r="CR254" s="9"/>
     </row>
-    <row r="255" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="10" t="s">
         <v>22</v>
       </c>
@@ -26135,7 +26495,9 @@
       <c r="W255" s="17">
         <v>3.7852655757177313E-2</v>
       </c>
-      <c r="X255" s="9"/>
+      <c r="X255" s="17">
+        <v>3.6790702398783383E-2</v>
+      </c>
       <c r="Y255" s="9"/>
       <c r="Z255" s="9"/>
       <c r="AA255" s="9"/>
@@ -26209,7 +26571,7 @@
       <c r="CQ255" s="9"/>
       <c r="CR255" s="9"/>
     </row>
-    <row r="256" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>21</v>
       </c>
@@ -26279,7 +26641,9 @@
       <c r="W256" s="17">
         <v>13.603270523468872</v>
       </c>
-      <c r="X256" s="9"/>
+      <c r="X256" s="17">
+        <v>20.069639173622168</v>
+      </c>
       <c r="Y256" s="9"/>
       <c r="Z256" s="9"/>
       <c r="AA256" s="9"/>
@@ -26353,7 +26717,7 @@
       <c r="CQ256" s="9"/>
       <c r="CR256" s="9"/>
     </row>
-    <row r="257" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>20</v>
       </c>
@@ -26423,7 +26787,9 @@
       <c r="W257" s="17">
         <v>5.1116746775421218</v>
       </c>
-      <c r="X257" s="9"/>
+      <c r="X257" s="17">
+        <v>4.3864809476878337</v>
+      </c>
       <c r="Y257" s="9"/>
       <c r="Z257" s="9"/>
       <c r="AA257" s="9"/>
@@ -26497,7 +26863,7 @@
       <c r="CQ257" s="9"/>
       <c r="CR257" s="9"/>
     </row>
-    <row r="258" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>19</v>
       </c>
@@ -26567,7 +26933,9 @@
       <c r="W258" s="17">
         <v>0.86497840003078363</v>
       </c>
-      <c r="X258" s="9"/>
+      <c r="X258" s="17">
+        <v>0.8327177097498526</v>
+      </c>
       <c r="Y258" s="9"/>
       <c r="Z258" s="9"/>
       <c r="AA258" s="9"/>
@@ -26641,7 +27009,7 @@
       <c r="CQ258" s="9"/>
       <c r="CR258" s="9"/>
     </row>
-    <row r="259" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>18</v>
       </c>
@@ -26711,7 +27079,9 @@
       <c r="W259" s="17">
         <v>6.0315759404325897</v>
       </c>
-      <c r="X259" s="9"/>
+      <c r="X259" s="17">
+        <v>5.2100999429194745</v>
+      </c>
       <c r="Y259" s="9"/>
       <c r="Z259" s="9"/>
       <c r="AA259" s="9"/>
@@ -26785,7 +27155,7 @@
       <c r="CQ259" s="9"/>
       <c r="CR259" s="9"/>
     </row>
-    <row r="260" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>17</v>
       </c>
@@ -26855,7 +27225,9 @@
       <c r="W260" s="17">
         <v>7.495188882358109</v>
       </c>
-      <c r="X260" s="9"/>
+      <c r="X260" s="17">
+        <v>8.3350752441197571</v>
+      </c>
       <c r="Y260" s="9"/>
       <c r="Z260" s="9"/>
       <c r="AA260" s="9"/>
@@ -26929,7 +27301,7 @@
       <c r="CQ260" s="9"/>
       <c r="CR260" s="9"/>
     </row>
-    <row r="261" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>16</v>
       </c>
@@ -26999,7 +27371,9 @@
       <c r="W261" s="17">
         <v>1.1032519456001533</v>
       </c>
-      <c r="X261" s="9"/>
+      <c r="X261" s="17">
+        <v>0.92822126343624656</v>
+      </c>
       <c r="Y261" s="9"/>
       <c r="Z261" s="9"/>
       <c r="AA261" s="9"/>
@@ -27073,7 +27447,7 @@
       <c r="CQ261" s="9"/>
       <c r="CR261" s="9"/>
     </row>
-    <row r="262" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>15</v>
       </c>
@@ -27143,7 +27517,9 @@
       <c r="W262" s="17">
         <v>2.6905390929104454</v>
       </c>
-      <c r="X262" s="9"/>
+      <c r="X262" s="17">
+        <v>2.4543336327562972</v>
+      </c>
       <c r="Y262" s="9"/>
       <c r="Z262" s="9"/>
       <c r="AA262" s="9"/>
@@ -27217,7 +27593,7 @@
       <c r="CQ262" s="9"/>
       <c r="CR262" s="9"/>
     </row>
-    <row r="263" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>14</v>
       </c>
@@ -27287,7 +27663,9 @@
       <c r="W263" s="17">
         <v>4.9599085570446846</v>
       </c>
-      <c r="X263" s="9"/>
+      <c r="X263" s="17">
+        <v>4.5741745168363597</v>
+      </c>
       <c r="Y263" s="9"/>
       <c r="Z263" s="9"/>
       <c r="AA263" s="9"/>
@@ -27361,7 +27739,7 @@
       <c r="CQ263" s="9"/>
       <c r="CR263" s="9"/>
     </row>
-    <row r="264" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>13</v>
       </c>
@@ -27431,7 +27809,9 @@
       <c r="W264" s="17">
         <v>2.7400064121038685</v>
       </c>
-      <c r="X264" s="9"/>
+      <c r="X264" s="17">
+        <v>2.8866690765788867</v>
+      </c>
       <c r="Y264" s="9"/>
       <c r="Z264" s="9"/>
       <c r="AA264" s="9"/>
@@ -27505,7 +27885,7 @@
       <c r="CQ264" s="9"/>
       <c r="CR264" s="9"/>
     </row>
-    <row r="265" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>12</v>
       </c>
@@ -27575,7 +27955,9 @@
       <c r="W265" s="17">
         <v>1.028715744691163</v>
       </c>
-      <c r="X265" s="9"/>
+      <c r="X265" s="17">
+        <v>1.1845982002336817</v>
+      </c>
       <c r="Y265" s="9"/>
       <c r="Z265" s="9"/>
       <c r="AA265" s="9"/>
@@ -27649,7 +28031,7 @@
       <c r="CQ265" s="9"/>
       <c r="CR265" s="9"/>
     </row>
-    <row r="266" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>11</v>
       </c>
@@ -27719,7 +28101,9 @@
       <c r="W266" s="17">
         <v>3.6085442860448955</v>
       </c>
-      <c r="X266" s="9"/>
+      <c r="X266" s="17">
+        <v>2.3816576860855987</v>
+      </c>
       <c r="Y266" s="9"/>
       <c r="Z266" s="9"/>
       <c r="AA266" s="9"/>
@@ -27793,7 +28177,7 @@
       <c r="CQ266" s="9"/>
       <c r="CR266" s="9"/>
     </row>
-    <row r="267" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>10</v>
       </c>
@@ -27863,7 +28247,9 @@
       <c r="W267" s="17">
         <v>1.0299859940005307</v>
       </c>
-      <c r="X267" s="9"/>
+      <c r="X267" s="17">
+        <v>0.98945789804263629</v>
+      </c>
       <c r="Y267" s="9"/>
       <c r="Z267" s="9"/>
       <c r="AA267" s="9"/>
@@ -27937,7 +28323,7 @@
       <c r="CQ267" s="9"/>
       <c r="CR267" s="9"/>
     </row>
-    <row r="268" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>9</v>
       </c>
@@ -28007,7 +28393,9 @@
       <c r="W268" s="17">
         <v>1.4118790443078331</v>
       </c>
-      <c r="X268" s="9"/>
+      <c r="X268" s="17">
+        <v>1.5698043629762903</v>
+      </c>
       <c r="Y268" s="9"/>
       <c r="Z268" s="9"/>
       <c r="AA268" s="9"/>
@@ -28081,7 +28469,7 @@
       <c r="CQ268" s="9"/>
       <c r="CR268" s="9"/>
     </row>
-    <row r="269" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>8</v>
       </c>
@@ -28151,7 +28539,9 @@
       <c r="W269" s="17">
         <v>0.35014170221746327</v>
       </c>
-      <c r="X269" s="9"/>
+      <c r="X269" s="17">
+        <v>0.7345705745975053</v>
+      </c>
       <c r="Y269" s="9"/>
       <c r="Z269" s="9"/>
       <c r="AA269" s="9"/>
@@ -28225,7 +28615,7 @@
       <c r="CQ269" s="9"/>
       <c r="CR269" s="9"/>
     </row>
-    <row r="270" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>7</v>
       </c>
@@ -28295,7 +28685,9 @@
       <c r="W270" s="17">
         <v>1.926378851969222</v>
       </c>
-      <c r="X270" s="9"/>
+      <c r="X270" s="17">
+        <v>1.6629390337592889</v>
+      </c>
       <c r="Y270" s="9"/>
       <c r="Z270" s="9"/>
       <c r="AA270" s="9"/>
@@ -28369,7 +28761,7 @@
       <c r="CQ270" s="9"/>
       <c r="CR270" s="9"/>
     </row>
-    <row r="271" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>6</v>
       </c>
@@ -28439,7 +28831,9 @@
       <c r="W271" s="17">
         <v>2.4759748266034416</v>
       </c>
-      <c r="X271" s="9"/>
+      <c r="X271" s="17">
+        <v>2.2177189393847163</v>
+      </c>
       <c r="Y271" s="9"/>
       <c r="Z271" s="9"/>
       <c r="AA271" s="9"/>
@@ -28513,7 +28907,7 @@
       <c r="CQ271" s="9"/>
       <c r="CR271" s="9"/>
     </row>
-    <row r="272" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>5</v>
       </c>
@@ -28583,7 +28977,9 @@
       <c r="W272" s="17">
         <v>1.1489625654218745</v>
       </c>
-      <c r="X272" s="9"/>
+      <c r="X272" s="17">
+        <v>0.95749173457661962</v>
+      </c>
       <c r="Y272" s="9"/>
       <c r="Z272" s="9"/>
       <c r="AA272" s="9"/>
@@ -28657,7 +29053,7 @@
       <c r="CQ272" s="9"/>
       <c r="CR272" s="9"/>
     </row>
-    <row r="273" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>4</v>
       </c>
@@ -28727,7 +29123,9 @@
       <c r="W273" s="17">
         <v>1.0880417402569944</v>
       </c>
-      <c r="X273" s="9"/>
+      <c r="X273" s="17">
+        <v>1.0666120998516204</v>
+      </c>
       <c r="Y273" s="9"/>
       <c r="Z273" s="9"/>
       <c r="AA273" s="9"/>
@@ -28801,7 +29199,7 @@
       <c r="CQ273" s="9"/>
       <c r="CR273" s="9"/>
     </row>
-    <row r="274" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>3</v>
       </c>
@@ -28871,7 +29269,9 @@
       <c r="W274" s="17">
         <v>0.43343418599277267</v>
       </c>
-      <c r="X274" s="9"/>
+      <c r="X274" s="17">
+        <v>0.53853593812129064</v>
+      </c>
       <c r="Y274" s="9"/>
       <c r="Z274" s="9"/>
       <c r="AA274" s="9"/>
@@ -28945,7 +29345,7 @@
       <c r="CQ274" s="9"/>
       <c r="CR274" s="9"/>
     </row>
-    <row r="275" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>2</v>
       </c>
@@ -29015,7 +29415,9 @@
       <c r="W275" s="17">
         <v>21.837127461959152</v>
       </c>
-      <c r="X275" s="9"/>
+      <c r="X275" s="17">
+        <v>20.715679811061417</v>
+      </c>
       <c r="Y275" s="9"/>
       <c r="Z275" s="9"/>
       <c r="AA275" s="9"/>
@@ -29089,7 +29491,7 @@
       <c r="CQ275" s="9"/>
       <c r="CR275" s="9"/>
     </row>
-    <row r="276" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
       <c r="D276" s="9"/>
@@ -29186,7 +29588,7 @@
       <c r="CQ276" s="9"/>
       <c r="CR276" s="9"/>
     </row>
-    <row r="277" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>1</v>
       </c>
@@ -29256,7 +29658,9 @@
       <c r="W277" s="17">
         <v>100</v>
       </c>
-      <c r="X277" s="9"/>
+      <c r="X277" s="17">
+        <v>100</v>
+      </c>
       <c r="Y277" s="9"/>
       <c r="Z277" s="9"/>
       <c r="AA277" s="9"/>
@@ -29330,7 +29734,7 @@
       <c r="CQ277" s="9"/>
       <c r="CR277" s="9"/>
     </row>
-    <row r="278" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="12"/>
       <c r="B278" s="12"/>
       <c r="C278" s="12"/>
@@ -29354,13 +29758,14 @@
       <c r="U278" s="12"/>
       <c r="V278" s="12"/>
       <c r="W278" s="12"/>
+      <c r="X278" s="12"/>
     </row>
-    <row r="279" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A279" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
       <c r="D280" s="9"/>
@@ -29457,7 +29862,7 @@
       <c r="CQ280" s="9"/>
       <c r="CR280" s="9"/>
     </row>
-    <row r="281" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
       <c r="D281" s="9"/>
@@ -29554,37 +29959,37 @@
       <c r="CQ281" s="9"/>
       <c r="CR281" s="9"/>
     </row>
-    <row r="282" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="283" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="284" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="286" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="287" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="288" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="290" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A290" s="3"/>
       <c r="B290" s="15" t="s">
         <v>33</v>
@@ -29610,8 +30015,9 @@
       <c r="U290" s="15"/>
       <c r="V290" s="15"/>
       <c r="W290" s="15"/>
+      <c r="X290" s="15"/>
     </row>
-    <row r="291" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
         <v>32</v>
       </c>
@@ -29681,11 +30087,14 @@
       <c r="W291" s="16">
         <v>2021</v>
       </c>
+      <c r="X291" s="16">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="292" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="7"/>
     </row>
-    <row r="293" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>31</v>
       </c>
@@ -29755,7 +30164,9 @@
       <c r="W293" s="17">
         <v>21.401401575779953</v>
       </c>
-      <c r="X293" s="9"/>
+      <c r="X293" s="17">
+        <v>20.149752208916077</v>
+      </c>
       <c r="Y293" s="9"/>
       <c r="Z293" s="9"/>
       <c r="AA293" s="9"/>
@@ -29829,7 +30240,7 @@
       <c r="CQ293" s="9"/>
       <c r="CR293" s="9"/>
     </row>
-    <row r="294" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="10" t="s">
         <v>30</v>
       </c>
@@ -29899,7 +30310,9 @@
       <c r="W294" s="17">
         <v>10.588316120899826</v>
       </c>
-      <c r="X294" s="9"/>
+      <c r="X294" s="17">
+        <v>11.213148627163607</v>
+      </c>
       <c r="Y294" s="9"/>
       <c r="Z294" s="9"/>
       <c r="AA294" s="9"/>
@@ -29973,7 +30386,7 @@
       <c r="CQ294" s="9"/>
       <c r="CR294" s="9"/>
     </row>
-    <row r="295" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="10" t="s">
         <v>29</v>
       </c>
@@ -30043,7 +30456,9 @@
       <c r="W295" s="17">
         <v>5.2941741795417423</v>
       </c>
-      <c r="X295" s="9"/>
+      <c r="X295" s="17">
+        <v>3.8475525763028422</v>
+      </c>
       <c r="Y295" s="9"/>
       <c r="Z295" s="9"/>
       <c r="AA295" s="9"/>
@@ -30117,7 +30532,7 @@
       <c r="CQ295" s="9"/>
       <c r="CR295" s="9"/>
     </row>
-    <row r="296" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="10" t="s">
         <v>28</v>
       </c>
@@ -30187,7 +30602,9 @@
       <c r="W296" s="17">
         <v>0.18571777134946243</v>
       </c>
-      <c r="X296" s="9"/>
+      <c r="X296" s="17">
+        <v>0.15717661520199777</v>
+      </c>
       <c r="Y296" s="9"/>
       <c r="Z296" s="9"/>
       <c r="AA296" s="9"/>
@@ -30261,7 +30678,7 @@
       <c r="CQ296" s="9"/>
       <c r="CR296" s="9"/>
     </row>
-    <row r="297" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="10" t="s">
         <v>27</v>
       </c>
@@ -30331,7 +30748,9 @@
       <c r="W297" s="17">
         <v>1.1923775624936124</v>
       </c>
-      <c r="X297" s="9"/>
+      <c r="X297" s="17">
+        <v>1.0417672810692629</v>
+      </c>
       <c r="Y297" s="9"/>
       <c r="Z297" s="9"/>
       <c r="AA297" s="9"/>
@@ -30405,7 +30824,7 @@
       <c r="CQ297" s="9"/>
       <c r="CR297" s="9"/>
     </row>
-    <row r="298" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="10" t="s">
         <v>26</v>
       </c>
@@ -30475,7 +30894,9 @@
       <c r="W298" s="17">
         <v>1.6652380320669329</v>
       </c>
-      <c r="X298" s="9"/>
+      <c r="X298" s="17">
+        <v>1.4367205969326422</v>
+      </c>
       <c r="Y298" s="9"/>
       <c r="Z298" s="9"/>
       <c r="AA298" s="9"/>
@@ -30549,7 +30970,7 @@
       <c r="CQ298" s="9"/>
       <c r="CR298" s="9"/>
     </row>
-    <row r="299" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="10" t="s">
         <v>25</v>
       </c>
@@ -30619,7 +31040,9 @@
       <c r="W299" s="17">
         <v>1.3979098341319363</v>
       </c>
-      <c r="X299" s="9"/>
+      <c r="X299" s="17">
+        <v>1.3598447432706779</v>
+      </c>
       <c r="Y299" s="9"/>
       <c r="Z299" s="9"/>
       <c r="AA299" s="9"/>
@@ -30693,7 +31116,7 @@
       <c r="CQ299" s="9"/>
       <c r="CR299" s="9"/>
     </row>
-    <row r="300" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="10" t="s">
         <v>24</v>
       </c>
@@ -30763,7 +31186,9 @@
       <c r="W300" s="17">
         <v>0.813107098675522</v>
       </c>
-      <c r="X300" s="9"/>
+      <c r="X300" s="17">
+        <v>0.83932237467840776</v>
+      </c>
       <c r="Y300" s="9"/>
       <c r="Z300" s="9"/>
       <c r="AA300" s="9"/>
@@ -30837,7 +31262,7 @@
       <c r="CQ300" s="9"/>
       <c r="CR300" s="9"/>
     </row>
-    <row r="301" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="10" t="s">
         <v>23</v>
       </c>
@@ -30907,7 +31332,9 @@
       <c r="W301" s="17">
         <v>0.22234901212284819</v>
       </c>
-      <c r="X301" s="9"/>
+      <c r="X301" s="17">
+        <v>0.21055941315751889</v>
+      </c>
       <c r="Y301" s="9"/>
       <c r="Z301" s="9"/>
       <c r="AA301" s="9"/>
@@ -30981,7 +31408,7 @@
       <c r="CQ301" s="9"/>
       <c r="CR301" s="9"/>
     </row>
-    <row r="302" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="10" t="s">
         <v>22</v>
       </c>
@@ -31051,7 +31478,9 @@
       <c r="W302" s="17">
         <v>4.2211964498076668E-2</v>
       </c>
-      <c r="X302" s="9"/>
+      <c r="X302" s="17">
+        <v>4.3659981139122297E-2</v>
+      </c>
       <c r="Y302" s="9"/>
       <c r="Z302" s="9"/>
       <c r="AA302" s="9"/>
@@ -31125,7 +31554,7 @@
       <c r="CQ302" s="9"/>
       <c r="CR302" s="9"/>
     </row>
-    <row r="303" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>21</v>
       </c>
@@ -31195,7 +31624,9 @@
       <c r="W303" s="17">
         <v>14.346142015061512</v>
       </c>
-      <c r="X303" s="9"/>
+      <c r="X303" s="17">
+        <v>16.179873026792212</v>
+      </c>
       <c r="Y303" s="9"/>
       <c r="Z303" s="9"/>
       <c r="AA303" s="9"/>
@@ -31269,7 +31700,7 @@
       <c r="CQ303" s="9"/>
       <c r="CR303" s="9"/>
     </row>
-    <row r="304" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>20</v>
       </c>
@@ -31339,7 +31770,9 @@
       <c r="W304" s="17">
         <v>5.5717747202310308</v>
       </c>
-      <c r="X304" s="9"/>
+      <c r="X304" s="17">
+        <v>5.0740157622934667</v>
+      </c>
       <c r="Y304" s="9"/>
       <c r="Z304" s="9"/>
       <c r="AA304" s="9"/>
@@ -31413,7 +31846,7 @@
       <c r="CQ304" s="9"/>
       <c r="CR304" s="9"/>
     </row>
-    <row r="305" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>19</v>
       </c>
@@ -31483,7 +31916,9 @@
       <c r="W305" s="17">
         <v>0.93760769041465863</v>
       </c>
-      <c r="X305" s="9"/>
+      <c r="X305" s="17">
+        <v>0.91629739522558917</v>
+      </c>
       <c r="Y305" s="9"/>
       <c r="Z305" s="9"/>
       <c r="AA305" s="9"/>
@@ -31557,7 +31992,7 @@
       <c r="CQ305" s="9"/>
       <c r="CR305" s="9"/>
     </row>
-    <row r="306" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>18</v>
       </c>
@@ -31627,7 +32062,9 @@
       <c r="W306" s="17">
         <v>4.7225513093203064</v>
       </c>
-      <c r="X306" s="9"/>
+      <c r="X306" s="17">
+        <v>4.4976475074717444</v>
+      </c>
       <c r="Y306" s="9"/>
       <c r="Z306" s="9"/>
       <c r="AA306" s="9"/>
@@ -31701,7 +32138,7 @@
       <c r="CQ306" s="9"/>
       <c r="CR306" s="9"/>
     </row>
-    <row r="307" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>17</v>
       </c>
@@ -31771,7 +32208,9 @@
       <c r="W307" s="17">
         <v>7.9184139439824746</v>
       </c>
-      <c r="X307" s="9"/>
+      <c r="X307" s="17">
+        <v>9.6590401137211614</v>
+      </c>
       <c r="Y307" s="9"/>
       <c r="Z307" s="9"/>
       <c r="AA307" s="9"/>
@@ -31845,7 +32284,7 @@
       <c r="CQ307" s="9"/>
       <c r="CR307" s="9"/>
     </row>
-    <row r="308" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>16</v>
       </c>
@@ -31915,7 +32354,9 @@
       <c r="W308" s="17">
         <v>1.333213700717129</v>
       </c>
-      <c r="X308" s="9"/>
+      <c r="X308" s="17">
+        <v>1.1791747449032506</v>
+      </c>
       <c r="Y308" s="9"/>
       <c r="Z308" s="9"/>
       <c r="AA308" s="9"/>
@@ -31989,7 +32430,7 @@
       <c r="CQ308" s="9"/>
       <c r="CR308" s="9"/>
     </row>
-    <row r="309" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>15</v>
       </c>
@@ -32059,7 +32500,9 @@
       <c r="W309" s="17">
         <v>2.8650854265592103</v>
       </c>
-      <c r="X309" s="9"/>
+      <c r="X309" s="17">
+        <v>2.7198724029145125</v>
+      </c>
       <c r="Y309" s="9"/>
       <c r="Z309" s="9"/>
       <c r="AA309" s="9"/>
@@ -32133,7 +32576,7 @@
       <c r="CQ309" s="9"/>
       <c r="CR309" s="9"/>
     </row>
-    <row r="310" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>14</v>
       </c>
@@ -32203,7 +32646,9 @@
       <c r="W310" s="17">
         <v>5.0183446153556073</v>
       </c>
-      <c r="X310" s="9"/>
+      <c r="X310" s="17">
+        <v>4.7739710263751638</v>
+      </c>
       <c r="Y310" s="9"/>
       <c r="Z310" s="9"/>
       <c r="AA310" s="9"/>
@@ -32277,7 +32722,7 @@
       <c r="CQ310" s="9"/>
       <c r="CR310" s="9"/>
     </row>
-    <row r="311" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>13</v>
       </c>
@@ -32347,7 +32792,9 @@
       <c r="W311" s="17">
         <v>2.1459611618804364</v>
       </c>
-      <c r="X311" s="9"/>
+      <c r="X311" s="17">
+        <v>2.2722807663356108</v>
+      </c>
       <c r="Y311" s="9"/>
       <c r="Z311" s="9"/>
       <c r="AA311" s="9"/>
@@ -32421,7 +32868,7 @@
       <c r="CQ311" s="9"/>
       <c r="CR311" s="9"/>
     </row>
-    <row r="312" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>12</v>
       </c>
@@ -32491,7 +32938,9 @@
       <c r="W312" s="17">
         <v>0.94746084977237499</v>
       </c>
-      <c r="X312" s="9"/>
+      <c r="X312" s="17">
+        <v>1.0991218096524951</v>
+      </c>
       <c r="Y312" s="9"/>
       <c r="Z312" s="9"/>
       <c r="AA312" s="9"/>
@@ -32565,7 +33014,7 @@
       <c r="CQ312" s="9"/>
       <c r="CR312" s="9"/>
     </row>
-    <row r="313" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>11</v>
       </c>
@@ -32635,7 +33084,9 @@
       <c r="W313" s="17">
         <v>3.6734663856484802</v>
       </c>
-      <c r="X313" s="9"/>
+      <c r="X313" s="17">
+        <v>2.6542442171304059</v>
+      </c>
       <c r="Y313" s="9"/>
       <c r="Z313" s="9"/>
       <c r="AA313" s="9"/>
@@ -32709,7 +33160,7 @@
       <c r="CQ313" s="9"/>
       <c r="CR313" s="9"/>
     </row>
-    <row r="314" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>10</v>
       </c>
@@ -32779,7 +33230,9 @@
       <c r="W314" s="17">
         <v>1.0103759409980742</v>
       </c>
-      <c r="X314" s="9"/>
+      <c r="X314" s="17">
+        <v>0.95241069581965176</v>
+      </c>
       <c r="Y314" s="9"/>
       <c r="Z314" s="9"/>
       <c r="AA314" s="9"/>
@@ -32853,7 +33306,7 @@
       <c r="CQ314" s="9"/>
       <c r="CR314" s="9"/>
     </row>
-    <row r="315" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>9</v>
       </c>
@@ -32923,7 +33376,9 @@
       <c r="W315" s="17">
         <v>1.0775258904723752</v>
       </c>
-      <c r="X315" s="9"/>
+      <c r="X315" s="17">
+        <v>1.1089703765066086</v>
+      </c>
       <c r="Y315" s="9"/>
       <c r="Z315" s="9"/>
       <c r="AA315" s="9"/>
@@ -32997,7 +33452,7 @@
       <c r="CQ315" s="9"/>
       <c r="CR315" s="9"/>
     </row>
-    <row r="316" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>8</v>
       </c>
@@ -33067,7 +33522,9 @@
       <c r="W316" s="17">
         <v>0.26871220475385871</v>
       </c>
-      <c r="X316" s="9"/>
+      <c r="X316" s="17">
+        <v>0.49710844474083948</v>
+      </c>
       <c r="Y316" s="9"/>
       <c r="Z316" s="9"/>
       <c r="AA316" s="9"/>
@@ -33141,7 +33598,7 @@
       <c r="CQ316" s="9"/>
       <c r="CR316" s="9"/>
     </row>
-    <row r="317" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>7</v>
       </c>
@@ -33211,7 +33668,9 @@
       <c r="W317" s="17">
         <v>1.6077462580122179</v>
       </c>
-      <c r="X317" s="9"/>
+      <c r="X317" s="17">
+        <v>1.5581476951796731</v>
+      </c>
       <c r="Y317" s="9"/>
       <c r="Z317" s="9"/>
       <c r="AA317" s="9"/>
@@ -33285,7 +33744,7 @@
       <c r="CQ317" s="9"/>
       <c r="CR317" s="9"/>
     </row>
-    <row r="318" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>6</v>
       </c>
@@ -33355,7 +33814,9 @@
       <c r="W318" s="17">
         <v>2.141393608439548</v>
       </c>
-      <c r="X318" s="9"/>
+      <c r="X318" s="17">
+        <v>2.3373643967702975</v>
+      </c>
       <c r="Y318" s="9"/>
       <c r="Z318" s="9"/>
       <c r="AA318" s="9"/>
@@ -33429,7 +33890,7 @@
       <c r="CQ318" s="9"/>
       <c r="CR318" s="9"/>
     </row>
-    <row r="319" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>5</v>
       </c>
@@ -33499,7 +33960,9 @@
       <c r="W319" s="17">
         <v>1.1928665642791461</v>
       </c>
-      <c r="X319" s="9"/>
+      <c r="X319" s="17">
+        <v>0.96401271680195999</v>
+      </c>
       <c r="Y319" s="9"/>
       <c r="Z319" s="9"/>
       <c r="AA319" s="9"/>
@@ -33573,7 +34036,7 @@
       <c r="CQ319" s="9"/>
       <c r="CR319" s="9"/>
     </row>
-    <row r="320" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>4</v>
       </c>
@@ -33643,7 +34106,9 @@
       <c r="W320" s="17">
         <v>1.269532430770272</v>
       </c>
-      <c r="X320" s="9"/>
+      <c r="X320" s="17">
+        <v>1.3410814879122359</v>
+      </c>
       <c r="Y320" s="9"/>
       <c r="Z320" s="9"/>
       <c r="AA320" s="9"/>
@@ -33717,7 +34182,7 @@
       <c r="CQ320" s="9"/>
       <c r="CR320" s="9"/>
     </row>
-    <row r="321" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>3</v>
       </c>
@@ -33787,7 +34252,9 @@
       <c r="W321" s="17">
         <v>0.4595706509716968</v>
       </c>
-      <c r="X321" s="9"/>
+      <c r="X321" s="17">
+        <v>0.57328613337955725</v>
+      </c>
       <c r="Y321" s="9"/>
       <c r="Z321" s="9"/>
       <c r="AA321" s="9"/>
@@ -33861,7 +34328,7 @@
       <c r="CQ321" s="9"/>
       <c r="CR321" s="9"/>
     </row>
-    <row r="322" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>2</v>
       </c>
@@ -33931,7 +34398,9 @@
       <c r="W322" s="17">
         <v>20.090853056579643</v>
       </c>
-      <c r="X322" s="9"/>
+      <c r="X322" s="17">
+        <v>19.492327071157501</v>
+      </c>
       <c r="Y322" s="9"/>
       <c r="Z322" s="9"/>
       <c r="AA322" s="9"/>
@@ -34005,7 +34474,7 @@
       <c r="CQ322" s="9"/>
       <c r="CR322" s="9"/>
     </row>
-    <row r="323" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
       <c r="D323" s="9"/>
@@ -34102,7 +34571,7 @@
       <c r="CQ323" s="9"/>
       <c r="CR323" s="9"/>
     </row>
-    <row r="324" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>1</v>
       </c>
@@ -34172,7 +34641,9 @@
       <c r="W324" s="17">
         <v>100</v>
       </c>
-      <c r="X324" s="9"/>
+      <c r="X324" s="17">
+        <v>100</v>
+      </c>
       <c r="Y324" s="9"/>
       <c r="Z324" s="9"/>
       <c r="AA324" s="9"/>
@@ -34246,7 +34717,7 @@
       <c r="CQ324" s="9"/>
       <c r="CR324" s="9"/>
     </row>
-    <row r="325" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="12"/>
       <c r="B325" s="12"/>
       <c r="C325" s="12"/>
@@ -34270,15 +34741,16 @@
       <c r="U325" s="12"/>
       <c r="V325" s="12"/>
       <c r="W325" s="12"/>
+      <c r="X325" s="12"/>
     </row>
-    <row r="326" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A326" s="13" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="V199:W230 V106:W135 V137:W137 V153:W182 V184:W184">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="V199:X230 V106:X135 V137:X137 V153:X182 V184:X184">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Data/National Accounts/PSA-06IOG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-06IOG_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B6F9DC-7A2F-49E5-8588-79C9459CD82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C1589C-4276-4915-B8B8-0D7D90A8B2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOG" sheetId="1" r:id="rId1"/>
@@ -275,13 +275,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2022</t>
   </si>
   <si>
     <t>Annual 2001 to 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -362,10 +362,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -402,8 +403,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 3" xfId="3" xr:uid="{C2E7F32B-3541-46DC-8F72-3CA98FF60726}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
@@ -710,10 +712,10 @@
   <dimension ref="A1:CR326"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="P30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -735,7 +737,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -745,7 +747,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -926,10 +928,10 @@
         <v>1020718.6693309145</v>
       </c>
       <c r="W12" s="8">
-        <v>1202139.7898324321</v>
+        <v>1202811.1859813952</v>
       </c>
       <c r="X12" s="8">
-        <v>1340198.1121315334</v>
+        <v>1324559.1638179447</v>
       </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -1072,10 +1074,10 @@
         <v>521639.24364117411</v>
       </c>
       <c r="W13" s="11">
-        <v>609159.51054145768</v>
+        <v>609515.22402573703</v>
       </c>
       <c r="X13" s="11">
-        <v>752574.20868401998</v>
+        <v>737314.77661002497</v>
       </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -1218,10 +1220,10 @@
         <v>229187.08675705385</v>
       </c>
       <c r="W14" s="11">
-        <v>281523.16213282407</v>
+        <v>281307.79512062436</v>
       </c>
       <c r="X14" s="11">
-        <v>244457.27262638655</v>
+        <v>242995.83725267788</v>
       </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -1364,10 +1366,10 @@
         <v>10117.325872447924</v>
       </c>
       <c r="W15" s="11">
-        <v>10169.618906012642</v>
+        <v>10163.542841927643</v>
       </c>
       <c r="X15" s="11">
-        <v>11946.185835140761</v>
+        <v>12003.682305182336</v>
       </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -1510,10 +1512,10 @@
         <v>56022.871080910314</v>
       </c>
       <c r="W16" s="11">
-        <v>67795.821593510249</v>
+        <v>67755.161051022777</v>
       </c>
       <c r="X16" s="11">
-        <v>70720.200942901094</v>
+        <v>70734.789578032825</v>
       </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
@@ -1656,10 +1658,10 @@
         <v>77813.807639305058</v>
       </c>
       <c r="W17" s="11">
-        <v>94587.316420533316</v>
+        <v>94619.062378900388</v>
       </c>
       <c r="X17" s="11">
-        <v>100471.19431727423</v>
+        <v>100363.19105208336</v>
       </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
@@ -1802,10 +1804,10 @@
         <v>80356.509946028818</v>
       </c>
       <c r="W18" s="11">
-        <v>76559.420333514761</v>
+        <v>76561.934590353339</v>
       </c>
       <c r="X18" s="11">
-        <v>85453.772529827984</v>
+        <v>85009.437033792739</v>
       </c>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
@@ -1948,10 +1950,10 @@
         <v>32736.904464134466</v>
       </c>
       <c r="W19" s="11">
-        <v>47688.569884228738</v>
+        <v>48229.774898565141</v>
       </c>
       <c r="X19" s="11">
-        <v>57262.265677207026</v>
+        <v>58722.640396005656</v>
       </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
@@ -2094,10 +2096,10 @@
         <v>10061.925094591537</v>
       </c>
       <c r="W20" s="11">
-        <v>12269.004703642944</v>
+        <v>12270.145468726887</v>
       </c>
       <c r="X20" s="11">
-        <v>14288.706141517918</v>
+        <v>14365.064193574577</v>
       </c>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
@@ -2240,10 +2242,10 @@
         <v>2782.9948352683637</v>
       </c>
       <c r="W21" s="11">
-        <v>2387.3653167075981</v>
+        <v>2388.545605537598</v>
       </c>
       <c r="X21" s="11">
-        <v>3024.3053772579615</v>
+        <v>3049.7453965702357</v>
       </c>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
@@ -2386,10 +2388,10 @@
         <v>458454.88427379046</v>
       </c>
       <c r="W22" s="11">
-        <v>857957.66748446878</v>
+        <v>837925.85404620215</v>
       </c>
       <c r="X22" s="11">
-        <v>1649784.1496611303</v>
+        <v>1619739.5526388921</v>
       </c>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
@@ -2532,10 +2534,10 @@
         <v>268326.70074534102</v>
       </c>
       <c r="W23" s="11">
-        <v>322393.09478682064</v>
+        <v>321083.20208234555</v>
       </c>
       <c r="X23" s="11">
-        <v>360581.80606442032</v>
+        <v>359879.41295768775</v>
       </c>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
@@ -2678,10 +2680,10 @@
         <v>55187.53838924611</v>
       </c>
       <c r="W24" s="11">
-        <v>54554.149256572869</v>
+        <v>54570.586544629645</v>
       </c>
       <c r="X24" s="11">
-        <v>68451.877325878231</v>
+        <v>68626.612798943359</v>
       </c>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
@@ -2824,10 +2826,10 @@
         <v>259344.87096822535</v>
       </c>
       <c r="W25" s="11">
-        <v>380411.22656357998</v>
+        <v>380362.37371469894</v>
       </c>
       <c r="X25" s="11">
-        <v>428285.74194179627</v>
+        <v>428387.84022012923</v>
       </c>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
@@ -2970,10 +2972,10 @@
         <v>383462.29871870222</v>
       </c>
       <c r="W26" s="11">
-        <v>472721.22977847507</v>
+        <v>472391.77512076893</v>
       </c>
       <c r="X26" s="11">
-        <v>685168.0244483368</v>
+        <v>686003.09391693794</v>
       </c>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
@@ -3116,10 +3118,10 @@
         <v>57058.173107891358</v>
       </c>
       <c r="W27" s="11">
-        <v>69582.051188484227</v>
+        <v>69511.245699516236</v>
       </c>
       <c r="X27" s="11">
-        <v>76302.554049314655</v>
+        <v>76800.040814875974</v>
       </c>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
@@ -3262,10 +3264,10 @@
         <v>148767.7054967513</v>
       </c>
       <c r="W28" s="11">
-        <v>169692.181041812</v>
+        <v>169853.10000243163</v>
       </c>
       <c r="X28" s="11">
-        <v>201753.5387792812</v>
+        <v>202366.0596151893</v>
       </c>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
@@ -3408,10 +3410,10 @@
         <v>243824.95889001078</v>
       </c>
       <c r="W29" s="11">
-        <v>312821.21231043327</v>
+        <v>312842.63590964186</v>
       </c>
       <c r="X29" s="11">
-        <v>376010.77679457411</v>
+        <v>376676.20497392531</v>
       </c>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
@@ -3554,10 +3556,10 @@
         <v>137155.7900077026</v>
       </c>
       <c r="W30" s="11">
-        <v>172812.08266537217</v>
+        <v>172836.66736114718</v>
       </c>
       <c r="X30" s="11">
-        <v>237292.80066559685</v>
+        <v>237523.96905959462</v>
       </c>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
@@ -3700,10 +3702,10 @@
         <v>60938.026676906229</v>
       </c>
       <c r="W31" s="11">
-        <v>64881.056309002568</v>
+        <v>64881.147090912607</v>
       </c>
       <c r="X31" s="11">
-        <v>97377.502283710084</v>
+        <v>97400.026510864423</v>
       </c>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
@@ -3846,10 +3848,10 @@
         <v>103748.82598809635</v>
       </c>
       <c r="W32" s="11">
-        <v>227590.72778330688</v>
+        <v>227628.29814358649</v>
       </c>
       <c r="X32" s="11">
-        <v>195779.3593811522</v>
+        <v>195912.17611773385</v>
       </c>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
@@ -3992,10 +3994,10 @@
         <v>58074.179932253595</v>
       </c>
       <c r="W33" s="11">
-        <v>64961.170876503704</v>
+        <v>64930.002249705292</v>
       </c>
       <c r="X33" s="11">
-        <v>81336.387905430689</v>
+        <v>81372.095626778682</v>
       </c>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
@@ -4141,7 +4143,7 @@
         <v>89047.148590826982</v>
       </c>
       <c r="X34" s="11">
-        <v>129042.59681514531</v>
+        <v>129152.75735388199</v>
       </c>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -4284,10 +4286,10 @@
         <v>13037.516445690893</v>
       </c>
       <c r="W35" s="11">
-        <v>22083.42160109683</v>
+        <v>22084.133270475992</v>
       </c>
       <c r="X35" s="11">
-        <v>60383.8903277957</v>
+        <v>60342.79745842432</v>
       </c>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
@@ -4430,10 +4432,10 @@
         <v>95565.540716557822</v>
       </c>
       <c r="W36" s="11">
-        <v>121496.62859938966</v>
+        <v>121465.34547615417</v>
       </c>
       <c r="X36" s="11">
-        <v>136698.5443044079</v>
+        <v>136564.30093476753</v>
       </c>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
@@ -4576,10 +4578,10 @@
         <v>115732.52452288321</v>
       </c>
       <c r="W37" s="11">
-        <v>156159.62229950956</v>
+        <v>156148.77920875396</v>
       </c>
       <c r="X37" s="11">
-        <v>182303.10584800941</v>
+        <v>182569.46827984514</v>
       </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
@@ -4722,10 +4724,10 @@
         <v>65105.858344782435</v>
       </c>
       <c r="W38" s="11">
-        <v>72465.017949591653</v>
+        <v>72484.578155692565</v>
       </c>
       <c r="X38" s="11">
-        <v>78708.674006068497</v>
+        <v>78771.821899057642</v>
       </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
@@ -4868,10 +4870,10 @@
         <v>52719.188992459065</v>
       </c>
       <c r="W39" s="11">
-        <v>68622.744213322439</v>
+        <v>68732.853633870473</v>
       </c>
       <c r="X39" s="11">
-        <v>87678.69322158776</v>
+        <v>88478.20538220556</v>
       </c>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
@@ -5014,10 +5016,10 @@
         <v>28464.336853068613</v>
       </c>
       <c r="W40" s="11">
-        <v>27336.674851891516</v>
+        <v>27329.501945227188</v>
       </c>
       <c r="X40" s="11">
-        <v>44269.259006067223</v>
+        <v>44303.245515479561</v>
       </c>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
@@ -5160,10 +5162,10 @@
         <v>1098454.3995822715</v>
       </c>
       <c r="W41" s="11">
-        <v>1377266.6587421473</v>
+        <v>1387888.8154571494</v>
       </c>
       <c r="X41" s="11">
-        <v>1702890.6153261971</v>
+        <v>1714772.7406641417</v>
       </c>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
@@ -5403,10 +5405,10 @@
         <v>4790019.9859151999</v>
       </c>
       <c r="W43" s="8">
-        <v>6306995.5567250401</v>
+        <v>6296809.2296851343</v>
       </c>
       <c r="X43" s="8">
-        <v>8220298.0102874339</v>
+        <v>8190201.5865573008</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
@@ -5718,7 +5720,7 @@
     </row>
     <row r="50" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:96" x14ac:dyDescent="0.2">
@@ -5728,7 +5730,7 @@
     </row>
     <row r="53" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:96" x14ac:dyDescent="0.2">
@@ -5909,10 +5911,10 @@
         <v>1051488.1576102807</v>
       </c>
       <c r="W59" s="8">
-        <v>1270445.3354847038</v>
+        <v>1270775.875725962</v>
       </c>
       <c r="X59" s="8">
-        <v>1293768.8902593551</v>
+        <v>1281184.4014391382</v>
       </c>
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
@@ -6055,10 +6057,10 @@
         <v>536913.72116597043</v>
       </c>
       <c r="W60" s="11">
-        <v>628551.20861141244</v>
+        <v>628768.1039648829</v>
       </c>
       <c r="X60" s="11">
-        <v>719970.28575167095</v>
+        <v>708206.57783499663</v>
       </c>
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
@@ -6201,10 +6203,10 @@
         <v>241886.06284150982</v>
       </c>
       <c r="W61" s="11">
-        <v>314276.56117878546</v>
+        <v>314094.65564995375</v>
       </c>
       <c r="X61" s="11">
-        <v>247042.43383475463</v>
+        <v>245541.85059876039</v>
       </c>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
@@ -6347,10 +6349,10 @@
         <v>10033.617599290334</v>
       </c>
       <c r="W62" s="11">
-        <v>11024.711418646446</v>
+        <v>11022.022296832154</v>
       </c>
       <c r="X62" s="11">
-        <v>10091.946189523353</v>
+        <v>10147.738196423265</v>
       </c>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
@@ -6493,10 +6495,10 @@
         <v>55215.268211958806</v>
       </c>
       <c r="W63" s="11">
-        <v>70782.771261158559</v>
+        <v>70746.171430550996</v>
       </c>
       <c r="X63" s="11">
-        <v>66889.462717119386</v>
+        <v>66964.351349760342</v>
       </c>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
@@ -6639,10 +6641,10 @@
         <v>76756.768765183326</v>
       </c>
       <c r="W64" s="11">
-        <v>98853.053283453541</v>
+        <v>98876.356340559709</v>
       </c>
       <c r="X64" s="11">
-        <v>92248.499784717351</v>
+        <v>92221.525261813193</v>
       </c>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
@@ -6785,10 +6787,10 @@
         <v>86196.887170205562</v>
       </c>
       <c r="W65" s="11">
-        <v>82983.725244003828</v>
+        <v>82985.140481741953</v>
       </c>
       <c r="X65" s="11">
-        <v>87312.479388597043</v>
+        <v>87101.713908614736</v>
       </c>
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
@@ -6931,10 +6933,10 @@
         <v>31187.926880183455</v>
       </c>
       <c r="W66" s="11">
-        <v>48268.246222288391</v>
+        <v>48579.30940639443</v>
       </c>
       <c r="X66" s="11">
-        <v>53890.944464172338</v>
+        <v>54587.338785455751</v>
       </c>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
@@ -7077,10 +7079,10 @@
         <v>10529.383409601851</v>
       </c>
       <c r="W67" s="11">
-        <v>13199.24138149861</v>
+        <v>13197.389764825892</v>
       </c>
       <c r="X67" s="11">
-        <v>13519.531926249847</v>
+        <v>13590.659346639752</v>
       </c>
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
@@ -7223,10 +7225,10 @@
         <v>2768.5215663771032</v>
       </c>
       <c r="W68" s="11">
-        <v>2505.816883456755</v>
+        <v>2506.7263902205359</v>
       </c>
       <c r="X68" s="11">
-        <v>2803.3062025503291</v>
+        <v>2822.6461566743551</v>
       </c>
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
@@ -7369,10 +7371,10 @@
         <v>673232.32348781149</v>
       </c>
       <c r="W69" s="11">
-        <v>851625.96200533165</v>
+        <v>830695.21120827459</v>
       </c>
       <c r="X69" s="11">
-        <v>1038872.1485690316</v>
+        <v>1029179.0433823594</v>
       </c>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
@@ -7515,10 +7517,10 @@
         <v>278301.90244544082</v>
       </c>
       <c r="W70" s="11">
-        <v>330755.68338944775</v>
+        <v>329390.96600148047</v>
       </c>
       <c r="X70" s="11">
-        <v>325790.79255555896</v>
+        <v>325189.21295749315</v>
       </c>
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
@@ -7661,10 +7663,10 @@
         <v>57529.555709118627</v>
       </c>
       <c r="W71" s="11">
-        <v>55658.939559825427</v>
+        <v>55678.40198907131</v>
       </c>
       <c r="X71" s="11">
-        <v>58833.332136163226</v>
+        <v>58984.622472911098</v>
       </c>
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
@@ -7807,10 +7809,10 @@
         <v>248946.78087211109</v>
       </c>
       <c r="W72" s="11">
-        <v>280343.47476116219</v>
+        <v>280311.71857240819</v>
       </c>
       <c r="X72" s="11">
-        <v>288783.5227047932</v>
+        <v>288847.53345637704</v>
       </c>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
@@ -7953,10 +7955,10 @@
         <v>375036.57912129868</v>
       </c>
       <c r="W73" s="11">
-        <v>470058.56247071276</v>
+        <v>469729.01665389707</v>
       </c>
       <c r="X73" s="11">
-        <v>620184.5799061493</v>
+        <v>621080.44918210199</v>
       </c>
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
@@ -8099,10 +8101,10 @@
         <v>68265.99579702488</v>
       </c>
       <c r="W74" s="11">
-        <v>79143.187014313487</v>
+        <v>79091.812170718666</v>
       </c>
       <c r="X74" s="11">
-        <v>75712.077514297271</v>
+        <v>76046.616726175504</v>
       </c>
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
@@ -8245,10 +8247,10 @@
         <v>150925.21473404934</v>
       </c>
       <c r="W75" s="11">
-        <v>170079.25406421412</v>
+        <v>170220.16891027364</v>
       </c>
       <c r="X75" s="11">
-        <v>174636.70341358738</v>
+        <v>175168.54430688772</v>
       </c>
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
@@ -8391,10 +8393,10 @@
         <v>268775.99517196848</v>
       </c>
       <c r="W76" s="11">
-        <v>297902.56894429406</v>
+        <v>297908.64362719795</v>
       </c>
       <c r="X76" s="11">
-        <v>306525.61544606509</v>
+        <v>307078.45050043979</v>
       </c>
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
@@ -8537,10 +8539,10 @@
         <v>106963.01764846628</v>
       </c>
       <c r="W77" s="11">
-        <v>127390.08417690406</v>
+        <v>127406.05307627833</v>
       </c>
       <c r="X77" s="11">
-        <v>145897.88176744245</v>
+        <v>146027.3073676558</v>
       </c>
       <c r="Y77" s="9"/>
       <c r="Z77" s="9"/>
@@ -8683,10 +8685,10 @@
         <v>58397.041998656197</v>
       </c>
       <c r="W78" s="11">
-        <v>56243.84986588524</v>
+        <v>56243.915622822882</v>
       </c>
       <c r="X78" s="11">
-        <v>70572.064072566456</v>
+        <v>70585.288846084266</v>
       </c>
       <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
@@ -8829,10 +8831,10 @@
         <v>104726.3606166932</v>
       </c>
       <c r="W79" s="11">
-        <v>218066.94380187494</v>
+        <v>218100.94660674757</v>
       </c>
       <c r="X79" s="11">
-        <v>170422.869704304</v>
+        <v>170529.59217035203</v>
       </c>
       <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
@@ -8975,10 +8977,10 @@
         <v>60694.718699485544</v>
       </c>
       <c r="W80" s="11">
-        <v>59978.660592942542</v>
+        <v>59961.225477646396</v>
       </c>
       <c r="X80" s="11">
-        <v>61152.08347110563</v>
+        <v>61171.160915721943</v>
       </c>
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
@@ -9124,7 +9126,7 @@
         <v>63964.864009834884</v>
       </c>
       <c r="X81" s="11">
-        <v>71204.417725225925</v>
+        <v>71248.017238119195</v>
       </c>
       <c r="Y81" s="9"/>
       <c r="Z81" s="9"/>
@@ -9267,10 +9269,10 @@
         <v>13196.946038655726</v>
       </c>
       <c r="W82" s="11">
-        <v>15951.48644393908</v>
+        <v>15951.883368607861</v>
       </c>
       <c r="X82" s="11">
-        <v>31918.181138045205</v>
+        <v>31894.829405844361</v>
       </c>
       <c r="Y82" s="9"/>
       <c r="Z82" s="9"/>
@@ -9413,10 +9415,10 @@
         <v>102718.19518350577</v>
       </c>
       <c r="W83" s="11">
-        <v>95440.18539637026</v>
+        <v>95405.679647454439</v>
       </c>
       <c r="X83" s="11">
-        <v>100045.05234365951</v>
+        <v>99891.258265497847</v>
       </c>
       <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
@@ -9559,10 +9561,10 @@
         <v>133541.98209974938</v>
       </c>
       <c r="W84" s="11">
-        <v>127118.94179667227</v>
+        <v>127111.31453077507</v>
       </c>
       <c r="X84" s="11">
-        <v>150076.75083980133</v>
+        <v>150314.43099350753</v>
       </c>
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
@@ -9705,10 +9707,10 @@
         <v>72236.02977015631</v>
       </c>
       <c r="W85" s="11">
-        <v>70811.799735544919</v>
+        <v>70829.22771101087</v>
       </c>
       <c r="X85" s="11">
-        <v>61897.022349530387</v>
+        <v>61942.266697427578</v>
       </c>
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
@@ -9851,10 +9853,10 @@
         <v>56030.910213195755</v>
       </c>
       <c r="W86" s="11">
-        <v>75362.893837006559</v>
+        <v>75492.27166652013</v>
       </c>
       <c r="X86" s="11">
-        <v>86107.734247760876</v>
+        <v>86748.699125359926</v>
       </c>
       <c r="Y86" s="9"/>
       <c r="Z86" s="9"/>
@@ -9997,10 +9999,10 @@
         <v>29007.765002146192</v>
       </c>
       <c r="W87" s="11">
-        <v>27281.362287665164</v>
+        <v>27275.18272107239</v>
       </c>
       <c r="X87" s="11">
-        <v>36809.373976090443</v>
+        <v>36837.373631432405</v>
       </c>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
@@ -10143,10 +10145,10 @@
         <v>1051954.6430599969</v>
       </c>
       <c r="W88" s="11">
-        <v>1192647.6152162945</v>
+        <v>1201506.6717858484</v>
       </c>
       <c r="X88" s="11">
-        <v>1251557.1458126837</v>
+        <v>1283903.7082959739</v>
       </c>
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
@@ -10386,10 +10388,10 @@
         <v>5030860.4230751768</v>
       </c>
       <c r="W90" s="8">
-        <v>5936271.6548549393</v>
+        <v>5923051.0510839028</v>
       </c>
       <c r="X90" s="8">
-        <v>6420768.2399532162</v>
+        <v>6433852.8073768606</v>
       </c>
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
@@ -10701,7 +10703,7 @@
     </row>
     <row r="97" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:91" x14ac:dyDescent="0.2">
@@ -10711,7 +10713,7 @@
     </row>
     <row r="100" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:91" x14ac:dyDescent="0.2">
@@ -10887,10 +10889,10 @@
         <v>-15.009106523797612</v>
       </c>
       <c r="V106" s="17">
-        <v>17.773861295242099</v>
+        <v>17.839638102224882</v>
       </c>
       <c r="W106" s="17">
-        <v>11.484381722224299</v>
+        <v>10.121952577054998</v>
       </c>
       <c r="X106" s="17"/>
       <c r="Y106" s="9"/>
@@ -11026,10 +11028,10 @@
         <v>-7.1427724841533546</v>
       </c>
       <c r="V107" s="17">
-        <v>16.777929952004754</v>
+        <v>16.846121425061185</v>
       </c>
       <c r="W107" s="17">
-        <v>23.543045074530085</v>
+        <v>20.967409434040889</v>
       </c>
       <c r="X107" s="17"/>
       <c r="Y107" s="9"/>
@@ -11165,10 +11167,10 @@
         <v>-10.481504472268384</v>
       </c>
       <c r="V108" s="17">
-        <v>22.835525385096517</v>
+        <v>22.741555425773271</v>
       </c>
       <c r="W108" s="17">
-        <v>-13.166195358714276</v>
+        <v>-13.61923079718369</v>
       </c>
       <c r="X108" s="17"/>
       <c r="Y108" s="9"/>
@@ -11304,10 +11306,10 @@
         <v>-17.099867822745409</v>
       </c>
       <c r="V109" s="17">
-        <v>0.51686615835045302</v>
+        <v>0.45681013009159699</v>
       </c>
       <c r="W109" s="17">
-        <v>17.469355986169262</v>
+        <v>18.105295484794624</v>
       </c>
       <c r="X109" s="17"/>
       <c r="Y109" s="9"/>
@@ -11443,10 +11445,10 @@
         <v>-40.284896666636136</v>
       </c>
       <c r="V110" s="17">
-        <v>21.014543320346803</v>
+        <v>20.941964850691534</v>
       </c>
       <c r="W110" s="17">
-        <v>4.313509712921288</v>
+        <v>4.3976406827020043</v>
       </c>
       <c r="X110" s="17"/>
       <c r="Y110" s="9"/>
@@ -11582,10 +11584,10 @@
         <v>-32.316845230315323</v>
       </c>
       <c r="V111" s="17">
-        <v>21.555954258117652</v>
+        <v>21.596751591303345</v>
       </c>
       <c r="W111" s="17">
-        <v>6.220578106457026</v>
+        <v>6.0707943291392183</v>
       </c>
       <c r="X111" s="17"/>
       <c r="Y111" s="9"/>
@@ -11721,10 +11723,10 @@
         <v>-19.038389829226205</v>
       </c>
       <c r="V112" s="17">
-        <v>-4.7253042909210023</v>
+        <v>-4.7221754133225744</v>
       </c>
       <c r="W112" s="17">
-        <v>11.617580380790343</v>
+        <v>11.033554061346521</v>
       </c>
       <c r="X112" s="17"/>
       <c r="Y112" s="9"/>
@@ -11860,10 +11862,10 @@
         <v>-26.038292402990791</v>
       </c>
       <c r="V113" s="17">
-        <v>45.672202869623334</v>
+        <v>47.325398317376596</v>
       </c>
       <c r="W113" s="17">
-        <v>20.075451656906225</v>
+        <v>21.755991023198163</v>
       </c>
       <c r="X113" s="17"/>
       <c r="Y113" s="9"/>
@@ -11999,10 +12001,10 @@
         <v>-32.041353113971965</v>
       </c>
       <c r="V114" s="17">
-        <v>21.93496362080603</v>
+        <v>21.946301064418634</v>
       </c>
       <c r="W114" s="17">
-        <v>16.461819737303387</v>
+        <v>17.073299825067622</v>
       </c>
       <c r="X114" s="17"/>
       <c r="Y114" s="9"/>
@@ -12138,10 +12140,10 @@
         <v>-28.233438711904398</v>
       </c>
       <c r="V115" s="17">
-        <v>-14.215963089367904</v>
+        <v>-14.173552344833183</v>
       </c>
       <c r="W115" s="17">
-        <v>26.679622766270384</v>
+        <v>27.682108706641984</v>
       </c>
       <c r="X115" s="17"/>
       <c r="Y115" s="9"/>
@@ -12277,10 +12279,10 @@
         <v>-42.67314192903148</v>
       </c>
       <c r="V116" s="17">
-        <v>87.141133602165809</v>
+        <v>82.771714903530324</v>
       </c>
       <c r="W116" s="17">
-        <v>92.292022343980676</v>
+        <v>93.303446219906419</v>
       </c>
       <c r="X116" s="17"/>
       <c r="Y116" s="9"/>
@@ -12416,10 +12418,10 @@
         <v>-31.610554018388953</v>
       </c>
       <c r="V117" s="17">
-        <v>20.149464772345581</v>
+        <v>19.661293934021785</v>
       </c>
       <c r="W117" s="17">
-        <v>11.84538747731294</v>
+        <v>12.082915152126958</v>
       </c>
       <c r="X117" s="17"/>
       <c r="Y117" s="9"/>
@@ -12555,10 +12557,10 @@
         <v>-40.428500607048157</v>
       </c>
       <c r="V118" s="17">
-        <v>-1.1477031793044432</v>
+        <v>-1.1179187596029578</v>
       </c>
       <c r="W118" s="17">
-        <v>25.475107317581205</v>
+        <v>25.757513606378836</v>
       </c>
       <c r="X118" s="17"/>
       <c r="Y118" s="9"/>
@@ -12694,10 +12696,10 @@
         <v>-23.32566047919201</v>
       </c>
       <c r="V119" s="17">
-        <v>46.681607831059665</v>
+        <v>46.662770809645394</v>
       </c>
       <c r="W119" s="17">
-        <v>12.584937571555812</v>
+        <v>12.626240086894896</v>
       </c>
       <c r="X119" s="17"/>
       <c r="Y119" s="9"/>
@@ -12833,10 +12835,10 @@
         <v>-41.286146154845007</v>
       </c>
       <c r="V120" s="17">
-        <v>23.27710738657278</v>
+        <v>23.191191598030599</v>
       </c>
       <c r="W120" s="17">
-        <v>44.941242594375922</v>
+        <v>45.219102034864676</v>
       </c>
       <c r="X120" s="17"/>
       <c r="Y120" s="9"/>
@@ -12972,10 +12974,10 @@
         <v>-27.430128142332137</v>
       </c>
       <c r="V121" s="17">
-        <v>21.949314880642007</v>
+        <v>21.825221372015108</v>
       </c>
       <c r="W121" s="17">
-        <v>9.6583856699278527</v>
+        <v>10.48577829674899</v>
       </c>
       <c r="X121" s="17"/>
       <c r="Y121" s="9"/>
@@ -13111,10 +13113,10 @@
         <v>-18.313290704346258</v>
       </c>
       <c r="V122" s="17">
-        <v>14.065200155632994</v>
+        <v>14.173368094422074</v>
       </c>
       <c r="W122" s="17">
-        <v>18.893833257744092</v>
+        <v>19.141811136972024</v>
       </c>
       <c r="X122" s="17"/>
       <c r="Y122" s="9"/>
@@ -13250,10 +13252,10 @@
         <v>-12.883940472468552</v>
       </c>
       <c r="V123" s="17">
-        <v>28.29745311329944</v>
+        <v>28.3062395801592</v>
       </c>
       <c r="W123" s="17">
-        <v>20.199897576457701</v>
+        <v>20.404370036928228</v>
       </c>
       <c r="X123" s="17"/>
       <c r="Y123" s="9"/>
@@ -13389,10 +13391,10 @@
         <v>-16.656391970988011</v>
       </c>
       <c r="V124" s="17">
-        <v>25.99692849690642</v>
+        <v>26.014853147242832</v>
       </c>
       <c r="W124" s="17">
-        <v>37.312621320051477</v>
+        <v>37.426839273220565</v>
       </c>
       <c r="X124" s="17"/>
       <c r="Y124" s="9"/>
@@ -13528,10 +13530,10 @@
         <v>-7.2784306620228705</v>
       </c>
       <c r="V125" s="17">
-        <v>6.470556805198683</v>
+        <v>6.4707057793532243</v>
       </c>
       <c r="W125" s="17">
-        <v>50.086185126117414</v>
+        <v>50.120691260877038</v>
       </c>
       <c r="X125" s="17"/>
       <c r="Y125" s="9"/>
@@ -13667,10 +13669,10 @@
         <v>-7.4620362253713779</v>
       </c>
       <c r="V126" s="17">
-        <v>119.3670392081541</v>
+        <v>119.40325201338035</v>
       </c>
       <c r="W126" s="17">
-        <v>-13.977444824748247</v>
+        <v>-13.933294886669273</v>
       </c>
       <c r="X126" s="17"/>
       <c r="Y126" s="9"/>
@@ -13806,10 +13808,10 @@
         <v>-17.530998366989948</v>
       </c>
       <c r="V127" s="17">
-        <v>11.858955136833842</v>
+        <v>11.805284767601279</v>
       </c>
       <c r="W127" s="17">
-        <v>25.20769993517753</v>
+        <v>25.322798101624926</v>
       </c>
       <c r="X127" s="17"/>
       <c r="Y127" s="9"/>
@@ -13948,7 +13950,7 @@
         <v>35.16978564407728</v>
       </c>
       <c r="W128" s="17">
-        <v>44.914911771176463</v>
+        <v>45.038622120671022</v>
       </c>
       <c r="X128" s="17"/>
       <c r="Y128" s="9"/>
@@ -14084,10 +14086,10 @@
         <v>-18.199151326333705</v>
       </c>
       <c r="V129" s="17">
-        <v>69.383652884255838</v>
+        <v>69.389111511150958</v>
       </c>
       <c r="W129" s="17">
-        <v>173.43539157354388</v>
+        <v>173.24050583907621</v>
       </c>
       <c r="X129" s="17"/>
       <c r="Y129" s="9"/>
@@ -14223,10 +14225,10 @@
         <v>-24.84062934716475</v>
       </c>
       <c r="V130" s="17">
-        <v>27.134349566170528</v>
+        <v>27.101614834591629</v>
       </c>
       <c r="W130" s="17">
-        <v>12.512211968567001</v>
+        <v>12.43066933982216</v>
       </c>
       <c r="X130" s="17"/>
       <c r="Y130" s="9"/>
@@ -14362,10 +14364,10 @@
         <v>-23.258357383638341</v>
       </c>
       <c r="V131" s="17">
-        <v>34.931492200045199</v>
+        <v>34.92212310453786</v>
       </c>
       <c r="W131" s="17">
-        <v>16.741513051534795</v>
+        <v>16.920202133485532</v>
       </c>
       <c r="X131" s="17"/>
       <c r="Y131" s="9"/>
@@ -14501,10 +14503,10 @@
         <v>5.5370890840275848</v>
       </c>
       <c r="V132" s="17">
-        <v>11.303375444091628</v>
+        <v>11.333419140001951</v>
       </c>
       <c r="W132" s="17">
-        <v>8.616096750048527</v>
+        <v>8.6739054062789052</v>
       </c>
       <c r="X132" s="17"/>
       <c r="Y132" s="9"/>
@@ -14640,10 +14642,10 @@
         <v>-35.775458059237067</v>
       </c>
       <c r="V133" s="17">
-        <v>30.166539973022367</v>
+        <v>30.375400205230761</v>
       </c>
       <c r="W133" s="17">
-        <v>27.76914451137003</v>
+        <v>28.727676364952913</v>
       </c>
       <c r="X133" s="17"/>
       <c r="Y133" s="9"/>
@@ -14779,10 +14781,10 @@
         <v>-24.502916338932167</v>
       </c>
       <c r="V134" s="17">
-        <v>-3.9616661614076207</v>
+        <v>-3.9868657882296077</v>
       </c>
       <c r="W134" s="17">
-        <v>61.94090629498811</v>
+        <v>62.107767658080803</v>
       </c>
       <c r="X134" s="17"/>
       <c r="Y134" s="9"/>
@@ -14918,10 +14920,10 @@
         <v>-19.343678925689488</v>
       </c>
       <c r="V135" s="17">
-        <v>25.382233369533111</v>
+        <v>26.349242716397356</v>
       </c>
       <c r="W135" s="17">
-        <v>23.642767688970338</v>
+        <v>23.552601733397609</v>
       </c>
       <c r="X135" s="17"/>
       <c r="Y135" s="9"/>
@@ -15149,10 +15151,10 @@
         <v>-24.5047769353625</v>
       </c>
       <c r="V137" s="17">
-        <v>31.669503995190553</v>
+        <v>31.456846697937976</v>
       </c>
       <c r="W137" s="17">
-        <v>30.336194727809385</v>
+        <v>30.069076063891544</v>
       </c>
       <c r="X137" s="17"/>
       <c r="Y137" s="9"/>
@@ -15451,7 +15453,7 @@
     </row>
     <row r="144" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="1:91" x14ac:dyDescent="0.2">
@@ -15461,7 +15463,7 @@
     </row>
     <row r="147" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="148" spans="1:91" x14ac:dyDescent="0.2">
@@ -15637,10 +15639,10 @@
         <v>-12.489392448714597</v>
       </c>
       <c r="V153" s="17">
-        <v>20.823551486499611</v>
+        <v>20.854986956206616</v>
       </c>
       <c r="W153" s="17">
-        <v>1.8358566184001148</v>
+        <v>0.81906856370169123</v>
       </c>
       <c r="X153" s="17"/>
       <c r="Y153" s="9"/>
@@ -15776,10 +15778,10 @@
         <v>-3.6824791608541005</v>
       </c>
       <c r="V154" s="17">
-        <v>17.06745121850129</v>
+        <v>17.107847905142009</v>
       </c>
       <c r="W154" s="17">
-        <v>14.544411956858767</v>
+        <v>12.633985943178573</v>
       </c>
       <c r="X154" s="17"/>
       <c r="Y154" s="9"/>
@@ -15915,10 +15917,10 @@
         <v>-5.748672342304701</v>
       </c>
       <c r="V155" s="17">
-        <v>29.927519381183942</v>
+        <v>29.852316400617468</v>
       </c>
       <c r="W155" s="17">
-        <v>-21.393299930433798</v>
+        <v>-21.825524190896388</v>
       </c>
       <c r="X155" s="17"/>
       <c r="Y155" s="9"/>
@@ -16054,10 +16056,10 @@
         <v>-15.190816496775341</v>
       </c>
       <c r="V156" s="17">
-        <v>9.8777316311736882</v>
+        <v>9.8509305119594046</v>
       </c>
       <c r="W156" s="17">
-        <v>-8.4606770526934412</v>
+        <v>-7.9321568843148498</v>
       </c>
       <c r="X156" s="17"/>
       <c r="Y156" s="9"/>
@@ -16193,10 +16195,10 @@
         <v>-42.440947734410337</v>
       </c>
       <c r="V157" s="17">
-        <v>28.194199817049991</v>
+        <v>28.127914110590922</v>
       </c>
       <c r="W157" s="17">
-        <v>-5.5003618460691541</v>
+        <v>-5.3456180091711758</v>
       </c>
       <c r="X157" s="17"/>
       <c r="Y157" s="9"/>
@@ -16332,10 +16334,10 @@
         <v>-33.059708476639955</v>
       </c>
       <c r="V158" s="17">
-        <v>28.787408425005282</v>
+        <v>28.817768036908006</v>
       </c>
       <c r="W158" s="17">
-        <v>-6.6811831090316787</v>
+        <v>-6.7304574369885728</v>
       </c>
       <c r="X158" s="17"/>
       <c r="Y158" s="9"/>
@@ -16471,10 +16473,10 @@
         <v>-16.782099175022097</v>
       </c>
       <c r="V159" s="17">
-        <v>-3.727700653339113</v>
+        <v>-3.7260587869277089</v>
       </c>
       <c r="W159" s="17">
-        <v>5.2163892761683428</v>
+        <v>4.9606151209426343</v>
       </c>
       <c r="X159" s="17"/>
       <c r="Y159" s="9"/>
@@ -16610,10 +16612,10 @@
         <v>-28.30551559727256</v>
       </c>
       <c r="V160" s="17">
-        <v>54.76580539554115</v>
+        <v>55.76318872692147</v>
       </c>
       <c r="W160" s="17">
-        <v>11.648855473202602</v>
+        <v>12.367465598987067</v>
       </c>
       <c r="X160" s="17"/>
       <c r="Y160" s="9"/>
@@ -16749,10 +16751,10 @@
         <v>-25.526317662362842</v>
       </c>
       <c r="V161" s="17">
-        <v>25.356261312149471</v>
+        <v>25.338676078516229</v>
       </c>
       <c r="W161" s="17">
-        <v>2.4265829792323217</v>
+        <v>2.9799042751773186</v>
       </c>
       <c r="X161" s="17"/>
       <c r="Y161" s="9"/>
@@ -16888,10 +16890,10 @@
         <v>-27.745295108511186</v>
       </c>
       <c r="V162" s="17">
-        <v>-9.4889881339853304</v>
+        <v>-9.4561364208245493</v>
       </c>
       <c r="W162" s="17">
-        <v>11.871949664701347</v>
+        <v>12.602881897534317</v>
       </c>
       <c r="X162" s="17"/>
       <c r="Y162" s="9"/>
@@ -17027,10 +17029,10 @@
         <v>-22.724597938219262</v>
       </c>
       <c r="V163" s="17">
-        <v>26.49807982975581</v>
+        <v>23.389086089137237</v>
       </c>
       <c r="W163" s="17">
-        <v>21.986904453075809</v>
+        <v>23.893701263232671</v>
       </c>
       <c r="X163" s="17"/>
       <c r="Y163" s="9"/>
@@ -17166,10 +17168,10 @@
         <v>-28.891623823861863</v>
       </c>
       <c r="V164" s="17">
-        <v>18.84779819436919</v>
+        <v>18.357425194409259</v>
       </c>
       <c r="W164" s="17">
-        <v>-1.5010749877403953</v>
+        <v>-1.2756127148819303</v>
       </c>
       <c r="X164" s="17"/>
       <c r="Y164" s="9"/>
@@ -17305,10 +17307,10 @@
         <v>-38.4471904367105</v>
       </c>
       <c r="V165" s="17">
-        <v>-3.2515741278299117</v>
+        <v>-3.2177438139921293</v>
       </c>
       <c r="W165" s="17">
-        <v>5.7032933100095846</v>
+        <v>5.9380664058726893</v>
       </c>
       <c r="X165" s="17"/>
       <c r="Y165" s="9"/>
@@ -17444,10 +17446,10 @@
         <v>-24.355171261467348</v>
       </c>
       <c r="V166" s="17">
-        <v>12.611809551849646</v>
+        <v>12.599053335985857</v>
       </c>
       <c r="W166" s="17">
-        <v>3.0106097353689023</v>
+        <v>3.0451152479249401</v>
       </c>
       <c r="X166" s="17"/>
       <c r="Y166" s="9"/>
@@ -17583,10 +17585,10 @@
         <v>-41.84668767632931</v>
       </c>
       <c r="V167" s="17">
-        <v>25.33672410623204</v>
+        <v>25.248853792998105</v>
       </c>
       <c r="W167" s="17">
-        <v>31.937726364635722</v>
+        <v>32.221009808240751</v>
       </c>
       <c r="X167" s="17"/>
       <c r="Y167" s="9"/>
@@ -17722,10 +17724,10 @@
         <v>-18.814874722425429</v>
       </c>
       <c r="V168" s="17">
-        <v>15.933542154178397</v>
+        <v>15.858285296067692</v>
       </c>
       <c r="W168" s="17">
-        <v>-4.3353188435483219</v>
+        <v>-3.8502031512062729</v>
       </c>
       <c r="X168" s="17"/>
       <c r="Y168" s="9"/>
@@ -17861,10 +17863,10 @@
         <v>-16.49291204682882</v>
       </c>
       <c r="V169" s="17">
-        <v>12.691079727079924</v>
+        <v>12.784447058912335</v>
       </c>
       <c r="W169" s="17">
-        <v>2.6796033263719323</v>
+        <v>2.9070441113370435</v>
       </c>
       <c r="X169" s="17"/>
       <c r="Y169" s="9"/>
@@ -18000,10 +18002,10 @@
         <v>-7.8477747458905185</v>
       </c>
       <c r="V170" s="17">
-        <v>10.836746694469412</v>
+        <v>10.839006822982753</v>
       </c>
       <c r="W170" s="17">
-        <v>2.8945861502065497</v>
+        <v>3.0780600259175088</v>
       </c>
       <c r="X170" s="17"/>
       <c r="Y170" s="9"/>
@@ -18139,10 +18141,10 @@
         <v>-25.073033701654097</v>
       </c>
       <c r="V171" s="17">
-        <v>19.097316976949259</v>
+        <v>19.112246342000219</v>
       </c>
       <c r="W171" s="17">
-        <v>14.528444431229829</v>
+        <v>14.615674720124062</v>
       </c>
       <c r="X171" s="17"/>
       <c r="Y171" s="9"/>
@@ -18278,10 +18280,10 @@
         <v>-8.7545478564198902</v>
       </c>
       <c r="V172" s="17">
-        <v>-3.6871595873306404</v>
+        <v>-3.687046984131257</v>
       </c>
       <c r="W172" s="17">
-        <v>25.475166157450403</v>
+        <v>25.49853271140654</v>
       </c>
       <c r="X172" s="17"/>
       <c r="Y172" s="9"/>
@@ -18417,10 +18419,10 @@
         <v>-3.9277411296978642</v>
       </c>
       <c r="V173" s="17">
-        <v>108.22545777181855</v>
+        <v>108.25792601063867</v>
       </c>
       <c r="W173" s="17">
-        <v>-21.848370627351031</v>
+        <v>-21.811622176115662</v>
       </c>
       <c r="X173" s="17"/>
       <c r="Y173" s="9"/>
@@ -18556,10 +18558,10 @@
         <v>-13.072025995676739</v>
       </c>
       <c r="V174" s="17">
-        <v>-1.1797700391172157</v>
+        <v>-1.2084959574009275</v>
       </c>
       <c r="W174" s="17">
-        <v>1.9564006040860988</v>
+        <v>2.0178630914183202</v>
       </c>
       <c r="X174" s="17"/>
       <c r="Y174" s="9"/>
@@ -18698,7 +18700,7 @@
         <v>-7.1496904908029251</v>
       </c>
       <c r="W175" s="17">
-        <v>11.31801626949121</v>
+        <v>11.386177929127612</v>
       </c>
       <c r="X175" s="17"/>
       <c r="Y175" s="9"/>
@@ -18834,10 +18836,10 @@
         <v>-14.907837520319219</v>
       </c>
       <c r="V176" s="17">
-        <v>20.872559433181848</v>
+        <v>20.875567134112188</v>
       </c>
       <c r="W176" s="17">
-        <v>100.09534064565392</v>
+        <v>99.943973190093971</v>
       </c>
       <c r="X176" s="17"/>
       <c r="Y176" s="9"/>
@@ -18973,10 +18975,10 @@
         <v>-19.716588650127775</v>
       </c>
       <c r="V177" s="17">
-        <v>-7.0854143943372065</v>
+        <v>-7.1190070298524404</v>
       </c>
       <c r="W177" s="17">
-        <v>4.8248721732516486</v>
+        <v>4.7015844702523282</v>
       </c>
       <c r="X177" s="17"/>
       <c r="Y177" s="9"/>
@@ -19112,10 +19114,10 @@
         <v>-18.128499576028105</v>
       </c>
       <c r="V178" s="17">
-        <v>-4.809753608628796</v>
+        <v>-4.8154651203027043</v>
       </c>
       <c r="W178" s="17">
-        <v>18.060100814755245</v>
+        <v>18.254170801698962</v>
       </c>
       <c r="X178" s="17"/>
       <c r="Y178" s="9"/>
@@ -19251,10 +19253,10 @@
         <v>12.029749526402767</v>
       </c>
       <c r="V179" s="17">
-        <v>-1.97163387736434</v>
+        <v>-1.9475074469370242</v>
       </c>
       <c r="W179" s="17">
-        <v>-12.589395297546218</v>
+        <v>-12.547025148774509</v>
       </c>
       <c r="X179" s="17"/>
       <c r="Y179" s="9"/>
@@ -19390,10 +19392,10 @@
         <v>-30.87428092671378</v>
       </c>
       <c r="V180" s="17">
-        <v>34.502355129076506</v>
+        <v>34.733259515639759</v>
       </c>
       <c r="W180" s="17">
-        <v>14.257467917823135</v>
+        <v>14.910701731912354</v>
       </c>
       <c r="X180" s="17"/>
       <c r="Y180" s="9"/>
@@ -19529,10 +19531,10 @@
         <v>-19.640039409709772</v>
       </c>
       <c r="V181" s="17">
-        <v>-5.9515192375327644</v>
+        <v>-5.9728223837500565</v>
       </c>
       <c r="W181" s="17">
-        <v>34.924985006094147</v>
+        <v>35.058210271758924</v>
       </c>
       <c r="X181" s="17"/>
       <c r="Y181" s="9"/>
@@ -19668,10 +19670,10 @@
         <v>-17.486341191654603</v>
       </c>
       <c r="V182" s="17">
-        <v>13.374433307033115</v>
+        <v>14.216585259876283</v>
       </c>
       <c r="W182" s="17">
-        <v>4.9393911365601184</v>
+        <v>6.8578093193319916</v>
       </c>
       <c r="X182" s="17"/>
       <c r="Y182" s="9"/>
@@ -19899,10 +19901,10 @@
         <v>-20.293171624407378</v>
       </c>
       <c r="V184" s="17">
-        <v>17.997144735458974</v>
+        <v>17.734354622849253</v>
       </c>
       <c r="W184" s="17">
-        <v>8.1616309574046255</v>
+        <v>8.6239634250574682</v>
       </c>
       <c r="X184" s="17"/>
       <c r="Y184" s="9"/>
@@ -20196,7 +20198,7 @@
     </row>
     <row r="190" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="192" spans="1:92" x14ac:dyDescent="0.2">
@@ -20206,7 +20208,7 @@
     </row>
     <row r="193" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="194" spans="1:96" x14ac:dyDescent="0.2">
@@ -20387,10 +20389,10 @@
         <v>97.0737199409553</v>
       </c>
       <c r="W199" s="17">
-        <v>94.623495891996683</v>
+        <v>94.651717030295345</v>
       </c>
       <c r="X199" s="17">
-        <v>103.58867972647504</v>
+        <v>103.38552064246834</v>
       </c>
       <c r="Y199" s="9"/>
       <c r="Z199" s="9"/>
@@ -20533,10 +20535,10 @@
         <v>97.155133697901036</v>
       </c>
       <c r="W200" s="17">
-        <v>96.91485788201814</v>
+        <v>96.937999905252653</v>
       </c>
       <c r="X200" s="17">
-        <v>104.52850952012686</v>
+        <v>104.1101282713319</v>
       </c>
       <c r="Y200" s="9"/>
       <c r="Z200" s="9"/>
@@ -20679,10 +20681,10 @@
         <v>94.750017452317351</v>
       </c>
       <c r="W201" s="17">
-        <v>89.578160419246586</v>
+        <v>89.561471378274874</v>
       </c>
       <c r="X201" s="17">
-        <v>98.953555804871456</v>
+        <v>98.96310411448232</v>
       </c>
       <c r="Y201" s="9"/>
       <c r="Z201" s="9"/>
@@ -20825,10 +20827,10 @@
         <v>100.83427808892689</v>
       </c>
       <c r="W202" s="17">
-        <v>92.243855823858041</v>
+        <v>92.211234637483471</v>
       </c>
       <c r="X202" s="17">
-        <v>118.37345949726061</v>
+        <v>118.28923916674583</v>
       </c>
       <c r="Y202" s="9"/>
       <c r="Z202" s="9"/>
@@ -20971,10 +20973,10 @@
         <v>101.46264411113843</v>
       </c>
       <c r="W203" s="17">
-        <v>95.780117655145588</v>
+        <v>95.772194708141356</v>
       </c>
       <c r="X203" s="17">
-        <v>105.72696815039791</v>
+        <v>105.63051556876759</v>
       </c>
       <c r="Y203" s="9"/>
       <c r="Z203" s="9"/>
@@ -21117,10 +21119,10 @@
         <v>101.3771278952029</v>
       </c>
       <c r="W204" s="17">
-        <v>95.6847697453628</v>
+        <v>95.694325600959715</v>
       </c>
       <c r="X204" s="17">
-        <v>108.9136349661473</v>
+        <v>108.82837902231211</v>
       </c>
       <c r="Y204" s="9"/>
       <c r="Z204" s="9"/>
@@ -21263,10 +21265,10 @@
         <v>93.224375710175877</v>
       </c>
       <c r="W205" s="17">
-        <v>92.258355609368991</v>
+        <v>92.25981199272438</v>
       </c>
       <c r="X205" s="17">
-        <v>97.871201377186182</v>
+        <v>97.597892416884974</v>
       </c>
       <c r="Y205" s="9"/>
       <c r="Z205" s="9"/>
@@ -21409,10 +21411,10 @@
         <v>104.96659361137344</v>
       </c>
       <c r="W206" s="17">
-        <v>98.799052413485072</v>
+        <v>99.28048687373213</v>
       </c>
       <c r="X206" s="17">
-        <v>106.25582135654722</v>
+        <v>107.5755691751211</v>
       </c>
       <c r="Y206" s="9"/>
       <c r="Z206" s="9"/>
@@ -21555,10 +21557,10 @@
         <v>95.560439801403447</v>
       </c>
       <c r="W207" s="17">
-        <v>92.952347404150217</v>
+        <v>92.97403264871113</v>
       </c>
       <c r="X207" s="17">
-        <v>105.68935536721227</v>
+        <v>105.69806679119137</v>
       </c>
       <c r="Y207" s="9"/>
       <c r="Z207" s="9"/>
@@ -21701,10 +21703,10 @@
         <v>100.52277970549459</v>
       </c>
       <c r="W208" s="17">
-        <v>95.272936042088048</v>
+        <v>95.285453364834893</v>
       </c>
       <c r="X208" s="17">
-        <v>107.88351891443671</v>
+        <v>108.04561490496738</v>
       </c>
       <c r="Y208" s="9"/>
       <c r="Z208" s="9"/>
@@ -21847,10 +21849,10 @@
         <v>68.097574682492279</v>
       </c>
       <c r="W209" s="17">
-        <v>100.743484318424</v>
+        <v>100.87043270989975</v>
       </c>
       <c r="X209" s="17">
-        <v>158.80531131127003</v>
+        <v>157.38170759051576</v>
       </c>
       <c r="Y209" s="9"/>
       <c r="Z209" s="9"/>
@@ -21993,10 +21995,10 @@
         <v>96.41569043817249</v>
       </c>
       <c r="W210" s="17">
-        <v>97.471671985517901</v>
+        <v>97.477840992427957</v>
       </c>
       <c r="X210" s="17">
-        <v>110.67894314506394</v>
+        <v>110.66769702620152</v>
       </c>
       <c r="Y210" s="9"/>
       <c r="Z210" s="9"/>
@@ -22139,10 +22141,10 @@
         <v>95.929018934694639</v>
       </c>
       <c r="W211" s="17">
-        <v>98.015071232061359</v>
+        <v>98.010331825509084</v>
       </c>
       <c r="X211" s="17">
-        <v>116.3488023548521</v>
+        <v>116.34661700252533</v>
       </c>
       <c r="Y211" s="9"/>
       <c r="Z211" s="9"/>
@@ -22285,10 +22287,10 @@
         <v>104.17683251805371</v>
       </c>
       <c r="W212" s="17">
-        <v>135.69469626060325</v>
+        <v>135.69264091128119</v>
       </c>
       <c r="X212" s="17">
-        <v>148.30684864925905</v>
+        <v>148.30932952551112</v>
       </c>
       <c r="Y212" s="9"/>
       <c r="Z212" s="9"/>
@@ -22431,10 +22433,10 @@
         <v>102.24663941238606</v>
       </c>
       <c r="W213" s="17">
-        <v>100.56645437831551</v>
+        <v>100.56687119008316</v>
       </c>
       <c r="X213" s="17">
-        <v>110.47808130799079</v>
+        <v>110.45317797723825</v>
       </c>
       <c r="Y213" s="9"/>
       <c r="Z213" s="9"/>
@@ -22577,10 +22579,10 @@
         <v>83.582129641150019</v>
       </c>
       <c r="W214" s="17">
-        <v>87.919192811757668</v>
+        <v>87.886778405680104</v>
       </c>
       <c r="X214" s="17">
-        <v>100.77989741452529</v>
+        <v>100.99073978716682</v>
       </c>
       <c r="Y214" s="9"/>
       <c r="Z214" s="9"/>
@@ -22723,10 +22725,10 @@
         <v>98.570477940945878</v>
       </c>
       <c r="W215" s="17">
-        <v>99.772416086528708</v>
+        <v>99.784356395489482</v>
       </c>
       <c r="X215" s="17">
-        <v>115.52756942592633</v>
+        <v>115.52648360235997</v>
       </c>
       <c r="Y215" s="9"/>
       <c r="Z215" s="9"/>
@@ -22869,10 +22871,10 @@
         <v>90.716791406169477</v>
       </c>
       <c r="W216" s="17">
-        <v>105.00789349316719</v>
+        <v>105.01294359929088</v>
       </c>
       <c r="X216" s="17">
-        <v>122.66863121615208</v>
+        <v>122.6644866678412</v>
       </c>
       <c r="Y216" s="9"/>
       <c r="Z216" s="9"/>
@@ -23015,10 +23017,10 @@
         <v>128.22730044739836</v>
       </c>
       <c r="W217" s="17">
-        <v>135.65583521036967</v>
+        <v>135.65812862727128</v>
       </c>
       <c r="X217" s="17">
-        <v>162.64307458818053</v>
+        <v>162.65722715928459</v>
       </c>
       <c r="Y217" s="9"/>
       <c r="Z217" s="9"/>
@@ -23161,10 +23163,10 @@
         <v>104.35122155383915</v>
       </c>
       <c r="W218" s="17">
-        <v>115.3567127138575</v>
+        <v>115.35673925338313</v>
       </c>
       <c r="X218" s="17">
-        <v>137.98307242874554</v>
+        <v>137.98913074259909</v>
       </c>
       <c r="Y218" s="9"/>
       <c r="Z218" s="9"/>
@@ -23307,10 +23309,10 @@
         <v>99.066582068888351</v>
       </c>
       <c r="W219" s="17">
-        <v>104.36736711002142</v>
+        <v>104.3683219559874</v>
       </c>
       <c r="X219" s="17">
-        <v>114.87857217804367</v>
+        <v>114.88456262888711</v>
       </c>
       <c r="Y219" s="9"/>
       <c r="Z219" s="9"/>
@@ -23453,10 +23455,10 @@
         <v>95.682427032561307</v>
       </c>
       <c r="W220" s="17">
-        <v>108.3071382960283</v>
+        <v>108.28664980156428</v>
       </c>
       <c r="X220" s="17">
-        <v>133.00673221356743</v>
+        <v>133.02362487265594</v>
       </c>
       <c r="Y220" s="9"/>
       <c r="Z220" s="9"/>
@@ -23602,7 +23604,7 @@
         <v>139.21259736772924</v>
       </c>
       <c r="X221" s="17">
-        <v>181.22835764645089</v>
+        <v>181.27207234727442</v>
       </c>
       <c r="Y221" s="9"/>
       <c r="Z221" s="9"/>
@@ -23745,10 +23747,10 @@
         <v>98.79192055118024</v>
       </c>
       <c r="W222" s="17">
-        <v>138.4411520437811</v>
+        <v>138.44216861524922</v>
       </c>
       <c r="X222" s="17">
-        <v>189.18336877229041</v>
+        <v>189.19304032197519</v>
       </c>
       <c r="Y222" s="9"/>
       <c r="Z222" s="9"/>
@@ -23891,10 +23893,10 @@
         <v>93.036623692453162</v>
       </c>
       <c r="W223" s="17">
-        <v>127.30133338991855</v>
+        <v>127.31458538422041</v>
       </c>
       <c r="X223" s="17">
-        <v>136.63698613984619</v>
+        <v>136.71296498418064</v>
       </c>
       <c r="Y223" s="9"/>
       <c r="Z223" s="9"/>
@@ -24037,10 +24039,10 @@
         <v>86.663776217157405</v>
       </c>
       <c r="W224" s="17">
-        <v>122.84528182219145</v>
+        <v>122.8441227165097</v>
       </c>
       <c r="X224" s="17">
-        <v>121.4732494059709</v>
+        <v>121.45837699889958</v>
       </c>
       <c r="Y224" s="9"/>
       <c r="Z224" s="9"/>
@@ -24183,10 +24185,10 @@
         <v>90.129342036015885</v>
       </c>
       <c r="W225" s="17">
-        <v>102.33466487255072</v>
+        <v>102.33710079606637</v>
       </c>
       <c r="X225" s="17">
-        <v>127.16067917064456</v>
+        <v>127.16974385816104</v>
       </c>
       <c r="Y225" s="9"/>
       <c r="Z225" s="9"/>
@@ -24329,10 +24331,10 @@
         <v>94.089474527299842</v>
       </c>
       <c r="W226" s="17">
-        <v>91.056408159880931</v>
+        <v>91.046211905625597</v>
       </c>
       <c r="X226" s="17">
-        <v>101.82441099809536</v>
+        <v>101.9936970516945</v>
       </c>
       <c r="Y226" s="9"/>
       <c r="Z226" s="9"/>
@@ -24475,10 +24477,10 @@
         <v>98.126611446840613</v>
       </c>
       <c r="W227" s="17">
-        <v>100.2027485418181</v>
+        <v>100.19915255824421</v>
       </c>
       <c r="X227" s="17">
-        <v>120.26626433479241</v>
+        <v>120.26711230487048</v>
       </c>
       <c r="Y227" s="9"/>
       <c r="Z227" s="9"/>
@@ -24621,10 +24623,10 @@
         <v>104.4203195288927</v>
       </c>
       <c r="W228" s="17">
-        <v>115.47976461533199</v>
+        <v>115.51236859919167</v>
       </c>
       <c r="X228" s="17">
-        <v>136.06175483265253</v>
+        <v>133.55929495211342</v>
       </c>
       <c r="Y228" s="9"/>
       <c r="Z228" s="9"/>
@@ -24864,10 +24866,10 @@
         <v>95.212738638994878</v>
       </c>
       <c r="W230" s="17">
-        <v>106.24506295238201</v>
+        <v>106.31023057842519</v>
       </c>
       <c r="X230" s="17">
-        <v>128.02670495310278</v>
+        <v>127.2985539421521</v>
       </c>
       <c r="Y230" s="9"/>
       <c r="Z230" s="9"/>
@@ -24988,7 +24990,7 @@
     </row>
     <row r="237" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="239" spans="1:96" x14ac:dyDescent="0.2">
@@ -24998,7 +25000,7 @@
     </row>
     <row r="240" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="241" spans="1:96" x14ac:dyDescent="0.2">
@@ -25179,10 +25181,10 @@
         <v>21.309277880515818</v>
       </c>
       <c r="W246" s="17">
-        <v>19.060419165043033</v>
+        <v>19.101915622772339</v>
       </c>
       <c r="X246" s="17">
-        <v>16.303522213602466</v>
+        <v>16.172485497694751</v>
       </c>
       <c r="Y246" s="9"/>
       <c r="Z246" s="9"/>
@@ -25325,10 +25327,10 @@
         <v>10.890126662832863</v>
       </c>
       <c r="W247" s="17">
-        <v>9.6584737544633512</v>
+        <v>9.6797473417535187</v>
       </c>
       <c r="X247" s="17">
-        <v>9.1550720879242817</v>
+        <v>9.0024008422477735</v>
       </c>
       <c r="Y247" s="9"/>
       <c r="Z247" s="9"/>
@@ -25471,10 +25473,10 @@
         <v>4.7846791335102221</v>
       </c>
       <c r="W248" s="17">
-        <v>4.4636651413626067</v>
+        <v>4.4674657411320506</v>
       </c>
       <c r="X248" s="17">
-        <v>2.9738249430915555</v>
+        <v>2.9669091130981506</v>
       </c>
       <c r="Y248" s="9"/>
       <c r="Z248" s="9"/>
@@ -25617,10 +25619,10 @@
         <v>0.21121677784638446</v>
       </c>
       <c r="W249" s="17">
-        <v>0.16124347662127259</v>
+        <v>0.16140782531593165</v>
       </c>
       <c r="X249" s="17">
-        <v>0.14532545924965862</v>
+        <v>0.14656150008424892</v>
       </c>
       <c r="Y249" s="9"/>
       <c r="Z249" s="9"/>
@@ -25763,10 +25765,10 @@
         <v>1.1695748920806719</v>
       </c>
       <c r="W250" s="17">
-        <v>1.074930543136672</v>
+        <v>1.0760237221671525</v>
       </c>
       <c r="X250" s="17">
-        <v>0.86031188716512563</v>
+        <v>0.86365138672692598</v>
       </c>
       <c r="Y250" s="9"/>
       <c r="Z250" s="9"/>
@@ -25909,10 +25911,10 @@
         <v>1.6244986005927413</v>
       </c>
       <c r="W251" s="17">
-        <v>1.4997206763476549</v>
+        <v>1.5026509288678533</v>
       </c>
       <c r="X251" s="17">
-        <v>1.2222329919370054</v>
+        <v>1.225405626362249</v>
       </c>
       <c r="Y251" s="9"/>
       <c r="Z251" s="9"/>
@@ -26055,10 +26057,10 @@
         <v>1.6775819345704797</v>
       </c>
       <c r="W252" s="17">
-        <v>1.2138809936512605</v>
+        <v>1.2158846138996295</v>
       </c>
       <c r="X252" s="17">
-        <v>1.0395459194166121</v>
+        <v>1.0379407165425574</v>
       </c>
       <c r="Y252" s="9"/>
       <c r="Z252" s="9"/>
@@ -26201,10 +26203,10 @@
         <v>0.68343983032211975</v>
       </c>
       <c r="W253" s="17">
-        <v>0.75612182465198097</v>
+        <v>0.76593990923521793</v>
       </c>
       <c r="X253" s="17">
-        <v>0.69659598235423059</v>
+        <v>0.71698650851754364</v>
       </c>
       <c r="Y253" s="9"/>
       <c r="Z253" s="9"/>
@@ -26347,10 +26349,10 @@
         <v>0.21006019023256886</v>
       </c>
       <c r="W254" s="17">
-        <v>0.19453009905105637</v>
+        <v>0.19486290629358075</v>
       </c>
       <c r="X254" s="17">
-        <v>0.17382224006521504</v>
+        <v>0.1753932921156931</v>
       </c>
       <c r="Y254" s="9"/>
       <c r="Z254" s="9"/>
@@ -26493,10 +26495,10 @@
         <v>5.8099858527764239E-2</v>
       </c>
       <c r="W255" s="17">
-        <v>3.7852655757177313E-2</v>
+        <v>3.7932634107402281E-2</v>
       </c>
       <c r="X255" s="17">
-        <v>3.6790702398783383E-2</v>
+        <v>3.7236511999604843E-2</v>
       </c>
       <c r="Y255" s="9"/>
       <c r="Z255" s="9"/>
@@ -26639,10 +26641,10 @@
         <v>9.5710432445345273</v>
       </c>
       <c r="W256" s="17">
-        <v>13.603270523468872</v>
+        <v>13.307150073658844</v>
       </c>
       <c r="X256" s="17">
-        <v>20.069639173622168</v>
+        <v>19.776552939763956</v>
       </c>
       <c r="Y256" s="9"/>
       <c r="Z256" s="9"/>
@@ -26785,10 +26787,10 @@
         <v>5.6017866634031064</v>
       </c>
       <c r="W257" s="17">
-        <v>5.1116746775421218</v>
+        <v>5.0991413328620245</v>
       </c>
       <c r="X257" s="17">
-        <v>4.3864809476878337</v>
+        <v>4.394023872969905</v>
       </c>
       <c r="Y257" s="9"/>
       <c r="Z257" s="9"/>
@@ -26931,10 +26933,10 @@
         <v>1.152135868984308</v>
       </c>
       <c r="W258" s="17">
-        <v>0.86497840003078363</v>
+        <v>0.86663871421364924</v>
       </c>
       <c r="X258" s="17">
-        <v>0.8327177097498526</v>
+        <v>0.83791115607680811</v>
       </c>
       <c r="Y258" s="9"/>
       <c r="Z258" s="9"/>
@@ -27077,10 +27079,10 @@
         <v>5.4142753418736289</v>
       </c>
       <c r="W259" s="17">
-        <v>6.0315759404325897</v>
+        <v>6.040557365491579</v>
       </c>
       <c r="X259" s="17">
-        <v>5.2100999429194745</v>
+        <v>5.2304920177208896</v>
       </c>
       <c r="Y259" s="9"/>
       <c r="Z259" s="9"/>
@@ -27223,10 +27225,10 @@
         <v>8.0054425627920711</v>
       </c>
       <c r="W260" s="17">
-        <v>7.495188882358109</v>
+        <v>7.5020817352027427</v>
       </c>
       <c r="X260" s="17">
-        <v>8.3350752441197571</v>
+        <v>8.3758999905800238</v>
       </c>
       <c r="Y260" s="9"/>
       <c r="Z260" s="9"/>
@@ -27369,10 +27371,10 @@
         <v>1.1911886229215722</v>
       </c>
       <c r="W261" s="17">
-        <v>1.1032519456001533</v>
+        <v>1.1039122063888869</v>
       </c>
       <c r="X261" s="17">
-        <v>0.92822126343624656</v>
+        <v>0.93770635561558124</v>
       </c>
       <c r="Y261" s="9"/>
       <c r="Z261" s="9"/>
@@ -27515,10 +27517,10 @@
         <v>3.1057846508823523</v>
       </c>
       <c r="W262" s="17">
-        <v>2.6905390929104454</v>
+        <v>2.6974471324570359</v>
       </c>
       <c r="X262" s="17">
-        <v>2.4543336327562972</v>
+        <v>2.470831242387681</v>
       </c>
       <c r="Y262" s="9"/>
       <c r="Z262" s="9"/>
@@ -27661,10 +27663,10 @@
         <v>5.0902701785580264</v>
       </c>
       <c r="W263" s="17">
-        <v>4.9599085570446846</v>
+        <v>4.9682724138251411</v>
       </c>
       <c r="X263" s="17">
-        <v>4.5741745168363597</v>
+        <v>4.5991078606925813</v>
       </c>
       <c r="Y263" s="9"/>
       <c r="Z263" s="9"/>
@@ -27807,10 +27809,10 @@
         <v>2.8633657147778493</v>
       </c>
       <c r="W264" s="17">
-        <v>2.7400064121038685</v>
+        <v>2.7448293422379844</v>
       </c>
       <c r="X264" s="17">
-        <v>2.8866690765788867</v>
+        <v>2.9000991800915652</v>
       </c>
       <c r="Y264" s="9"/>
       <c r="Z264" s="9"/>
@@ -27953,10 +27955,10 @@
         <v>1.27218731562898</v>
       </c>
       <c r="W265" s="17">
-        <v>1.028715744691163</v>
+        <v>1.0303813363924466</v>
       </c>
       <c r="X265" s="17">
-        <v>1.1845982002336817</v>
+        <v>1.1892262416437775</v>
       </c>
       <c r="Y265" s="9"/>
       <c r="Z265" s="9"/>
@@ -28099,10 +28101,10 @@
         <v>2.1659372255891265</v>
       </c>
       <c r="W266" s="17">
-        <v>3.6085442860448955</v>
+        <v>3.614978473072922</v>
       </c>
       <c r="X266" s="17">
-        <v>2.3816576860855987</v>
+        <v>2.3920311856461192</v>
       </c>
       <c r="Y266" s="9"/>
       <c r="Z266" s="9"/>
@@ -28245,10 +28247,10 @@
         <v>1.2123995328415673</v>
       </c>
       <c r="W267" s="17">
-        <v>1.0299859940005307</v>
+        <v>1.0311572080603122</v>
       </c>
       <c r="X267" s="17">
-        <v>0.98945789804263629</v>
+        <v>0.99352982666917389</v>
       </c>
       <c r="Y267" s="9"/>
       <c r="Z267" s="9"/>
@@ -28391,10 +28393,10 @@
         <v>1.3753178092234524</v>
       </c>
       <c r="W268" s="17">
-        <v>1.4118790443078331</v>
+        <v>1.4141630362728919</v>
       </c>
       <c r="X268" s="17">
-        <v>1.5698043629762903</v>
+        <v>1.5769179303945624</v>
       </c>
       <c r="Y268" s="9"/>
       <c r="Z268" s="9"/>
@@ -28537,10 +28539,10 @@
         <v>0.27218083607222976</v>
       </c>
       <c r="W269" s="17">
-        <v>0.35014170221746327</v>
+        <v>0.35071942733097994</v>
       </c>
       <c r="X269" s="17">
-        <v>0.7345705745975053</v>
+        <v>0.73676815913134353</v>
       </c>
       <c r="Y269" s="9"/>
       <c r="Z269" s="9"/>
@@ -28683,10 +28685,10 @@
         <v>1.9950969097741393</v>
       </c>
       <c r="W270" s="17">
-        <v>1.926378851969222</v>
+        <v>1.9289983394054313</v>
       </c>
       <c r="X270" s="17">
-        <v>1.6629390337592889</v>
+        <v>1.6674107406454137</v>
       </c>
       <c r="Y270" s="9"/>
       <c r="Z270" s="9"/>
@@ -28829,10 +28831,10 @@
         <v>2.4161177795330406</v>
       </c>
       <c r="W271" s="17">
-        <v>2.4759748266034416</v>
+        <v>2.4798080029583813</v>
       </c>
       <c r="X271" s="17">
-        <v>2.2177189393847163</v>
+        <v>2.2291205698709433</v>
       </c>
       <c r="Y271" s="9"/>
       <c r="Z271" s="9"/>
@@ -28975,10 +28977,10 @@
         <v>1.3591980521213431</v>
       </c>
       <c r="W272" s="17">
-        <v>1.1489625654218745</v>
+        <v>1.1511318750769441</v>
       </c>
       <c r="X272" s="17">
-        <v>0.95749173457661962</v>
+        <v>0.96178123415603112</v>
       </c>
       <c r="Y272" s="9"/>
       <c r="Z272" s="9"/>
@@ -29121,10 +29123,10 @@
         <v>1.1006047813469892</v>
       </c>
       <c r="W273" s="17">
-        <v>1.0880417402569944</v>
+        <v>1.0915505159318188</v>
       </c>
       <c r="X273" s="17">
-        <v>1.0666120998516204</v>
+        <v>1.0802933779728467</v>
       </c>
       <c r="Y273" s="9"/>
       <c r="Z273" s="9"/>
@@ -29267,10 +29269,10 @@
         <v>0.59424254881538052</v>
       </c>
       <c r="W274" s="17">
-        <v>0.43343418599277267</v>
+        <v>0.43402143765746215</v>
       </c>
       <c r="X274" s="17">
-        <v>0.53853593812129064</v>
+        <v>0.54092985437861674</v>
       </c>
       <c r="Y274" s="9"/>
       <c r="Z274" s="9"/>
@@ -29413,10 +29415,10 @@
         <v>22.932146479810491</v>
       </c>
       <c r="W275" s="17">
-        <v>21.837127461959152</v>
+        <v>22.041144408730158</v>
       </c>
       <c r="X275" s="17">
-        <v>20.715679811061417</v>
+        <v>20.936880765897431</v>
       </c>
       <c r="Y275" s="9"/>
       <c r="Z275" s="9"/>
@@ -29971,7 +29973,7 @@
     </row>
     <row r="284" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="286" spans="1:96" x14ac:dyDescent="0.2">
@@ -29981,7 +29983,7 @@
     </row>
     <row r="287" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="288" spans="1:96" x14ac:dyDescent="0.2">
@@ -30162,10 +30164,10 @@
         <v>20.900761881355184</v>
       </c>
       <c r="W293" s="17">
-        <v>21.401401575779953</v>
+        <v>21.454751356455272</v>
       </c>
       <c r="X293" s="17">
-        <v>20.149752208916077</v>
+        <v>19.913175507686017</v>
       </c>
       <c r="Y293" s="9"/>
       <c r="Z293" s="9"/>
@@ -30308,10 +30310,10 @@
         <v>10.672403446203644</v>
       </c>
       <c r="W294" s="17">
-        <v>10.588316120899826</v>
+        <v>10.615611760594568</v>
       </c>
       <c r="X294" s="17">
-        <v>11.213148627163607</v>
+        <v>11.007503575819895</v>
       </c>
       <c r="Y294" s="9"/>
       <c r="Z294" s="9"/>
@@ -30454,10 +30456,10 @@
         <v>4.808045592599723</v>
       </c>
       <c r="W295" s="17">
-        <v>5.2941741795417423</v>
+        <v>5.302919946848597</v>
       </c>
       <c r="X295" s="17">
-        <v>3.8475525763028422</v>
+        <v>3.8164045393955783</v>
       </c>
       <c r="Y295" s="9"/>
       <c r="Z295" s="9"/>
@@ -30600,10 +30602,10 @@
         <v>0.19944138289484004</v>
       </c>
       <c r="W296" s="17">
-        <v>0.18571777134946243</v>
+        <v>0.18608690355311311</v>
       </c>
       <c r="X296" s="17">
-        <v>0.15717661520199777</v>
+        <v>0.15772412736561481</v>
       </c>
       <c r="Y296" s="9"/>
       <c r="Z296" s="9"/>
@@ -30746,10 +30748,10 @@
         <v>1.0975313081376998</v>
       </c>
       <c r="W297" s="17">
-        <v>1.1923775624936124</v>
+        <v>1.1944210985249677</v>
       </c>
       <c r="X297" s="17">
-        <v>1.0417672810692629</v>
+        <v>1.0408126103379463</v>
       </c>
       <c r="Y297" s="9"/>
       <c r="Z297" s="9"/>
@@ -30892,10 +30894,10 @@
         <v>1.5257185115516441</v>
       </c>
       <c r="W298" s="17">
-        <v>1.6652380320669329</v>
+        <v>1.66934837278611</v>
       </c>
       <c r="X298" s="17">
-        <v>1.4367205969326422</v>
+        <v>1.4333794698578555</v>
       </c>
       <c r="Y298" s="9"/>
       <c r="Z298" s="9"/>
@@ -31038,10 +31040,10 @@
         <v>1.7133627236972049</v>
       </c>
       <c r="W299" s="17">
-        <v>1.3979098341319363</v>
+        <v>1.4010539461171094</v>
       </c>
       <c r="X299" s="17">
-        <v>1.3598447432706779</v>
+        <v>1.35380333551844</v>
       </c>
       <c r="Y299" s="9"/>
       <c r="Z299" s="9"/>
@@ -31184,10 +31186,10 @@
         <v>0.61993226321948813</v>
       </c>
       <c r="W300" s="17">
-        <v>0.813107098675522</v>
+        <v>0.82017374132719223</v>
       </c>
       <c r="X300" s="17">
-        <v>0.83932237467840776</v>
+        <v>0.84843934761559303</v>
       </c>
       <c r="Y300" s="9"/>
       <c r="Z300" s="9"/>
@@ -31330,10 +31332,10 @@
         <v>0.20929587633372729</v>
       </c>
       <c r="W301" s="17">
-        <v>0.22234901212284819</v>
+        <v>0.22281404720310158</v>
       </c>
       <c r="X301" s="17">
-        <v>0.21055941315751889</v>
+        <v>0.21123671544143993</v>
       </c>
       <c r="Y301" s="9"/>
       <c r="Z301" s="9"/>
@@ -31476,10 +31478,10 @@
         <v>5.5030776717212314E-2</v>
       </c>
       <c r="W302" s="17">
-        <v>4.2211964498076668E-2</v>
+        <v>4.2321539500521636E-2</v>
       </c>
       <c r="X302" s="17">
-        <v>4.3659981139122297E-2</v>
+        <v>4.3871786333656786E-2</v>
       </c>
       <c r="Y302" s="9"/>
       <c r="Z302" s="9"/>
@@ -31622,10 +31624,10 @@
         <v>13.38205131670677</v>
       </c>
       <c r="W303" s="17">
-        <v>14.346142015061512</v>
+        <v>14.024785605321762</v>
       </c>
       <c r="X303" s="17">
-        <v>16.179873026792212</v>
+        <v>15.996310052389354</v>
       </c>
       <c r="Y303" s="9"/>
       <c r="Z303" s="9"/>
@@ -31768,10 +31770,10 @@
         <v>5.5318947265749285</v>
       </c>
       <c r="W304" s="17">
-        <v>5.5717747202310308</v>
+        <v>5.5611704704318354</v>
       </c>
       <c r="X304" s="17">
-        <v>5.0740157622934667</v>
+        <v>5.0543464809241678</v>
       </c>
       <c r="Y304" s="9"/>
       <c r="Z304" s="9"/>
@@ -31914,10 +31916,10 @@
         <v>1.1435331309381263</v>
       </c>
       <c r="W305" s="17">
-        <v>0.93760769041465863</v>
+        <v>0.94002907469254904</v>
       </c>
       <c r="X305" s="17">
-        <v>0.91629739522558917</v>
+        <v>0.91678538876862581</v>
       </c>
       <c r="Y305" s="9"/>
       <c r="Z305" s="9"/>
@@ -32060,10 +32062,10 @@
         <v>4.9483937127386897</v>
       </c>
       <c r="W306" s="17">
-        <v>4.7225513093203064</v>
+        <v>4.732556180165151</v>
       </c>
       <c r="X306" s="17">
-        <v>4.4976475074717444</v>
+        <v>4.4894955185358487</v>
       </c>
       <c r="Y306" s="9"/>
       <c r="Z306" s="9"/>
@@ -32206,10 +32208,10 @@
         <v>7.4547204172294022</v>
       </c>
       <c r="W307" s="17">
-        <v>7.9184139439824746</v>
+        <v>7.9305245320811126</v>
       </c>
       <c r="X307" s="17">
-        <v>9.6590401137211614</v>
+        <v>9.6533207671457752</v>
       </c>
       <c r="Y307" s="9"/>
       <c r="Z307" s="9"/>
@@ -32352,10 +32354,10 @@
         <v>1.3569447381984101</v>
       </c>
       <c r="W308" s="17">
-        <v>1.333213700717129</v>
+        <v>1.3353221420613126</v>
       </c>
       <c r="X308" s="17">
-        <v>1.1791747449032506</v>
+        <v>1.1819763212329439</v>
       </c>
       <c r="Y308" s="9"/>
       <c r="Z308" s="9"/>
@@ -32498,10 +32500,10 @@
         <v>2.9999881141960683</v>
       </c>
       <c r="W309" s="17">
-        <v>2.8650854265592103</v>
+        <v>2.8738595605912227</v>
       </c>
       <c r="X309" s="17">
-        <v>2.7198724029145125</v>
+        <v>2.7226072704996418</v>
       </c>
       <c r="Y309" s="9"/>
       <c r="Z309" s="9"/>
@@ -32644,10 +32646,10 @@
         <v>5.3425452620225107</v>
       </c>
       <c r="W310" s="17">
-        <v>5.0183446153556073</v>
+        <v>5.0296484203471694</v>
       </c>
       <c r="X310" s="17">
-        <v>4.7739710263751638</v>
+        <v>4.7728547682712437</v>
       </c>
       <c r="Y310" s="9"/>
       <c r="Z310" s="9"/>
@@ -32790,10 +32792,10 @@
         <v>2.1261376514811712</v>
       </c>
       <c r="W311" s="17">
-        <v>2.1459611618804364</v>
+        <v>2.1510206813592019</v>
       </c>
       <c r="X311" s="17">
-        <v>2.2722807663356108</v>
+        <v>2.2696712489322932</v>
       </c>
       <c r="Y311" s="9"/>
       <c r="Z311" s="9"/>
@@ -32936,10 +32938,10 @@
         <v>1.1607764296303069</v>
       </c>
       <c r="W312" s="17">
-        <v>0.94746084977237499</v>
+        <v>0.94957674917440382</v>
       </c>
       <c r="X312" s="17">
-        <v>1.0991218096524951</v>
+        <v>1.0970920684594045</v>
       </c>
       <c r="Y312" s="9"/>
       <c r="Z312" s="9"/>
@@ -33082,10 +33084,10 @@
         <v>2.0816789139357179</v>
       </c>
       <c r="W313" s="17">
-        <v>3.6734663856484802</v>
+        <v>3.6822398578995141</v>
       </c>
       <c r="X313" s="17">
-        <v>2.6542442171304059</v>
+        <v>2.6505050282597074</v>
       </c>
       <c r="Y313" s="9"/>
       <c r="Z313" s="9"/>
@@ -33228,10 +33230,10 @@
         <v>1.2064480743909236</v>
       </c>
       <c r="W314" s="17">
-        <v>1.0103759409980742</v>
+        <v>1.0123368000799799</v>
       </c>
       <c r="X314" s="17">
-        <v>0.95241069581965176</v>
+        <v>0.95077028876981684</v>
       </c>
       <c r="Y314" s="9"/>
       <c r="Z314" s="9"/>
@@ -33374,10 +33376,10 @@
         <v>1.3693543847764891</v>
       </c>
       <c r="W315" s="17">
-        <v>1.0775258904723752</v>
+        <v>1.0799309926280221</v>
       </c>
       <c r="X315" s="17">
-        <v>1.1089703765066086</v>
+        <v>1.1073927143068671</v>
       </c>
       <c r="Y315" s="9"/>
       <c r="Z315" s="9"/>
@@ -33520,10 +33522,10 @@
         <v>0.2623198603985305</v>
       </c>
       <c r="W316" s="17">
-        <v>0.26871220475385871</v>
+        <v>0.26931868780176577</v>
       </c>
       <c r="X316" s="17">
-        <v>0.49710844474083948</v>
+        <v>0.4957345211453193</v>
       </c>
       <c r="Y316" s="9"/>
       <c r="Z316" s="9"/>
@@ -33666,10 +33668,10 @@
         <v>2.0417619759905401</v>
       </c>
       <c r="W317" s="17">
-        <v>1.6077462580122179</v>
+        <v>1.6107522765652249</v>
       </c>
       <c r="X317" s="17">
-        <v>1.5581476951796731</v>
+        <v>1.5525884917815582</v>
       </c>
       <c r="Y317" s="9"/>
       <c r="Z317" s="9"/>
@@ -33812,10 +33814,10 @@
         <v>2.6544561142509329</v>
       </c>
       <c r="W318" s="17">
-        <v>2.141393608439548</v>
+        <v>2.1460445543097935</v>
       </c>
       <c r="X318" s="17">
-        <v>2.3373643967702975</v>
+        <v>2.3363050957765394</v>
       </c>
       <c r="Y318" s="9"/>
       <c r="Z318" s="9"/>
@@ -33958,10 +33960,10 @@
         <v>1.4358583561338625</v>
       </c>
       <c r="W319" s="17">
-        <v>1.1928665642791461</v>
+        <v>1.1958233535408969</v>
       </c>
       <c r="X319" s="17">
-        <v>0.96401271680195999</v>
+        <v>0.96275542123696789</v>
       </c>
       <c r="Y319" s="9"/>
       <c r="Z319" s="9"/>
@@ -34104,10 +34106,10 @@
         <v>1.1137440815530748</v>
       </c>
       <c r="W320" s="17">
-        <v>1.269532430770272</v>
+        <v>1.2745504135525767</v>
       </c>
       <c r="X320" s="17">
-        <v>1.3410814879122359</v>
+        <v>1.3483165021415551</v>
       </c>
       <c r="Y320" s="9"/>
       <c r="Z320" s="9"/>
@@ -34250,10 +34252,10 @@
         <v>0.57659649767056809</v>
       </c>
       <c r="W321" s="17">
-        <v>0.4595706509716968</v>
+        <v>0.46049210931722606</v>
       </c>
       <c r="X321" s="17">
-        <v>0.57328613337955725</v>
+        <v>0.57255543038217771</v>
       </c>
       <c r="Y321" s="9"/>
       <c r="Z321" s="9"/>
@@ -34396,10 +34398,10 @@
         <v>20.910034359827783</v>
       </c>
       <c r="W322" s="17">
-        <v>20.090853056579643</v>
+        <v>20.285266181624014</v>
       </c>
       <c r="X322" s="17">
-        <v>19.492327071157501</v>
+        <v>19.955441113354176</v>
       </c>
       <c r="Y322" s="9"/>
       <c r="Z322" s="9"/>
@@ -34749,11 +34751,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="V199:X230 V106:X135 V137:X137 V153:X182 V184:X184">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/Data/National Accounts/PSA-06IOG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-06IOG_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C1589C-4276-4915-B8B8-0D7D90A8B2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240123C6-F884-40E7-9132-FB56E198606F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOG" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="77">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -275,13 +275,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2000 to 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2001 to 2022</t>
+    <t>As of January 2024</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Annual 2000 to 2023</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2023</t>
   </si>
 </sst>
 </file>
@@ -409,15 +412,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -712,17 +707,17 @@
   <dimension ref="A1:CR326"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="P30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="P65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1:X1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.44140625" style="1" customWidth="1"/>
-    <col min="2" max="24" width="10.44140625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="25" width="10.44140625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.2">
@@ -737,7 +732,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -747,7 +742,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -782,6 +777,7 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -855,6 +851,9 @@
       </c>
       <c r="X10" s="6">
         <v>2022</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>2023</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -933,7 +932,9 @@
       <c r="X12" s="8">
         <v>1324559.1638179447</v>
       </c>
-      <c r="Y12" s="9"/>
+      <c r="Y12" s="8">
+        <v>1196668.4704254989</v>
+      </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -1079,7 +1080,9 @@
       <c r="X13" s="11">
         <v>737314.77661002497</v>
       </c>
-      <c r="Y13" s="9"/>
+      <c r="Y13" s="11">
+        <v>646480.06450792879</v>
+      </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -1225,7 +1228,9 @@
       <c r="X14" s="11">
         <v>242995.83725267788</v>
       </c>
-      <c r="Y14" s="9"/>
+      <c r="Y14" s="11">
+        <v>179789.90953884184</v>
+      </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -1371,7 +1376,9 @@
       <c r="X15" s="11">
         <v>12003.682305182336</v>
       </c>
-      <c r="Y15" s="9"/>
+      <c r="Y15" s="11">
+        <v>14631.537819381074</v>
+      </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -1517,7 +1524,9 @@
       <c r="X16" s="11">
         <v>70734.789578032825</v>
       </c>
-      <c r="Y16" s="9"/>
+      <c r="Y16" s="11">
+        <v>69303.223071381391</v>
+      </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
@@ -1663,7 +1672,9 @@
       <c r="X17" s="11">
         <v>100363.19105208336</v>
       </c>
-      <c r="Y17" s="9"/>
+      <c r="Y17" s="11">
+        <v>92251.596552083458</v>
+      </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
@@ -1809,7 +1820,9 @@
       <c r="X18" s="11">
         <v>85009.437033792739</v>
       </c>
-      <c r="Y18" s="9"/>
+      <c r="Y18" s="11">
+        <v>102584.64152526639</v>
+      </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
@@ -1955,7 +1968,9 @@
       <c r="X19" s="11">
         <v>58722.640396005656</v>
       </c>
-      <c r="Y19" s="9"/>
+      <c r="Y19" s="11">
+        <v>69836.508953613622</v>
+      </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
@@ -2101,7 +2116,9 @@
       <c r="X20" s="11">
         <v>14365.064193574577</v>
       </c>
-      <c r="Y20" s="9"/>
+      <c r="Y20" s="11">
+        <v>17875.379717762371</v>
+      </c>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
@@ -2247,7 +2264,9 @@
       <c r="X21" s="11">
         <v>3049.7453965702357</v>
       </c>
-      <c r="Y21" s="9"/>
+      <c r="Y21" s="11">
+        <v>3915.6087392398313</v>
+      </c>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
@@ -2393,7 +2412,9 @@
       <c r="X22" s="11">
         <v>1619739.5526388921</v>
       </c>
-      <c r="Y22" s="9"/>
+      <c r="Y22" s="11">
+        <v>1428483.4264980962</v>
+      </c>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
@@ -2539,7 +2560,9 @@
       <c r="X23" s="11">
         <v>359879.41295768775</v>
       </c>
-      <c r="Y23" s="9"/>
+      <c r="Y23" s="11">
+        <v>353142.57779877528</v>
+      </c>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
@@ -2685,7 +2708,9 @@
       <c r="X24" s="11">
         <v>68626.612798943359</v>
       </c>
-      <c r="Y24" s="9"/>
+      <c r="Y24" s="11">
+        <v>89087.606034928351</v>
+      </c>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
@@ -2831,7 +2856,9 @@
       <c r="X25" s="11">
         <v>428387.84022012923</v>
       </c>
-      <c r="Y25" s="9"/>
+      <c r="Y25" s="11">
+        <v>396895.9208994807</v>
+      </c>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
@@ -2977,7 +3004,9 @@
       <c r="X26" s="11">
         <v>686003.09391693794</v>
       </c>
-      <c r="Y26" s="9"/>
+      <c r="Y26" s="11">
+        <v>794405.97320378432</v>
+      </c>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
@@ -3123,7 +3152,9 @@
       <c r="X27" s="11">
         <v>76800.040814875974</v>
       </c>
-      <c r="Y27" s="9"/>
+      <c r="Y27" s="11">
+        <v>75041.959004556571</v>
+      </c>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
@@ -3269,7 +3300,9 @@
       <c r="X28" s="11">
         <v>202366.0596151893</v>
       </c>
-      <c r="Y28" s="9"/>
+      <c r="Y28" s="11">
+        <v>210535.13940079263</v>
+      </c>
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
@@ -3415,7 +3448,9 @@
       <c r="X29" s="11">
         <v>376676.20497392531</v>
       </c>
-      <c r="Y29" s="9"/>
+      <c r="Y29" s="11">
+        <v>341011.90305740631</v>
+      </c>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
@@ -3561,7 +3596,9 @@
       <c r="X30" s="11">
         <v>237523.96905959462</v>
       </c>
-      <c r="Y30" s="9"/>
+      <c r="Y30" s="11">
+        <v>243408.01582858097</v>
+      </c>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
@@ -3707,7 +3744,9 @@
       <c r="X31" s="11">
         <v>97400.026510864423</v>
       </c>
-      <c r="Y31" s="9"/>
+      <c r="Y31" s="11">
+        <v>80142.170337292831</v>
+      </c>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
@@ -3853,7 +3892,9 @@
       <c r="X32" s="11">
         <v>195912.17611773385</v>
       </c>
-      <c r="Y32" s="9"/>
+      <c r="Y32" s="11">
+        <v>188179.80548272675</v>
+      </c>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
@@ -3999,7 +4040,9 @@
       <c r="X33" s="11">
         <v>81372.095626778682</v>
       </c>
-      <c r="Y33" s="9"/>
+      <c r="Y33" s="11">
+        <v>81106.540684620559</v>
+      </c>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
@@ -4145,7 +4188,9 @@
       <c r="X34" s="11">
         <v>129152.75735388199</v>
       </c>
-      <c r="Y34" s="9"/>
+      <c r="Y34" s="11">
+        <v>119274.8441055416</v>
+      </c>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
@@ -4291,7 +4336,9 @@
       <c r="X35" s="11">
         <v>60342.79745842432</v>
       </c>
-      <c r="Y35" s="9"/>
+      <c r="Y35" s="11">
+        <v>89609.241500560747</v>
+      </c>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
@@ -4437,7 +4484,9 @@
       <c r="X36" s="11">
         <v>136564.30093476753</v>
       </c>
-      <c r="Y36" s="9"/>
+      <c r="Y36" s="11">
+        <v>146538.01375019192</v>
+      </c>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
@@ -4583,7 +4632,9 @@
       <c r="X37" s="11">
         <v>182569.46827984514</v>
       </c>
-      <c r="Y37" s="9"/>
+      <c r="Y37" s="11">
+        <v>158660.16618350381</v>
+      </c>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
@@ -4729,7 +4780,9 @@
       <c r="X38" s="11">
         <v>78771.821899057642</v>
       </c>
-      <c r="Y38" s="9"/>
+      <c r="Y38" s="11">
+        <v>88713.675091701705</v>
+      </c>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
@@ -4875,7 +4928,9 @@
       <c r="X39" s="11">
         <v>88478.20538220556</v>
       </c>
-      <c r="Y39" s="9"/>
+      <c r="Y39" s="11">
+        <v>88847.55072832547</v>
+      </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
@@ -5021,7 +5076,9 @@
       <c r="X40" s="11">
         <v>44303.245515479561</v>
       </c>
-      <c r="Y40" s="9"/>
+      <c r="Y40" s="11">
+        <v>50356.640304107917</v>
+      </c>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
@@ -5167,7 +5224,9 @@
       <c r="X41" s="11">
         <v>1714772.7406641417</v>
       </c>
-      <c r="Y41" s="9"/>
+      <c r="Y41" s="11">
+        <v>1685409.4340524487</v>
+      </c>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
@@ -5410,7 +5469,9 @@
       <c r="X43" s="8">
         <v>8190201.5865573008</v>
       </c>
-      <c r="Y43" s="9"/>
+      <c r="Y43" s="8">
+        <v>7905519.0743729221</v>
+      </c>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
@@ -5508,6 +5569,7 @@
       <c r="V44" s="12"/>
       <c r="W44" s="12"/>
       <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
@@ -5538,7 +5600,7 @@
       <c r="V46" s="14"/>
       <c r="W46" s="14"/>
       <c r="X46" s="14"/>
-      <c r="Y46" s="9"/>
+      <c r="Y46" s="14"/>
       <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
@@ -5720,7 +5782,7 @@
     </row>
     <row r="50" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:96" x14ac:dyDescent="0.2">
@@ -5730,7 +5792,7 @@
     </row>
     <row r="53" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:96" x14ac:dyDescent="0.2">
@@ -5765,6 +5827,7 @@
       <c r="V56" s="15"/>
       <c r="W56" s="15"/>
       <c r="X56" s="15"/>
+      <c r="Y56" s="15"/>
     </row>
     <row r="57" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
@@ -5838,6 +5901,9 @@
       </c>
       <c r="X57" s="16">
         <v>2022</v>
+      </c>
+      <c r="Y57" s="16">
+        <v>2023</v>
       </c>
     </row>
     <row r="58" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5916,7 +5982,9 @@
       <c r="X59" s="8">
         <v>1281184.4014391382</v>
       </c>
-      <c r="Y59" s="9"/>
+      <c r="Y59" s="8">
+        <v>1128252.8241488666</v>
+      </c>
       <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
@@ -6062,7 +6130,9 @@
       <c r="X60" s="11">
         <v>708206.57783499663</v>
       </c>
-      <c r="Y60" s="9"/>
+      <c r="Y60" s="11">
+        <v>618508.83269942843</v>
+      </c>
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
@@ -6208,7 +6278,9 @@
       <c r="X61" s="11">
         <v>245541.85059876039</v>
       </c>
-      <c r="Y61" s="9"/>
+      <c r="Y61" s="11">
+        <v>177898.03554017298</v>
+      </c>
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
@@ -6354,7 +6426,9 @@
       <c r="X62" s="11">
         <v>10147.738196423265</v>
       </c>
-      <c r="Y62" s="9"/>
+      <c r="Y62" s="11">
+        <v>13564.85765118436</v>
+      </c>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
@@ -6500,7 +6574,9 @@
       <c r="X63" s="11">
         <v>66964.351349760342</v>
       </c>
-      <c r="Y63" s="9"/>
+      <c r="Y63" s="11">
+        <v>59644.569158601669</v>
+      </c>
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
@@ -6646,7 +6722,9 @@
       <c r="X64" s="11">
         <v>92221.525261813193</v>
       </c>
-      <c r="Y64" s="9"/>
+      <c r="Y64" s="11">
+        <v>82749.376641238836</v>
+      </c>
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
@@ -6792,7 +6870,9 @@
       <c r="X65" s="11">
         <v>87101.713908614736</v>
       </c>
-      <c r="Y65" s="9"/>
+      <c r="Y65" s="11">
+        <v>97089.176174737324</v>
+      </c>
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
@@ -6938,7 +7018,9 @@
       <c r="X66" s="11">
         <v>54587.338785455751</v>
       </c>
-      <c r="Y66" s="9"/>
+      <c r="Y66" s="11">
+        <v>58997.797170768885</v>
+      </c>
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
@@ -7084,7 +7166,9 @@
       <c r="X67" s="11">
         <v>13590.659346639752</v>
       </c>
-      <c r="Y67" s="9"/>
+      <c r="Y67" s="11">
+        <v>16440.471815471217</v>
+      </c>
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
@@ -7230,7 +7314,9 @@
       <c r="X68" s="11">
         <v>2822.6461566743551</v>
       </c>
-      <c r="Y68" s="9"/>
+      <c r="Y68" s="11">
+        <v>3359.7072972627798</v>
+      </c>
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
       <c r="AB68" s="9"/>
@@ -7376,7 +7462,9 @@
       <c r="X69" s="11">
         <v>1029179.0433823594</v>
       </c>
-      <c r="Y69" s="9"/>
+      <c r="Y69" s="11">
+        <v>977179.09021618008</v>
+      </c>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
@@ -7522,7 +7610,9 @@
       <c r="X70" s="11">
         <v>325189.21295749315</v>
       </c>
-      <c r="Y70" s="9"/>
+      <c r="Y70" s="11">
+        <v>297516.02769290307</v>
+      </c>
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
@@ -7668,7 +7758,9 @@
       <c r="X71" s="11">
         <v>58984.622472911098</v>
       </c>
-      <c r="Y71" s="9"/>
+      <c r="Y71" s="11">
+        <v>72374.966759050265</v>
+      </c>
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
       <c r="AB71" s="9"/>
@@ -7814,7 +7906,9 @@
       <c r="X72" s="11">
         <v>288847.53345637704</v>
       </c>
-      <c r="Y72" s="9"/>
+      <c r="Y72" s="11">
+        <v>284483.68527187867</v>
+      </c>
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
@@ -7960,7 +8054,9 @@
       <c r="X73" s="11">
         <v>621080.44918210199</v>
       </c>
-      <c r="Y73" s="9"/>
+      <c r="Y73" s="11">
+        <v>646478.68138910737</v>
+      </c>
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
       <c r="AB73" s="9"/>
@@ -8106,7 +8202,9 @@
       <c r="X74" s="11">
         <v>76046.616726175504</v>
       </c>
-      <c r="Y74" s="9"/>
+      <c r="Y74" s="11">
+        <v>72312.255268061446</v>
+      </c>
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
       <c r="AB74" s="9"/>
@@ -8252,7 +8350,9 @@
       <c r="X75" s="11">
         <v>175168.54430688772</v>
       </c>
-      <c r="Y75" s="9"/>
+      <c r="Y75" s="11">
+        <v>171607.29674347665</v>
+      </c>
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
@@ -8398,7 +8498,9 @@
       <c r="X76" s="11">
         <v>307078.45050043979</v>
       </c>
-      <c r="Y76" s="9"/>
+      <c r="Y76" s="11">
+        <v>289455.83563269925</v>
+      </c>
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
       <c r="AB76" s="9"/>
@@ -8544,7 +8646,9 @@
       <c r="X77" s="11">
         <v>146027.3073676558</v>
       </c>
-      <c r="Y77" s="9"/>
+      <c r="Y77" s="11">
+        <v>136211.07247252652</v>
+      </c>
       <c r="Z77" s="9"/>
       <c r="AA77" s="9"/>
       <c r="AB77" s="9"/>
@@ -8690,7 +8794,9 @@
       <c r="X78" s="11">
         <v>70585.288846084266</v>
       </c>
-      <c r="Y78" s="9"/>
+      <c r="Y78" s="11">
+        <v>51914.128187993963</v>
+      </c>
       <c r="Z78" s="9"/>
       <c r="AA78" s="9"/>
       <c r="AB78" s="9"/>
@@ -8836,7 +8942,9 @@
       <c r="X79" s="11">
         <v>170529.59217035203</v>
       </c>
-      <c r="Y79" s="9"/>
+      <c r="Y79" s="11">
+        <v>161423.98978869067</v>
+      </c>
       <c r="Z79" s="9"/>
       <c r="AA79" s="9"/>
       <c r="AB79" s="9"/>
@@ -8982,7 +9090,9 @@
       <c r="X80" s="11">
         <v>61171.160915721943</v>
       </c>
-      <c r="Y80" s="9"/>
+      <c r="Y80" s="11">
+        <v>64690.611178735504</v>
+      </c>
       <c r="Z80" s="9"/>
       <c r="AA80" s="9"/>
       <c r="AB80" s="9"/>
@@ -9128,7 +9238,9 @@
       <c r="X81" s="11">
         <v>71248.017238119195</v>
       </c>
-      <c r="Y81" s="9"/>
+      <c r="Y81" s="11">
+        <v>70020.310833644995</v>
+      </c>
       <c r="Z81" s="9"/>
       <c r="AA81" s="9"/>
       <c r="AB81" s="9"/>
@@ -9274,7 +9386,9 @@
       <c r="X82" s="11">
         <v>31894.829405844361</v>
       </c>
-      <c r="Y82" s="9"/>
+      <c r="Y82" s="11">
+        <v>60862.574785429213</v>
+      </c>
       <c r="Z82" s="9"/>
       <c r="AA82" s="9"/>
       <c r="AB82" s="9"/>
@@ -9420,7 +9534,9 @@
       <c r="X83" s="11">
         <v>99891.258265497847</v>
       </c>
-      <c r="Y83" s="9"/>
+      <c r="Y83" s="11">
+        <v>112860.28559462368</v>
+      </c>
       <c r="Z83" s="9"/>
       <c r="AA83" s="9"/>
       <c r="AB83" s="9"/>
@@ -9566,7 +9682,9 @@
       <c r="X84" s="11">
         <v>150314.43099350753</v>
       </c>
-      <c r="Y84" s="9"/>
+      <c r="Y84" s="11">
+        <v>144593.87683438318</v>
+      </c>
       <c r="Z84" s="9"/>
       <c r="AA84" s="9"/>
       <c r="AB84" s="9"/>
@@ -9712,7 +9830,9 @@
       <c r="X85" s="11">
         <v>61942.266697427578</v>
       </c>
-      <c r="Y85" s="9"/>
+      <c r="Y85" s="11">
+        <v>61919.73024535102</v>
+      </c>
       <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
       <c r="AB85" s="9"/>
@@ -9858,7 +9978,9 @@
       <c r="X86" s="11">
         <v>86748.699125359926</v>
       </c>
-      <c r="Y86" s="9"/>
+      <c r="Y86" s="11">
+        <v>85289.972622232221</v>
+      </c>
       <c r="Z86" s="9"/>
       <c r="AA86" s="9"/>
       <c r="AB86" s="9"/>
@@ -10004,7 +10126,9 @@
       <c r="X87" s="11">
         <v>36837.373631432405</v>
       </c>
-      <c r="Y87" s="9"/>
+      <c r="Y87" s="11">
+        <v>63384.34120800755</v>
+      </c>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
       <c r="AB87" s="9"/>
@@ -10150,7 +10274,9 @@
       <c r="X88" s="11">
         <v>1283903.7082959739</v>
       </c>
-      <c r="Y88" s="9"/>
+      <c r="Y88" s="11">
+        <v>1230654.2549069454</v>
+      </c>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
@@ -10393,7 +10519,9 @@
       <c r="X90" s="8">
         <v>6433852.8073768606</v>
       </c>
-      <c r="Y90" s="9"/>
+      <c r="Y90" s="8">
+        <v>6183485.8117807861</v>
+      </c>
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
@@ -10491,6 +10619,7 @@
       <c r="V91" s="12"/>
       <c r="W91" s="12"/>
       <c r="X91" s="12"/>
+      <c r="Y91" s="12"/>
     </row>
     <row r="92" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
@@ -10703,7 +10832,7 @@
     </row>
     <row r="97" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:91" x14ac:dyDescent="0.2">
@@ -10713,7 +10842,7 @@
     </row>
     <row r="100" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:91" x14ac:dyDescent="0.2">
@@ -10748,6 +10877,7 @@
       <c r="V103" s="15"/>
       <c r="W103" s="15"/>
       <c r="X103" s="15"/>
+      <c r="Y103" s="15"/>
     </row>
     <row r="104" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -10819,7 +10949,10 @@
       <c r="W104" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="X104" s="16"/>
+      <c r="X104" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y104" s="16"/>
     </row>
     <row r="105" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
@@ -10894,8 +11027,10 @@
       <c r="W106" s="17">
         <v>10.121952577054998</v>
       </c>
-      <c r="X106" s="17"/>
-      <c r="Y106" s="9"/>
+      <c r="X106" s="17">
+        <v>-9.6553401981539508</v>
+      </c>
+      <c r="Y106" s="17"/>
       <c r="Z106" s="9"/>
       <c r="AA106" s="9"/>
       <c r="AB106" s="9"/>
@@ -11033,8 +11168,10 @@
       <c r="W107" s="17">
         <v>20.967409434040889</v>
       </c>
-      <c r="X107" s="17"/>
-      <c r="Y107" s="9"/>
+      <c r="X107" s="17">
+        <v>-12.319665220834139</v>
+      </c>
+      <c r="Y107" s="17"/>
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
@@ -11172,8 +11309,10 @@
       <c r="W108" s="17">
         <v>-13.61923079718369</v>
       </c>
-      <c r="X108" s="17"/>
-      <c r="Y108" s="9"/>
+      <c r="X108" s="17">
+        <v>-26.011115428332104</v>
+      </c>
+      <c r="Y108" s="17"/>
       <c r="Z108" s="9"/>
       <c r="AA108" s="9"/>
       <c r="AB108" s="9"/>
@@ -11311,8 +11450,10 @@
       <c r="W109" s="17">
         <v>18.105295484794624</v>
       </c>
-      <c r="X109" s="17"/>
-      <c r="Y109" s="9"/>
+      <c r="X109" s="17">
+        <v>21.892078175579655</v>
+      </c>
+      <c r="Y109" s="17"/>
       <c r="Z109" s="9"/>
       <c r="AA109" s="9"/>
       <c r="AB109" s="9"/>
@@ -11450,8 +11591,10 @@
       <c r="W110" s="17">
         <v>4.3976406827020043</v>
       </c>
-      <c r="X110" s="17"/>
-      <c r="Y110" s="9"/>
+      <c r="X110" s="17">
+        <v>-2.0238506613102629</v>
+      </c>
+      <c r="Y110" s="17"/>
       <c r="Z110" s="9"/>
       <c r="AA110" s="9"/>
       <c r="AB110" s="9"/>
@@ -11589,8 +11732,10 @@
       <c r="W111" s="17">
         <v>6.0707943291392183</v>
       </c>
-      <c r="X111" s="17"/>
-      <c r="Y111" s="9"/>
+      <c r="X111" s="17">
+        <v>-8.0822405256030549</v>
+      </c>
+      <c r="Y111" s="17"/>
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
@@ -11728,8 +11873,10 @@
       <c r="W112" s="17">
         <v>11.033554061346521</v>
       </c>
-      <c r="X112" s="17"/>
-      <c r="Y112" s="9"/>
+      <c r="X112" s="17">
+        <v>20.674415811608299</v>
+      </c>
+      <c r="Y112" s="17"/>
       <c r="Z112" s="9"/>
       <c r="AA112" s="9"/>
       <c r="AB112" s="9"/>
@@ -11867,8 +12014,10 @@
       <c r="W113" s="17">
         <v>21.755991023198163</v>
       </c>
-      <c r="X113" s="17"/>
-      <c r="Y113" s="9"/>
+      <c r="X113" s="17">
+        <v>18.926036844834954</v>
+      </c>
+      <c r="Y113" s="17"/>
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
       <c r="AB113" s="9"/>
@@ -12006,8 +12155,10 @@
       <c r="W114" s="17">
         <v>17.073299825067622</v>
       </c>
-      <c r="X114" s="17"/>
-      <c r="Y114" s="9"/>
+      <c r="X114" s="17">
+        <v>24.436476418657008</v>
+      </c>
+      <c r="Y114" s="17"/>
       <c r="Z114" s="9"/>
       <c r="AA114" s="9"/>
       <c r="AB114" s="9"/>
@@ -12145,8 +12296,10 @@
       <c r="W115" s="17">
         <v>27.682108706641984</v>
       </c>
-      <c r="X115" s="17"/>
-      <c r="Y115" s="9"/>
+      <c r="X115" s="17">
+        <v>28.391332064747161</v>
+      </c>
+      <c r="Y115" s="17"/>
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
       <c r="AB115" s="9"/>
@@ -12284,8 +12437,10 @@
       <c r="W116" s="17">
         <v>93.303446219906419</v>
       </c>
-      <c r="X116" s="17"/>
-      <c r="Y116" s="9"/>
+      <c r="X116" s="17">
+        <v>-11.807832057271185</v>
+      </c>
+      <c r="Y116" s="17"/>
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
@@ -12423,8 +12578,10 @@
       <c r="W117" s="17">
         <v>12.082915152126958</v>
       </c>
-      <c r="X117" s="17"/>
-      <c r="Y117" s="9"/>
+      <c r="X117" s="17">
+        <v>-1.8719701423166839</v>
+      </c>
+      <c r="Y117" s="17"/>
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
       <c r="AB117" s="9"/>
@@ -12562,8 +12719,10 @@
       <c r="W118" s="17">
         <v>25.757513606378836</v>
       </c>
-      <c r="X118" s="17"/>
-      <c r="Y118" s="9"/>
+      <c r="X118" s="17">
+        <v>29.814954288841164</v>
+      </c>
+      <c r="Y118" s="17"/>
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
       <c r="AB118" s="9"/>
@@ -12701,8 +12860,10 @@
       <c r="W119" s="17">
         <v>12.626240086894896</v>
       </c>
-      <c r="X119" s="17"/>
-      <c r="Y119" s="9"/>
+      <c r="X119" s="17">
+        <v>-7.3512635896635743</v>
+      </c>
+      <c r="Y119" s="17"/>
       <c r="Z119" s="9"/>
       <c r="AA119" s="9"/>
       <c r="AB119" s="9"/>
@@ -12840,8 +13001,10 @@
       <c r="W120" s="17">
         <v>45.219102034864676</v>
       </c>
-      <c r="X120" s="17"/>
-      <c r="Y120" s="9"/>
+      <c r="X120" s="17">
+        <v>15.802097723479363</v>
+      </c>
+      <c r="Y120" s="17"/>
       <c r="Z120" s="9"/>
       <c r="AA120" s="9"/>
       <c r="AB120" s="9"/>
@@ -12979,8 +13142,10 @@
       <c r="W121" s="17">
         <v>10.48577829674899</v>
       </c>
-      <c r="X121" s="17"/>
-      <c r="Y121" s="9"/>
+      <c r="X121" s="17">
+        <v>-2.2891678072895871</v>
+      </c>
+      <c r="Y121" s="17"/>
       <c r="Z121" s="9"/>
       <c r="AA121" s="9"/>
       <c r="AB121" s="9"/>
@@ -13118,8 +13283,10 @@
       <c r="W122" s="17">
         <v>19.141811136972024</v>
       </c>
-      <c r="X122" s="17"/>
-      <c r="Y122" s="9"/>
+      <c r="X122" s="17">
+        <v>4.036783540252415</v>
+      </c>
+      <c r="Y122" s="17"/>
       <c r="Z122" s="9"/>
       <c r="AA122" s="9"/>
       <c r="AB122" s="9"/>
@@ -13257,8 +13424,10 @@
       <c r="W123" s="17">
         <v>20.404370036928228</v>
       </c>
-      <c r="X123" s="17"/>
-      <c r="Y123" s="9"/>
+      <c r="X123" s="17">
+        <v>-9.4681589772807229</v>
+      </c>
+      <c r="Y123" s="17"/>
       <c r="Z123" s="9"/>
       <c r="AA123" s="9"/>
       <c r="AB123" s="9"/>
@@ -13396,8 +13565,10 @@
       <c r="W124" s="17">
         <v>37.426839273220565</v>
       </c>
-      <c r="X124" s="17"/>
-      <c r="Y124" s="9"/>
+      <c r="X124" s="17">
+        <v>2.4772433671778487</v>
+      </c>
+      <c r="Y124" s="17"/>
       <c r="Z124" s="9"/>
       <c r="AA124" s="9"/>
       <c r="AB124" s="9"/>
@@ -13535,8 +13706,10 @@
       <c r="W125" s="17">
         <v>50.120691260877038</v>
       </c>
-      <c r="X125" s="17"/>
-      <c r="Y125" s="9"/>
+      <c r="X125" s="17">
+        <v>-17.718533343157333</v>
+      </c>
+      <c r="Y125" s="17"/>
       <c r="Z125" s="9"/>
       <c r="AA125" s="9"/>
       <c r="AB125" s="9"/>
@@ -13674,8 +13847,10 @@
       <c r="W126" s="17">
         <v>-13.933294886669273</v>
       </c>
-      <c r="X126" s="17"/>
-      <c r="Y126" s="9"/>
+      <c r="X126" s="17">
+        <v>-3.9468555697938399</v>
+      </c>
+      <c r="Y126" s="17"/>
       <c r="Z126" s="9"/>
       <c r="AA126" s="9"/>
       <c r="AB126" s="9"/>
@@ -13813,8 +13988,10 @@
       <c r="W127" s="17">
         <v>25.322798101624926</v>
       </c>
-      <c r="X127" s="17"/>
-      <c r="Y127" s="9"/>
+      <c r="X127" s="17">
+        <v>-0.32634644605458618</v>
+      </c>
+      <c r="Y127" s="17"/>
       <c r="Z127" s="9"/>
       <c r="AA127" s="9"/>
       <c r="AB127" s="9"/>
@@ -13952,8 +14129,10 @@
       <c r="W128" s="17">
         <v>45.038622120671022</v>
       </c>
-      <c r="X128" s="17"/>
-      <c r="Y128" s="9"/>
+      <c r="X128" s="17">
+        <v>-7.6482403091670932</v>
+      </c>
+      <c r="Y128" s="17"/>
       <c r="Z128" s="9"/>
       <c r="AA128" s="9"/>
       <c r="AB128" s="9"/>
@@ -14091,8 +14270,10 @@
       <c r="W129" s="17">
         <v>173.24050583907621</v>
       </c>
-      <c r="X129" s="17"/>
-      <c r="Y129" s="9"/>
+      <c r="X129" s="17">
+        <v>48.500310351539071</v>
+      </c>
+      <c r="Y129" s="17"/>
       <c r="Z129" s="9"/>
       <c r="AA129" s="9"/>
       <c r="AB129" s="9"/>
@@ -14230,8 +14411,10 @@
       <c r="W130" s="17">
         <v>12.43066933982216</v>
       </c>
-      <c r="X130" s="17"/>
-      <c r="Y130" s="9"/>
+      <c r="X130" s="17">
+        <v>7.3033089520141488</v>
+      </c>
+      <c r="Y130" s="17"/>
       <c r="Z130" s="9"/>
       <c r="AA130" s="9"/>
       <c r="AB130" s="9"/>
@@ -14369,8 +14552,10 @@
       <c r="W131" s="17">
         <v>16.920202133485532</v>
       </c>
-      <c r="X131" s="17"/>
-      <c r="Y131" s="9"/>
+      <c r="X131" s="17">
+        <v>-13.096002481473406</v>
+      </c>
+      <c r="Y131" s="17"/>
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
       <c r="AB131" s="9"/>
@@ -14508,8 +14693,10 @@
       <c r="W132" s="17">
         <v>8.6739054062789052</v>
       </c>
-      <c r="X132" s="17"/>
-      <c r="Y132" s="9"/>
+      <c r="X132" s="17">
+        <v>12.621078138047977</v>
+      </c>
+      <c r="Y132" s="17"/>
       <c r="Z132" s="9"/>
       <c r="AA132" s="9"/>
       <c r="AB132" s="9"/>
@@ -14647,8 +14834,10 @@
       <c r="W133" s="17">
         <v>28.727676364952913</v>
       </c>
-      <c r="X133" s="17"/>
-      <c r="Y133" s="9"/>
+      <c r="X133" s="17">
+        <v>0.41744217632401615</v>
+      </c>
+      <c r="Y133" s="17"/>
       <c r="Z133" s="9"/>
       <c r="AA133" s="9"/>
       <c r="AB133" s="9"/>
@@ -14786,8 +14975,10 @@
       <c r="W134" s="17">
         <v>62.107767658080803</v>
       </c>
-      <c r="X134" s="17"/>
-      <c r="Y134" s="9"/>
+      <c r="X134" s="17">
+        <v>13.663547034072934</v>
+      </c>
+      <c r="Y134" s="17"/>
       <c r="Z134" s="9"/>
       <c r="AA134" s="9"/>
       <c r="AB134" s="9"/>
@@ -14925,8 +15116,10 @@
       <c r="W135" s="17">
         <v>23.552601733397609</v>
       </c>
-      <c r="X135" s="17"/>
-      <c r="Y135" s="9"/>
+      <c r="X135" s="17">
+        <v>-1.7123730693503205</v>
+      </c>
+      <c r="Y135" s="17"/>
       <c r="Z135" s="9"/>
       <c r="AA135" s="9"/>
       <c r="AB135" s="9"/>
@@ -15156,8 +15349,10 @@
       <c r="W137" s="17">
         <v>30.069076063891544</v>
       </c>
-      <c r="X137" s="17"/>
-      <c r="Y137" s="9"/>
+      <c r="X137" s="17">
+        <v>-3.475891395049814</v>
+      </c>
+      <c r="Y137" s="17"/>
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
       <c r="AB137" s="9"/>
@@ -15250,6 +15445,7 @@
       <c r="V138" s="12"/>
       <c r="W138" s="12"/>
       <c r="X138" s="12"/>
+      <c r="Y138" s="12"/>
     </row>
     <row r="139" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
@@ -15453,7 +15649,7 @@
     </row>
     <row r="144" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="146" spans="1:91" x14ac:dyDescent="0.2">
@@ -15463,7 +15659,7 @@
     </row>
     <row r="147" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="148" spans="1:91" x14ac:dyDescent="0.2">
@@ -15498,6 +15694,7 @@
       <c r="V150" s="15"/>
       <c r="W150" s="15"/>
       <c r="X150" s="15"/>
+      <c r="Y150" s="15"/>
     </row>
     <row r="151" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
@@ -15569,7 +15766,10 @@
       <c r="W151" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="X151" s="16"/>
+      <c r="X151" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y151" s="16"/>
     </row>
     <row r="152" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7"/>
@@ -15644,8 +15844,10 @@
       <c r="W153" s="17">
         <v>0.81906856370169123</v>
       </c>
-      <c r="X153" s="17"/>
-      <c r="Y153" s="9"/>
+      <c r="X153" s="17">
+        <v>-11.936734252968222</v>
+      </c>
+      <c r="Y153" s="17"/>
       <c r="Z153" s="9"/>
       <c r="AA153" s="9"/>
       <c r="AB153" s="9"/>
@@ -15783,8 +15985,10 @@
       <c r="W154" s="17">
         <v>12.633985943178573</v>
       </c>
-      <c r="X154" s="17"/>
-      <c r="Y154" s="9"/>
+      <c r="X154" s="17">
+        <v>-12.665477551730206</v>
+      </c>
+      <c r="Y154" s="17"/>
       <c r="Z154" s="9"/>
       <c r="AA154" s="9"/>
       <c r="AB154" s="9"/>
@@ -15922,8 +16126,10 @@
       <c r="W155" s="17">
         <v>-21.825524190896388</v>
       </c>
-      <c r="X155" s="17"/>
-      <c r="Y155" s="9"/>
+      <c r="X155" s="17">
+        <v>-27.548792555581116</v>
+      </c>
+      <c r="Y155" s="17"/>
       <c r="Z155" s="9"/>
       <c r="AA155" s="9"/>
       <c r="AB155" s="9"/>
@@ -16061,8 +16267,10 @@
       <c r="W156" s="17">
         <v>-7.9321568843148498</v>
       </c>
-      <c r="X156" s="17"/>
-      <c r="Y156" s="9"/>
+      <c r="X156" s="17">
+        <v>33.673705298837092</v>
+      </c>
+      <c r="Y156" s="17"/>
       <c r="Z156" s="9"/>
       <c r="AA156" s="9"/>
       <c r="AB156" s="9"/>
@@ -16200,8 +16408,10 @@
       <c r="W157" s="17">
         <v>-5.3456180091711758</v>
       </c>
-      <c r="X157" s="17"/>
-      <c r="Y157" s="9"/>
+      <c r="X157" s="17">
+        <v>-10.930864024840389</v>
+      </c>
+      <c r="Y157" s="17"/>
       <c r="Z157" s="9"/>
       <c r="AA157" s="9"/>
       <c r="AB157" s="9"/>
@@ -16339,8 +16549,10 @@
       <c r="W158" s="17">
         <v>-6.7304574369885728</v>
       </c>
-      <c r="X158" s="17"/>
-      <c r="Y158" s="9"/>
+      <c r="X158" s="17">
+        <v>-10.271082151030697</v>
+      </c>
+      <c r="Y158" s="17"/>
       <c r="Z158" s="9"/>
       <c r="AA158" s="9"/>
       <c r="AB158" s="9"/>
@@ -16478,8 +16690,10 @@
       <c r="W159" s="17">
         <v>4.9606151209426343</v>
       </c>
-      <c r="X159" s="17"/>
-      <c r="Y159" s="9"/>
+      <c r="X159" s="17">
+        <v>11.466435983798462</v>
+      </c>
+      <c r="Y159" s="17"/>
       <c r="Z159" s="9"/>
       <c r="AA159" s="9"/>
       <c r="AB159" s="9"/>
@@ -16617,8 +16831,10 @@
       <c r="W160" s="17">
         <v>12.367465598987067</v>
       </c>
-      <c r="X160" s="17"/>
-      <c r="Y160" s="9"/>
+      <c r="X160" s="17">
+        <v>8.0796362003422217</v>
+      </c>
+      <c r="Y160" s="17"/>
       <c r="Z160" s="9"/>
       <c r="AA160" s="9"/>
       <c r="AB160" s="9"/>
@@ -16756,8 +16972,10 @@
       <c r="W161" s="17">
         <v>2.9799042751773186</v>
       </c>
-      <c r="X161" s="17"/>
-      <c r="Y161" s="9"/>
+      <c r="X161" s="17">
+        <v>20.968905158645399</v>
+      </c>
+      <c r="Y161" s="17"/>
       <c r="Z161" s="9"/>
       <c r="AA161" s="9"/>
       <c r="AB161" s="9"/>
@@ -16895,8 +17113,10 @@
       <c r="W162" s="17">
         <v>12.602881897534317</v>
       </c>
-      <c r="X162" s="17"/>
-      <c r="Y162" s="9"/>
+      <c r="X162" s="17">
+        <v>19.026867371190107</v>
+      </c>
+      <c r="Y162" s="17"/>
       <c r="Z162" s="9"/>
       <c r="AA162" s="9"/>
       <c r="AB162" s="9"/>
@@ -17034,8 +17254,10 @@
       <c r="W163" s="17">
         <v>23.893701263232671</v>
       </c>
-      <c r="X163" s="17"/>
-      <c r="Y163" s="9"/>
+      <c r="X163" s="17">
+        <v>-5.0525662663401505</v>
+      </c>
+      <c r="Y163" s="17"/>
       <c r="Z163" s="9"/>
       <c r="AA163" s="9"/>
       <c r="AB163" s="9"/>
@@ -17173,8 +17395,10 @@
       <c r="W164" s="17">
         <v>-1.2756127148819303</v>
       </c>
-      <c r="X164" s="17"/>
-      <c r="Y164" s="9"/>
+      <c r="X164" s="17">
+        <v>-8.509871841353899</v>
+      </c>
+      <c r="Y164" s="17"/>
       <c r="Z164" s="9"/>
       <c r="AA164" s="9"/>
       <c r="AB164" s="9"/>
@@ -17312,8 +17536,10 @@
       <c r="W165" s="17">
         <v>5.9380664058726893</v>
       </c>
-      <c r="X165" s="17"/>
-      <c r="Y165" s="9"/>
+      <c r="X165" s="17">
+        <v>22.701415597410545</v>
+      </c>
+      <c r="Y165" s="17"/>
       <c r="Z165" s="9"/>
       <c r="AA165" s="9"/>
       <c r="AB165" s="9"/>
@@ -17451,8 +17677,10 @@
       <c r="W166" s="17">
         <v>3.0451152479249401</v>
       </c>
-      <c r="X166" s="17"/>
-      <c r="Y166" s="9"/>
+      <c r="X166" s="17">
+        <v>-1.5107791062918636</v>
+      </c>
+      <c r="Y166" s="17"/>
       <c r="Z166" s="9"/>
       <c r="AA166" s="9"/>
       <c r="AB166" s="9"/>
@@ -17590,8 +17818,10 @@
       <c r="W167" s="17">
         <v>32.221009808240751</v>
       </c>
-      <c r="X167" s="17"/>
-      <c r="Y167" s="9"/>
+      <c r="X167" s="17">
+        <v>4.0893626969665746</v>
+      </c>
+      <c r="Y167" s="17"/>
       <c r="Z167" s="9"/>
       <c r="AA167" s="9"/>
       <c r="AB167" s="9"/>
@@ -17729,8 +17959,10 @@
       <c r="W168" s="17">
         <v>-3.8502031512062729</v>
       </c>
-      <c r="X168" s="17"/>
-      <c r="Y168" s="9"/>
+      <c r="X168" s="17">
+        <v>-4.9106214304845963</v>
+      </c>
+      <c r="Y168" s="17"/>
       <c r="Z168" s="9"/>
       <c r="AA168" s="9"/>
       <c r="AB168" s="9"/>
@@ -17868,8 +18100,10 @@
       <c r="W169" s="17">
         <v>2.9070441113370435</v>
       </c>
-      <c r="X169" s="17"/>
-      <c r="Y169" s="9"/>
+      <c r="X169" s="17">
+        <v>-2.033040565303736</v>
+      </c>
+      <c r="Y169" s="17"/>
       <c r="Z169" s="9"/>
       <c r="AA169" s="9"/>
       <c r="AB169" s="9"/>
@@ -18007,8 +18241,10 @@
       <c r="W170" s="17">
         <v>3.0780600259175088</v>
       </c>
-      <c r="X170" s="17"/>
-      <c r="Y170" s="9"/>
+      <c r="X170" s="17">
+        <v>-5.7387989417757268</v>
+      </c>
+      <c r="Y170" s="17"/>
       <c r="Z170" s="9"/>
       <c r="AA170" s="9"/>
       <c r="AB170" s="9"/>
@@ -18146,8 +18382,10 @@
       <c r="W171" s="17">
         <v>14.615674720124062</v>
       </c>
-      <c r="X171" s="17"/>
-      <c r="Y171" s="9"/>
+      <c r="X171" s="17">
+        <v>-6.7221912614020596</v>
+      </c>
+      <c r="Y171" s="17"/>
       <c r="Z171" s="9"/>
       <c r="AA171" s="9"/>
       <c r="AB171" s="9"/>
@@ -18285,8 +18523,10 @@
       <c r="W172" s="17">
         <v>25.49853271140654</v>
       </c>
-      <c r="X172" s="17"/>
-      <c r="Y172" s="9"/>
+      <c r="X172" s="17">
+        <v>-26.451915070864075</v>
+      </c>
+      <c r="Y172" s="17"/>
       <c r="Z172" s="9"/>
       <c r="AA172" s="9"/>
       <c r="AB172" s="9"/>
@@ -18424,8 +18664,10 @@
       <c r="W173" s="17">
         <v>-21.811622176115662</v>
       </c>
-      <c r="X173" s="17"/>
-      <c r="Y173" s="9"/>
+      <c r="X173" s="17">
+        <v>-5.3396025087336483</v>
+      </c>
+      <c r="Y173" s="17"/>
       <c r="Z173" s="9"/>
       <c r="AA173" s="9"/>
       <c r="AB173" s="9"/>
@@ -18563,8 +18805,10 @@
       <c r="W174" s="17">
         <v>2.0178630914183202</v>
       </c>
-      <c r="X174" s="17"/>
-      <c r="Y174" s="9"/>
+      <c r="X174" s="17">
+        <v>5.7534469026384158</v>
+      </c>
+      <c r="Y174" s="17"/>
       <c r="Z174" s="9"/>
       <c r="AA174" s="9"/>
       <c r="AB174" s="9"/>
@@ -18702,8 +18946,10 @@
       <c r="W175" s="17">
         <v>11.386177929127612</v>
       </c>
-      <c r="X175" s="17"/>
-      <c r="Y175" s="9"/>
+      <c r="X175" s="17">
+        <v>-1.7231446601118137</v>
+      </c>
+      <c r="Y175" s="17"/>
       <c r="Z175" s="9"/>
       <c r="AA175" s="9"/>
       <c r="AB175" s="9"/>
@@ -18841,8 +19087,10 @@
       <c r="W176" s="17">
         <v>99.943973190093971</v>
       </c>
-      <c r="X176" s="17"/>
-      <c r="Y176" s="9"/>
+      <c r="X176" s="17">
+        <v>90.822700479084062</v>
+      </c>
+      <c r="Y176" s="17"/>
       <c r="Z176" s="9"/>
       <c r="AA176" s="9"/>
       <c r="AB176" s="9"/>
@@ -18980,8 +19228,10 @@
       <c r="W177" s="17">
         <v>4.7015844702523282</v>
       </c>
-      <c r="X177" s="17"/>
-      <c r="Y177" s="9"/>
+      <c r="X177" s="17">
+        <v>12.98314542665571</v>
+      </c>
+      <c r="Y177" s="17"/>
       <c r="Z177" s="9"/>
       <c r="AA177" s="9"/>
       <c r="AB177" s="9"/>
@@ -19119,8 +19369,10 @@
       <c r="W178" s="17">
         <v>18.254170801698962</v>
       </c>
-      <c r="X178" s="17"/>
-      <c r="Y178" s="9"/>
+      <c r="X178" s="17">
+        <v>-3.8057251864070452</v>
+      </c>
+      <c r="Y178" s="17"/>
       <c r="Z178" s="9"/>
       <c r="AA178" s="9"/>
       <c r="AB178" s="9"/>
@@ -19258,8 +19510,10 @@
       <c r="W179" s="17">
         <v>-12.547025148774509</v>
       </c>
-      <c r="X179" s="17"/>
-      <c r="Y179" s="9"/>
+      <c r="X179" s="17">
+        <v>-3.6382995453891454E-2</v>
+      </c>
+      <c r="Y179" s="17"/>
       <c r="Z179" s="9"/>
       <c r="AA179" s="9"/>
       <c r="AB179" s="9"/>
@@ -19397,8 +19651,10 @@
       <c r="W180" s="17">
         <v>14.910701731912354</v>
       </c>
-      <c r="X180" s="17"/>
-      <c r="Y180" s="9"/>
+      <c r="X180" s="17">
+        <v>-1.681554326272618</v>
+      </c>
+      <c r="Y180" s="17"/>
       <c r="Z180" s="9"/>
       <c r="AA180" s="9"/>
       <c r="AB180" s="9"/>
@@ -19536,8 +19792,10 @@
       <c r="W181" s="17">
         <v>35.058210271758924</v>
       </c>
-      <c r="X181" s="17"/>
-      <c r="Y181" s="9"/>
+      <c r="X181" s="17">
+        <v>72.065310198779429</v>
+      </c>
+      <c r="Y181" s="17"/>
       <c r="Z181" s="9"/>
       <c r="AA181" s="9"/>
       <c r="AB181" s="9"/>
@@ -19675,8 +19933,10 @@
       <c r="W182" s="17">
         <v>6.8578093193319916</v>
       </c>
-      <c r="X182" s="17"/>
-      <c r="Y182" s="9"/>
+      <c r="X182" s="17">
+        <v>-4.1474647237916571</v>
+      </c>
+      <c r="Y182" s="17"/>
       <c r="Z182" s="9"/>
       <c r="AA182" s="9"/>
       <c r="AB182" s="9"/>
@@ -19906,8 +20166,10 @@
       <c r="W184" s="17">
         <v>8.6239634250574682</v>
       </c>
-      <c r="X184" s="17"/>
-      <c r="Y184" s="9"/>
+      <c r="X184" s="17">
+        <v>-3.8914007375022805</v>
+      </c>
+      <c r="Y184" s="17"/>
       <c r="Z184" s="9"/>
       <c r="AA184" s="9"/>
       <c r="AB184" s="9"/>
@@ -20000,6 +20262,7 @@
       <c r="V185" s="12"/>
       <c r="W185" s="12"/>
       <c r="X185" s="12"/>
+      <c r="Y185" s="12"/>
     </row>
     <row r="186" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A186" s="13" t="s">
@@ -20198,7 +20461,7 @@
     </row>
     <row r="190" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="192" spans="1:92" x14ac:dyDescent="0.2">
@@ -20208,7 +20471,7 @@
     </row>
     <row r="193" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="194" spans="1:96" x14ac:dyDescent="0.2">
@@ -20243,6 +20506,7 @@
       <c r="V196" s="15"/>
       <c r="W196" s="15"/>
       <c r="X196" s="15"/>
+      <c r="Y196" s="15"/>
     </row>
     <row r="197" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
@@ -20316,6 +20580,9 @@
       </c>
       <c r="X197" s="16">
         <v>2022</v>
+      </c>
+      <c r="Y197" s="16">
+        <v>2023</v>
       </c>
     </row>
     <row r="198" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -20394,7 +20661,9 @@
       <c r="X199" s="17">
         <v>103.38552064246834</v>
       </c>
-      <c r="Y199" s="9"/>
+      <c r="Y199" s="17">
+        <v>106.06385774644471</v>
+      </c>
       <c r="Z199" s="9"/>
       <c r="AA199" s="9"/>
       <c r="AB199" s="9"/>
@@ -20540,7 +20809,9 @@
       <c r="X200" s="17">
         <v>104.1101282713319</v>
       </c>
-      <c r="Y200" s="9"/>
+      <c r="Y200" s="17">
+        <v>104.52236578197636</v>
+      </c>
       <c r="Z200" s="9"/>
       <c r="AA200" s="9"/>
       <c r="AB200" s="9"/>
@@ -20686,7 +20957,9 @@
       <c r="X201" s="17">
         <v>98.96310411448232</v>
       </c>
-      <c r="Y201" s="9"/>
+      <c r="Y201" s="17">
+        <v>101.0634597469974</v>
+      </c>
       <c r="Z201" s="9"/>
       <c r="AA201" s="9"/>
       <c r="AB201" s="9"/>
@@ -20832,7 +21105,9 @@
       <c r="X202" s="17">
         <v>118.28923916674583</v>
       </c>
-      <c r="Y202" s="9"/>
+      <c r="Y202" s="17">
+        <v>107.86355592978583</v>
+      </c>
       <c r="Z202" s="9"/>
       <c r="AA202" s="9"/>
       <c r="AB202" s="9"/>
@@ -20978,7 +21253,9 @@
       <c r="X203" s="17">
         <v>105.63051556876759</v>
       </c>
-      <c r="Y203" s="9"/>
+      <c r="Y203" s="17">
+        <v>116.19368544199938</v>
+      </c>
       <c r="Z203" s="9"/>
       <c r="AA203" s="9"/>
       <c r="AB203" s="9"/>
@@ -21124,7 +21401,9 @@
       <c r="X204" s="17">
         <v>108.82837902231211</v>
       </c>
-      <c r="Y204" s="9"/>
+      <c r="Y204" s="17">
+        <v>111.48313171232896</v>
+      </c>
       <c r="Z204" s="9"/>
       <c r="AA204" s="9"/>
       <c r="AB204" s="9"/>
@@ -21270,7 +21549,9 @@
       <c r="X205" s="17">
         <v>97.597892416884974</v>
       </c>
-      <c r="Y205" s="9"/>
+      <c r="Y205" s="17">
+        <v>105.6602245142533</v>
+      </c>
       <c r="Z205" s="9"/>
       <c r="AA205" s="9"/>
       <c r="AB205" s="9"/>
@@ -21416,7 +21697,9 @@
       <c r="X206" s="17">
         <v>107.5755691751211</v>
       </c>
-      <c r="Y206" s="9"/>
+      <c r="Y206" s="17">
+        <v>118.37138385264137</v>
+      </c>
       <c r="Z206" s="9"/>
       <c r="AA206" s="9"/>
       <c r="AB206" s="9"/>
@@ -21562,7 +21845,9 @@
       <c r="X207" s="17">
         <v>105.69806679119137</v>
       </c>
-      <c r="Y207" s="9"/>
+      <c r="Y207" s="17">
+        <v>108.72789977317343</v>
+      </c>
       <c r="Z207" s="9"/>
       <c r="AA207" s="9"/>
       <c r="AB207" s="9"/>
@@ -21708,7 +21993,9 @@
       <c r="X208" s="17">
         <v>108.04561490496738</v>
       </c>
-      <c r="Y208" s="9"/>
+      <c r="Y208" s="17">
+        <v>116.54612717095789</v>
+      </c>
       <c r="Z208" s="9"/>
       <c r="AA208" s="9"/>
       <c r="AB208" s="9"/>
@@ -21854,7 +22141,9 @@
       <c r="X209" s="17">
         <v>157.38170759051576</v>
       </c>
-      <c r="Y209" s="9"/>
+      <c r="Y209" s="17">
+        <v>146.18440373934675</v>
+      </c>
       <c r="Z209" s="9"/>
       <c r="AA209" s="9"/>
       <c r="AB209" s="9"/>
@@ -22000,7 +22289,9 @@
       <c r="X210" s="17">
         <v>110.66769702620152</v>
       </c>
-      <c r="Y210" s="9"/>
+      <c r="Y210" s="17">
+        <v>118.6969927426196</v>
+      </c>
       <c r="Z210" s="9"/>
       <c r="AA210" s="9"/>
       <c r="AB210" s="9"/>
@@ -22146,7 +22437,9 @@
       <c r="X211" s="17">
         <v>116.34661700252533</v>
       </c>
-      <c r="Y211" s="9"/>
+      <c r="Y211" s="17">
+        <v>123.09174017518734</v>
+      </c>
       <c r="Z211" s="9"/>
       <c r="AA211" s="9"/>
       <c r="AB211" s="9"/>
@@ -22292,7 +22585,9 @@
       <c r="X212" s="17">
         <v>148.30932952551112</v>
       </c>
-      <c r="Y212" s="9"/>
+      <c r="Y212" s="17">
+        <v>139.51447532752908</v>
+      </c>
       <c r="Z212" s="9"/>
       <c r="AA212" s="9"/>
       <c r="AB212" s="9"/>
@@ -22438,7 +22733,9 @@
       <c r="X213" s="17">
         <v>110.45317797723825</v>
       </c>
-      <c r="Y213" s="9"/>
+      <c r="Y213" s="17">
+        <v>122.88200617796419</v>
+      </c>
       <c r="Z213" s="9"/>
       <c r="AA213" s="9"/>
       <c r="AB213" s="9"/>
@@ -22584,7 +22881,9 @@
       <c r="X214" s="17">
         <v>100.99073978716682</v>
       </c>
-      <c r="Y214" s="9"/>
+      <c r="Y214" s="17">
+        <v>103.77488397558079</v>
+      </c>
       <c r="Z214" s="9"/>
       <c r="AA214" s="9"/>
       <c r="AB214" s="9"/>
@@ -22730,7 +23029,9 @@
       <c r="X215" s="17">
         <v>115.52648360235997</v>
       </c>
-      <c r="Y215" s="9"/>
+      <c r="Y215" s="17">
+        <v>122.68425841793102</v>
+      </c>
       <c r="Z215" s="9"/>
       <c r="AA215" s="9"/>
       <c r="AB215" s="9"/>
@@ -22876,7 +23177,9 @@
       <c r="X216" s="17">
         <v>122.6644866678412</v>
       </c>
-      <c r="Y216" s="9"/>
+      <c r="Y216" s="17">
+        <v>117.81137606433624</v>
+      </c>
       <c r="Z216" s="9"/>
       <c r="AA216" s="9"/>
       <c r="AB216" s="9"/>
@@ -23022,7 +23325,9 @@
       <c r="X217" s="17">
         <v>162.65722715928459</v>
       </c>
-      <c r="Y217" s="9"/>
+      <c r="Y217" s="17">
+        <v>178.69914053989692</v>
+      </c>
       <c r="Z217" s="9"/>
       <c r="AA217" s="9"/>
       <c r="AB217" s="9"/>
@@ -23168,7 +23473,9 @@
       <c r="X218" s="17">
         <v>137.98913074259909</v>
       </c>
-      <c r="Y218" s="9"/>
+      <c r="Y218" s="17">
+        <v>154.37448943971111</v>
+      </c>
       <c r="Z218" s="9"/>
       <c r="AA218" s="9"/>
       <c r="AB218" s="9"/>
@@ -23314,7 +23621,9 @@
       <c r="X219" s="17">
         <v>114.88456262888711</v>
       </c>
-      <c r="Y219" s="9"/>
+      <c r="Y219" s="17">
+        <v>116.57486952779468</v>
+      </c>
       <c r="Z219" s="9"/>
       <c r="AA219" s="9"/>
       <c r="AB219" s="9"/>
@@ -23460,7 +23769,9 @@
       <c r="X220" s="17">
         <v>133.02362487265594</v>
       </c>
-      <c r="Y220" s="9"/>
+      <c r="Y220" s="17">
+        <v>125.37606185313201</v>
+      </c>
       <c r="Z220" s="9"/>
       <c r="AA220" s="9"/>
       <c r="AB220" s="9"/>
@@ -23606,7 +23917,9 @@
       <c r="X221" s="17">
         <v>181.27207234727442</v>
       </c>
-      <c r="Y221" s="9"/>
+      <c r="Y221" s="17">
+        <v>170.34320854261281</v>
+      </c>
       <c r="Z221" s="9"/>
       <c r="AA221" s="9"/>
       <c r="AB221" s="9"/>
@@ -23752,7 +24065,9 @@
       <c r="X222" s="17">
         <v>189.19304032197519</v>
       </c>
-      <c r="Y222" s="9"/>
+      <c r="Y222" s="17">
+        <v>147.23209101237961</v>
+      </c>
       <c r="Z222" s="9"/>
       <c r="AA222" s="9"/>
       <c r="AB222" s="9"/>
@@ -23898,7 +24213,9 @@
       <c r="X223" s="17">
         <v>136.71296498418064</v>
       </c>
-      <c r="Y223" s="9"/>
+      <c r="Y223" s="17">
+        <v>129.84019398686738</v>
+      </c>
       <c r="Z223" s="9"/>
       <c r="AA223" s="9"/>
       <c r="AB223" s="9"/>
@@ -24044,7 +24361,9 @@
       <c r="X224" s="17">
         <v>121.45837699889958</v>
       </c>
-      <c r="Y224" s="9"/>
+      <c r="Y224" s="17">
+        <v>109.72813625104752</v>
+      </c>
       <c r="Z224" s="9"/>
       <c r="AA224" s="9"/>
       <c r="AB224" s="9"/>
@@ -24190,7 +24509,9 @@
       <c r="X225" s="17">
         <v>127.16974385816104</v>
       </c>
-      <c r="Y225" s="9"/>
+      <c r="Y225" s="17">
+        <v>143.27206326672007</v>
+      </c>
       <c r="Z225" s="9"/>
       <c r="AA225" s="9"/>
       <c r="AB225" s="9"/>
@@ -24336,7 +24657,9 @@
       <c r="X226" s="17">
         <v>101.9936970516945</v>
       </c>
-      <c r="Y226" s="9"/>
+      <c r="Y226" s="17">
+        <v>104.17115634665581</v>
+      </c>
       <c r="Z226" s="9"/>
       <c r="AA226" s="9"/>
       <c r="AB226" s="9"/>
@@ -24482,7 +24805,9 @@
       <c r="X227" s="17">
         <v>120.26711230487048</v>
       </c>
-      <c r="Y227" s="9"/>
+      <c r="Y227" s="17">
+        <v>79.446499473510656</v>
+      </c>
       <c r="Z227" s="9"/>
       <c r="AA227" s="9"/>
       <c r="AB227" s="9"/>
@@ -24628,7 +24953,9 @@
       <c r="X228" s="17">
         <v>133.55929495211342</v>
       </c>
-      <c r="Y228" s="9"/>
+      <c r="Y228" s="17">
+        <v>136.95231031236219</v>
+      </c>
       <c r="Z228" s="9"/>
       <c r="AA228" s="9"/>
       <c r="AB228" s="9"/>
@@ -24871,7 +25198,9 @@
       <c r="X230" s="17">
         <v>127.2985539421521</v>
       </c>
-      <c r="Y230" s="9"/>
+      <c r="Y230" s="17">
+        <v>127.84890780069902</v>
+      </c>
       <c r="Z230" s="9"/>
       <c r="AA230" s="9"/>
       <c r="AB230" s="9"/>
@@ -24969,6 +25298,7 @@
       <c r="V231" s="12"/>
       <c r="W231" s="12"/>
       <c r="X231" s="12"/>
+      <c r="Y231" s="12"/>
     </row>
     <row r="232" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
@@ -24990,7 +25320,7 @@
     </row>
     <row r="237" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="239" spans="1:96" x14ac:dyDescent="0.2">
@@ -25000,7 +25330,7 @@
     </row>
     <row r="240" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="241" spans="1:96" x14ac:dyDescent="0.2">
@@ -25035,6 +25365,7 @@
       <c r="V243" s="15"/>
       <c r="W243" s="15"/>
       <c r="X243" s="15"/>
+      <c r="Y243" s="15"/>
     </row>
     <row r="244" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
@@ -25108,6 +25439,9 @@
       </c>
       <c r="X244" s="16">
         <v>2022</v>
+      </c>
+      <c r="Y244" s="16">
+        <v>2023</v>
       </c>
     </row>
     <row r="245" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25186,7 +25520,9 @@
       <c r="X246" s="17">
         <v>16.172485497694751</v>
       </c>
-      <c r="Y246" s="9"/>
+      <c r="Y246" s="17">
+        <v>15.13712710281988</v>
+      </c>
       <c r="Z246" s="9"/>
       <c r="AA246" s="9"/>
       <c r="AB246" s="9"/>
@@ -25332,7 +25668,9 @@
       <c r="X247" s="17">
         <v>9.0024008422477735</v>
       </c>
-      <c r="Y247" s="9"/>
+      <c r="Y247" s="17">
+        <v>8.1775789600407567</v>
+      </c>
       <c r="Z247" s="9"/>
       <c r="AA247" s="9"/>
       <c r="AB247" s="9"/>
@@ -25478,7 +25816,9 @@
       <c r="X248" s="17">
         <v>2.9669091130981506</v>
       </c>
-      <c r="Y248" s="9"/>
+      <c r="Y248" s="17">
+        <v>2.2742328219997754</v>
+      </c>
       <c r="Z248" s="9"/>
       <c r="AA248" s="9"/>
       <c r="AB248" s="9"/>
@@ -25624,7 +25964,9 @@
       <c r="X249" s="17">
         <v>0.14656150008424892</v>
       </c>
-      <c r="Y249" s="9"/>
+      <c r="Y249" s="17">
+        <v>0.18508003942222692</v>
+      </c>
       <c r="Z249" s="9"/>
       <c r="AA249" s="9"/>
       <c r="AB249" s="9"/>
@@ -25770,7 +26112,9 @@
       <c r="X250" s="17">
         <v>0.86365138672692598</v>
       </c>
-      <c r="Y250" s="9"/>
+      <c r="Y250" s="17">
+        <v>0.87664355015016682</v>
+      </c>
       <c r="Z250" s="9"/>
       <c r="AA250" s="9"/>
       <c r="AB250" s="9"/>
@@ -25916,7 +26260,9 @@
       <c r="X251" s="17">
         <v>1.225405626362249</v>
       </c>
-      <c r="Y251" s="9"/>
+      <c r="Y251" s="17">
+        <v>1.1669264938102879</v>
+      </c>
       <c r="Z251" s="9"/>
       <c r="AA251" s="9"/>
       <c r="AB251" s="9"/>
@@ -26062,7 +26408,9 @@
       <c r="X252" s="17">
         <v>1.0379407165425574</v>
       </c>
-      <c r="Y252" s="9"/>
+      <c r="Y252" s="17">
+        <v>1.2976332175051208</v>
+      </c>
       <c r="Z252" s="9"/>
       <c r="AA252" s="9"/>
       <c r="AB252" s="9"/>
@@ -26208,7 +26556,9 @@
       <c r="X253" s="17">
         <v>0.71698650851754364</v>
       </c>
-      <c r="Y253" s="9"/>
+      <c r="Y253" s="17">
+        <v>0.88338929166587532</v>
+      </c>
       <c r="Z253" s="9"/>
       <c r="AA253" s="9"/>
       <c r="AB253" s="9"/>
@@ -26354,7 +26704,9 @@
       <c r="X254" s="17">
         <v>0.1753932921156931</v>
       </c>
-      <c r="Y254" s="9"/>
+      <c r="Y254" s="17">
+        <v>0.22611266318625983</v>
+      </c>
       <c r="Z254" s="9"/>
       <c r="AA254" s="9"/>
       <c r="AB254" s="9"/>
@@ -26500,7 +26852,9 @@
       <c r="X255" s="17">
         <v>3.7236511999604843E-2</v>
       </c>
-      <c r="Y255" s="9"/>
+      <c r="Y255" s="17">
+        <v>4.9530065039409488E-2</v>
+      </c>
       <c r="Z255" s="9"/>
       <c r="AA255" s="9"/>
       <c r="AB255" s="9"/>
@@ -26646,7 +27000,9 @@
       <c r="X256" s="17">
         <v>19.776552939763956</v>
       </c>
-      <c r="Y256" s="9"/>
+      <c r="Y256" s="17">
+        <v>18.06944506817733</v>
+      </c>
       <c r="Z256" s="9"/>
       <c r="AA256" s="9"/>
       <c r="AB256" s="9"/>
@@ -26792,7 +27148,9 @@
       <c r="X257" s="17">
         <v>4.394023872969905</v>
       </c>
-      <c r="Y257" s="9"/>
+      <c r="Y257" s="17">
+        <v>4.4670384635911731</v>
+      </c>
       <c r="Z257" s="9"/>
       <c r="AA257" s="9"/>
       <c r="AB257" s="9"/>
@@ -26938,7 +27296,9 @@
       <c r="X258" s="17">
         <v>0.83791115607680811</v>
       </c>
-      <c r="Y258" s="9"/>
+      <c r="Y258" s="17">
+        <v>1.1269039413707937</v>
+      </c>
       <c r="Z258" s="9"/>
       <c r="AA258" s="9"/>
       <c r="AB258" s="9"/>
@@ -27084,7 +27444,9 @@
       <c r="X259" s="17">
         <v>5.2304920177208896</v>
       </c>
-      <c r="Y259" s="9"/>
+      <c r="Y259" s="17">
+        <v>5.020491597902609</v>
+      </c>
       <c r="Z259" s="9"/>
       <c r="AA259" s="9"/>
       <c r="AB259" s="9"/>
@@ -27230,7 +27592,9 @@
       <c r="X260" s="17">
         <v>8.3758999905800238</v>
       </c>
-      <c r="Y260" s="9"/>
+      <c r="Y260" s="17">
+        <v>10.048751583928064</v>
+      </c>
       <c r="Z260" s="9"/>
       <c r="AA260" s="9"/>
       <c r="AB260" s="9"/>
@@ -27376,7 +27740,9 @@
       <c r="X261" s="17">
         <v>0.93770635561558124</v>
       </c>
-      <c r="Y261" s="9"/>
+      <c r="Y261" s="17">
+        <v>0.94923506348644182</v>
+      </c>
       <c r="Z261" s="9"/>
       <c r="AA261" s="9"/>
       <c r="AB261" s="9"/>
@@ -27522,7 +27888,9 @@
       <c r="X262" s="17">
         <v>2.470831242387681</v>
       </c>
-      <c r="Y262" s="9"/>
+      <c r="Y262" s="17">
+        <v>2.6631412487926052</v>
+      </c>
       <c r="Z262" s="9"/>
       <c r="AA262" s="9"/>
       <c r="AB262" s="9"/>
@@ -27668,7 +28036,9 @@
       <c r="X263" s="17">
         <v>4.5991078606925813</v>
       </c>
-      <c r="Y263" s="9"/>
+      <c r="Y263" s="17">
+        <v>4.3135928185013697</v>
+      </c>
       <c r="Z263" s="9"/>
       <c r="AA263" s="9"/>
       <c r="AB263" s="9"/>
@@ -27814,7 +28184,9 @@
       <c r="X264" s="17">
         <v>2.9000991800915652</v>
       </c>
-      <c r="Y264" s="9"/>
+      <c r="Y264" s="17">
+        <v>3.0789631084140856</v>
+      </c>
       <c r="Z264" s="9"/>
       <c r="AA264" s="9"/>
       <c r="AB264" s="9"/>
@@ -27960,7 +28332,9 @@
       <c r="X265" s="17">
         <v>1.1892262416437775</v>
       </c>
-      <c r="Y265" s="9"/>
+      <c r="Y265" s="17">
+        <v>1.0137496296364301</v>
+      </c>
       <c r="Z265" s="9"/>
       <c r="AA265" s="9"/>
       <c r="AB265" s="9"/>
@@ -28106,7 +28480,9 @@
       <c r="X266" s="17">
         <v>2.3920311856461192</v>
       </c>
-      <c r="Y266" s="9"/>
+      <c r="Y266" s="17">
+        <v>2.3803598943014812</v>
+      </c>
       <c r="Z266" s="9"/>
       <c r="AA266" s="9"/>
       <c r="AB266" s="9"/>
@@ -28252,7 +28628,9 @@
       <c r="X267" s="17">
         <v>0.99352982666917389</v>
       </c>
-      <c r="Y267" s="9"/>
+      <c r="Y267" s="17">
+        <v>1.0259483270053846</v>
+      </c>
       <c r="Z267" s="9"/>
       <c r="AA267" s="9"/>
       <c r="AB267" s="9"/>
@@ -28398,7 +28776,9 @@
       <c r="X268" s="17">
         <v>1.5769179303945624</v>
       </c>
-      <c r="Y268" s="9"/>
+      <c r="Y268" s="17">
+        <v>1.5087541119493495</v>
+      </c>
       <c r="Z268" s="9"/>
       <c r="AA268" s="9"/>
       <c r="AB268" s="9"/>
@@ -28544,7 +28924,9 @@
       <c r="X269" s="17">
         <v>0.73676815913134353</v>
       </c>
-      <c r="Y269" s="9"/>
+      <c r="Y269" s="17">
+        <v>1.1335023122143146</v>
+      </c>
       <c r="Z269" s="9"/>
       <c r="AA269" s="9"/>
       <c r="AB269" s="9"/>
@@ -28690,7 +29072,9 @@
       <c r="X270" s="17">
         <v>1.6674107406454137</v>
       </c>
-      <c r="Y270" s="9"/>
+      <c r="Y270" s="17">
+        <v>1.8536165983739095</v>
+      </c>
       <c r="Z270" s="9"/>
       <c r="AA270" s="9"/>
       <c r="AB270" s="9"/>
@@ -28836,7 +29220,9 @@
       <c r="X271" s="17">
         <v>2.2291205698709433</v>
       </c>
-      <c r="Y271" s="9"/>
+      <c r="Y271" s="17">
+        <v>2.0069544414588485</v>
+      </c>
       <c r="Z271" s="9"/>
       <c r="AA271" s="9"/>
       <c r="AB271" s="9"/>
@@ -28982,7 +29368,9 @@
       <c r="X272" s="17">
         <v>0.96178123415603112</v>
       </c>
-      <c r="Y272" s="9"/>
+      <c r="Y272" s="17">
+        <v>1.1221739427494659</v>
+      </c>
       <c r="Z272" s="9"/>
       <c r="AA272" s="9"/>
       <c r="AB272" s="9"/>
@@ -29128,7 +29516,9 @@
       <c r="X273" s="17">
         <v>1.0802933779728467</v>
       </c>
-      <c r="Y273" s="9"/>
+      <c r="Y273" s="17">
+        <v>1.1238673879915089</v>
+      </c>
       <c r="Z273" s="9"/>
       <c r="AA273" s="9"/>
       <c r="AB273" s="9"/>
@@ -29274,7 +29664,9 @@
       <c r="X274" s="17">
         <v>0.54092985437861674</v>
       </c>
-      <c r="Y274" s="9"/>
+      <c r="Y274" s="17">
+        <v>0.63698082099817444</v>
+      </c>
       <c r="Z274" s="9"/>
       <c r="AA274" s="9"/>
       <c r="AB274" s="9"/>
@@ -29420,7 +29812,9 @@
       <c r="X275" s="17">
         <v>20.936880765897431</v>
       </c>
-      <c r="Y275" s="9"/>
+      <c r="Y275" s="17">
+        <v>21.319402536336781</v>
+      </c>
       <c r="Z275" s="9"/>
       <c r="AA275" s="9"/>
       <c r="AB275" s="9"/>
@@ -29663,7 +30057,9 @@
       <c r="X277" s="17">
         <v>100</v>
       </c>
-      <c r="Y277" s="9"/>
+      <c r="Y277" s="17">
+        <v>100</v>
+      </c>
       <c r="Z277" s="9"/>
       <c r="AA277" s="9"/>
       <c r="AB277" s="9"/>
@@ -29761,6 +30157,7 @@
       <c r="V278" s="12"/>
       <c r="W278" s="12"/>
       <c r="X278" s="12"/>
+      <c r="Y278" s="12"/>
     </row>
     <row r="279" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A279" s="13" t="s">
@@ -29973,7 +30370,7 @@
     </row>
     <row r="284" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="286" spans="1:96" x14ac:dyDescent="0.2">
@@ -29983,7 +30380,7 @@
     </row>
     <row r="287" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="288" spans="1:96" x14ac:dyDescent="0.2">
@@ -30018,6 +30415,7 @@
       <c r="V290" s="15"/>
       <c r="W290" s="15"/>
       <c r="X290" s="15"/>
+      <c r="Y290" s="15"/>
     </row>
     <row r="291" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
@@ -30091,6 +30489,9 @@
       </c>
       <c r="X291" s="16">
         <v>2022</v>
+      </c>
+      <c r="Y291" s="16">
+        <v>2023</v>
       </c>
     </row>
     <row r="292" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -30169,7 +30570,9 @@
       <c r="X293" s="17">
         <v>19.913175507686017</v>
       </c>
-      <c r="Y293" s="9"/>
+      <c r="Y293" s="17">
+        <v>18.246226456917192</v>
+      </c>
       <c r="Z293" s="9"/>
       <c r="AA293" s="9"/>
       <c r="AB293" s="9"/>
@@ -30315,7 +30718,9 @@
       <c r="X294" s="17">
         <v>11.007503575819895</v>
       </c>
-      <c r="Y294" s="9"/>
+      <c r="Y294" s="17">
+        <v>10.002591604900985</v>
+      </c>
       <c r="Z294" s="9"/>
       <c r="AA294" s="9"/>
       <c r="AB294" s="9"/>
@@ -30461,7 +30866,9 @@
       <c r="X295" s="17">
         <v>3.8164045393955783</v>
       </c>
-      <c r="Y295" s="9"/>
+      <c r="Y295" s="17">
+        <v>2.8769862332544109</v>
+      </c>
       <c r="Z295" s="9"/>
       <c r="AA295" s="9"/>
       <c r="AB295" s="9"/>
@@ -30607,7 +31014,9 @@
       <c r="X296" s="17">
         <v>0.15772412736561481</v>
       </c>
-      <c r="Y296" s="9"/>
+      <c r="Y296" s="17">
+        <v>0.21937234213977777</v>
+      </c>
       <c r="Z296" s="9"/>
       <c r="AA296" s="9"/>
       <c r="AB296" s="9"/>
@@ -30753,7 +31162,9 @@
       <c r="X297" s="17">
         <v>1.0408126103379463</v>
       </c>
-      <c r="Y297" s="9"/>
+      <c r="Y297" s="17">
+        <v>0.96457841052965221</v>
+      </c>
       <c r="Z297" s="9"/>
       <c r="AA297" s="9"/>
       <c r="AB297" s="9"/>
@@ -30899,7 +31310,9 @@
       <c r="X298" s="17">
         <v>1.4333794698578555</v>
       </c>
-      <c r="Y298" s="9"/>
+      <c r="Y298" s="17">
+        <v>1.3382318510957785</v>
+      </c>
       <c r="Z298" s="9"/>
       <c r="AA298" s="9"/>
       <c r="AB298" s="9"/>
@@ -31045,7 +31458,9 @@
       <c r="X299" s="17">
         <v>1.35380333551844</v>
       </c>
-      <c r="Y299" s="9"/>
+      <c r="Y299" s="17">
+        <v>1.5701366370043719</v>
+      </c>
       <c r="Z299" s="9"/>
       <c r="AA299" s="9"/>
       <c r="AB299" s="9"/>
@@ -31191,7 +31606,9 @@
       <c r="X300" s="17">
         <v>0.84843934761559303</v>
       </c>
-      <c r="Y300" s="9"/>
+      <c r="Y300" s="17">
+        <v>0.9541187441291803</v>
+      </c>
       <c r="Z300" s="9"/>
       <c r="AA300" s="9"/>
       <c r="AB300" s="9"/>
@@ -31337,7 +31754,9 @@
       <c r="X301" s="17">
         <v>0.21123671544143993</v>
       </c>
-      <c r="Y301" s="9"/>
+      <c r="Y301" s="17">
+        <v>0.26587708480140454</v>
+      </c>
       <c r="Z301" s="9"/>
       <c r="AA301" s="9"/>
       <c r="AB301" s="9"/>
@@ -31483,7 +31902,9 @@
       <c r="X302" s="17">
         <v>4.3871786333656786E-2</v>
       </c>
-      <c r="Y302" s="9"/>
+      <c r="Y302" s="17">
+        <v>5.4333549061628975E-2</v>
+      </c>
       <c r="Z302" s="9"/>
       <c r="AA302" s="9"/>
       <c r="AB302" s="9"/>
@@ -31629,7 +32050,9 @@
       <c r="X303" s="17">
         <v>15.996310052389354</v>
       </c>
-      <c r="Y303" s="9"/>
+      <c r="Y303" s="17">
+        <v>15.803045724702027</v>
+      </c>
       <c r="Z303" s="9"/>
       <c r="AA303" s="9"/>
       <c r="AB303" s="9"/>
@@ -31775,7 +32198,9 @@
       <c r="X304" s="17">
         <v>5.0543464809241678</v>
       </c>
-      <c r="Y304" s="9"/>
+      <c r="Y304" s="17">
+        <v>4.811461314038679</v>
+      </c>
       <c r="Z304" s="9"/>
       <c r="AA304" s="9"/>
       <c r="AB304" s="9"/>
@@ -31921,7 +32346,9 @@
       <c r="X305" s="17">
         <v>0.91678538876862581</v>
       </c>
-      <c r="Y305" s="9"/>
+      <c r="Y305" s="17">
+        <v>1.1704557746564466</v>
+      </c>
       <c r="Z305" s="9"/>
       <c r="AA305" s="9"/>
       <c r="AB305" s="9"/>
@@ -32067,7 +32494,9 @@
       <c r="X306" s="17">
         <v>4.4894955185358487</v>
       </c>
-      <c r="Y306" s="9"/>
+      <c r="Y306" s="17">
+        <v>4.6007008656812944</v>
+      </c>
       <c r="Z306" s="9"/>
       <c r="AA306" s="9"/>
       <c r="AB306" s="9"/>
@@ -32213,7 +32642,9 @@
       <c r="X307" s="17">
         <v>9.6533207671457752</v>
       </c>
-      <c r="Y307" s="9"/>
+      <c r="Y307" s="17">
+        <v>10.45492301700499</v>
+      </c>
       <c r="Z307" s="9"/>
       <c r="AA307" s="9"/>
       <c r="AB307" s="9"/>
@@ -32359,7 +32790,9 @@
       <c r="X308" s="17">
         <v>1.1819763212329439</v>
       </c>
-      <c r="Y308" s="9"/>
+      <c r="Y308" s="17">
+        <v>1.1694415976550319</v>
+      </c>
       <c r="Z308" s="9"/>
       <c r="AA308" s="9"/>
       <c r="AB308" s="9"/>
@@ -32505,7 +32938,9 @@
       <c r="X309" s="17">
         <v>2.7226072704996418</v>
       </c>
-      <c r="Y309" s="9"/>
+      <c r="Y309" s="17">
+        <v>2.775251726405358</v>
+      </c>
       <c r="Z309" s="9"/>
       <c r="AA309" s="9"/>
       <c r="AB309" s="9"/>
@@ -32651,7 +33086,9 @@
       <c r="X310" s="17">
         <v>4.7728547682712437</v>
       </c>
-      <c r="Y310" s="9"/>
+      <c r="Y310" s="17">
+        <v>4.6811110180155593</v>
+      </c>
       <c r="Z310" s="9"/>
       <c r="AA310" s="9"/>
       <c r="AB310" s="9"/>
@@ -32797,7 +33234,9 @@
       <c r="X311" s="17">
         <v>2.2696712489322932</v>
       </c>
-      <c r="Y311" s="9"/>
+      <c r="Y311" s="17">
+        <v>2.2028201667903402</v>
+      </c>
       <c r="Z311" s="9"/>
       <c r="AA311" s="9"/>
       <c r="AB311" s="9"/>
@@ -32943,7 +33382,9 @@
       <c r="X312" s="17">
         <v>1.0970920684594045</v>
       </c>
-      <c r="Y312" s="9"/>
+      <c r="Y312" s="17">
+        <v>0.83956088472115675</v>
+      </c>
       <c r="Z312" s="9"/>
       <c r="AA312" s="9"/>
       <c r="AB312" s="9"/>
@@ -33089,7 +33530,9 @@
       <c r="X313" s="17">
         <v>2.6505050282597074</v>
       </c>
-      <c r="Y313" s="9"/>
+      <c r="Y313" s="17">
+        <v>2.6105661871358299</v>
+      </c>
       <c r="Z313" s="9"/>
       <c r="AA313" s="9"/>
       <c r="AB313" s="9"/>
@@ -33235,7 +33678,9 @@
       <c r="X314" s="17">
         <v>0.95077028876981684</v>
       </c>
-      <c r="Y314" s="9"/>
+      <c r="Y314" s="17">
+        <v>1.0461835467542735</v>
+      </c>
       <c r="Z314" s="9"/>
       <c r="AA314" s="9"/>
       <c r="AB314" s="9"/>
@@ -33381,7 +33826,9 @@
       <c r="X315" s="17">
         <v>1.1073927143068671</v>
       </c>
-      <c r="Y315" s="9"/>
+      <c r="Y315" s="17">
+        <v>1.1323760248667862</v>
+      </c>
       <c r="Z315" s="9"/>
       <c r="AA315" s="9"/>
       <c r="AB315" s="9"/>
@@ -33527,7 +33974,9 @@
       <c r="X316" s="17">
         <v>0.4957345211453193</v>
       </c>
-      <c r="Y316" s="9"/>
+      <c r="Y316" s="17">
+        <v>0.98427612899949968</v>
+      </c>
       <c r="Z316" s="9"/>
       <c r="AA316" s="9"/>
       <c r="AB316" s="9"/>
@@ -33673,7 +34122,9 @@
       <c r="X317" s="17">
         <v>1.5525884917815582</v>
       </c>
-      <c r="Y317" s="9"/>
+      <c r="Y317" s="17">
+        <v>1.8251887208927058</v>
+      </c>
       <c r="Z317" s="9"/>
       <c r="AA317" s="9"/>
       <c r="AB317" s="9"/>
@@ -33819,7 +34270,9 @@
       <c r="X318" s="17">
         <v>2.3363050957765394</v>
       </c>
-      <c r="Y318" s="9"/>
+      <c r="Y318" s="17">
+        <v>2.3383877837788956</v>
+      </c>
       <c r="Z318" s="9"/>
       <c r="AA318" s="9"/>
       <c r="AB318" s="9"/>
@@ -33965,7 +34418,9 @@
       <c r="X319" s="17">
         <v>0.96275542123696789</v>
       </c>
-      <c r="Y319" s="9"/>
+      <c r="Y319" s="17">
+        <v>1.0013725612078135</v>
+      </c>
       <c r="Z319" s="9"/>
       <c r="AA319" s="9"/>
       <c r="AB319" s="9"/>
@@ -34111,7 +34566,9 @@
       <c r="X320" s="17">
         <v>1.3483165021415551</v>
       </c>
-      <c r="Y320" s="9"/>
+      <c r="Y320" s="17">
+        <v>1.3793186435349725</v>
+      </c>
       <c r="Z320" s="9"/>
       <c r="AA320" s="9"/>
       <c r="AB320" s="9"/>
@@ -34257,7 +34714,9 @@
       <c r="X321" s="17">
         <v>0.57255543038217771</v>
       </c>
-      <c r="Y321" s="9"/>
+      <c r="Y321" s="17">
+        <v>1.0250584077875236</v>
+      </c>
       <c r="Z321" s="9"/>
       <c r="AA321" s="9"/>
       <c r="AB321" s="9"/>
@@ -34403,7 +34862,9 @@
       <c r="X322" s="17">
         <v>19.955441113354176</v>
       </c>
-      <c r="Y322" s="9"/>
+      <c r="Y322" s="17">
+        <v>19.902273448453638</v>
+      </c>
       <c r="Z322" s="9"/>
       <c r="AA322" s="9"/>
       <c r="AB322" s="9"/>
@@ -34646,7 +35107,9 @@
       <c r="X324" s="17">
         <v>100</v>
       </c>
-      <c r="Y324" s="9"/>
+      <c r="Y324" s="17">
+        <v>100</v>
+      </c>
       <c r="Z324" s="9"/>
       <c r="AA324" s="9"/>
       <c r="AB324" s="9"/>
@@ -34744,6 +35207,7 @@
       <c r="V325" s="12"/>
       <c r="W325" s="12"/>
       <c r="X325" s="12"/>
+      <c r="Y325" s="12"/>
     </row>
     <row r="326" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A326" s="13" t="s">

--- a/Data/National Accounts/PSA-06IOG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-06IOG_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240123C6-F884-40E7-9132-FB56E198606F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5FCB97-C17C-45F6-BC74-182542C502AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOG" sheetId="1" r:id="rId1"/>
@@ -278,13 +278,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of January 2024</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2023</t>
   </si>
   <si>
     <t>Annual 2001 to 2023</t>
+  </si>
+  <si>
+    <t>As of April 2024</t>
   </si>
 </sst>
 </file>
@@ -707,50 +707,50 @@
   <dimension ref="A1:CR326"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="P65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" style="1" customWidth="1"/>
-    <col min="2" max="25" width="10.44140625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.77734375" style="1"/>
+    <col min="1" max="1" width="45.453125" style="1" customWidth="1"/>
+    <col min="2" max="25" width="10.453125" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>33</v>
@@ -779,7 +779,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -856,10 +856,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -930,10 +930,10 @@
         <v>1202811.1859813952</v>
       </c>
       <c r="X12" s="8">
-        <v>1324559.1638179447</v>
+        <v>1324871.0454194602</v>
       </c>
       <c r="Y12" s="8">
-        <v>1196668.4704254989</v>
+        <v>1201246.8423382374</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -1007,7 +1007,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>30</v>
       </c>
@@ -1078,10 +1078,10 @@
         <v>609515.22402573703</v>
       </c>
       <c r="X13" s="11">
-        <v>737314.77661002497</v>
+        <v>737626.6094041029</v>
       </c>
       <c r="Y13" s="11">
-        <v>646480.06450792879</v>
+        <v>649888.23050803249</v>
       </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -1155,7 +1155,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>242995.83725267788</v>
       </c>
       <c r="Y14" s="11">
-        <v>179789.90953884184</v>
+        <v>180668.09211822588</v>
       </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -1303,7 +1303,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>12003.682305182336</v>
       </c>
       <c r="Y15" s="11">
-        <v>14631.537819381074</v>
+        <v>14645.851081385646</v>
       </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -1451,7 +1451,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>70734.789578032825</v>
       </c>
       <c r="Y16" s="11">
-        <v>69303.223071381391</v>
+        <v>69473.644458333772</v>
       </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -1599,7 +1599,7 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>100363.19105208336</v>
       </c>
       <c r="Y17" s="11">
-        <v>92251.596552083458</v>
+        <v>92354.5676057237</v>
       </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -1747,7 +1747,7 @@
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
     </row>
-    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>25</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>85009.437033792739</v>
       </c>
       <c r="Y18" s="11">
-        <v>102584.64152526639</v>
+        <v>102583.73488821456</v>
       </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -1895,7 +1895,7 @@
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
     </row>
-    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1966,10 +1966,10 @@
         <v>48229.774898565141</v>
       </c>
       <c r="X19" s="11">
-        <v>58722.640396005656</v>
+        <v>58722.689203443231</v>
       </c>
       <c r="Y19" s="11">
-        <v>69836.508953613622</v>
+        <v>69839.930572494777</v>
       </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -2043,7 +2043,7 @@
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
     </row>
-    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>23</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>14365.064193574577</v>
       </c>
       <c r="Y20" s="11">
-        <v>17875.379717762371</v>
+        <v>17876.355608203779</v>
       </c>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
@@ -2191,7 +2191,7 @@
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
     </row>
-    <row r="21" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>3049.7453965702357</v>
       </c>
       <c r="Y21" s="11">
-        <v>3915.6087392398313</v>
+        <v>3916.4354976229015</v>
       </c>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
@@ -2339,7 +2339,7 @@
       <c r="CQ21" s="9"/>
       <c r="CR21" s="9"/>
     </row>
-    <row r="22" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>1619739.5526388921</v>
       </c>
       <c r="Y22" s="11">
-        <v>1428483.4264980962</v>
+        <v>1433415.7538270983</v>
       </c>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
@@ -2487,7 +2487,7 @@
       <c r="CQ22" s="9"/>
       <c r="CR22" s="9"/>
     </row>
-    <row r="23" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2558,10 +2558,10 @@
         <v>321083.20208234555</v>
       </c>
       <c r="X23" s="11">
-        <v>359879.41295768775</v>
+        <v>359879.95989385626</v>
       </c>
       <c r="Y23" s="11">
-        <v>353142.57779877528</v>
+        <v>353670.46513613086</v>
       </c>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
@@ -2635,7 +2635,7 @@
       <c r="CQ23" s="9"/>
       <c r="CR23" s="9"/>
     </row>
-    <row r="24" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>68626.612798943359</v>
       </c>
       <c r="Y24" s="11">
-        <v>89087.606034928351</v>
+        <v>89130.575922980119</v>
       </c>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
@@ -2783,7 +2783,7 @@
       <c r="CQ24" s="9"/>
       <c r="CR24" s="9"/>
     </row>
-    <row r="25" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -2854,10 +2854,10 @@
         <v>380362.37371469894</v>
       </c>
       <c r="X25" s="11">
-        <v>428387.84022012923</v>
+        <v>428397.36679647036</v>
       </c>
       <c r="Y25" s="11">
-        <v>396895.9208994807</v>
+        <v>397432.07768558152</v>
       </c>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
@@ -2931,7 +2931,7 @@
       <c r="CQ25" s="9"/>
       <c r="CR25" s="9"/>
     </row>
-    <row r="26" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -3002,10 +3002,10 @@
         <v>472391.77512076893</v>
       </c>
       <c r="X26" s="11">
-        <v>686003.09391693794</v>
+        <v>686003.23441489972</v>
       </c>
       <c r="Y26" s="11">
-        <v>794405.97320378432</v>
+        <v>796370.53956461279</v>
       </c>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
@@ -3079,7 +3079,7 @@
       <c r="CQ26" s="9"/>
       <c r="CR26" s="9"/>
     </row>
-    <row r="27" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -3150,10 +3150,10 @@
         <v>69511.245699516236</v>
       </c>
       <c r="X27" s="11">
-        <v>76800.040814875974</v>
+        <v>76787.305292365389</v>
       </c>
       <c r="Y27" s="11">
-        <v>75041.959004556571</v>
+        <v>75087.532118645875</v>
       </c>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
@@ -3227,7 +3227,7 @@
       <c r="CQ27" s="9"/>
       <c r="CR27" s="9"/>
     </row>
-    <row r="28" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -3298,10 +3298,10 @@
         <v>169853.10000243163</v>
       </c>
       <c r="X28" s="11">
-        <v>202366.0596151893</v>
+        <v>202665.92411579727</v>
       </c>
       <c r="Y28" s="11">
-        <v>210535.13940079263</v>
+        <v>210890.36576988074</v>
       </c>
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
@@ -3375,7 +3375,7 @@
       <c r="CQ28" s="9"/>
       <c r="CR28" s="9"/>
     </row>
-    <row r="29" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -3446,10 +3446,10 @@
         <v>312842.63590964186</v>
       </c>
       <c r="X29" s="11">
-        <v>376676.20497392531</v>
+        <v>376474.93365068338</v>
       </c>
       <c r="Y29" s="11">
-        <v>341011.90305740631</v>
+        <v>340920.55144926533</v>
       </c>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
@@ -3523,7 +3523,7 @@
       <c r="CQ29" s="9"/>
       <c r="CR29" s="9"/>
     </row>
-    <row r="30" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>237523.96905959462</v>
       </c>
       <c r="Y30" s="11">
-        <v>243408.01582858097</v>
+        <v>243416.30362843978</v>
       </c>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
@@ -3671,7 +3671,7 @@
       <c r="CQ30" s="9"/>
       <c r="CR30" s="9"/>
     </row>
-    <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>97400.026510864423</v>
       </c>
       <c r="Y31" s="11">
-        <v>80142.170337292831</v>
+        <v>80146.545141646435</v>
       </c>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
@@ -3819,7 +3819,7 @@
       <c r="CQ31" s="9"/>
       <c r="CR31" s="9"/>
     </row>
-    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>195912.17611773385</v>
       </c>
       <c r="Y32" s="11">
-        <v>188179.80548272675</v>
+        <v>188200.81741650059</v>
       </c>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
@@ -3967,7 +3967,7 @@
       <c r="CQ32" s="9"/>
       <c r="CR32" s="9"/>
     </row>
-    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>81372.095626778682</v>
       </c>
       <c r="Y33" s="11">
-        <v>81106.540684620559</v>
+        <v>81091.489015745319</v>
       </c>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
@@ -4115,7 +4115,7 @@
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
     </row>
-    <row r="34" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>129152.75735388199</v>
       </c>
       <c r="Y34" s="11">
-        <v>119274.8441055416</v>
+        <v>119351.59293524179</v>
       </c>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
@@ -4263,7 +4263,7 @@
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
     </row>
-    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -4334,10 +4334,10 @@
         <v>22084.133270475992</v>
       </c>
       <c r="X35" s="11">
-        <v>60342.79745842432</v>
+        <v>60436.607435418671</v>
       </c>
       <c r="Y35" s="11">
-        <v>89609.241500560747</v>
+        <v>90049.584841319767</v>
       </c>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
@@ -4411,7 +4411,7 @@
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
     </row>
-    <row r="36" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -4482,10 +4482,10 @@
         <v>121465.34547615417</v>
       </c>
       <c r="X36" s="11">
-        <v>136564.30093476753</v>
+        <v>136564.89751336636</v>
       </c>
       <c r="Y36" s="11">
-        <v>146538.01375019192</v>
+        <v>146557.92867908609</v>
       </c>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
@@ -4559,7 +4559,7 @@
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
     </row>
-    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -4630,10 +4630,10 @@
         <v>156148.77920875396</v>
       </c>
       <c r="X37" s="11">
-        <v>182569.46827984514</v>
+        <v>182569.52903877816</v>
       </c>
       <c r="Y37" s="11">
-        <v>158660.16618350381</v>
+        <v>158429.06497300428</v>
       </c>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
@@ -4707,7 +4707,7 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>78771.821899057642</v>
       </c>
       <c r="Y38" s="11">
-        <v>88713.675091701705</v>
+        <v>88767.247520943449</v>
       </c>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
@@ -4855,7 +4855,7 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -4926,10 +4926,10 @@
         <v>68732.853633870473</v>
       </c>
       <c r="X39" s="11">
-        <v>88478.20538220556</v>
+        <v>88478.455442582796</v>
       </c>
       <c r="Y39" s="11">
-        <v>88847.55072832547</v>
+        <v>88732.405267489405</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
@@ -5003,7 +5003,7 @@
       <c r="CQ39" s="9"/>
       <c r="CR39" s="9"/>
     </row>
-    <row r="40" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5074,10 +5074,10 @@
         <v>27329.501945227188</v>
       </c>
       <c r="X40" s="11">
-        <v>44303.245515479561</v>
+        <v>44295.833679255789</v>
       </c>
       <c r="Y40" s="11">
-        <v>50356.640304107917</v>
+        <v>50407.379506891899</v>
       </c>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
@@ -5151,7 +5151,7 @@
       <c r="CQ40" s="9"/>
       <c r="CR40" s="9"/>
     </row>
-    <row r="41" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
@@ -5222,10 +5222,10 @@
         <v>1387888.8154571494</v>
       </c>
       <c r="X41" s="11">
-        <v>1714772.7406641417</v>
+        <v>1721175.2962342147</v>
       </c>
       <c r="Y41" s="11">
-        <v>1685409.4340524487</v>
+        <v>1689287.7746100081</v>
       </c>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
@@ -5299,7 +5299,7 @@
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
     </row>
-    <row r="42" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -5396,7 +5396,7 @@
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
     </row>
-    <row r="43" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -5467,10 +5467,10 @@
         <v>6296809.2296851343</v>
       </c>
       <c r="X43" s="8">
-        <v>8190201.5865573008</v>
+        <v>8197099.4009328969</v>
       </c>
       <c r="Y43" s="8">
-        <v>7905519.0743729221</v>
+        <v>7922602.837348748</v>
       </c>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
@@ -5544,7 +5544,7 @@
       <c r="CQ43" s="9"/>
       <c r="CR43" s="9"/>
     </row>
-    <row r="44" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -5571,12 +5571,12 @@
       <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
@@ -5673,7 +5673,7 @@
       <c r="CQ46" s="9"/>
       <c r="CR46" s="9"/>
     </row>
-    <row r="47" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -5770,37 +5770,37 @@
       <c r="CQ47" s="9"/>
       <c r="CR47" s="9"/>
     </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="15" t="s">
         <v>33</v>
@@ -5829,7 +5829,7 @@
       <c r="X56" s="15"/>
       <c r="Y56" s="15"/>
     </row>
-    <row r="57" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>32</v>
       </c>
@@ -5906,10 +5906,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="58" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>31</v>
       </c>
@@ -5980,10 +5980,10 @@
         <v>1270775.875725962</v>
       </c>
       <c r="X59" s="8">
-        <v>1281184.4014391382</v>
+        <v>1281525.9994908762</v>
       </c>
       <c r="Y59" s="8">
-        <v>1128252.8241488666</v>
+        <v>1125454.7119099684</v>
       </c>
       <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
@@ -6057,7 +6057,7 @@
       <c r="CQ59" s="9"/>
       <c r="CR59" s="9"/>
     </row>
-    <row r="60" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>30</v>
       </c>
@@ -6128,10 +6128,10 @@
         <v>628768.1039648829</v>
       </c>
       <c r="X60" s="11">
-        <v>708206.57783499663</v>
+        <v>708548.14687789127</v>
       </c>
       <c r="Y60" s="11">
-        <v>618508.83269942843</v>
+        <v>616338.26059996407</v>
       </c>
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
@@ -6205,7 +6205,7 @@
       <c r="CQ60" s="9"/>
       <c r="CR60" s="9"/>
     </row>
-    <row r="61" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>29</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>245541.85059876039</v>
       </c>
       <c r="Y61" s="11">
-        <v>177898.03554017298</v>
+        <v>177182.3661201314</v>
       </c>
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
@@ -6353,7 +6353,7 @@
       <c r="CQ61" s="9"/>
       <c r="CR61" s="9"/>
     </row>
-    <row r="62" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>28</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>10147.738196423265</v>
       </c>
       <c r="Y62" s="11">
-        <v>13564.85765118436</v>
+        <v>13570.897146418476</v>
       </c>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
@@ -6501,7 +6501,7 @@
       <c r="CQ62" s="9"/>
       <c r="CR62" s="9"/>
     </row>
-    <row r="63" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>27</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>66964.351349760342</v>
       </c>
       <c r="Y63" s="11">
-        <v>59644.569158601669</v>
+        <v>59814.016832506779</v>
       </c>
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
@@ -6649,7 +6649,7 @@
       <c r="CQ63" s="9"/>
       <c r="CR63" s="9"/>
     </row>
-    <row r="64" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>26</v>
       </c>
@@ -6720,10 +6720,10 @@
         <v>98876.356340559709</v>
       </c>
       <c r="X64" s="11">
-        <v>92221.525261813193</v>
+        <v>92221.525261813207</v>
       </c>
       <c r="Y64" s="11">
-        <v>82749.376641238836</v>
+        <v>82664.102104325313</v>
       </c>
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
@@ -6797,7 +6797,7 @@
       <c r="CQ64" s="9"/>
       <c r="CR64" s="9"/>
     </row>
-    <row r="65" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>25</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>87101.713908614736</v>
       </c>
       <c r="Y65" s="11">
-        <v>97089.176174737324</v>
+        <v>97088.032305060362</v>
       </c>
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
@@ -6945,7 +6945,7 @@
       <c r="CQ65" s="9"/>
       <c r="CR65" s="9"/>
     </row>
-    <row r="66" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>24</v>
       </c>
@@ -7016,10 +7016,10 @@
         <v>48579.30940639443</v>
       </c>
       <c r="X66" s="11">
-        <v>54587.338785455751</v>
+        <v>54587.367794298938</v>
       </c>
       <c r="Y66" s="11">
-        <v>58997.797170768885</v>
+        <v>58996.079450188787</v>
       </c>
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
@@ -7093,7 +7093,7 @@
       <c r="CQ66" s="9"/>
       <c r="CR66" s="9"/>
     </row>
-    <row r="67" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>23</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>13590.659346639752</v>
       </c>
       <c r="Y67" s="11">
-        <v>16440.471815471217</v>
+        <v>16441.014728425856</v>
       </c>
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
@@ -7241,7 +7241,7 @@
       <c r="CQ67" s="9"/>
       <c r="CR67" s="9"/>
     </row>
-    <row r="68" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>22</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>2822.6461566743551</v>
       </c>
       <c r="Y68" s="11">
-        <v>3359.7072972627798</v>
+        <v>3359.9426229472074</v>
       </c>
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
@@ -7389,7 +7389,7 @@
       <c r="CQ68" s="9"/>
       <c r="CR68" s="9"/>
     </row>
-    <row r="69" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>1029179.0433823594</v>
       </c>
       <c r="Y69" s="11">
-        <v>977179.09021618008</v>
+        <v>957166.68378763576</v>
       </c>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
@@ -7537,7 +7537,7 @@
       <c r="CQ69" s="9"/>
       <c r="CR69" s="9"/>
     </row>
-    <row r="70" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>20</v>
       </c>
@@ -7608,10 +7608,10 @@
         <v>329390.96600148047</v>
       </c>
       <c r="X70" s="11">
-        <v>325189.21295749315</v>
+        <v>325189.71549602068</v>
       </c>
       <c r="Y70" s="11">
-        <v>297516.02769290307</v>
+        <v>297950.93489431543</v>
       </c>
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
@@ -7685,7 +7685,7 @@
       <c r="CQ70" s="9"/>
       <c r="CR70" s="9"/>
     </row>
-    <row r="71" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>19</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>58984.622472911098</v>
       </c>
       <c r="Y71" s="11">
-        <v>72374.966759050265</v>
+        <v>72404.880570163281</v>
       </c>
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
@@ -7833,7 +7833,7 @@
       <c r="CQ71" s="9"/>
       <c r="CR71" s="9"/>
     </row>
-    <row r="72" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>18</v>
       </c>
@@ -7904,10 +7904,10 @@
         <v>280311.71857240819</v>
       </c>
       <c r="X72" s="11">
-        <v>288847.53345637704</v>
+        <v>288888.51451534795</v>
       </c>
       <c r="Y72" s="11">
-        <v>284483.68527187867</v>
+        <v>284932.72699243471</v>
       </c>
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
@@ -7981,7 +7981,7 @@
       <c r="CQ72" s="9"/>
       <c r="CR72" s="9"/>
     </row>
-    <row r="73" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>17</v>
       </c>
@@ -8052,10 +8052,10 @@
         <v>469729.01665389707</v>
       </c>
       <c r="X73" s="11">
-        <v>621080.44918210199</v>
+        <v>621080.61693123844</v>
       </c>
       <c r="Y73" s="11">
-        <v>646478.68138910737</v>
+        <v>642735.23853668745</v>
       </c>
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
@@ -8129,7 +8129,7 @@
       <c r="CQ73" s="9"/>
       <c r="CR73" s="9"/>
     </row>
-    <row r="74" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>16</v>
       </c>
@@ -8200,10 +8200,10 @@
         <v>79091.812170718666</v>
       </c>
       <c r="X74" s="11">
-        <v>76046.616726175504</v>
+        <v>76033.126547751977</v>
       </c>
       <c r="Y74" s="11">
-        <v>72312.255268061446</v>
+        <v>72355.321969068638</v>
       </c>
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
@@ -8277,7 +8277,7 @@
       <c r="CQ74" s="9"/>
       <c r="CR74" s="9"/>
     </row>
-    <row r="75" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>15</v>
       </c>
@@ -8348,10 +8348,10 @@
         <v>170220.16891027364</v>
       </c>
       <c r="X75" s="11">
-        <v>175168.54430688772</v>
+        <v>175466.49187958625</v>
       </c>
       <c r="Y75" s="11">
-        <v>171607.29674347665</v>
+        <v>171943.94464017038</v>
       </c>
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
@@ -8425,7 +8425,7 @@
       <c r="CQ75" s="9"/>
       <c r="CR75" s="9"/>
     </row>
-    <row r="76" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>14</v>
       </c>
@@ -8496,10 +8496,10 @@
         <v>297908.64362719795</v>
       </c>
       <c r="X76" s="11">
-        <v>307078.45050043979</v>
+        <v>306911.06412373815</v>
       </c>
       <c r="Y76" s="11">
-        <v>289455.83563269925</v>
+        <v>289378.89956695522</v>
       </c>
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
@@ -8573,7 +8573,7 @@
       <c r="CQ76" s="9"/>
       <c r="CR76" s="9"/>
     </row>
-    <row r="77" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>146027.3073676558</v>
       </c>
       <c r="Y77" s="11">
-        <v>136211.07247252652</v>
+        <v>136215.54893583036</v>
       </c>
       <c r="Z77" s="9"/>
       <c r="AA77" s="9"/>
@@ -8721,7 +8721,7 @@
       <c r="CQ77" s="9"/>
       <c r="CR77" s="9"/>
     </row>
-    <row r="78" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>70585.288846084266</v>
       </c>
       <c r="Y78" s="11">
-        <v>51914.128187993963</v>
+        <v>51916.905454408698</v>
       </c>
       <c r="Z78" s="9"/>
       <c r="AA78" s="9"/>
@@ -8869,7 +8869,7 @@
       <c r="CQ78" s="9"/>
       <c r="CR78" s="9"/>
     </row>
-    <row r="79" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>170529.59217035203</v>
       </c>
       <c r="Y79" s="11">
-        <v>161423.98978869067</v>
+        <v>161441.96557933991</v>
       </c>
       <c r="Z79" s="9"/>
       <c r="AA79" s="9"/>
@@ -9017,7 +9017,7 @@
       <c r="CQ79" s="9"/>
       <c r="CR79" s="9"/>
     </row>
-    <row r="80" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>10</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>61171.160915721943</v>
       </c>
       <c r="Y80" s="11">
-        <v>64690.611178735504</v>
+        <v>64683.060033550959</v>
       </c>
       <c r="Z80" s="9"/>
       <c r="AA80" s="9"/>
@@ -9165,7 +9165,7 @@
       <c r="CQ80" s="9"/>
       <c r="CR80" s="9"/>
     </row>
-    <row r="81" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>71248.017238119195</v>
       </c>
       <c r="Y81" s="11">
-        <v>70020.310833644995</v>
+        <v>70068.961976601087</v>
       </c>
       <c r="Z81" s="9"/>
       <c r="AA81" s="9"/>
@@ -9313,7 +9313,7 @@
       <c r="CQ81" s="9"/>
       <c r="CR81" s="9"/>
     </row>
-    <row r="82" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -9384,10 +9384,10 @@
         <v>15951.883368607861</v>
       </c>
       <c r="X82" s="11">
-        <v>31894.829405844361</v>
+        <v>32031.862592322675</v>
       </c>
       <c r="Y82" s="11">
-        <v>60862.574785429213</v>
+        <v>61581.65012195726</v>
       </c>
       <c r="Z82" s="9"/>
       <c r="AA82" s="9"/>
@@ -9461,7 +9461,7 @@
       <c r="CQ82" s="9"/>
       <c r="CR82" s="9"/>
     </row>
-    <row r="83" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
@@ -9532,10 +9532,10 @@
         <v>95405.679647454439</v>
       </c>
       <c r="X83" s="11">
-        <v>99891.258265497847</v>
+        <v>99891.771150397253</v>
       </c>
       <c r="Y83" s="11">
-        <v>112860.28559462368</v>
+        <v>112826.6471724077</v>
       </c>
       <c r="Z83" s="9"/>
       <c r="AA83" s="9"/>
@@ -9609,7 +9609,7 @@
       <c r="CQ83" s="9"/>
       <c r="CR83" s="9"/>
     </row>
-    <row r="84" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -9680,10 +9680,10 @@
         <v>127111.31453077507</v>
       </c>
       <c r="X84" s="11">
-        <v>150314.43099350753</v>
+        <v>150314.48535926288</v>
       </c>
       <c r="Y84" s="11">
-        <v>144593.87683438318</v>
+        <v>144355.0117572872</v>
       </c>
       <c r="Z84" s="9"/>
       <c r="AA84" s="9"/>
@@ -9757,7 +9757,7 @@
       <c r="CQ84" s="9"/>
       <c r="CR84" s="9"/>
     </row>
-    <row r="85" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>5</v>
       </c>
@@ -9828,10 +9828,10 @@
         <v>70829.22771101087</v>
       </c>
       <c r="X85" s="11">
-        <v>61942.266697427578</v>
+        <v>61942.266697427585</v>
       </c>
       <c r="Y85" s="11">
-        <v>61919.73024535102</v>
+        <v>61953.902748374567</v>
       </c>
       <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
@@ -9905,7 +9905,7 @@
       <c r="CQ85" s="9"/>
       <c r="CR85" s="9"/>
     </row>
-    <row r="86" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>4</v>
       </c>
@@ -9976,10 +9976,10 @@
         <v>75492.27166652013</v>
       </c>
       <c r="X86" s="11">
-        <v>86748.699125359926</v>
+        <v>86748.960012546871</v>
       </c>
       <c r="Y86" s="11">
-        <v>85289.972622232221</v>
+        <v>85192.570735247806</v>
       </c>
       <c r="Z86" s="9"/>
       <c r="AA86" s="9"/>
@@ -10053,7 +10053,7 @@
       <c r="CQ86" s="9"/>
       <c r="CR86" s="9"/>
     </row>
-    <row r="87" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
@@ -10124,10 +10124,10 @@
         <v>27275.18272107239</v>
       </c>
       <c r="X87" s="11">
-        <v>36837.373631432405</v>
+        <v>36831.777010236823</v>
       </c>
       <c r="Y87" s="11">
-        <v>63384.34120800755</v>
+        <v>63436.819824848135</v>
       </c>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
@@ -10201,7 +10201,7 @@
       <c r="CQ87" s="9"/>
       <c r="CR87" s="9"/>
     </row>
-    <row r="88" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
@@ -10272,10 +10272,10 @@
         <v>1201506.6717858484</v>
       </c>
       <c r="X88" s="11">
-        <v>1283903.7082959739</v>
+        <v>1291703.1245853622</v>
       </c>
       <c r="Y88" s="11">
-        <v>1230654.2549069454</v>
+        <v>1219063.9937238765</v>
       </c>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
@@ -10349,7 +10349,7 @@
       <c r="CQ88" s="9"/>
       <c r="CR88" s="9"/>
     </row>
-    <row r="89" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -10446,7 +10446,7 @@
       <c r="CQ89" s="9"/>
       <c r="CR89" s="9"/>
     </row>
-    <row r="90" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>1</v>
       </c>
@@ -10517,10 +10517,10 @@
         <v>5923051.0510839028</v>
       </c>
       <c r="X90" s="8">
-        <v>6433852.8073768606</v>
+        <v>6442284.8087853193</v>
       </c>
       <c r="Y90" s="8">
-        <v>6183485.8117807861</v>
+        <v>6147060.3809311297</v>
       </c>
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
@@ -10594,7 +10594,7 @@
       <c r="CQ90" s="9"/>
       <c r="CR90" s="9"/>
     </row>
-    <row r="91" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -10621,12 +10621,12 @@
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
     </row>
-    <row r="92" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -10723,7 +10723,7 @@
       <c r="CQ93" s="9"/>
       <c r="CR93" s="9"/>
     </row>
-    <row r="94" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -10820,37 +10820,37 @@
       <c r="CQ94" s="9"/>
       <c r="CR94" s="9"/>
     </row>
-    <row r="95" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="99" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="100" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="15" t="s">
         <v>33</v>
@@ -10879,7 +10879,7 @@
       <c r="X103" s="15"/>
       <c r="Y103" s="15"/>
     </row>
-    <row r="104" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>32</v>
       </c>
@@ -10954,10 +10954,10 @@
       </c>
       <c r="Y104" s="16"/>
     </row>
-    <row r="105" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>31</v>
       </c>
@@ -11025,10 +11025,10 @@
         <v>17.839638102224882</v>
       </c>
       <c r="W106" s="17">
-        <v>10.121952577054998</v>
+        <v>10.147881966900243</v>
       </c>
       <c r="X106" s="17">
-        <v>-9.6553401981539508</v>
+        <v>-9.3310366702204419</v>
       </c>
       <c r="Y106" s="17"/>
       <c r="Z106" s="9"/>
@@ -11098,7 +11098,7 @@
       <c r="CL106" s="9"/>
       <c r="CM106" s="9"/>
     </row>
-    <row r="107" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>30</v>
       </c>
@@ -11166,10 +11166,10 @@
         <v>16.846121425061185</v>
       </c>
       <c r="W107" s="17">
-        <v>20.967409434040889</v>
+        <v>21.018570222448844</v>
       </c>
       <c r="X107" s="17">
-        <v>-12.319665220834139</v>
+        <v>-11.894687336042622</v>
       </c>
       <c r="Y107" s="17"/>
       <c r="Z107" s="9"/>
@@ -11239,7 +11239,7 @@
       <c r="CL107" s="9"/>
       <c r="CM107" s="9"/>
     </row>
-    <row r="108" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>29</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>-13.61923079718369</v>
       </c>
       <c r="X108" s="17">
-        <v>-26.011115428332104</v>
+        <v>-25.649717229370012</v>
       </c>
       <c r="Y108" s="17"/>
       <c r="Z108" s="9"/>
@@ -11380,7 +11380,7 @@
       <c r="CL108" s="9"/>
       <c r="CM108" s="9"/>
     </row>
-    <row r="109" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>28</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>18.105295484794624</v>
       </c>
       <c r="X109" s="17">
-        <v>21.892078175579655</v>
+        <v>22.011318768929854</v>
       </c>
       <c r="Y109" s="17"/>
       <c r="Z109" s="9"/>
@@ -11521,7 +11521,7 @@
       <c r="CL109" s="9"/>
       <c r="CM109" s="9"/>
     </row>
-    <row r="110" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>27</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>4.3976406827020043</v>
       </c>
       <c r="X110" s="17">
-        <v>-2.0238506613102629</v>
+        <v>-1.7829205787171958</v>
       </c>
       <c r="Y110" s="17"/>
       <c r="Z110" s="9"/>
@@ -11662,7 +11662,7 @@
       <c r="CL110" s="9"/>
       <c r="CM110" s="9"/>
     </row>
-    <row r="111" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>26</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>6.0707943291392183</v>
       </c>
       <c r="X111" s="17">
-        <v>-8.0822405256030549</v>
+        <v>-7.9796421002632343</v>
       </c>
       <c r="Y111" s="17"/>
       <c r="Z111" s="9"/>
@@ -11803,7 +11803,7 @@
       <c r="CL111" s="9"/>
       <c r="CM111" s="9"/>
     </row>
-    <row r="112" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>25</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>11.033554061346521</v>
       </c>
       <c r="X112" s="17">
-        <v>20.674415811608299</v>
+        <v>20.673349298191141</v>
       </c>
       <c r="Y112" s="17"/>
       <c r="Z112" s="9"/>
@@ -11944,7 +11944,7 @@
       <c r="CL112" s="9"/>
       <c r="CM112" s="9"/>
     </row>
-    <row r="113" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>24</v>
       </c>
@@ -12012,10 +12012,10 @@
         <v>47.325398317376596</v>
       </c>
       <c r="W113" s="17">
-        <v>21.755991023198163</v>
+        <v>21.756092220928565</v>
       </c>
       <c r="X113" s="17">
-        <v>18.926036844834954</v>
+        <v>18.931764740092461</v>
       </c>
       <c r="Y113" s="17"/>
       <c r="Z113" s="9"/>
@@ -12085,7 +12085,7 @@
       <c r="CL113" s="9"/>
       <c r="CM113" s="9"/>
     </row>
-    <row r="114" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>23</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>17.073299825067622</v>
       </c>
       <c r="X114" s="17">
-        <v>24.436476418657008</v>
+        <v>24.443269917302459</v>
       </c>
       <c r="Y114" s="17"/>
       <c r="Z114" s="9"/>
@@ -12226,7 +12226,7 @@
       <c r="CL114" s="9"/>
       <c r="CM114" s="9"/>
     </row>
-    <row r="115" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>22</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>27.682108706641984</v>
       </c>
       <c r="X115" s="17">
-        <v>28.391332064747161</v>
+        <v>28.418441159952295</v>
       </c>
       <c r="Y115" s="17"/>
       <c r="Z115" s="9"/>
@@ -12367,7 +12367,7 @@
       <c r="CL115" s="9"/>
       <c r="CM115" s="9"/>
     </row>
-    <row r="116" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>21</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>93.303446219906419</v>
       </c>
       <c r="X116" s="17">
-        <v>-11.807832057271185</v>
+        <v>-11.503318450687559</v>
       </c>
       <c r="Y116" s="17"/>
       <c r="Z116" s="9"/>
@@ -12508,7 +12508,7 @@
       <c r="CL116" s="9"/>
       <c r="CM116" s="9"/>
     </row>
-    <row r="117" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>20</v>
       </c>
@@ -12576,10 +12576,10 @@
         <v>19.661293934021785</v>
       </c>
       <c r="W117" s="17">
-        <v>12.082915152126958</v>
+        <v>12.083085493074421</v>
       </c>
       <c r="X117" s="17">
-        <v>-1.8719701423166839</v>
+        <v>-1.7254349921448409</v>
       </c>
       <c r="Y117" s="17"/>
       <c r="Z117" s="9"/>
@@ -12649,7 +12649,7 @@
       <c r="CL117" s="9"/>
       <c r="CM117" s="9"/>
     </row>
-    <row r="118" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>25.757513606378836</v>
       </c>
       <c r="X118" s="17">
-        <v>29.814954288841164</v>
+        <v>29.877568319024562</v>
       </c>
       <c r="Y118" s="17"/>
       <c r="Z118" s="9"/>
@@ -12790,7 +12790,7 @@
       <c r="CL118" s="9"/>
       <c r="CM118" s="9"/>
     </row>
-    <row r="119" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>18</v>
       </c>
@@ -12858,10 +12858,10 @@
         <v>46.662770809645394</v>
       </c>
       <c r="W119" s="17">
-        <v>12.626240086894896</v>
+        <v>12.628744692239565</v>
       </c>
       <c r="X119" s="17">
-        <v>-7.3512635896635743</v>
+        <v>-7.2281698046945024</v>
       </c>
       <c r="Y119" s="17"/>
       <c r="Z119" s="9"/>
@@ -12931,7 +12931,7 @@
       <c r="CL119" s="9"/>
       <c r="CM119" s="9"/>
     </row>
-    <row r="120" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>17</v>
       </c>
@@ -12999,10 +12999,10 @@
         <v>23.191191598030599</v>
       </c>
       <c r="W120" s="17">
-        <v>45.219102034864676</v>
+        <v>45.219131776695349</v>
       </c>
       <c r="X120" s="17">
-        <v>15.802097723479363</v>
+        <v>16.088452592187366</v>
       </c>
       <c r="Y120" s="17"/>
       <c r="Z120" s="9"/>
@@ -13072,7 +13072,7 @@
       <c r="CL120" s="9"/>
       <c r="CM120" s="9"/>
     </row>
-    <row r="121" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>16</v>
       </c>
@@ -13140,10 +13140,10 @@
         <v>21.825221372015108</v>
       </c>
       <c r="W121" s="17">
-        <v>10.48577829674899</v>
+        <v>10.467456768509308</v>
       </c>
       <c r="X121" s="17">
-        <v>-2.2891678072895871</v>
+        <v>-2.2136122204675246</v>
       </c>
       <c r="Y121" s="17"/>
       <c r="Z121" s="9"/>
@@ -13213,7 +13213,7 @@
       <c r="CL121" s="9"/>
       <c r="CM121" s="9"/>
     </row>
-    <row r="122" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>15</v>
       </c>
@@ -13281,10 +13281,10 @@
         <v>14.173368094422074</v>
       </c>
       <c r="W122" s="17">
-        <v>19.141811136972024</v>
+        <v>19.318354573979462</v>
       </c>
       <c r="X122" s="17">
-        <v>4.036783540252415</v>
+        <v>4.0581275268477128</v>
       </c>
       <c r="Y122" s="17"/>
       <c r="Z122" s="9"/>
@@ -13354,7 +13354,7 @@
       <c r="CL122" s="9"/>
       <c r="CM122" s="9"/>
     </row>
-    <row r="123" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>14</v>
       </c>
@@ -13422,10 +13422,10 @@
         <v>28.3062395801592</v>
       </c>
       <c r="W123" s="17">
-        <v>20.404370036928228</v>
+        <v>20.340033754037407</v>
       </c>
       <c r="X123" s="17">
-        <v>-9.4681589772807229</v>
+        <v>-9.4440237645164444</v>
       </c>
       <c r="Y123" s="17"/>
       <c r="Z123" s="9"/>
@@ -13495,7 +13495,7 @@
       <c r="CL123" s="9"/>
       <c r="CM123" s="9"/>
     </row>
-    <row r="124" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -13566,7 +13566,7 @@
         <v>37.426839273220565</v>
       </c>
       <c r="X124" s="17">
-        <v>2.4772433671778487</v>
+        <v>2.4807326149752811</v>
       </c>
       <c r="Y124" s="17"/>
       <c r="Z124" s="9"/>
@@ -13636,7 +13636,7 @@
       <c r="CL124" s="9"/>
       <c r="CM124" s="9"/>
     </row>
-    <row r="125" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>12</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>50.120691260877038</v>
       </c>
       <c r="X125" s="17">
-        <v>-17.718533343157333</v>
+        <v>-17.71404175880123</v>
       </c>
       <c r="Y125" s="17"/>
       <c r="Z125" s="9"/>
@@ -13777,7 +13777,7 @@
       <c r="CL125" s="9"/>
       <c r="CM125" s="9"/>
     </row>
-    <row r="126" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
@@ -13848,7 +13848,7 @@
         <v>-13.933294886669273</v>
       </c>
       <c r="X126" s="17">
-        <v>-3.9468555697938399</v>
+        <v>-3.9361303896696569</v>
       </c>
       <c r="Y126" s="17"/>
       <c r="Z126" s="9"/>
@@ -13918,7 +13918,7 @@
       <c r="CL126" s="9"/>
       <c r="CM126" s="9"/>
     </row>
-    <row r="127" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>25.322798101624926</v>
       </c>
       <c r="X127" s="17">
-        <v>-0.32634644605458618</v>
+        <v>-0.34484378074812128</v>
       </c>
       <c r="Y127" s="17"/>
       <c r="Z127" s="9"/>
@@ -14059,7 +14059,7 @@
       <c r="CL127" s="9"/>
       <c r="CM127" s="9"/>
     </row>
-    <row r="128" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>9</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>45.038622120671022</v>
       </c>
       <c r="X128" s="17">
-        <v>-7.6482403091670932</v>
+        <v>-7.5888154612020742</v>
       </c>
       <c r="Y128" s="17"/>
       <c r="Z128" s="9"/>
@@ -14200,7 +14200,7 @@
       <c r="CL128" s="9"/>
       <c r="CM128" s="9"/>
     </row>
-    <row r="129" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>8</v>
       </c>
@@ -14268,10 +14268,10 @@
         <v>69.389111511150958</v>
       </c>
       <c r="W129" s="17">
-        <v>173.24050583907621</v>
+        <v>173.66529034768882</v>
       </c>
       <c r="X129" s="17">
-        <v>48.500310351539071</v>
+        <v>48.998411165856595</v>
       </c>
       <c r="Y129" s="17"/>
       <c r="Z129" s="9"/>
@@ -14341,7 +14341,7 @@
       <c r="CL129" s="9"/>
       <c r="CM129" s="9"/>
     </row>
-    <row r="130" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>7</v>
       </c>
@@ -14409,10 +14409,10 @@
         <v>27.101614834591629</v>
       </c>
       <c r="W130" s="17">
-        <v>12.43066933982216</v>
+        <v>12.431160491101977</v>
       </c>
       <c r="X130" s="17">
-        <v>7.3033089520141488</v>
+        <v>7.317422959836108</v>
       </c>
       <c r="Y130" s="17"/>
       <c r="Z130" s="9"/>
@@ -14482,7 +14482,7 @@
       <c r="CL130" s="9"/>
       <c r="CM130" s="9"/>
     </row>
-    <row r="131" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>6</v>
       </c>
@@ -14550,10 +14550,10 @@
         <v>34.92212310453786</v>
       </c>
       <c r="W131" s="17">
-        <v>16.920202133485532</v>
+        <v>16.92024104440965</v>
       </c>
       <c r="X131" s="17">
-        <v>-13.096002481473406</v>
+        <v>-13.222613977739073</v>
       </c>
       <c r="Y131" s="17"/>
       <c r="Z131" s="9"/>
@@ -14623,7 +14623,7 @@
       <c r="CL131" s="9"/>
       <c r="CM131" s="9"/>
     </row>
-    <row r="132" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>5</v>
       </c>
@@ -14694,7 +14694,7 @@
         <v>8.6739054062789052</v>
       </c>
       <c r="X132" s="17">
-        <v>12.621078138047977</v>
+        <v>12.689087773918018</v>
       </c>
       <c r="Y132" s="17"/>
       <c r="Z132" s="9"/>
@@ -14764,7 +14764,7 @@
       <c r="CL132" s="9"/>
       <c r="CM132" s="9"/>
     </row>
-    <row r="133" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>4</v>
       </c>
@@ -14832,10 +14832,10 @@
         <v>30.375400205230761</v>
       </c>
       <c r="W133" s="17">
-        <v>28.727676364952913</v>
+        <v>28.728040179874057</v>
       </c>
       <c r="X133" s="17">
-        <v>0.41744217632401615</v>
+        <v>0.28701882694075209</v>
       </c>
       <c r="Y133" s="17"/>
       <c r="Z133" s="9"/>
@@ -14905,7 +14905,7 @@
       <c r="CL133" s="9"/>
       <c r="CM133" s="9"/>
     </row>
-    <row r="134" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>3</v>
       </c>
@@ -14973,10 +14973,10 @@
         <v>-3.9868657882296077</v>
       </c>
       <c r="W134" s="17">
-        <v>62.107767658080803</v>
+        <v>62.080647382568173</v>
       </c>
       <c r="X134" s="17">
-        <v>13.663547034072934</v>
+        <v>13.797112098373731</v>
       </c>
       <c r="Y134" s="17"/>
       <c r="Z134" s="9"/>
@@ -15046,7 +15046,7 @@
       <c r="CL134" s="9"/>
       <c r="CM134" s="9"/>
     </row>
-    <row r="135" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>2</v>
       </c>
@@ -15114,10 +15114,10 @@
         <v>26.349242716397356</v>
       </c>
       <c r="W135" s="17">
-        <v>23.552601733397609</v>
+        <v>24.013917906477673</v>
       </c>
       <c r="X135" s="17">
-        <v>-1.7123730693503205</v>
+        <v>-1.8526597316364928</v>
       </c>
       <c r="Y135" s="17"/>
       <c r="Z135" s="9"/>
@@ -15187,7 +15187,7 @@
       <c r="CL135" s="9"/>
       <c r="CM135" s="9"/>
     </row>
-    <row r="136" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -15279,7 +15279,7 @@
       <c r="CL136" s="9"/>
       <c r="CM136" s="9"/>
     </row>
-    <row r="137" spans="1:92" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:92" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>1</v>
       </c>
@@ -15347,10 +15347,10 @@
         <v>31.456846697937976</v>
       </c>
       <c r="W137" s="17">
-        <v>30.069076063891544</v>
+        <v>30.178620662179156</v>
       </c>
       <c r="X137" s="17">
-        <v>-3.475891395049814</v>
+        <v>-3.3487036103637848</v>
       </c>
       <c r="Y137" s="17"/>
       <c r="Z137" s="9"/>
@@ -15420,7 +15420,7 @@
       <c r="CL137" s="9"/>
       <c r="CM137" s="9"/>
     </row>
-    <row r="138" spans="1:92" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:92" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -15447,12 +15447,12 @@
       <c r="X138" s="12"/>
       <c r="Y138" s="12"/>
     </row>
-    <row r="139" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
@@ -15544,7 +15544,7 @@
       <c r="CL140" s="9"/>
       <c r="CM140" s="9"/>
     </row>
-    <row r="141" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
@@ -15637,37 +15637,37 @@
       <c r="CM141" s="9"/>
       <c r="CN141" s="9"/>
     </row>
-    <row r="142" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="146" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="147" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="148" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="150" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="15" t="s">
         <v>33</v>
@@ -15696,7 +15696,7 @@
       <c r="X150" s="15"/>
       <c r="Y150" s="15"/>
     </row>
-    <row r="151" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>32</v>
       </c>
@@ -15771,10 +15771,10 @@
       </c>
       <c r="Y151" s="16"/>
     </row>
-    <row r="152" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
     </row>
-    <row r="153" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>31</v>
       </c>
@@ -15842,10 +15842,10 @@
         <v>20.854986956206616</v>
       </c>
       <c r="W153" s="17">
-        <v>0.81906856370169123</v>
+        <v>0.84594962575701516</v>
       </c>
       <c r="X153" s="17">
-        <v>-11.936734252968222</v>
+        <v>-12.178550231748062</v>
       </c>
       <c r="Y153" s="17"/>
       <c r="Z153" s="9"/>
@@ -15915,7 +15915,7 @@
       <c r="CL153" s="9"/>
       <c r="CM153" s="9"/>
     </row>
-    <row r="154" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>30</v>
       </c>
@@ -15983,10 +15983,10 @@
         <v>17.107847905142009</v>
       </c>
       <c r="W154" s="17">
-        <v>12.633985943178573</v>
+        <v>12.688309475294915</v>
       </c>
       <c r="X154" s="17">
-        <v>-12.665477551730206</v>
+        <v>-13.013919616364248</v>
       </c>
       <c r="Y154" s="17"/>
       <c r="Z154" s="9"/>
@@ -16056,7 +16056,7 @@
       <c r="CL154" s="9"/>
       <c r="CM154" s="9"/>
     </row>
-    <row r="155" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>29</v>
       </c>
@@ -16127,7 +16127,7 @@
         <v>-21.825524190896388</v>
       </c>
       <c r="X155" s="17">
-        <v>-27.548792555581116</v>
+        <v>-27.840257907942188</v>
       </c>
       <c r="Y155" s="17"/>
       <c r="Z155" s="9"/>
@@ -16197,7 +16197,7 @@
       <c r="CL155" s="9"/>
       <c r="CM155" s="9"/>
     </row>
-    <row r="156" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
         <v>28</v>
       </c>
@@ -16268,7 +16268,7 @@
         <v>-7.9321568843148498</v>
       </c>
       <c r="X156" s="17">
-        <v>33.673705298837092</v>
+        <v>33.733220977279046</v>
       </c>
       <c r="Y156" s="17"/>
       <c r="Z156" s="9"/>
@@ -16338,7 +16338,7 @@
       <c r="CL156" s="9"/>
       <c r="CM156" s="9"/>
     </row>
-    <row r="157" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>27</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>-5.3456180091711758</v>
       </c>
       <c r="X157" s="17">
-        <v>-10.930864024840389</v>
+        <v>-10.677822413162446</v>
       </c>
       <c r="Y157" s="17"/>
       <c r="Z157" s="9"/>
@@ -16479,7 +16479,7 @@
       <c r="CL157" s="9"/>
       <c r="CM157" s="9"/>
     </row>
-    <row r="158" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>26</v>
       </c>
@@ -16547,10 +16547,10 @@
         <v>28.817768036908006</v>
       </c>
       <c r="W158" s="17">
-        <v>-6.7304574369885728</v>
+        <v>-6.7304574369885444</v>
       </c>
       <c r="X158" s="17">
-        <v>-10.271082151030697</v>
+        <v>-10.3635492151694</v>
       </c>
       <c r="Y158" s="17"/>
       <c r="Z158" s="9"/>
@@ -16620,7 +16620,7 @@
       <c r="CL158" s="9"/>
       <c r="CM158" s="9"/>
     </row>
-    <row r="159" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>25</v>
       </c>
@@ -16691,7 +16691,7 @@
         <v>4.9606151209426343</v>
       </c>
       <c r="X159" s="17">
-        <v>11.466435983798462</v>
+        <v>11.465122726428859</v>
       </c>
       <c r="Y159" s="17"/>
       <c r="Z159" s="9"/>
@@ -16761,7 +16761,7 @@
       <c r="CL159" s="9"/>
       <c r="CM159" s="9"/>
     </row>
-    <row r="160" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
         <v>24</v>
       </c>
@@ -16829,10 +16829,10 @@
         <v>55.76318872692147</v>
       </c>
       <c r="W160" s="17">
-        <v>12.367465598987067</v>
+        <v>12.367525313387191</v>
       </c>
       <c r="X160" s="17">
-        <v>8.0796362003422217</v>
+        <v>8.0764320281995623</v>
       </c>
       <c r="Y160" s="17"/>
       <c r="Z160" s="9"/>
@@ -16902,7 +16902,7 @@
       <c r="CL160" s="9"/>
       <c r="CM160" s="9"/>
     </row>
-    <row r="161" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>23</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>2.9799042751773186</v>
       </c>
       <c r="X161" s="17">
-        <v>20.968905158645399</v>
+        <v>20.972899909310485</v>
       </c>
       <c r="Y161" s="17"/>
       <c r="Z161" s="9"/>
@@ -17043,7 +17043,7 @@
       <c r="CL161" s="9"/>
       <c r="CM161" s="9"/>
     </row>
-    <row r="162" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>22</v>
       </c>
@@ -17114,7 +17114,7 @@
         <v>12.602881897534317</v>
       </c>
       <c r="X162" s="17">
-        <v>19.026867371190107</v>
+        <v>19.035204430508415</v>
       </c>
       <c r="Y162" s="17"/>
       <c r="Z162" s="9"/>
@@ -17184,7 +17184,7 @@
       <c r="CL162" s="9"/>
       <c r="CM162" s="9"/>
     </row>
-    <row r="163" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>21</v>
       </c>
@@ -17255,7 +17255,7 @@
         <v>23.893701263232671</v>
       </c>
       <c r="X163" s="17">
-        <v>-5.0525662663401505</v>
+        <v>-6.9970682028325939</v>
       </c>
       <c r="Y163" s="17"/>
       <c r="Z163" s="9"/>
@@ -17325,7 +17325,7 @@
       <c r="CL163" s="9"/>
       <c r="CM163" s="9"/>
     </row>
-    <row r="164" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>20</v>
       </c>
@@ -17393,10 +17393,10 @@
         <v>18.357425194409259</v>
       </c>
       <c r="W164" s="17">
-        <v>-1.2756127148819303</v>
+        <v>-1.2754601489103692</v>
       </c>
       <c r="X164" s="17">
-        <v>-8.509871841353899</v>
+        <v>-8.3762736961583215</v>
       </c>
       <c r="Y164" s="17"/>
       <c r="Z164" s="9"/>
@@ -17466,7 +17466,7 @@
       <c r="CL164" s="9"/>
       <c r="CM164" s="9"/>
     </row>
-    <row r="165" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>19</v>
       </c>
@@ -17537,7 +17537,7 @@
         <v>5.9380664058726893</v>
       </c>
       <c r="X165" s="17">
-        <v>22.701415597410545</v>
+        <v>22.752130190229636</v>
       </c>
       <c r="Y165" s="17"/>
       <c r="Z165" s="9"/>
@@ -17607,7 +17607,7 @@
       <c r="CL165" s="9"/>
       <c r="CM165" s="9"/>
     </row>
-    <row r="166" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>18</v>
       </c>
@@ -17675,10 +17675,10 @@
         <v>12.599053335985857</v>
       </c>
       <c r="W166" s="17">
-        <v>3.0451152479249401</v>
+        <v>3.0597350644562056</v>
       </c>
       <c r="X166" s="17">
-        <v>-1.5107791062918636</v>
+        <v>-1.3693128401278472</v>
       </c>
       <c r="Y166" s="17"/>
       <c r="Z166" s="9"/>
@@ -17748,7 +17748,7 @@
       <c r="CL166" s="9"/>
       <c r="CM166" s="9"/>
     </row>
-    <row r="167" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>17</v>
       </c>
@@ -17816,10 +17816,10 @@
         <v>25.248853792998105</v>
       </c>
       <c r="W167" s="17">
-        <v>32.221009808240751</v>
+        <v>32.221045520136414</v>
       </c>
       <c r="X167" s="17">
-        <v>4.0893626969665746</v>
+        <v>3.4866039955399941</v>
       </c>
       <c r="Y167" s="17"/>
       <c r="Z167" s="9"/>
@@ -17889,7 +17889,7 @@
       <c r="CL167" s="9"/>
       <c r="CM167" s="9"/>
     </row>
-    <row r="168" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>16</v>
       </c>
@@ -17957,10 +17957,10 @@
         <v>15.858285296067692</v>
       </c>
       <c r="W168" s="17">
-        <v>-3.8502031512062729</v>
+        <v>-3.8672595038846111</v>
       </c>
       <c r="X168" s="17">
-        <v>-4.9106214304845963</v>
+        <v>-4.8371081733348547</v>
       </c>
       <c r="Y168" s="17"/>
       <c r="Z168" s="9"/>
@@ -18030,7 +18030,7 @@
       <c r="CL168" s="9"/>
       <c r="CM168" s="9"/>
     </row>
-    <row r="169" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>15</v>
       </c>
@@ -18098,10 +18098,10 @@
         <v>12.784447058912335</v>
       </c>
       <c r="W169" s="17">
-        <v>2.9070441113370435</v>
+        <v>3.0820806975453365</v>
       </c>
       <c r="X169" s="17">
-        <v>-2.033040565303736</v>
+        <v>-2.0075327213091043</v>
       </c>
       <c r="Y169" s="17"/>
       <c r="Z169" s="9"/>
@@ -18171,7 +18171,7 @@
       <c r="CL169" s="9"/>
       <c r="CM169" s="9"/>
     </row>
-    <row r="170" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>14</v>
       </c>
@@ -18239,10 +18239,10 @@
         <v>10.839006822982753</v>
       </c>
       <c r="W170" s="17">
-        <v>3.0780600259175088</v>
+        <v>3.021872875835669</v>
       </c>
       <c r="X170" s="17">
-        <v>-5.7387989417757268</v>
+        <v>-5.7124576485500853</v>
       </c>
       <c r="Y170" s="17"/>
       <c r="Z170" s="9"/>
@@ -18312,7 +18312,7 @@
       <c r="CL170" s="9"/>
       <c r="CM170" s="9"/>
     </row>
-    <row r="171" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>13</v>
       </c>
@@ -18383,7 +18383,7 @@
         <v>14.615674720124062</v>
       </c>
       <c r="X171" s="17">
-        <v>-6.7221912614020596</v>
+        <v>-6.7191257640067192</v>
       </c>
       <c r="Y171" s="17"/>
       <c r="Z171" s="9"/>
@@ -18453,7 +18453,7 @@
       <c r="CL171" s="9"/>
       <c r="CM171" s="9"/>
     </row>
-    <row r="172" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>12</v>
       </c>
@@ -18524,7 +18524,7 @@
         <v>25.49853271140654</v>
       </c>
       <c r="X172" s="17">
-        <v>-26.451915070864075</v>
+        <v>-26.447980445873327</v>
       </c>
       <c r="Y172" s="17"/>
       <c r="Z172" s="9"/>
@@ -18594,7 +18594,7 @@
       <c r="CL172" s="9"/>
       <c r="CM172" s="9"/>
     </row>
-    <row r="173" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>11</v>
       </c>
@@ -18665,7 +18665,7 @@
         <v>-21.811622176115662</v>
       </c>
       <c r="X173" s="17">
-        <v>-5.3396025087336483</v>
+        <v>-5.3290613525504398</v>
       </c>
       <c r="Y173" s="17"/>
       <c r="Z173" s="9"/>
@@ -18735,7 +18735,7 @@
       <c r="CL173" s="9"/>
       <c r="CM173" s="9"/>
     </row>
-    <row r="174" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>10</v>
       </c>
@@ -18806,7 +18806,7 @@
         <v>2.0178630914183202</v>
       </c>
       <c r="X174" s="17">
-        <v>5.7534469026384158</v>
+        <v>5.741102613153771</v>
       </c>
       <c r="Y174" s="17"/>
       <c r="Z174" s="9"/>
@@ -18876,7 +18876,7 @@
       <c r="CL174" s="9"/>
       <c r="CM174" s="9"/>
     </row>
-    <row r="175" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>9</v>
       </c>
@@ -18947,7 +18947,7 @@
         <v>11.386177929127612</v>
       </c>
       <c r="X175" s="17">
-        <v>-1.7231446601118137</v>
+        <v>-1.6548604539794667</v>
       </c>
       <c r="Y175" s="17"/>
       <c r="Z175" s="9"/>
@@ -19017,7 +19017,7 @@
       <c r="CL175" s="9"/>
       <c r="CM175" s="9"/>
     </row>
-    <row r="176" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>8</v>
       </c>
@@ -19085,10 +19085,10 @@
         <v>20.875567134112188</v>
       </c>
       <c r="W176" s="17">
-        <v>99.943973190093971</v>
+        <v>100.80301398992822</v>
       </c>
       <c r="X176" s="17">
-        <v>90.822700479084062</v>
+        <v>92.251230925038385</v>
       </c>
       <c r="Y176" s="17"/>
       <c r="Z176" s="9"/>
@@ -19158,7 +19158,7 @@
       <c r="CL176" s="9"/>
       <c r="CM176" s="9"/>
     </row>
-    <row r="177" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>7</v>
       </c>
@@ -19226,10 +19226,10 @@
         <v>-7.1190070298524404</v>
       </c>
       <c r="W177" s="17">
-        <v>4.7015844702523282</v>
+        <v>4.7021220534458052</v>
       </c>
       <c r="X177" s="17">
-        <v>12.98314542665571</v>
+        <v>12.948890457188583</v>
       </c>
       <c r="Y177" s="17"/>
       <c r="Z177" s="9"/>
@@ -19299,7 +19299,7 @@
       <c r="CL177" s="9"/>
       <c r="CM177" s="9"/>
     </row>
-    <row r="178" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>6</v>
       </c>
@@ -19367,10 +19367,10 @@
         <v>-4.8154651203027043</v>
       </c>
       <c r="W178" s="17">
-        <v>18.254170801698962</v>
+        <v>18.254213571892592</v>
       </c>
       <c r="X178" s="17">
-        <v>-3.8057251864070452</v>
+        <v>-3.9646701964432083</v>
       </c>
       <c r="Y178" s="17"/>
       <c r="Z178" s="9"/>
@@ -19440,7 +19440,7 @@
       <c r="CL178" s="9"/>
       <c r="CM178" s="9"/>
     </row>
-    <row r="179" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>5</v>
       </c>
@@ -19508,10 +19508,10 @@
         <v>-1.9475074469370242</v>
       </c>
       <c r="W179" s="17">
-        <v>-12.547025148774509</v>
+        <v>-12.547025148774495</v>
       </c>
       <c r="X179" s="17">
-        <v>-3.6382995453891454E-2</v>
+        <v>1.8785316662388141E-2</v>
       </c>
       <c r="Y179" s="17"/>
       <c r="Z179" s="9"/>
@@ -19581,7 +19581,7 @@
       <c r="CL179" s="9"/>
       <c r="CM179" s="9"/>
     </row>
-    <row r="180" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>4</v>
       </c>
@@ -19649,10 +19649,10 @@
         <v>34.733259515639759</v>
       </c>
       <c r="W180" s="17">
-        <v>14.910701731912354</v>
+        <v>14.911047313229744</v>
       </c>
       <c r="X180" s="17">
-        <v>-1.681554326272618</v>
+        <v>-1.7941301856229188</v>
       </c>
       <c r="Y180" s="17"/>
       <c r="Z180" s="9"/>
@@ -19722,7 +19722,7 @@
       <c r="CL180" s="9"/>
       <c r="CM180" s="9"/>
     </row>
-    <row r="181" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>3</v>
       </c>
@@ -19790,10 +19790,10 @@
         <v>-5.9728223837500565</v>
       </c>
       <c r="W181" s="17">
-        <v>35.058210271758924</v>
+        <v>35.037691174773158</v>
       </c>
       <c r="X181" s="17">
-        <v>72.065310198779429</v>
+        <v>72.233937578457983</v>
       </c>
       <c r="Y181" s="17"/>
       <c r="Z181" s="9"/>
@@ -19863,7 +19863,7 @@
       <c r="CL181" s="9"/>
       <c r="CM181" s="9"/>
     </row>
-    <row r="182" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>2</v>
       </c>
@@ -19931,10 +19931,10 @@
         <v>14.216585259876283</v>
       </c>
       <c r="W182" s="17">
-        <v>6.8578093193319916</v>
+        <v>7.5069456472889158</v>
       </c>
       <c r="X182" s="17">
-        <v>-4.1474647237916571</v>
+        <v>-5.6235159208740697</v>
       </c>
       <c r="Y182" s="17"/>
       <c r="Z182" s="9"/>
@@ -20004,7 +20004,7 @@
       <c r="CL182" s="9"/>
       <c r="CM182" s="9"/>
     </row>
-    <row r="183" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
@@ -20096,7 +20096,7 @@
       <c r="CL183" s="9"/>
       <c r="CM183" s="9"/>
     </row>
-    <row r="184" spans="1:92" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:92" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>1</v>
       </c>
@@ -20164,10 +20164,10 @@
         <v>17.734354622849253</v>
       </c>
       <c r="W184" s="17">
-        <v>8.6239634250574682</v>
+        <v>8.7663225122194035</v>
       </c>
       <c r="X184" s="17">
-        <v>-3.8914007375022805</v>
+        <v>-4.5826044115838158</v>
       </c>
       <c r="Y184" s="17"/>
       <c r="Z184" s="9"/>
@@ -20237,7 +20237,7 @@
       <c r="CL184" s="9"/>
       <c r="CM184" s="9"/>
     </row>
-    <row r="185" spans="1:92" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:92" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -20264,12 +20264,12 @@
       <c r="X185" s="12"/>
       <c r="Y185" s="12"/>
     </row>
-    <row r="186" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
@@ -20361,7 +20361,7 @@
       <c r="CL187" s="9"/>
       <c r="CM187" s="9"/>
     </row>
-    <row r="188" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
@@ -20454,32 +20454,32 @@
       <c r="CM188" s="9"/>
       <c r="CN188" s="9"/>
     </row>
-    <row r="189" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="192" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="193" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="194" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="196" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="15" t="s">
         <v>33</v>
@@ -20508,7 +20508,7 @@
       <c r="X196" s="15"/>
       <c r="Y196" s="15"/>
     </row>
-    <row r="197" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>32</v>
       </c>
@@ -20585,10 +20585,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="198" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
     </row>
-    <row r="199" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>31</v>
       </c>
@@ -20659,10 +20659,10 @@
         <v>94.651717030295345</v>
       </c>
       <c r="X199" s="17">
-        <v>103.38552064246834</v>
+        <v>103.38229937947447</v>
       </c>
       <c r="Y199" s="17">
-        <v>106.06385774644471</v>
+        <v>106.73435631182751</v>
       </c>
       <c r="Z199" s="9"/>
       <c r="AA199" s="9"/>
@@ -20736,7 +20736,7 @@
       <c r="CQ199" s="9"/>
       <c r="CR199" s="9"/>
     </row>
-    <row r="200" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
         <v>30</v>
       </c>
@@ -20807,10 +20807,10 @@
         <v>96.937999905252653</v>
       </c>
       <c r="X200" s="17">
-        <v>104.1101282713319</v>
+        <v>104.10395012030466</v>
       </c>
       <c r="Y200" s="17">
-        <v>104.52236578197636</v>
+        <v>105.44343456390486</v>
       </c>
       <c r="Z200" s="9"/>
       <c r="AA200" s="9"/>
@@ -20884,7 +20884,7 @@
       <c r="CQ200" s="9"/>
       <c r="CR200" s="9"/>
     </row>
-    <row r="201" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
         <v>29</v>
       </c>
@@ -20958,7 +20958,7 @@
         <v>98.96310411448232</v>
       </c>
       <c r="Y201" s="17">
-        <v>101.0634597469974</v>
+        <v>101.96730976926402</v>
       </c>
       <c r="Z201" s="9"/>
       <c r="AA201" s="9"/>
@@ -21032,7 +21032,7 @@
       <c r="CQ201" s="9"/>
       <c r="CR201" s="9"/>
     </row>
-    <row r="202" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
         <v>28</v>
       </c>
@@ -21106,7 +21106,7 @@
         <v>118.28923916674583</v>
       </c>
       <c r="Y202" s="17">
-        <v>107.86355592978583</v>
+        <v>107.92102337354214</v>
       </c>
       <c r="Z202" s="9"/>
       <c r="AA202" s="9"/>
@@ -21180,7 +21180,7 @@
       <c r="CQ202" s="9"/>
       <c r="CR202" s="9"/>
     </row>
-    <row r="203" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
         <v>27</v>
       </c>
@@ -21254,7 +21254,7 @@
         <v>105.63051556876759</v>
       </c>
       <c r="Y203" s="17">
-        <v>116.19368544199938</v>
+        <v>116.14943810390834</v>
       </c>
       <c r="Z203" s="9"/>
       <c r="AA203" s="9"/>
@@ -21328,7 +21328,7 @@
       <c r="CQ203" s="9"/>
       <c r="CR203" s="9"/>
     </row>
-    <row r="204" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
         <v>26</v>
       </c>
@@ -21399,10 +21399,10 @@
         <v>95.694325600959715</v>
       </c>
       <c r="X204" s="17">
-        <v>108.82837902231211</v>
+        <v>108.82837902231208</v>
       </c>
       <c r="Y204" s="17">
-        <v>111.48313171232896</v>
+        <v>111.72270097262853</v>
       </c>
       <c r="Z204" s="9"/>
       <c r="AA204" s="9"/>
@@ -21476,7 +21476,7 @@
       <c r="CQ204" s="9"/>
       <c r="CR204" s="9"/>
     </row>
-    <row r="205" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
         <v>25</v>
       </c>
@@ -21550,7 +21550,7 @@
         <v>97.597892416884974</v>
       </c>
       <c r="Y205" s="17">
-        <v>105.6602245142533</v>
+        <v>105.6605355497227</v>
       </c>
       <c r="Z205" s="9"/>
       <c r="AA205" s="9"/>
@@ -21624,7 +21624,7 @@
       <c r="CQ205" s="9"/>
       <c r="CR205" s="9"/>
     </row>
-    <row r="206" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
         <v>24</v>
       </c>
@@ -21695,10 +21695,10 @@
         <v>99.28048687373213</v>
       </c>
       <c r="X206" s="17">
-        <v>107.5755691751211</v>
+        <v>107.57560141886194</v>
       </c>
       <c r="Y206" s="17">
-        <v>118.37138385264137</v>
+        <v>118.38063007468421</v>
       </c>
       <c r="Z206" s="9"/>
       <c r="AA206" s="9"/>
@@ -21772,7 +21772,7 @@
       <c r="CQ206" s="9"/>
       <c r="CR206" s="9"/>
     </row>
-    <row r="207" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
         <v>23</v>
       </c>
@@ -21846,7 +21846,7 @@
         <v>105.69806679119137</v>
       </c>
       <c r="Y207" s="17">
-        <v>108.72789977317343</v>
+        <v>108.73024508211331</v>
       </c>
       <c r="Z207" s="9"/>
       <c r="AA207" s="9"/>
@@ -21920,7 +21920,7 @@
       <c r="CQ207" s="9"/>
       <c r="CR207" s="9"/>
     </row>
-    <row r="208" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
         <v>22</v>
       </c>
@@ -21994,7 +21994,7 @@
         <v>108.04561490496738</v>
       </c>
       <c r="Y208" s="17">
-        <v>116.54612717095789</v>
+        <v>116.56257076757939</v>
       </c>
       <c r="Z208" s="9"/>
       <c r="AA208" s="9"/>
@@ -22068,7 +22068,7 @@
       <c r="CQ208" s="9"/>
       <c r="CR208" s="9"/>
     </row>
-    <row r="209" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>21</v>
       </c>
@@ -22142,7 +22142,7 @@
         <v>157.38170759051576</v>
       </c>
       <c r="Y209" s="17">
-        <v>146.18440373934675</v>
+        <v>149.75612692189429</v>
       </c>
       <c r="Z209" s="9"/>
       <c r="AA209" s="9"/>
@@ -22216,7 +22216,7 @@
       <c r="CQ209" s="9"/>
       <c r="CR209" s="9"/>
     </row>
-    <row r="210" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>20</v>
       </c>
@@ -22287,10 +22287,10 @@
         <v>97.477840992427957</v>
       </c>
       <c r="X210" s="17">
-        <v>110.66769702620152</v>
+        <v>110.66769419350229</v>
       </c>
       <c r="Y210" s="17">
-        <v>118.6969927426196</v>
+        <v>118.70090800741384</v>
       </c>
       <c r="Z210" s="9"/>
       <c r="AA210" s="9"/>
@@ -22364,7 +22364,7 @@
       <c r="CQ210" s="9"/>
       <c r="CR210" s="9"/>
     </row>
-    <row r="211" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>19</v>
       </c>
@@ -22438,7 +22438,7 @@
         <v>116.34661700252533</v>
       </c>
       <c r="Y211" s="17">
-        <v>123.09174017518734</v>
+        <v>123.10023194722206</v>
       </c>
       <c r="Z211" s="9"/>
       <c r="AA211" s="9"/>
@@ -22512,7 +22512,7 @@
       <c r="CQ211" s="9"/>
       <c r="CR211" s="9"/>
     </row>
-    <row r="212" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>18</v>
       </c>
@@ -22583,10 +22583,10 @@
         <v>135.69264091128119</v>
       </c>
       <c r="X212" s="17">
-        <v>148.30932952551112</v>
+        <v>148.29158837109483</v>
       </c>
       <c r="Y212" s="17">
-        <v>139.51447532752908</v>
+        <v>139.48277612074159</v>
       </c>
       <c r="Z212" s="9"/>
       <c r="AA212" s="9"/>
@@ -22660,7 +22660,7 @@
       <c r="CQ212" s="9"/>
       <c r="CR212" s="9"/>
     </row>
-    <row r="213" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>17</v>
       </c>
@@ -22731,10 +22731,10 @@
         <v>100.56687119008316</v>
       </c>
       <c r="X213" s="17">
-        <v>110.45317797723825</v>
+        <v>110.45317076621134</v>
       </c>
       <c r="Y213" s="17">
-        <v>122.88200617796419</v>
+        <v>123.90335737273503</v>
       </c>
       <c r="Z213" s="9"/>
       <c r="AA213" s="9"/>
@@ -22808,7 +22808,7 @@
       <c r="CQ213" s="9"/>
       <c r="CR213" s="9"/>
     </row>
-    <row r="214" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>16</v>
       </c>
@@ -22879,10 +22879,10 @@
         <v>87.886778405680104</v>
       </c>
       <c r="X214" s="17">
-        <v>100.99073978716682</v>
+        <v>100.99190810487026</v>
       </c>
       <c r="Y214" s="17">
-        <v>103.77488397558079</v>
+        <v>103.77610115638105</v>
       </c>
       <c r="Z214" s="9"/>
       <c r="AA214" s="9"/>
@@ -22956,7 +22956,7 @@
       <c r="CQ214" s="9"/>
       <c r="CR214" s="9"/>
     </row>
-    <row r="215" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>15</v>
       </c>
@@ -23027,10 +23027,10 @@
         <v>99.784356395489482</v>
       </c>
       <c r="X215" s="17">
-        <v>115.52648360235997</v>
+        <v>115.50121162442606</v>
       </c>
       <c r="Y215" s="17">
-        <v>122.68425841793102</v>
+        <v>122.65065001923394</v>
       </c>
       <c r="Z215" s="9"/>
       <c r="AA215" s="9"/>
@@ -23104,7 +23104,7 @@
       <c r="CQ215" s="9"/>
       <c r="CR215" s="9"/>
     </row>
-    <row r="216" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>14</v>
       </c>
@@ -23175,10 +23175,10 @@
         <v>105.01294359929088</v>
       </c>
       <c r="X216" s="17">
-        <v>122.6644866678412</v>
+        <v>122.6658070231378</v>
       </c>
       <c r="Y216" s="17">
-        <v>117.81137606433624</v>
+        <v>117.81112996125158</v>
       </c>
       <c r="Z216" s="9"/>
       <c r="AA216" s="9"/>
@@ -23252,7 +23252,7 @@
       <c r="CQ216" s="9"/>
       <c r="CR216" s="9"/>
     </row>
-    <row r="217" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>13</v>
       </c>
@@ -23326,7 +23326,7 @@
         <v>162.65722715928459</v>
       </c>
       <c r="Y217" s="17">
-        <v>178.69914053989692</v>
+        <v>178.69935226198774</v>
       </c>
       <c r="Z217" s="9"/>
       <c r="AA217" s="9"/>
@@ -23400,7 +23400,7 @@
       <c r="CQ217" s="9"/>
       <c r="CR217" s="9"/>
     </row>
-    <row r="218" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>12</v>
       </c>
@@ -23474,7 +23474,7 @@
         <v>137.98913074259909</v>
       </c>
       <c r="Y218" s="17">
-        <v>154.37448943971111</v>
+        <v>154.37465781165994</v>
       </c>
       <c r="Z218" s="9"/>
       <c r="AA218" s="9"/>
@@ -23548,7 +23548,7 @@
       <c r="CQ218" s="9"/>
       <c r="CR218" s="9"/>
     </row>
-    <row r="219" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>11</v>
       </c>
@@ -23622,7 +23622,7 @@
         <v>114.88456262888711</v>
       </c>
       <c r="Y219" s="17">
-        <v>116.57486952779468</v>
+        <v>116.57490463593876</v>
       </c>
       <c r="Z219" s="9"/>
       <c r="AA219" s="9"/>
@@ -23696,7 +23696,7 @@
       <c r="CQ219" s="9"/>
       <c r="CR219" s="9"/>
     </row>
-    <row r="220" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>10</v>
       </c>
@@ -23770,7 +23770,7 @@
         <v>133.02362487265594</v>
       </c>
       <c r="Y220" s="17">
-        <v>125.37606185313201</v>
+        <v>125.36742846377915</v>
       </c>
       <c r="Z220" s="9"/>
       <c r="AA220" s="9"/>
@@ -23844,7 +23844,7 @@
       <c r="CQ220" s="9"/>
       <c r="CR220" s="9"/>
     </row>
-    <row r="221" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>9</v>
       </c>
@@ -23918,7 +23918,7 @@
         <v>181.27207234727442</v>
       </c>
       <c r="Y221" s="17">
-        <v>170.34320854261281</v>
+        <v>170.33446702849432</v>
       </c>
       <c r="Z221" s="9"/>
       <c r="AA221" s="9"/>
@@ -23992,7 +23992,7 @@
       <c r="CQ221" s="9"/>
       <c r="CR221" s="9"/>
     </row>
-    <row r="222" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>8</v>
       </c>
@@ -24063,10 +24063,10 @@
         <v>138.44216861524922</v>
       </c>
       <c r="X222" s="17">
-        <v>189.19304032197519</v>
+        <v>188.67653187892978</v>
       </c>
       <c r="Y222" s="17">
-        <v>147.23209101237961</v>
+        <v>146.22795047385733</v>
       </c>
       <c r="Z222" s="9"/>
       <c r="AA222" s="9"/>
@@ -24140,7 +24140,7 @@
       <c r="CQ222" s="9"/>
       <c r="CR222" s="9"/>
     </row>
-    <row r="223" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>7</v>
       </c>
@@ -24211,10 +24211,10 @@
         <v>127.31458538422041</v>
       </c>
       <c r="X223" s="17">
-        <v>136.71296498418064</v>
+        <v>136.71286026929482</v>
       </c>
       <c r="Y223" s="17">
-        <v>129.84019398686738</v>
+        <v>129.89655578006713</v>
       </c>
       <c r="Z223" s="9"/>
       <c r="AA223" s="9"/>
@@ -24288,7 +24288,7 @@
       <c r="CQ223" s="9"/>
       <c r="CR223" s="9"/>
     </row>
-    <row r="224" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>6</v>
       </c>
@@ -24359,10 +24359,10 @@
         <v>122.8441227165097</v>
       </c>
       <c r="X224" s="17">
-        <v>121.45837699889958</v>
+        <v>121.45837349103334</v>
       </c>
       <c r="Y224" s="17">
-        <v>109.72813625104752</v>
+        <v>109.74961176919899</v>
       </c>
       <c r="Z224" s="9"/>
       <c r="AA224" s="9"/>
@@ -24436,7 +24436,7 @@
       <c r="CQ224" s="9"/>
       <c r="CR224" s="9"/>
     </row>
-    <row r="225" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>5</v>
       </c>
@@ -24507,10 +24507,10 @@
         <v>102.33710079606637</v>
       </c>
       <c r="X225" s="17">
-        <v>127.16974385816104</v>
+        <v>127.16974385816103</v>
       </c>
       <c r="Y225" s="17">
-        <v>143.27206326672007</v>
+        <v>143.27950876875525</v>
       </c>
       <c r="Z225" s="9"/>
       <c r="AA225" s="9"/>
@@ -24584,7 +24584,7 @@
       <c r="CQ225" s="9"/>
       <c r="CR225" s="9"/>
     </row>
-    <row r="226" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>4</v>
       </c>
@@ -24655,10 +24655,10 @@
         <v>91.046211905625597</v>
       </c>
       <c r="X226" s="17">
-        <v>101.9936970516945</v>
+        <v>101.99367857526566</v>
       </c>
       <c r="Y226" s="17">
-        <v>104.17115634665581</v>
+        <v>104.15509768245204</v>
       </c>
       <c r="Z226" s="9"/>
       <c r="AA226" s="9"/>
@@ -24732,7 +24732,7 @@
       <c r="CQ226" s="9"/>
       <c r="CR226" s="9"/>
     </row>
-    <row r="227" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>3</v>
       </c>
@@ -24803,10 +24803,10 @@
         <v>100.19915255824421</v>
       </c>
       <c r="X227" s="17">
-        <v>120.26711230487048</v>
+        <v>120.26526351673026</v>
       </c>
       <c r="Y227" s="17">
-        <v>79.446499473510656</v>
+        <v>79.460760558408978</v>
       </c>
       <c r="Z227" s="9"/>
       <c r="AA227" s="9"/>
@@ -24880,7 +24880,7 @@
       <c r="CQ227" s="9"/>
       <c r="CR227" s="9"/>
     </row>
-    <row r="228" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>2</v>
       </c>
@@ -24951,10 +24951,10 @@
         <v>115.51236859919167</v>
       </c>
       <c r="X228" s="17">
-        <v>133.55929495211342</v>
+        <v>133.24851999461669</v>
       </c>
       <c r="Y228" s="17">
-        <v>136.95231031236219</v>
+        <v>138.57252640607803</v>
       </c>
       <c r="Z228" s="9"/>
       <c r="AA228" s="9"/>
@@ -25028,7 +25028,7 @@
       <c r="CQ228" s="9"/>
       <c r="CR228" s="9"/>
     </row>
-    <row r="229" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
@@ -25125,7 +25125,7 @@
       <c r="CQ229" s="9"/>
       <c r="CR229" s="9"/>
     </row>
-    <row r="230" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>1</v>
       </c>
@@ -25196,10 +25196,10 @@
         <v>106.31023057842519</v>
       </c>
       <c r="X230" s="17">
-        <v>127.2985539421521</v>
+        <v>127.23900982698784</v>
       </c>
       <c r="Y230" s="17">
-        <v>127.84890780069902</v>
+        <v>128.88441541790527</v>
       </c>
       <c r="Z230" s="9"/>
       <c r="AA230" s="9"/>
@@ -25273,7 +25273,7 @@
       <c r="CQ230" s="9"/>
       <c r="CR230" s="9"/>
     </row>
-    <row r="231" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="12"/>
       <c r="B231" s="12"/>
       <c r="C231" s="12"/>
@@ -25300,45 +25300,45 @@
       <c r="X231" s="12"/>
       <c r="Y231" s="12"/>
     </row>
-    <row r="232" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A233" s="18"/>
     </row>
-    <row r="235" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="236" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="237" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="239" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="240" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="241" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="243" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="15" t="s">
         <v>33</v>
@@ -25367,7 +25367,7 @@
       <c r="X243" s="15"/>
       <c r="Y243" s="15"/>
     </row>
-    <row r="244" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>32</v>
       </c>
@@ -25444,10 +25444,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="245" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="7"/>
     </row>
-    <row r="246" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>31</v>
       </c>
@@ -25518,10 +25518,10 @@
         <v>19.101915622772339</v>
       </c>
       <c r="X246" s="17">
-        <v>16.172485497694751</v>
+        <v>16.162681219513807</v>
       </c>
       <c r="Y246" s="17">
-        <v>15.13712710281988</v>
+        <v>15.162275163855462</v>
       </c>
       <c r="Z246" s="9"/>
       <c r="AA246" s="9"/>
@@ -25595,7 +25595,7 @@
       <c r="CQ246" s="9"/>
       <c r="CR246" s="9"/>
     </row>
-    <row r="247" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
         <v>30</v>
       </c>
@@ -25666,10 +25666,10 @@
         <v>9.6797473417535187</v>
       </c>
       <c r="X247" s="17">
-        <v>9.0024008422477735</v>
+        <v>8.9986295557201004</v>
       </c>
       <c r="Y247" s="17">
-        <v>8.1775789600407567</v>
+        <v>8.2029636452849601</v>
       </c>
       <c r="Z247" s="9"/>
       <c r="AA247" s="9"/>
@@ -25743,7 +25743,7 @@
       <c r="CQ247" s="9"/>
       <c r="CR247" s="9"/>
     </row>
-    <row r="248" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
         <v>29</v>
       </c>
@@ -25814,10 +25814,10 @@
         <v>4.4674657411320506</v>
       </c>
       <c r="X248" s="17">
-        <v>2.9669091130981506</v>
+        <v>2.9644124752839152</v>
       </c>
       <c r="Y248" s="17">
-        <v>2.2742328219997754</v>
+        <v>2.2804133417684405</v>
       </c>
       <c r="Z248" s="9"/>
       <c r="AA248" s="9"/>
@@ -25891,7 +25891,7 @@
       <c r="CQ248" s="9"/>
       <c r="CR248" s="9"/>
     </row>
-    <row r="249" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
         <v>28</v>
       </c>
@@ -25962,10 +25962,10 @@
         <v>0.16140782531593165</v>
       </c>
       <c r="X249" s="17">
-        <v>0.14656150008424892</v>
+        <v>0.14643816938240639</v>
       </c>
       <c r="Y249" s="17">
-        <v>0.18508003942222692</v>
+        <v>0.18486160901998205</v>
       </c>
       <c r="Z249" s="9"/>
       <c r="AA249" s="9"/>
@@ -26039,7 +26039,7 @@
       <c r="CQ249" s="9"/>
       <c r="CR249" s="9"/>
     </row>
-    <row r="250" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
         <v>27</v>
       </c>
@@ -26110,10 +26110,10 @@
         <v>1.0760237221671525</v>
       </c>
       <c r="X250" s="17">
-        <v>0.86365138672692598</v>
+        <v>0.86292462880202014</v>
       </c>
       <c r="Y250" s="17">
-        <v>0.87664355015016682</v>
+        <v>0.8769042937608964</v>
       </c>
       <c r="Z250" s="9"/>
       <c r="AA250" s="9"/>
@@ -26187,7 +26187,7 @@
       <c r="CQ250" s="9"/>
       <c r="CR250" s="9"/>
     </row>
-    <row r="251" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
         <v>26</v>
       </c>
@@ -26258,10 +26258,10 @@
         <v>1.5026509288678533</v>
       </c>
       <c r="X251" s="17">
-        <v>1.225405626362249</v>
+        <v>1.224374454220492</v>
       </c>
       <c r="Y251" s="17">
-        <v>1.1669264938102879</v>
+        <v>1.165709925156738</v>
       </c>
       <c r="Z251" s="9"/>
       <c r="AA251" s="9"/>
@@ -26335,7 +26335,7 @@
       <c r="CQ251" s="9"/>
       <c r="CR251" s="9"/>
     </row>
-    <row r="252" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
         <v>25</v>
       </c>
@@ -26406,10 +26406,10 @@
         <v>1.2158846138996295</v>
       </c>
       <c r="X252" s="17">
-        <v>1.0379407165425574</v>
+        <v>1.0370672950985318</v>
       </c>
       <c r="Y252" s="17">
-        <v>1.2976332175051208</v>
+        <v>1.2948236456409772</v>
       </c>
       <c r="Z252" s="9"/>
       <c r="AA252" s="9"/>
@@ -26483,7 +26483,7 @@
       <c r="CQ252" s="9"/>
       <c r="CR252" s="9"/>
     </row>
-    <row r="253" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
         <v>24</v>
       </c>
@@ -26554,10 +26554,10 @@
         <v>0.76593990923521793</v>
       </c>
       <c r="X253" s="17">
-        <v>0.71698650851754364</v>
+        <v>0.71638376370988144</v>
       </c>
       <c r="Y253" s="17">
-        <v>0.88338929166587532</v>
+        <v>0.8815275990266136</v>
       </c>
       <c r="Z253" s="9"/>
       <c r="AA253" s="9"/>
@@ -26631,7 +26631,7 @@
       <c r="CQ253" s="9"/>
       <c r="CR253" s="9"/>
     </row>
-    <row r="254" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
         <v>23</v>
       </c>
@@ -26702,10 +26702,10 @@
         <v>0.19486290629358075</v>
       </c>
       <c r="X254" s="17">
-        <v>0.1753932921156931</v>
+        <v>0.17524569961832737</v>
       </c>
       <c r="Y254" s="17">
-        <v>0.22611266318625983</v>
+        <v>0.22563740698866075</v>
       </c>
       <c r="Z254" s="9"/>
       <c r="AA254" s="9"/>
@@ -26779,7 +26779,7 @@
       <c r="CQ254" s="9"/>
       <c r="CR254" s="9"/>
     </row>
-    <row r="255" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
         <v>22</v>
       </c>
@@ -26850,10 +26850,10 @@
         <v>3.7932634107402281E-2</v>
       </c>
       <c r="X255" s="17">
-        <v>3.7236511999604843E-2</v>
+        <v>3.7205177678132702E-2</v>
       </c>
       <c r="Y255" s="17">
-        <v>4.9530065039409488E-2</v>
+        <v>4.9433697208195695E-2</v>
       </c>
       <c r="Z255" s="9"/>
       <c r="AA255" s="9"/>
@@ -26927,7 +26927,7 @@
       <c r="CQ255" s="9"/>
       <c r="CR255" s="9"/>
     </row>
-    <row r="256" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>21</v>
       </c>
@@ -26998,10 +26998,10 @@
         <v>13.307150073658844</v>
       </c>
       <c r="X256" s="17">
-        <v>19.776552939763956</v>
+        <v>19.759911078479206</v>
       </c>
       <c r="Y256" s="17">
-        <v>18.06944506817733</v>
+        <v>18.092737743582038</v>
       </c>
       <c r="Z256" s="9"/>
       <c r="AA256" s="9"/>
@@ -27075,7 +27075,7 @@
       <c r="CQ256" s="9"/>
       <c r="CR256" s="9"/>
     </row>
-    <row r="257" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>20</v>
       </c>
@@ -27146,10 +27146,10 @@
         <v>5.0991413328620245</v>
       </c>
       <c r="X257" s="17">
-        <v>4.394023872969905</v>
+        <v>4.3903329981932266</v>
       </c>
       <c r="Y257" s="17">
-        <v>4.4670384635911731</v>
+        <v>4.4640690994739369</v>
       </c>
       <c r="Z257" s="9"/>
       <c r="AA257" s="9"/>
@@ -27223,7 +27223,7 @@
       <c r="CQ257" s="9"/>
       <c r="CR257" s="9"/>
     </row>
-    <row r="258" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>19</v>
       </c>
@@ -27294,10 +27294,10 @@
         <v>0.86663871421364924</v>
       </c>
       <c r="X258" s="17">
-        <v>0.83791115607680811</v>
+        <v>0.83720605841540829</v>
       </c>
       <c r="Y258" s="17">
-        <v>1.1269039413707937</v>
+        <v>1.1250163330515648</v>
       </c>
       <c r="Z258" s="9"/>
       <c r="AA258" s="9"/>
@@ -27371,7 +27371,7 @@
       <c r="CQ258" s="9"/>
       <c r="CR258" s="9"/>
     </row>
-    <row r="259" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>18</v>
       </c>
@@ -27442,10 +27442,10 @@
         <v>6.040557365491579</v>
       </c>
       <c r="X259" s="17">
-        <v>5.2304920177208896</v>
+        <v>5.2262068061260214</v>
       </c>
       <c r="Y259" s="17">
-        <v>5.020491597902609</v>
+        <v>5.0164331829434454</v>
       </c>
       <c r="Z259" s="9"/>
       <c r="AA259" s="9"/>
@@ -27519,7 +27519,7 @@
       <c r="CQ259" s="9"/>
       <c r="CR259" s="9"/>
     </row>
-    <row r="260" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>17</v>
       </c>
@@ -27590,10 +27590,10 @@
         <v>7.5020817352027427</v>
       </c>
       <c r="X260" s="17">
-        <v>8.3758999905800238</v>
+        <v>8.3688534304808719</v>
       </c>
       <c r="Y260" s="17">
-        <v>10.048751583928064</v>
+        <v>10.051880119628885</v>
       </c>
       <c r="Z260" s="9"/>
       <c r="AA260" s="9"/>
@@ -27667,7 +27667,7 @@
       <c r="CQ260" s="9"/>
       <c r="CR260" s="9"/>
     </row>
-    <row r="261" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>16</v>
       </c>
@@ -27738,10 +27738,10 @@
         <v>1.1039122063888869</v>
       </c>
       <c r="X261" s="17">
-        <v>0.93770635561558124</v>
+        <v>0.93676191463075797</v>
       </c>
       <c r="Y261" s="17">
-        <v>0.94923506348644182</v>
+        <v>0.94776342649246659</v>
       </c>
       <c r="Z261" s="9"/>
       <c r="AA261" s="9"/>
@@ -27815,7 +27815,7 @@
       <c r="CQ261" s="9"/>
       <c r="CR261" s="9"/>
     </row>
-    <row r="262" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>15</v>
       </c>
@@ -27886,10 +27886,10 @@
         <v>2.6974471324570359</v>
       </c>
       <c r="X262" s="17">
-        <v>2.470831242387681</v>
+        <v>2.4724102295591561</v>
       </c>
       <c r="Y262" s="17">
-        <v>2.6631412487926052</v>
+        <v>2.6618823396737876</v>
       </c>
       <c r="Z262" s="9"/>
       <c r="AA262" s="9"/>
@@ -27963,7 +27963,7 @@
       <c r="CQ262" s="9"/>
       <c r="CR262" s="9"/>
     </row>
-    <row r="263" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>14</v>
       </c>
@@ -28034,10 +28034,10 @@
         <v>4.9682724138251411</v>
       </c>
       <c r="X263" s="17">
-        <v>4.5991078606925813</v>
+        <v>4.5927823396631915</v>
       </c>
       <c r="Y263" s="17">
-        <v>4.3135928185013697</v>
+        <v>4.3031382292962741</v>
       </c>
       <c r="Z263" s="9"/>
       <c r="AA263" s="9"/>
@@ -28111,7 +28111,7 @@
       <c r="CQ263" s="9"/>
       <c r="CR263" s="9"/>
     </row>
-    <row r="264" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>13</v>
       </c>
@@ -28182,10 +28182,10 @@
         <v>2.7448293422379844</v>
       </c>
       <c r="X264" s="17">
-        <v>2.9000991800915652</v>
+        <v>2.8976587624710568</v>
       </c>
       <c r="Y264" s="17">
-        <v>3.0789631084140856</v>
+        <v>3.0724284509243129</v>
       </c>
       <c r="Z264" s="9"/>
       <c r="AA264" s="9"/>
@@ -28259,7 +28259,7 @@
       <c r="CQ264" s="9"/>
       <c r="CR264" s="9"/>
     </row>
-    <row r="265" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>12</v>
       </c>
@@ -28330,10 +28330,10 @@
         <v>1.0303813363924466</v>
       </c>
       <c r="X265" s="17">
-        <v>1.1892262416437775</v>
+        <v>1.1882255142566589</v>
       </c>
       <c r="Y265" s="17">
-        <v>1.0137496296364301</v>
+        <v>1.0116188680293232</v>
       </c>
       <c r="Z265" s="9"/>
       <c r="AA265" s="9"/>
@@ -28407,7 +28407,7 @@
       <c r="CQ265" s="9"/>
       <c r="CR265" s="9"/>
     </row>
-    <row r="266" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>11</v>
       </c>
@@ -28478,10 +28478,10 @@
         <v>3.614978473072922</v>
       </c>
       <c r="X266" s="17">
-        <v>2.3920311856461192</v>
+        <v>2.3900183044680103</v>
       </c>
       <c r="Y266" s="17">
-        <v>2.3803598943014812</v>
+        <v>2.3754922628367026</v>
       </c>
       <c r="Z266" s="9"/>
       <c r="AA266" s="9"/>
@@ -28555,7 +28555,7 @@
       <c r="CQ266" s="9"/>
       <c r="CR266" s="9"/>
     </row>
-    <row r="267" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>10</v>
       </c>
@@ -28626,10 +28626,10 @@
         <v>1.0311572080603122</v>
       </c>
       <c r="X267" s="17">
-        <v>0.99352982666917389</v>
+        <v>0.9926937767464169</v>
       </c>
       <c r="Y267" s="17">
-        <v>1.0259483270053846</v>
+        <v>1.0235460577862578</v>
       </c>
       <c r="Z267" s="9"/>
       <c r="AA267" s="9"/>
@@ -28703,7 +28703,7 @@
       <c r="CQ267" s="9"/>
       <c r="CR267" s="9"/>
     </row>
-    <row r="268" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>9</v>
       </c>
@@ -28774,10 +28774,10 @@
         <v>1.4141630362728919</v>
       </c>
       <c r="X268" s="17">
-        <v>1.5769179303945624</v>
+        <v>1.5755909625688247</v>
       </c>
       <c r="Y268" s="17">
-        <v>1.5087541119493495</v>
+        <v>1.5064694695106298</v>
       </c>
       <c r="Z268" s="9"/>
       <c r="AA268" s="9"/>
@@ -28851,7 +28851,7 @@
       <c r="CQ268" s="9"/>
       <c r="CR268" s="9"/>
     </row>
-    <row r="269" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>8</v>
       </c>
@@ -28922,10 +28922,10 @@
         <v>0.35071942733097994</v>
       </c>
       <c r="X269" s="17">
-        <v>0.73676815913134353</v>
+        <v>0.73729260167981481</v>
       </c>
       <c r="Y269" s="17">
-        <v>1.1335023122143146</v>
+        <v>1.1366161688278487</v>
       </c>
       <c r="Z269" s="9"/>
       <c r="AA269" s="9"/>
@@ -28999,7 +28999,7 @@
       <c r="CQ269" s="9"/>
       <c r="CR269" s="9"/>
     </row>
-    <row r="270" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>7</v>
       </c>
@@ -29070,10 +29070,10 @@
         <v>1.9289983394054313</v>
       </c>
       <c r="X270" s="17">
-        <v>1.6674107406454137</v>
+        <v>1.6660149015372945</v>
       </c>
       <c r="Y270" s="17">
-        <v>1.8536165983739095</v>
+        <v>1.8498709538761993</v>
       </c>
       <c r="Z270" s="9"/>
       <c r="AA270" s="9"/>
@@ -29147,7 +29147,7 @@
       <c r="CQ270" s="9"/>
       <c r="CR270" s="9"/>
     </row>
-    <row r="271" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>6</v>
       </c>
@@ -29218,10 +29218,10 @@
         <v>2.4798080029583813</v>
       </c>
       <c r="X271" s="17">
-        <v>2.2291205698709433</v>
+        <v>2.2272455183110291</v>
       </c>
       <c r="Y271" s="17">
-        <v>2.0069544414588485</v>
+        <v>1.9997097951968221</v>
       </c>
       <c r="Z271" s="9"/>
       <c r="AA271" s="9"/>
@@ -29295,7 +29295,7 @@
       <c r="CQ271" s="9"/>
       <c r="CR271" s="9"/>
     </row>
-    <row r="272" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>5</v>
       </c>
@@ -29366,10 +29366,10 @@
         <v>1.1511318750769441</v>
       </c>
       <c r="X272" s="17">
-        <v>0.96178123415603112</v>
+        <v>0.96097190050047177</v>
       </c>
       <c r="Y272" s="17">
-        <v>1.1221739427494659</v>
+        <v>1.1204303603668828</v>
       </c>
       <c r="Z272" s="9"/>
       <c r="AA272" s="9"/>
@@ -29443,7 +29443,7 @@
       <c r="CQ272" s="9"/>
       <c r="CR272" s="9"/>
     </row>
-    <row r="273" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>4</v>
       </c>
@@ -29514,10 +29514,10 @@
         <v>1.0915505159318188</v>
       </c>
       <c r="X273" s="17">
-        <v>1.0802933779728467</v>
+        <v>1.0793873675914338</v>
       </c>
       <c r="Y273" s="17">
-        <v>1.1238673879915089</v>
+        <v>1.1199905774550121</v>
       </c>
       <c r="Z273" s="9"/>
       <c r="AA273" s="9"/>
@@ -29591,7 +29591,7 @@
       <c r="CQ273" s="9"/>
       <c r="CR273" s="9"/>
     </row>
-    <row r="274" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>3</v>
       </c>
@@ -29662,10 +29662,10 @@
         <v>0.43402143765746215</v>
       </c>
       <c r="X274" s="17">
-        <v>0.54092985437861674</v>
+        <v>0.54038424462944246</v>
       </c>
       <c r="Y274" s="17">
-        <v>0.63698082099817444</v>
+        <v>0.63624771481994957</v>
       </c>
       <c r="Z274" s="9"/>
       <c r="AA274" s="9"/>
@@ -29739,7 +29739,7 @@
       <c r="CQ274" s="9"/>
       <c r="CR274" s="9"/>
     </row>
-    <row r="275" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>2</v>
       </c>
@@ -29810,10 +29810,10 @@
         <v>22.041144408730158</v>
       </c>
       <c r="X275" s="17">
-        <v>20.936880765897431</v>
+        <v>20.997370070177883</v>
       </c>
       <c r="Y275" s="17">
-        <v>21.319402536336781</v>
+        <v>21.322383682372223</v>
       </c>
       <c r="Z275" s="9"/>
       <c r="AA275" s="9"/>
@@ -29887,7 +29887,7 @@
       <c r="CQ275" s="9"/>
       <c r="CR275" s="9"/>
     </row>
-    <row r="276" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
       <c r="D276" s="9"/>
@@ -29984,7 +29984,7 @@
       <c r="CQ276" s="9"/>
       <c r="CR276" s="9"/>
     </row>
-    <row r="277" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>1</v>
       </c>
@@ -30132,7 +30132,7 @@
       <c r="CQ277" s="9"/>
       <c r="CR277" s="9"/>
     </row>
-    <row r="278" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="12"/>
       <c r="B278" s="12"/>
       <c r="C278" s="12"/>
@@ -30159,12 +30159,12 @@
       <c r="X278" s="12"/>
       <c r="Y278" s="12"/>
     </row>
-    <row r="279" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A279" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
       <c r="D280" s="9"/>
@@ -30261,7 +30261,7 @@
       <c r="CQ280" s="9"/>
       <c r="CR280" s="9"/>
     </row>
-    <row r="281" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
       <c r="D281" s="9"/>
@@ -30358,37 +30358,37 @@
       <c r="CQ281" s="9"/>
       <c r="CR281" s="9"/>
     </row>
-    <row r="282" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="283" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="284" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="286" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="287" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="288" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="290" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="15" t="s">
         <v>33</v>
@@ -30417,7 +30417,7 @@
       <c r="X290" s="15"/>
       <c r="Y290" s="15"/>
     </row>
-    <row r="291" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>32</v>
       </c>
@@ -30494,10 +30494,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="292" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="7"/>
     </row>
-    <row r="293" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>31</v>
       </c>
@@ -30568,10 +30568,10 @@
         <v>21.454751356455272</v>
       </c>
       <c r="X293" s="17">
-        <v>19.913175507686017</v>
+        <v>19.892414531926068</v>
       </c>
       <c r="Y293" s="17">
-        <v>18.246226456917192</v>
+        <v>18.308827995268356</v>
       </c>
       <c r="Z293" s="9"/>
       <c r="AA293" s="9"/>
@@ -30645,7 +30645,7 @@
       <c r="CQ293" s="9"/>
       <c r="CR293" s="9"/>
     </row>
-    <row r="294" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
         <v>30</v>
       </c>
@@ -30716,10 +30716,10 @@
         <v>10.615611760594568</v>
       </c>
       <c r="X294" s="17">
-        <v>11.007503575819895</v>
+        <v>10.998398361892459</v>
       </c>
       <c r="Y294" s="17">
-        <v>10.002591604900985</v>
+        <v>10.026552895297963</v>
       </c>
       <c r="Z294" s="9"/>
       <c r="AA294" s="9"/>
@@ -30793,7 +30793,7 @@
       <c r="CQ294" s="9"/>
       <c r="CR294" s="9"/>
     </row>
-    <row r="295" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
         <v>29</v>
       </c>
@@ -30864,10 +30864,10 @@
         <v>5.302919946848597</v>
       </c>
       <c r="X295" s="17">
-        <v>3.8164045393955783</v>
+        <v>3.8114094282810331</v>
       </c>
       <c r="Y295" s="17">
-        <v>2.8769862332544109</v>
+        <v>2.8823918286173167</v>
       </c>
       <c r="Z295" s="9"/>
       <c r="AA295" s="9"/>
@@ -30941,7 +30941,7 @@
       <c r="CQ295" s="9"/>
       <c r="CR295" s="9"/>
     </row>
-    <row r="296" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
         <v>28</v>
       </c>
@@ -31012,10 +31012,10 @@
         <v>0.18608690355311311</v>
       </c>
       <c r="X296" s="17">
-        <v>0.15772412736561481</v>
+        <v>0.15751768972686264</v>
       </c>
       <c r="Y296" s="17">
-        <v>0.21937234213977777</v>
+        <v>0.22077051965386446</v>
       </c>
       <c r="Z296" s="9"/>
       <c r="AA296" s="9"/>
@@ -31089,7 +31089,7 @@
       <c r="CQ296" s="9"/>
       <c r="CR296" s="9"/>
     </row>
-    <row r="297" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
         <v>27</v>
       </c>
@@ -31160,10 +31160,10 @@
         <v>1.1944210985249677</v>
       </c>
       <c r="X297" s="17">
-        <v>1.0408126103379463</v>
+        <v>1.0394503400166555</v>
       </c>
       <c r="Y297" s="17">
-        <v>0.96457841052965221</v>
+        <v>0.9730507450041741</v>
       </c>
       <c r="Z297" s="9"/>
       <c r="AA297" s="9"/>
@@ -31237,7 +31237,7 @@
       <c r="CQ297" s="9"/>
       <c r="CR297" s="9"/>
     </row>
-    <row r="298" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
         <v>26</v>
       </c>
@@ -31308,10 +31308,10 @@
         <v>1.66934837278611</v>
       </c>
       <c r="X298" s="17">
-        <v>1.4333794698578555</v>
+        <v>1.4315033873704415</v>
       </c>
       <c r="Y298" s="17">
-        <v>1.3382318510957785</v>
+        <v>1.3447745260605968</v>
       </c>
       <c r="Z298" s="9"/>
       <c r="AA298" s="9"/>
@@ -31385,7 +31385,7 @@
       <c r="CQ298" s="9"/>
       <c r="CR298" s="9"/>
     </row>
-    <row r="299" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
         <v>25</v>
       </c>
@@ -31456,10 +31456,10 @@
         <v>1.4010539461171094</v>
       </c>
       <c r="X299" s="17">
-        <v>1.35380333551844</v>
+        <v>1.352031406463658</v>
       </c>
       <c r="Y299" s="17">
-        <v>1.5701366370043719</v>
+        <v>1.5794221349482482</v>
       </c>
       <c r="Z299" s="9"/>
       <c r="AA299" s="9"/>
@@ -31533,7 +31533,7 @@
       <c r="CQ299" s="9"/>
       <c r="CR299" s="9"/>
     </row>
-    <row r="300" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
         <v>24</v>
       </c>
@@ -31604,10 +31604,10 @@
         <v>0.82017374132719223</v>
       </c>
       <c r="X300" s="17">
-        <v>0.84843934761559303</v>
+        <v>0.84732931583307758</v>
       </c>
       <c r="Y300" s="17">
-        <v>0.9541187441291803</v>
+        <v>0.95974459000274726</v>
       </c>
       <c r="Z300" s="9"/>
       <c r="AA300" s="9"/>
@@ -31681,7 +31681,7 @@
       <c r="CQ300" s="9"/>
       <c r="CR300" s="9"/>
     </row>
-    <row r="301" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
         <v>23</v>
       </c>
@@ -31752,10 +31752,10 @@
         <v>0.22281404720310158</v>
       </c>
       <c r="X301" s="17">
-        <v>0.21123671544143993</v>
+        <v>0.21096023771110245</v>
       </c>
       <c r="Y301" s="17">
-        <v>0.26587708480140454</v>
+        <v>0.26746141585704492</v>
       </c>
       <c r="Z301" s="9"/>
       <c r="AA301" s="9"/>
@@ -31829,7 +31829,7 @@
       <c r="CQ301" s="9"/>
       <c r="CR301" s="9"/>
     </row>
-    <row r="302" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
         <v>22</v>
       </c>
@@ -31900,10 +31900,10 @@
         <v>4.2321539500521636E-2</v>
       </c>
       <c r="X302" s="17">
-        <v>4.3871786333656786E-2</v>
+        <v>4.3814364630777002E-2</v>
       </c>
       <c r="Y302" s="17">
-        <v>5.4333549061628975E-2</v>
+        <v>5.4659339826401025E-2</v>
       </c>
       <c r="Z302" s="9"/>
       <c r="AA302" s="9"/>
@@ -31977,7 +31977,7 @@
       <c r="CQ302" s="9"/>
       <c r="CR302" s="9"/>
     </row>
-    <row r="303" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>21</v>
       </c>
@@ -32048,10 +32048,10 @@
         <v>14.024785605321762</v>
       </c>
       <c r="X303" s="17">
-        <v>15.996310052389354</v>
+        <v>15.975373239923698</v>
       </c>
       <c r="Y303" s="17">
-        <v>15.803045724702027</v>
+        <v>15.571128709860638</v>
       </c>
       <c r="Z303" s="9"/>
       <c r="AA303" s="9"/>
@@ -32125,7 +32125,7 @@
       <c r="CQ303" s="9"/>
       <c r="CR303" s="9"/>
     </row>
-    <row r="304" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>20</v>
       </c>
@@ -32196,10 +32196,10 @@
         <v>5.5611704704318354</v>
       </c>
       <c r="X304" s="17">
-        <v>5.0543464809241678</v>
+        <v>5.0477388868707065</v>
       </c>
       <c r="Y304" s="17">
-        <v>4.811461314038679</v>
+        <v>4.847047473595552</v>
       </c>
       <c r="Z304" s="9"/>
       <c r="AA304" s="9"/>
@@ -32273,7 +32273,7 @@
       <c r="CQ304" s="9"/>
       <c r="CR304" s="9"/>
     </row>
-    <row r="305" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>19</v>
       </c>
@@ -32344,10 +32344,10 @@
         <v>0.94002907469254904</v>
       </c>
       <c r="X305" s="17">
-        <v>0.91678538876862581</v>
+        <v>0.91558545180234796</v>
       </c>
       <c r="Y305" s="17">
-        <v>1.1704557746564466</v>
+        <v>1.1778781414734647</v>
       </c>
       <c r="Z305" s="9"/>
       <c r="AA305" s="9"/>
@@ -32421,7 +32421,7 @@
       <c r="CQ305" s="9"/>
       <c r="CR305" s="9"/>
     </row>
-    <row r="306" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>18</v>
       </c>
@@ -32492,10 +32492,10 @@
         <v>4.732556180165151</v>
       </c>
       <c r="X306" s="17">
-        <v>4.4894955185358487</v>
+        <v>4.4842555566837374</v>
       </c>
       <c r="Y306" s="17">
-        <v>4.6007008656812944</v>
+        <v>4.6352680685605101</v>
       </c>
       <c r="Z306" s="9"/>
       <c r="AA306" s="9"/>
@@ -32569,7 +32569,7 @@
       <c r="CQ306" s="9"/>
       <c r="CR306" s="9"/>
     </row>
-    <row r="307" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>17</v>
       </c>
@@ -32640,10 +32640,10 @@
         <v>7.9305245320811126</v>
       </c>
       <c r="X307" s="17">
-        <v>9.6533207671457752</v>
+        <v>9.6406885967579878</v>
       </c>
       <c r="Y307" s="17">
-        <v>10.45492301700499</v>
+        <v>10.455977307958845</v>
       </c>
       <c r="Z307" s="9"/>
       <c r="AA307" s="9"/>
@@ -32717,7 +32717,7 @@
       <c r="CQ307" s="9"/>
       <c r="CR307" s="9"/>
     </row>
-    <row r="308" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>16</v>
       </c>
@@ -32788,10 +32788,10 @@
         <v>1.3353221420613126</v>
       </c>
       <c r="X308" s="17">
-        <v>1.1819763212329439</v>
+        <v>1.1802198878892454</v>
       </c>
       <c r="Y308" s="17">
-        <v>1.1694415976550319</v>
+        <v>1.1770719252005879</v>
       </c>
       <c r="Z308" s="9"/>
       <c r="AA308" s="9"/>
@@ -32865,7 +32865,7 @@
       <c r="CQ308" s="9"/>
       <c r="CR308" s="9"/>
     </row>
-    <row r="309" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>15</v>
       </c>
@@ -32936,10 +32936,10 @@
         <v>2.8738595605912227</v>
       </c>
       <c r="X309" s="17">
-        <v>2.7226072704996418</v>
+        <v>2.7236686530887808</v>
       </c>
       <c r="Y309" s="17">
-        <v>2.775251726405358</v>
+        <v>2.7971735103425983</v>
       </c>
       <c r="Z309" s="9"/>
       <c r="AA309" s="9"/>
@@ -33013,7 +33013,7 @@
       <c r="CQ309" s="9"/>
       <c r="CR309" s="9"/>
     </row>
-    <row r="310" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>14</v>
       </c>
@@ -33084,10 +33084,10 @@
         <v>5.0296484203471694</v>
       </c>
       <c r="X310" s="17">
-        <v>4.7728547682712437</v>
+        <v>4.7640095592359515</v>
       </c>
       <c r="Y310" s="17">
-        <v>4.6811110180155593</v>
+        <v>4.7075981303948309</v>
       </c>
       <c r="Z310" s="9"/>
       <c r="AA310" s="9"/>
@@ -33161,7 +33161,7 @@
       <c r="CQ310" s="9"/>
       <c r="CR310" s="9"/>
     </row>
-    <row r="311" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>13</v>
       </c>
@@ -33232,10 +33232,10 @@
         <v>2.1510206813592019</v>
       </c>
       <c r="X311" s="17">
-        <v>2.2696712489322932</v>
+        <v>2.2667005837512635</v>
       </c>
       <c r="Y311" s="17">
-        <v>2.2028201667903402</v>
+        <v>2.2159461676736778</v>
       </c>
       <c r="Z311" s="9"/>
       <c r="AA311" s="9"/>
@@ -33309,7 +33309,7 @@
       <c r="CQ311" s="9"/>
       <c r="CR311" s="9"/>
     </row>
-    <row r="312" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>12</v>
       </c>
@@ -33380,10 +33380,10 @@
         <v>0.94957674917440382</v>
       </c>
       <c r="X312" s="17">
-        <v>1.0970920684594045</v>
+        <v>1.095656136621395</v>
       </c>
       <c r="Y312" s="17">
-        <v>0.83956088472115675</v>
+        <v>0.84458102307666871</v>
       </c>
       <c r="Z312" s="9"/>
       <c r="AA312" s="9"/>
@@ -33457,7 +33457,7 @@
       <c r="CQ312" s="9"/>
       <c r="CR312" s="9"/>
     </row>
-    <row r="313" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>11</v>
       </c>
@@ -33528,10 +33528,10 @@
         <v>3.6822398578995141</v>
       </c>
       <c r="X313" s="17">
-        <v>2.6505050282597074</v>
+        <v>2.6470359077854098</v>
       </c>
       <c r="Y313" s="17">
-        <v>2.6105661871358299</v>
+        <v>2.6263279612504049</v>
       </c>
       <c r="Z313" s="9"/>
       <c r="AA313" s="9"/>
@@ -33605,7 +33605,7 @@
       <c r="CQ313" s="9"/>
       <c r="CR313" s="9"/>
     </row>
-    <row r="314" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>10</v>
       </c>
@@ -33676,10 +33676,10 @@
         <v>1.0123368000799799</v>
       </c>
       <c r="X314" s="17">
-        <v>0.95077028876981684</v>
+        <v>0.94952587057782778</v>
       </c>
       <c r="Y314" s="17">
-        <v>1.0461835467542735</v>
+        <v>1.0522600401682252</v>
       </c>
       <c r="Z314" s="9"/>
       <c r="AA314" s="9"/>
@@ -33753,7 +33753,7 @@
       <c r="CQ314" s="9"/>
       <c r="CR314" s="9"/>
     </row>
-    <row r="315" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>9</v>
       </c>
@@ -33824,10 +33824,10 @@
         <v>1.0799309926280221</v>
       </c>
       <c r="X315" s="17">
-        <v>1.1073927143068671</v>
+        <v>1.1059433004414605</v>
       </c>
       <c r="Y315" s="17">
-        <v>1.1323760248667862</v>
+        <v>1.1398775615408441</v>
       </c>
       <c r="Z315" s="9"/>
       <c r="AA315" s="9"/>
@@ -33901,7 +33901,7 @@
       <c r="CQ315" s="9"/>
       <c r="CR315" s="9"/>
     </row>
-    <row r="316" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>8</v>
       </c>
@@ -33972,10 +33972,10 @@
         <v>0.26931868780176577</v>
       </c>
       <c r="X316" s="17">
-        <v>0.4957345211453193</v>
+        <v>0.49721276756719834</v>
       </c>
       <c r="Y316" s="17">
-        <v>0.98427612899949968</v>
+        <v>1.0018064945805711</v>
       </c>
       <c r="Z316" s="9"/>
       <c r="AA316" s="9"/>
@@ -34049,7 +34049,7 @@
       <c r="CQ316" s="9"/>
       <c r="CR316" s="9"/>
     </row>
-    <row r="317" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>7</v>
       </c>
@@ -34120,10 +34120,10 @@
         <v>1.6107522765652249</v>
       </c>
       <c r="X317" s="17">
-        <v>1.5525884917815582</v>
+        <v>1.5505643434791212</v>
       </c>
       <c r="Y317" s="17">
-        <v>1.8251887208927058</v>
+        <v>1.8354569530894573</v>
       </c>
       <c r="Z317" s="9"/>
       <c r="AA317" s="9"/>
@@ -34197,7 +34197,7 @@
       <c r="CQ317" s="9"/>
       <c r="CR317" s="9"/>
     </row>
-    <row r="318" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>6</v>
       </c>
@@ -34268,10 +34268,10 @@
         <v>2.1460445543097935</v>
       </c>
       <c r="X318" s="17">
-        <v>2.3363050957765394</v>
+        <v>2.3332480605992396</v>
       </c>
       <c r="Y318" s="17">
-        <v>2.3383877837788956</v>
+        <v>2.3483584479679527</v>
       </c>
       <c r="Z318" s="9"/>
       <c r="AA318" s="9"/>
@@ -34345,7 +34345,7 @@
       <c r="CQ318" s="9"/>
       <c r="CR318" s="9"/>
     </row>
-    <row r="319" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>5</v>
       </c>
@@ -34416,10 +34416,10 @@
         <v>1.1958233535408969</v>
       </c>
       <c r="X319" s="17">
-        <v>0.96275542123696789</v>
+        <v>0.96149531627284079</v>
       </c>
       <c r="Y319" s="17">
-        <v>1.0013725612078135</v>
+        <v>1.0078622773994952</v>
       </c>
       <c r="Z319" s="9"/>
       <c r="AA319" s="9"/>
@@ -34493,7 +34493,7 @@
       <c r="CQ319" s="9"/>
       <c r="CR319" s="9"/>
     </row>
-    <row r="320" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>4</v>
       </c>
@@ -34564,10 +34564,10 @@
         <v>1.2745504135525767</v>
       </c>
       <c r="X320" s="17">
-        <v>1.3483165021415551</v>
+        <v>1.3465558041496029</v>
       </c>
       <c r="Y320" s="17">
-        <v>1.3793186435349725</v>
+        <v>1.3859074981518762</v>
       </c>
       <c r="Z320" s="9"/>
       <c r="AA320" s="9"/>
@@ -34641,7 +34641,7 @@
       <c r="CQ320" s="9"/>
       <c r="CR320" s="9"/>
     </row>
-    <row r="321" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>3</v>
       </c>
@@ -34712,10 +34712,10 @@
         <v>0.46049210931722606</v>
       </c>
       <c r="X321" s="17">
-        <v>0.57255543038217771</v>
+        <v>0.57171916646729848</v>
       </c>
       <c r="Y321" s="17">
-        <v>1.0250584077875236</v>
+        <v>1.0319862811440126</v>
       </c>
       <c r="Z321" s="9"/>
       <c r="AA321" s="9"/>
@@ -34789,7 +34789,7 @@
       <c r="CQ321" s="9"/>
       <c r="CR321" s="9"/>
     </row>
-    <row r="322" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>2</v>
       </c>
@@ -34860,10 +34860,10 @@
         <v>20.285266181624014</v>
       </c>
       <c r="X322" s="17">
-        <v>19.955441113354176</v>
+        <v>20.050388378108828</v>
       </c>
       <c r="Y322" s="17">
-        <v>19.902273448453638</v>
+        <v>19.831658031301426</v>
       </c>
       <c r="Z322" s="9"/>
       <c r="AA322" s="9"/>
@@ -34937,7 +34937,7 @@
       <c r="CQ322" s="9"/>
       <c r="CR322" s="9"/>
     </row>
-    <row r="323" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
       <c r="D323" s="9"/>
@@ -35034,7 +35034,7 @@
       <c r="CQ323" s="9"/>
       <c r="CR323" s="9"/>
     </row>
-    <row r="324" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>1</v>
       </c>
@@ -35182,7 +35182,7 @@
       <c r="CQ324" s="9"/>
       <c r="CR324" s="9"/>
     </row>
-    <row r="325" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="12"/>
       <c r="B325" s="12"/>
       <c r="C325" s="12"/>
@@ -35209,7 +35209,7 @@
       <c r="X325" s="12"/>
       <c r="Y325" s="12"/>
     </row>
-    <row r="326" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A326" s="13" t="s">
         <v>0</v>
       </c>

--- a/Data/National Accounts/PSA-06IOG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-06IOG_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5FCB97-C17C-45F6-BC74-182542C502AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7ADF86-A54E-4D10-A91B-9644BDDD9101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOG" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="78">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -278,13 +278,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2000 to 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2001 to 2023</t>
+    <t>Annual 2000 to 2024</t>
   </si>
   <si>
-    <t>As of April 2024</t>
+    <t>Annual 2001 to 2024</t>
+  </si>
+  <si>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -365,10 +368,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
@@ -406,8 +410,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="4" xr:uid="{B36C000F-C910-46DB-9E79-FB2084296738}"/>
     <cellStyle name="Comma 3" xfId="3" xr:uid="{C2E7F32B-3541-46DC-8F72-3CA98FF60726}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -713,44 +718,44 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.453125" style="1" customWidth="1"/>
-    <col min="2" max="25" width="10.453125" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="45.44140625" style="1" customWidth="1"/>
+    <col min="2" max="26" width="10.44140625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>33</v>
@@ -778,8 +783,9 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -855,11 +861,14 @@
       <c r="Y10" s="6">
         <v>2023</v>
       </c>
+      <c r="Z10" s="6">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -935,7 +944,9 @@
       <c r="Y12" s="8">
         <v>1201246.8423382374</v>
       </c>
-      <c r="Z12" s="9"/>
+      <c r="Z12" s="8">
+        <v>1317657.877850553</v>
+      </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
@@ -1007,7 +1018,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>30</v>
       </c>
@@ -1083,7 +1094,9 @@
       <c r="Y13" s="11">
         <v>649888.23050803249</v>
       </c>
-      <c r="Z13" s="9"/>
+      <c r="Z13" s="11">
+        <v>668168.39047912601</v>
+      </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
@@ -1155,7 +1168,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1231,7 +1244,9 @@
       <c r="Y14" s="11">
         <v>180668.09211822588</v>
       </c>
-      <c r="Z14" s="9"/>
+      <c r="Z14" s="11">
+        <v>223098.13904911428</v>
+      </c>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
@@ -1303,7 +1318,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
@@ -1379,7 +1394,9 @@
       <c r="Y15" s="11">
         <v>14645.851081385646</v>
       </c>
-      <c r="Z15" s="9"/>
+      <c r="Z15" s="11">
+        <v>13670.018268946969</v>
+      </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
@@ -1451,7 +1468,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
@@ -1527,7 +1544,9 @@
       <c r="Y16" s="11">
         <v>69473.644458333772</v>
       </c>
-      <c r="Z16" s="9"/>
+      <c r="Z16" s="11">
+        <v>100980.49155773048</v>
+      </c>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
@@ -1599,7 +1618,7 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
@@ -1675,7 +1694,9 @@
       <c r="Y17" s="11">
         <v>92354.5676057237</v>
       </c>
-      <c r="Z17" s="9"/>
+      <c r="Z17" s="11">
+        <v>103361.00905226954</v>
+      </c>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
@@ -1747,7 +1768,7 @@
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
     </row>
-    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>25</v>
       </c>
@@ -1823,7 +1844,9 @@
       <c r="Y18" s="11">
         <v>102583.73488821456</v>
       </c>
-      <c r="Z18" s="9"/>
+      <c r="Z18" s="11">
+        <v>112264.20897288003</v>
+      </c>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
@@ -1895,7 +1918,7 @@
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
     </row>
-    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1971,7 +1994,9 @@
       <c r="Y19" s="11">
         <v>69839.930572494777</v>
       </c>
-      <c r="Z19" s="9"/>
+      <c r="Z19" s="11">
+        <v>73379.497119244334</v>
+      </c>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
@@ -2043,7 +2068,7 @@
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
     </row>
-    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>23</v>
       </c>
@@ -2119,7 +2144,9 @@
       <c r="Y20" s="11">
         <v>17876.355608203779</v>
       </c>
-      <c r="Z20" s="9"/>
+      <c r="Z20" s="11">
+        <v>18845.247376761174</v>
+      </c>
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
@@ -2191,7 +2218,7 @@
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
     </row>
-    <row r="21" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
@@ -2267,7 +2294,9 @@
       <c r="Y21" s="11">
         <v>3916.4354976229015</v>
       </c>
-      <c r="Z21" s="9"/>
+      <c r="Z21" s="11">
+        <v>3890.8759744801205</v>
+      </c>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
@@ -2339,7 +2368,7 @@
       <c r="CQ21" s="9"/>
       <c r="CR21" s="9"/>
     </row>
-    <row r="22" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2415,7 +2444,9 @@
       <c r="Y22" s="11">
         <v>1433415.7538270983</v>
       </c>
-      <c r="Z22" s="9"/>
+      <c r="Z22" s="11">
+        <v>1415649.4421412768</v>
+      </c>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
@@ -2487,7 +2518,7 @@
       <c r="CQ22" s="9"/>
       <c r="CR22" s="9"/>
     </row>
-    <row r="23" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2563,7 +2594,9 @@
       <c r="Y23" s="11">
         <v>353670.46513613086</v>
       </c>
-      <c r="Z23" s="9"/>
+      <c r="Z23" s="11">
+        <v>370577.07843028021</v>
+      </c>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
@@ -2635,7 +2668,7 @@
       <c r="CQ23" s="9"/>
       <c r="CR23" s="9"/>
     </row>
-    <row r="24" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2711,7 +2744,9 @@
       <c r="Y24" s="11">
         <v>89130.575922980119</v>
       </c>
-      <c r="Z24" s="9"/>
+      <c r="Z24" s="11">
+        <v>89714.31577853208</v>
+      </c>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
@@ -2783,7 +2818,7 @@
       <c r="CQ24" s="9"/>
       <c r="CR24" s="9"/>
     </row>
-    <row r="25" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -2859,7 +2894,9 @@
       <c r="Y25" s="11">
         <v>397432.07768558152</v>
       </c>
-      <c r="Z25" s="9"/>
+      <c r="Z25" s="11">
+        <v>463424.24341529829</v>
+      </c>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
@@ -2931,7 +2968,7 @@
       <c r="CQ25" s="9"/>
       <c r="CR25" s="9"/>
     </row>
-    <row r="26" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -3007,7 +3044,9 @@
       <c r="Y26" s="11">
         <v>796370.53956461279</v>
       </c>
-      <c r="Z26" s="9"/>
+      <c r="Z26" s="11">
+        <v>749664.40038697631</v>
+      </c>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
@@ -3079,7 +3118,7 @@
       <c r="CQ26" s="9"/>
       <c r="CR26" s="9"/>
     </row>
-    <row r="27" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -3155,7 +3194,9 @@
       <c r="Y27" s="11">
         <v>75087.532118645875</v>
       </c>
-      <c r="Z27" s="9"/>
+      <c r="Z27" s="11">
+        <v>75826.616169083165</v>
+      </c>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
@@ -3227,7 +3268,7 @@
       <c r="CQ27" s="9"/>
       <c r="CR27" s="9"/>
     </row>
-    <row r="28" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -3303,7 +3344,9 @@
       <c r="Y28" s="11">
         <v>210890.36576988074</v>
       </c>
-      <c r="Z28" s="9"/>
+      <c r="Z28" s="11">
+        <v>211245.32372111152</v>
+      </c>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
@@ -3375,7 +3418,7 @@
       <c r="CQ28" s="9"/>
       <c r="CR28" s="9"/>
     </row>
-    <row r="29" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -3451,7 +3494,9 @@
       <c r="Y29" s="11">
         <v>340920.55144926533</v>
       </c>
-      <c r="Z29" s="9"/>
+      <c r="Z29" s="11">
+        <v>358349.8333337584</v>
+      </c>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
@@ -3523,7 +3568,7 @@
       <c r="CQ29" s="9"/>
       <c r="CR29" s="9"/>
     </row>
-    <row r="30" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -3599,7 +3644,9 @@
       <c r="Y30" s="11">
         <v>243416.30362843978</v>
       </c>
-      <c r="Z30" s="9"/>
+      <c r="Z30" s="11">
+        <v>311910.12859287974</v>
+      </c>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
@@ -3671,7 +3718,7 @@
       <c r="CQ30" s="9"/>
       <c r="CR30" s="9"/>
     </row>
-    <row r="31" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -3747,7 +3794,9 @@
       <c r="Y31" s="11">
         <v>80146.545141646435</v>
       </c>
-      <c r="Z31" s="9"/>
+      <c r="Z31" s="11">
+        <v>86194.927967639465</v>
+      </c>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
@@ -3819,7 +3868,7 @@
       <c r="CQ31" s="9"/>
       <c r="CR31" s="9"/>
     </row>
-    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -3895,7 +3944,9 @@
       <c r="Y32" s="11">
         <v>188200.81741650059</v>
       </c>
-      <c r="Z32" s="9"/>
+      <c r="Z32" s="11">
+        <v>206074.15654089602</v>
+      </c>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
@@ -3967,7 +4018,7 @@
       <c r="CQ32" s="9"/>
       <c r="CR32" s="9"/>
     </row>
-    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -4043,7 +4094,9 @@
       <c r="Y33" s="11">
         <v>81091.489015745319</v>
       </c>
-      <c r="Z33" s="9"/>
+      <c r="Z33" s="11">
+        <v>88318.344391672974</v>
+      </c>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
@@ -4115,7 +4168,7 @@
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
     </row>
-    <row r="34" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -4191,7 +4244,9 @@
       <c r="Y34" s="11">
         <v>119351.59293524179</v>
       </c>
-      <c r="Z34" s="9"/>
+      <c r="Z34" s="11">
+        <v>119368.56128457181</v>
+      </c>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
@@ -4263,7 +4318,7 @@
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
     </row>
-    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -4339,7 +4394,9 @@
       <c r="Y35" s="11">
         <v>90049.584841319767</v>
       </c>
-      <c r="Z35" s="9"/>
+      <c r="Z35" s="11">
+        <v>90601.132825305409</v>
+      </c>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
@@ -4411,7 +4468,7 @@
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
     </row>
-    <row r="36" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -4487,7 +4544,9 @@
       <c r="Y36" s="11">
         <v>146557.92867908609</v>
       </c>
-      <c r="Z36" s="9"/>
+      <c r="Z36" s="11">
+        <v>161782.84995354732</v>
+      </c>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
@@ -4559,7 +4618,7 @@
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -4635,7 +4694,9 @@
       <c r="Y37" s="11">
         <v>158429.06497300428</v>
       </c>
-      <c r="Z37" s="9"/>
+      <c r="Z37" s="11">
+        <v>179080.72222748454</v>
+      </c>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
@@ -4707,7 +4768,7 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -4783,7 +4844,9 @@
       <c r="Y38" s="11">
         <v>88767.247520943449</v>
       </c>
-      <c r="Z38" s="9"/>
+      <c r="Z38" s="11">
+        <v>103455.17121113099</v>
+      </c>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
@@ -4855,7 +4918,7 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -4931,7 +4994,9 @@
       <c r="Y39" s="11">
         <v>88732.405267489405</v>
       </c>
-      <c r="Z39" s="9"/>
+      <c r="Z39" s="11">
+        <v>84847.719320055068</v>
+      </c>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
       <c r="AC39" s="9"/>
@@ -5003,7 +5068,7 @@
       <c r="CQ39" s="9"/>
       <c r="CR39" s="9"/>
     </row>
-    <row r="40" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5079,7 +5144,9 @@
       <c r="Y40" s="11">
         <v>50407.379506891899</v>
       </c>
-      <c r="Z40" s="9"/>
+      <c r="Z40" s="11">
+        <v>54737.62581228005</v>
+      </c>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
@@ -5151,7 +5218,7 @@
       <c r="CQ40" s="9"/>
       <c r="CR40" s="9"/>
     </row>
-    <row r="41" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
@@ -5227,7 +5294,9 @@
       <c r="Y41" s="11">
         <v>1689287.7746100081</v>
       </c>
-      <c r="Z41" s="9"/>
+      <c r="Z41" s="11">
+        <v>1750202.718700604</v>
+      </c>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
@@ -5299,7 +5368,7 @@
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
     </row>
-    <row r="42" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -5396,7 +5465,7 @@
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
     </row>
-    <row r="43" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -5472,7 +5541,9 @@
       <c r="Y43" s="8">
         <v>7922602.837348748</v>
       </c>
-      <c r="Z43" s="9"/>
+      <c r="Z43" s="8">
+        <v>8288683.1900549382</v>
+      </c>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
@@ -5544,7 +5615,7 @@
       <c r="CQ43" s="9"/>
       <c r="CR43" s="9"/>
     </row>
-    <row r="44" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -5570,13 +5641,14 @@
       <c r="W44" s="12"/>
       <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
@@ -5601,7 +5673,7 @@
       <c r="W46" s="14"/>
       <c r="X46" s="14"/>
       <c r="Y46" s="14"/>
-      <c r="Z46" s="9"/>
+      <c r="Z46" s="14"/>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
@@ -5673,7 +5745,7 @@
       <c r="CQ46" s="9"/>
       <c r="CR46" s="9"/>
     </row>
-    <row r="47" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -5770,37 +5842,37 @@
       <c r="CQ47" s="9"/>
       <c r="CR47" s="9"/>
     </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="15" t="s">
         <v>33</v>
@@ -5828,8 +5900,9 @@
       <c r="W56" s="15"/>
       <c r="X56" s="15"/>
       <c r="Y56" s="15"/>
+      <c r="Z56" s="15"/>
     </row>
-    <row r="57" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>32</v>
       </c>
@@ -5905,11 +5978,14 @@
       <c r="Y57" s="16">
         <v>2023</v>
       </c>
+      <c r="Z57" s="16">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="58" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>31</v>
       </c>
@@ -5985,7 +6061,9 @@
       <c r="Y59" s="8">
         <v>1125454.7119099684</v>
       </c>
-      <c r="Z59" s="9"/>
+      <c r="Z59" s="8">
+        <v>1207707.5239717551</v>
+      </c>
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
@@ -6057,7 +6135,7 @@
       <c r="CQ59" s="9"/>
       <c r="CR59" s="9"/>
     </row>
-    <row r="60" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>30</v>
       </c>
@@ -6133,7 +6211,9 @@
       <c r="Y60" s="11">
         <v>616338.26059996407</v>
       </c>
-      <c r="Z60" s="9"/>
+      <c r="Z60" s="11">
+        <v>618219.50109228247</v>
+      </c>
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
@@ -6205,7 +6285,7 @@
       <c r="CQ60" s="9"/>
       <c r="CR60" s="9"/>
     </row>
-    <row r="61" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>29</v>
       </c>
@@ -6281,7 +6361,9 @@
       <c r="Y61" s="11">
         <v>177182.3661201314</v>
       </c>
-      <c r="Z61" s="9"/>
+      <c r="Z61" s="11">
+        <v>219112.40254968638</v>
+      </c>
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
@@ -6353,7 +6435,7 @@
       <c r="CQ61" s="9"/>
       <c r="CR61" s="9"/>
     </row>
-    <row r="62" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>28</v>
       </c>
@@ -6429,7 +6511,9 @@
       <c r="Y62" s="11">
         <v>13570.897146418476</v>
       </c>
-      <c r="Z62" s="9"/>
+      <c r="Z62" s="11">
+        <v>13542.610454896216</v>
+      </c>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
@@ -6501,7 +6585,7 @@
       <c r="CQ62" s="9"/>
       <c r="CR62" s="9"/>
     </row>
-    <row r="63" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>27</v>
       </c>
@@ -6577,7 +6661,9 @@
       <c r="Y63" s="11">
         <v>59814.016832506779</v>
       </c>
-      <c r="Z63" s="9"/>
+      <c r="Z63" s="11">
+        <v>87222.019552774276</v>
+      </c>
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
       <c r="AC63" s="9"/>
@@ -6649,7 +6735,7 @@
       <c r="CQ63" s="9"/>
       <c r="CR63" s="9"/>
     </row>
-    <row r="64" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>26</v>
       </c>
@@ -6725,7 +6811,9 @@
       <c r="Y64" s="11">
         <v>82664.102104325313</v>
       </c>
-      <c r="Z64" s="9"/>
+      <c r="Z64" s="11">
+        <v>87206.391315493413</v>
+      </c>
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
       <c r="AC64" s="9"/>
@@ -6797,7 +6885,7 @@
       <c r="CQ64" s="9"/>
       <c r="CR64" s="9"/>
     </row>
-    <row r="65" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>25</v>
       </c>
@@ -6873,7 +6961,9 @@
       <c r="Y65" s="11">
         <v>97088.032305060362</v>
       </c>
-      <c r="Z65" s="9"/>
+      <c r="Z65" s="11">
+        <v>100917.59611333597</v>
+      </c>
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
       <c r="AC65" s="9"/>
@@ -6945,7 +7035,7 @@
       <c r="CQ65" s="9"/>
       <c r="CR65" s="9"/>
     </row>
-    <row r="66" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>24</v>
       </c>
@@ -7021,7 +7111,9 @@
       <c r="Y66" s="11">
         <v>58996.079450188787</v>
       </c>
-      <c r="Z66" s="9"/>
+      <c r="Z66" s="11">
+        <v>61992.118799496653</v>
+      </c>
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
@@ -7093,7 +7185,7 @@
       <c r="CQ66" s="9"/>
       <c r="CR66" s="9"/>
     </row>
-    <row r="67" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>23</v>
       </c>
@@ -7169,7 +7261,9 @@
       <c r="Y67" s="11">
         <v>16441.014728425856</v>
       </c>
-      <c r="Z67" s="9"/>
+      <c r="Z67" s="11">
+        <v>16428.131790722975</v>
+      </c>
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
@@ -7241,7 +7335,7 @@
       <c r="CQ67" s="9"/>
       <c r="CR67" s="9"/>
     </row>
-    <row r="68" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>22</v>
       </c>
@@ -7317,7 +7411,9 @@
       <c r="Y68" s="11">
         <v>3359.9426229472074</v>
       </c>
-      <c r="Z68" s="9"/>
+      <c r="Z68" s="11">
+        <v>3066.7523030667599</v>
+      </c>
       <c r="AA68" s="9"/>
       <c r="AB68" s="9"/>
       <c r="AC68" s="9"/>
@@ -7389,7 +7485,7 @@
       <c r="CQ68" s="9"/>
       <c r="CR68" s="9"/>
     </row>
-    <row r="69" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -7465,7 +7561,9 @@
       <c r="Y69" s="11">
         <v>957166.68378763576</v>
       </c>
-      <c r="Z69" s="9"/>
+      <c r="Z69" s="11">
+        <v>961569.91425092658</v>
+      </c>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
@@ -7537,7 +7635,7 @@
       <c r="CQ69" s="9"/>
       <c r="CR69" s="9"/>
     </row>
-    <row r="70" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>20</v>
       </c>
@@ -7613,7 +7711,9 @@
       <c r="Y70" s="11">
         <v>297950.93489431543</v>
       </c>
-      <c r="Z70" s="9"/>
+      <c r="Z70" s="11">
+        <v>296346.65696645901</v>
+      </c>
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
@@ -7685,7 +7785,7 @@
       <c r="CQ70" s="9"/>
       <c r="CR70" s="9"/>
     </row>
-    <row r="71" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>19</v>
       </c>
@@ -7761,7 +7861,9 @@
       <c r="Y71" s="11">
         <v>72404.880570163281</v>
       </c>
-      <c r="Z71" s="9"/>
+      <c r="Z71" s="11">
+        <v>78553.976890721824</v>
+      </c>
       <c r="AA71" s="9"/>
       <c r="AB71" s="9"/>
       <c r="AC71" s="9"/>
@@ -7833,7 +7935,7 @@
       <c r="CQ71" s="9"/>
       <c r="CR71" s="9"/>
     </row>
-    <row r="72" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>18</v>
       </c>
@@ -7909,7 +8011,9 @@
       <c r="Y72" s="11">
         <v>284932.72699243471</v>
       </c>
-      <c r="Z72" s="9"/>
+      <c r="Z72" s="11">
+        <v>302352.11618470616</v>
+      </c>
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
@@ -7981,7 +8085,7 @@
       <c r="CQ72" s="9"/>
       <c r="CR72" s="9"/>
     </row>
-    <row r="73" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>17</v>
       </c>
@@ -8057,7 +8161,9 @@
       <c r="Y73" s="11">
         <v>642735.23853668745</v>
       </c>
-      <c r="Z73" s="9"/>
+      <c r="Z73" s="11">
+        <v>549755.62187764829</v>
+      </c>
       <c r="AA73" s="9"/>
       <c r="AB73" s="9"/>
       <c r="AC73" s="9"/>
@@ -8129,7 +8235,7 @@
       <c r="CQ73" s="9"/>
       <c r="CR73" s="9"/>
     </row>
-    <row r="74" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>16</v>
       </c>
@@ -8205,7 +8311,9 @@
       <c r="Y74" s="11">
         <v>72355.321969068638</v>
       </c>
-      <c r="Z74" s="9"/>
+      <c r="Z74" s="11">
+        <v>72724.087944601371</v>
+      </c>
       <c r="AA74" s="9"/>
       <c r="AB74" s="9"/>
       <c r="AC74" s="9"/>
@@ -8277,7 +8385,7 @@
       <c r="CQ74" s="9"/>
       <c r="CR74" s="9"/>
     </row>
-    <row r="75" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>15</v>
       </c>
@@ -8353,7 +8461,9 @@
       <c r="Y75" s="11">
         <v>171943.94464017038</v>
       </c>
-      <c r="Z75" s="9"/>
+      <c r="Z75" s="11">
+        <v>166571.65820140351</v>
+      </c>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
       <c r="AC75" s="9"/>
@@ -8425,7 +8535,7 @@
       <c r="CQ75" s="9"/>
       <c r="CR75" s="9"/>
     </row>
-    <row r="76" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>14</v>
       </c>
@@ -8501,7 +8611,9 @@
       <c r="Y76" s="11">
         <v>289378.89956695522</v>
       </c>
-      <c r="Z76" s="9"/>
+      <c r="Z76" s="11">
+        <v>294507.64020949497</v>
+      </c>
       <c r="AA76" s="9"/>
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
@@ -8573,7 +8685,7 @@
       <c r="CQ76" s="9"/>
       <c r="CR76" s="9"/>
     </row>
-    <row r="77" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
@@ -8649,7 +8761,9 @@
       <c r="Y77" s="11">
         <v>136215.54893583036</v>
       </c>
-      <c r="Z77" s="9"/>
+      <c r="Z77" s="11">
+        <v>175756.18361399992</v>
+      </c>
       <c r="AA77" s="9"/>
       <c r="AB77" s="9"/>
       <c r="AC77" s="9"/>
@@ -8721,7 +8835,7 @@
       <c r="CQ77" s="9"/>
       <c r="CR77" s="9"/>
     </row>
-    <row r="78" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
@@ -8797,7 +8911,9 @@
       <c r="Y78" s="11">
         <v>51916.905454408698</v>
       </c>
-      <c r="Z78" s="9"/>
+      <c r="Z78" s="11">
+        <v>52874.905736559791</v>
+      </c>
       <c r="AA78" s="9"/>
       <c r="AB78" s="9"/>
       <c r="AC78" s="9"/>
@@ -8869,7 +8985,7 @@
       <c r="CQ78" s="9"/>
       <c r="CR78" s="9"/>
     </row>
-    <row r="79" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
@@ -8945,7 +9061,9 @@
       <c r="Y79" s="11">
         <v>161441.96557933991</v>
       </c>
-      <c r="Z79" s="9"/>
+      <c r="Z79" s="11">
+        <v>175971.53731411081</v>
+      </c>
       <c r="AA79" s="9"/>
       <c r="AB79" s="9"/>
       <c r="AC79" s="9"/>
@@ -9017,7 +9135,7 @@
       <c r="CQ79" s="9"/>
       <c r="CR79" s="9"/>
     </row>
-    <row r="80" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>10</v>
       </c>
@@ -9093,7 +9211,9 @@
       <c r="Y80" s="11">
         <v>64683.060033550959</v>
       </c>
-      <c r="Z80" s="9"/>
+      <c r="Z80" s="11">
+        <v>68396.488563171544</v>
+      </c>
       <c r="AA80" s="9"/>
       <c r="AB80" s="9"/>
       <c r="AC80" s="9"/>
@@ -9165,7 +9285,7 @@
       <c r="CQ80" s="9"/>
       <c r="CR80" s="9"/>
     </row>
-    <row r="81" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
@@ -9241,7 +9361,9 @@
       <c r="Y81" s="11">
         <v>70068.961976601087</v>
       </c>
-      <c r="Z81" s="9"/>
+      <c r="Z81" s="11">
+        <v>83553.602355739597</v>
+      </c>
       <c r="AA81" s="9"/>
       <c r="AB81" s="9"/>
       <c r="AC81" s="9"/>
@@ -9313,7 +9435,7 @@
       <c r="CQ81" s="9"/>
       <c r="CR81" s="9"/>
     </row>
-    <row r="82" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -9389,7 +9511,9 @@
       <c r="Y82" s="11">
         <v>61581.65012195726</v>
       </c>
-      <c r="Z82" s="9"/>
+      <c r="Z82" s="11">
+        <v>52881.280680208103</v>
+      </c>
       <c r="AA82" s="9"/>
       <c r="AB82" s="9"/>
       <c r="AC82" s="9"/>
@@ -9461,7 +9585,7 @@
       <c r="CQ82" s="9"/>
       <c r="CR82" s="9"/>
     </row>
-    <row r="83" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
@@ -9537,7 +9661,9 @@
       <c r="Y83" s="11">
         <v>112826.6471724077</v>
       </c>
-      <c r="Z83" s="9"/>
+      <c r="Z83" s="11">
+        <v>117520.30661472978</v>
+      </c>
       <c r="AA83" s="9"/>
       <c r="AB83" s="9"/>
       <c r="AC83" s="9"/>
@@ -9609,7 +9735,7 @@
       <c r="CQ83" s="9"/>
       <c r="CR83" s="9"/>
     </row>
-    <row r="84" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -9685,7 +9811,9 @@
       <c r="Y84" s="11">
         <v>144355.0117572872</v>
       </c>
-      <c r="Z84" s="9"/>
+      <c r="Z84" s="11">
+        <v>155637.62027897389</v>
+      </c>
       <c r="AA84" s="9"/>
       <c r="AB84" s="9"/>
       <c r="AC84" s="9"/>
@@ -9757,7 +9885,7 @@
       <c r="CQ84" s="9"/>
       <c r="CR84" s="9"/>
     </row>
-    <row r="85" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>5</v>
       </c>
@@ -9833,7 +9961,9 @@
       <c r="Y85" s="11">
         <v>61953.902748374567</v>
       </c>
-      <c r="Z85" s="9"/>
+      <c r="Z85" s="11">
+        <v>63285.309363750057</v>
+      </c>
       <c r="AA85" s="9"/>
       <c r="AB85" s="9"/>
       <c r="AC85" s="9"/>
@@ -9905,7 +10035,7 @@
       <c r="CQ85" s="9"/>
       <c r="CR85" s="9"/>
     </row>
-    <row r="86" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>4</v>
       </c>
@@ -9981,7 +10111,9 @@
       <c r="Y86" s="11">
         <v>85192.570735247806</v>
       </c>
-      <c r="Z86" s="9"/>
+      <c r="Z86" s="11">
+        <v>78101.160037176669</v>
+      </c>
       <c r="AA86" s="9"/>
       <c r="AB86" s="9"/>
       <c r="AC86" s="9"/>
@@ -10053,7 +10185,7 @@
       <c r="CQ86" s="9"/>
       <c r="CR86" s="9"/>
     </row>
-    <row r="87" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
@@ -10129,7 +10261,9 @@
       <c r="Y87" s="11">
         <v>63436.819824848135</v>
       </c>
-      <c r="Z87" s="9"/>
+      <c r="Z87" s="11">
+        <v>65146.578129622008</v>
+      </c>
       <c r="AA87" s="9"/>
       <c r="AB87" s="9"/>
       <c r="AC87" s="9"/>
@@ -10201,7 +10335,7 @@
       <c r="CQ87" s="9"/>
       <c r="CR87" s="9"/>
     </row>
-    <row r="88" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
@@ -10277,7 +10411,9 @@
       <c r="Y88" s="11">
         <v>1219063.9937238765</v>
       </c>
-      <c r="Z88" s="9"/>
+      <c r="Z88" s="11">
+        <v>1251353.8021755046</v>
+      </c>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
@@ -10349,7 +10485,7 @@
       <c r="CQ88" s="9"/>
       <c r="CR88" s="9"/>
     </row>
-    <row r="89" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -10446,7 +10582,7 @@
       <c r="CQ89" s="9"/>
       <c r="CR89" s="9"/>
     </row>
-    <row r="90" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>1</v>
       </c>
@@ -10522,7 +10658,9 @@
       <c r="Y90" s="8">
         <v>6147060.3809311297</v>
       </c>
-      <c r="Z90" s="9"/>
+      <c r="Z90" s="8">
+        <v>6270567.9713612646</v>
+      </c>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
@@ -10594,7 +10732,7 @@
       <c r="CQ90" s="9"/>
       <c r="CR90" s="9"/>
     </row>
-    <row r="91" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -10620,13 +10758,14 @@
       <c r="W91" s="12"/>
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
+      <c r="Z91" s="12"/>
     </row>
-    <row r="92" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -10723,7 +10862,7 @@
       <c r="CQ93" s="9"/>
       <c r="CR93" s="9"/>
     </row>
-    <row r="94" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -10820,37 +10959,37 @@
       <c r="CQ94" s="9"/>
       <c r="CR94" s="9"/>
     </row>
-    <row r="95" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="99" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="100" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="101" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="15" t="s">
         <v>33</v>
@@ -10878,8 +11017,9 @@
       <c r="W103" s="15"/>
       <c r="X103" s="15"/>
       <c r="Y103" s="15"/>
+      <c r="Z103" s="15"/>
     </row>
-    <row r="104" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>32</v>
       </c>
@@ -10952,12 +11092,15 @@
       <c r="X104" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="Y104" s="16"/>
+      <c r="Y104" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z104" s="16"/>
     </row>
-    <row r="105" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>31</v>
       </c>
@@ -11030,8 +11173,10 @@
       <c r="X106" s="17">
         <v>-9.3310366702204419</v>
       </c>
-      <c r="Y106" s="17"/>
-      <c r="Z106" s="9"/>
+      <c r="Y106" s="17">
+        <v>9.690850490455432</v>
+      </c>
+      <c r="Z106" s="17"/>
       <c r="AA106" s="9"/>
       <c r="AB106" s="9"/>
       <c r="AC106" s="9"/>
@@ -11098,7 +11243,7 @@
       <c r="CL106" s="9"/>
       <c r="CM106" s="9"/>
     </row>
-    <row r="107" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
         <v>30</v>
       </c>
@@ -11171,8 +11316,10 @@
       <c r="X107" s="17">
         <v>-11.894687336042622</v>
       </c>
-      <c r="Y107" s="17"/>
-      <c r="Z107" s="9"/>
+      <c r="Y107" s="17">
+        <v>2.8128159755722209</v>
+      </c>
+      <c r="Z107" s="17"/>
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
       <c r="AC107" s="9"/>
@@ -11239,7 +11386,7 @@
       <c r="CL107" s="9"/>
       <c r="CM107" s="9"/>
     </row>
-    <row r="108" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
         <v>29</v>
       </c>
@@ -11312,8 +11459,10 @@
       <c r="X108" s="17">
         <v>-25.649717229370012</v>
       </c>
-      <c r="Y108" s="17"/>
-      <c r="Z108" s="9"/>
+      <c r="Y108" s="17">
+        <v>23.48508053271685</v>
+      </c>
+      <c r="Z108" s="17"/>
       <c r="AA108" s="9"/>
       <c r="AB108" s="9"/>
       <c r="AC108" s="9"/>
@@ -11380,7 +11529,7 @@
       <c r="CL108" s="9"/>
       <c r="CM108" s="9"/>
     </row>
-    <row r="109" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>28</v>
       </c>
@@ -11453,8 +11602,10 @@
       <c r="X109" s="17">
         <v>22.011318768929854</v>
       </c>
-      <c r="Y109" s="17"/>
-      <c r="Z109" s="9"/>
+      <c r="Y109" s="17">
+        <v>-6.6628617689478347</v>
+      </c>
+      <c r="Z109" s="17"/>
       <c r="AA109" s="9"/>
       <c r="AB109" s="9"/>
       <c r="AC109" s="9"/>
@@ -11521,7 +11672,7 @@
       <c r="CL109" s="9"/>
       <c r="CM109" s="9"/>
     </row>
-    <row r="110" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
         <v>27</v>
       </c>
@@ -11594,8 +11745,10 @@
       <c r="X110" s="17">
         <v>-1.7829205787171958</v>
       </c>
-      <c r="Y110" s="17"/>
-      <c r="Z110" s="9"/>
+      <c r="Y110" s="17">
+        <v>45.350790713581574</v>
+      </c>
+      <c r="Z110" s="17"/>
       <c r="AA110" s="9"/>
       <c r="AB110" s="9"/>
       <c r="AC110" s="9"/>
@@ -11662,7 +11815,7 @@
       <c r="CL110" s="9"/>
       <c r="CM110" s="9"/>
     </row>
-    <row r="111" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>26</v>
       </c>
@@ -11735,8 +11888,10 @@
       <c r="X111" s="17">
         <v>-7.9796421002632343</v>
       </c>
-      <c r="Y111" s="17"/>
-      <c r="Z111" s="9"/>
+      <c r="Y111" s="17">
+        <v>11.917592959272014</v>
+      </c>
+      <c r="Z111" s="17"/>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
       <c r="AC111" s="9"/>
@@ -11803,7 +11958,7 @@
       <c r="CL111" s="9"/>
       <c r="CM111" s="9"/>
     </row>
-    <row r="112" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
         <v>25</v>
       </c>
@@ -11876,8 +12031,10 @@
       <c r="X112" s="17">
         <v>20.673349298191141</v>
       </c>
-      <c r="Y112" s="17"/>
-      <c r="Z112" s="9"/>
+      <c r="Y112" s="17">
+        <v>9.4366559135464172</v>
+      </c>
+      <c r="Z112" s="17"/>
       <c r="AA112" s="9"/>
       <c r="AB112" s="9"/>
       <c r="AC112" s="9"/>
@@ -11944,7 +12101,7 @@
       <c r="CL112" s="9"/>
       <c r="CM112" s="9"/>
     </row>
-    <row r="113" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
         <v>24</v>
       </c>
@@ -12017,8 +12174,10 @@
       <c r="X113" s="17">
         <v>18.931764740092461</v>
       </c>
-      <c r="Y113" s="17"/>
-      <c r="Z113" s="9"/>
+      <c r="Y113" s="17">
+        <v>5.0681129229867281</v>
+      </c>
+      <c r="Z113" s="17"/>
       <c r="AA113" s="9"/>
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
@@ -12085,7 +12244,7 @@
       <c r="CL113" s="9"/>
       <c r="CM113" s="9"/>
     </row>
-    <row r="114" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>23</v>
       </c>
@@ -12158,8 +12317,10 @@
       <c r="X114" s="17">
         <v>24.443269917302459</v>
       </c>
-      <c r="Y114" s="17"/>
-      <c r="Z114" s="9"/>
+      <c r="Y114" s="17">
+        <v>5.4199624900768555</v>
+      </c>
+      <c r="Z114" s="17"/>
       <c r="AA114" s="9"/>
       <c r="AB114" s="9"/>
       <c r="AC114" s="9"/>
@@ -12226,7 +12387,7 @@
       <c r="CL114" s="9"/>
       <c r="CM114" s="9"/>
     </row>
-    <row r="115" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>22</v>
       </c>
@@ -12299,8 +12460,10 @@
       <c r="X115" s="17">
         <v>28.418441159952295</v>
       </c>
-      <c r="Y115" s="17"/>
-      <c r="Z115" s="9"/>
+      <c r="Y115" s="17">
+        <v>-0.65262208858780468</v>
+      </c>
+      <c r="Z115" s="17"/>
       <c r="AA115" s="9"/>
       <c r="AB115" s="9"/>
       <c r="AC115" s="9"/>
@@ -12367,7 +12530,7 @@
       <c r="CL115" s="9"/>
       <c r="CM115" s="9"/>
     </row>
-    <row r="116" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>21</v>
       </c>
@@ -12440,8 +12603,10 @@
       <c r="X116" s="17">
         <v>-11.503318450687559</v>
       </c>
-      <c r="Y116" s="17"/>
-      <c r="Z116" s="9"/>
+      <c r="Y116" s="17">
+        <v>-1.2394388465723978</v>
+      </c>
+      <c r="Z116" s="17"/>
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
       <c r="AC116" s="9"/>
@@ -12508,7 +12673,7 @@
       <c r="CL116" s="9"/>
       <c r="CM116" s="9"/>
     </row>
-    <row r="117" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>20</v>
       </c>
@@ -12581,8 +12746,10 @@
       <c r="X117" s="17">
         <v>-1.7254349921448409</v>
       </c>
-      <c r="Y117" s="17"/>
-      <c r="Z117" s="9"/>
+      <c r="Y117" s="17">
+        <v>4.780329419829215</v>
+      </c>
+      <c r="Z117" s="17"/>
       <c r="AA117" s="9"/>
       <c r="AB117" s="9"/>
       <c r="AC117" s="9"/>
@@ -12649,7 +12816,7 @@
       <c r="CL117" s="9"/>
       <c r="CM117" s="9"/>
     </row>
-    <row r="118" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
@@ -12722,8 +12889,10 @@
       <c r="X118" s="17">
         <v>29.877568319024562</v>
       </c>
-      <c r="Y118" s="17"/>
-      <c r="Z118" s="9"/>
+      <c r="Y118" s="17">
+        <v>0.65492660572101613</v>
+      </c>
+      <c r="Z118" s="17"/>
       <c r="AA118" s="9"/>
       <c r="AB118" s="9"/>
       <c r="AC118" s="9"/>
@@ -12790,7 +12959,7 @@
       <c r="CL118" s="9"/>
       <c r="CM118" s="9"/>
     </row>
-    <row r="119" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>18</v>
       </c>
@@ -12863,8 +13032,10 @@
       <c r="X119" s="17">
         <v>-7.2281698046945024</v>
       </c>
-      <c r="Y119" s="17"/>
-      <c r="Z119" s="9"/>
+      <c r="Y119" s="17">
+        <v>16.604639996353001</v>
+      </c>
+      <c r="Z119" s="17"/>
       <c r="AA119" s="9"/>
       <c r="AB119" s="9"/>
       <c r="AC119" s="9"/>
@@ -12931,7 +13102,7 @@
       <c r="CL119" s="9"/>
       <c r="CM119" s="9"/>
     </row>
-    <row r="120" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>17</v>
       </c>
@@ -13004,8 +13175,10 @@
       <c r="X120" s="17">
         <v>16.088452592187366</v>
       </c>
-      <c r="Y120" s="17"/>
-      <c r="Z120" s="9"/>
+      <c r="Y120" s="17">
+        <v>-5.8648753133398657</v>
+      </c>
+      <c r="Z120" s="17"/>
       <c r="AA120" s="9"/>
       <c r="AB120" s="9"/>
       <c r="AC120" s="9"/>
@@ -13072,7 +13245,7 @@
       <c r="CL120" s="9"/>
       <c r="CM120" s="9"/>
     </row>
-    <row r="121" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>16</v>
       </c>
@@ -13145,8 +13318,10 @@
       <c r="X121" s="17">
         <v>-2.2136122204675246</v>
       </c>
-      <c r="Y121" s="17"/>
-      <c r="Z121" s="9"/>
+      <c r="Y121" s="17">
+        <v>0.98429663298756509</v>
+      </c>
+      <c r="Z121" s="17"/>
       <c r="AA121" s="9"/>
       <c r="AB121" s="9"/>
       <c r="AC121" s="9"/>
@@ -13213,7 +13388,7 @@
       <c r="CL121" s="9"/>
       <c r="CM121" s="9"/>
     </row>
-    <row r="122" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>15</v>
       </c>
@@ -13286,8 +13461,10 @@
       <c r="X122" s="17">
         <v>4.0581275268477128</v>
       </c>
-      <c r="Y122" s="17"/>
-      <c r="Z122" s="9"/>
+      <c r="Y122" s="17">
+        <v>0.16831397201811171</v>
+      </c>
+      <c r="Z122" s="17"/>
       <c r="AA122" s="9"/>
       <c r="AB122" s="9"/>
       <c r="AC122" s="9"/>
@@ -13354,7 +13531,7 @@
       <c r="CL122" s="9"/>
       <c r="CM122" s="9"/>
     </row>
-    <row r="123" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>14</v>
       </c>
@@ -13427,8 +13604,10 @@
       <c r="X123" s="17">
         <v>-9.4440237645164444</v>
       </c>
-      <c r="Y123" s="17"/>
-      <c r="Z123" s="9"/>
+      <c r="Y123" s="17">
+        <v>5.1124174856577582</v>
+      </c>
+      <c r="Z123" s="17"/>
       <c r="AA123" s="9"/>
       <c r="AB123" s="9"/>
       <c r="AC123" s="9"/>
@@ -13495,7 +13674,7 @@
       <c r="CL123" s="9"/>
       <c r="CM123" s="9"/>
     </row>
-    <row r="124" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -13568,8 +13747,10 @@
       <c r="X124" s="17">
         <v>2.4807326149752811</v>
       </c>
-      <c r="Y124" s="17"/>
-      <c r="Z124" s="9"/>
+      <c r="Y124" s="17">
+        <v>28.138552735971047</v>
+      </c>
+      <c r="Z124" s="17"/>
       <c r="AA124" s="9"/>
       <c r="AB124" s="9"/>
       <c r="AC124" s="9"/>
@@ -13636,7 +13817,7 @@
       <c r="CL124" s="9"/>
       <c r="CM124" s="9"/>
     </row>
-    <row r="125" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>12</v>
       </c>
@@ -13709,8 +13890,10 @@
       <c r="X125" s="17">
         <v>-17.71404175880123</v>
       </c>
-      <c r="Y125" s="17"/>
-      <c r="Z125" s="9"/>
+      <c r="Y125" s="17">
+        <v>7.5466544631505457</v>
+      </c>
+      <c r="Z125" s="17"/>
       <c r="AA125" s="9"/>
       <c r="AB125" s="9"/>
       <c r="AC125" s="9"/>
@@ -13777,7 +13960,7 @@
       <c r="CL125" s="9"/>
       <c r="CM125" s="9"/>
     </row>
-    <row r="126" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
@@ -13850,8 +14033,10 @@
       <c r="X126" s="17">
         <v>-3.9361303896696569</v>
       </c>
-      <c r="Y126" s="17"/>
-      <c r="Z126" s="9"/>
+      <c r="Y126" s="17">
+        <v>9.4969508473709681</v>
+      </c>
+      <c r="Z126" s="17"/>
       <c r="AA126" s="9"/>
       <c r="AB126" s="9"/>
       <c r="AC126" s="9"/>
@@ -13918,7 +14103,7 @@
       <c r="CL126" s="9"/>
       <c r="CM126" s="9"/>
     </row>
-    <row r="127" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
@@ -13991,8 +14176,10 @@
       <c r="X127" s="17">
         <v>-0.34484378074812128</v>
       </c>
-      <c r="Y127" s="17"/>
-      <c r="Z127" s="9"/>
+      <c r="Y127" s="17">
+        <v>8.9119776485106001</v>
+      </c>
+      <c r="Z127" s="17"/>
       <c r="AA127" s="9"/>
       <c r="AB127" s="9"/>
       <c r="AC127" s="9"/>
@@ -14059,7 +14246,7 @@
       <c r="CL127" s="9"/>
       <c r="CM127" s="9"/>
     </row>
-    <row r="128" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>9</v>
       </c>
@@ -14132,8 +14319,10 @@
       <c r="X128" s="17">
         <v>-7.5888154612020742</v>
       </c>
-      <c r="Y128" s="17"/>
-      <c r="Z128" s="9"/>
+      <c r="Y128" s="17">
+        <v>1.4217111739128541E-2</v>
+      </c>
+      <c r="Z128" s="17"/>
       <c r="AA128" s="9"/>
       <c r="AB128" s="9"/>
       <c r="AC128" s="9"/>
@@ -14200,7 +14389,7 @@
       <c r="CL128" s="9"/>
       <c r="CM128" s="9"/>
     </row>
-    <row r="129" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>8</v>
       </c>
@@ -14273,8 +14462,10 @@
       <c r="X129" s="17">
         <v>48.998411165856595</v>
       </c>
-      <c r="Y129" s="17"/>
-      <c r="Z129" s="9"/>
+      <c r="Y129" s="17">
+        <v>0.61249364442662113</v>
+      </c>
+      <c r="Z129" s="17"/>
       <c r="AA129" s="9"/>
       <c r="AB129" s="9"/>
       <c r="AC129" s="9"/>
@@ -14341,7 +14532,7 @@
       <c r="CL129" s="9"/>
       <c r="CM129" s="9"/>
     </row>
-    <row r="130" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>7</v>
       </c>
@@ -14414,8 +14605,10 @@
       <c r="X130" s="17">
         <v>7.317422959836108</v>
       </c>
-      <c r="Y130" s="17"/>
-      <c r="Z130" s="9"/>
+      <c r="Y130" s="17">
+        <v>10.38833000144183</v>
+      </c>
+      <c r="Z130" s="17"/>
       <c r="AA130" s="9"/>
       <c r="AB130" s="9"/>
       <c r="AC130" s="9"/>
@@ -14482,7 +14675,7 @@
       <c r="CL130" s="9"/>
       <c r="CM130" s="9"/>
     </row>
-    <row r="131" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>6</v>
       </c>
@@ -14555,8 +14748,10 @@
       <c r="X131" s="17">
         <v>-13.222613977739073</v>
       </c>
-      <c r="Y131" s="17"/>
-      <c r="Z131" s="9"/>
+      <c r="Y131" s="17">
+        <v>13.03527055341722</v>
+      </c>
+      <c r="Z131" s="17"/>
       <c r="AA131" s="9"/>
       <c r="AB131" s="9"/>
       <c r="AC131" s="9"/>
@@ -14623,7 +14818,7 @@
       <c r="CL131" s="9"/>
       <c r="CM131" s="9"/>
     </row>
-    <row r="132" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>5</v>
       </c>
@@ -14696,8 +14891,10 @@
       <c r="X132" s="17">
         <v>12.689087773918018</v>
       </c>
-      <c r="Y132" s="17"/>
-      <c r="Z132" s="9"/>
+      <c r="Y132" s="17">
+        <v>16.546557542771751</v>
+      </c>
+      <c r="Z132" s="17"/>
       <c r="AA132" s="9"/>
       <c r="AB132" s="9"/>
       <c r="AC132" s="9"/>
@@ -14764,7 +14961,7 @@
       <c r="CL132" s="9"/>
       <c r="CM132" s="9"/>
     </row>
-    <row r="133" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>4</v>
       </c>
@@ -14837,8 +15034,10 @@
       <c r="X133" s="17">
         <v>0.28701882694075209</v>
       </c>
-      <c r="Y133" s="17"/>
-      <c r="Z133" s="9"/>
+      <c r="Y133" s="17">
+        <v>-4.3779788632165406</v>
+      </c>
+      <c r="Z133" s="17"/>
       <c r="AA133" s="9"/>
       <c r="AB133" s="9"/>
       <c r="AC133" s="9"/>
@@ -14905,7 +15104,7 @@
       <c r="CL133" s="9"/>
       <c r="CM133" s="9"/>
     </row>
-    <row r="134" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>3</v>
       </c>
@@ -14978,8 +15177,10 @@
       <c r="X134" s="17">
         <v>13.797112098373731</v>
       </c>
-      <c r="Y134" s="17"/>
-      <c r="Z134" s="9"/>
+      <c r="Y134" s="17">
+        <v>8.5905007317353324</v>
+      </c>
+      <c r="Z134" s="17"/>
       <c r="AA134" s="9"/>
       <c r="AB134" s="9"/>
       <c r="AC134" s="9"/>
@@ -15046,7 +15247,7 @@
       <c r="CL134" s="9"/>
       <c r="CM134" s="9"/>
     </row>
-    <row r="135" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>2</v>
       </c>
@@ -15119,8 +15320,10 @@
       <c r="X135" s="17">
         <v>-1.8526597316364928</v>
       </c>
-      <c r="Y135" s="17"/>
-      <c r="Z135" s="9"/>
+      <c r="Y135" s="17">
+        <v>3.6059542374098328</v>
+      </c>
+      <c r="Z135" s="17"/>
       <c r="AA135" s="9"/>
       <c r="AB135" s="9"/>
       <c r="AC135" s="9"/>
@@ -15187,7 +15390,7 @@
       <c r="CL135" s="9"/>
       <c r="CM135" s="9"/>
     </row>
-    <row r="136" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -15279,7 +15482,7 @@
       <c r="CL136" s="9"/>
       <c r="CM136" s="9"/>
     </row>
-    <row r="137" spans="1:92" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:92" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>1</v>
       </c>
@@ -15352,8 +15555,10 @@
       <c r="X137" s="17">
         <v>-3.3487036103637848</v>
       </c>
-      <c r="Y137" s="17"/>
-      <c r="Z137" s="9"/>
+      <c r="Y137" s="17">
+        <v>4.6207081210787493</v>
+      </c>
+      <c r="Z137" s="17"/>
       <c r="AA137" s="9"/>
       <c r="AB137" s="9"/>
       <c r="AC137" s="9"/>
@@ -15420,7 +15625,7 @@
       <c r="CL137" s="9"/>
       <c r="CM137" s="9"/>
     </row>
-    <row r="138" spans="1:92" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:92" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -15446,13 +15651,14 @@
       <c r="W138" s="12"/>
       <c r="X138" s="12"/>
       <c r="Y138" s="12"/>
+      <c r="Z138" s="12"/>
     </row>
-    <row r="139" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
@@ -15544,7 +15750,7 @@
       <c r="CL140" s="9"/>
       <c r="CM140" s="9"/>
     </row>
-    <row r="141" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
@@ -15637,37 +15843,37 @@
       <c r="CM141" s="9"/>
       <c r="CN141" s="9"/>
     </row>
-    <row r="142" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="146" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="147" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="148" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="150" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="15" t="s">
         <v>33</v>
@@ -15695,8 +15901,9 @@
       <c r="W150" s="15"/>
       <c r="X150" s="15"/>
       <c r="Y150" s="15"/>
+      <c r="Z150" s="15"/>
     </row>
-    <row r="151" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>32</v>
       </c>
@@ -15769,12 +15976,15 @@
       <c r="X151" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="Y151" s="16"/>
+      <c r="Y151" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z151" s="16"/>
     </row>
-    <row r="152" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7"/>
     </row>
-    <row r="153" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>31</v>
       </c>
@@ -15847,8 +16057,10 @@
       <c r="X153" s="17">
         <v>-12.178550231748062</v>
       </c>
-      <c r="Y153" s="17"/>
-      <c r="Z153" s="9"/>
+      <c r="Y153" s="17">
+        <v>7.3084070990469598</v>
+      </c>
+      <c r="Z153" s="17"/>
       <c r="AA153" s="9"/>
       <c r="AB153" s="9"/>
       <c r="AC153" s="9"/>
@@ -15915,7 +16127,7 @@
       <c r="CL153" s="9"/>
       <c r="CM153" s="9"/>
     </row>
-    <row r="154" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
         <v>30</v>
       </c>
@@ -15988,8 +16200,10 @@
       <c r="X154" s="17">
         <v>-13.013919616364248</v>
       </c>
-      <c r="Y154" s="17"/>
-      <c r="Z154" s="9"/>
+      <c r="Y154" s="17">
+        <v>0.30522857537469861</v>
+      </c>
+      <c r="Z154" s="17"/>
       <c r="AA154" s="9"/>
       <c r="AB154" s="9"/>
       <c r="AC154" s="9"/>
@@ -16056,7 +16270,7 @@
       <c r="CL154" s="9"/>
       <c r="CM154" s="9"/>
     </row>
-    <row r="155" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
         <v>29</v>
       </c>
@@ -16129,8 +16343,10 @@
       <c r="X155" s="17">
         <v>-27.840257907942188</v>
       </c>
-      <c r="Y155" s="17"/>
-      <c r="Z155" s="9"/>
+      <c r="Y155" s="17">
+        <v>23.664903764252699</v>
+      </c>
+      <c r="Z155" s="17"/>
       <c r="AA155" s="9"/>
       <c r="AB155" s="9"/>
       <c r="AC155" s="9"/>
@@ -16197,7 +16413,7 @@
       <c r="CL155" s="9"/>
       <c r="CM155" s="9"/>
     </row>
-    <row r="156" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
         <v>28</v>
       </c>
@@ -16270,8 +16486,10 @@
       <c r="X156" s="17">
         <v>33.733220977279046</v>
       </c>
-      <c r="Y156" s="17"/>
-      <c r="Z156" s="9"/>
+      <c r="Y156" s="17">
+        <v>-0.20843641519843459</v>
+      </c>
+      <c r="Z156" s="17"/>
       <c r="AA156" s="9"/>
       <c r="AB156" s="9"/>
       <c r="AC156" s="9"/>
@@ -16338,7 +16556,7 @@
       <c r="CL156" s="9"/>
       <c r="CM156" s="9"/>
     </row>
-    <row r="157" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
         <v>27</v>
       </c>
@@ -16411,8 +16629,10 @@
       <c r="X157" s="17">
         <v>-10.677822413162446</v>
       </c>
-      <c r="Y157" s="17"/>
-      <c r="Z157" s="9"/>
+      <c r="Y157" s="17">
+        <v>45.822040002791169</v>
+      </c>
+      <c r="Z157" s="17"/>
       <c r="AA157" s="9"/>
       <c r="AB157" s="9"/>
       <c r="AC157" s="9"/>
@@ -16479,7 +16699,7 @@
       <c r="CL157" s="9"/>
       <c r="CM157" s="9"/>
     </row>
-    <row r="158" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
         <v>26</v>
       </c>
@@ -16552,8 +16772,10 @@
       <c r="X158" s="17">
         <v>-10.3635492151694</v>
       </c>
-      <c r="Y158" s="17"/>
-      <c r="Z158" s="9"/>
+      <c r="Y158" s="17">
+        <v>5.4948751580650566</v>
+      </c>
+      <c r="Z158" s="17"/>
       <c r="AA158" s="9"/>
       <c r="AB158" s="9"/>
       <c r="AC158" s="9"/>
@@ -16620,7 +16842,7 @@
       <c r="CL158" s="9"/>
       <c r="CM158" s="9"/>
     </row>
-    <row r="159" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
         <v>25</v>
       </c>
@@ -16693,8 +16915,10 @@
       <c r="X159" s="17">
         <v>11.465122726428859</v>
       </c>
-      <c r="Y159" s="17"/>
-      <c r="Z159" s="9"/>
+      <c r="Y159" s="17">
+        <v>3.9444241657331531</v>
+      </c>
+      <c r="Z159" s="17"/>
       <c r="AA159" s="9"/>
       <c r="AB159" s="9"/>
       <c r="AC159" s="9"/>
@@ -16761,7 +16985,7 @@
       <c r="CL159" s="9"/>
       <c r="CM159" s="9"/>
     </row>
-    <row r="160" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
         <v>24</v>
       </c>
@@ -16834,8 +17058,10 @@
       <c r="X160" s="17">
         <v>8.0764320281995623</v>
       </c>
-      <c r="Y160" s="17"/>
-      <c r="Z160" s="9"/>
+      <c r="Y160" s="17">
+        <v>5.0783702531241488</v>
+      </c>
+      <c r="Z160" s="17"/>
       <c r="AA160" s="9"/>
       <c r="AB160" s="9"/>
       <c r="AC160" s="9"/>
@@ -16902,7 +17128,7 @@
       <c r="CL160" s="9"/>
       <c r="CM160" s="9"/>
     </row>
-    <row r="161" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
         <v>23</v>
       </c>
@@ -16975,8 +17201,10 @@
       <c r="X161" s="17">
         <v>20.972899909310485</v>
       </c>
-      <c r="Y161" s="17"/>
-      <c r="Z161" s="9"/>
+      <c r="Y161" s="17">
+        <v>-7.8358531487765504E-2</v>
+      </c>
+      <c r="Z161" s="17"/>
       <c r="AA161" s="9"/>
       <c r="AB161" s="9"/>
       <c r="AC161" s="9"/>
@@ -17043,7 +17271,7 @@
       <c r="CL161" s="9"/>
       <c r="CM161" s="9"/>
     </row>
-    <row r="162" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="10" t="s">
         <v>22</v>
       </c>
@@ -17116,8 +17344,10 @@
       <c r="X162" s="17">
         <v>19.035204430508415</v>
       </c>
-      <c r="Y162" s="17"/>
-      <c r="Z162" s="9"/>
+      <c r="Y162" s="17">
+        <v>-8.7260513878440094</v>
+      </c>
+      <c r="Z162" s="17"/>
       <c r="AA162" s="9"/>
       <c r="AB162" s="9"/>
       <c r="AC162" s="9"/>
@@ -17184,7 +17414,7 @@
       <c r="CL162" s="9"/>
       <c r="CM162" s="9"/>
     </row>
-    <row r="163" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>21</v>
       </c>
@@ -17257,8 +17487,10 @@
       <c r="X163" s="17">
         <v>-6.9970682028325939</v>
       </c>
-      <c r="Y163" s="17"/>
-      <c r="Z163" s="9"/>
+      <c r="Y163" s="17">
+        <v>0.46002755192718325</v>
+      </c>
+      <c r="Z163" s="17"/>
       <c r="AA163" s="9"/>
       <c r="AB163" s="9"/>
       <c r="AC163" s="9"/>
@@ -17325,7 +17557,7 @@
       <c r="CL163" s="9"/>
       <c r="CM163" s="9"/>
     </row>
-    <row r="164" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>20</v>
       </c>
@@ -17398,8 +17630,10 @@
       <c r="X164" s="17">
         <v>-8.3762736961583215</v>
       </c>
-      <c r="Y164" s="17"/>
-      <c r="Z164" s="9"/>
+      <c r="Y164" s="17">
+        <v>-0.53843695050846918</v>
+      </c>
+      <c r="Z164" s="17"/>
       <c r="AA164" s="9"/>
       <c r="AB164" s="9"/>
       <c r="AC164" s="9"/>
@@ -17466,7 +17700,7 @@
       <c r="CL164" s="9"/>
       <c r="CM164" s="9"/>
     </row>
-    <row r="165" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>19</v>
       </c>
@@ -17539,8 +17773,10 @@
       <c r="X165" s="17">
         <v>22.752130190229636</v>
       </c>
-      <c r="Y165" s="17"/>
-      <c r="Z165" s="9"/>
+      <c r="Y165" s="17">
+        <v>8.4926544621530411</v>
+      </c>
+      <c r="Z165" s="17"/>
       <c r="AA165" s="9"/>
       <c r="AB165" s="9"/>
       <c r="AC165" s="9"/>
@@ -17607,7 +17843,7 @@
       <c r="CL165" s="9"/>
       <c r="CM165" s="9"/>
     </row>
-    <row r="166" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>18</v>
       </c>
@@ -17680,8 +17916,10 @@
       <c r="X166" s="17">
         <v>-1.3693128401278472</v>
       </c>
-      <c r="Y166" s="17"/>
-      <c r="Z166" s="9"/>
+      <c r="Y166" s="17">
+        <v>6.1135094505075642</v>
+      </c>
+      <c r="Z166" s="17"/>
       <c r="AA166" s="9"/>
       <c r="AB166" s="9"/>
       <c r="AC166" s="9"/>
@@ -17748,7 +17986,7 @@
       <c r="CL166" s="9"/>
       <c r="CM166" s="9"/>
     </row>
-    <row r="167" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>17</v>
       </c>
@@ -17821,8 +18059,10 @@
       <c r="X167" s="17">
         <v>3.4866039955399941</v>
       </c>
-      <c r="Y167" s="17"/>
-      <c r="Z167" s="9"/>
+      <c r="Y167" s="17">
+        <v>-14.466239142376182</v>
+      </c>
+      <c r="Z167" s="17"/>
       <c r="AA167" s="9"/>
       <c r="AB167" s="9"/>
       <c r="AC167" s="9"/>
@@ -17889,7 +18129,7 @@
       <c r="CL167" s="9"/>
       <c r="CM167" s="9"/>
     </row>
-    <row r="168" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>16</v>
       </c>
@@ -17962,8 +18202,10 @@
       <c r="X168" s="17">
         <v>-4.8371081733348547</v>
       </c>
-      <c r="Y168" s="17"/>
-      <c r="Z168" s="9"/>
+      <c r="Y168" s="17">
+        <v>0.50965978105988086</v>
+      </c>
+      <c r="Z168" s="17"/>
       <c r="AA168" s="9"/>
       <c r="AB168" s="9"/>
       <c r="AC168" s="9"/>
@@ -18030,7 +18272,7 @@
       <c r="CL168" s="9"/>
       <c r="CM168" s="9"/>
     </row>
-    <row r="169" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>15</v>
       </c>
@@ -18103,8 +18345,10 @@
       <c r="X169" s="17">
         <v>-2.0075327213091043</v>
       </c>
-      <c r="Y169" s="17"/>
-      <c r="Z169" s="9"/>
+      <c r="Y169" s="17">
+        <v>-3.1244406134857172</v>
+      </c>
+      <c r="Z169" s="17"/>
       <c r="AA169" s="9"/>
       <c r="AB169" s="9"/>
       <c r="AC169" s="9"/>
@@ -18171,7 +18415,7 @@
       <c r="CL169" s="9"/>
       <c r="CM169" s="9"/>
     </row>
-    <row r="170" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>14</v>
       </c>
@@ -18244,8 +18488,10 @@
       <c r="X170" s="17">
         <v>-5.7124576485500853</v>
       </c>
-      <c r="Y170" s="17"/>
-      <c r="Z170" s="9"/>
+      <c r="Y170" s="17">
+        <v>1.7723270944131571</v>
+      </c>
+      <c r="Z170" s="17"/>
       <c r="AA170" s="9"/>
       <c r="AB170" s="9"/>
       <c r="AC170" s="9"/>
@@ -18312,7 +18558,7 @@
       <c r="CL170" s="9"/>
       <c r="CM170" s="9"/>
     </row>
-    <row r="171" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>13</v>
       </c>
@@ -18385,8 +18631,10 @@
       <c r="X171" s="17">
         <v>-6.7191257640067192</v>
       </c>
-      <c r="Y171" s="17"/>
-      <c r="Z171" s="9"/>
+      <c r="Y171" s="17">
+        <v>29.027989085736976</v>
+      </c>
+      <c r="Z171" s="17"/>
       <c r="AA171" s="9"/>
       <c r="AB171" s="9"/>
       <c r="AC171" s="9"/>
@@ -18453,7 +18701,7 @@
       <c r="CL171" s="9"/>
       <c r="CM171" s="9"/>
     </row>
-    <row r="172" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>12</v>
       </c>
@@ -18526,8 +18774,10 @@
       <c r="X172" s="17">
         <v>-26.447980445873327</v>
       </c>
-      <c r="Y172" s="17"/>
-      <c r="Z172" s="9"/>
+      <c r="Y172" s="17">
+        <v>1.8452569038275328</v>
+      </c>
+      <c r="Z172" s="17"/>
       <c r="AA172" s="9"/>
       <c r="AB172" s="9"/>
       <c r="AC172" s="9"/>
@@ -18594,7 +18844,7 @@
       <c r="CL172" s="9"/>
       <c r="CM172" s="9"/>
     </row>
-    <row r="173" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>11</v>
       </c>
@@ -18667,8 +18917,10 @@
       <c r="X173" s="17">
         <v>-5.3290613525504398</v>
       </c>
-      <c r="Y173" s="17"/>
-      <c r="Z173" s="9"/>
+      <c r="Y173" s="17">
+        <v>8.9998729157137376</v>
+      </c>
+      <c r="Z173" s="17"/>
       <c r="AA173" s="9"/>
       <c r="AB173" s="9"/>
       <c r="AC173" s="9"/>
@@ -18735,7 +18987,7 @@
       <c r="CL173" s="9"/>
       <c r="CM173" s="9"/>
     </row>
-    <row r="174" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>10</v>
       </c>
@@ -18808,8 +19060,10 @@
       <c r="X174" s="17">
         <v>5.741102613153771</v>
       </c>
-      <c r="Y174" s="17"/>
-      <c r="Z174" s="9"/>
+      <c r="Y174" s="17">
+        <v>5.7409598860883193</v>
+      </c>
+      <c r="Z174" s="17"/>
       <c r="AA174" s="9"/>
       <c r="AB174" s="9"/>
       <c r="AC174" s="9"/>
@@ -18876,7 +19130,7 @@
       <c r="CL174" s="9"/>
       <c r="CM174" s="9"/>
     </row>
-    <row r="175" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>9</v>
       </c>
@@ -18949,8 +19203,10 @@
       <c r="X175" s="17">
         <v>-1.6548604539794667</v>
       </c>
-      <c r="Y175" s="17"/>
-      <c r="Z175" s="9"/>
+      <c r="Y175" s="17">
+        <v>19.244812537171015</v>
+      </c>
+      <c r="Z175" s="17"/>
       <c r="AA175" s="9"/>
       <c r="AB175" s="9"/>
       <c r="AC175" s="9"/>
@@ -19017,7 +19273,7 @@
       <c r="CL175" s="9"/>
       <c r="CM175" s="9"/>
     </row>
-    <row r="176" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>8</v>
       </c>
@@ -19090,8 +19346,10 @@
       <c r="X176" s="17">
         <v>92.251230925038385</v>
       </c>
-      <c r="Y176" s="17"/>
-      <c r="Z176" s="9"/>
+      <c r="Y176" s="17">
+        <v>-14.128184978023171</v>
+      </c>
+      <c r="Z176" s="17"/>
       <c r="AA176" s="9"/>
       <c r="AB176" s="9"/>
       <c r="AC176" s="9"/>
@@ -19158,7 +19416,7 @@
       <c r="CL176" s="9"/>
       <c r="CM176" s="9"/>
     </row>
-    <row r="177" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>7</v>
       </c>
@@ -19231,8 +19489,10 @@
       <c r="X177" s="17">
         <v>12.948890457188583</v>
       </c>
-      <c r="Y177" s="17"/>
-      <c r="Z177" s="9"/>
+      <c r="Y177" s="17">
+        <v>4.1600628574469738</v>
+      </c>
+      <c r="Z177" s="17"/>
       <c r="AA177" s="9"/>
       <c r="AB177" s="9"/>
       <c r="AC177" s="9"/>
@@ -19299,7 +19559,7 @@
       <c r="CL177" s="9"/>
       <c r="CM177" s="9"/>
     </row>
-    <row r="178" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>6</v>
       </c>
@@ -19372,8 +19632,10 @@
       <c r="X178" s="17">
         <v>-3.9646701964432083</v>
       </c>
-      <c r="Y178" s="17"/>
-      <c r="Z178" s="9"/>
+      <c r="Y178" s="17">
+        <v>7.815875863497439</v>
+      </c>
+      <c r="Z178" s="17"/>
       <c r="AA178" s="9"/>
       <c r="AB178" s="9"/>
       <c r="AC178" s="9"/>
@@ -19440,7 +19702,7 @@
       <c r="CL178" s="9"/>
       <c r="CM178" s="9"/>
     </row>
-    <row r="179" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>5</v>
       </c>
@@ -19513,8 +19775,10 @@
       <c r="X179" s="17">
         <v>1.8785316662388141E-2</v>
       </c>
-      <c r="Y179" s="17"/>
-      <c r="Z179" s="9"/>
+      <c r="Y179" s="17">
+        <v>2.1490278357167938</v>
+      </c>
+      <c r="Z179" s="17"/>
       <c r="AA179" s="9"/>
       <c r="AB179" s="9"/>
       <c r="AC179" s="9"/>
@@ -19581,7 +19845,7 @@
       <c r="CL179" s="9"/>
       <c r="CM179" s="9"/>
     </row>
-    <row r="180" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>4</v>
       </c>
@@ -19654,8 +19918,10 @@
       <c r="X180" s="17">
         <v>-1.7941301856229188</v>
       </c>
-      <c r="Y180" s="17"/>
-      <c r="Z180" s="9"/>
+      <c r="Y180" s="17">
+        <v>-8.3239778267861482</v>
+      </c>
+      <c r="Z180" s="17"/>
       <c r="AA180" s="9"/>
       <c r="AB180" s="9"/>
       <c r="AC180" s="9"/>
@@ -19722,7 +19988,7 @@
       <c r="CL180" s="9"/>
       <c r="CM180" s="9"/>
     </row>
-    <row r="181" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>3</v>
       </c>
@@ -19795,8 +20061,10 @@
       <c r="X181" s="17">
         <v>72.233937578457983</v>
       </c>
-      <c r="Y181" s="17"/>
-      <c r="Z181" s="9"/>
+      <c r="Y181" s="17">
+        <v>2.6952144030778982</v>
+      </c>
+      <c r="Z181" s="17"/>
       <c r="AA181" s="9"/>
       <c r="AB181" s="9"/>
       <c r="AC181" s="9"/>
@@ -19863,7 +20131,7 @@
       <c r="CL181" s="9"/>
       <c r="CM181" s="9"/>
     </row>
-    <row r="182" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>2</v>
       </c>
@@ -19936,8 +20204,10 @@
       <c r="X182" s="17">
         <v>-5.6235159208740697</v>
       </c>
-      <c r="Y182" s="17"/>
-      <c r="Z182" s="9"/>
+      <c r="Y182" s="17">
+        <v>2.6487377707705235</v>
+      </c>
+      <c r="Z182" s="17"/>
       <c r="AA182" s="9"/>
       <c r="AB182" s="9"/>
       <c r="AC182" s="9"/>
@@ -20004,7 +20274,7 @@
       <c r="CL182" s="9"/>
       <c r="CM182" s="9"/>
     </row>
-    <row r="183" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
@@ -20096,7 +20366,7 @@
       <c r="CL183" s="9"/>
       <c r="CM183" s="9"/>
     </row>
-    <row r="184" spans="1:92" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:92" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>1</v>
       </c>
@@ -20169,8 +20439,10 @@
       <c r="X184" s="17">
         <v>-4.5826044115838158</v>
       </c>
-      <c r="Y184" s="17"/>
-      <c r="Z184" s="9"/>
+      <c r="Y184" s="17">
+        <v>2.0092138807236779</v>
+      </c>
+      <c r="Z184" s="17"/>
       <c r="AA184" s="9"/>
       <c r="AB184" s="9"/>
       <c r="AC184" s="9"/>
@@ -20237,7 +20509,7 @@
       <c r="CL184" s="9"/>
       <c r="CM184" s="9"/>
     </row>
-    <row r="185" spans="1:92" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:92" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -20263,13 +20535,14 @@
       <c r="W185" s="12"/>
       <c r="X185" s="12"/>
       <c r="Y185" s="12"/>
+      <c r="Z185" s="12"/>
     </row>
-    <row r="186" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A186" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
@@ -20361,7 +20634,7 @@
       <c r="CL187" s="9"/>
       <c r="CM187" s="9"/>
     </row>
-    <row r="188" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
@@ -20454,32 +20727,32 @@
       <c r="CM188" s="9"/>
       <c r="CN188" s="9"/>
     </row>
-    <row r="189" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="192" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="193" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="194" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="196" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="15" t="s">
         <v>33</v>
@@ -20507,8 +20780,9 @@
       <c r="W196" s="15"/>
       <c r="X196" s="15"/>
       <c r="Y196" s="15"/>
+      <c r="Z196" s="15"/>
     </row>
-    <row r="197" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>32</v>
       </c>
@@ -20584,11 +20858,14 @@
       <c r="Y197" s="16">
         <v>2023</v>
       </c>
+      <c r="Z197" s="16">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="198" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7"/>
     </row>
-    <row r="199" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>31</v>
       </c>
@@ -20664,7 +20941,9 @@
       <c r="Y199" s="17">
         <v>106.73435631182751</v>
       </c>
-      <c r="Z199" s="9"/>
+      <c r="Z199" s="17">
+        <v>109.10405472321702</v>
+      </c>
       <c r="AA199" s="9"/>
       <c r="AB199" s="9"/>
       <c r="AC199" s="9"/>
@@ -20736,7 +21015,7 @@
       <c r="CQ199" s="9"/>
       <c r="CR199" s="9"/>
     </row>
-    <row r="200" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="10" t="s">
         <v>30</v>
       </c>
@@ -20812,7 +21091,9 @@
       <c r="Y200" s="17">
         <v>105.44343456390486</v>
       </c>
-      <c r="Z200" s="9"/>
+      <c r="Z200" s="17">
+        <v>108.07947489501591</v>
+      </c>
       <c r="AA200" s="9"/>
       <c r="AB200" s="9"/>
       <c r="AC200" s="9"/>
@@ -20884,7 +21165,7 @@
       <c r="CQ200" s="9"/>
       <c r="CR200" s="9"/>
     </row>
-    <row r="201" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="10" t="s">
         <v>29</v>
       </c>
@@ -20960,7 +21241,9 @@
       <c r="Y201" s="17">
         <v>101.96730976926402</v>
       </c>
-      <c r="Z201" s="9"/>
+      <c r="Z201" s="17">
+        <v>101.81903737672909</v>
+      </c>
       <c r="AA201" s="9"/>
       <c r="AB201" s="9"/>
       <c r="AC201" s="9"/>
@@ -21032,7 +21315,7 @@
       <c r="CQ201" s="9"/>
       <c r="CR201" s="9"/>
     </row>
-    <row r="202" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="10" t="s">
         <v>28</v>
       </c>
@@ -21108,7 +21391,9 @@
       <c r="Y202" s="17">
         <v>107.92102337354214</v>
       </c>
-      <c r="Z202" s="9"/>
+      <c r="Z202" s="17">
+        <v>100.9407921351285</v>
+      </c>
       <c r="AA202" s="9"/>
       <c r="AB202" s="9"/>
       <c r="AC202" s="9"/>
@@ -21180,7 +21465,7 @@
       <c r="CQ202" s="9"/>
       <c r="CR202" s="9"/>
     </row>
-    <row r="203" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="10" t="s">
         <v>27</v>
       </c>
@@ -21256,7 +21541,9 @@
       <c r="Y203" s="17">
         <v>116.14943810390834</v>
       </c>
-      <c r="Z203" s="9"/>
+      <c r="Z203" s="17">
+        <v>115.77408098952759</v>
+      </c>
       <c r="AA203" s="9"/>
       <c r="AB203" s="9"/>
       <c r="AC203" s="9"/>
@@ -21328,7 +21615,7 @@
       <c r="CQ203" s="9"/>
       <c r="CR203" s="9"/>
     </row>
-    <row r="204" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="10" t="s">
         <v>26</v>
       </c>
@@ -21404,7 +21691,9 @@
       <c r="Y204" s="17">
         <v>111.72270097262853</v>
       </c>
-      <c r="Z204" s="9"/>
+      <c r="Z204" s="17">
+        <v>118.52458001424723</v>
+      </c>
       <c r="AA204" s="9"/>
       <c r="AB204" s="9"/>
       <c r="AC204" s="9"/>
@@ -21476,7 +21765,7 @@
       <c r="CQ204" s="9"/>
       <c r="CR204" s="9"/>
     </row>
-    <row r="205" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="10" t="s">
         <v>25</v>
       </c>
@@ -21552,7 +21841,9 @@
       <c r="Y205" s="17">
         <v>105.6605355497227</v>
       </c>
-      <c r="Z205" s="9"/>
+      <c r="Z205" s="17">
+        <v>111.24344345935589</v>
+      </c>
       <c r="AA205" s="9"/>
       <c r="AB205" s="9"/>
       <c r="AC205" s="9"/>
@@ -21624,7 +21915,7 @@
       <c r="CQ205" s="9"/>
       <c r="CR205" s="9"/>
     </row>
-    <row r="206" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="10" t="s">
         <v>24</v>
       </c>
@@ -21700,7 +21991,9 @@
       <c r="Y206" s="17">
         <v>118.38063007468421</v>
       </c>
-      <c r="Z206" s="9"/>
+      <c r="Z206" s="17">
+        <v>118.36907423115879</v>
+      </c>
       <c r="AA206" s="9"/>
       <c r="AB206" s="9"/>
       <c r="AC206" s="9"/>
@@ -21772,7 +22065,7 @@
       <c r="CQ206" s="9"/>
       <c r="CR206" s="9"/>
     </row>
-    <row r="207" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="10" t="s">
         <v>23</v>
       </c>
@@ -21848,7 +22141,9 @@
       <c r="Y207" s="17">
         <v>108.73024508211331</v>
       </c>
-      <c r="Z207" s="9"/>
+      <c r="Z207" s="17">
+        <v>114.71327121567867</v>
+      </c>
       <c r="AA207" s="9"/>
       <c r="AB207" s="9"/>
       <c r="AC207" s="9"/>
@@ -21920,7 +22215,7 @@
       <c r="CQ207" s="9"/>
       <c r="CR207" s="9"/>
     </row>
-    <row r="208" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="10" t="s">
         <v>22</v>
       </c>
@@ -21996,7 +22291,9 @@
       <c r="Y208" s="17">
         <v>116.56257076757939</v>
       </c>
-      <c r="Z208" s="9"/>
+      <c r="Z208" s="17">
+        <v>126.87284755893833</v>
+      </c>
       <c r="AA208" s="9"/>
       <c r="AB208" s="9"/>
       <c r="AC208" s="9"/>
@@ -22068,7 +22365,7 @@
       <c r="CQ208" s="9"/>
       <c r="CR208" s="9"/>
     </row>
-    <row r="209" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>21</v>
       </c>
@@ -22144,7 +22441,9 @@
       <c r="Y209" s="17">
         <v>149.75612692189429</v>
       </c>
-      <c r="Z209" s="9"/>
+      <c r="Z209" s="17">
+        <v>147.22272620645407</v>
+      </c>
       <c r="AA209" s="9"/>
       <c r="AB209" s="9"/>
       <c r="AC209" s="9"/>
@@ -22216,7 +22515,7 @@
       <c r="CQ209" s="9"/>
       <c r="CR209" s="9"/>
     </row>
-    <row r="210" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>20</v>
       </c>
@@ -22292,7 +22591,9 @@
       <c r="Y210" s="17">
         <v>118.70090800741384</v>
       </c>
-      <c r="Z210" s="9"/>
+      <c r="Z210" s="17">
+        <v>125.04850981741384</v>
+      </c>
       <c r="AA210" s="9"/>
       <c r="AB210" s="9"/>
       <c r="AC210" s="9"/>
@@ -22364,7 +22665,7 @@
       <c r="CQ210" s="9"/>
       <c r="CR210" s="9"/>
     </row>
-    <row r="211" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>19</v>
       </c>
@@ -22440,7 +22741,9 @@
       <c r="Y211" s="17">
         <v>123.10023194722206</v>
       </c>
-      <c r="Z211" s="9"/>
+      <c r="Z211" s="17">
+        <v>114.2072232744316</v>
+      </c>
       <c r="AA211" s="9"/>
       <c r="AB211" s="9"/>
       <c r="AC211" s="9"/>
@@ -22512,7 +22815,7 @@
       <c r="CQ211" s="9"/>
       <c r="CR211" s="9"/>
     </row>
-    <row r="212" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>18</v>
       </c>
@@ -22588,7 +22891,9 @@
       <c r="Y212" s="17">
         <v>139.48277612074159</v>
       </c>
-      <c r="Z212" s="9"/>
+      <c r="Z212" s="17">
+        <v>153.27302790637444</v>
+      </c>
       <c r="AA212" s="9"/>
       <c r="AB212" s="9"/>
       <c r="AC212" s="9"/>
@@ -22660,7 +22965,7 @@
       <c r="CQ212" s="9"/>
       <c r="CR212" s="9"/>
     </row>
-    <row r="213" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>17</v>
       </c>
@@ -22736,7 +23041,9 @@
       <c r="Y213" s="17">
         <v>123.90335737273503</v>
       </c>
-      <c r="Z213" s="9"/>
+      <c r="Z213" s="17">
+        <v>136.3632076788146</v>
+      </c>
       <c r="AA213" s="9"/>
       <c r="AB213" s="9"/>
       <c r="AC213" s="9"/>
@@ -22808,7 +23115,7 @@
       <c r="CQ213" s="9"/>
       <c r="CR213" s="9"/>
     </row>
-    <row r="214" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>16</v>
       </c>
@@ -22884,7 +23191,9 @@
       <c r="Y214" s="17">
         <v>103.77610115638105</v>
       </c>
-      <c r="Z214" s="9"/>
+      <c r="Z214" s="17">
+        <v>104.26616312719548</v>
+      </c>
       <c r="AA214" s="9"/>
       <c r="AB214" s="9"/>
       <c r="AC214" s="9"/>
@@ -22956,7 +23265,7 @@
       <c r="CQ214" s="9"/>
       <c r="CR214" s="9"/>
     </row>
-    <row r="215" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>15</v>
       </c>
@@ -23032,7 +23341,9 @@
       <c r="Y215" s="17">
         <v>122.65065001923394</v>
       </c>
-      <c r="Z215" s="9"/>
+      <c r="Z215" s="17">
+        <v>126.81948778206471</v>
+      </c>
       <c r="AA215" s="9"/>
       <c r="AB215" s="9"/>
       <c r="AC215" s="9"/>
@@ -23104,7 +23415,7 @@
       <c r="CQ215" s="9"/>
       <c r="CR215" s="9"/>
     </row>
-    <row r="216" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>14</v>
       </c>
@@ -23180,7 +23491,9 @@
       <c r="Y216" s="17">
         <v>117.81112996125158</v>
       </c>
-      <c r="Z216" s="9"/>
+      <c r="Z216" s="17">
+        <v>121.67760166726063</v>
+      </c>
       <c r="AA216" s="9"/>
       <c r="AB216" s="9"/>
       <c r="AC216" s="9"/>
@@ -23252,7 +23565,7 @@
       <c r="CQ216" s="9"/>
       <c r="CR216" s="9"/>
     </row>
-    <row r="217" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>13</v>
       </c>
@@ -23328,7 +23641,9 @@
       <c r="Y217" s="17">
         <v>178.69935226198774</v>
       </c>
-      <c r="Z217" s="9"/>
+      <c r="Z217" s="17">
+        <v>177.46751333535124</v>
+      </c>
       <c r="AA217" s="9"/>
       <c r="AB217" s="9"/>
       <c r="AC217" s="9"/>
@@ -23400,7 +23715,7 @@
       <c r="CQ217" s="9"/>
       <c r="CR217" s="9"/>
     </row>
-    <row r="218" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>12</v>
       </c>
@@ -23476,7 +23791,9 @@
       <c r="Y218" s="17">
         <v>154.37465781165994</v>
       </c>
-      <c r="Z218" s="9"/>
+      <c r="Z218" s="17">
+        <v>163.01670285161549</v>
+      </c>
       <c r="AA218" s="9"/>
       <c r="AB218" s="9"/>
       <c r="AC218" s="9"/>
@@ -23548,7 +23865,7 @@
       <c r="CQ218" s="9"/>
       <c r="CR218" s="9"/>
     </row>
-    <row r="219" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>11</v>
       </c>
@@ -23624,7 +23941,9 @@
       <c r="Y219" s="17">
         <v>116.57490463593876</v>
       </c>
-      <c r="Z219" s="9"/>
+      <c r="Z219" s="17">
+        <v>117.10652738860361</v>
+      </c>
       <c r="AA219" s="9"/>
       <c r="AB219" s="9"/>
       <c r="AC219" s="9"/>
@@ -23696,7 +24015,7 @@
       <c r="CQ219" s="9"/>
       <c r="CR219" s="9"/>
     </row>
-    <row r="220" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>10</v>
       </c>
@@ -23772,7 +24091,9 @@
       <c r="Y220" s="17">
         <v>125.36742846377915</v>
       </c>
-      <c r="Z220" s="9"/>
+      <c r="Z220" s="17">
+        <v>129.12701550475276</v>
+      </c>
       <c r="AA220" s="9"/>
       <c r="AB220" s="9"/>
       <c r="AC220" s="9"/>
@@ -23844,7 +24165,7 @@
       <c r="CQ220" s="9"/>
       <c r="CR220" s="9"/>
     </row>
-    <row r="221" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>9</v>
       </c>
@@ -23920,7 +24241,9 @@
       <c r="Y221" s="17">
         <v>170.33446702849432</v>
       </c>
-      <c r="Z221" s="9"/>
+      <c r="Z221" s="17">
+        <v>142.86464966087959</v>
+      </c>
       <c r="AA221" s="9"/>
       <c r="AB221" s="9"/>
       <c r="AC221" s="9"/>
@@ -23992,7 +24315,7 @@
       <c r="CQ221" s="9"/>
       <c r="CR221" s="9"/>
     </row>
-    <row r="222" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>8</v>
       </c>
@@ -24068,7 +24391,9 @@
       <c r="Y222" s="17">
         <v>146.22795047385733</v>
       </c>
-      <c r="Z222" s="9"/>
+      <c r="Z222" s="17">
+        <v>171.32930908614458</v>
+      </c>
       <c r="AA222" s="9"/>
       <c r="AB222" s="9"/>
       <c r="AC222" s="9"/>
@@ -24140,7 +24465,7 @@
       <c r="CQ222" s="9"/>
       <c r="CR222" s="9"/>
     </row>
-    <row r="223" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>7</v>
       </c>
@@ -24216,7 +24541,9 @@
       <c r="Y223" s="17">
         <v>129.89655578006713</v>
       </c>
-      <c r="Z223" s="9"/>
+      <c r="Z223" s="17">
+        <v>137.66374051756409</v>
+      </c>
       <c r="AA223" s="9"/>
       <c r="AB223" s="9"/>
       <c r="AC223" s="9"/>
@@ -24288,7 +24615,7 @@
       <c r="CQ223" s="9"/>
       <c r="CR223" s="9"/>
     </row>
-    <row r="224" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>6</v>
       </c>
@@ -24364,7 +24691,9 @@
       <c r="Y224" s="17">
         <v>109.74961176919899</v>
       </c>
-      <c r="Z224" s="9"/>
+      <c r="Z224" s="17">
+        <v>115.06261911900854</v>
+      </c>
       <c r="AA224" s="9"/>
       <c r="AB224" s="9"/>
       <c r="AC224" s="9"/>
@@ -24436,7 +24765,7 @@
       <c r="CQ224" s="9"/>
       <c r="CR224" s="9"/>
     </row>
-    <row r="225" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>5</v>
       </c>
@@ -24512,7 +24841,9 @@
       <c r="Y225" s="17">
         <v>143.27950876875525</v>
       </c>
-      <c r="Z225" s="9"/>
+      <c r="Z225" s="17">
+        <v>163.47422846034203</v>
+      </c>
       <c r="AA225" s="9"/>
       <c r="AB225" s="9"/>
       <c r="AC225" s="9"/>
@@ -24584,7 +24915,7 @@
       <c r="CQ225" s="9"/>
       <c r="CR225" s="9"/>
     </row>
-    <row r="226" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>4</v>
       </c>
@@ -24660,7 +24991,9 @@
       <c r="Y226" s="17">
         <v>104.15509768245204</v>
       </c>
-      <c r="Z226" s="9"/>
+      <c r="Z226" s="17">
+        <v>108.63823185169976</v>
+      </c>
       <c r="AA226" s="9"/>
       <c r="AB226" s="9"/>
       <c r="AC226" s="9"/>
@@ -24732,7 +25065,7 @@
       <c r="CQ226" s="9"/>
       <c r="CR226" s="9"/>
     </row>
-    <row r="227" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>3</v>
       </c>
@@ -24808,7 +25141,9 @@
       <c r="Y227" s="17">
         <v>79.460760558408978</v>
       </c>
-      <c r="Z227" s="9"/>
+      <c r="Z227" s="17">
+        <v>84.022257782087522</v>
+      </c>
       <c r="AA227" s="9"/>
       <c r="AB227" s="9"/>
       <c r="AC227" s="9"/>
@@ -24880,7 +25215,7 @@
       <c r="CQ227" s="9"/>
       <c r="CR227" s="9"/>
     </row>
-    <row r="228" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>2</v>
       </c>
@@ -24956,7 +25291,9 @@
       <c r="Y228" s="17">
         <v>138.57252640607803</v>
       </c>
-      <c r="Z228" s="9"/>
+      <c r="Z228" s="17">
+        <v>139.86473814662489</v>
+      </c>
       <c r="AA228" s="9"/>
       <c r="AB228" s="9"/>
       <c r="AC228" s="9"/>
@@ -25028,7 +25365,7 @@
       <c r="CQ228" s="9"/>
       <c r="CR228" s="9"/>
     </row>
-    <row r="229" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
@@ -25125,7 +25462,7 @@
       <c r="CQ229" s="9"/>
       <c r="CR229" s="9"/>
     </row>
-    <row r="230" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>1</v>
       </c>
@@ -25201,7 +25538,9 @@
       <c r="Y230" s="17">
         <v>128.88441541790527</v>
       </c>
-      <c r="Z230" s="9"/>
+      <c r="Z230" s="17">
+        <v>132.18393019437386</v>
+      </c>
       <c r="AA230" s="9"/>
       <c r="AB230" s="9"/>
       <c r="AC230" s="9"/>
@@ -25273,7 +25612,7 @@
       <c r="CQ230" s="9"/>
       <c r="CR230" s="9"/>
     </row>
-    <row r="231" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="12"/>
       <c r="B231" s="12"/>
       <c r="C231" s="12"/>
@@ -25299,46 +25638,47 @@
       <c r="W231" s="12"/>
       <c r="X231" s="12"/>
       <c r="Y231" s="12"/>
+      <c r="Z231" s="12"/>
     </row>
-    <row r="232" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A233" s="18"/>
     </row>
-    <row r="235" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="236" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="237" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="239" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="240" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="241" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="243" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>
       <c r="B243" s="15" t="s">
         <v>33</v>
@@ -25366,8 +25706,9 @@
       <c r="W243" s="15"/>
       <c r="X243" s="15"/>
       <c r="Y243" s="15"/>
+      <c r="Z243" s="15"/>
     </row>
-    <row r="244" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>32</v>
       </c>
@@ -25443,11 +25784,14 @@
       <c r="Y244" s="16">
         <v>2023</v>
       </c>
+      <c r="Z244" s="16">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="245" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="7"/>
     </row>
-    <row r="246" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>31</v>
       </c>
@@ -25523,7 +25867,9 @@
       <c r="Y246" s="17">
         <v>15.162275163855462</v>
       </c>
-      <c r="Z246" s="9"/>
+      <c r="Z246" s="17">
+        <v>15.897071315640662</v>
+      </c>
       <c r="AA246" s="9"/>
       <c r="AB246" s="9"/>
       <c r="AC246" s="9"/>
@@ -25595,7 +25941,7 @@
       <c r="CQ246" s="9"/>
       <c r="CR246" s="9"/>
     </row>
-    <row r="247" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="10" t="s">
         <v>30</v>
       </c>
@@ -25671,7 +26017,9 @@
       <c r="Y247" s="17">
         <v>8.2029636452849601</v>
       </c>
-      <c r="Z247" s="9"/>
+      <c r="Z247" s="17">
+        <v>8.0612128025452652</v>
+      </c>
       <c r="AA247" s="9"/>
       <c r="AB247" s="9"/>
       <c r="AC247" s="9"/>
@@ -25743,7 +26091,7 @@
       <c r="CQ247" s="9"/>
       <c r="CR247" s="9"/>
     </row>
-    <row r="248" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="10" t="s">
         <v>29</v>
       </c>
@@ -25819,7 +26167,9 @@
       <c r="Y248" s="17">
         <v>2.2804133417684405</v>
       </c>
-      <c r="Z248" s="9"/>
+      <c r="Z248" s="17">
+        <v>2.6915993039376329</v>
+      </c>
       <c r="AA248" s="9"/>
       <c r="AB248" s="9"/>
       <c r="AC248" s="9"/>
@@ -25891,7 +26241,7 @@
       <c r="CQ248" s="9"/>
       <c r="CR248" s="9"/>
     </row>
-    <row r="249" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="10" t="s">
         <v>28</v>
       </c>
@@ -25967,7 +26317,9 @@
       <c r="Y249" s="17">
         <v>0.18486160901998205</v>
       </c>
-      <c r="Z249" s="9"/>
+      <c r="Z249" s="17">
+        <v>0.16492388423469667</v>
+      </c>
       <c r="AA249" s="9"/>
       <c r="AB249" s="9"/>
       <c r="AC249" s="9"/>
@@ -26039,7 +26391,7 @@
       <c r="CQ249" s="9"/>
       <c r="CR249" s="9"/>
     </row>
-    <row r="250" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="10" t="s">
         <v>27</v>
       </c>
@@ -26115,7 +26467,9 @@
       <c r="Y250" s="17">
         <v>0.8769042937608964</v>
       </c>
-      <c r="Z250" s="9"/>
+      <c r="Z250" s="17">
+        <v>1.2182935364074541</v>
+      </c>
       <c r="AA250" s="9"/>
       <c r="AB250" s="9"/>
       <c r="AC250" s="9"/>
@@ -26187,7 +26541,7 @@
       <c r="CQ250" s="9"/>
       <c r="CR250" s="9"/>
     </row>
-    <row r="251" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="10" t="s">
         <v>26</v>
       </c>
@@ -26263,7 +26617,9 @@
       <c r="Y251" s="17">
         <v>1.165709925156738</v>
       </c>
-      <c r="Z251" s="9"/>
+      <c r="Z251" s="17">
+        <v>1.2470136290923246</v>
+      </c>
       <c r="AA251" s="9"/>
       <c r="AB251" s="9"/>
       <c r="AC251" s="9"/>
@@ -26335,7 +26691,7 @@
       <c r="CQ251" s="9"/>
       <c r="CR251" s="9"/>
     </row>
-    <row r="252" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="10" t="s">
         <v>25</v>
       </c>
@@ -26411,7 +26767,9 @@
       <c r="Y252" s="17">
         <v>1.2948236456409772</v>
       </c>
-      <c r="Z252" s="9"/>
+      <c r="Z252" s="17">
+        <v>1.354427553795019</v>
+      </c>
       <c r="AA252" s="9"/>
       <c r="AB252" s="9"/>
       <c r="AC252" s="9"/>
@@ -26483,7 +26841,7 @@
       <c r="CQ252" s="9"/>
       <c r="CR252" s="9"/>
     </row>
-    <row r="253" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="10" t="s">
         <v>24</v>
       </c>
@@ -26559,7 +26917,9 @@
       <c r="Y253" s="17">
         <v>0.8815275990266136</v>
       </c>
-      <c r="Z253" s="9"/>
+      <c r="Z253" s="17">
+        <v>0.88529740414361247</v>
+      </c>
       <c r="AA253" s="9"/>
       <c r="AB253" s="9"/>
       <c r="AC253" s="9"/>
@@ -26631,7 +26991,7 @@
       <c r="CQ253" s="9"/>
       <c r="CR253" s="9"/>
     </row>
-    <row r="254" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="10" t="s">
         <v>23</v>
       </c>
@@ -26707,7 +27067,9 @@
       <c r="Y254" s="17">
         <v>0.22563740698866075</v>
       </c>
-      <c r="Z254" s="9"/>
+      <c r="Z254" s="17">
+        <v>0.22736117359838753</v>
+      </c>
       <c r="AA254" s="9"/>
       <c r="AB254" s="9"/>
       <c r="AC254" s="9"/>
@@ -26779,7 +27141,7 @@
       <c r="CQ254" s="9"/>
       <c r="CR254" s="9"/>
     </row>
-    <row r="255" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="10" t="s">
         <v>22</v>
       </c>
@@ -26855,7 +27217,9 @@
       <c r="Y255" s="17">
         <v>4.9433697208195695E-2</v>
       </c>
-      <c r="Z255" s="9"/>
+      <c r="Z255" s="17">
+        <v>4.6942027886269486E-2</v>
+      </c>
       <c r="AA255" s="9"/>
       <c r="AB255" s="9"/>
       <c r="AC255" s="9"/>
@@ -26927,7 +27291,7 @@
       <c r="CQ255" s="9"/>
       <c r="CR255" s="9"/>
     </row>
-    <row r="256" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>21</v>
       </c>
@@ -27003,7 +27367,9 @@
       <c r="Y256" s="17">
         <v>18.092737743582038</v>
       </c>
-      <c r="Z256" s="9"/>
+      <c r="Z256" s="17">
+        <v>17.079304512927028</v>
+      </c>
       <c r="AA256" s="9"/>
       <c r="AB256" s="9"/>
       <c r="AC256" s="9"/>
@@ -27075,7 +27441,7 @@
       <c r="CQ256" s="9"/>
       <c r="CR256" s="9"/>
     </row>
-    <row r="257" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>20</v>
       </c>
@@ -27151,7 +27517,9 @@
       <c r="Y257" s="17">
         <v>4.4640690994739369</v>
       </c>
-      <c r="Z257" s="9"/>
+      <c r="Z257" s="17">
+        <v>4.4708799930357088</v>
+      </c>
       <c r="AA257" s="9"/>
       <c r="AB257" s="9"/>
       <c r="AC257" s="9"/>
@@ -27223,7 +27591,7 @@
       <c r="CQ257" s="9"/>
       <c r="CR257" s="9"/>
     </row>
-    <row r="258" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>19</v>
       </c>
@@ -27299,7 +27667,9 @@
       <c r="Y258" s="17">
         <v>1.1250163330515648</v>
       </c>
-      <c r="Z258" s="9"/>
+      <c r="Z258" s="17">
+        <v>1.0823711525875974</v>
+      </c>
       <c r="AA258" s="9"/>
       <c r="AB258" s="9"/>
       <c r="AC258" s="9"/>
@@ -27371,7 +27741,7 @@
       <c r="CQ258" s="9"/>
       <c r="CR258" s="9"/>
     </row>
-    <row r="259" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>18</v>
       </c>
@@ -27447,7 +27817,9 @@
       <c r="Y259" s="17">
         <v>5.0164331829434454</v>
       </c>
-      <c r="Z259" s="9"/>
+      <c r="Z259" s="17">
+        <v>5.5910478515010862</v>
+      </c>
       <c r="AA259" s="9"/>
       <c r="AB259" s="9"/>
       <c r="AC259" s="9"/>
@@ -27519,7 +27891,7 @@
       <c r="CQ259" s="9"/>
       <c r="CR259" s="9"/>
     </row>
-    <row r="260" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>17</v>
       </c>
@@ -27595,7 +27967,9 @@
       <c r="Y260" s="17">
         <v>10.051880119628885</v>
       </c>
-      <c r="Z260" s="9"/>
+      <c r="Z260" s="17">
+        <v>9.0444330323355917</v>
+      </c>
       <c r="AA260" s="9"/>
       <c r="AB260" s="9"/>
       <c r="AC260" s="9"/>
@@ -27667,7 +28041,7 @@
       <c r="CQ260" s="9"/>
       <c r="CR260" s="9"/>
     </row>
-    <row r="261" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>16</v>
       </c>
@@ -27743,7 +28117,9 @@
       <c r="Y261" s="17">
         <v>0.94776342649246659</v>
       </c>
-      <c r="Z261" s="9"/>
+      <c r="Z261" s="17">
+        <v>0.91482102078726668</v>
+      </c>
       <c r="AA261" s="9"/>
       <c r="AB261" s="9"/>
       <c r="AC261" s="9"/>
@@ -27815,7 +28191,7 @@
       <c r="CQ261" s="9"/>
       <c r="CR261" s="9"/>
     </row>
-    <row r="262" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>15</v>
       </c>
@@ -27891,7 +28267,9 @@
       <c r="Y262" s="17">
         <v>2.6618823396737876</v>
       </c>
-      <c r="Z262" s="9"/>
+      <c r="Z262" s="17">
+        <v>2.5485993236485536</v>
+      </c>
       <c r="AA262" s="9"/>
       <c r="AB262" s="9"/>
       <c r="AC262" s="9"/>
@@ -27963,7 +28341,7 @@
       <c r="CQ262" s="9"/>
       <c r="CR262" s="9"/>
     </row>
-    <row r="263" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>14</v>
       </c>
@@ -28039,7 +28417,9 @@
       <c r="Y263" s="17">
         <v>4.3031382292962741</v>
       </c>
-      <c r="Z263" s="9"/>
+      <c r="Z263" s="17">
+        <v>4.3233626514247705</v>
+      </c>
       <c r="AA263" s="9"/>
       <c r="AB263" s="9"/>
       <c r="AC263" s="9"/>
@@ -28111,7 +28491,7 @@
       <c r="CQ263" s="9"/>
       <c r="CR263" s="9"/>
     </row>
-    <row r="264" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>13</v>
       </c>
@@ -28187,7 +28567,9 @@
       <c r="Y264" s="17">
         <v>3.0724284509243129</v>
       </c>
-      <c r="Z264" s="9"/>
+      <c r="Z264" s="17">
+        <v>3.7630842130282018</v>
+      </c>
       <c r="AA264" s="9"/>
       <c r="AB264" s="9"/>
       <c r="AC264" s="9"/>
@@ -28259,7 +28641,7 @@
       <c r="CQ264" s="9"/>
       <c r="CR264" s="9"/>
     </row>
-    <row r="265" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>12</v>
       </c>
@@ -28335,7 +28717,9 @@
       <c r="Y265" s="17">
         <v>1.0116188680293232</v>
       </c>
-      <c r="Z265" s="9"/>
+      <c r="Z265" s="17">
+        <v>1.0399109966111295</v>
+      </c>
       <c r="AA265" s="9"/>
       <c r="AB265" s="9"/>
       <c r="AC265" s="9"/>
@@ -28407,7 +28791,7 @@
       <c r="CQ265" s="9"/>
       <c r="CR265" s="9"/>
     </row>
-    <row r="266" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>11</v>
       </c>
@@ -28483,7 +28867,9 @@
       <c r="Y266" s="17">
         <v>2.3754922628367026</v>
       </c>
-      <c r="Z266" s="9"/>
+      <c r="Z266" s="17">
+        <v>2.4862110399894553</v>
+      </c>
       <c r="AA266" s="9"/>
       <c r="AB266" s="9"/>
       <c r="AC266" s="9"/>
@@ -28555,7 +28941,7 @@
       <c r="CQ266" s="9"/>
       <c r="CR266" s="9"/>
     </row>
-    <row r="267" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>10</v>
       </c>
@@ -28631,7 +29017,9 @@
       <c r="Y267" s="17">
         <v>1.0235460577862578</v>
       </c>
-      <c r="Z267" s="9"/>
+      <c r="Z267" s="17">
+        <v>1.0655292567779706</v>
+      </c>
       <c r="AA267" s="9"/>
       <c r="AB267" s="9"/>
       <c r="AC267" s="9"/>
@@ -28703,7 +29091,7 @@
       <c r="CQ267" s="9"/>
       <c r="CR267" s="9"/>
     </row>
-    <row r="268" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>9</v>
       </c>
@@ -28779,7 +29167,9 @@
       <c r="Y268" s="17">
         <v>1.5064694695106298</v>
       </c>
-      <c r="Z268" s="9"/>
+      <c r="Z268" s="17">
+        <v>1.4401390250720951</v>
+      </c>
       <c r="AA268" s="9"/>
       <c r="AB268" s="9"/>
       <c r="AC268" s="9"/>
@@ -28851,7 +29241,7 @@
       <c r="CQ268" s="9"/>
       <c r="CR268" s="9"/>
     </row>
-    <row r="269" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>8</v>
       </c>
@@ -28927,7 +29317,9 @@
       <c r="Y269" s="17">
         <v>1.1366161688278487</v>
       </c>
-      <c r="Z269" s="9"/>
+      <c r="Z269" s="17">
+        <v>1.0930702832750554</v>
+      </c>
       <c r="AA269" s="9"/>
       <c r="AB269" s="9"/>
       <c r="AC269" s="9"/>
@@ -28999,7 +29391,7 @@
       <c r="CQ269" s="9"/>
       <c r="CR269" s="9"/>
     </row>
-    <row r="270" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>7</v>
       </c>
@@ -29075,7 +29467,9 @@
       <c r="Y270" s="17">
         <v>1.8498709538761993</v>
       </c>
-      <c r="Z270" s="9"/>
+      <c r="Z270" s="17">
+        <v>1.9518522573966905</v>
+      </c>
       <c r="AA270" s="9"/>
       <c r="AB270" s="9"/>
       <c r="AC270" s="9"/>
@@ -29147,7 +29541,7 @@
       <c r="CQ270" s="9"/>
       <c r="CR270" s="9"/>
     </row>
-    <row r="271" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>6</v>
       </c>
@@ -29223,7 +29617,9 @@
       <c r="Y271" s="17">
         <v>1.9997097951968221</v>
       </c>
-      <c r="Z271" s="9"/>
+      <c r="Z271" s="17">
+        <v>2.1605449034697339</v>
+      </c>
       <c r="AA271" s="9"/>
       <c r="AB271" s="9"/>
       <c r="AC271" s="9"/>
@@ -29295,7 +29691,7 @@
       <c r="CQ271" s="9"/>
       <c r="CR271" s="9"/>
     </row>
-    <row r="272" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>5</v>
       </c>
@@ -29371,7 +29767,9 @@
       <c r="Y272" s="17">
         <v>1.1204303603668828</v>
       </c>
-      <c r="Z272" s="9"/>
+      <c r="Z272" s="17">
+        <v>1.2481496618818806</v>
+      </c>
       <c r="AA272" s="9"/>
       <c r="AB272" s="9"/>
       <c r="AC272" s="9"/>
@@ -29443,7 +29841,7 @@
       <c r="CQ272" s="9"/>
       <c r="CR272" s="9"/>
     </row>
-    <row r="273" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>4</v>
       </c>
@@ -29519,7 +29917,9 @@
       <c r="Y273" s="17">
         <v>1.1199905774550121</v>
       </c>
-      <c r="Z273" s="9"/>
+      <c r="Z273" s="17">
+        <v>1.0236574058212096</v>
+      </c>
       <c r="AA273" s="9"/>
       <c r="AB273" s="9"/>
       <c r="AC273" s="9"/>
@@ -29591,7 +29991,7 @@
       <c r="CQ273" s="9"/>
       <c r="CR273" s="9"/>
     </row>
-    <row r="274" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>3</v>
       </c>
@@ -29667,7 +30067,9 @@
       <c r="Y274" s="17">
         <v>0.63624771481994957</v>
       </c>
-      <c r="Z274" s="9"/>
+      <c r="Z274" s="17">
+        <v>0.66038989013304583</v>
+      </c>
       <c r="AA274" s="9"/>
       <c r="AB274" s="9"/>
       <c r="AC274" s="9"/>
@@ -29739,7 +30141,7 @@
       <c r="CQ274" s="9"/>
       <c r="CR274" s="9"/>
     </row>
-    <row r="275" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>2</v>
       </c>
@@ -29815,7 +30217,9 @@
       <c r="Y275" s="17">
         <v>21.322383682372223</v>
       </c>
-      <c r="Z275" s="9"/>
+      <c r="Z275" s="17">
+        <v>21.115570212655257</v>
+      </c>
       <c r="AA275" s="9"/>
       <c r="AB275" s="9"/>
       <c r="AC275" s="9"/>
@@ -29887,7 +30291,7 @@
       <c r="CQ275" s="9"/>
       <c r="CR275" s="9"/>
     </row>
-    <row r="276" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
       <c r="D276" s="9"/>
@@ -29984,7 +30388,7 @@
       <c r="CQ276" s="9"/>
       <c r="CR276" s="9"/>
     </row>
-    <row r="277" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>1</v>
       </c>
@@ -30060,7 +30464,9 @@
       <c r="Y277" s="17">
         <v>100</v>
       </c>
-      <c r="Z277" s="9"/>
+      <c r="Z277" s="17">
+        <v>100</v>
+      </c>
       <c r="AA277" s="9"/>
       <c r="AB277" s="9"/>
       <c r="AC277" s="9"/>
@@ -30132,7 +30538,7 @@
       <c r="CQ277" s="9"/>
       <c r="CR277" s="9"/>
     </row>
-    <row r="278" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="12"/>
       <c r="B278" s="12"/>
       <c r="C278" s="12"/>
@@ -30158,13 +30564,14 @@
       <c r="W278" s="12"/>
       <c r="X278" s="12"/>
       <c r="Y278" s="12"/>
+      <c r="Z278" s="12"/>
     </row>
-    <row r="279" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A279" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
       <c r="D280" s="9"/>
@@ -30261,7 +30668,7 @@
       <c r="CQ280" s="9"/>
       <c r="CR280" s="9"/>
     </row>
-    <row r="281" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
       <c r="D281" s="9"/>
@@ -30358,37 +30765,37 @@
       <c r="CQ281" s="9"/>
       <c r="CR281" s="9"/>
     </row>
-    <row r="282" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="283" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="284" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="286" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="287" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="288" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="290" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A290" s="3"/>
       <c r="B290" s="15" t="s">
         <v>33</v>
@@ -30416,8 +30823,9 @@
       <c r="W290" s="15"/>
       <c r="X290" s="15"/>
       <c r="Y290" s="15"/>
+      <c r="Z290" s="15"/>
     </row>
-    <row r="291" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
         <v>32</v>
       </c>
@@ -30493,11 +30901,14 @@
       <c r="Y291" s="16">
         <v>2023</v>
       </c>
+      <c r="Z291" s="16">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="292" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="7"/>
     </row>
-    <row r="293" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>31</v>
       </c>
@@ -30573,7 +30984,9 @@
       <c r="Y293" s="17">
         <v>18.308827995268356</v>
       </c>
-      <c r="Z293" s="9"/>
+      <c r="Z293" s="17">
+        <v>19.259938325962782</v>
+      </c>
       <c r="AA293" s="9"/>
       <c r="AB293" s="9"/>
       <c r="AC293" s="9"/>
@@ -30645,7 +31058,7 @@
       <c r="CQ293" s="9"/>
       <c r="CR293" s="9"/>
     </row>
-    <row r="294" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="10" t="s">
         <v>30</v>
       </c>
@@ -30721,7 +31134,9 @@
       <c r="Y294" s="17">
         <v>10.026552895297963</v>
       </c>
-      <c r="Z294" s="9"/>
+      <c r="Z294" s="17">
+        <v>9.8590670560592688</v>
+      </c>
       <c r="AA294" s="9"/>
       <c r="AB294" s="9"/>
       <c r="AC294" s="9"/>
@@ -30793,7 +31208,7 @@
       <c r="CQ294" s="9"/>
       <c r="CR294" s="9"/>
     </row>
-    <row r="295" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="10" t="s">
         <v>29</v>
       </c>
@@ -30869,7 +31284,9 @@
       <c r="Y295" s="17">
         <v>2.8823918286173167</v>
       </c>
-      <c r="Z295" s="9"/>
+      <c r="Z295" s="17">
+        <v>3.4942991376604073</v>
+      </c>
       <c r="AA295" s="9"/>
       <c r="AB295" s="9"/>
       <c r="AC295" s="9"/>
@@ -30941,7 +31358,7 @@
       <c r="CQ295" s="9"/>
       <c r="CR295" s="9"/>
     </row>
-    <row r="296" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="10" t="s">
         <v>28</v>
       </c>
@@ -31017,7 +31434,9 @@
       <c r="Y296" s="17">
         <v>0.22077051965386446</v>
       </c>
-      <c r="Z296" s="9"/>
+      <c r="Z296" s="17">
+        <v>0.21597103351319352</v>
+      </c>
       <c r="AA296" s="9"/>
       <c r="AB296" s="9"/>
       <c r="AC296" s="9"/>
@@ -31089,7 +31508,7 @@
       <c r="CQ296" s="9"/>
       <c r="CR296" s="9"/>
     </row>
-    <row r="297" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="10" t="s">
         <v>27</v>
       </c>
@@ -31165,7 +31584,9 @@
       <c r="Y297" s="17">
         <v>0.9730507450041741</v>
       </c>
-      <c r="Z297" s="9"/>
+      <c r="Z297" s="17">
+        <v>1.390974788107423</v>
+      </c>
       <c r="AA297" s="9"/>
       <c r="AB297" s="9"/>
       <c r="AC297" s="9"/>
@@ -31237,7 +31658,7 @@
       <c r="CQ297" s="9"/>
       <c r="CR297" s="9"/>
     </row>
-    <row r="298" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="10" t="s">
         <v>26</v>
       </c>
@@ -31313,7 +31734,9 @@
       <c r="Y298" s="17">
         <v>1.3447745260605968</v>
       </c>
-      <c r="Z298" s="9"/>
+      <c r="Z298" s="17">
+        <v>1.3907255565010956</v>
+      </c>
       <c r="AA298" s="9"/>
       <c r="AB298" s="9"/>
       <c r="AC298" s="9"/>
@@ -31385,7 +31808,7 @@
       <c r="CQ298" s="9"/>
       <c r="CR298" s="9"/>
     </row>
-    <row r="299" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="10" t="s">
         <v>25</v>
       </c>
@@ -31461,7 +31884,9 @@
       <c r="Y299" s="17">
         <v>1.5794221349482482</v>
       </c>
-      <c r="Z299" s="9"/>
+      <c r="Z299" s="17">
+        <v>1.6093852514515998</v>
+      </c>
       <c r="AA299" s="9"/>
       <c r="AB299" s="9"/>
       <c r="AC299" s="9"/>
@@ -31533,7 +31958,7 @@
       <c r="CQ299" s="9"/>
       <c r="CR299" s="9"/>
     </row>
-    <row r="300" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="10" t="s">
         <v>24</v>
       </c>
@@ -31609,7 +32034,9 @@
       <c r="Y300" s="17">
         <v>0.95974459000274726</v>
       </c>
-      <c r="Z300" s="9"/>
+      <c r="Z300" s="17">
+        <v>0.9886204739766008</v>
+      </c>
       <c r="AA300" s="9"/>
       <c r="AB300" s="9"/>
       <c r="AC300" s="9"/>
@@ -31681,7 +32108,7 @@
       <c r="CQ300" s="9"/>
       <c r="CR300" s="9"/>
     </row>
-    <row r="301" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="10" t="s">
         <v>23</v>
       </c>
@@ -31757,7 +32184,9 @@
       <c r="Y301" s="17">
         <v>0.26746141585704492</v>
       </c>
-      <c r="Z301" s="9"/>
+      <c r="Z301" s="17">
+        <v>0.26198793898340644</v>
+      </c>
       <c r="AA301" s="9"/>
       <c r="AB301" s="9"/>
       <c r="AC301" s="9"/>
@@ -31829,7 +32258,7 @@
       <c r="CQ301" s="9"/>
       <c r="CR301" s="9"/>
     </row>
-    <row r="302" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="10" t="s">
         <v>22</v>
       </c>
@@ -31905,7 +32334,9 @@
       <c r="Y302" s="17">
         <v>5.4659339826401025E-2</v>
       </c>
-      <c r="Z302" s="9"/>
+      <c r="Z302" s="17">
+        <v>4.8907089709785974E-2</v>
+      </c>
       <c r="AA302" s="9"/>
       <c r="AB302" s="9"/>
       <c r="AC302" s="9"/>
@@ -31977,7 +32408,7 @@
       <c r="CQ302" s="9"/>
       <c r="CR302" s="9"/>
     </row>
-    <row r="303" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>21</v>
       </c>
@@ -32053,7 +32484,9 @@
       <c r="Y303" s="17">
         <v>15.571128709860638</v>
       </c>
-      <c r="Z303" s="9"/>
+      <c r="Z303" s="17">
+        <v>15.334654191495535</v>
+      </c>
       <c r="AA303" s="9"/>
       <c r="AB303" s="9"/>
       <c r="AC303" s="9"/>
@@ -32125,7 +32558,7 @@
       <c r="CQ303" s="9"/>
       <c r="CR303" s="9"/>
     </row>
-    <row r="304" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>20</v>
       </c>
@@ -32201,7 +32634,9 @@
       <c r="Y304" s="17">
         <v>4.847047473595552</v>
       </c>
-      <c r="Z304" s="9"/>
+      <c r="Z304" s="17">
+        <v>4.7259938544630069</v>
+      </c>
       <c r="AA304" s="9"/>
       <c r="AB304" s="9"/>
       <c r="AC304" s="9"/>
@@ -32273,7 +32708,7 @@
       <c r="CQ304" s="9"/>
       <c r="CR304" s="9"/>
     </row>
-    <row r="305" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>19</v>
       </c>
@@ -32349,7 +32784,9 @@
       <c r="Y305" s="17">
         <v>1.1778781414734647</v>
       </c>
-      <c r="Z305" s="9"/>
+      <c r="Z305" s="17">
+        <v>1.2527410156383123</v>
+      </c>
       <c r="AA305" s="9"/>
       <c r="AB305" s="9"/>
       <c r="AC305" s="9"/>
@@ -32421,7 +32858,7 @@
       <c r="CQ305" s="9"/>
       <c r="CR305" s="9"/>
     </row>
-    <row r="306" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>18</v>
       </c>
@@ -32497,7 +32934,9 @@
       <c r="Y306" s="17">
         <v>4.6352680685605101</v>
       </c>
-      <c r="Z306" s="9"/>
+      <c r="Z306" s="17">
+        <v>4.8217660276644629</v>
+      </c>
       <c r="AA306" s="9"/>
       <c r="AB306" s="9"/>
       <c r="AC306" s="9"/>
@@ -32569,7 +33008,7 @@
       <c r="CQ306" s="9"/>
       <c r="CR306" s="9"/>
     </row>
-    <row r="307" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>17</v>
       </c>
@@ -32645,7 +33084,9 @@
       <c r="Y307" s="17">
         <v>10.455977307958845</v>
       </c>
-      <c r="Z307" s="9"/>
+      <c r="Z307" s="17">
+        <v>8.7672380618226988</v>
+      </c>
       <c r="AA307" s="9"/>
       <c r="AB307" s="9"/>
       <c r="AC307" s="9"/>
@@ -32717,7 +33158,7 @@
       <c r="CQ307" s="9"/>
       <c r="CR307" s="9"/>
     </row>
-    <row r="308" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>16</v>
       </c>
@@ -32793,7 +33234,9 @@
       <c r="Y308" s="17">
         <v>1.1770719252005879</v>
       </c>
-      <c r="Z308" s="9"/>
+      <c r="Z308" s="17">
+        <v>1.1597687526352394</v>
+      </c>
       <c r="AA308" s="9"/>
       <c r="AB308" s="9"/>
       <c r="AC308" s="9"/>
@@ -32865,7 +33308,7 @@
       <c r="CQ308" s="9"/>
       <c r="CR308" s="9"/>
     </row>
-    <row r="309" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>15</v>
       </c>
@@ -32941,7 +33384,9 @@
       <c r="Y309" s="17">
         <v>2.7971735103425983</v>
       </c>
-      <c r="Z309" s="9"/>
+      <c r="Z309" s="17">
+        <v>2.6564046345110075</v>
+      </c>
       <c r="AA309" s="9"/>
       <c r="AB309" s="9"/>
       <c r="AC309" s="9"/>
@@ -33013,7 +33458,7 @@
       <c r="CQ309" s="9"/>
       <c r="CR309" s="9"/>
     </row>
-    <row r="310" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>14</v>
       </c>
@@ -33089,7 +33534,9 @@
       <c r="Y310" s="17">
         <v>4.7075981303948309</v>
       </c>
-      <c r="Z310" s="9"/>
+      <c r="Z310" s="17">
+        <v>4.6966661003366958</v>
+      </c>
       <c r="AA310" s="9"/>
       <c r="AB310" s="9"/>
       <c r="AC310" s="9"/>
@@ -33161,7 +33608,7 @@
       <c r="CQ310" s="9"/>
       <c r="CR310" s="9"/>
     </row>
-    <row r="311" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>13</v>
       </c>
@@ -33237,7 +33684,9 @@
       <c r="Y311" s="17">
         <v>2.2159461676736778</v>
       </c>
-      <c r="Z311" s="9"/>
+      <c r="Z311" s="17">
+        <v>2.8028750253040533</v>
+      </c>
       <c r="AA311" s="9"/>
       <c r="AB311" s="9"/>
       <c r="AC311" s="9"/>
@@ -33309,7 +33758,7 @@
       <c r="CQ311" s="9"/>
       <c r="CR311" s="9"/>
     </row>
-    <row r="312" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>12</v>
       </c>
@@ -33385,7 +33834,9 @@
       <c r="Y312" s="17">
         <v>0.84458102307666871</v>
       </c>
-      <c r="Z312" s="9"/>
+      <c r="Z312" s="17">
+        <v>0.84322354813867495</v>
+      </c>
       <c r="AA312" s="9"/>
       <c r="AB312" s="9"/>
       <c r="AC312" s="9"/>
@@ -33457,7 +33908,7 @@
       <c r="CQ312" s="9"/>
       <c r="CR312" s="9"/>
     </row>
-    <row r="313" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>11</v>
       </c>
@@ -33533,7 +33984,9 @@
       <c r="Y313" s="17">
         <v>2.6263279612504049</v>
       </c>
-      <c r="Z313" s="9"/>
+      <c r="Z313" s="17">
+        <v>2.8063093824642733</v>
+      </c>
       <c r="AA313" s="9"/>
       <c r="AB313" s="9"/>
       <c r="AC313" s="9"/>
@@ -33605,7 +34058,7 @@
       <c r="CQ313" s="9"/>
       <c r="CR313" s="9"/>
     </row>
-    <row r="314" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>10</v>
       </c>
@@ -33681,7 +34134,9 @@
       <c r="Y314" s="17">
         <v>1.0522600401682252</v>
       </c>
-      <c r="Z314" s="9"/>
+      <c r="Z314" s="17">
+        <v>1.0907542805619805</v>
+      </c>
       <c r="AA314" s="9"/>
       <c r="AB314" s="9"/>
       <c r="AC314" s="9"/>
@@ -33753,7 +34208,7 @@
       <c r="CQ314" s="9"/>
       <c r="CR314" s="9"/>
     </row>
-    <row r="315" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>9</v>
       </c>
@@ -33829,7 +34284,9 @@
       <c r="Y315" s="17">
         <v>1.1398775615408441</v>
       </c>
-      <c r="Z315" s="9"/>
+      <c r="Z315" s="17">
+        <v>1.3324726362483097</v>
+      </c>
       <c r="AA315" s="9"/>
       <c r="AB315" s="9"/>
       <c r="AC315" s="9"/>
@@ -33901,7 +34358,7 @@
       <c r="CQ315" s="9"/>
       <c r="CR315" s="9"/>
     </row>
-    <row r="316" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>8</v>
       </c>
@@ -33977,7 +34434,9 @@
       <c r="Y316" s="17">
         <v>1.0018064945805711</v>
       </c>
-      <c r="Z316" s="9"/>
+      <c r="Z316" s="17">
+        <v>0.84332521267173521</v>
+      </c>
       <c r="AA316" s="9"/>
       <c r="AB316" s="9"/>
       <c r="AC316" s="9"/>
@@ -34049,7 +34508,7 @@
       <c r="CQ316" s="9"/>
       <c r="CR316" s="9"/>
     </row>
-    <row r="317" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>7</v>
       </c>
@@ -34125,7 +34584,9 @@
       <c r="Y317" s="17">
         <v>1.8354569530894573</v>
       </c>
-      <c r="Z317" s="9"/>
+      <c r="Z317" s="17">
+        <v>1.8741572876885271</v>
+      </c>
       <c r="AA317" s="9"/>
       <c r="AB317" s="9"/>
       <c r="AC317" s="9"/>
@@ -34197,7 +34658,7 @@
       <c r="CQ317" s="9"/>
       <c r="CR317" s="9"/>
     </row>
-    <row r="318" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>6</v>
       </c>
@@ -34273,7 +34734,9 @@
       <c r="Y318" s="17">
         <v>2.3483584479679527</v>
       </c>
-      <c r="Z318" s="9"/>
+      <c r="Z318" s="17">
+        <v>2.4820338602467431</v>
+      </c>
       <c r="AA318" s="9"/>
       <c r="AB318" s="9"/>
       <c r="AC318" s="9"/>
@@ -34345,7 +34808,7 @@
       <c r="CQ318" s="9"/>
       <c r="CR318" s="9"/>
     </row>
-    <row r="319" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>5</v>
       </c>
@@ -34421,7 +34884,9 @@
       <c r="Y319" s="17">
         <v>1.0078622773994952</v>
       </c>
-      <c r="Z319" s="9"/>
+      <c r="Z319" s="17">
+        <v>1.0092436546862209</v>
+      </c>
       <c r="AA319" s="9"/>
       <c r="AB319" s="9"/>
       <c r="AC319" s="9"/>
@@ -34493,7 +34958,7 @@
       <c r="CQ319" s="9"/>
       <c r="CR319" s="9"/>
     </row>
-    <row r="320" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>4</v>
       </c>
@@ -34569,7 +35034,9 @@
       <c r="Y320" s="17">
         <v>1.3859074981518762</v>
       </c>
-      <c r="Z320" s="9"/>
+      <c r="Z320" s="17">
+        <v>1.2455197103974913</v>
+      </c>
       <c r="AA320" s="9"/>
       <c r="AB320" s="9"/>
       <c r="AC320" s="9"/>
@@ -34641,7 +35108,7 @@
       <c r="CQ320" s="9"/>
       <c r="CR320" s="9"/>
     </row>
-    <row r="321" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>3</v>
       </c>
@@ -34717,7 +35184,9 @@
       <c r="Y321" s="17">
         <v>1.0319862811440126</v>
       </c>
-      <c r="Z321" s="9"/>
+      <c r="Z321" s="17">
+        <v>1.0389262731407642</v>
+      </c>
       <c r="AA321" s="9"/>
       <c r="AB321" s="9"/>
       <c r="AC321" s="9"/>
@@ -34789,7 +35258,7 @@
       <c r="CQ321" s="9"/>
       <c r="CR321" s="9"/>
     </row>
-    <row r="322" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>2</v>
       </c>
@@ -34865,7 +35334,9 @@
       <c r="Y322" s="17">
         <v>19.831658031301426</v>
       </c>
-      <c r="Z322" s="9"/>
+      <c r="Z322" s="17">
+        <v>19.955988163921472</v>
+      </c>
       <c r="AA322" s="9"/>
       <c r="AB322" s="9"/>
       <c r="AC322" s="9"/>
@@ -34937,7 +35408,7 @@
       <c r="CQ322" s="9"/>
       <c r="CR322" s="9"/>
     </row>
-    <row r="323" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
       <c r="D323" s="9"/>
@@ -35034,7 +35505,7 @@
       <c r="CQ323" s="9"/>
       <c r="CR323" s="9"/>
     </row>
-    <row r="324" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>1</v>
       </c>
@@ -35110,7 +35581,9 @@
       <c r="Y324" s="17">
         <v>100</v>
       </c>
-      <c r="Z324" s="9"/>
+      <c r="Z324" s="17">
+        <v>100</v>
+      </c>
       <c r="AA324" s="9"/>
       <c r="AB324" s="9"/>
       <c r="AC324" s="9"/>
@@ -35182,7 +35655,7 @@
       <c r="CQ324" s="9"/>
       <c r="CR324" s="9"/>
     </row>
-    <row r="325" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="12"/>
       <c r="B325" s="12"/>
       <c r="C325" s="12"/>
@@ -35208,8 +35681,9 @@
       <c r="W325" s="12"/>
       <c r="X325" s="12"/>
       <c r="Y325" s="12"/>
+      <c r="Z325" s="12"/>
     </row>
-    <row r="326" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A326" s="13" t="s">
         <v>0</v>
       </c>

--- a/Data/National Accounts/PSA-06IOG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-06IOG_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7ADF86-A54E-4D10-A91B-9644BDDD9101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C369C5D8-EF96-482B-B76E-418EC97F11EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="4065" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOG" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
     <t>Annual 2001 to 2024</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>As of April 2025</t>
   </si>
 </sst>
 </file>
@@ -712,10 +712,10 @@
   <dimension ref="A1:CR326"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -945,7 +945,7 @@
         <v>1201246.8423382374</v>
       </c>
       <c r="Z12" s="8">
-        <v>1317657.877850553</v>
+        <v>1317598.5309524143</v>
       </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -1095,7 +1095,7 @@
         <v>649888.23050803249</v>
       </c>
       <c r="Z13" s="11">
-        <v>668168.39047912601</v>
+        <v>668179.08655934699</v>
       </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -1245,7 +1245,7 @@
         <v>180668.09211822588</v>
       </c>
       <c r="Z14" s="11">
-        <v>223098.13904911428</v>
+        <v>223053.47217176005</v>
       </c>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -1395,7 +1395,7 @@
         <v>14645.851081385646</v>
       </c>
       <c r="Z15" s="11">
-        <v>13670.018268946969</v>
+        <v>13642.968937726615</v>
       </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -1545,7 +1545,7 @@
         <v>69473.644458333772</v>
       </c>
       <c r="Z16" s="11">
-        <v>100980.49155773048</v>
+        <v>100983.53954152006</v>
       </c>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
@@ -1695,7 +1695,7 @@
         <v>92354.5676057237</v>
       </c>
       <c r="Z17" s="11">
-        <v>103361.00905226954</v>
+        <v>103398.20085399944</v>
       </c>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
@@ -1845,7 +1845,7 @@
         <v>102583.73488821456</v>
       </c>
       <c r="Z18" s="11">
-        <v>112264.20897288003</v>
+        <v>112183.22890289527</v>
       </c>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
@@ -1995,7 +1995,7 @@
         <v>69839.930572494777</v>
       </c>
       <c r="Z19" s="11">
-        <v>73379.497119244334</v>
+        <v>73409.348269667447</v>
       </c>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
@@ -2145,7 +2145,7 @@
         <v>17876.355608203779</v>
       </c>
       <c r="Z20" s="11">
-        <v>18845.247376761174</v>
+        <v>18857.813010723941</v>
       </c>
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
@@ -2295,7 +2295,7 @@
         <v>3916.4354976229015</v>
       </c>
       <c r="Z21" s="11">
-        <v>3890.8759744801205</v>
+        <v>3890.8727047744646</v>
       </c>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
@@ -2445,7 +2445,7 @@
         <v>1433415.7538270983</v>
       </c>
       <c r="Z22" s="11">
-        <v>1415649.4421412768</v>
+        <v>1415661.7755286773</v>
       </c>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
@@ -2595,7 +2595,7 @@
         <v>353670.46513613086</v>
       </c>
       <c r="Z23" s="11">
-        <v>370577.07843028021</v>
+        <v>370683.69229035953</v>
       </c>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
@@ -2745,7 +2745,7 @@
         <v>89130.575922980119</v>
       </c>
       <c r="Z24" s="11">
-        <v>89714.31577853208</v>
+        <v>89714.37625381691</v>
       </c>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
@@ -2895,7 +2895,7 @@
         <v>397432.07768558152</v>
       </c>
       <c r="Z25" s="11">
-        <v>463424.24341529829</v>
+        <v>463450.16508385743</v>
       </c>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
@@ -3045,7 +3045,7 @@
         <v>796370.53956461279</v>
       </c>
       <c r="Z26" s="11">
-        <v>749664.40038697631</v>
+        <v>749952.86461706413</v>
       </c>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
@@ -3195,7 +3195,7 @@
         <v>75087.532118645875</v>
       </c>
       <c r="Z27" s="11">
-        <v>75826.616169083165</v>
+        <v>75829.432870347635</v>
       </c>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
@@ -3345,7 +3345,7 @@
         <v>210890.36576988074</v>
       </c>
       <c r="Z28" s="11">
-        <v>211245.32372111152</v>
+        <v>211276.82028727501</v>
       </c>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
@@ -3495,7 +3495,7 @@
         <v>340920.55144926533</v>
       </c>
       <c r="Z29" s="11">
-        <v>358349.8333337584</v>
+        <v>358519.77329703537</v>
       </c>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
@@ -3645,7 +3645,7 @@
         <v>243416.30362843978</v>
       </c>
       <c r="Z30" s="11">
-        <v>311910.12859287974</v>
+        <v>311946.49363065494</v>
       </c>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
@@ -3792,10 +3792,10 @@
         <v>97400.026510864423</v>
       </c>
       <c r="Y31" s="11">
-        <v>80146.545141646435</v>
+        <v>80147.503684847456</v>
       </c>
       <c r="Z31" s="11">
-        <v>86194.927967639465</v>
+        <v>86195.473018558056</v>
       </c>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
@@ -3945,7 +3945,7 @@
         <v>188200.81741650059</v>
       </c>
       <c r="Z32" s="11">
-        <v>206074.15654089602</v>
+        <v>206085.08351497579</v>
       </c>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
@@ -4095,7 +4095,7 @@
         <v>81091.489015745319</v>
       </c>
       <c r="Z33" s="11">
-        <v>88318.344391672974</v>
+        <v>88320.415578123211</v>
       </c>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
@@ -4245,7 +4245,7 @@
         <v>119351.59293524179</v>
       </c>
       <c r="Z34" s="11">
-        <v>119368.56128457181</v>
+        <v>119398.24858901893</v>
       </c>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
@@ -4395,7 +4395,7 @@
         <v>90049.584841319767</v>
       </c>
       <c r="Z35" s="11">
-        <v>90601.132825305409</v>
+        <v>94608.407123462355</v>
       </c>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
@@ -4545,7 +4545,7 @@
         <v>146557.92867908609</v>
       </c>
       <c r="Z36" s="11">
-        <v>161782.84995354732</v>
+        <v>161837.92527514277</v>
       </c>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
@@ -4695,7 +4695,7 @@
         <v>158429.06497300428</v>
       </c>
       <c r="Z37" s="11">
-        <v>179080.72222748454</v>
+        <v>179112.02149275818</v>
       </c>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
@@ -4845,7 +4845,7 @@
         <v>88767.247520943449</v>
       </c>
       <c r="Z38" s="11">
-        <v>103455.17121113099</v>
+        <v>103483.31409626064</v>
       </c>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
@@ -4995,7 +4995,7 @@
         <v>88732.405267489405</v>
       </c>
       <c r="Z39" s="11">
-        <v>84847.719320055068</v>
+        <v>84882.337696423041</v>
       </c>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
@@ -5145,7 +5145,7 @@
         <v>50407.379506891899</v>
       </c>
       <c r="Z40" s="11">
-        <v>54737.62581228005</v>
+        <v>54738.310765376271</v>
       </c>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
@@ -5292,10 +5292,10 @@
         <v>1721175.2962342147</v>
       </c>
       <c r="Y41" s="11">
-        <v>1689287.7746100081</v>
+        <v>1689297.9821251857</v>
       </c>
       <c r="Z41" s="11">
-        <v>1750202.718700604</v>
+        <v>1751189.8205029774</v>
       </c>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
@@ -5539,10 +5539,10 @@
         <v>8197099.4009328969</v>
       </c>
       <c r="Y43" s="8">
-        <v>7922602.837348748</v>
+        <v>7922614.0034071263</v>
       </c>
       <c r="Z43" s="8">
-        <v>8288683.1900549382</v>
+        <v>8294485.2824645787</v>
       </c>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
@@ -6062,7 +6062,7 @@
         <v>1125454.7119099684</v>
       </c>
       <c r="Z59" s="8">
-        <v>1207707.5239717551</v>
+        <v>1207294.5891577296</v>
       </c>
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
@@ -6212,7 +6212,7 @@
         <v>616338.26059996407</v>
       </c>
       <c r="Z60" s="11">
-        <v>618219.50109228247</v>
+        <v>618226.651965786</v>
       </c>
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
@@ -6362,7 +6362,7 @@
         <v>177182.3661201314</v>
       </c>
       <c r="Z61" s="11">
-        <v>219112.40254968638</v>
+        <v>219009.98636394032</v>
       </c>
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
@@ -6512,7 +6512,7 @@
         <v>13570.897146418476</v>
       </c>
       <c r="Z62" s="11">
-        <v>13542.610454896216</v>
+        <v>13354.915441673211</v>
       </c>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
@@ -6662,7 +6662,7 @@
         <v>59814.016832506779</v>
       </c>
       <c r="Z63" s="11">
-        <v>87222.019552774276</v>
+        <v>87223.690593513107</v>
       </c>
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
@@ -6812,7 +6812,7 @@
         <v>82664.102104325313</v>
       </c>
       <c r="Z64" s="11">
-        <v>87206.391315493413</v>
+        <v>87160.276249406554</v>
       </c>
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
@@ -6962,7 +6962,7 @@
         <v>97088.032305060362</v>
       </c>
       <c r="Z65" s="11">
-        <v>100917.59611333597</v>
+        <v>100816.76261935807</v>
       </c>
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
@@ -7112,7 +7112,7 @@
         <v>58996.079450188787</v>
       </c>
       <c r="Z66" s="11">
-        <v>61992.118799496653</v>
+        <v>62004.737714482435</v>
       </c>
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
@@ -7262,7 +7262,7 @@
         <v>16441.014728425856</v>
       </c>
       <c r="Z67" s="11">
-        <v>16428.131790722975</v>
+        <v>16430.817868146456</v>
       </c>
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
@@ -7412,7 +7412,7 @@
         <v>3359.9426229472074</v>
       </c>
       <c r="Z68" s="11">
-        <v>3066.7523030667599</v>
+        <v>3066.7503414234852</v>
       </c>
       <c r="AA68" s="9"/>
       <c r="AB68" s="9"/>
@@ -7562,7 +7562,7 @@
         <v>957166.68378763576</v>
       </c>
       <c r="Z69" s="11">
-        <v>961569.91425092658</v>
+        <v>961584.7002067077</v>
       </c>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
@@ -7712,7 +7712,7 @@
         <v>297950.93489431543</v>
       </c>
       <c r="Z70" s="11">
-        <v>296346.65696645901</v>
+        <v>296387.63397582876</v>
       </c>
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
@@ -7862,7 +7862,7 @@
         <v>72404.880570163281</v>
       </c>
       <c r="Z71" s="11">
-        <v>78553.976890721824</v>
+        <v>78528.71154426779</v>
       </c>
       <c r="AA71" s="9"/>
       <c r="AB71" s="9"/>
@@ -8012,7 +8012,7 @@
         <v>284932.72699243471</v>
       </c>
       <c r="Z72" s="11">
-        <v>302352.11618470616</v>
+        <v>302366.14400715777</v>
       </c>
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
@@ -8162,7 +8162,7 @@
         <v>642735.23853668745</v>
       </c>
       <c r="Z73" s="11">
-        <v>549755.62187764829</v>
+        <v>549809.08694432455</v>
       </c>
       <c r="AA73" s="9"/>
       <c r="AB73" s="9"/>
@@ -8312,7 +8312,7 @@
         <v>72355.321969068638</v>
       </c>
       <c r="Z74" s="11">
-        <v>72724.087944601371</v>
+        <v>72727.235212249943</v>
       </c>
       <c r="AA74" s="9"/>
       <c r="AB74" s="9"/>
@@ -8462,7 +8462,7 @@
         <v>171943.94464017038</v>
       </c>
       <c r="Z75" s="11">
-        <v>166571.65820140351</v>
+        <v>166530.26026194557</v>
       </c>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
@@ -8612,7 +8612,7 @@
         <v>289378.89956695522</v>
       </c>
       <c r="Z76" s="11">
-        <v>294507.64020949497</v>
+        <v>294459.31169524061</v>
       </c>
       <c r="AA76" s="9"/>
       <c r="AB76" s="9"/>
@@ -8762,7 +8762,7 @@
         <v>136215.54893583036</v>
       </c>
       <c r="Z77" s="11">
-        <v>175756.18361399992</v>
+        <v>175778.86109763739</v>
       </c>
       <c r="AA77" s="9"/>
       <c r="AB77" s="9"/>
@@ -8909,10 +8909,10 @@
         <v>70585.288846084266</v>
       </c>
       <c r="Y78" s="11">
-        <v>51916.905454408698</v>
+        <v>51917.588680700253</v>
       </c>
       <c r="Z78" s="11">
-        <v>52874.905736559791</v>
+        <v>52875.323891614549</v>
       </c>
       <c r="AA78" s="9"/>
       <c r="AB78" s="9"/>
@@ -9062,7 +9062,7 @@
         <v>161441.96557933991</v>
       </c>
       <c r="Z79" s="11">
-        <v>175971.53731411081</v>
+        <v>175979.79465135201</v>
       </c>
       <c r="AA79" s="9"/>
       <c r="AB79" s="9"/>
@@ -9212,7 +9212,7 @@
         <v>64683.060033550959</v>
       </c>
       <c r="Z80" s="11">
-        <v>68396.488563171544</v>
+        <v>68397.436232618347</v>
       </c>
       <c r="AA80" s="9"/>
       <c r="AB80" s="9"/>
@@ -9362,7 +9362,7 @@
         <v>70068.961976601087</v>
       </c>
       <c r="Z81" s="11">
-        <v>83553.602355739597</v>
+        <v>83569.949680234335</v>
       </c>
       <c r="AA81" s="9"/>
       <c r="AB81" s="9"/>
@@ -9512,7 +9512,7 @@
         <v>61581.65012195726</v>
       </c>
       <c r="Z82" s="11">
-        <v>52881.280680208103</v>
+        <v>54979.37167141767</v>
       </c>
       <c r="AA82" s="9"/>
       <c r="AB82" s="9"/>
@@ -9662,7 +9662,7 @@
         <v>112826.6471724077</v>
       </c>
       <c r="Z83" s="11">
-        <v>117520.30661472978</v>
+        <v>117573.48460878219</v>
       </c>
       <c r="AA83" s="9"/>
       <c r="AB83" s="9"/>
@@ -9812,7 +9812,7 @@
         <v>144355.0117572872</v>
       </c>
       <c r="Z84" s="11">
-        <v>155637.62027897389</v>
+        <v>155610.77841425937</v>
       </c>
       <c r="AA84" s="9"/>
       <c r="AB84" s="9"/>
@@ -9962,7 +9962,7 @@
         <v>61953.902748374567</v>
       </c>
       <c r="Z85" s="11">
-        <v>63285.309363750057</v>
+        <v>63296.868216820578</v>
       </c>
       <c r="AA85" s="9"/>
       <c r="AB85" s="9"/>
@@ -10112,7 +10112,7 @@
         <v>85192.570735247806</v>
       </c>
       <c r="Z86" s="11">
-        <v>78101.160037176669</v>
+        <v>78127.93156453775</v>
       </c>
       <c r="AA86" s="9"/>
       <c r="AB86" s="9"/>
@@ -10262,7 +10262,7 @@
         <v>63436.819824848135</v>
       </c>
       <c r="Z87" s="11">
-        <v>65146.578129622008</v>
+        <v>65147.781732156807</v>
       </c>
       <c r="AA87" s="9"/>
       <c r="AB87" s="9"/>
@@ -10409,10 +10409,10 @@
         <v>1291703.1245853622</v>
       </c>
       <c r="Y88" s="11">
-        <v>1219063.9937238765</v>
+        <v>1219069.556296428</v>
       </c>
       <c r="Z88" s="11">
-        <v>1251353.8021755046</v>
+        <v>1239637.7489729165</v>
       </c>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
@@ -10656,10 +10656,10 @@
         <v>6442284.8087853193</v>
       </c>
       <c r="Y90" s="8">
-        <v>6147060.3809311297</v>
+        <v>6147066.6267299727</v>
       </c>
       <c r="Z90" s="8">
-        <v>6270567.9713612646</v>
+        <v>6260663.0037398003</v>
       </c>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
@@ -11174,7 +11174,7 @@
         <v>-9.3310366702204419</v>
       </c>
       <c r="Y106" s="17">
-        <v>9.690850490455432</v>
+        <v>9.6859100489036223</v>
       </c>
       <c r="Z106" s="17"/>
       <c r="AA106" s="9"/>
@@ -11317,7 +11317,7 @@
         <v>-11.894687336042622</v>
       </c>
       <c r="Y107" s="17">
-        <v>2.8128159755722209</v>
+        <v>2.8144618093816121</v>
       </c>
       <c r="Z107" s="17"/>
       <c r="AA107" s="9"/>
@@ -11460,7 +11460,7 @@
         <v>-25.649717229370012</v>
       </c>
       <c r="Y108" s="17">
-        <v>23.48508053271685</v>
+        <v>23.460357363932289</v>
       </c>
       <c r="Z108" s="17"/>
       <c r="AA108" s="9"/>
@@ -11603,7 +11603,7 @@
         <v>22.011318768929854</v>
       </c>
       <c r="Y109" s="17">
-        <v>-6.6628617689478347</v>
+        <v>-6.8475511466428856</v>
       </c>
       <c r="Z109" s="17"/>
       <c r="AA109" s="9"/>
@@ -11746,7 +11746,7 @@
         <v>-1.7829205787171958</v>
       </c>
       <c r="Y110" s="17">
-        <v>45.350790713581574</v>
+        <v>45.355177965486007</v>
       </c>
       <c r="Z110" s="17"/>
       <c r="AA110" s="9"/>
@@ -11889,7 +11889,7 @@
         <v>-7.9796421002632343</v>
       </c>
       <c r="Y111" s="17">
-        <v>11.917592959272014</v>
+        <v>11.9578636277339</v>
       </c>
       <c r="Z111" s="17"/>
       <c r="AA111" s="9"/>
@@ -12032,7 +12032,7 @@
         <v>20.673349298191141</v>
       </c>
       <c r="Y112" s="17">
-        <v>9.4366559135464172</v>
+        <v>9.3577154557116415</v>
       </c>
       <c r="Z112" s="17"/>
       <c r="AA112" s="9"/>
@@ -12175,7 +12175,7 @@
         <v>18.931764740092461</v>
       </c>
       <c r="Y113" s="17">
-        <v>5.0681129229867281</v>
+        <v>5.110855162531351</v>
       </c>
       <c r="Z113" s="17"/>
       <c r="AA113" s="9"/>
@@ -12318,7 +12318,7 @@
         <v>24.443269917302459</v>
       </c>
       <c r="Y114" s="17">
-        <v>5.4199624900768555</v>
+        <v>5.4902544122010823</v>
       </c>
       <c r="Z114" s="17"/>
       <c r="AA114" s="9"/>
@@ -12461,7 +12461,7 @@
         <v>28.418441159952295</v>
       </c>
       <c r="Y115" s="17">
-        <v>-0.65262208858780468</v>
+        <v>-0.65270557536189244</v>
       </c>
       <c r="Z115" s="17"/>
       <c r="AA115" s="9"/>
@@ -12604,7 +12604,7 @@
         <v>-11.503318450687559</v>
       </c>
       <c r="Y116" s="17">
-        <v>-1.2394388465723978</v>
+        <v>-1.238578427160391</v>
       </c>
       <c r="Z116" s="17"/>
       <c r="AA116" s="9"/>
@@ -12747,7 +12747,7 @@
         <v>-1.7254349921448409</v>
       </c>
       <c r="Y117" s="17">
-        <v>4.780329419829215</v>
+        <v>4.8104743910917449</v>
       </c>
       <c r="Z117" s="17"/>
       <c r="AA117" s="9"/>
@@ -12890,7 +12890,7 @@
         <v>29.877568319024562</v>
       </c>
       <c r="Y118" s="17">
-        <v>0.65492660572101613</v>
+        <v>0.6549944559331351</v>
       </c>
       <c r="Z118" s="17"/>
       <c r="AA118" s="9"/>
@@ -13033,7 +13033,7 @@
         <v>-7.2281698046945024</v>
       </c>
       <c r="Y119" s="17">
-        <v>16.604639996353001</v>
+        <v>16.611162285321228</v>
       </c>
       <c r="Z119" s="17"/>
       <c r="AA119" s="9"/>
@@ -13176,7 +13176,7 @@
         <v>16.088452592187366</v>
       </c>
       <c r="Y120" s="17">
-        <v>-5.8648753133398657</v>
+        <v>-5.8286529500357886</v>
       </c>
       <c r="Z120" s="17"/>
       <c r="AA120" s="9"/>
@@ -13319,7 +13319,7 @@
         <v>-2.2136122204675246</v>
       </c>
       <c r="Y121" s="17">
-        <v>0.98429663298756509</v>
+        <v>0.9880478566394828</v>
       </c>
       <c r="Z121" s="17"/>
       <c r="AA121" s="9"/>
@@ -13462,7 +13462,7 @@
         <v>4.0581275268477128</v>
       </c>
       <c r="Y122" s="17">
-        <v>0.16831397201811171</v>
+        <v>0.18324901471125088</v>
       </c>
       <c r="Z122" s="17"/>
       <c r="AA122" s="9"/>
@@ -13605,7 +13605,7 @@
         <v>-9.4440237645164444</v>
       </c>
       <c r="Y123" s="17">
-        <v>5.1124174856577582</v>
+        <v>5.1622648658038202</v>
       </c>
       <c r="Z123" s="17"/>
       <c r="AA123" s="9"/>
@@ -13748,7 +13748,7 @@
         <v>2.4807326149752811</v>
       </c>
       <c r="Y124" s="17">
-        <v>28.138552735971047</v>
+        <v>28.153492178084463</v>
       </c>
       <c r="Z124" s="17"/>
       <c r="AA124" s="9"/>
@@ -13888,10 +13888,10 @@
         <v>50.120691260877038</v>
       </c>
       <c r="X125" s="17">
-        <v>-17.71404175880123</v>
+        <v>-17.713057628472555</v>
       </c>
       <c r="Y125" s="17">
-        <v>7.5466544631505457</v>
+        <v>7.5460482930225226</v>
       </c>
       <c r="Z125" s="17"/>
       <c r="AA125" s="9"/>
@@ -14034,7 +14034,7 @@
         <v>-3.9361303896696569</v>
       </c>
       <c r="Y126" s="17">
-        <v>9.4969508473709681</v>
+        <v>9.5027568657665142</v>
       </c>
       <c r="Z126" s="17"/>
       <c r="AA126" s="9"/>
@@ -14177,7 +14177,7 @@
         <v>-0.34484378074812128</v>
       </c>
       <c r="Y127" s="17">
-        <v>8.9119776485106001</v>
+        <v>8.9145317839388412</v>
       </c>
       <c r="Z127" s="17"/>
       <c r="AA127" s="9"/>
@@ -14320,7 +14320,7 @@
         <v>-7.5888154612020742</v>
       </c>
       <c r="Y128" s="17">
-        <v>1.4217111739128541E-2</v>
+        <v>3.909093513519224E-2</v>
       </c>
       <c r="Z128" s="17"/>
       <c r="AA128" s="9"/>
@@ -14463,7 +14463,7 @@
         <v>48.998411165856595</v>
       </c>
       <c r="Y129" s="17">
-        <v>0.61249364442662113</v>
+        <v>5.0625689059820616</v>
       </c>
       <c r="Z129" s="17"/>
       <c r="AA129" s="9"/>
@@ -14606,7 +14606,7 @@
         <v>7.317422959836108</v>
       </c>
       <c r="Y130" s="17">
-        <v>10.38833000144183</v>
+        <v>10.425909218132361</v>
       </c>
       <c r="Z130" s="17"/>
       <c r="AA130" s="9"/>
@@ -14749,7 +14749,7 @@
         <v>-13.222613977739073</v>
       </c>
       <c r="Y131" s="17">
-        <v>13.03527055341722</v>
+        <v>13.055026565534675</v>
       </c>
       <c r="Z131" s="17"/>
       <c r="AA131" s="9"/>
@@ -14892,7 +14892,7 @@
         <v>12.689087773918018</v>
       </c>
       <c r="Y132" s="17">
-        <v>16.546557542771751</v>
+        <v>16.578261674549651</v>
       </c>
       <c r="Z132" s="17"/>
       <c r="AA132" s="9"/>
@@ -15035,7 +15035,7 @@
         <v>0.28701882694075209</v>
       </c>
       <c r="Y133" s="17">
-        <v>-4.3779788632165406</v>
+        <v>-4.3389645073410321</v>
       </c>
       <c r="Z133" s="17"/>
       <c r="AA133" s="9"/>
@@ -15178,7 +15178,7 @@
         <v>13.797112098373731</v>
       </c>
       <c r="Y134" s="17">
-        <v>8.5905007317353324</v>
+        <v>8.5918595666974369</v>
       </c>
       <c r="Z134" s="17"/>
       <c r="AA134" s="9"/>
@@ -15318,10 +15318,10 @@
         <v>24.013917906477673</v>
       </c>
       <c r="X135" s="17">
-        <v>-1.8526597316364928</v>
+        <v>-1.8520666766931697</v>
       </c>
       <c r="Y135" s="17">
-        <v>3.6059542374098328</v>
+        <v>3.6637608659148384</v>
       </c>
       <c r="Z135" s="17"/>
       <c r="AA135" s="9"/>
@@ -15553,10 +15553,10 @@
         <v>30.178620662179156</v>
       </c>
       <c r="X137" s="17">
-        <v>-3.3487036103637848</v>
+        <v>-3.3485673907349707</v>
       </c>
       <c r="Y137" s="17">
-        <v>4.6207081210787493</v>
+        <v>4.6937952410344366</v>
       </c>
       <c r="Z137" s="17"/>
       <c r="AA137" s="9"/>
@@ -16058,7 +16058,7 @@
         <v>-12.178550231748062</v>
       </c>
       <c r="Y153" s="17">
-        <v>7.3084070990469598</v>
+        <v>7.2717166121126127</v>
       </c>
       <c r="Z153" s="17"/>
       <c r="AA153" s="9"/>
@@ -16201,7 +16201,7 @@
         <v>-13.013919616364248</v>
       </c>
       <c r="Y154" s="17">
-        <v>0.30522857537469861</v>
+        <v>0.30638879435842625</v>
       </c>
       <c r="Z154" s="17"/>
       <c r="AA154" s="9"/>
@@ -16344,7 +16344,7 @@
         <v>-27.840257907942188</v>
       </c>
       <c r="Y155" s="17">
-        <v>23.664903764252699</v>
+        <v>23.607101067523487</v>
       </c>
       <c r="Z155" s="17"/>
       <c r="AA155" s="9"/>
@@ -16487,7 +16487,7 @@
         <v>33.733220977279046</v>
       </c>
       <c r="Y156" s="17">
-        <v>-0.20843641519843459</v>
+        <v>-1.5915064598530648</v>
       </c>
       <c r="Z156" s="17"/>
       <c r="AA156" s="9"/>
@@ -16630,7 +16630,7 @@
         <v>-10.677822413162446</v>
       </c>
       <c r="Y157" s="17">
-        <v>45.822040002791169</v>
+        <v>45.824833730461251</v>
       </c>
       <c r="Z157" s="17"/>
       <c r="AA157" s="9"/>
@@ -16773,7 +16773,7 @@
         <v>-10.3635492151694</v>
       </c>
       <c r="Y158" s="17">
-        <v>5.4948751580650566</v>
+        <v>5.4390890732798312</v>
       </c>
       <c r="Z158" s="17"/>
       <c r="AA158" s="9"/>
@@ -16916,7 +16916,7 @@
         <v>11.465122726428859</v>
       </c>
       <c r="Y159" s="17">
-        <v>3.9444241657331531</v>
+        <v>3.8405663661836797</v>
       </c>
       <c r="Z159" s="17"/>
       <c r="AA159" s="9"/>
@@ -17059,7 +17059,7 @@
         <v>8.0764320281995623</v>
       </c>
       <c r="Y160" s="17">
-        <v>5.0783702531241488</v>
+        <v>5.0997596659518649</v>
       </c>
       <c r="Z160" s="17"/>
       <c r="AA160" s="9"/>
@@ -17202,7 +17202,7 @@
         <v>20.972899909310485</v>
       </c>
       <c r="Y161" s="17">
-        <v>-7.8358531487765504E-2</v>
+        <v>-6.202086944043117E-2</v>
       </c>
       <c r="Z161" s="17"/>
       <c r="AA161" s="9"/>
@@ -17345,7 +17345,7 @@
         <v>19.035204430508415</v>
       </c>
       <c r="Y162" s="17">
-        <v>-8.7260513878440094</v>
+        <v>-8.7261097710813118</v>
       </c>
       <c r="Z162" s="17"/>
       <c r="AA162" s="9"/>
@@ -17488,7 +17488,7 @@
         <v>-6.9970682028325939</v>
       </c>
       <c r="Y163" s="17">
-        <v>0.46002755192718325</v>
+        <v>0.46157231482285965</v>
       </c>
       <c r="Z163" s="17"/>
       <c r="AA163" s="9"/>
@@ -17631,7 +17631,7 @@
         <v>-8.3762736961583215</v>
       </c>
       <c r="Y164" s="17">
-        <v>-0.53843695050846918</v>
+        <v>-0.52468401182939317</v>
       </c>
       <c r="Z164" s="17"/>
       <c r="AA164" s="9"/>
@@ -17774,7 +17774,7 @@
         <v>22.752130190229636</v>
       </c>
       <c r="Y165" s="17">
-        <v>8.4926544621530411</v>
+        <v>8.4577599270677268</v>
       </c>
       <c r="Z165" s="17"/>
       <c r="AA165" s="9"/>
@@ -17917,7 +17917,7 @@
         <v>-1.3693128401278472</v>
       </c>
       <c r="Y166" s="17">
-        <v>6.1135094505075642</v>
+        <v>6.1184326555741393</v>
       </c>
       <c r="Z166" s="17"/>
       <c r="AA166" s="9"/>
@@ -18060,7 +18060,7 @@
         <v>3.4866039955399941</v>
       </c>
       <c r="Y167" s="17">
-        <v>-14.466239142376182</v>
+        <v>-14.45792077682367</v>
       </c>
       <c r="Z167" s="17"/>
       <c r="AA167" s="9"/>
@@ -18203,7 +18203,7 @@
         <v>-4.8371081733348547</v>
       </c>
       <c r="Y168" s="17">
-        <v>0.50965978105988086</v>
+        <v>0.5140095200464998</v>
       </c>
       <c r="Z168" s="17"/>
       <c r="AA168" s="9"/>
@@ -18346,7 +18346,7 @@
         <v>-2.0075327213091043</v>
       </c>
       <c r="Y169" s="17">
-        <v>-3.1244406134857172</v>
+        <v>-3.1485170295203488</v>
       </c>
       <c r="Z169" s="17"/>
       <c r="AA169" s="9"/>
@@ -18489,7 +18489,7 @@
         <v>-5.7124576485500853</v>
       </c>
       <c r="Y170" s="17">
-        <v>1.7723270944131571</v>
+        <v>1.7556263210234135</v>
       </c>
       <c r="Z170" s="17"/>
       <c r="AA170" s="9"/>
@@ -18632,7 +18632,7 @@
         <v>-6.7191257640067192</v>
       </c>
       <c r="Y171" s="17">
-        <v>29.027989085736976</v>
+        <v>29.044637319961794</v>
       </c>
       <c r="Z171" s="17"/>
       <c r="AA171" s="9"/>
@@ -18772,10 +18772,10 @@
         <v>25.49853271140654</v>
       </c>
       <c r="X172" s="17">
-        <v>-26.447980445873327</v>
+        <v>-26.447012501556983</v>
       </c>
       <c r="Y172" s="17">
-        <v>1.8452569038275328</v>
+        <v>1.8447220590395403</v>
       </c>
       <c r="Z172" s="17"/>
       <c r="AA172" s="9"/>
@@ -18918,7 +18918,7 @@
         <v>-5.3290613525504398</v>
       </c>
       <c r="Y173" s="17">
-        <v>8.9998729157137376</v>
+        <v>9.0049876559930482</v>
       </c>
       <c r="Z173" s="17"/>
       <c r="AA173" s="9"/>
@@ -19061,7 +19061,7 @@
         <v>5.741102613153771</v>
       </c>
       <c r="Y174" s="17">
-        <v>5.7409598860883193</v>
+        <v>5.7424249828946756</v>
       </c>
       <c r="Z174" s="17"/>
       <c r="AA174" s="9"/>
@@ -19204,7 +19204,7 @@
         <v>-1.6548604539794667</v>
       </c>
       <c r="Y175" s="17">
-        <v>19.244812537171015</v>
+        <v>19.2681428735048</v>
       </c>
       <c r="Z175" s="17"/>
       <c r="AA175" s="9"/>
@@ -19347,7 +19347,7 @@
         <v>92.251230925038385</v>
       </c>
       <c r="Y176" s="17">
-        <v>-14.128184978023171</v>
+        <v>-10.721178204001248</v>
       </c>
       <c r="Z176" s="17"/>
       <c r="AA176" s="9"/>
@@ -19490,7 +19490,7 @@
         <v>12.948890457188583</v>
       </c>
       <c r="Y177" s="17">
-        <v>4.1600628574469738</v>
+        <v>4.207195334911404</v>
       </c>
       <c r="Z177" s="17"/>
       <c r="AA177" s="9"/>
@@ -19633,7 +19633,7 @@
         <v>-3.9646701964432083</v>
       </c>
       <c r="Y178" s="17">
-        <v>7.815875863497439</v>
+        <v>7.7972815214044431</v>
       </c>
       <c r="Z178" s="17"/>
       <c r="AA178" s="9"/>
@@ -19776,7 +19776,7 @@
         <v>1.8785316662388141E-2</v>
       </c>
       <c r="Y179" s="17">
-        <v>2.1490278357167938</v>
+        <v>2.1676850188122216</v>
       </c>
       <c r="Z179" s="17"/>
       <c r="AA179" s="9"/>
@@ -19919,7 +19919,7 @@
         <v>-1.7941301856229188</v>
       </c>
       <c r="Y180" s="17">
-        <v>-8.3239778267861482</v>
+        <v>-8.2925531061443962</v>
       </c>
       <c r="Z180" s="17"/>
       <c r="AA180" s="9"/>
@@ -20062,7 +20062,7 @@
         <v>72.233937578457983</v>
       </c>
       <c r="Y181" s="17">
-        <v>2.6952144030778982</v>
+        <v>2.6971117279093022</v>
       </c>
       <c r="Z181" s="17"/>
       <c r="AA181" s="9"/>
@@ -20202,10 +20202,10 @@
         <v>7.5069456472889158</v>
       </c>
       <c r="X182" s="17">
-        <v>-5.6235159208740697</v>
+        <v>-5.6230852822508695</v>
       </c>
       <c r="Y182" s="17">
-        <v>2.6487377707705235</v>
+        <v>1.687204193579845</v>
       </c>
       <c r="Z182" s="17"/>
       <c r="AA182" s="9"/>
@@ -20437,10 +20437,10 @@
         <v>8.7663225122194035</v>
       </c>
       <c r="X184" s="17">
-        <v>-4.5826044115838158</v>
+        <v>-4.582507461526049</v>
       </c>
       <c r="Y184" s="17">
-        <v>2.0092138807236779</v>
+        <v>1.8479769930565624</v>
       </c>
       <c r="Z184" s="17"/>
       <c r="AA184" s="9"/>
@@ -20942,7 +20942,7 @@
         <v>106.73435631182751</v>
       </c>
       <c r="Z199" s="17">
-        <v>109.10405472321702</v>
+        <v>109.13645623738265</v>
       </c>
       <c r="AA199" s="9"/>
       <c r="AB199" s="9"/>
@@ -21092,7 +21092,7 @@
         <v>105.44343456390486</v>
       </c>
       <c r="Z200" s="17">
-        <v>108.07947489501591</v>
+        <v>108.07995488947724</v>
       </c>
       <c r="AA200" s="9"/>
       <c r="AB200" s="9"/>
@@ -21242,7 +21242,7 @@
         <v>101.96730976926402</v>
       </c>
       <c r="Z201" s="17">
-        <v>101.81903737672909</v>
+        <v>101.84625636252973</v>
       </c>
       <c r="AA201" s="9"/>
       <c r="AB201" s="9"/>
@@ -21392,7 +21392,7 @@
         <v>107.92102337354214</v>
       </c>
       <c r="Z202" s="17">
-        <v>100.9407921351285</v>
+        <v>102.15690992063156</v>
       </c>
       <c r="AA202" s="9"/>
       <c r="AB202" s="9"/>
@@ -21542,7 +21542,7 @@
         <v>116.14943810390834</v>
       </c>
       <c r="Z203" s="17">
-        <v>115.77408098952759</v>
+        <v>115.77535742225322</v>
       </c>
       <c r="AA203" s="9"/>
       <c r="AB203" s="9"/>
@@ -21692,7 +21692,7 @@
         <v>111.72270097262853</v>
       </c>
       <c r="Z204" s="17">
-        <v>118.52458001424723</v>
+        <v>118.62996000394554</v>
       </c>
       <c r="AA204" s="9"/>
       <c r="AB204" s="9"/>
@@ -21842,7 +21842,7 @@
         <v>105.6605355497227</v>
       </c>
       <c r="Z205" s="17">
-        <v>111.24344345935589</v>
+        <v>111.27438135109755</v>
       </c>
       <c r="AA205" s="9"/>
       <c r="AB205" s="9"/>
@@ -21992,7 +21992,7 @@
         <v>118.38063007468421</v>
       </c>
       <c r="Z206" s="17">
-        <v>118.36907423115879</v>
+        <v>118.39312764727853</v>
       </c>
       <c r="AA206" s="9"/>
       <c r="AB206" s="9"/>
@@ -22142,7 +22142,7 @@
         <v>108.73024508211331</v>
       </c>
       <c r="Z207" s="17">
-        <v>114.71327121567867</v>
+        <v>114.77099412855505</v>
       </c>
       <c r="AA207" s="9"/>
       <c r="AB207" s="9"/>
@@ -22292,7 +22292,7 @@
         <v>116.56257076757939</v>
       </c>
       <c r="Z208" s="17">
-        <v>126.87284755893833</v>
+        <v>126.8728220950796</v>
       </c>
       <c r="AA208" s="9"/>
       <c r="AB208" s="9"/>
@@ -22442,7 +22442,7 @@
         <v>149.75612692189429</v>
       </c>
       <c r="Z209" s="17">
-        <v>147.22272620645407</v>
+        <v>147.22174502405858</v>
       </c>
       <c r="AA209" s="9"/>
       <c r="AB209" s="9"/>
@@ -22592,7 +22592,7 @@
         <v>118.70090800741384</v>
       </c>
       <c r="Z210" s="17">
-        <v>125.04850981741384</v>
+        <v>125.06719235141566</v>
       </c>
       <c r="AA210" s="9"/>
       <c r="AB210" s="9"/>
@@ -22742,7 +22742,7 @@
         <v>123.10023194722206</v>
       </c>
       <c r="Z211" s="17">
-        <v>114.2072232744316</v>
+        <v>114.24404461703614</v>
       </c>
       <c r="AA211" s="9"/>
       <c r="AB211" s="9"/>
@@ -22892,7 +22892,7 @@
         <v>139.48277612074159</v>
       </c>
       <c r="Z212" s="17">
-        <v>153.27302790637444</v>
+        <v>153.27448997493792</v>
       </c>
       <c r="AA212" s="9"/>
       <c r="AB212" s="9"/>
@@ -23042,7 +23042,7 @@
         <v>123.90335737273503</v>
       </c>
       <c r="Z213" s="17">
-        <v>136.3632076788146</v>
+        <v>136.40241356960453</v>
       </c>
       <c r="AA213" s="9"/>
       <c r="AB213" s="9"/>
@@ -23192,7 +23192,7 @@
         <v>103.77610115638105</v>
       </c>
       <c r="Z214" s="17">
-        <v>104.26616312719548</v>
+        <v>104.26552398017623</v>
       </c>
       <c r="AA214" s="9"/>
       <c r="AB214" s="9"/>
@@ -23342,7 +23342,7 @@
         <v>122.65065001923394</v>
       </c>
       <c r="Z215" s="17">
-        <v>126.81948778206471</v>
+        <v>126.86992739634518</v>
       </c>
       <c r="AA215" s="9"/>
       <c r="AB215" s="9"/>
@@ -23492,7 +23492,7 @@
         <v>117.81112996125158</v>
       </c>
       <c r="Z216" s="17">
-        <v>121.67760166726063</v>
+        <v>121.75528470571717</v>
       </c>
       <c r="AA216" s="9"/>
       <c r="AB216" s="9"/>
@@ -23642,7 +23642,7 @@
         <v>178.69935226198774</v>
       </c>
       <c r="Z217" s="17">
-        <v>177.46751333535124</v>
+        <v>177.46530594334803</v>
       </c>
       <c r="AA217" s="9"/>
       <c r="AB217" s="9"/>
@@ -23789,10 +23789,10 @@
         <v>137.98913074259909</v>
       </c>
       <c r="Y218" s="17">
-        <v>154.37465781165994</v>
+        <v>154.37447254679867</v>
       </c>
       <c r="Z218" s="17">
-        <v>163.01670285161549</v>
+        <v>163.01644448598398</v>
       </c>
       <c r="AA218" s="9"/>
       <c r="AB218" s="9"/>
@@ -23942,7 +23942,7 @@
         <v>116.57490463593876</v>
       </c>
       <c r="Z219" s="17">
-        <v>117.10652738860361</v>
+        <v>117.1072417281017</v>
       </c>
       <c r="AA219" s="9"/>
       <c r="AB219" s="9"/>
@@ -24092,7 +24092,7 @@
         <v>125.36742846377915</v>
       </c>
       <c r="Z220" s="17">
-        <v>129.12701550475276</v>
+        <v>129.12825457045963</v>
       </c>
       <c r="AA220" s="9"/>
       <c r="AB220" s="9"/>
@@ -24242,7 +24242,7 @@
         <v>170.33446702849432</v>
       </c>
       <c r="Z221" s="17">
-        <v>142.86464966087959</v>
+        <v>142.8722274524219</v>
       </c>
       <c r="AA221" s="9"/>
       <c r="AB221" s="9"/>
@@ -24392,7 +24392,7 @@
         <v>146.22795047385733</v>
       </c>
       <c r="Z222" s="17">
-        <v>171.32930908614458</v>
+        <v>172.07982602799876</v>
       </c>
       <c r="AA222" s="9"/>
       <c r="AB222" s="9"/>
@@ -24542,7 +24542,7 @@
         <v>129.89655578006713</v>
       </c>
       <c r="Z223" s="17">
-        <v>137.66374051756409</v>
+        <v>137.64831910328039</v>
       </c>
       <c r="AA223" s="9"/>
       <c r="AB223" s="9"/>
@@ -24692,7 +24692,7 @@
         <v>109.74961176919899</v>
       </c>
       <c r="Z224" s="17">
-        <v>115.06261911900854</v>
+        <v>115.10258050116231</v>
       </c>
       <c r="AA224" s="9"/>
       <c r="AB224" s="9"/>
@@ -24842,7 +24842,7 @@
         <v>143.27950876875525</v>
       </c>
       <c r="Z225" s="17">
-        <v>163.47422846034203</v>
+        <v>163.48883761797376</v>
       </c>
       <c r="AA225" s="9"/>
       <c r="AB225" s="9"/>
@@ -24992,7 +24992,7 @@
         <v>104.15509768245204</v>
       </c>
       <c r="Z226" s="17">
-        <v>108.63823185169976</v>
+        <v>108.64531544177103</v>
       </c>
       <c r="AA226" s="9"/>
       <c r="AB226" s="9"/>
@@ -25142,7 +25142,7 @@
         <v>79.460760558408978</v>
       </c>
       <c r="Z227" s="17">
-        <v>84.022257782087522</v>
+        <v>84.021756858004508</v>
       </c>
       <c r="AA227" s="9"/>
       <c r="AB227" s="9"/>
@@ -25289,10 +25289,10 @@
         <v>133.24851999461669</v>
       </c>
       <c r="Y228" s="17">
-        <v>138.57252640607803</v>
+        <v>138.57273142455682</v>
       </c>
       <c r="Z228" s="17">
-        <v>139.86473814662489</v>
+        <v>141.2662547549798</v>
       </c>
       <c r="AA228" s="9"/>
       <c r="AB228" s="9"/>
@@ -25536,10 +25536,10 @@
         <v>127.23900982698784</v>
       </c>
       <c r="Y230" s="17">
-        <v>128.88441541790527</v>
+        <v>128.88446611195562</v>
       </c>
       <c r="Z230" s="17">
-        <v>132.18393019437386</v>
+        <v>132.48573318049347</v>
       </c>
       <c r="AA230" s="9"/>
       <c r="AB230" s="9"/>
@@ -25865,10 +25865,10 @@
         <v>16.162681219513807</v>
       </c>
       <c r="Y246" s="17">
-        <v>15.162275163855462</v>
+        <v>15.162253794286082</v>
       </c>
       <c r="Z246" s="17">
-        <v>15.897071315640662</v>
+        <v>15.885235624420929</v>
       </c>
       <c r="AA246" s="9"/>
       <c r="AB246" s="9"/>
@@ -26015,10 +26015,10 @@
         <v>8.9986295557201004</v>
       </c>
       <c r="Y247" s="17">
-        <v>8.2029636452849601</v>
+        <v>8.2029520841044068</v>
       </c>
       <c r="Z247" s="17">
-        <v>8.0612128025452652</v>
+        <v>8.0557028411630114</v>
       </c>
       <c r="AA247" s="9"/>
       <c r="AB247" s="9"/>
@@ -26165,10 +26165,10 @@
         <v>2.9644124752839152</v>
       </c>
       <c r="Y248" s="17">
-        <v>2.2804133417684405</v>
+        <v>2.2804101277751183</v>
       </c>
       <c r="Z248" s="17">
-        <v>2.6915993039376329</v>
+        <v>2.6891779848391404</v>
       </c>
       <c r="AA248" s="9"/>
       <c r="AB248" s="9"/>
@@ -26315,10 +26315,10 @@
         <v>0.14643816938240639</v>
       </c>
       <c r="Y249" s="17">
-        <v>0.18486160901998205</v>
+        <v>0.18486134847775226</v>
       </c>
       <c r="Z249" s="17">
-        <v>0.16492388423469667</v>
+        <v>0.16448240575662118</v>
       </c>
       <c r="AA249" s="9"/>
       <c r="AB249" s="9"/>
@@ -26465,10 +26465,10 @@
         <v>0.86292462880202014</v>
       </c>
       <c r="Y250" s="17">
-        <v>0.8769042937608964</v>
+        <v>0.87690305786015299</v>
       </c>
       <c r="Z250" s="17">
-        <v>1.2182935364074541</v>
+        <v>1.217478072509333</v>
       </c>
       <c r="AA250" s="9"/>
       <c r="AB250" s="9"/>
@@ -26615,10 +26615,10 @@
         <v>1.224374454220492</v>
       </c>
       <c r="Y251" s="17">
-        <v>1.165709925156738</v>
+        <v>1.1657082822160281</v>
       </c>
       <c r="Z251" s="17">
-        <v>1.2470136290923246</v>
+        <v>1.246589719950365</v>
       </c>
       <c r="AA251" s="9"/>
       <c r="AB251" s="9"/>
@@ -26765,10 +26765,10 @@
         <v>1.0370672950985318</v>
       </c>
       <c r="Y252" s="17">
-        <v>1.2948236456409772</v>
+        <v>1.2948218207285922</v>
       </c>
       <c r="Z252" s="17">
-        <v>1.354427553795019</v>
+        <v>1.3525038032204664</v>
       </c>
       <c r="AA252" s="9"/>
       <c r="AB252" s="9"/>
@@ -26915,10 +26915,10 @@
         <v>0.71638376370988144</v>
       </c>
       <c r="Y253" s="17">
-        <v>0.8815275990266136</v>
+        <v>0.8815263566098267</v>
       </c>
       <c r="Z253" s="17">
-        <v>0.88529740414361247</v>
+        <v>0.88503801947617633</v>
       </c>
       <c r="AA253" s="9"/>
       <c r="AB253" s="9"/>
@@ -27065,10 +27065,10 @@
         <v>0.17524569961832737</v>
       </c>
       <c r="Y254" s="17">
-        <v>0.22563740698866075</v>
+        <v>0.22563708897740112</v>
       </c>
       <c r="Z254" s="17">
-        <v>0.22736117359838753</v>
+        <v>0.22735362555397326</v>
       </c>
       <c r="AA254" s="9"/>
       <c r="AB254" s="9"/>
@@ -27215,10 +27215,10 @@
         <v>3.7205177678132702E-2</v>
       </c>
       <c r="Y255" s="17">
-        <v>4.9433697208195695E-2</v>
+        <v>4.9433627536803325E-2</v>
       </c>
       <c r="Z255" s="17">
-        <v>4.6942027886269486E-2</v>
+        <v>4.690915195184181E-2</v>
       </c>
       <c r="AA255" s="9"/>
       <c r="AB255" s="9"/>
@@ -27365,10 +27365,10 @@
         <v>19.759911078479206</v>
       </c>
       <c r="Y256" s="17">
-        <v>18.092737743582038</v>
+        <v>18.092712243845995</v>
       </c>
       <c r="Z256" s="17">
-        <v>17.079304512927028</v>
+        <v>17.06750602742688</v>
       </c>
       <c r="AA256" s="9"/>
       <c r="AB256" s="9"/>
@@ -27515,10 +27515,10 @@
         <v>4.3903329981932266</v>
       </c>
       <c r="Y257" s="17">
-        <v>4.4640690994739369</v>
+        <v>4.4640628078565312</v>
       </c>
       <c r="Z257" s="17">
-        <v>4.4708799930357088</v>
+        <v>4.4690379169642291</v>
       </c>
       <c r="AA257" s="9"/>
       <c r="AB257" s="9"/>
@@ -27665,10 +27665,10 @@
         <v>0.83720605841540829</v>
       </c>
       <c r="Y258" s="17">
-        <v>1.1250163330515648</v>
+        <v>1.1250147474640244</v>
       </c>
       <c r="Z258" s="17">
-        <v>1.0823711525875974</v>
+        <v>1.0816147500253286</v>
       </c>
       <c r="AA258" s="9"/>
       <c r="AB258" s="9"/>
@@ -27815,10 +27815,10 @@
         <v>5.2262068061260214</v>
       </c>
       <c r="Y259" s="17">
-        <v>5.0164331829434454</v>
+        <v>5.0164261128292447</v>
       </c>
       <c r="Z259" s="17">
-        <v>5.5910478515010862</v>
+        <v>5.5874493630562005</v>
       </c>
       <c r="AA259" s="9"/>
       <c r="AB259" s="9"/>
@@ -27965,10 +27965,10 @@
         <v>8.3688534304808719</v>
       </c>
       <c r="Y260" s="17">
-        <v>10.051880119628885</v>
+        <v>10.051865952602675</v>
       </c>
       <c r="Z260" s="17">
-        <v>9.0444330323355917</v>
+        <v>9.0415841258112053</v>
       </c>
       <c r="AA260" s="9"/>
       <c r="AB260" s="9"/>
@@ -28115,10 +28115,10 @@
         <v>0.93676191463075797</v>
       </c>
       <c r="Y261" s="17">
-        <v>0.94776342649246659</v>
+        <v>0.94776209072352169</v>
       </c>
       <c r="Z261" s="17">
-        <v>0.91482102078726668</v>
+        <v>0.91421505118176649</v>
       </c>
       <c r="AA261" s="9"/>
       <c r="AB261" s="9"/>
@@ -28265,10 +28265,10 @@
         <v>2.4724102295591561</v>
       </c>
       <c r="Y262" s="17">
-        <v>2.6618823396737876</v>
+        <v>2.6618785880416129</v>
       </c>
       <c r="Z262" s="17">
-        <v>2.5485993236485536</v>
+        <v>2.5471962767109444</v>
       </c>
       <c r="AA262" s="9"/>
       <c r="AB262" s="9"/>
@@ -28415,10 +28415,10 @@
         <v>4.5927823396631915</v>
       </c>
       <c r="Y263" s="17">
-        <v>4.3031382292962741</v>
+        <v>4.3031321644933378</v>
       </c>
       <c r="Z263" s="17">
-        <v>4.3233626514247705</v>
+        <v>4.3223872378794157</v>
       </c>
       <c r="AA263" s="9"/>
       <c r="AB263" s="9"/>
@@ -28565,10 +28565,10 @@
         <v>2.8976587624710568</v>
       </c>
       <c r="Y264" s="17">
-        <v>3.0724284509243129</v>
+        <v>3.0724241206722733</v>
       </c>
       <c r="Z264" s="17">
-        <v>3.7630842130282018</v>
+        <v>3.7608903145580701</v>
       </c>
       <c r="AA264" s="9"/>
       <c r="AB264" s="9"/>
@@ -28715,10 +28715,10 @@
         <v>1.1882255142566589</v>
       </c>
       <c r="Y265" s="17">
-        <v>1.0116188680293232</v>
+        <v>1.0116295410880798</v>
       </c>
       <c r="Z265" s="17">
-        <v>1.0399109966111295</v>
+        <v>1.0391901375819477</v>
       </c>
       <c r="AA265" s="9"/>
       <c r="AB265" s="9"/>
@@ -28865,10 +28865,10 @@
         <v>2.3900183044680103</v>
       </c>
       <c r="Y266" s="17">
-        <v>2.3754922628367026</v>
+        <v>2.3754889148400347</v>
       </c>
       <c r="Z266" s="17">
-        <v>2.4862110399894553</v>
+        <v>2.4846036432261989</v>
       </c>
       <c r="AA266" s="9"/>
       <c r="AB266" s="9"/>
@@ -29015,10 +29015,10 @@
         <v>0.9926937767464169</v>
       </c>
       <c r="Y267" s="17">
-        <v>1.0235460577862578</v>
+        <v>1.0235446152099781</v>
       </c>
       <c r="Z267" s="17">
-        <v>1.0655292567779706</v>
+        <v>1.0648088768671631</v>
       </c>
       <c r="AA267" s="9"/>
       <c r="AB267" s="9"/>
@@ -29165,10 +29165,10 @@
         <v>1.5755909625688247</v>
       </c>
       <c r="Y268" s="17">
-        <v>1.5064694695106298</v>
+        <v>1.5064673463065921</v>
       </c>
       <c r="Z268" s="17">
-        <v>1.4401390250720951</v>
+        <v>1.4394895466441961</v>
       </c>
       <c r="AA268" s="9"/>
       <c r="AB268" s="9"/>
@@ -29315,10 +29315,10 @@
         <v>0.73729260167981481</v>
       </c>
       <c r="Y269" s="17">
-        <v>1.1366161688278487</v>
+        <v>1.1366145668916077</v>
       </c>
       <c r="Z269" s="17">
-        <v>1.0930702832750554</v>
+        <v>1.1406181806540132</v>
       </c>
       <c r="AA269" s="9"/>
       <c r="AB269" s="9"/>
@@ -29465,10 +29465,10 @@
         <v>1.6660149015372945</v>
       </c>
       <c r="Y270" s="17">
-        <v>1.8498709538761993</v>
+        <v>1.8498683466853079</v>
       </c>
       <c r="Z270" s="17">
-        <v>1.9518522573966905</v>
+        <v>1.9511509124898359</v>
       </c>
       <c r="AA270" s="9"/>
       <c r="AB270" s="9"/>
@@ -29615,10 +29615,10 @@
         <v>2.2272455183110291</v>
       </c>
       <c r="Y271" s="17">
-        <v>1.9997097951968221</v>
+        <v>1.9997069768244642</v>
       </c>
       <c r="Z271" s="17">
-        <v>2.1605449034697339</v>
+        <v>2.1594109265757573</v>
       </c>
       <c r="AA271" s="9"/>
       <c r="AB271" s="9"/>
@@ -29765,10 +29765,10 @@
         <v>0.96097190050047177</v>
       </c>
       <c r="Y272" s="17">
-        <v>1.1204303603668828</v>
+        <v>1.1204287812427696</v>
       </c>
       <c r="Z272" s="17">
-        <v>1.2481496618818806</v>
+        <v>1.2476158624940277</v>
       </c>
       <c r="AA272" s="9"/>
       <c r="AB272" s="9"/>
@@ -29915,10 +29915,10 @@
         <v>1.0793873675914338</v>
       </c>
       <c r="Y273" s="17">
-        <v>1.1199905774550121</v>
+        <v>1.1199889989507246</v>
       </c>
       <c r="Z273" s="17">
-        <v>1.0236574058212096</v>
+        <v>1.0233587113099507</v>
       </c>
       <c r="AA273" s="9"/>
       <c r="AB273" s="9"/>
@@ -30065,10 +30065,10 @@
         <v>0.54038424462944246</v>
       </c>
       <c r="Y274" s="17">
-        <v>0.63624771481994957</v>
+        <v>0.63624681809834693</v>
       </c>
       <c r="Z274" s="17">
-        <v>0.66038989013304583</v>
+        <v>0.65993619738043141</v>
       </c>
       <c r="AA274" s="9"/>
       <c r="AB274" s="9"/>
@@ -30215,10 +30215,10 @@
         <v>20.997370070177883</v>
       </c>
       <c r="Y275" s="17">
-        <v>21.322383682372223</v>
+        <v>21.322482471046825</v>
       </c>
       <c r="Z275" s="17">
-        <v>21.115570212655257</v>
+        <v>21.112700316741513</v>
       </c>
       <c r="AA275" s="9"/>
       <c r="AB275" s="9"/>
@@ -30982,10 +30982,10 @@
         <v>19.892414531926068</v>
       </c>
       <c r="Y293" s="17">
-        <v>18.308827995268356</v>
+        <v>18.308809392369831</v>
       </c>
       <c r="Z293" s="17">
-        <v>19.259938325962782</v>
+        <v>19.283813686131221</v>
       </c>
       <c r="AA293" s="9"/>
       <c r="AB293" s="9"/>
@@ -31132,10 +31132,10 @@
         <v>10.998398361892459</v>
       </c>
       <c r="Y294" s="17">
-        <v>10.026552895297963</v>
+        <v>10.026542707701783</v>
       </c>
       <c r="Z294" s="17">
-        <v>9.8590670560592688</v>
+        <v>9.8747792621402706</v>
       </c>
       <c r="AA294" s="9"/>
       <c r="AB294" s="9"/>
@@ -31282,10 +31282,10 @@
         <v>3.8114094282810331</v>
       </c>
       <c r="Y295" s="17">
-        <v>2.8823918286173167</v>
+        <v>2.8823888999294334</v>
       </c>
       <c r="Z295" s="17">
-        <v>3.4942991376604073</v>
+        <v>3.4981915850304501</v>
       </c>
       <c r="AA295" s="9"/>
       <c r="AB295" s="9"/>
@@ -31432,10 +31432,10 @@
         <v>0.15751768972686264</v>
       </c>
       <c r="Y296" s="17">
-        <v>0.22077051965386446</v>
+        <v>0.22077029533739942</v>
       </c>
       <c r="Z296" s="17">
-        <v>0.21597103351319352</v>
+        <v>0.21331471497021429</v>
       </c>
       <c r="AA296" s="9"/>
       <c r="AB296" s="9"/>
@@ -31582,10 +31582,10 @@
         <v>1.0394503400166555</v>
       </c>
       <c r="Y297" s="17">
-        <v>0.9730507450041741</v>
+        <v>0.97304975632459945</v>
       </c>
       <c r="Z297" s="17">
-        <v>1.390974788107423</v>
+        <v>1.3932021343651644</v>
       </c>
       <c r="AA297" s="9"/>
       <c r="AB297" s="9"/>
@@ -31732,10 +31732,10 @@
         <v>1.4315033873704415</v>
       </c>
       <c r="Y298" s="17">
-        <v>1.3447745260605968</v>
+        <v>1.3447731596867327</v>
       </c>
       <c r="Z298" s="17">
-        <v>1.3907255565010956</v>
+        <v>1.3921892329509105</v>
       </c>
       <c r="AA298" s="9"/>
       <c r="AB298" s="9"/>
@@ -31882,10 +31882,10 @@
         <v>1.352031406463658</v>
       </c>
       <c r="Y299" s="17">
-        <v>1.5794221349482482</v>
+        <v>1.5794205301579405</v>
       </c>
       <c r="Z299" s="17">
-        <v>1.6093852514515998</v>
+        <v>1.6103208647252738</v>
       </c>
       <c r="AA299" s="9"/>
       <c r="AB299" s="9"/>
@@ -32032,10 +32032,10 @@
         <v>0.84732931583307758</v>
       </c>
       <c r="Y300" s="17">
-        <v>0.95974459000274726</v>
+        <v>0.95974361484304704</v>
       </c>
       <c r="Z300" s="17">
-        <v>0.9886204739766008</v>
+        <v>0.99038612487916977</v>
       </c>
       <c r="AA300" s="9"/>
       <c r="AB300" s="9"/>
@@ -32182,10 +32182,10 @@
         <v>0.21096023771110245</v>
       </c>
       <c r="Y301" s="17">
-        <v>0.26746141585704492</v>
+        <v>0.26746114409974941</v>
       </c>
       <c r="Z301" s="17">
-        <v>0.26198793898340644</v>
+        <v>0.26244533299958045</v>
       </c>
       <c r="AA301" s="9"/>
       <c r="AB301" s="9"/>
@@ -32332,10 +32332,10 @@
         <v>4.3814364630777002E-2</v>
       </c>
       <c r="Y302" s="17">
-        <v>5.4659339826401025E-2</v>
+        <v>5.4659284289140374E-2</v>
       </c>
       <c r="Z302" s="17">
-        <v>4.8907089709785974E-2</v>
+        <v>4.8984434070186586E-2</v>
       </c>
       <c r="AA302" s="9"/>
       <c r="AB302" s="9"/>
@@ -32482,10 +32482,10 @@
         <v>15.975373239923698</v>
       </c>
       <c r="Y303" s="17">
-        <v>15.571128709860638</v>
+        <v>15.571112888633444</v>
       </c>
       <c r="Z303" s="17">
-        <v>15.334654191495535</v>
+        <v>15.359151253346589</v>
       </c>
       <c r="AA303" s="9"/>
       <c r="AB303" s="9"/>
@@ -32632,10 +32632,10 @@
         <v>5.0477388868707065</v>
       </c>
       <c r="Y304" s="17">
-        <v>4.847047473595552</v>
+        <v>4.8470425486963533</v>
       </c>
       <c r="Z304" s="17">
-        <v>4.7259938544630069</v>
+        <v>4.7341253442132549</v>
       </c>
       <c r="AA304" s="9"/>
       <c r="AB304" s="9"/>
@@ -32782,10 +32782,10 @@
         <v>0.91558545180234796</v>
       </c>
       <c r="Y305" s="17">
-        <v>1.1778781414734647</v>
+        <v>1.1778769446766217</v>
       </c>
       <c r="Z305" s="17">
-        <v>1.2527410156383123</v>
+        <v>1.2543194146907244</v>
       </c>
       <c r="AA305" s="9"/>
       <c r="AB305" s="9"/>
@@ -32932,10 +32932,10 @@
         <v>4.4842555566837374</v>
       </c>
       <c r="Y306" s="17">
-        <v>4.6352680685605101</v>
+        <v>4.6352633588422494</v>
       </c>
       <c r="Z306" s="17">
-        <v>4.8217660276644629</v>
+        <v>4.8296185855482028</v>
       </c>
       <c r="AA306" s="9"/>
       <c r="AB306" s="9"/>
@@ -33082,10 +33082,10 @@
         <v>9.6406885967579878</v>
       </c>
       <c r="Y307" s="17">
-        <v>10.455977307958845</v>
+        <v>10.455966684040977</v>
       </c>
       <c r="Z307" s="17">
-        <v>8.7672380618226988</v>
+        <v>8.7819626550078915</v>
       </c>
       <c r="AA307" s="9"/>
       <c r="AB307" s="9"/>
@@ -33232,10 +33232,10 @@
         <v>1.1802198878892454</v>
       </c>
       <c r="Y308" s="17">
-        <v>1.1770719252005879</v>
+        <v>1.1770707292229101</v>
       </c>
       <c r="Z308" s="17">
-        <v>1.1597687526352394</v>
+        <v>1.1616538882352621</v>
       </c>
       <c r="AA308" s="9"/>
       <c r="AB308" s="9"/>
@@ -33382,10 +33382,10 @@
         <v>2.7236686530887808</v>
       </c>
       <c r="Y309" s="17">
-        <v>2.7971735103425983</v>
+        <v>2.7971706682417827</v>
       </c>
       <c r="Z309" s="17">
-        <v>2.6564046345110075</v>
+        <v>2.6599460817882852</v>
       </c>
       <c r="AA309" s="9"/>
       <c r="AB309" s="9"/>
@@ -33532,10 +33532,10 @@
         <v>4.7640095592359515</v>
       </c>
       <c r="Y310" s="17">
-        <v>4.7075981303948309</v>
+        <v>4.7075933471847664</v>
       </c>
       <c r="Z310" s="17">
-        <v>4.6966661003366958</v>
+        <v>4.7033247360438608</v>
       </c>
       <c r="AA310" s="9"/>
       <c r="AB310" s="9"/>
@@ -33682,10 +33682,10 @@
         <v>2.2667005837512635</v>
       </c>
       <c r="Y311" s="17">
-        <v>2.2159461676736778</v>
+        <v>2.2159439161356924</v>
       </c>
       <c r="Z311" s="17">
-        <v>2.8028750253040533</v>
+        <v>2.8076716634106655</v>
       </c>
       <c r="AA311" s="9"/>
       <c r="AB311" s="9"/>
@@ -33832,10 +33832,10 @@
         <v>1.095656136621395</v>
       </c>
       <c r="Y312" s="17">
-        <v>0.84458102307666871</v>
+        <v>0.84459127960222913</v>
       </c>
       <c r="Z312" s="17">
-        <v>0.84322354813867495</v>
+        <v>0.84456428752081902</v>
       </c>
       <c r="AA312" s="9"/>
       <c r="AB312" s="9"/>
@@ -33982,10 +33982,10 @@
         <v>2.6470359077854098</v>
       </c>
       <c r="Y313" s="17">
-        <v>2.6263279612504049</v>
+        <v>2.6263252927392049</v>
       </c>
       <c r="Z313" s="17">
-        <v>2.8063093824642733</v>
+        <v>2.8108811246705128</v>
       </c>
       <c r="AA313" s="9"/>
       <c r="AB313" s="9"/>
@@ -34132,10 +34132,10 @@
         <v>0.94952587057782778</v>
       </c>
       <c r="Y314" s="17">
-        <v>1.0522600401682252</v>
+        <v>1.0522589710071211</v>
       </c>
       <c r="Z314" s="17">
-        <v>1.0907542805619805</v>
+        <v>1.0924950950364396</v>
       </c>
       <c r="AA314" s="9"/>
       <c r="AB314" s="9"/>
@@ -34282,10 +34282,10 @@
         <v>1.1059433004414605</v>
       </c>
       <c r="Y315" s="17">
-        <v>1.1398775615408441</v>
+        <v>1.139876403354934</v>
       </c>
       <c r="Z315" s="17">
-        <v>1.3324726362483097</v>
+        <v>1.3348418471065111</v>
       </c>
       <c r="AA315" s="9"/>
       <c r="AB315" s="9"/>
@@ -34432,10 +34432,10 @@
         <v>0.49721276756719834</v>
       </c>
       <c r="Y316" s="17">
-        <v>1.0018064945805711</v>
+        <v>1.0018054766833815</v>
       </c>
       <c r="Z316" s="17">
-        <v>0.84332521267173521</v>
+        <v>0.87817171501765545</v>
       </c>
       <c r="AA316" s="9"/>
       <c r="AB316" s="9"/>
@@ -34582,10 +34582,10 @@
         <v>1.5505643434791212</v>
       </c>
       <c r="Y317" s="17">
-        <v>1.8354569530894573</v>
+        <v>1.8354550881519822</v>
       </c>
       <c r="Z317" s="17">
-        <v>1.8741572876885271</v>
+        <v>1.8779717825180782</v>
       </c>
       <c r="AA317" s="9"/>
       <c r="AB317" s="9"/>
@@ -34732,10 +34732,10 @@
         <v>2.3332480605992396</v>
       </c>
       <c r="Y318" s="17">
-        <v>2.3483584479679527</v>
+        <v>2.3483560618909229</v>
       </c>
       <c r="Z318" s="17">
-        <v>2.4820338602467431</v>
+        <v>2.4855319368141271</v>
       </c>
       <c r="AA318" s="9"/>
       <c r="AB318" s="9"/>
@@ -34882,10 +34882,10 @@
         <v>0.96149531627284079</v>
       </c>
       <c r="Y319" s="17">
-        <v>1.0078622773994952</v>
+        <v>1.0078612533492566</v>
       </c>
       <c r="Z319" s="17">
-        <v>1.0092436546862209</v>
+        <v>1.0110250013298954</v>
       </c>
       <c r="AA319" s="9"/>
       <c r="AB319" s="9"/>
@@ -35032,10 +35032,10 @@
         <v>1.3465558041496029</v>
       </c>
       <c r="Y320" s="17">
-        <v>1.3859074981518762</v>
+        <v>1.3859060899843754</v>
       </c>
       <c r="Z320" s="17">
-        <v>1.2455197103974913</v>
+        <v>1.2479178565891202</v>
       </c>
       <c r="AA320" s="9"/>
       <c r="AB320" s="9"/>
@@ -35182,10 +35182,10 @@
         <v>0.57171916646729848</v>
       </c>
       <c r="Y321" s="17">
-        <v>1.0319862811440126</v>
+        <v>1.031985232582298</v>
       </c>
       <c r="Z321" s="17">
-        <v>1.0389262731407642</v>
+        <v>1.040589178705847</v>
       </c>
       <c r="AA321" s="9"/>
       <c r="AB321" s="9"/>
@@ -35332,10 +35332,10 @@
         <v>20.050388378108828</v>
       </c>
       <c r="Y322" s="17">
-        <v>19.831658031301426</v>
+        <v>19.831728372609668</v>
       </c>
       <c r="Z322" s="17">
-        <v>19.955988163921472</v>
+        <v>19.800422866275031</v>
       </c>
       <c r="AA322" s="9"/>
       <c r="AB322" s="9"/>

--- a/Data/National Accounts/PSA-06IOG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-06IOG_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\QNAP\NAP Dissemination\As of January 2026\Tables\Prelim Q4 2025\NAP Q1 2000 to Q4 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C369C5D8-EF96-482B-B76E-418EC97F11EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4176D920-2E99-4C8B-B7AB-B98E9D11AF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="4065" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IOG" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">IOG!$A$70:$A$88</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IOG!$A$1:$AA$326</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="79">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -281,13 +282,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2000 to 2024</t>
+    <t>As of January 2026</t>
   </si>
   <si>
-    <t>Annual 2001 to 2024</t>
+    <t>Annual 2000 to 2025</t>
   </si>
   <si>
-    <t>As of April 2025</t>
+    <t>Annual 2001 to 2025</t>
+  </si>
+  <si>
+    <t>2024 - 2025</t>
   </si>
 </sst>
 </file>
@@ -417,7 +421,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -715,14 +727,14 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="Z1" sqref="Z1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.44140625" style="1" customWidth="1"/>
-    <col min="2" max="26" width="10.44140625" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="27" width="10.44140625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.2">
@@ -737,7 +749,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -747,7 +759,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -784,6 +796,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -863,6 +876,9 @@
       </c>
       <c r="Z10" s="6">
         <v>2024</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>2025</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -947,7 +963,9 @@
       <c r="Z12" s="8">
         <v>1317598.5309524143</v>
       </c>
-      <c r="AA12" s="9"/>
+      <c r="AA12" s="8">
+        <v>1513759.6199159236</v>
+      </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -1097,7 +1115,9 @@
       <c r="Z13" s="11">
         <v>668179.08655934699</v>
       </c>
-      <c r="AA13" s="9"/>
+      <c r="AA13" s="11">
+        <v>796224.60769312282</v>
+      </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -1247,7 +1267,9 @@
       <c r="Z14" s="11">
         <v>223053.47217176005</v>
       </c>
-      <c r="AA14" s="9"/>
+      <c r="AA14" s="11">
+        <v>249853.00450830103</v>
+      </c>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
@@ -1397,7 +1419,9 @@
       <c r="Z15" s="11">
         <v>13642.968937726615</v>
       </c>
-      <c r="AA15" s="9"/>
+      <c r="AA15" s="11">
+        <v>14161.946021615307</v>
+      </c>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -1547,7 +1571,9 @@
       <c r="Z16" s="11">
         <v>100983.53954152006</v>
       </c>
-      <c r="AA16" s="9"/>
+      <c r="AA16" s="11">
+        <v>106073.83492038577</v>
+      </c>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
@@ -1697,7 +1723,9 @@
       <c r="Z17" s="11">
         <v>103398.20085399944</v>
       </c>
-      <c r="AA17" s="9"/>
+      <c r="AA17" s="11">
+        <v>106951.93566706186</v>
+      </c>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
@@ -1847,7 +1875,9 @@
       <c r="Z18" s="11">
         <v>112183.22890289527</v>
       </c>
-      <c r="AA18" s="9"/>
+      <c r="AA18" s="11">
+        <v>131785.46093974129</v>
+      </c>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
@@ -1997,7 +2027,9 @@
       <c r="Z19" s="11">
         <v>73409.348269667447</v>
       </c>
-      <c r="AA19" s="9"/>
+      <c r="AA19" s="11">
+        <v>83652.169248914986</v>
+      </c>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
@@ -2147,7 +2179,9 @@
       <c r="Z20" s="11">
         <v>18857.813010723941</v>
       </c>
-      <c r="AA20" s="9"/>
+      <c r="AA20" s="11">
+        <v>20768.470360118594</v>
+      </c>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
@@ -2297,7 +2331,9 @@
       <c r="Z21" s="11">
         <v>3890.8727047744646</v>
       </c>
-      <c r="AA21" s="9"/>
+      <c r="AA21" s="11">
+        <v>4288.1905566616124</v>
+      </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
@@ -2447,7 +2483,9 @@
       <c r="Z22" s="11">
         <v>1415661.7755286773</v>
       </c>
-      <c r="AA22" s="9"/>
+      <c r="AA22" s="11">
+        <v>1235839.4799872381</v>
+      </c>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
@@ -2597,7 +2635,9 @@
       <c r="Z23" s="11">
         <v>370683.69229035953</v>
       </c>
-      <c r="AA23" s="9"/>
+      <c r="AA23" s="11">
+        <v>411212.75216915883</v>
+      </c>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
@@ -2747,7 +2787,9 @@
       <c r="Z24" s="11">
         <v>89714.37625381691</v>
       </c>
-      <c r="AA24" s="9"/>
+      <c r="AA24" s="11">
+        <v>92736.141636736138</v>
+      </c>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
@@ -2897,7 +2939,9 @@
       <c r="Z25" s="11">
         <v>463450.16508385743</v>
       </c>
-      <c r="AA25" s="9"/>
+      <c r="AA25" s="11">
+        <v>480022.23096823454</v>
+      </c>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
@@ -3047,7 +3091,9 @@
       <c r="Z26" s="11">
         <v>749952.86461706413</v>
       </c>
-      <c r="AA26" s="9"/>
+      <c r="AA26" s="11">
+        <v>836323.28842136881</v>
+      </c>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
       <c r="AD26" s="9"/>
@@ -3197,7 +3243,9 @@
       <c r="Z27" s="11">
         <v>75829.432870347635</v>
       </c>
-      <c r="AA27" s="9"/>
+      <c r="AA27" s="11">
+        <v>76318.684808399979</v>
+      </c>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
       <c r="AD27" s="9"/>
@@ -3347,7 +3395,9 @@
       <c r="Z28" s="11">
         <v>211276.82028727501</v>
       </c>
-      <c r="AA28" s="9"/>
+      <c r="AA28" s="11">
+        <v>271471.6649662946</v>
+      </c>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
       <c r="AD28" s="9"/>
@@ -3497,7 +3547,9 @@
       <c r="Z29" s="11">
         <v>358519.77329703537</v>
       </c>
-      <c r="AA29" s="9"/>
+      <c r="AA29" s="11">
+        <v>383822.90481975727</v>
+      </c>
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9"/>
@@ -3647,7 +3699,9 @@
       <c r="Z30" s="11">
         <v>311946.49363065494</v>
       </c>
-      <c r="AA30" s="9"/>
+      <c r="AA30" s="11">
+        <v>252810.00771674173</v>
+      </c>
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
       <c r="AD30" s="9"/>
@@ -3797,7 +3851,9 @@
       <c r="Z31" s="11">
         <v>86195.473018558056</v>
       </c>
-      <c r="AA31" s="9"/>
+      <c r="AA31" s="11">
+        <v>95391.4225968549</v>
+      </c>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
@@ -3947,7 +4003,9 @@
       <c r="Z32" s="11">
         <v>206085.08351497579</v>
       </c>
-      <c r="AA32" s="9"/>
+      <c r="AA32" s="11">
+        <v>210084.81864232873</v>
+      </c>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
       <c r="AD32" s="9"/>
@@ -4097,7 +4155,9 @@
       <c r="Z33" s="11">
         <v>88320.415578123211</v>
       </c>
-      <c r="AA33" s="9"/>
+      <c r="AA33" s="11">
+        <v>84975.506760608972</v>
+      </c>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
       <c r="AD33" s="9"/>
@@ -4247,7 +4307,9 @@
       <c r="Z34" s="11">
         <v>119398.24858901893</v>
       </c>
-      <c r="AA34" s="9"/>
+      <c r="AA34" s="11">
+        <v>99300.112621360226</v>
+      </c>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
       <c r="AD34" s="9"/>
@@ -4397,7 +4459,9 @@
       <c r="Z35" s="11">
         <v>94608.407123462355</v>
       </c>
-      <c r="AA35" s="9"/>
+      <c r="AA35" s="11">
+        <v>19867.843704347557</v>
+      </c>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
       <c r="AD35" s="9"/>
@@ -4547,7 +4611,9 @@
       <c r="Z36" s="11">
         <v>161837.92527514277</v>
       </c>
-      <c r="AA36" s="9"/>
+      <c r="AA36" s="11">
+        <v>203352.68549732323</v>
+      </c>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
@@ -4697,7 +4763,9 @@
       <c r="Z37" s="11">
         <v>179112.02149275818</v>
       </c>
-      <c r="AA37" s="9"/>
+      <c r="AA37" s="11">
+        <v>189534.90020496375</v>
+      </c>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
@@ -4847,7 +4915,9 @@
       <c r="Z38" s="11">
         <v>103483.31409626064</v>
       </c>
-      <c r="AA38" s="9"/>
+      <c r="AA38" s="11">
+        <v>122397.86823312854</v>
+      </c>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
       <c r="AD38" s="9"/>
@@ -4997,7 +5067,9 @@
       <c r="Z39" s="11">
         <v>84882.337696423041</v>
       </c>
-      <c r="AA39" s="9"/>
+      <c r="AA39" s="11">
+        <v>101081.05367268116</v>
+      </c>
       <c r="AB39" s="9"/>
       <c r="AC39" s="9"/>
       <c r="AD39" s="9"/>
@@ -5147,7 +5219,9 @@
       <c r="Z40" s="11">
         <v>54738.310765376271</v>
       </c>
-      <c r="AA40" s="9"/>
+      <c r="AA40" s="11">
+        <v>57605.397783348832</v>
+      </c>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
       <c r="AD40" s="9"/>
@@ -5297,7 +5371,9 @@
       <c r="Z41" s="11">
         <v>1751189.8205029774</v>
       </c>
-      <c r="AA41" s="9"/>
+      <c r="AA41" s="11">
+        <v>1980122.0134982062</v>
+      </c>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
       <c r="AD41" s="9"/>
@@ -5544,7 +5620,9 @@
       <c r="Z43" s="8">
         <v>8294485.2824645787</v>
       </c>
-      <c r="AA43" s="9"/>
+      <c r="AA43" s="8">
+        <v>8718030.3986250069</v>
+      </c>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
       <c r="AD43" s="9"/>
@@ -5642,6 +5720,7 @@
       <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
@@ -5674,7 +5753,7 @@
       <c r="X46" s="14"/>
       <c r="Y46" s="14"/>
       <c r="Z46" s="14"/>
-      <c r="AA46" s="9"/>
+      <c r="AA46" s="14"/>
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
       <c r="AD46" s="9"/>
@@ -5854,7 +5933,7 @@
     </row>
     <row r="50" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:96" x14ac:dyDescent="0.2">
@@ -5864,7 +5943,7 @@
     </row>
     <row r="53" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:96" x14ac:dyDescent="0.2">
@@ -5901,6 +5980,7 @@
       <c r="X56" s="15"/>
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
+      <c r="AA56" s="15"/>
     </row>
     <row r="57" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
@@ -5980,6 +6060,9 @@
       </c>
       <c r="Z57" s="16">
         <v>2024</v>
+      </c>
+      <c r="AA57" s="16">
+        <v>2025</v>
       </c>
     </row>
     <row r="58" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6064,7 +6147,9 @@
       <c r="Z59" s="8">
         <v>1207294.5891577296</v>
       </c>
-      <c r="AA59" s="9"/>
+      <c r="AA59" s="8">
+        <v>1374963.4854924937</v>
+      </c>
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
       <c r="AD59" s="9"/>
@@ -6214,7 +6299,9 @@
       <c r="Z60" s="11">
         <v>618226.651965786</v>
       </c>
-      <c r="AA60" s="9"/>
+      <c r="AA60" s="11">
+        <v>737305.23977975687</v>
+      </c>
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
       <c r="AD60" s="9"/>
@@ -6364,7 +6451,9 @@
       <c r="Z61" s="11">
         <v>219009.98636394032</v>
       </c>
-      <c r="AA61" s="9"/>
+      <c r="AA61" s="11">
+        <v>238827.3270180999</v>
+      </c>
       <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
       <c r="AD61" s="9"/>
@@ -6514,7 +6603,9 @@
       <c r="Z62" s="11">
         <v>13354.915441673211</v>
       </c>
-      <c r="AA62" s="9"/>
+      <c r="AA62" s="11">
+        <v>13112.506869153771</v>
+      </c>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
       <c r="AD62" s="9"/>
@@ -6664,7 +6755,9 @@
       <c r="Z63" s="11">
         <v>87223.690593513107</v>
       </c>
-      <c r="AA63" s="9"/>
+      <c r="AA63" s="11">
+        <v>91412.285273761241</v>
+      </c>
       <c r="AB63" s="9"/>
       <c r="AC63" s="9"/>
       <c r="AD63" s="9"/>
@@ -6814,7 +6907,9 @@
       <c r="Z64" s="11">
         <v>87160.276249406554</v>
       </c>
-      <c r="AA64" s="9"/>
+      <c r="AA64" s="11">
+        <v>85705.934886369854</v>
+      </c>
       <c r="AB64" s="9"/>
       <c r="AC64" s="9"/>
       <c r="AD64" s="9"/>
@@ -6964,7 +7059,9 @@
       <c r="Z65" s="11">
         <v>100816.76261935807</v>
       </c>
-      <c r="AA65" s="9"/>
+      <c r="AA65" s="11">
+        <v>126801.06579417626</v>
+      </c>
       <c r="AB65" s="9"/>
       <c r="AC65" s="9"/>
       <c r="AD65" s="9"/>
@@ -7114,7 +7211,9 @@
       <c r="Z66" s="11">
         <v>62004.737714482435</v>
       </c>
-      <c r="AA66" s="9"/>
+      <c r="AA66" s="11">
+        <v>62190.750348735208</v>
+      </c>
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
       <c r="AD66" s="9"/>
@@ -7264,7 +7363,9 @@
       <c r="Z67" s="11">
         <v>16430.817868146456</v>
       </c>
-      <c r="AA67" s="9"/>
+      <c r="AA67" s="11">
+        <v>16362.396274810875</v>
+      </c>
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
       <c r="AD67" s="9"/>
@@ -7414,7 +7515,9 @@
       <c r="Z68" s="11">
         <v>3066.7503414234852</v>
       </c>
-      <c r="AA68" s="9"/>
+      <c r="AA68" s="11">
+        <v>3245.9792476298708</v>
+      </c>
       <c r="AB68" s="9"/>
       <c r="AC68" s="9"/>
       <c r="AD68" s="9"/>
@@ -7564,7 +7667,9 @@
       <c r="Z69" s="11">
         <v>961584.7002067077</v>
       </c>
-      <c r="AA69" s="9"/>
+      <c r="AA69" s="11">
+        <v>945390.73157336167</v>
+      </c>
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
       <c r="AD69" s="9"/>
@@ -7714,7 +7819,9 @@
       <c r="Z70" s="11">
         <v>296387.63397582876</v>
       </c>
-      <c r="AA70" s="9"/>
+      <c r="AA70" s="11">
+        <v>313613.30141847464</v>
+      </c>
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
       <c r="AD70" s="9"/>
@@ -7864,7 +7971,9 @@
       <c r="Z71" s="11">
         <v>78528.71154426779</v>
       </c>
-      <c r="AA71" s="9"/>
+      <c r="AA71" s="11">
+        <v>70962.030641104298</v>
+      </c>
       <c r="AB71" s="9"/>
       <c r="AC71" s="9"/>
       <c r="AD71" s="9"/>
@@ -8014,7 +8123,9 @@
       <c r="Z72" s="11">
         <v>302366.14400715777</v>
       </c>
-      <c r="AA72" s="9"/>
+      <c r="AA72" s="11">
+        <v>278278.39208609128</v>
+      </c>
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
       <c r="AD72" s="9"/>
@@ -8164,7 +8275,9 @@
       <c r="Z73" s="11">
         <v>549809.08694432455</v>
       </c>
-      <c r="AA73" s="9"/>
+      <c r="AA73" s="11">
+        <v>598518.43167073233</v>
+      </c>
       <c r="AB73" s="9"/>
       <c r="AC73" s="9"/>
       <c r="AD73" s="9"/>
@@ -8314,7 +8427,9 @@
       <c r="Z74" s="11">
         <v>72727.235212249943</v>
       </c>
-      <c r="AA74" s="9"/>
+      <c r="AA74" s="11">
+        <v>70810.334640943314</v>
+      </c>
       <c r="AB74" s="9"/>
       <c r="AC74" s="9"/>
       <c r="AD74" s="9"/>
@@ -8464,7 +8579,9 @@
       <c r="Z75" s="11">
         <v>166530.26026194557</v>
       </c>
-      <c r="AA75" s="9"/>
+      <c r="AA75" s="11">
+        <v>209789.30102221147</v>
+      </c>
       <c r="AB75" s="9"/>
       <c r="AC75" s="9"/>
       <c r="AD75" s="9"/>
@@ -8614,7 +8731,9 @@
       <c r="Z76" s="11">
         <v>294459.31169524061</v>
       </c>
-      <c r="AA76" s="9"/>
+      <c r="AA76" s="11">
+        <v>305830.28491003113</v>
+      </c>
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
       <c r="AD76" s="9"/>
@@ -8764,7 +8883,9 @@
       <c r="Z77" s="11">
         <v>175778.86109763739</v>
       </c>
-      <c r="AA77" s="9"/>
+      <c r="AA77" s="11">
+        <v>171783.18702521571</v>
+      </c>
       <c r="AB77" s="9"/>
       <c r="AC77" s="9"/>
       <c r="AD77" s="9"/>
@@ -8914,7 +9035,9 @@
       <c r="Z78" s="11">
         <v>52875.323891614549</v>
       </c>
-      <c r="AA78" s="9"/>
+      <c r="AA78" s="11">
+        <v>52982.385370341006</v>
+      </c>
       <c r="AB78" s="9"/>
       <c r="AC78" s="9"/>
       <c r="AD78" s="9"/>
@@ -9064,7 +9187,9 @@
       <c r="Z79" s="11">
         <v>175979.79465135201</v>
       </c>
-      <c r="AA79" s="9"/>
+      <c r="AA79" s="11">
+        <v>167900.22010979394</v>
+      </c>
       <c r="AB79" s="9"/>
       <c r="AC79" s="9"/>
       <c r="AD79" s="9"/>
@@ -9214,7 +9339,9 @@
       <c r="Z80" s="11">
         <v>68397.436232618347</v>
       </c>
-      <c r="AA80" s="9"/>
+      <c r="AA80" s="11">
+        <v>64940.605285972182</v>
+      </c>
       <c r="AB80" s="9"/>
       <c r="AC80" s="9"/>
       <c r="AD80" s="9"/>
@@ -9364,7 +9491,9 @@
       <c r="Z81" s="11">
         <v>83569.949680234335</v>
       </c>
-      <c r="AA81" s="9"/>
+      <c r="AA81" s="11">
+        <v>68287.511761641086</v>
+      </c>
       <c r="AB81" s="9"/>
       <c r="AC81" s="9"/>
       <c r="AD81" s="9"/>
@@ -9514,7 +9643,9 @@
       <c r="Z82" s="11">
         <v>54979.37167141767</v>
       </c>
-      <c r="AA82" s="9"/>
+      <c r="AA82" s="11">
+        <v>17898.885579996724</v>
+      </c>
       <c r="AB82" s="9"/>
       <c r="AC82" s="9"/>
       <c r="AD82" s="9"/>
@@ -9664,7 +9795,9 @@
       <c r="Z83" s="11">
         <v>117573.48460878219</v>
       </c>
-      <c r="AA83" s="9"/>
+      <c r="AA83" s="11">
+        <v>137296.70265788437</v>
+      </c>
       <c r="AB83" s="9"/>
       <c r="AC83" s="9"/>
       <c r="AD83" s="9"/>
@@ -9814,7 +9947,9 @@
       <c r="Z84" s="11">
         <v>155610.77841425937</v>
       </c>
-      <c r="AA84" s="9"/>
+      <c r="AA84" s="11">
+        <v>166197.72656881012</v>
+      </c>
       <c r="AB84" s="9"/>
       <c r="AC84" s="9"/>
       <c r="AD84" s="9"/>
@@ -9964,7 +10099,9 @@
       <c r="Z85" s="11">
         <v>63296.868216820578</v>
       </c>
-      <c r="AA85" s="9"/>
+      <c r="AA85" s="11">
+        <v>70535.230170227209</v>
+      </c>
       <c r="AB85" s="9"/>
       <c r="AC85" s="9"/>
       <c r="AD85" s="9"/>
@@ -10114,7 +10251,9 @@
       <c r="Z86" s="11">
         <v>78127.93156453775</v>
       </c>
-      <c r="AA86" s="9"/>
+      <c r="AA86" s="11">
+        <v>90405.908180778351</v>
+      </c>
       <c r="AB86" s="9"/>
       <c r="AC86" s="9"/>
       <c r="AD86" s="9"/>
@@ -10264,7 +10403,9 @@
       <c r="Z87" s="11">
         <v>65147.781732156807</v>
       </c>
-      <c r="AA87" s="9"/>
+      <c r="AA87" s="11">
+        <v>67853.967974982312</v>
+      </c>
       <c r="AB87" s="9"/>
       <c r="AC87" s="9"/>
       <c r="AD87" s="9"/>
@@ -10414,7 +10555,9 @@
       <c r="Z88" s="11">
         <v>1239637.7489729165</v>
       </c>
-      <c r="AA88" s="9"/>
+      <c r="AA88" s="11">
+        <v>1312614.0142140312</v>
+      </c>
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
       <c r="AD88" s="9"/>
@@ -10661,7 +10804,9 @@
       <c r="Z90" s="8">
         <v>6260663.0037398003</v>
       </c>
-      <c r="AA90" s="9"/>
+      <c r="AA90" s="8">
+        <v>6556852.6383551182</v>
+      </c>
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
       <c r="AD90" s="9"/>
@@ -10759,6 +10904,7 @@
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
       <c r="Z91" s="12"/>
+      <c r="AA91" s="12"/>
     </row>
     <row r="92" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
@@ -10971,7 +11117,7 @@
     </row>
     <row r="97" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:91" x14ac:dyDescent="0.2">
@@ -10981,7 +11127,7 @@
     </row>
     <row r="100" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:91" x14ac:dyDescent="0.2">
@@ -11018,6 +11164,7 @@
       <c r="X103" s="15"/>
       <c r="Y103" s="15"/>
       <c r="Z103" s="15"/>
+      <c r="AA103" s="15"/>
     </row>
     <row r="104" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -11095,7 +11242,10 @@
       <c r="Y104" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z104" s="16"/>
+      <c r="Z104" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA104" s="16"/>
     </row>
     <row r="105" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
@@ -11176,8 +11326,10 @@
       <c r="Y106" s="17">
         <v>9.6859100489036223</v>
       </c>
-      <c r="Z106" s="17"/>
-      <c r="AA106" s="9"/>
+      <c r="Z106" s="17">
+        <v>14.887773806313831</v>
+      </c>
+      <c r="AA106" s="17"/>
       <c r="AB106" s="9"/>
       <c r="AC106" s="9"/>
       <c r="AD106" s="9"/>
@@ -11319,8 +11471,10 @@
       <c r="Y107" s="17">
         <v>2.8144618093816121</v>
       </c>
-      <c r="Z107" s="17"/>
-      <c r="AA107" s="9"/>
+      <c r="Z107" s="17">
+        <v>19.163353614241402</v>
+      </c>
+      <c r="AA107" s="17"/>
       <c r="AB107" s="9"/>
       <c r="AC107" s="9"/>
       <c r="AD107" s="9"/>
@@ -11462,8 +11616,10 @@
       <c r="Y108" s="17">
         <v>23.460357363932289</v>
       </c>
-      <c r="Z108" s="17"/>
-      <c r="AA108" s="9"/>
+      <c r="Z108" s="17">
+        <v>12.014846518911952</v>
+      </c>
+      <c r="AA108" s="17"/>
       <c r="AB108" s="9"/>
       <c r="AC108" s="9"/>
       <c r="AD108" s="9"/>
@@ -11605,8 +11761,10 @@
       <c r="Y109" s="17">
         <v>-6.8475511466428856</v>
       </c>
-      <c r="Z109" s="17"/>
-      <c r="AA109" s="9"/>
+      <c r="Z109" s="17">
+        <v>3.8039893388130253</v>
+      </c>
+      <c r="AA109" s="17"/>
       <c r="AB109" s="9"/>
       <c r="AC109" s="9"/>
       <c r="AD109" s="9"/>
@@ -11748,8 +11906,10 @@
       <c r="Y110" s="17">
         <v>45.355177965486007</v>
       </c>
-      <c r="Z110" s="17"/>
-      <c r="AA110" s="9"/>
+      <c r="Z110" s="17">
+        <v>5.040717924897848</v>
+      </c>
+      <c r="AA110" s="17"/>
       <c r="AB110" s="9"/>
       <c r="AC110" s="9"/>
       <c r="AD110" s="9"/>
@@ -11891,8 +12051,10 @@
       <c r="Y111" s="17">
         <v>11.9578636277339</v>
       </c>
-      <c r="Z111" s="17"/>
-      <c r="AA111" s="9"/>
+      <c r="Z111" s="17">
+        <v>3.436940665998975</v>
+      </c>
+      <c r="AA111" s="17"/>
       <c r="AB111" s="9"/>
       <c r="AC111" s="9"/>
       <c r="AD111" s="9"/>
@@ -12034,8 +12196,10 @@
       <c r="Y112" s="17">
         <v>9.3577154557116415</v>
       </c>
-      <c r="Z112" s="17"/>
-      <c r="AA112" s="9"/>
+      <c r="Z112" s="17">
+        <v>17.473406879573346</v>
+      </c>
+      <c r="AA112" s="17"/>
       <c r="AB112" s="9"/>
       <c r="AC112" s="9"/>
       <c r="AD112" s="9"/>
@@ -12177,8 +12341,10 @@
       <c r="Y113" s="17">
         <v>5.110855162531351</v>
       </c>
-      <c r="Z113" s="17"/>
-      <c r="AA113" s="9"/>
+      <c r="Z113" s="17">
+        <v>13.953019909154875</v>
+      </c>
+      <c r="AA113" s="17"/>
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
       <c r="AD113" s="9"/>
@@ -12320,8 +12486,10 @@
       <c r="Y114" s="17">
         <v>5.4902544122010823</v>
       </c>
-      <c r="Z114" s="17"/>
-      <c r="AA114" s="9"/>
+      <c r="Z114" s="17">
+        <v>10.131913750062708</v>
+      </c>
+      <c r="AA114" s="17"/>
       <c r="AB114" s="9"/>
       <c r="AC114" s="9"/>
       <c r="AD114" s="9"/>
@@ -12463,8 +12631,10 @@
       <c r="Y115" s="17">
         <v>-0.65270557536189244</v>
       </c>
-      <c r="Z115" s="17"/>
-      <c r="AA115" s="9"/>
+      <c r="Z115" s="17">
+        <v>10.211535612552964</v>
+      </c>
+      <c r="AA115" s="17"/>
       <c r="AB115" s="9"/>
       <c r="AC115" s="9"/>
       <c r="AD115" s="9"/>
@@ -12606,8 +12776,10 @@
       <c r="Y116" s="17">
         <v>-1.238578427160391</v>
       </c>
-      <c r="Z116" s="17"/>
-      <c r="AA116" s="9"/>
+      <c r="Z116" s="17">
+        <v>-12.702348728338364</v>
+      </c>
+      <c r="AA116" s="17"/>
       <c r="AB116" s="9"/>
       <c r="AC116" s="9"/>
       <c r="AD116" s="9"/>
@@ -12749,8 +12921,10 @@
       <c r="Y117" s="17">
         <v>4.8104743910917449</v>
       </c>
-      <c r="Z117" s="17"/>
-      <c r="AA117" s="9"/>
+      <c r="Z117" s="17">
+        <v>10.933596681413377</v>
+      </c>
+      <c r="AA117" s="17"/>
       <c r="AB117" s="9"/>
       <c r="AC117" s="9"/>
       <c r="AD117" s="9"/>
@@ -12892,8 +13066,10 @@
       <c r="Y118" s="17">
         <v>0.6549944559331351</v>
       </c>
-      <c r="Z118" s="17"/>
-      <c r="AA118" s="9"/>
+      <c r="Z118" s="17">
+        <v>3.368206422536062</v>
+      </c>
+      <c r="AA118" s="17"/>
       <c r="AB118" s="9"/>
       <c r="AC118" s="9"/>
       <c r="AD118" s="9"/>
@@ -13035,8 +13211,10 @@
       <c r="Y119" s="17">
         <v>16.611162285321228</v>
       </c>
-      <c r="Z119" s="17"/>
-      <c r="AA119" s="9"/>
+      <c r="Z119" s="17">
+        <v>3.5758032109835369</v>
+      </c>
+      <c r="AA119" s="17"/>
       <c r="AB119" s="9"/>
       <c r="AC119" s="9"/>
       <c r="AD119" s="9"/>
@@ -13178,8 +13356,10 @@
       <c r="Y120" s="17">
         <v>-5.8286529500357886</v>
       </c>
-      <c r="Z120" s="17"/>
-      <c r="AA120" s="9"/>
+      <c r="Z120" s="17">
+        <v>11.516780304373725</v>
+      </c>
+      <c r="AA120" s="17"/>
       <c r="AB120" s="9"/>
       <c r="AC120" s="9"/>
       <c r="AD120" s="9"/>
@@ -13321,8 +13501,10 @@
       <c r="Y121" s="17">
         <v>0.9880478566394828</v>
       </c>
-      <c r="Z121" s="17"/>
-      <c r="AA121" s="9"/>
+      <c r="Z121" s="17">
+        <v>0.64520057652133289</v>
+      </c>
+      <c r="AA121" s="17"/>
       <c r="AB121" s="9"/>
       <c r="AC121" s="9"/>
       <c r="AD121" s="9"/>
@@ -13464,8 +13646,10 @@
       <c r="Y122" s="17">
         <v>0.18324901471125088</v>
       </c>
-      <c r="Z122" s="17"/>
-      <c r="AA122" s="9"/>
+      <c r="Z122" s="17">
+        <v>28.490983817899263</v>
+      </c>
+      <c r="AA122" s="17"/>
       <c r="AB122" s="9"/>
       <c r="AC122" s="9"/>
       <c r="AD122" s="9"/>
@@ -13607,8 +13791,10 @@
       <c r="Y123" s="17">
         <v>5.1622648658038202</v>
       </c>
-      <c r="Z123" s="17"/>
-      <c r="AA123" s="9"/>
+      <c r="Z123" s="17">
+        <v>7.0576669426146736</v>
+      </c>
+      <c r="AA123" s="17"/>
       <c r="AB123" s="9"/>
       <c r="AC123" s="9"/>
       <c r="AD123" s="9"/>
@@ -13750,8 +13936,10 @@
       <c r="Y124" s="17">
         <v>28.153492178084463</v>
       </c>
-      <c r="Z124" s="17"/>
-      <c r="AA124" s="9"/>
+      <c r="Z124" s="17">
+        <v>-18.957252965289257</v>
+      </c>
+      <c r="AA124" s="17"/>
       <c r="AB124" s="9"/>
       <c r="AC124" s="9"/>
       <c r="AD124" s="9"/>
@@ -13893,8 +14081,10 @@
       <c r="Y125" s="17">
         <v>7.5460482930225226</v>
       </c>
-      <c r="Z125" s="17"/>
-      <c r="AA125" s="9"/>
+      <c r="Z125" s="17">
+        <v>10.668715254125871</v>
+      </c>
+      <c r="AA125" s="17"/>
       <c r="AB125" s="9"/>
       <c r="AC125" s="9"/>
       <c r="AD125" s="9"/>
@@ -14036,8 +14226,10 @@
       <c r="Y126" s="17">
         <v>9.5027568657665142</v>
       </c>
-      <c r="Z126" s="17"/>
-      <c r="AA126" s="9"/>
+      <c r="Z126" s="17">
+        <v>1.9408173843218748</v>
+      </c>
+      <c r="AA126" s="17"/>
       <c r="AB126" s="9"/>
       <c r="AC126" s="9"/>
       <c r="AD126" s="9"/>
@@ -14179,8 +14371,10 @@
       <c r="Y127" s="17">
         <v>8.9145317839388412</v>
       </c>
-      <c r="Z127" s="17"/>
-      <c r="AA127" s="9"/>
+      <c r="Z127" s="17">
+        <v>-3.7872430690223808</v>
+      </c>
+      <c r="AA127" s="17"/>
       <c r="AB127" s="9"/>
       <c r="AC127" s="9"/>
       <c r="AD127" s="9"/>
@@ -14322,8 +14516,10 @@
       <c r="Y128" s="17">
         <v>3.909093513519224E-2</v>
       </c>
-      <c r="Z128" s="17"/>
-      <c r="AA128" s="9"/>
+      <c r="Z128" s="17">
+        <v>-16.832856599796997</v>
+      </c>
+      <c r="AA128" s="17"/>
       <c r="AB128" s="9"/>
       <c r="AC128" s="9"/>
       <c r="AD128" s="9"/>
@@ -14465,8 +14661,10 @@
       <c r="Y129" s="17">
         <v>5.0625689059820616</v>
       </c>
-      <c r="Z129" s="17"/>
-      <c r="AA129" s="9"/>
+      <c r="Z129" s="17">
+        <v>-78.999917334597598</v>
+      </c>
+      <c r="AA129" s="17"/>
       <c r="AB129" s="9"/>
       <c r="AC129" s="9"/>
       <c r="AD129" s="9"/>
@@ -14608,8 +14806,10 @@
       <c r="Y130" s="17">
         <v>10.425909218132361</v>
       </c>
-      <c r="Z130" s="17"/>
-      <c r="AA130" s="9"/>
+      <c r="Z130" s="17">
+        <v>25.65205909035268</v>
+      </c>
+      <c r="AA130" s="17"/>
       <c r="AB130" s="9"/>
       <c r="AC130" s="9"/>
       <c r="AD130" s="9"/>
@@ -14751,8 +14951,10 @@
       <c r="Y131" s="17">
         <v>13.055026565534675</v>
       </c>
-      <c r="Z131" s="17"/>
-      <c r="AA131" s="9"/>
+      <c r="Z131" s="17">
+        <v>5.8191955097927348</v>
+      </c>
+      <c r="AA131" s="17"/>
       <c r="AB131" s="9"/>
       <c r="AC131" s="9"/>
       <c r="AD131" s="9"/>
@@ -14894,8 +15096,10 @@
       <c r="Y132" s="17">
         <v>16.578261674549651</v>
       </c>
-      <c r="Z132" s="17"/>
-      <c r="AA132" s="9"/>
+      <c r="Z132" s="17">
+        <v>18.277878228052785</v>
+      </c>
+      <c r="AA132" s="17"/>
       <c r="AB132" s="9"/>
       <c r="AC132" s="9"/>
       <c r="AD132" s="9"/>
@@ -15037,8 +15241,10 @@
       <c r="Y133" s="17">
         <v>-4.3389645073410321</v>
       </c>
-      <c r="Z133" s="17"/>
-      <c r="AA133" s="9"/>
+      <c r="Z133" s="17">
+        <v>19.083729802767607</v>
+      </c>
+      <c r="AA133" s="17"/>
       <c r="AB133" s="9"/>
       <c r="AC133" s="9"/>
       <c r="AD133" s="9"/>
@@ -15180,8 +15386,10 @@
       <c r="Y134" s="17">
         <v>8.5918595666974369</v>
       </c>
-      <c r="Z134" s="17"/>
-      <c r="AA134" s="9"/>
+      <c r="Z134" s="17">
+        <v>5.2378068995619884</v>
+      </c>
+      <c r="AA134" s="17"/>
       <c r="AB134" s="9"/>
       <c r="AC134" s="9"/>
       <c r="AD134" s="9"/>
@@ -15323,8 +15531,10 @@
       <c r="Y135" s="17">
         <v>3.6637608659148384</v>
       </c>
-      <c r="Z135" s="17"/>
-      <c r="AA135" s="9"/>
+      <c r="Z135" s="17">
+        <v>13.072951333709497</v>
+      </c>
+      <c r="AA135" s="17"/>
       <c r="AB135" s="9"/>
       <c r="AC135" s="9"/>
       <c r="AD135" s="9"/>
@@ -15558,8 +15768,10 @@
       <c r="Y137" s="17">
         <v>4.6937952410344366</v>
       </c>
-      <c r="Z137" s="17"/>
-      <c r="AA137" s="9"/>
+      <c r="Z137" s="17">
+        <v>5.1063459845525045</v>
+      </c>
+      <c r="AA137" s="17"/>
       <c r="AB137" s="9"/>
       <c r="AC137" s="9"/>
       <c r="AD137" s="9"/>
@@ -15652,6 +15864,7 @@
       <c r="X138" s="12"/>
       <c r="Y138" s="12"/>
       <c r="Z138" s="12"/>
+      <c r="AA138" s="12"/>
     </row>
     <row r="139" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
@@ -15855,7 +16068,7 @@
     </row>
     <row r="144" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="1:91" x14ac:dyDescent="0.2">
@@ -15865,7 +16078,7 @@
     </row>
     <row r="147" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148" spans="1:91" x14ac:dyDescent="0.2">
@@ -15902,6 +16115,7 @@
       <c r="X150" s="15"/>
       <c r="Y150" s="15"/>
       <c r="Z150" s="15"/>
+      <c r="AA150" s="15"/>
     </row>
     <row r="151" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
@@ -15979,7 +16193,10 @@
       <c r="Y151" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z151" s="16"/>
+      <c r="Z151" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA151" s="16"/>
     </row>
     <row r="152" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7"/>
@@ -16060,8 +16277,10 @@
       <c r="Y153" s="17">
         <v>7.2717166121126127</v>
       </c>
-      <c r="Z153" s="17"/>
-      <c r="AA153" s="9"/>
+      <c r="Z153" s="17">
+        <v>13.887985404766738</v>
+      </c>
+      <c r="AA153" s="17"/>
       <c r="AB153" s="9"/>
       <c r="AC153" s="9"/>
       <c r="AD153" s="9"/>
@@ -16203,8 +16422,10 @@
       <c r="Y154" s="17">
         <v>0.30638879435842625</v>
       </c>
-      <c r="Z154" s="17"/>
-      <c r="AA154" s="9"/>
+      <c r="Z154" s="17">
+        <v>19.261315803085253</v>
+      </c>
+      <c r="AA154" s="17"/>
       <c r="AB154" s="9"/>
       <c r="AC154" s="9"/>
       <c r="AD154" s="9"/>
@@ -16346,8 +16567,10 @@
       <c r="Y155" s="17">
         <v>23.607101067523487</v>
       </c>
-      <c r="Z155" s="17"/>
-      <c r="AA155" s="9"/>
+      <c r="Z155" s="17">
+        <v>9.0486013825999976</v>
+      </c>
+      <c r="AA155" s="17"/>
       <c r="AB155" s="9"/>
       <c r="AC155" s="9"/>
       <c r="AD155" s="9"/>
@@ -16489,8 +16712,10 @@
       <c r="Y156" s="17">
         <v>-1.5915064598530648</v>
       </c>
-      <c r="Z156" s="17"/>
-      <c r="AA156" s="9"/>
+      <c r="Z156" s="17">
+        <v>-1.8151262250827784</v>
+      </c>
+      <c r="AA156" s="17"/>
       <c r="AB156" s="9"/>
       <c r="AC156" s="9"/>
       <c r="AD156" s="9"/>
@@ -16632,8 +16857,10 @@
       <c r="Y157" s="17">
         <v>45.824833730461251</v>
       </c>
-      <c r="Z157" s="17"/>
-      <c r="AA157" s="9"/>
+      <c r="Z157" s="17">
+        <v>4.8021296183948152</v>
+      </c>
+      <c r="AA157" s="17"/>
       <c r="AB157" s="9"/>
       <c r="AC157" s="9"/>
       <c r="AD157" s="9"/>
@@ -16775,8 +17002,10 @@
       <c r="Y158" s="17">
         <v>5.4390890732798312</v>
       </c>
-      <c r="Z158" s="17"/>
-      <c r="AA158" s="9"/>
+      <c r="Z158" s="17">
+        <v>-1.6685827829126509</v>
+      </c>
+      <c r="AA158" s="17"/>
       <c r="AB158" s="9"/>
       <c r="AC158" s="9"/>
       <c r="AD158" s="9"/>
@@ -16918,8 +17147,10 @@
       <c r="Y159" s="17">
         <v>3.8405663661836797</v>
       </c>
-      <c r="Z159" s="17"/>
-      <c r="AA159" s="9"/>
+      <c r="Z159" s="17">
+        <v>25.773792472313417</v>
+      </c>
+      <c r="AA159" s="17"/>
       <c r="AB159" s="9"/>
       <c r="AC159" s="9"/>
       <c r="AD159" s="9"/>
@@ -17061,8 +17292,10 @@
       <c r="Y160" s="17">
         <v>5.0997596659518649</v>
       </c>
-      <c r="Z160" s="17"/>
-      <c r="AA160" s="9"/>
+      <c r="Z160" s="17">
+        <v>0.29999745359671692</v>
+      </c>
+      <c r="AA160" s="17"/>
       <c r="AB160" s="9"/>
       <c r="AC160" s="9"/>
       <c r="AD160" s="9"/>
@@ -17204,8 +17437,10 @@
       <c r="Y161" s="17">
         <v>-6.202086944043117E-2</v>
       </c>
-      <c r="Z161" s="17"/>
-      <c r="AA161" s="9"/>
+      <c r="Z161" s="17">
+        <v>-0.41642232227664522</v>
+      </c>
+      <c r="AA161" s="17"/>
       <c r="AB161" s="9"/>
       <c r="AC161" s="9"/>
       <c r="AD161" s="9"/>
@@ -17347,8 +17582,10 @@
       <c r="Y162" s="17">
         <v>-8.7261097710813118</v>
       </c>
-      <c r="Z162" s="17"/>
-      <c r="AA162" s="9"/>
+      <c r="Z162" s="17">
+        <v>5.844261392441652</v>
+      </c>
+      <c r="AA162" s="17"/>
       <c r="AB162" s="9"/>
       <c r="AC162" s="9"/>
       <c r="AD162" s="9"/>
@@ -17490,8 +17727,10 @@
       <c r="Y163" s="17">
         <v>0.46157231482285965</v>
       </c>
-      <c r="Z163" s="17"/>
-      <c r="AA163" s="9"/>
+      <c r="Z163" s="17">
+        <v>-1.6840917529017219</v>
+      </c>
+      <c r="AA163" s="17"/>
       <c r="AB163" s="9"/>
       <c r="AC163" s="9"/>
       <c r="AD163" s="9"/>
@@ -17633,8 +17872,10 @@
       <c r="Y164" s="17">
         <v>-0.52468401182939317</v>
       </c>
-      <c r="Z164" s="17"/>
-      <c r="AA164" s="9"/>
+      <c r="Z164" s="17">
+        <v>5.811871167354667</v>
+      </c>
+      <c r="AA164" s="17"/>
       <c r="AB164" s="9"/>
       <c r="AC164" s="9"/>
       <c r="AD164" s="9"/>
@@ -17776,8 +18017,10 @@
       <c r="Y165" s="17">
         <v>8.4577599270677268</v>
       </c>
-      <c r="Z165" s="17"/>
-      <c r="AA165" s="9"/>
+      <c r="Z165" s="17">
+        <v>-9.6355597263276707</v>
+      </c>
+      <c r="AA165" s="17"/>
       <c r="AB165" s="9"/>
       <c r="AC165" s="9"/>
       <c r="AD165" s="9"/>
@@ -17919,8 +18162,10 @@
       <c r="Y166" s="17">
         <v>6.1184326555741393</v>
       </c>
-      <c r="Z166" s="17"/>
-      <c r="AA166" s="9"/>
+      <c r="Z166" s="17">
+        <v>-7.9664183303856504</v>
+      </c>
+      <c r="AA166" s="17"/>
       <c r="AB166" s="9"/>
       <c r="AC166" s="9"/>
       <c r="AD166" s="9"/>
@@ -18062,8 +18307,10 @@
       <c r="Y167" s="17">
         <v>-14.45792077682367</v>
       </c>
-      <c r="Z167" s="17"/>
-      <c r="AA167" s="9"/>
+      <c r="Z167" s="17">
+        <v>8.8593196953363957</v>
+      </c>
+      <c r="AA167" s="17"/>
       <c r="AB167" s="9"/>
       <c r="AC167" s="9"/>
       <c r="AD167" s="9"/>
@@ -18205,8 +18452,10 @@
       <c r="Y168" s="17">
         <v>0.5140095200464998</v>
       </c>
-      <c r="Z168" s="17"/>
-      <c r="AA168" s="9"/>
+      <c r="Z168" s="17">
+        <v>-2.6357396451443265</v>
+      </c>
+      <c r="AA168" s="17"/>
       <c r="AB168" s="9"/>
       <c r="AC168" s="9"/>
       <c r="AD168" s="9"/>
@@ -18348,8 +18597,10 @@
       <c r="Y169" s="17">
         <v>-3.1485170295203488</v>
       </c>
-      <c r="Z169" s="17"/>
-      <c r="AA169" s="9"/>
+      <c r="Z169" s="17">
+        <v>25.976684773218466</v>
+      </c>
+      <c r="AA169" s="17"/>
       <c r="AB169" s="9"/>
       <c r="AC169" s="9"/>
       <c r="AD169" s="9"/>
@@ -18491,8 +18742,10 @@
       <c r="Y170" s="17">
         <v>1.7556263210234135</v>
       </c>
-      <c r="Z170" s="17"/>
-      <c r="AA170" s="9"/>
+      <c r="Z170" s="17">
+        <v>3.861644975438665</v>
+      </c>
+      <c r="AA170" s="17"/>
       <c r="AB170" s="9"/>
       <c r="AC170" s="9"/>
       <c r="AD170" s="9"/>
@@ -18634,8 +18887,10 @@
       <c r="Y171" s="17">
         <v>29.044637319961794</v>
       </c>
-      <c r="Z171" s="17"/>
-      <c r="AA171" s="9"/>
+      <c r="Z171" s="17">
+        <v>-2.2731254756521935</v>
+      </c>
+      <c r="AA171" s="17"/>
       <c r="AB171" s="9"/>
       <c r="AC171" s="9"/>
       <c r="AD171" s="9"/>
@@ -18777,8 +19032,10 @@
       <c r="Y172" s="17">
         <v>1.8447220590395403</v>
       </c>
-      <c r="Z172" s="17"/>
-      <c r="AA172" s="9"/>
+      <c r="Z172" s="17">
+        <v>0.20247909770900208</v>
+      </c>
+      <c r="AA172" s="17"/>
       <c r="AB172" s="9"/>
       <c r="AC172" s="9"/>
       <c r="AD172" s="9"/>
@@ -18920,8 +19177,10 @@
       <c r="Y173" s="17">
         <v>9.0049876559930482</v>
       </c>
-      <c r="Z173" s="17"/>
-      <c r="AA173" s="9"/>
+      <c r="Z173" s="17">
+        <v>-4.5911944365915218</v>
+      </c>
+      <c r="AA173" s="17"/>
       <c r="AB173" s="9"/>
       <c r="AC173" s="9"/>
       <c r="AD173" s="9"/>
@@ -19063,8 +19322,10 @@
       <c r="Y174" s="17">
         <v>5.7424249828946756</v>
       </c>
-      <c r="Z174" s="17"/>
-      <c r="AA174" s="9"/>
+      <c r="Z174" s="17">
+        <v>-5.0540358484922621</v>
+      </c>
+      <c r="AA174" s="17"/>
       <c r="AB174" s="9"/>
       <c r="AC174" s="9"/>
       <c r="AD174" s="9"/>
@@ -19206,8 +19467,10 @@
       <c r="Y175" s="17">
         <v>19.2681428735048</v>
       </c>
-      <c r="Z175" s="17"/>
-      <c r="AA175" s="9"/>
+      <c r="Z175" s="17">
+        <v>-18.287001460535507</v>
+      </c>
+      <c r="AA175" s="17"/>
       <c r="AB175" s="9"/>
       <c r="AC175" s="9"/>
       <c r="AD175" s="9"/>
@@ -19349,8 +19612,10 @@
       <c r="Y176" s="17">
         <v>-10.721178204001248</v>
       </c>
-      <c r="Z176" s="17"/>
-      <c r="AA176" s="9"/>
+      <c r="Z176" s="17">
+        <v>-67.444361337978179</v>
+      </c>
+      <c r="AA176" s="17"/>
       <c r="AB176" s="9"/>
       <c r="AC176" s="9"/>
       <c r="AD176" s="9"/>
@@ -19492,8 +19757,10 @@
       <c r="Y177" s="17">
         <v>4.207195334911404</v>
       </c>
-      <c r="Z177" s="17"/>
-      <c r="AA177" s="9"/>
+      <c r="Z177" s="17">
+        <v>16.775226246572373</v>
+      </c>
+      <c r="AA177" s="17"/>
       <c r="AB177" s="9"/>
       <c r="AC177" s="9"/>
       <c r="AD177" s="9"/>
@@ -19635,8 +19902,10 @@
       <c r="Y178" s="17">
         <v>7.7972815214044431</v>
       </c>
-      <c r="Z178" s="17"/>
-      <c r="AA178" s="9"/>
+      <c r="Z178" s="17">
+        <v>6.8034799789810734</v>
+      </c>
+      <c r="AA178" s="17"/>
       <c r="AB178" s="9"/>
       <c r="AC178" s="9"/>
       <c r="AD178" s="9"/>
@@ -19778,8 +20047,10 @@
       <c r="Y179" s="17">
         <v>2.1676850188122216</v>
       </c>
-      <c r="Z179" s="17"/>
-      <c r="AA179" s="9"/>
+      <c r="Z179" s="17">
+        <v>11.435576762837528</v>
+      </c>
+      <c r="AA179" s="17"/>
       <c r="AB179" s="9"/>
       <c r="AC179" s="9"/>
       <c r="AD179" s="9"/>
@@ -19921,8 +20192,10 @@
       <c r="Y180" s="17">
         <v>-8.2925531061443962</v>
       </c>
-      <c r="Z180" s="17"/>
-      <c r="AA180" s="9"/>
+      <c r="Z180" s="17">
+        <v>15.715220370448876</v>
+      </c>
+      <c r="AA180" s="17"/>
       <c r="AB180" s="9"/>
       <c r="AC180" s="9"/>
       <c r="AD180" s="9"/>
@@ -20064,8 +20337,10 @@
       <c r="Y181" s="17">
         <v>2.6971117279093022</v>
       </c>
-      <c r="Z181" s="17"/>
-      <c r="AA181" s="9"/>
+      <c r="Z181" s="17">
+        <v>4.1539192446359721</v>
+      </c>
+      <c r="AA181" s="17"/>
       <c r="AB181" s="9"/>
       <c r="AC181" s="9"/>
       <c r="AD181" s="9"/>
@@ -20207,8 +20482,10 @@
       <c r="Y182" s="17">
         <v>1.687204193579845</v>
       </c>
-      <c r="Z182" s="17"/>
-      <c r="AA182" s="9"/>
+      <c r="Z182" s="17">
+        <v>5.8869024682071824</v>
+      </c>
+      <c r="AA182" s="17"/>
       <c r="AB182" s="9"/>
       <c r="AC182" s="9"/>
       <c r="AD182" s="9"/>
@@ -20442,8 +20719,10 @@
       <c r="Y184" s="17">
         <v>1.8479769930565624</v>
       </c>
-      <c r="Z184" s="17"/>
-      <c r="AA184" s="9"/>
+      <c r="Z184" s="17">
+        <v>4.7309627500855527</v>
+      </c>
+      <c r="AA184" s="17"/>
       <c r="AB184" s="9"/>
       <c r="AC184" s="9"/>
       <c r="AD184" s="9"/>
@@ -20536,6 +20815,7 @@
       <c r="X185" s="12"/>
       <c r="Y185" s="12"/>
       <c r="Z185" s="12"/>
+      <c r="AA185" s="12"/>
     </row>
     <row r="186" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A186" s="13" t="s">
@@ -20734,7 +21014,7 @@
     </row>
     <row r="190" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="192" spans="1:92" x14ac:dyDescent="0.2">
@@ -20744,7 +21024,7 @@
     </row>
     <row r="193" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="194" spans="1:96" x14ac:dyDescent="0.2">
@@ -20781,6 +21061,7 @@
       <c r="X196" s="15"/>
       <c r="Y196" s="15"/>
       <c r="Z196" s="15"/>
+      <c r="AA196" s="15"/>
     </row>
     <row r="197" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
@@ -20860,6 +21141,9 @@
       </c>
       <c r="Z197" s="16">
         <v>2024</v>
+      </c>
+      <c r="AA197" s="16">
+        <v>2025</v>
       </c>
     </row>
     <row r="198" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -20944,7 +21228,9 @@
       <c r="Z199" s="17">
         <v>109.13645623738265</v>
       </c>
-      <c r="AA199" s="9"/>
+      <c r="AA199" s="17">
+        <v>110.0945323921613</v>
+      </c>
       <c r="AB199" s="9"/>
       <c r="AC199" s="9"/>
       <c r="AD199" s="9"/>
@@ -21094,7 +21380,9 @@
       <c r="Z200" s="17">
         <v>108.07995488947724</v>
       </c>
-      <c r="AA200" s="9"/>
+      <c r="AA200" s="17">
+        <v>107.99117715899673</v>
+      </c>
       <c r="AB200" s="9"/>
       <c r="AC200" s="9"/>
       <c r="AD200" s="9"/>
@@ -21244,7 +21532,9 @@
       <c r="Z201" s="17">
         <v>101.84625636252973</v>
       </c>
-      <c r="AA201" s="9"/>
+      <c r="AA201" s="17">
+        <v>104.61658957869824</v>
+      </c>
       <c r="AB201" s="9"/>
       <c r="AC201" s="9"/>
       <c r="AD201" s="9"/>
@@ -21394,7 +21684,9 @@
       <c r="Z202" s="17">
         <v>102.15690992063156</v>
       </c>
-      <c r="AA202" s="9"/>
+      <c r="AA202" s="17">
+        <v>108.00334492049164</v>
+      </c>
       <c r="AB202" s="9"/>
       <c r="AC202" s="9"/>
       <c r="AD202" s="9"/>
@@ -21544,7 +21836,9 @@
       <c r="Z203" s="17">
         <v>115.77535742225322</v>
       </c>
-      <c r="AA203" s="9"/>
+      <c r="AA203" s="17">
+        <v>116.0389269371356</v>
+      </c>
       <c r="AB203" s="9"/>
       <c r="AC203" s="9"/>
       <c r="AD203" s="9"/>
@@ -21694,7 +21988,9 @@
       <c r="Z204" s="17">
         <v>118.62996000394554</v>
       </c>
-      <c r="AA204" s="9"/>
+      <c r="AA204" s="17">
+        <v>124.78941605252922</v>
+      </c>
       <c r="AB204" s="9"/>
       <c r="AC204" s="9"/>
       <c r="AD204" s="9"/>
@@ -21844,7 +22140,9 @@
       <c r="Z205" s="17">
         <v>111.27438135109755</v>
       </c>
-      <c r="AA205" s="9"/>
+      <c r="AA205" s="17">
+        <v>103.93087795780495</v>
+      </c>
       <c r="AB205" s="9"/>
       <c r="AC205" s="9"/>
       <c r="AD205" s="9"/>
@@ -21994,7 +22292,9 @@
       <c r="Z206" s="17">
         <v>118.39312764727853</v>
       </c>
-      <c r="AA206" s="9"/>
+      <c r="AA206" s="17">
+        <v>134.50902068207034</v>
+      </c>
       <c r="AB206" s="9"/>
       <c r="AC206" s="9"/>
       <c r="AD206" s="9"/>
@@ -22144,7 +22444,9 @@
       <c r="Z207" s="17">
         <v>114.77099412855505</v>
       </c>
-      <c r="AA207" s="9"/>
+      <c r="AA207" s="17">
+        <v>126.9280489929868</v>
+      </c>
       <c r="AB207" s="9"/>
       <c r="AC207" s="9"/>
       <c r="AD207" s="9"/>
@@ -22294,7 +22596,9 @@
       <c r="Z208" s="17">
         <v>126.8728220950796</v>
       </c>
-      <c r="AA208" s="9"/>
+      <c r="AA208" s="17">
+        <v>132.10776254323676</v>
+      </c>
       <c r="AB208" s="9"/>
       <c r="AC208" s="9"/>
       <c r="AD208" s="9"/>
@@ -22444,7 +22748,9 @@
       <c r="Z209" s="17">
         <v>147.22174502405858</v>
       </c>
-      <c r="AA209" s="9"/>
+      <c r="AA209" s="17">
+        <v>130.72261433433968</v>
+      </c>
       <c r="AB209" s="9"/>
       <c r="AC209" s="9"/>
       <c r="AD209" s="9"/>
@@ -22594,7 +22900,9 @@
       <c r="Z210" s="17">
         <v>125.06719235141566</v>
       </c>
-      <c r="AA210" s="9"/>
+      <c r="AA210" s="17">
+        <v>131.12095383366756</v>
+      </c>
       <c r="AB210" s="9"/>
       <c r="AC210" s="9"/>
       <c r="AD210" s="9"/>
@@ -22744,7 +23052,9 @@
       <c r="Z211" s="17">
         <v>114.24404461703614</v>
       </c>
-      <c r="AA211" s="9"/>
+      <c r="AA211" s="17">
+        <v>130.68417123765244</v>
+      </c>
       <c r="AB211" s="9"/>
       <c r="AC211" s="9"/>
       <c r="AD211" s="9"/>
@@ -22894,7 +23204,9 @@
       <c r="Z212" s="17">
         <v>153.27448997493792</v>
       </c>
-      <c r="AA212" s="9"/>
+      <c r="AA212" s="17">
+        <v>172.49712684114172</v>
+      </c>
       <c r="AB212" s="9"/>
       <c r="AC212" s="9"/>
       <c r="AD212" s="9"/>
@@ -23044,7 +23356,9 @@
       <c r="Z213" s="17">
         <v>136.40241356960453</v>
       </c>
-      <c r="AA213" s="9"/>
+      <c r="AA213" s="17">
+        <v>139.73225287094616</v>
+      </c>
       <c r="AB213" s="9"/>
       <c r="AC213" s="9"/>
       <c r="AD213" s="9"/>
@@ -23194,7 +23508,9 @@
       <c r="Z214" s="17">
         <v>104.26552398017623</v>
       </c>
-      <c r="AA214" s="9"/>
+      <c r="AA214" s="17">
+        <v>107.77902010403955</v>
+      </c>
       <c r="AB214" s="9"/>
       <c r="AC214" s="9"/>
       <c r="AD214" s="9"/>
@@ -23344,7 +23660,9 @@
       <c r="Z215" s="17">
         <v>126.86992739634518</v>
       </c>
-      <c r="AA215" s="9"/>
+      <c r="AA215" s="17">
+        <v>129.40205417699184</v>
+      </c>
       <c r="AB215" s="9"/>
       <c r="AC215" s="9"/>
       <c r="AD215" s="9"/>
@@ -23494,7 +23812,9 @@
       <c r="Z216" s="17">
         <v>121.75528470571717</v>
       </c>
-      <c r="AA216" s="9"/>
+      <c r="AA216" s="17">
+        <v>125.5019282778584</v>
+      </c>
       <c r="AB216" s="9"/>
       <c r="AC216" s="9"/>
       <c r="AD216" s="9"/>
@@ -23644,7 +23964,9 @@
       <c r="Z217" s="17">
         <v>177.46530594334803</v>
       </c>
-      <c r="AA217" s="9"/>
+      <c r="AA217" s="17">
+        <v>147.16807395105101</v>
+      </c>
       <c r="AB217" s="9"/>
       <c r="AC217" s="9"/>
       <c r="AD217" s="9"/>
@@ -23794,7 +24116,9 @@
       <c r="Z218" s="17">
         <v>163.01644448598398</v>
       </c>
-      <c r="AA218" s="9"/>
+      <c r="AA218" s="17">
+        <v>180.04365399949327</v>
+      </c>
       <c r="AB218" s="9"/>
       <c r="AC218" s="9"/>
       <c r="AD218" s="9"/>
@@ -23944,7 +24268,9 @@
       <c r="Z219" s="17">
         <v>117.1072417281017</v>
       </c>
-      <c r="AA219" s="9"/>
+      <c r="AA219" s="17">
+        <v>125.12480240046695</v>
+      </c>
       <c r="AB219" s="9"/>
       <c r="AC219" s="9"/>
       <c r="AD219" s="9"/>
@@ -24094,7 +24420,9 @@
       <c r="Z220" s="17">
         <v>129.12825457045963</v>
       </c>
-      <c r="AA220" s="9"/>
+      <c r="AA220" s="17">
+        <v>130.85111601040856</v>
+      </c>
       <c r="AB220" s="9"/>
       <c r="AC220" s="9"/>
       <c r="AD220" s="9"/>
@@ -24244,7 +24572,9 @@
       <c r="Z221" s="17">
         <v>142.8722274524219</v>
       </c>
-      <c r="AA221" s="9"/>
+      <c r="AA221" s="17">
+        <v>145.41474723514489</v>
+      </c>
       <c r="AB221" s="9"/>
       <c r="AC221" s="9"/>
       <c r="AD221" s="9"/>
@@ -24394,7 +24724,9 @@
       <c r="Z222" s="17">
         <v>172.07982602799876</v>
       </c>
-      <c r="AA222" s="9"/>
+      <c r="AA222" s="17">
+        <v>111.00045092500777</v>
+      </c>
       <c r="AB222" s="9"/>
       <c r="AC222" s="9"/>
       <c r="AD222" s="9"/>
@@ -24544,7 +24876,9 @@
       <c r="Z223" s="17">
         <v>137.64831910328039</v>
       </c>
-      <c r="AA223" s="9"/>
+      <c r="AA223" s="17">
+        <v>148.11184941858147</v>
+      </c>
       <c r="AB223" s="9"/>
       <c r="AC223" s="9"/>
       <c r="AD223" s="9"/>
@@ -24694,7 +25028,9 @@
       <c r="Z224" s="17">
         <v>115.10258050116231</v>
       </c>
-      <c r="AA224" s="9"/>
+      <c r="AA224" s="17">
+        <v>114.04181279609227</v>
+      </c>
       <c r="AB224" s="9"/>
       <c r="AC224" s="9"/>
       <c r="AD224" s="9"/>
@@ -24844,7 +25180,9 @@
       <c r="Z225" s="17">
         <v>163.48883761797376</v>
       </c>
-      <c r="AA225" s="9"/>
+      <c r="AA225" s="17">
+        <v>173.52728266107289</v>
+      </c>
       <c r="AB225" s="9"/>
       <c r="AC225" s="9"/>
       <c r="AD225" s="9"/>
@@ -24994,7 +25332,9 @@
       <c r="Z226" s="17">
         <v>108.64531544177103</v>
       </c>
-      <c r="AA226" s="9"/>
+      <c r="AA226" s="17">
+        <v>111.80801753637215</v>
+      </c>
       <c r="AB226" s="9"/>
       <c r="AC226" s="9"/>
       <c r="AD226" s="9"/>
@@ -25144,7 +25484,9 @@
       <c r="Z227" s="17">
         <v>84.021756858004508</v>
       </c>
-      <c r="AA227" s="9"/>
+      <c r="AA227" s="17">
+        <v>84.896137252559626</v>
+      </c>
       <c r="AB227" s="9"/>
       <c r="AC227" s="9"/>
       <c r="AD227" s="9"/>
@@ -25294,7 +25636,9 @@
       <c r="Z228" s="17">
         <v>141.2662547549798</v>
       </c>
-      <c r="AA228" s="9"/>
+      <c r="AA228" s="17">
+        <v>150.85333480031952</v>
+      </c>
       <c r="AB228" s="9"/>
       <c r="AC228" s="9"/>
       <c r="AD228" s="9"/>
@@ -25541,7 +25885,9 @@
       <c r="Z230" s="17">
         <v>132.48573318049347</v>
       </c>
-      <c r="AA230" s="9"/>
+      <c r="AA230" s="17">
+        <v>132.96059679041454</v>
+      </c>
       <c r="AB230" s="9"/>
       <c r="AC230" s="9"/>
       <c r="AD230" s="9"/>
@@ -25639,6 +25985,7 @@
       <c r="X231" s="12"/>
       <c r="Y231" s="12"/>
       <c r="Z231" s="12"/>
+      <c r="AA231" s="12"/>
     </row>
     <row r="232" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
@@ -25660,7 +26007,7 @@
     </row>
     <row r="237" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="239" spans="1:96" x14ac:dyDescent="0.2">
@@ -25670,7 +26017,7 @@
     </row>
     <row r="240" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="241" spans="1:96" x14ac:dyDescent="0.2">
@@ -25707,6 +26054,7 @@
       <c r="X243" s="15"/>
       <c r="Y243" s="15"/>
       <c r="Z243" s="15"/>
+      <c r="AA243" s="15"/>
     </row>
     <row r="244" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
@@ -25786,6 +26134,9 @@
       </c>
       <c r="Z244" s="16">
         <v>2024</v>
+      </c>
+      <c r="AA244" s="16">
+        <v>2025</v>
       </c>
     </row>
     <row r="245" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25870,7 +26221,9 @@
       <c r="Z246" s="17">
         <v>15.885235624420929</v>
       </c>
-      <c r="AA246" s="9"/>
+      <c r="AA246" s="17">
+        <v>17.36355060375416</v>
+      </c>
       <c r="AB246" s="9"/>
       <c r="AC246" s="9"/>
       <c r="AD246" s="9"/>
@@ -26020,7 +26373,9 @@
       <c r="Z247" s="17">
         <v>8.0557028411630114</v>
       </c>
-      <c r="AA247" s="9"/>
+      <c r="AA247" s="17">
+        <v>9.1330790475185992</v>
+      </c>
       <c r="AB247" s="9"/>
       <c r="AC247" s="9"/>
       <c r="AD247" s="9"/>
@@ -26170,7 +26525,9 @@
       <c r="Z248" s="17">
         <v>2.6891779848391404</v>
       </c>
-      <c r="AA248" s="9"/>
+      <c r="AA248" s="17">
+        <v>2.8659340824013122</v>
+      </c>
       <c r="AB248" s="9"/>
       <c r="AC248" s="9"/>
       <c r="AD248" s="9"/>
@@ -26320,7 +26677,9 @@
       <c r="Z249" s="17">
         <v>0.16448240575662118</v>
       </c>
-      <c r="AA249" s="9"/>
+      <c r="AA249" s="17">
+        <v>0.16244432944222018</v>
+      </c>
       <c r="AB249" s="9"/>
       <c r="AC249" s="9"/>
       <c r="AD249" s="9"/>
@@ -26470,7 +26829,9 @@
       <c r="Z250" s="17">
         <v>1.217478072509333</v>
       </c>
-      <c r="AA250" s="9"/>
+      <c r="AA250" s="17">
+        <v>1.216717883171359</v>
+      </c>
       <c r="AB250" s="9"/>
       <c r="AC250" s="9"/>
       <c r="AD250" s="9"/>
@@ -26620,7 +26981,9 @@
       <c r="Z251" s="17">
         <v>1.246589719950365</v>
       </c>
-      <c r="AA251" s="9"/>
+      <c r="AA251" s="17">
+        <v>1.2267901208962306</v>
+      </c>
       <c r="AB251" s="9"/>
       <c r="AC251" s="9"/>
       <c r="AD251" s="9"/>
@@ -26770,7 +27133,9 @@
       <c r="Z252" s="17">
         <v>1.3525038032204664</v>
       </c>
-      <c r="AA252" s="9"/>
+      <c r="AA252" s="17">
+        <v>1.5116425948747123</v>
+      </c>
       <c r="AB252" s="9"/>
       <c r="AC252" s="9"/>
       <c r="AD252" s="9"/>
@@ -26920,7 +27285,9 @@
       <c r="Z253" s="17">
         <v>0.88503801947617633</v>
       </c>
-      <c r="AA253" s="9"/>
+      <c r="AA253" s="17">
+        <v>0.95953059835749677</v>
+      </c>
       <c r="AB253" s="9"/>
       <c r="AC253" s="9"/>
       <c r="AD253" s="9"/>
@@ -27070,7 +27437,9 @@
       <c r="Z254" s="17">
         <v>0.22735362555397326</v>
       </c>
-      <c r="AA254" s="9"/>
+      <c r="AA254" s="17">
+        <v>0.23822433979347174</v>
+      </c>
       <c r="AB254" s="9"/>
       <c r="AC254" s="9"/>
       <c r="AD254" s="9"/>
@@ -27220,7 +27589,9 @@
       <c r="Z255" s="17">
         <v>4.690915195184181E-2</v>
       </c>
-      <c r="AA255" s="9"/>
+      <c r="AA255" s="17">
+        <v>4.9187607298753377E-2</v>
+      </c>
       <c r="AB255" s="9"/>
       <c r="AC255" s="9"/>
       <c r="AD255" s="9"/>
@@ -27370,7 +27741,9 @@
       <c r="Z256" s="17">
         <v>17.06750602742688</v>
       </c>
-      <c r="AA256" s="9"/>
+      <c r="AA256" s="17">
+        <v>14.175672984372165</v>
+      </c>
       <c r="AB256" s="9"/>
       <c r="AC256" s="9"/>
       <c r="AD256" s="9"/>
@@ -27520,7 +27893,9 @@
       <c r="Z257" s="17">
         <v>4.4690379169642291</v>
       </c>
-      <c r="AA257" s="9"/>
+      <c r="AA257" s="17">
+        <v>4.7168079642623706</v>
+      </c>
       <c r="AB257" s="9"/>
       <c r="AC257" s="9"/>
       <c r="AD257" s="9"/>
@@ -27670,7 +28045,9 @@
       <c r="Z258" s="17">
         <v>1.0816147500253286</v>
       </c>
-      <c r="AA258" s="9"/>
+      <c r="AA258" s="17">
+        <v>1.06372812890584</v>
+      </c>
       <c r="AB258" s="9"/>
       <c r="AC258" s="9"/>
       <c r="AD258" s="9"/>
@@ -27820,7 +28197,9 @@
       <c r="Z259" s="17">
         <v>5.5874493630562005</v>
       </c>
-      <c r="AA259" s="9"/>
+      <c r="AA259" s="17">
+        <v>5.5060857673075194</v>
+      </c>
       <c r="AB259" s="9"/>
       <c r="AC259" s="9"/>
       <c r="AD259" s="9"/>
@@ -27970,7 +28349,9 @@
       <c r="Z260" s="17">
         <v>9.0415841258112053</v>
       </c>
-      <c r="AA260" s="9"/>
+      <c r="AA260" s="17">
+        <v>9.5930301935316979</v>
+      </c>
       <c r="AB260" s="9"/>
       <c r="AC260" s="9"/>
       <c r="AD260" s="9"/>
@@ -28120,7 +28501,9 @@
       <c r="Z261" s="17">
         <v>0.91421505118176649</v>
       </c>
-      <c r="AA261" s="9"/>
+      <c r="AA261" s="17">
+        <v>0.87541200613887316</v>
+      </c>
       <c r="AB261" s="9"/>
       <c r="AC261" s="9"/>
       <c r="AD261" s="9"/>
@@ -28270,7 +28653,9 @@
       <c r="Z262" s="17">
         <v>2.5471962767109444</v>
       </c>
-      <c r="AA262" s="9"/>
+      <c r="AA262" s="17">
+        <v>3.113910511359431</v>
+      </c>
       <c r="AB262" s="9"/>
       <c r="AC262" s="9"/>
       <c r="AD262" s="9"/>
@@ -28420,7 +28805,9 @@
       <c r="Z263" s="17">
         <v>4.3223872378794157</v>
       </c>
-      <c r="AA263" s="9"/>
+      <c r="AA263" s="17">
+        <v>4.4026332470725631</v>
+      </c>
       <c r="AB263" s="9"/>
       <c r="AC263" s="9"/>
       <c r="AD263" s="9"/>
@@ -28570,7 +28957,9 @@
       <c r="Z264" s="17">
         <v>3.7608903145580701</v>
       </c>
-      <c r="AA264" s="9"/>
+      <c r="AA264" s="17">
+        <v>2.8998523308270925</v>
+      </c>
       <c r="AB264" s="9"/>
       <c r="AC264" s="9"/>
       <c r="AD264" s="9"/>
@@ -28720,7 +29109,9 @@
       <c r="Z265" s="17">
         <v>1.0391901375819477</v>
       </c>
-      <c r="AA265" s="9"/>
+      <c r="AA265" s="17">
+        <v>1.0941854780857367</v>
+      </c>
       <c r="AB265" s="9"/>
       <c r="AC265" s="9"/>
       <c r="AD265" s="9"/>
@@ -28870,7 +29261,9 @@
       <c r="Z266" s="17">
         <v>2.4846036432261989</v>
       </c>
-      <c r="AA266" s="9"/>
+      <c r="AA266" s="17">
+        <v>2.4097738713490027</v>
+      </c>
       <c r="AB266" s="9"/>
       <c r="AC266" s="9"/>
       <c r="AD266" s="9"/>
@@ -29020,7 +29413,9 @@
       <c r="Z267" s="17">
         <v>1.0648088768671631</v>
       </c>
-      <c r="AA267" s="9"/>
+      <c r="AA267" s="17">
+        <v>0.97470991583157551</v>
+      </c>
       <c r="AB267" s="9"/>
       <c r="AC267" s="9"/>
       <c r="AD267" s="9"/>
@@ -29170,7 +29565,9 @@
       <c r="Z268" s="17">
         <v>1.4394895466441961</v>
       </c>
-      <c r="AA268" s="9"/>
+      <c r="AA268" s="17">
+        <v>1.1390200318299151</v>
+      </c>
       <c r="AB268" s="9"/>
       <c r="AC268" s="9"/>
       <c r="AD268" s="9"/>
@@ -29320,7 +29717,9 @@
       <c r="Z269" s="17">
         <v>1.1406181806540132</v>
       </c>
-      <c r="AA269" s="9"/>
+      <c r="AA269" s="17">
+        <v>0.22789371906160225</v>
+      </c>
       <c r="AB269" s="9"/>
       <c r="AC269" s="9"/>
       <c r="AD269" s="9"/>
@@ -29470,7 +29869,9 @@
       <c r="Z270" s="17">
         <v>1.9511509124898359</v>
       </c>
-      <c r="AA270" s="9"/>
+      <c r="AA270" s="17">
+        <v>2.3325530675987971</v>
+      </c>
       <c r="AB270" s="9"/>
       <c r="AC270" s="9"/>
       <c r="AD270" s="9"/>
@@ -29620,7 +30021,9 @@
       <c r="Z271" s="17">
         <v>2.1594109265757573</v>
       </c>
-      <c r="AA271" s="9"/>
+      <c r="AA271" s="17">
+        <v>2.1740564271817275</v>
+      </c>
       <c r="AB271" s="9"/>
       <c r="AC271" s="9"/>
       <c r="AD271" s="9"/>
@@ -29770,7 +30173,9 @@
       <c r="Z272" s="17">
         <v>1.2476158624940277</v>
       </c>
-      <c r="AA272" s="9"/>
+      <c r="AA272" s="17">
+        <v>1.4039623932996717</v>
+      </c>
       <c r="AB272" s="9"/>
       <c r="AC272" s="9"/>
       <c r="AD272" s="9"/>
@@ -29920,7 +30325,9 @@
       <c r="Z273" s="17">
         <v>1.0233587113099507</v>
       </c>
-      <c r="AA273" s="9"/>
+      <c r="AA273" s="17">
+        <v>1.1594482819034846</v>
+      </c>
       <c r="AB273" s="9"/>
       <c r="AC273" s="9"/>
       <c r="AD273" s="9"/>
@@ -30070,7 +30477,9 @@
       <c r="Z274" s="17">
         <v>0.65993619738043141</v>
       </c>
-      <c r="AA274" s="9"/>
+      <c r="AA274" s="17">
+        <v>0.66076160725975741</v>
+      </c>
       <c r="AB274" s="9"/>
       <c r="AC274" s="9"/>
       <c r="AD274" s="9"/>
@@ -30220,7 +30629,9 @@
       <c r="Z275" s="17">
         <v>21.112700316741513</v>
       </c>
-      <c r="AA275" s="9"/>
+      <c r="AA275" s="17">
+        <v>22.712951469067001</v>
+      </c>
       <c r="AB275" s="9"/>
       <c r="AC275" s="9"/>
       <c r="AD275" s="9"/>
@@ -30467,7 +30878,9 @@
       <c r="Z277" s="17">
         <v>100</v>
       </c>
-      <c r="AA277" s="9"/>
+      <c r="AA277" s="17">
+        <v>100</v>
+      </c>
       <c r="AB277" s="9"/>
       <c r="AC277" s="9"/>
       <c r="AD277" s="9"/>
@@ -30565,6 +30978,7 @@
       <c r="X278" s="12"/>
       <c r="Y278" s="12"/>
       <c r="Z278" s="12"/>
+      <c r="AA278" s="12"/>
     </row>
     <row r="279" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A279" s="13" t="s">
@@ -30777,7 +31191,7 @@
     </row>
     <row r="284" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="286" spans="1:96" x14ac:dyDescent="0.2">
@@ -30787,7 +31201,7 @@
     </row>
     <row r="287" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="288" spans="1:96" x14ac:dyDescent="0.2">
@@ -30824,6 +31238,7 @@
       <c r="X290" s="15"/>
       <c r="Y290" s="15"/>
       <c r="Z290" s="15"/>
+      <c r="AA290" s="15"/>
     </row>
     <row r="291" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
@@ -30903,6 +31318,9 @@
       </c>
       <c r="Z291" s="16">
         <v>2024</v>
+      </c>
+      <c r="AA291" s="16">
+        <v>2025</v>
       </c>
     </row>
     <row r="292" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -30987,7 +31405,9 @@
       <c r="Z293" s="17">
         <v>19.283813686131221</v>
       </c>
-      <c r="AA293" s="9"/>
+      <c r="AA293" s="17">
+        <v>20.969870169865878</v>
+      </c>
       <c r="AB293" s="9"/>
       <c r="AC293" s="9"/>
       <c r="AD293" s="9"/>
@@ -31137,7 +31557,9 @@
       <c r="Z294" s="17">
         <v>9.8747792621402706</v>
       </c>
-      <c r="AA294" s="9"/>
+      <c r="AA294" s="17">
+        <v>11.244804183440069</v>
+      </c>
       <c r="AB294" s="9"/>
       <c r="AC294" s="9"/>
       <c r="AD294" s="9"/>
@@ -31287,7 +31709,9 @@
       <c r="Z295" s="17">
         <v>3.4981915850304501</v>
       </c>
-      <c r="AA295" s="9"/>
+      <c r="AA295" s="17">
+        <v>3.6424080300516435</v>
+      </c>
       <c r="AB295" s="9"/>
       <c r="AC295" s="9"/>
       <c r="AD295" s="9"/>
@@ -31437,7 +31861,9 @@
       <c r="Z296" s="17">
         <v>0.21331471497021429</v>
       </c>
-      <c r="AA296" s="9"/>
+      <c r="AA296" s="17">
+        <v>0.1999817228230896</v>
+      </c>
       <c r="AB296" s="9"/>
       <c r="AC296" s="9"/>
       <c r="AD296" s="9"/>
@@ -31587,7 +32013,9 @@
       <c r="Z297" s="17">
         <v>1.3932021343651644</v>
       </c>
-      <c r="AA297" s="9"/>
+      <c r="AA297" s="17">
+        <v>1.3941488442036016</v>
+      </c>
       <c r="AB297" s="9"/>
       <c r="AC297" s="9"/>
       <c r="AD297" s="9"/>
@@ -31737,7 +32165,9 @@
       <c r="Z298" s="17">
         <v>1.3921892329509105</v>
       </c>
-      <c r="AA298" s="9"/>
+      <c r="AA298" s="17">
+        <v>1.3071200408717807</v>
+      </c>
       <c r="AB298" s="9"/>
       <c r="AC298" s="9"/>
       <c r="AD298" s="9"/>
@@ -31887,7 +32317,9 @@
       <c r="Z299" s="17">
         <v>1.6103208647252738</v>
       </c>
-      <c r="AA299" s="9"/>
+      <c r="AA299" s="17">
+        <v>1.933870910144263</v>
+      </c>
       <c r="AB299" s="9"/>
       <c r="AC299" s="9"/>
       <c r="AD299" s="9"/>
@@ -32037,7 +32469,9 @@
       <c r="Z300" s="17">
         <v>0.99038612487916977</v>
       </c>
-      <c r="AA300" s="9"/>
+      <c r="AA300" s="17">
+        <v>0.94848479566160671</v>
+      </c>
       <c r="AB300" s="9"/>
       <c r="AC300" s="9"/>
       <c r="AD300" s="9"/>
@@ -32187,7 +32621,9 @@
       <c r="Z301" s="17">
         <v>0.26244533299958045</v>
       </c>
-      <c r="AA301" s="9"/>
+      <c r="AA301" s="17">
+        <v>0.24954650008598669</v>
+      </c>
       <c r="AB301" s="9"/>
       <c r="AC301" s="9"/>
       <c r="AD301" s="9"/>
@@ -32337,7 +32773,9 @@
       <c r="Z302" s="17">
         <v>4.8984434070186586E-2</v>
       </c>
-      <c r="AA302" s="9"/>
+      <c r="AA302" s="17">
+        <v>4.9505142583838389E-2</v>
+      </c>
       <c r="AB302" s="9"/>
       <c r="AC302" s="9"/>
       <c r="AD302" s="9"/>
@@ -32487,7 +32925,9 @@
       <c r="Z303" s="17">
         <v>15.359151253346589</v>
       </c>
-      <c r="AA303" s="9"/>
+      <c r="AA303" s="17">
+        <v>14.418361731102236</v>
+      </c>
       <c r="AB303" s="9"/>
       <c r="AC303" s="9"/>
       <c r="AD303" s="9"/>
@@ -32637,7 +33077,9 @@
       <c r="Z304" s="17">
         <v>4.7341253442132549</v>
       </c>
-      <c r="AA304" s="9"/>
+      <c r="AA304" s="17">
+        <v>4.7829853546495</v>
+      </c>
       <c r="AB304" s="9"/>
       <c r="AC304" s="9"/>
       <c r="AD304" s="9"/>
@@ -32787,7 +33229,9 @@
       <c r="Z305" s="17">
         <v>1.2543194146907244</v>
       </c>
-      <c r="AA305" s="9"/>
+      <c r="AA305" s="17">
+        <v>1.0822575182794736</v>
+      </c>
       <c r="AB305" s="9"/>
       <c r="AC305" s="9"/>
       <c r="AD305" s="9"/>
@@ -32937,7 +33381,9 @@
       <c r="Z306" s="17">
         <v>4.8296185855482028</v>
       </c>
-      <c r="AA306" s="9"/>
+      <c r="AA306" s="17">
+        <v>4.2440848900319565</v>
+      </c>
       <c r="AB306" s="9"/>
       <c r="AC306" s="9"/>
       <c r="AD306" s="9"/>
@@ -33087,7 +33533,9 @@
       <c r="Z307" s="17">
         <v>8.7819626550078915</v>
       </c>
-      <c r="AA307" s="9"/>
+      <c r="AA307" s="17">
+        <v>9.1281360842185926</v>
+      </c>
       <c r="AB307" s="9"/>
       <c r="AC307" s="9"/>
       <c r="AD307" s="9"/>
@@ -33237,7 +33685,9 @@
       <c r="Z308" s="17">
         <v>1.1616538882352621</v>
       </c>
-      <c r="AA308" s="9"/>
+      <c r="AA308" s="17">
+        <v>1.0799439692563706</v>
+      </c>
       <c r="AB308" s="9"/>
       <c r="AC308" s="9"/>
       <c r="AD308" s="9"/>
@@ -33387,7 +33837,9 @@
       <c r="Z309" s="17">
         <v>2.6599460817882852</v>
       </c>
-      <c r="AA309" s="9"/>
+      <c r="AA309" s="17">
+        <v>3.199542716501254</v>
+      </c>
       <c r="AB309" s="9"/>
       <c r="AC309" s="9"/>
       <c r="AD309" s="9"/>
@@ -33537,7 +33989,9 @@
       <c r="Z310" s="17">
         <v>4.7033247360438608</v>
       </c>
-      <c r="AA310" s="9"/>
+      <c r="AA310" s="17">
+        <v>4.6642848601025308</v>
+      </c>
       <c r="AB310" s="9"/>
       <c r="AC310" s="9"/>
       <c r="AD310" s="9"/>
@@ -33687,7 +34141,9 @@
       <c r="Z311" s="17">
         <v>2.8076716634106655</v>
       </c>
-      <c r="AA311" s="9"/>
+      <c r="AA311" s="17">
+        <v>2.6199031227322198</v>
+      </c>
       <c r="AB311" s="9"/>
       <c r="AC311" s="9"/>
       <c r="AD311" s="9"/>
@@ -33837,7 +34293,9 @@
       <c r="Z312" s="17">
         <v>0.84456428752081902</v>
       </c>
-      <c r="AA312" s="9"/>
+      <c r="AA312" s="17">
+        <v>0.8080459984782028</v>
+      </c>
       <c r="AB312" s="9"/>
       <c r="AC312" s="9"/>
       <c r="AD312" s="9"/>
@@ -33987,7 +34445,9 @@
       <c r="Z313" s="17">
         <v>2.8108811246705128</v>
       </c>
-      <c r="AA313" s="9"/>
+      <c r="AA313" s="17">
+        <v>2.5606831412931395</v>
+      </c>
       <c r="AB313" s="9"/>
       <c r="AC313" s="9"/>
       <c r="AD313" s="9"/>
@@ -34137,7 +34597,9 @@
       <c r="Z314" s="17">
         <v>1.0924950950364396</v>
       </c>
-      <c r="AA314" s="9"/>
+      <c r="AA314" s="17">
+        <v>0.9904234373988231</v>
+      </c>
       <c r="AB314" s="9"/>
       <c r="AC314" s="9"/>
       <c r="AD314" s="9"/>
@@ -34287,7 +34749,9 @@
       <c r="Z315" s="17">
         <v>1.3348418471065111</v>
       </c>
-      <c r="AA315" s="9"/>
+      <c r="AA315" s="17">
+        <v>1.0414678433092253</v>
+      </c>
       <c r="AB315" s="9"/>
       <c r="AC315" s="9"/>
       <c r="AD315" s="9"/>
@@ -34437,7 +34901,9 @@
       <c r="Z316" s="17">
         <v>0.87817171501765545</v>
       </c>
-      <c r="AA316" s="9"/>
+      <c r="AA316" s="17">
+        <v>0.27297983601606335</v>
+      </c>
       <c r="AB316" s="9"/>
       <c r="AC316" s="9"/>
       <c r="AD316" s="9"/>
@@ -34587,7 +35053,9 @@
       <c r="Z317" s="17">
         <v>1.8779717825180782</v>
       </c>
-      <c r="AA317" s="9"/>
+      <c r="AA317" s="17">
+        <v>2.0939421736390775</v>
+      </c>
       <c r="AB317" s="9"/>
       <c r="AC317" s="9"/>
       <c r="AD317" s="9"/>
@@ -34737,7 +35205,9 @@
       <c r="Z318" s="17">
         <v>2.4855319368141271</v>
       </c>
-      <c r="AA318" s="9"/>
+      <c r="AA318" s="17">
+        <v>2.5347180382950198</v>
+      </c>
       <c r="AB318" s="9"/>
       <c r="AC318" s="9"/>
       <c r="AD318" s="9"/>
@@ -34887,7 +35357,9 @@
       <c r="Z319" s="17">
         <v>1.0110250013298954</v>
       </c>
-      <c r="AA319" s="9"/>
+      <c r="AA319" s="17">
+        <v>1.0757482905384008</v>
+      </c>
       <c r="AB319" s="9"/>
       <c r="AC319" s="9"/>
       <c r="AD319" s="9"/>
@@ -35037,7 +35509,9 @@
       <c r="Z320" s="17">
         <v>1.2479178565891202</v>
       </c>
-      <c r="AA320" s="9"/>
+      <c r="AA320" s="17">
+        <v>1.3788003660771304</v>
+      </c>
       <c r="AB320" s="9"/>
       <c r="AC320" s="9"/>
       <c r="AD320" s="9"/>
@@ -35187,7 +35661,9 @@
       <c r="Z321" s="17">
         <v>1.040589178705847</v>
       </c>
-      <c r="AA321" s="9"/>
+      <c r="AA321" s="17">
+        <v>1.0348557717777909</v>
+      </c>
       <c r="AB321" s="9"/>
       <c r="AC321" s="9"/>
       <c r="AD321" s="9"/>
@@ -35337,7 +35813,9 @@
       <c r="Z322" s="17">
         <v>19.800422866275031</v>
       </c>
-      <c r="AA322" s="9"/>
+      <c r="AA322" s="17">
+        <v>20.018964686437108</v>
+      </c>
       <c r="AB322" s="9"/>
       <c r="AC322" s="9"/>
       <c r="AD322" s="9"/>
@@ -35584,7 +36062,9 @@
       <c r="Z324" s="17">
         <v>100</v>
       </c>
-      <c r="AA324" s="9"/>
+      <c r="AA324" s="17">
+        <v>100</v>
+      </c>
       <c r="AB324" s="9"/>
       <c r="AC324" s="9"/>
       <c r="AD324" s="9"/>
@@ -35682,6 +36162,7 @@
       <c r="X325" s="12"/>
       <c r="Y325" s="12"/>
       <c r="Z325" s="12"/>
+      <c r="AA325" s="12"/>
     </row>
     <row r="326" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A326" s="13" t="s">
